--- a/Game simulations/Week 16/49ers at Titans.xlsx
+++ b/Game simulations/Week 16/49ers at Titans.xlsx
@@ -57,16 +57,16 @@
     <t>TitansAvg. FPTS</t>
   </si>
   <si>
-    <t>JSU(0.10117468063459548, 4.99146596440416, 4.770048933814925, 57.58787570790246)</t>
-  </si>
-  <si>
-    <t>21 3 16 1 -7 -5 6 -3 4 -3 12 14 7 3 -1 8 -10 15 3 7 7 -16 7 -24 -2 8 2 -3 22 15 14 -4 -7 7 3 7 -3 3 -14 -11 -6 21 8 21 3 5 -5 5 10 -6 -13 -4 -2 15 -10 11 5 -3 -15 3 22 -21 19 6 25 14 -7 2 -3 -27 16 11 10 24 3 -3 -10 3 -8 -12 14 -27 -4 24 19 13 11 -5 15 -1 14 3 5 7 7 2 -21 -18 -17 2 3 5 7 23 3 19 6 -9 -6 -7 -2 -3 -1 7 14 24 14 -1 -4 23 3 7 20 9 1 -5 3 -3 32 -23 -6 0 -25 -14 3 -9 -3 11 16 3 -4 -21 -3 0 -7 -10 32 3 -4 13 -4 10 8 -4 3 17 -5 24 3 -3 -5 -18 -5 -1 21 14 27 10 7 -8 18 20 2 6 -1 25 -23 -3 3 -3 1 14 -3 10 -4 3 -4 -8 17 7 6 12 2 22 -10 22 42 3 -3 12 19 -10 4 12 7 10 6 -4 -6 15 -4 5 18 4 1 13 -1 1 20 -4 -11 25 13 2 -3 3 -7 7 2 14 -3 8 -9 22 7 3 -1 35 -10 2 -4 7 7 17 4 23 3 2 -11 -11 -1 20 1 -4 10 -5 -19 3 -7 4 -14 -14 7 -4 -5 4 4 3 14 22 3 4 16 9 -11 2 -17 3 7 -1 -7 10 8 11 21 3 -11 19 15 10 4 -4 17 -6 9 8 19 24 13 -6 -9 -8 4 -5 -17 6 9 24 11 3 13 -1 3 -11 -22 -4 -9 -7 7 5 11 4 14 7 -9 15 -14 17 10 8 1 -22 -3 10 8 -3 6 10 7 13 -10 7 0 -6 3 16 8 9 27 -4 17 9 7 7 22 3 -4 2 -3 -3 -13 8 1 5 13 9 -10 6 3 14 2 7 2 -11 6 -7 9 6 22 6 3 -14 18 -3 22 19 -1 11 -10 6 10 16 7 -14 20 2 -3 3 -7 6 22 -24 12 -11 -4 -7 -14 -19 11 4 27 -24 6 24 6 11 -8 3 10 3 13 -16 23 -1 24 21 19 6 19 6 10 -3 16 3 -2 13 22 -4 2 -27 -3 -17 -10 15 14 -8 11 4 30 3 3 10 -3 6 -2 -31 23 -5 11 -8 4 1 11 18 2 33 18 4 6 -8 -6 1 23 10 25 -3 23 -5 25 6 10 20 14 5 7 -4 3 -17 3 20 7 -10 3 -7 2 -7 -5 17 3 -16 1 -19 18 10 7 17 3 10 6 3 3 14 3 9 13 -9 6 18 6 6 2 -14 -11 17 -11 10 3 10 -4 -3 5 12 13 6 -8 21 -3 -18 27 -15 6 10 3 -1 19 18 2 20 4 -11 14 3 -11 -3 -8 14 -3 2 3 17 -5 2 -12 -14 3 29 6 -6 -2 -7 8 3 -3 -12 4 -1 -7 10 13 15 -3 7 17 -10 6 21 -3 4 -3 -15 38 -18 -10 3 -11 -22 7 1 3 25 12 8 6 23 -6 11 -6 23 2 7 -3 19 -7 -18 3 6 -4 17 -11 13 8 15 10 9 -16 6 18 -3 7 7 -3 6 17 5 -10 12 -4 5 22 -7 1 13 -7 21 6 -3 19 -10 10 -4 8 6 7 -11 -4 24 8 6 2 2 -2 -6 25 -4 4 -11 -7 15 11 -7 1 24 3 -2 -9 3 7 -14 9 -3 24 -8 -4 1 -4 10 12 -15 -29 7 17 -10 -5 10 -33 -14 6 18 3 11 7 13 -16 -3 -13 17 21 23 18 -10 -9 -24 3 4 -17 -3 3 -5 -2 18 6 13 8 10 2 -6 7 6 1 -1 -35 7 -6 6 -3 22 -17 3 -2 -11 13 -11 -21 -25 12 7 -7 -7 10 25 1 -3 -13 20 -24 18 -13 4 3 0 4 10 -19 -11 1 4 -1 -13 -3 10 34 28 -16 -13 -3 0 -11 1 -13 3 1 7 -1 14 24 3 10 11 -13 -35 17 3 15 5 -16 5 -2 -6 -7 3 8 -4 4 -4 13 19 -7 7 12 2 -3 -4 13 -10 14 1 25 7 17 -3 2 -12 -4 1 -8 -5 7 18 19 1 -10 -23 6 -3 6 -9 -10 20 -5 11 6 7 4 -15 -3 2 -7 17 24 -7 16 2 13 10 -3 -3 14 17 5 -6 3 8 6 -16 -12 1 13 7 -3 7 11 -3 29 16 25 3 1 6 4 3 11 -2 -3 -18 -7 -2 -7 -6 6 7 17 21 4 11 5 -10 -11 -7 3 -6 12 3 -2 19 -9 -6 3 28 -3 6 -7 -6 3 -11 -2 0 14 38 1 -4 -4 7 -11 11 -10 9 5 9 -8 -4 -20 -14 7 3 3 14 -14 20 2 7 17 3 13 -15 18 12 -10 10 2 1 28 -6 -25 -5 -5 3 -8 -8 25 11 6 -15 21 6 -17 10 7 -6 -4 -6 -3 9 12 -6 17 -10 4 3 -3 21 -22 -3 -6 -8 4 17 -6 7 -4 -3 12 16 11 3 1 2 3 -3 5 16 7 13 3 -5 -8 -8 19 11 -6 4 6 -5 13 -9 19 -3 17 8 7 -4 -2 16 -2 11 -6 10 3 6 -14 3 3 6 -14 -16 18 -13 6 -6 -10 3 -2 6 6 -1 8 3 -21 5 14 1 -7 4 8 6 -18 -3 -1 9 7 -7 19 2 -7 7 16 20 7 -6 28 5 7 3 11 7 -22 -3 -3 -13 13 -7 20 -18 10 7 18 3 -14 4 13 17 3 7 11 -3 32 -5 -1 -32 -3 31 25 13 11 3 -11 -3 -10 4 5 -10 -35 24 -7 -8 13 -1 4 3 -1 13 3 8 -8 -8 22 21 -13 1 28 7 11 17 7 24 -15 20 -16 -7 14 12 -9 13 -28 11 1 11 5 -14 10 32 18 5 1 -11 -3 4 12 -3 1 -2 17 15 -14 6 8 -8 0 -12 -5 2 5 -3 17 -22 7 -10 17 -3 -10 -14 3 4 5 17 27 3 3 -15 -3 6 -8 3 20 19 27 23 7 16 7 -4 -16 13 11 17 3 3 -3 -6 1 -3 14 -7 13 1 -4 -3 -21 -29 5 16 18 -7 20 15 21 17 14 9 15 -2 -6 -14 24 7 7 14 7 17 8 6 4 3 -3 -8 1 8 6 25 10 3 10 -1 2 11 6 3 -7 10 22 1 -4 4 -14 -8 7 6 18 -7 6 -5 7 10 3 -4 -6 -4 8 13 5 10 -1 3 13 -14 3 -3 8 7 -6 6 7 3 1 11 -24 35 8 4 21 6 -8 3 -17 14 -7 3 34 35 7 4 -32 -7 -27 3 -10 14 12 14 10 -3 3 -19 -19 5 11 6 7 24 -3 3 -12 16 -6 10 -7 0 3 -8 -7 4 7 -3 7 17 -4 7 -7 11 -14 -21 -11 8 10 3 -4 6 8 17 31 5 -3 3 28 14 1 3 3 -4 13 23 -3 -10 6 -22 10 8 4 7 -12 -4 26 7 -5 11 -11 4 -15 -7 21 -2 -9 7 7 16 -16 -6 10 8 18 -3 14 -3 31 -2 -16 -6 15 3 7 6 -24 17 -6 6 1 14 25 4 3 16 3 12 7 -13 -1 11 7 15 11 -6 -14 -23 11 -17 -6 -11 14 -10 2 -9 30 25 -6 -6 -10 -10 -4 6 8 -6 6 15 -2 2 3 3 -4 -14 16 -3 8 9 -3 -3 7 7 21 -7 -22 -3 0 1 26 -6 3 10 1 7 -20 -18 12 3 6 -6 -4 -3 -7 4 13 2 5 10 23 21 20 3 22 35 -1 7 -8 -19 -3 6 -6 -4 -4 -21 2 10 18 -4 19 18 -2 17 -3 -16 20 4 30 4 1 3 7 -24 25 3 31 -7 19 -9 6 -7 -34 17 7 -8 -18 4 18 -3 19 -3 3 3 -3 23 -25 5 15 22 3 7 18 3 9 5 -5 -7 6 7 1 -25 19 1 8 3 -1 7 6 5 -3 -6 7 7 3 -4 -17 -7 -17 9 -3 10 7 -7 9 -7 10 2 -4 -8 16 -10 14 -3 20 -1 22 -21 -4 -3 -6 11 -7 -11 24 -7 -2 -5 -3 -3 30 -11 17 -5 10 4 14 -21 -8 4 -1 11 19 3 -12 11 2 8 -1 9 15 -6 11 14 -7 8 3 -18 -1 18 -1 -2 10 -2 -8 11 -20 15 11 -4 8 4 3 5 9 6 -6 10 -5 10 -17 -8 21 -3 -1 -2 14 -14 2 -6 -7 -9 3 7 10 7 5 1 -8 -3 24 25 2 -21 21 8 25 -1 4 -6 13 -4 10 -4 3 13 16 6 23 11 9 32 -28 28 11 -10 -4 -13 9 8 -4 4 32 1 -5 20 -3 -4 -22 -3 9 -15 7 7 -8 -12 5 4 -4 7 -5 7 -5 -6 -3 -3 -6 16 1 17 3 3 -4 3 18 7 7 3 6 14 -3 -7 -13 -7 7 3 10 20 11 3 -8 11 8 -3 5 21 7 -6 -28 10 1 -3 5 7 -3 13 -10 -17 8 14 11 10 -5 5 20 13 3 9 -7 19 3 -3 -17 1 -3 0 7 3 17 -10 -3 9 7 10 6 -16 -11 17 11 -17 -3 1 -17 6 -7 -6 5 -17 -4 5 6 2 9 -2 -14 10 -1 -11 -3 13 -4 12 7 -17 -5 6 11 -5 1 0 24 8 0 9 10 29 -9 10 10 7 3 1 -4 19 -4 7 3 6 13 3 4 27 -4 8 10 15 -3 -5 17 -6 -8 11 7 3 3 9 -3 4 -6 -7 3 -10 7 -4 6 6 3 3 7 -5 3 5 10 7 25 6 -7 3 9 3 -6 3 -2 -3 16 -8 -21 -14 -31 -3 21 3 -2 -15 15 29 5 -2 4 -20 14 3 10 10 3 1 -1 3 24 7 -9 17 21 -7 11 -5 -10 17 -3 9 13 3 26 -3 17 17 2 -4 17 8 7 14 -15 -1 -3 12 11 6 -2 8 -4 -3 -10 4 31 -13 -1 -5 -6 10 17 3 15 14 -3 9 10 -5 -4 0 1 18 -24 3 -13 11 1 -17 -1 3 14 -7 -9 4 -7 8 10 -3 9 21 -10 -4 7 0 -17 8 7 -3 -4 7 -14 8 9 8 -1 2 3 -5 5 -1 20 -21 7 10 15 17 7 4 9 -3 -3 -3 11 17 -14 7 -17 -6 13 19 3 9 11 6 3 3 0 15 6 3 17 4 -16 19 17 3 -4 3 11 7 -12 10 3 14 -7 -2 10 -8 -10 7 3 19 14 -7 -4 -8 3 5 -16 -3 10 3 24 10 9 20 -2 -2 14 28 3 -1 16 17 -6 7 6 5 13 -4 12 1 -5 7 14 14 6 23 12 10 3 3 20 -4 15 9 -8 20 6 2 17 3 19 -2 0 -4 16 -10 2 9 -3 6 -14 10 3 9 -1 -23 -14 18 18 14 -4 13 -8 6 27 3 6 24 9 3 7 -21 11 -17 13 -20 16 0 -4 23 14 -21 17 6 1 27 7 3 6 7 8 13 -6 16 8 -7 8 6 -1 20 6 4 -5 1 -24 14 -21 11 -3 13 16 6 21 -17 10 -34 6 2 3 24 -27 -2 3 4 -3 -8 4 7 5 3 -3 7 1 21 -5 8 20 6 -19 -11 8 -5 -9 7 6 -15 10 11 14 10 4 -9 23 -3 -2 9 6 14 -11 10 9 21 -3 -2 14 1 20 4 -6 10 14 23 -3 22 -3 21 6 3 28 -16 -5 18 10 14 7 7 -14 21 3 20 -1 -27 -21 15 20 10 3 21 -20 5 12 -7 20 2 -6 19 6 -10 3 -2 14 -12 11 11 -4 -4 4 3 2 -3 17 -7 -10 -9 7 -21 14 24 -3 -3 18 6 14 3 -1 1 -4 14 3 10 4 4 -24 21 17 7 15 13 -6 17 -14 14 12 8 1 -3 11 3 26 -3 3 6 -25 -13 3 -14 11 5 28 13 27 7 3 29 10 6 3 8 3 13 -7 6 4 -14 12 7 -17 3 9 -7 -13 10 -15 22 1 -3 -3 -3 -6 -11 6 7 -14 11 -8 4 13 6 -24 10 13 6 17 -8 6 18 2 -8 -4 -10 8 3 -14 16 12 37 3 3 3 -4 3 -4 8 3 3 6 21 15 -10 -8 -19 -7 9 6 4 20 6 7 15 5 -6 21 -2 0 25 -12 22 -12 -7 2 11 4 -13 3 5 8 6 -10 -7 10 3 5 -18 -7 -25 -3 9 -6 6 3 -12 6 4 6 41 -17 0 24 13 -10 4 17 11 11 3 15 15 11 2 16 5 -14 2 1 6 -7 21 25 -15 3 27 10 -29 9 -3 -3 6 10 -1 -9 -2 -3 4 10 11 2 -14 1 20 11 13 1 9 -17 -19 -14 1 11 3 1 31 -6 7 14 8 17 10 9 7 9 9 -14 10 -3 16 4 -1 -19 6 -6 13 37 3 29 -4 14 7 14 20 12 7 10 -9 24 15 -11 14 -5 16 6 11 5 4 21 -14 -14 -6 2 17 -11 -6 13 6 6 3 7 -13 5 0 5 30 6 1 -4 7 -4 3 19 -4 -14 -3 14 -17 27 -9 19 22 -7 -3 18 3 4 27 -3 6 2 13 15 -3 17 10 22 6 -12 -1 -16 3 -3 2 17 8 3 -19 8 -7 7 3 6 4 7 -6 -11 7 10 12 -13 8 5 -3 21 21 -3 13 -7 -6 -5 -2 2 7 -28 21 7 10 0 6 3 10 -14 3 3 17 -23 17 -39 -5 8 8 14 1 18 25 -2 -8 13 7 -21 -3 6 21 5 23 24 25 -6 -19 10 6 14 -3 17 -7 17 -3 -1 5 30 -6 10 3 0 6 6 9 -3 0 27 21 3 13 3 -12 3 4 11 -4 17 11 7 1 2 22 5 24 -6 -3 4 9 12 9 -1 -7 23 -3 7 23 13 -6 -8 0 -14 -14 31 8 12 -3 11 8 -4 22 -11 3 3 -11 7 -4 -2 -12 -3 3 7 30 11 -7 -7 -7 5 -11 -4 -15 4 3 6 10 6 33 17 -16 -9 10 8 -6 7 -3 -4 24 21 13 -11 14 8 14 27 6 -6 4 6 -4 3 26 4 21 -18 4 11 9 -12 10 28 13 5 7 -3 11 19 -2 10 20 11 3 -3 -2 3 -23 -11 19 -9 -5 2 17 10 16 7 13 4 10 -21 8 12 -17 4 -7 27 10 14 3 -7 21 20 -26 -2 12 7 6 -5 1 3 -4 2 9 -5 3 -11 14 -10 -20 -3 -7 -6 17 5 3 2 7 27 6 16 20 25 -10 -4 27 7 14 28 3 10 -3 -10 -4 6 3 3 8 17 17 13 20 7 21 5 1 -17 9 10 7 15 6 32 -3 13 -7 -6 4 -16 1 3 -14 -4 -14 6 8 -6 8 8 26 8 -2 9 3 1 -19 -10 -4 -12 7 6 -8 -7 1 21 26 10 -9 20 3 -6 -3 16 7 7 9 34 3 -1 18 -17 3 17 -21 9 4 -1 -14 7 -4 -3 25 4 19 5 -3 -7 4 14 7 2 -7 5 4 3 11 -7 27 -13 6 15 -3 -10 5 -6 -7 -32 27 7 17 -7 14 14 3 -7 -3 -15 -8 -6 -9 5 -3 14 -3 6 -3 6 -1 -7 3 -2 22 -3 -4 -17 8 14 -4 3 31 3 3 -11 -7 -1 13 -10 7 17 6 20 -10 -3 6 -7 0 18 -11 14 20 -6 20 -1 3 -3 4 2 -17 14 -3 17 13 7 14 35 -3 -3 8 36 -8 -9 8 23 -11 -18 -6 -10 3 22 35 13 7 -30 3 -18 7 11 -3 -37 20 3 -3 -7 16 -7 13 3 9 -1 19 4 20 -3 20 -38 -15 -6 5 -5 7 -2 -2 13 -12 12 -3 8 3 6 -18 3 -1 -15 13 3 -3 14 8 3 6 -6 -5 -18 -10 -13 10 -8 15 6 -3 3 -29 6 11 -6 3 11 -14 9 13 8 3 7 15 2 -20 16 -14 -4 18 18 -4 0 3 -13 7 -3 4 -3 -13 20 4 8 10 16 20 -4 17 -4 -10 6 24 9 14 15 19 -6 5 -3 7 12 -24 5 5 16 -16 15 -2 3 6 -12 7 3 3 -1 -1 -17 -17 10 20 6 10 8 17 7 5 1 5 11 -17 3 -8 -7 -11 4 -8 -14 15 -21 3 14 -3 7 18 4 -3 -3 17 16 -2 13 -13 4 -11 -14 -6 18 23 10 -1 -19 9 29 18 2 -15 9 3 4 26 12 3 -20 7 -3 -13 -3 13 -10 25 -7 -14 3 -10 -2 -2 -7 12 2 -2 -3 1 -3 14 1 21 11 -5 5 -11 6 -10 18 4 -16 7 20 7 7 10 -4 -6 12 6 -1 -20 34 -3 15 -6 -4 34 -14 -2 3 7 -11 -1 6 -6 10 3 7 17 -2 1 31 5 -3 -6 17 10 6 8 7 3 -12 -7 -8 -3 10 0 16 14 6 3 -11 22 -10 23 -14 -5 -6 -14 7 7 5 -3 3 14 -2 3 3 -3 -13 8 -3 10 7 6 28 -3 9 -8 -6 22 -3 -14 2 3 -3 9 14 18 0 -5 -13 11 17 -7 10 25 -5 19 -14 24 1 23 -3 7 -3 -7 -11 -5 17 -31 -4 -20 12 6 19 7 2 9 10 16 -1 -3 4 18 -2 19 25 4 10 7 4 5 -7 4 7 6 13 28 14 -14 6 -13 10 22 -5 -3 -12 12 3 14 -2 -17 18 11 5 0 16 14 8 -10 4 0 -8 8 -11 -8 9 -3 -6 14 21 4 16 3 -3 -19 10 14 19 4 9 -3 3 6 -14 10 -2 -13 7 -10 24 9 16 -3 -13 24 6 -13 4 3 -10 -5 -17 -10 -6 4 18 -9 7 7 -6 23 -3 3 -3 17 0 8 13 -10 3 -4 -8 -5 18 2 3 22 -24 26 17 -17 -7 5 -6 10 -11 -11 6 5 6 -15 10 -24 -24 14 22 11 -9 7 10 21 -3 17 3 -14 -6 -14 -10 7 4 21 11 -11 -11 -5 -3 25 6 -25 -12 -7 11 6 -28 -6 10 16 10 18 13 -14 -5 -4 -3 13 -10 -12 -7 -5 -18 15 -20 8 -18 -1 -7 -21 16 7 13 11 -2 -5 -6 16 -7 -3 5 11 10 -16 6 24 4 -14 8 0 -3 -6 10 21 -17 34 10 8 6 11 7 1 24 14 11 15 15 20 -3 15 3 33 10 3 19 7 -2 27 12 24 1 3 -3 -2 42 -3 13 15 3 -20 6 29 7 3 -3 5 -17 -21 5 36 16 -38 6 8 -14 14 38 -7 -3 23 42 10 3 3 13 -3 -7 12 -2 11 -3 8 13 -5 14 -18 -7 8 8 18 12 25 -7 3 3 9 -14 -18 -2 24 -4 -18 3 -6 -6 5 -6 -14 31 13 -13 5 -3 10 -5 2 17 8 -37 12 14 11 9 -35 -33 -2 6 5 20 4 -3 -8 34 3 11 6 1 -14 -6 6 3 5 -9 18 -9 16 -8 18 5 3 3 -9 7 13 4 -2 10 3 -10 -10 0 21 -11 -17 19 -6 -6 12 -17 10 21 -13 5 24 10 -14 -4 -3 -10 0 -5 -3 3 16 -8 -3 -3 -24 7 7 -6 14 7 -7 11 13 -7 -1 11 -11 4 -2 -7 14 21 -3 17 10 20 25 -4 29 9 -21 6 5 4 1 3 3 6 28 -6 6 17 5 -7 5 -6 -8 -13 15 -4 6 3 1 -3 1 8 10 16 -11 -11 13 -3 26 1 5 -6 8 18 -17 -3 13 4 3 26 9 7 10 0 5 -13 -4 7 2 19 21 23 18 16 -10 3 17 19 -8 7 7 -3 12 8 7 -14 2 34 -6 10 6 4 -5 -1 15 7 4 6 -6 6 -5 -7 8 6 4 -6 15 -2 10 14 6 7 -8 16 -2 20 8 3 1 13 -4 -3 8 28 7 10 2 7 19 5 15 2 -14 -20 7 -1 -8 -17 -7 -15 -13 9 -1 6 2 -4 3 7 -11 -17 1 -2 18 14 22 23 -7 0 -3 7 3 3 34 7 -5 10 8 1 6 1 -27 14 8 3 10 34 -3 -15 -27 -9 3 -10 -5 -14 16 1 -15 8 22 -3 -22 35 16 -12 16 -10 -11 4 3 3 14 -3 1 28 -3 -13 10 8 14 1 -2 -3 7 29 3 -13 29 -12 -3 2 25 14 12 6 18 6 3 12 -14 13 -10 7 -4 2 9 14 -7 23 -26 8 -21 -5 9 12 24 25 -1 17 -6 1 8 24 7 -1 -10 11 -10 -17 -3 -12 0 -8 5 10 5 3 -9 21 -8 -16 -8 7 15 10 10 6 -3 -14 -3 5 17 10 26 6 2 -3 14 28 -6 8 7 22 1 3 4 7 -5 -3 -2 20 16 3 21 25 6 21 -2 -23 -3 18 21 9 5 11 7 -12 6 19 10 -3 -14 -7 -11 28 7 4 2 4 -6 -6 -6 -11 -3 7 12 15 16 19 -8 -14 19 10 30 -10 7 10 3 -7 -11 -14 30 18 -14 13 3 -21 34 17 -3 17 -23 3 7 -7 -6 -8 3 20 7 10 20 -5 4 5 -17 12 23 3 3 7 -3 11 3 21 3 -3 -9 -8 17 -7 8 3 21 14 3 18 7 -3 -9 5 7 15 3 -5 1 7 -7 14 25 -2 3 1 11 24 -1 3 3 21 4 -3 -4 -8 18 -22 5 -6 -1 -3 0 9 -8 -2 3 15 -13 -23 -2 8 4 -20 -3 -3 27 7 14 15 17 13 0 5 21 22 27 12 7 6 6 -13 7 8 5 12 -4 -10 19 7 -16 12 7 1 -2 -6 -14 -6 -4 -6 14 6 -4 6 -6 -21 21 3 14 8 11 11 -3 19 14 3 -11 7 -3 13 16 25 11 6 -12 -10 11 15 -3 8 4 23 -5 2 7 7 11 6 12 -8 -1 8 -10 -31 5 -4 3 4 6 -3 -20 18 4 6 11 1 -6 9 -10 4 8 7 -14 -11 -3 3 7 21 -4 -13 10 12 -2 12 23 7 2 9 8 17 -17 5 14 8 6 21 -4 6 -3 3 17 8 -17 -11 6 17 12 -15 -1 -7 -2 4 3 25 1 -7 -3 8 4 17 -7 -14 1 -10 12 3 3 7 3 10 3 -11 17 7 7 10 10 21 -6 -8 24 21 -8 13 13 10 -11 7 -9 13 -8 13 3 -10 24 7 -4 9 21 -4 14 -12 3 -14 4 -6 18 -3 10 -7 -17 -9 6 13 4 -15 5 14 4 18 7 21 3 -16 18 7 5 10 2 -8 3 17 0 2 -20 17 -7 17 4 3 -7 7 -14 7 3 -2 9 -18 10 -5 9 -3 12 -14 18 3 -3 -23 6 -24 14 7 6 2 -1 7 1 -5 19 31 2 3 10 8 3 0 8 6 10 -4 -9 15 -10 -1 17 -7 6 -15 27 -14 3 8 9 -2 10 -3 3 3 10 12 -18 4 6 34 3 12 8 -5 -20 14 -28 -4 22 10 -14 -7 30 -3 -21 -24 9 4 -11 5 21 4 19 -6 5 -6 14 -11 3 16 10 5 8 3 3 9 3 3 17 12 1 6 -14 2 13 -1 5 11 -11 7 21 -10 4 14 -4 13 -7 12 10 18 3 -3 -11 -10 7 3 4 -6 -22 31 7 20 24 6 8 6 7 10 3 4 -7 4 -10 -17 2 -11 -3 10 -8 24 -3 21 3 2 -10 14 -12 2 4 -3 -21 16 3 24 21 -20 -3 -1 -23 4 -9 11 -7 3 -2 7 3 17 22 -11 -5 23 11 -10 -14 5 3 3 7 -6 -9 -6 15 4 -8 5 -3 34 -3 11 10 14 8 16 3 6 -19 3 -9 5 6 19 -2 -11 6 -3 6 8 3 6 3 6 -8 30 3 11 7 6 17 14 -4 -27 2 5 25 3 6 7 19 -3 12 -6 18 -4 3 4 13 -1 -3 -31 17 9 14 -3 3 2 15 -4 3 7 -21 -11 8 24 0 3 10 8 3 -3 29 3 1 7 -9 18 -3 -12 20 19 11 0 14 7 14 8 -2 -6 7 -17 14 -11 -6 10 13 15 -22 -3 12 -2 6 25 -28 3 8 4 3 -3 3 22 -3 -8 20 6 -17 17 -8 35 7 -11 -4 -7 9 3 17 3 11 -2 11 -6 -17 -8 14 4 -22 3 -14 3 -8 20 15 21 -8 5 -6 2 20 14 11 6 -11 10 -15 -3 1 -5 20 27 -1 21 3 11 3 -6 -4 -10 -16 -10 -3 3 -4 14 3 -6 -7 11 -6 6 6 7 6 -3 3 -3 3 -3 -8 11 6 23 34 25 26 1 14 7 12 6 16 10 3 7 13 6 3 5 29 -20 11 -11 -3 15 -1 1 42 6 10 -3 -8 1 -1 -7 -10 7 -2 -10 -5 6 10 -1 22 17 14 -10 -7 6 14 30 18 1 21 3 -9 27 14 17 29 -9 -1 -3 5 21 6 -5 -7 3 10 6 -15 11 18 -4 29 3 -17 14 -3 -5 1 8 -12 3 14 3 7 4 -13 6 22 -26 6 7 -7 7 24 19 -22 -3 23 22 8 1 5 23 4 -5 -6 -1 5 -9 7 27 17 12 -3 10 1 3 15 -14 -13 3 8 3 19 20 12 13 -15 30 -5 20 16 4 6 19 14 6 3 5 1 -2 24 -7 -1 27 -2 4 -11 25 -5 14 3 7 -3 12 -16 1 -14 3 4 -21 3 19 2 14 -6 -9 3 37 3 -2 -15 -7 18 -15 -15 -3 7 -3 3 16 6 13 14 18 13 -9 3 -7 3 9 24 17 3 4 -17 -9 13 27 3 3 -14 -14 13 10 -3 11 7 3 -3 -3 10 12 17 -5 -3 3 -13 4 -3 -4 2 6 11 20 23 -3 -11 -12 6 -14 6 -3 -20 28 5 -4 4 -6 18 -3 3 -6 9 -13 4 7 -1 12 18 3 -5 -30 13 -6 -5 7 -18 -24 7 18 25 27 27 11 -4 5 -5 27 15 -10 5 -10 10 3 7 -3 -6 3 21 6 -14 4 -18 -28 -14 7 -10 3 -4 -6 17 3 5 -4 7 0 -15 6 -5 13 -7 9 17 -3 -15 4 -11 1 11 14 6 10 -1 6 35 -18 11 13 -3 32 -4 15 -11 14 -4 -3 6 4 7 8 18 3 14 3 9 1 15 18 11 14 7 -4 12 -6 17 -7 -9 16 27 23 -3 5 21 3 -6 2 -6 -11 28 21 6 15 10 14 7 6 17 3 3 -4 3 -7 6 18 -17 -7 3 -10 3 -20 24 -5 7 -5 6 7 2 -5 -27 -3 -3 7 13 21 -6 3 3 -13 3 8 23 9 30 -17 1 1 -2 1 -3 -4 21 -7 14 -7 27 15 3 -17 7 8 -2 -5 8 -1 13 6 21 5 7 -4 7 -7 -2 22 15 8 16 -7 -13 21 -7 21 -3 -18 9 -4 3 -6 7 17 7 3 12 3 -3 2 -4 -2 7 21 -3 14 3 11 3 -14 4 4 3 -11 3 3 1 -31 34 6 5 -3 1 -7 -4 -1 -8 -4 9 21 16 -6 -11 -14 14 15 -3 3 13 10 4 -4 -10 -17 8 3 -10 8 7 -5 5 24 -1 -3 9 -15 9 16 -3 38 18 7 -11 14 -1 -4 14 1 13 -2 4 18 -16 17 13 20 21 3 -3 3 -5 10 3 6 11 -3 -15 -1 -4 29 6 3 -7 5 -2 11 4 6 13 -2 11 -3 6 8 24 -3 7 -24 -10 5 -3 5 18 -11 19 4 -7 -5 8 -18 2 13 14 -3 11 3 7 -7 6 -8 6 -5 23 -12 -7 14 4 14 11 21 -17 3 14 -6 -18 14 12 19 14 2 -10 17 14 -3 -10 -7 -4 -14 -9 -10 -6 7 -3 15 3 6 -6 10 -3 3 24 7 12 10 -6 16 9 14 14 -14 3 13 -19 18 18 23 3 14 17 3 -11 10 17 -4 22 6 -6 0 17 20 14 -6 7 9 11 3 10 -3 26 12 19 5 4 30 6 10 -11 7 14 -11 -2 15 6 18 6 -4 13 14 14 17 3 -1 8 10 -17 -28 13 10 2 -16 3 3 4 10 20 -17 3 12 -1 16 17 -3 -28 -6 10 -12 5 -15 5 12 1 -11 4 10 18 -3 -6 -16 -6 15 -3 11 7 7 3 -3 6 -13 -12 -4 2 -15 17 -11 3 7 -6 -13 17 -9 -5 -4 -3 -20 3 11 8 -16 4 45 7 -3 2 -4 -13 3 13 -7 11 18 -11 8 17 3 2 21 3 4 11 -14 12 -13 -4 8 20 9 15 3 -6 10 10 5 21 4 -5 10 -11 -10 -8 -3 -8 6 -12 4 7 6 16 -4 7 3 -7 10 5 4 0 5 -1 8 -14 31 -1 7 -11 2 30 0 5 5 20 -19 -17 13 17 19 17 -7 30 20 22 24 -3 15 0 -9 20 20 -7 3 -21 10 -6 7 -3 7 5 9 17 11 3 14 13 7 1 6 19 -3 6 -7 -6 -18 -4 17 21 -4 12 9 20 13 10 -10 9 -2 32 -19 25 11 7 6 -20 12 2 7 29 -3 21 3 17 16 -6 23 1 -3 3 15 -16 27 14 6 -11 -7 12 2 7 17 14 3 4 -1 -12 3 13 14 4 30 -8 11 7 3 10 10 9 23 -15 6 2 3 2 -18 -17 3 16 5 1 3 -7 -7 5 -25 16 9 18 6 7 -4 -13 -13 26 4 -2 11 6 -16 21 3 1 -6 1 24 13 7 20 5 -11 5 13 7 -7 -2 -16 15 -8 -8 -4 7 12 3 8 3 3 7 -20 -4 12 -13 26 -6 0 2 17 -4 3 -1 7 8 -21 0 7 -6 -7 -3 2 28 5 11 15 7 -9 16 8 9 -8 13 9 -10 13 0 21 2 1 17 1 -6 21 8 -4 2 -1 -6 11 -4 11 8 1 24 6 -3 32 3 12 0 19 4 20 -7 8 -13 -1 20 -11 20 15 10 1 3 2 27 -3 -7 6 6 14 27 -17 0 6 12 3 8 4 3 17 -16 -7 -17 -9 8 3 3 10 -8 5 7 10 10 3 7 3 14 -31 17 -6 6 -2 4 11 38 3 -3 -17 6 -3 14 6 -4 -6 8 21 -11 -2 5 3 -6 7 1 3 -8 3 -18 3 -1 -2 -3 17 3 6 6 10 -10 33 4 12 -8 14 8 11 -7 15 14 3 25 -5 -8 12 -17 -4 -4 -25 6 20 -3 3 10 6 3 20 6 19 -11 0 16 14 0 4 0 -8 9 6 -21 -3 14 9 3 3 -31 -4 5 1 -11 19 24 11 10 3 7 20 8 -6 7 3 19 -3 8 11 9 7 31 -10 -7 -3 26 3 3 -4 30 25 -5 2 17 20 -15 5 3 -3 -6 3 8 10 -6 -3 6 17 14 23 -23 5 7 21 10 -16 15 -6 -3 6 17 34 -12 -14 -7 18 3 3 10 14 -2 5 -5 7 2 -11 -3 15 -7 -27 3 20 26 20 16 -5 -6 6 7 -17 3 -1 4 1 5 -7 8 -4 10 -4 15 10 -18 10 -8 -2 19 -24 14 14 11 -1 4 10 -3 -6 -7 4 2 18 -3 11 19 -3 -1 -9 -10 -7 3 14 3 3 3 9 11 -2 -24 -5 -7 -10 -9 -4 1 -10 24 22 28 6 -3 18 -2 5 6 4 3 8 -7 5 3 3 7 0 -4 -7 4 14 -14 11 21 27 -3 -3 -17 -7 -13 21 -19 -11 -3 -3 12 13 -9 17 18 -7 -10 13 3 -24 -17 8 -11 -10 17 8 3 31 9 16 -3 42 -10 6 -6 6 23 6 -5 -3 -7 -7 -10 14 4 1 -7 8 3 0 10 -1 -24 6 14 5 27 26 -21 13 10 -7 -17 -14 5 14 9 16 6 18 9 -3 25 -7 -6 6 31 -3 -7 3 -22 -7 -9 -17 -14 -10 -3 8 3 8 -13 -2 1 2 -3 -16 6 7 9 -6 3 12 18 23 3 26 -10 13 3 6 5 -4 3 -21 11 8 7 10 34 -3 3 -14 18 25 7 -5 -27 -1 2 3 8 21 2 12 7 13 20 3 -7 2 8 -26 27 21 -3 5 10 -4 17 8 -14 -7 2 21 -9 0 11 14 7 12 6 -11 21 -3 3 -6 3 1 11 14 10 3 11 14 17 7 -6 9 6 -1 37 5 29 -3 26 4 2 -3 3 10 -5 3 -6 -4 3 20 14 -1 6 -6 11 3 -5 13 -28 27 6 3 20 5 16 19 -27 6 1 10 1 4 6 -3 -1 15 -10 7 18 -4 14 5 -5 -10 3 7 6 3 6 -3 14 -4 9 -13 10 14 6 7 -2 3 13 -9 -4 3 -3 19 7 19 -17 14 6 -4 14 -3 2 7 -7 13 -14 -11 3 3 -3 17 0 -13 4 3 -6 -17 13 -3 7 -3 -19 3 3 -10 -3 -5 16 -4 3 -14 13 16 1 -24 6 3 6 3 8 14 -8 27 17 15 6 27 -7 -19 -7 -7 18 -14 20 -7 12 -15 4 -18 -14 7 1 16 23 20 22 3 3 24 24 12 6 4 -3 -5 13 -4 3 3 17 -3 1 -7 6 -3 13 -6 -8 3 -4 20 3 5 2 7 -1 14 -7 -14 -1 -12 10 21 -13 -4 -18 4 11 -14 -7 -4 28 11 20 7 -12 -2 4 17 -3 -2 3 -5 -37 6 18 1 5 5 3 8 1 11 -14 7 -6 7 -14 4 17 3 3 0 3 -5 -3 7 -6 5 -6 -3 14 7 -13 14 3 -10 13 9 6 3 20 3 17 -6 11 11 14 4 2 -12 -13 17 14 13 -6 2 -8 10 0 20 13 1 -5 -13 10 6 6 -11 24 -8 -7 -2 3 11 -34 -1 12 10 -13 -1 14 24 -14 -2 -12 -15 10 7 9 6 17 13 7 -6 -3 14 10 14 1 -10 13 3 -24 -8 8 -6 29 -7 21 -1 23 11 -3 23 -7 23 0 -7 6 32 -14 -6 -6 -17 -7 30 -13 -14 9 -9 6 24 -6 -3 13 3 21 3 -10 22 14 6 10 2 4 10 4 6 -22 8 13 -4 6 10 15 7 -3 2 -7 -11 13 7 -14 -4 24 23 -4 7 26 3 3 10 3 12 -37 -15 -8 6 17 4 -14 -3 3 6 10 -1 4 25 -6 3 7 3 25 15 1 16 -2 25 6 7 24 6 -13 -16 15 16 11 7 -8 13 3 6 3 25 1 -3 -1 21 -3 3 7 -12 7 5 6 4 -18 -26 3 1 4 -4 9 -21 2 1 14 14 -14 7 13 12 6 23 -3 5 3 -17 9 10 -8 -3 -5 10 28 -14 21 6 -1 11 3 8 5 6 -6 16 -3 -16 13 -5 14 17 20 3 4 2 6 9 8 17 -12 2 29 -17 23 2 -3 -4 -6 -10 -16 9 14 12 7 10 6 14 13 -10 7 10 2 4 5 13 7 -31 6 -5 -23 36 14 -9 3 -8 1 7 11 3 -12 -3 -4 4 33 -4 7 8 -3 9 -17 -5 25 -7 5 10 -27 14 -4 6 12 -3 14 11 -14 7 12 -15 -6 -2 8 -24 3 17 7 5 20 8 28 13 3 3 -11 5 -23 10 -13 11 5 11 3 7 -16 -3 17 1 8 -3 -10 -11 6 -3 9 -10 -11 17 -21 6 7 3 -8 6 14 -7 -3 1 15 15 -3 18 -8 16 7 3 9 21 10 -14 3 3 -3 3 -5 -14 17 -20 13 8 -7 11 -10 1 -3 16 2 6 -8 17 14 2 16 -8 -7 4 -3 8 17 8 10 2 10 10 11 2 3 10 23 20 6 2 8 -5 12 7 6 6 18 9 8 -14 -3 3 3 14 13 8 -3 5 33 -2 3 17 20 5 14 12 4 5 9 -6 -4 -4 -6 -13 3 20 22 4 -7 -13 -3 -3 -1 5 13 -6 -2 -15 27 7 4 3 25 -3 10 18 38 -2 9 2 10 8 2 -3 13 19 -8 7 7 -22 6 -15 -15 7 -8 0 3 10 -3 14 4 3 -14 -10 14 -6 -3 -3 -6 3 13 21 3 14 9 -17 13 9 19 3 17 19 18 48 -13 -7 14 9 3 2 32 14 -7 -14 -17 -4 6 -6 3 -4 9 13 -2 21 -4 2 6 10 -13 5 8 -3 8 -3 -10 13 13 -5 -14 -1 21 4 6 4 -10 -17 6 14 6 7 -10 4 -4 4 -2 -8 0 13 17 7 3 -5 7 3 -8 -6 6 -3 -1 -22 14 -4 10 -17 -3 17 -18 17 -3 -4 -14 -2 23 -3 18 -3 7 12 -18 3 -22 -1 8 1 -10 13 -17 -1 20 -3 6 -6 10 3 3 15 15 3 19 7 15 -12 -16 4 18 3 15 23 19 -10 6 -1 3 6 10 5 -1 18 16 8 18 -12 -3 10 -8 -7 2 22 4 14 14 -15 17 7 -5 -3 -9 14 16 16 -18 -17 -15 -11 5 -26 -3 9 4 -8 4 10 -12 -2 24 -23 -10 -5 -18 16 1 -14 17 -2 14 1 -7 7 16 10 -4 -15 -3 3 -3 17 9 -10 15 3 5 3 34 13 -4 6 2 -3 29 1 -14 3 -10 -11 -25 -5 -2 13 9 13 4 6 10 -20 1 17 -8 -16 -12 32 10 -3 14 19 -1 -1 7 10 -2 -7 6 -6 5 18 11 18 6 22 14 15 7 -1 19 8 -17 13 -10 -9 -8 11 10 -14 -20 -1 4 21 -8 12 0 15 -7 14 3 -13 -4 13 28 -16 3 23 14 14 7 3 7 -19 3 -3 -2 6 -15 8 1 -5 1 -2 18 1 0 4 2 7 -6 3 4 -9 7 -2 -7 -13 10 -2 -10 -10 9 12 30 -19 3 3 -2 10 8 4 -15 5 -8 -3 26 22 20 -3 7 21 0 8 17 11 18 -11 3 -3 -17 -13 -7 10 14 32 -6 -3 -7 3 13 3 3 8 3 -3 -10 15 -20 7 27 2 3 -4 3 -17 11 21 -14 3 25 18 2 0 -2 3 -2 -1 7 3 26 8 22 3 -7 14 14 -7 -24 -17 9 -24 3 4 -11 1 11 7 7 -10 -20 7 -3 1 -3 -7 -17 -22 -3 2 11 -5 5 -3 -15 -20 12 11 17 -2 2 3 -3 8 10 -4 27 4 -9 -6 -8 3 -1 15 -19 14 6 10 25 9 -3 6 14 0 -7 7 21 -4 1 9 -2 -21 -26 -21 -11 -7 3 4 14 5 11 -6 6 8 4 13 7 7 -15 10 10 -6 3 5 23 0 10 7 5 9 -4 10 18 -13 15 6 -3 3 -17 3 10 4 3 -4 5 21 12 11 5 14 -9 1 -11 6 -6 3 -4 -17 -12 13 -2 -18 25 1 -2 -21 -7 20 6 11 -12 -8 -9 -8 18 3 14 14 1 -18 14 -5 -3 -17 12 4 8 7 31 -19 -5 7 5 -6 11 11 10 30 3 -10 6 7 -10 8 -6 -11 -13 -5 -3 11 3 -7 6 18 17 21 7 -16 33 8 3 -14 -3 3 -3 -7 5 4 1 -11 -18 -13 6 26 11 2 3 -15 10 -4 21 22 5 -2 18 18 -12 2 27 5 -11 -6 -17 -4 4 2 -8 7 6 3 30 11 21 -6 16 14 -3 6 -2 -10 -30 7 -14 3 -7 1 5 16 2 -11 -3 4 8 -5 19 -14 5 3 -3 -7 -7 -10 7 48 10 3 15 1 3 -5 -7 20 6 8 17 -18 12 -7 -14 -3 -8 6 -12 12 -10 23 10 -21 21 6 2 8 -1 -17 -11 -4 -5 14 -21 25 -7 5 -5 5 -4 12 -3 -6 -8 11 9 8 4 5 -3 -3 22 -9 -18 -3 29 -9 12 -7 -4 14 -3 30 3 2 -9 41 9 -3 13 3 18 14 -5 3 9 4 -15 -12 15 20 8 8 6 4 -9 31 2 4 -3 -8 13 -5 10 20 10 14 15 6 4 -14 27 7 -11 4 4 -5 10 5 1 3 5 0 3 14 -2 -4 -4 -3 -17 4 6 12 -2 -1 14 15 3 -3 15 14 7 28 -6 28 3 23 -8 -11 15 6 -4 5 3 -10 18 4 -13 11 8 0 14 2 0 -4 5 10 35 7 11 21 19 -8 23 3 26 9 11 3 10 -17 24 -6 29 3 -7 -17 -19 18 -3 25 24 3 -18 -10 18 14 11 -6 13 20 3 9 11 17 10 7 -7 7 20 20 11 3 6 -3 -23 -5 6 9 31 -11 -17 -11 -7 -17 28 -4 -4 -4 3 18 12 3 3 -10 -2 20 7 11 2 -13 -17 -15 -13 14 -12 5 -3 25 -8 6 3 14 6 -8 -5 1 7 4 3 29 13 8 5 19 3 7 6 45 4 -1 -1 -6 10 -7 -24 12 16 -3 24 11 -11 -2 7 9 7 21 7 0 -4 3 4 18 13 14 1 3 19 -3 -6 21 3 11 -15 14 -2 -14 -10 -5 11 11 8 -30 -2 -21 8 19 8 6 -14 -6 5 14 -6 38 12 -19 3 3 15 11 -3 21 -6 10 -7 -5 6 24 26 -6 -7 3 3 -17 -5 7 25 14 4 3 7 10 -6 14 12 0 20 -3 31 11 -3 -3 12 10 -6 -23 -3 14 -10 13 8 25 7 1 6 12 1 15 16 10 15 -15 -19 9 4 14 15 3 7 10 -8 -10 2 -7 -7 -6 1 6 -3 -7 13 -8 14 13 22 -12 22 29 17 -20 -8 -9 3 5 6 -6 -2 -12 4 13 16 27 -16 32 -10 3 12 -10 14 6 -11 9 -2 9 3 3 -16 -10 -3 11 20 14 12 17 3 27 38 -9 10 -21 21 25 -3 -7 24 27 6 -17 -2 -3 6 14 -21 3 1 12 2 20 18 29 7 5 7 20 19 13 15 9 -3 -7 7 6 -11 -7 0 7 2 22 17 -11 10 -15 6 2 11 7 3 7 2 -14 -6 -8 3 7 -7 -14 -5 7 3 19 14 6 -13 -5 8 3 9 -5 -7 -7 1 -17 -3 10 6 20 -4 -3 12 -3 -3 5 1 8 3 -10 7 -2 -14 10 9 3 17 2 3 -8 3 7 8 15 -10 -6 -4 7 -19 8 23 -9 -3 7 13 -16 -7 -4 -13 -1 31 12 11 24 3 23 17 1 23 -6 28 3 16 3 -3 3 -15 -3 12 4 -3 3 29 3 -5 -8 22 -11 7 -6 14 20 14 3 -8 3 -8 0 11 -8 -18 -5 4 18 14 8 3 6 15 -9 10 -4 -28 4 -7 -3 17 -5 -27 31 24 -5 3 16 12 -17 3 3 3 11 7 -14 4 -15 6 -3 21 15 -9 18 14 4 37 -7 7 7 -15 6 -11 6 0 4 -3 -14 -7 4 7 11 -14 -3 5 19 -3 24 1 -1 4 3 7 6 1 -13 6 21 3 8 27 6 3 -6 9 -4 12 7 3 18 -7 -6 6 -8 -4 17 -15 7 -1 -5 -8 -3 14 17 -17 28 3 17 -21 -3 10 5 7 18 -7 14 -3 3 -3 3 18 -6 7 28 -16 3 8 9 20 3 -5 4 16 -6 7 1 8 10 1 2 18 -4 -3 10 6 -3 -3 6 16 -6 -14 4 5 11 -14 3 -8 21 16 -6 11 16 -12 -11 13 10 -12 -1 14 -4 48 -9 -5 -1 9 -10 23 10 -28 3 -3 -31 0 16 -4 -2 1 -12 28 -2 6 6 28 3 -4 -6 -19 14 -3 3 20 8 6 1 -7 1 -12 -5 12 4 24 27 -3 24 21 -14 -10 20 10 -3 10 8 17 -5 1 10 -3 -8 1 11 22 14 7 5 -3 12 6 -3 6 17 -2 -7 17 3 -3 -13 7 4 5 6 -13 11 -15 -12 -9 6 -14 -1 -7 -1 5 -5 11 -5 14 -4 41 14 14 -5 12 23 -8 -3 10 10 0 8 22 2 31 14 -5 1 7 11 8 13 -2 -4 3 -2 -3 10 6 -3 -3 16 -3 8 -6 -3 -3 13 -2 -14 -11 -2 7 4 -7 10 7 17 -10 10 -1 3 6 7 5 15 15 3 -18 10 -13 4 -3 19 -10 1 6 37 3 -3 5 -5 -24 3 -4 -6 17 -4 27 -7 7 3 -4 7 12 13 -14 3 7 3 7 6 -17 -7 5 1 31 6 9 -24 -5 22 -7 1 2 3 11 -11 -14 1 10 25 9 -7 6 11 -6 7 20 28 14 17 15 19 31 -3 3 -7 17 3 10 17 15 -2 7 -18 21 6 6 4 19 8 8 28 14 9 -7 18 10 -18 8 -9 -14 28 5 29 -12 19 -8 -11 26 -2 -18 -17 3 11 25 24 3 3 -6 4 16 -3 24 -21 10 6 -1 6 9 -6 3 14 10 3 2 3 -23 16 14 -21 -2 25 13 3 -3 -3 7 21 2 13 4 10 13 15 -3 -4 8 1 9 -3 -3 -14 6 16 4 17 15 17 23 6 -7 7 1 4 -3 -6 -7 -14 11 21 -10 3 9 -1 -4 -7 16 -4 2 -1 3 -4 -2 10 -6 18 -4 9 10 19 -13 8 14 -15 -7 -6 3 -9 -11 2 15 -5 11 -7 14 13 13 11 4 -3 -3 -3 3 -6 -7 3 -3 -3 7 -8 -3 32 6 2 25 -7 3 -3 8 1 15 -7 6 19 -6 3 -1 28 10 6 27 -5 18 19 -14 0 -3 4 -2 1 -9 4 -15 28 10 3 6 3 -4 -9 3 13 -15 11 6 1 11 10 3 14 -6 30 -6 -1 14 10 7 7 6 8 3 3 28 33 -3 -1 -11 3 2 6 6 -21 7 7 14 1 -15 15 2 2 17 10 10 -7 15 8 -5 28 23 13 7 -3 -1 -11 -8 14 -3 8 -3 12 14 -9 7 5 7 -7 13 34 -13 -9 15 7 18 10 12 -24 20 18 17 -2 5 7 -10 -6 3 14 -7 11 24 8 -2 7 -4 7 3 4 -2 3 -5 3 15 27 2 13 -6 17 16 20 -4 -4 -3 -4 2 14 -3 -21 18 3 26 8 -13 7 -14 19 5 14 27 3 -17 16 -11 -9 0 2 -17 -14 21 4 -6 17 1 -8 -7 8 10 18 -9 10 -1 4 -5 16 8 10 5 6 13 4 5 20 -17 6 3 10 -3 6 7 -6 2 2 11 -5 3 -4 -5 29 -18 15 -3 10 -3 -9 14 8 11 -24 2 -17 7 4 18 13 3 10 3 6 -6 -7 9 3 -7 -16 -21 -14 -10 3 3 3 19 3 -12 -2 11 -6 24 10 6 3 2 3 19 -1 -7 24 3 6 17 3 4 21 -11 -7 3 -7 17 -9 -1 -8 -7 2 -10 14 -8 15 -13 11 -11 -3 31 -26 3 -8 -11 17 23 25 -14 -17 10 22 -5 24 10 3 4 -6 5 19 5 -4 16 -18 2 18 7 -18 13 3 -5 25 -13 3 6 3 -3 14 23 3 6 -3 -1 3 5 10 10 29 14 28 0 17 -3 3 6 -8 4 17 -13 -6 4 12 6 4 -2 7 0 -3 7 -10 -1 1 -7 -8 -3 16 -1 -2 20 10 7 -13 -3 7 -11 6 -3 26 3 17 14 22 10 7 3 14 6 4 6 -11 18 -15 5 11 -2 22 -17 -8 -14 3 25 5 20 0 7 28 21 4 7 -9 3 17 13 12 12 -9 5 -2 7 -3 27 -2 -4 0 -7 6 4 24 -1 12 -7 3 6 -14 18 2 7 -3 3 3 -6 20 -11 37 25 16 10 -5 7 -6 8 -7 6 -17 -14 -3 2 -12 6 -3 14 12 22 9 -10 -3 -6 21 -13 7 3 17 -5 4 25 31 3 13 9 21 -2 -2 -3 30 16 -3 3 -3 -21 -30 3 14 4 -3 -3 -12 -12 -10 6 24 18 -24 8 14 -6 7 0 8 20 3 26 5 20 -3 4 22 26 17 3 18 -33 -7 -11 27 13 3 -12 10 -8 -10 6 19 27 8 10 -3 10 4 6 11 5 -17 7 -12 16 5 17 6 -8 -3 9 14 -3 17 6 6 11 7 4 10 5 5 20 -18 9 4 7 18 17 -10 18 -3 21 38 21 4 13 -3 -8 12 1 6 -5 5 6 -4 7 -3 5 -3 11 -7 20 14 -3 18 -6 -7 -1 18 21 11 -4 -14 -14 14 -1 24 -12 13 2 -10 -16 18 25 3 -3 3 3 3 -17 6 -10 16 3 20 -2 -6 -27 -13 14 17 -9 -10 6 4 17 10 -6 -3 -2 23 -8 6 3 7 3 8 29 1 -11 10 -1 -3 7 -3 -5 3 -16 -6 10 -14 10 19 22 -19 -2 7 9 15 -7 7 9 16 5 -13 -7 -7 13 11 -7 14 26 3 5 3 19 -11 -4 4 20 7 18 11 -14 -7 1 18 -4 22 11 -5 17 -6 -3 -36 24 15 11 -16 26 -2 -22 6 2 3 -1 11 6 3 -15 24 22 -2 10 1 5 14 -1 11 -7 -16 13 -18 -5 1 5 -2 8 4 -6 17 14 11 -17 -6 15 10 5 6 -3 3 7 -1 -6 -11 -3 8 -2 -11 -12 19 13 -6 -3 3 3 -5 6 12 7 10 -4 17 -7 -7 -11 3 18 3 3 -22 3 16 9 -1 3 8 2 7 14 1 -12 13 20 -5 4 9 20 16 14 8 10 18 -7 -12 21 -7 -17 25 13 10 -15 13 -4 3 17 -15 11 -8 13 10 -23 11 -3 9 -9 -13 25 -11 7 -20 11 -11 10 -7 18 -13 20 -14 5 17 7 -6 14 -10 37 6 3 -3 7 -6 -3 7 -5 21 3 23 7 -6 17 15 -17 -3 6 22 11 -18 3 3 6 17 -6 -3 6 6 -17 13 12 -7 1 -3 -12 20 23 23 5 5 3 9 -4 2 21 13 9 -4 -6 18 -8 -6 -3 -7 22 8 24 -16 -6 -21 7 -9 17 -2 12 6 -4 -7 -10 18 -7 -3 5 8 -8 23 3 14 17 -8 -8 -2 -6 -6 6 14 3 18 -9 -2 -4 19 8 13 -3 3 7 5 15 6 -9 7 25 -14 11 -10 32 11 14 -7 19 -6 23 0 -4 35 -9 18 28 -6 4 21 8 11 3 -3 4 3 -7 7 -7 -7 13 17 6 16 10 13 7 -8 -19 10 -3 3 7 -16 -17 -4 -4 -3 20 -5 7 -10 8 -2 -9 13 -3 -8 24 5 -3 18 10 4 -3 8 7 18 14 1 2 12 16 18 8 -2 24 10 -1 -8 3 -3 41 -7 17 -7 13 4 -5 -8 -3 -23 -6 8 11 5 10 9 11 -31 -23 -8 3 3 5 -20 -11 -12 15 6 -3 -10 2 -7 3 -10 14 -10 5 6 10 -7 10 -7 8 8 14 -7 6 -21 -4 18 3</t>
-  </si>
-  <si>
-    <t>JSB(2.474045767327101, 5.166277385457984, -49.116607213151674, 229.68362211743727)</t>
-  </si>
-  <si>
-    <t>33 43 46 43 41 39 56 51 50 43 52 40 25 51 41 52 38 33 35 35 53 32 41 38 48 26 40 29 40 41 40 56 27 55 37 47 37 45 26 37 52 33 42 33 29 37 47 35 38 34 41 30 36 41 30 65 27 49 43 43 40 47 47 50 37 26 35 42 29 41 44 45 36 30 45 41 44 45 20 42 40 47 44 36 45 27 37 37 47 63 40 49 33 41 55 16 33 38 31 36 51 49 27 51 37 39 42 51 44 19 38 49 43 49 48 30 42 39 46 23 43 61 26 59 39 25 51 39 52 43 20 32 37 34 29 65 9 51 50 57 58 37 29 34 51 30 44 43 44 33 16 38 40 42 37 43 39 24 45 51 43 50 37 55 33 34 41 38 41 32 36 34 30 54 13 45 51 45 49 29 49 34 57 16 36 43 44 34 37 35 28 26 30 48 44 34 48 51 29 46 51 46 30 30 33 22 46 58 46 47 50 41 36 24 47 47 33 33 40 16 31 43 39 50 37 47 39 49 52 40 43 40 29 52 47 9 61 39 60 32 58 13 41 43 36 37 23 46 23 37 49 48 41 66 28 19 45 55 25 44 40 26 35 48 51 44 38 57 42 40 45 30 42 47 47 36 29 43 47 45 39 36 26 43 35 31 23 39 53 36 38 16 51 34 29 42 57 30 41 26 33 56 44 35 53 46 23 36 29 31 47 39 37 37 40 24 39 27 33 37 37 30 34 41 23 47 42 37 42 46 33 40 33 46 40 43 40 36 33 55 38 41 40 26 51 36 58 39 39 24 37 37 47 41 62 37 38 36 59 45 41 44 25 47 27 37 30 34 41 34 64 41 42 45 34 35 47 26 66 26 29 28 44 59 34 43 47 49 52 20 58 58 35 34 26 60 57 37 25 34 32 44 48 23 50 19 42 41 37 30 27 72 20 60 48 29 20 43 50 59 39 36 37 33 38 33 43 40 33 44 38 31 36 45 44 27 48 30 34 53 43 37 44 59 26 20 49 44 60 43 9 36 45 54 44 57 53 35 31 40 44 41 51 30 44 53 36 38 24 28 26 19 35 24 41 23 37 33 51 26 36 48 38 43 55 48 23 45 37 32 41 30 45 49 30 41 43 45 43 46 19 33 36 16 35 29 43 36 60 53 29 40 49 51 27 51 32 38 32 26 44 40 43 37 29 30 43 58 22 37 31 46 13 48 26 67 29 34 47 33 34 36 31 47 49 58 30 26 30 43 32 37 51 37 40 34 37 30 43 37 33 34 12 34 43 61 60 56 46 55 54 49 37 32 24 27 35 36 49 47 23 19 23 38 48 39 59 22 23 41 52 44 22 37 37 36 41 19 43 45 32 50 26 39 48 37 42 39 44 33 23 55 21 36 17 44 38 23 37 39 36 41 44 47 16 32 30 31 47 39 39 20 31 65 38 46 30 35 40 27 27 27 19 41 68 45 37 44 38 44 46 40 41 37 30 44 50 48 16 32 36 38 43 28 44 45 27 41 29 19 31 44 45 44 43 43 33 34 53 31 36 40 16 47 30 50 36 41 45 41 43 30 37 38 55 20 40 50 43 43 27 19 42 43 41 43 33 59 36 52 39 30 37 30 37 37 35 43 42 36 26 27 26 30 62 34 49 40 41 33 41 55 26 40 31 48 31 29 50 31 55 31 35 31 42 33 41 41 38 31 41 31 39 46 30 44 33 30 45 40 30 38 31 45 53 52 47 33 37 24 46 48 44 27 29 46 39 33 33 29 43 33 33 50 38 53 50 43 33 41 45 51 41 43 44 49 46 40 33 43 34 38 24 36 47 39 13 33 26 30 37 30 33 30 60 55 45 35 41 57 26 30 38 43 62 39 47 44 41 43 24 45 20 57 34 55 30 20 47 37 18 33 24 59 35 56 27 31 52 41 30 50 33 30 43 23 34 51 39 54 31 34 34 30 36 41 39 53 31 49 39 27 41 22 37 45 41 46 44 37 51 32 45 36 33 36 39 54 48 45 43 27 36 45 47 44 51 27 51 36 34 45 36 41 25 54 37 34 45 48 41 40 59 37 22 46 34 50 33 36 36 49 35 51 32 15 25 45 40 16 70 40 47 43 49 46 46 20 30 33 45 45 27 41 38 36 30 38 44 27 62 26 31 37 65 51 42 26 31 39 40 23 37 56 53 30 35 34 36 48 45 43 42 20 23 58 52 23 59 33 72 41 46 40 44 43 26 41 16 51 50 46 43 23 33 32 37 43 37 16 27 27 49 47 32 20 41 43 46 36 48 61 47 35 39 51 35 42 27 30 36 38 36 45 48 16 37 56 48 37 43 34 48 30 50 33 34 40 10 45 44 26 26 39 26 43 27 31 34 35 25 44 48 48 62 37 43 33 39 19 19 44 33 19 46 46 47 40 42 35 49 15 37 19 34 43 51 47 41 49 20 30 38 47 68 39 42 36 43 51 45 33 37 43 58 31 41 38 35 51 37 47 17 51 29 45 38 38 43 44 47 38 33 40 55 41 38 45 43 29 31 44 50 26 50 27 55 27 46 13 29 37 47 38 57 46 32 39 62 42 49 61 46 37 41 41 49 40 30 38 50 57 55 37 37 36 44 29 27 26 23 67 34 34 38 32 62 36 47 40 61 59 43 44 33 22 31 23 42 32 57 30 33 35 27 45 45 43 15 64 48 37 34 65 33 29 41 42 33 30 30 33 31 37 29 37 43 34 33 51 48 27 39 27 24 43 47 47 57 36 30 39 34 41 45 17 34 31 41 64 42 40 50 21 13 48 27 37 28 34 50 51 37 32 55 54 38 45 50 45 36 27 44 45 32 51 49 30 52 41 16 30 34 32 49 48 44 27 38 29 39 16 25 38 26 50 54 41 17 16 33 35 33 68 37 29 26 61 46 40 13 37 33 45 44 35 34 38 39 36 36 37 29 34 33 21 34 47 41 38 42 27 33 49 62 40 40 40 22 59 45 25 35 23 29 46 27 46 51 41 26 52 40 52 33 34 31 38 47 38 25 23 27 65 44 25 33 37 40 27 23 40 36 51 44 26 34 29 43 43 29 29 48 48 25 59 51 30 27 29 37 30 32 52 16 32 38 41 30 38 32 41 51 31 23 50 41 13 41 40 35 41 69 36 22 40 50 26 44 37 48 31 37 30 32 50 41 31 55 34 44 45 34 50 33 40 43 36 45 60 45 50 47 45 35 43 33 47 23 26 42 47 37 31 34 37 26 52 40 29 44 39 48 40 30 60 22 34 30 48 34 47 36 60 31 51 28 48 50 43 38 37 45 45 55 41 63 27 54 45 40 47 50 42 57 52 41 55 40 38 42 29 26 42 22 37 25 32 13 32 33 36 23 41 26 43 42 49 33 41 20 61 41 40 32 36 38 47 32 44 44 36 35 36 42 39 47 34 48 36 44 30 33 31 33 36 37 45 37 27 33 23 34 41 34 37 49 48 56 44 50 23 33 57 37 29 23 43 51 33 43 34 39 33 24 43 45 29 55 41 48 27 33 37 43 33 54 43 33 33 40 37 31 32 39 49 29 52 29 27 37 61 31 24 27 47 39 47 16 32 28 52 50 50 40 45 54 33 28 47 30 31 32 37 33 37 50 35 36 51 31 47 46 61 43 19 36 30 46 55 38 44 33 31 25 31 40 31 44 32 19 47 47 12 37 34 41 32 23 44 19 30 47 56 44 42 40 51 52 45 51 36 48 28 21 37 45 32 44 30 53 16 45 26 49 37 29 50 26 48 42 34 41 43 31 51 30 63 25 47 40 43 30 43 16 53 55 30 37 25 30 50 47 32 58 38 45 39 38 20 43 37 45 38 34 44 23 44 36 41 33 58 44 38 44 27 29 48 51 30 50 45 23 41 41 35 34 26 33 30 66 59 47 19 33 40 51 45 50 44 27 37 31 23 30 53 56 27 55 51 34 34 23 35 33 41 33 37 44 62 29 29 48 17 20 43 33 41 47 64 60 52 47 37 47 33 41 47 10 51 54 40 37 24 29 25 42 39 37 47 39 47 31 31 45 41 29 34 61 43 31 36 37 45 69 44 50 58 31 37 51 39 49 39 23 44 27 42 49 31 30 43 38 32 33 36 28 46 41 23 43 47 44 26 49 23 43 50 43 23 35 48 36 26 46 35 10 61 35 44 52 25 51 33 38 53 52 39 53 44 25 17 36 41 44 62 30 43 43 57 37 54 38 43 41 45 37 29 31 36 38 41 43 52 53 38 48 26 37 43 41 45 45 45 30 27 37 20 49 65 29 37 40 31 44 31 30 34 47 34 31 23 41 37 42 33 33 47 39 54 44 34 46 23 22 46 45 41 47 47 36 25 45 31 35 25 31 29 46 53 43 23 27 31 40 29 59 29 30 28 43 34 55 32 27 27 31 18 37 34 32 38 30 37 22 16 37 55 35 33 66 36 37 31 55 26 51 23 44 49 24 34 39 24 52 29 57 23 41 63 39 37 34 33 23 38 41 40 28 43 59 61 16 46 27 46 53 50 65 45 44 25 48 32 47 40 11 50 45 19 33 47 48 33 33 30 47 23 27 24 37 43 57 45 45 35 42 47 37 40 47 37 37 37 17 42 31 31 54 41 40 43 37 36 44 43 23 45 44 37 31 33 24 22 17 48 33 36 44 26 34 41 35 51 24 21 30 32 37 49 44 29 36 33 36 42 15 26 58 30 40 34 23 13 46 35 40 33 34 51 55 36 36 41 39 47 48 48 40 51 26 44 51 51 34 22 37 45 34 26 34 42 29 43 35 50 34 44 36 36 40 33 43 34 20 24 51 45 41 29 32 36 50 68 58 39 32 34 33 31 40 38 53 51 61 51 29 39 37 48 22 34 38 43 20 27 37 26 15 39 55 57 20 41 34 41 40 42 52 39 48 20 13 46 40 44 39 57 50 32 41 51 23 33 30 34 45 17 52 40 38 26 65 60 41 30 31 30 43 38 36 61 19 29 31 41 33 41 67 30 26 38 57 45 60 29 39 19 26 53 52 49 34 58 30 31 37 57 40 31 46 60 45 36 29 41 33 44 20 39 26 46 28 36 34 29 17 38 43 33 34 31 34 30 25 44 30 52 49 33 34 41 45 34 27 55 39 27 42 30 41 41 48 43 40 41 36 36 48 39 32 44 37 30 54 40 23 31 22 16 36 23 30 15 23 47 30 43 53 41 44 44 43 37 46 32 34 51 39 33 42 62 37 38 30 44 38 35 23 47 69 39 26 37 34 14 50 54 33 37 37 39 54 45 51 12 31 41 51 68 23 49 34 33 53 19 57 55 56 54 51 32 31 13 25 48 44 54 38 27 37 45 49 41 27 36 61 40 43 37 45 37 28 37 34 35 48 23 36 30 55 46 36 24 27 26 37 34 34 50 54 40 30 30 40 65 40 32 26 43 31 37 23 52 45 48 46 49 37 32 39 33 36 54 29 41 49 48 44 54 20 25 57 65 34 33 46 42 57 44 22 58 41 42 37 36 33 23 35 62 40 30 27 30 49 39 46 41 45 45 43 36 40 45 54 20 30 34 69 29 46 30 47 44 52 37 51 37 49 47 55 29 42 42 23 48 46 25 34 47 41 51 33 37 57 16 47 39 37 43 30 44 55 9 50 41 38 30 23 44 42 33 34 43 39 57 53 31 43 54 41 37 37 33 31 40 27 42 34 31 44 29 47 45 53 40 38 53 58 24 39 51 48 34 55 67 41 47 44 34 33 48 56 34 41 24 47 42 45 37 20 43 46 46 31 45 36 35 40 42 20 60 37 17 42 33 50 28 43 27 27 37 48 41 44 38 27 36 27 36 43 47 30 48 51 48 37 27 53 39 28 29 51 30 49 42 47 43 34 54 27 47 31 65 28 34 34 50 31 60 31 45 22 39 26 33 49 34 19 61 37 48 30 35 26 37 41 58 44 27 52 51 65 47 33 57 55 27 36 37 42 40 41 54 45 41 36 26 26 51 30 20 45 65 23 51 37 57 33 46 40 34 29 24 43 58 20 33 27 35 39 64 55 29 45 46 37 34 39 38 26 32 37 35 55 23 31 27 35 46 26 24 37 34 50 40 23 31 28 47 27 37 41 17 26 43 36 17 30 37 23 53 27 44 62 29 38 48 57 36 37 30 33 33 41 47 29 41 35 27 50 40 58 46 26 45 38 36 47 45 40 16 60 31 23 53 37 21 50 32 44 49 49 41 44 51 49 13 25 45 43 36 47 30 57 20 30 22 57 29 22 15 36 46 40 33 41 30 36 41 33 23 40 48 34 41 46 34 30 34 28 37 62 44 27 24 44 23 49 36 36 40 39 47 27 29 33 25 30 22 48 43 37 37 44 57 37 37 47 41 33 26 43 44 46 25 41 36 44 33 38 50 51 30 39 71 38 28 45 41 21 40 48 44 50 49 26 19 33 51 30 30 37 39 29 35 54 38 46 29 33 48 31 57 37 32 61 33 32 22 40 45 38 36 27 33 40 34 31 36 35 24 38 24 31 29 24 39 45 47 34 33 53 29 45 43 43 38 35 41 34 44 23 47 33 26 30 44 43 29 26 44 40 40 34 38 34 40 58 32 30 23 51 19 35 44 52 42 49 34 32 55 25 33 38 30 47 56 33 40 45 30 47 37 37 46 35 41 24 23 43 51 49 35 34 41 48 41 50 31 51 36 45 37 29 35 30 48 33 46 41 39 30 31 37 41 55 19 26 33 23 36 47 40 47 44 33 27 43 27 48 20 31 19 43 47 34 26 43 31 23 34 49 46 31 34 41 33 51 36 36 29 42 37 34 40 50 43 45 23 45 45 27 55 61 22 19 49 34 26 38 51 20 33 62 42 51 34 34 26 20 29 37 45 22 30 29 34 43 57 33 61 32 49 43 37 34 54 52 45 32 49 45 30 52 16 31 48 35 39 33 44 45 44 27 23 29 51 34 51 43 41 36 21 47 45 29 47 25 40 40 17 32 58 33 40 19 29 47 32 30 47 32 44 23 40 9 40 30 31 45 27 27 31 35 34 54 29 40 32 57 30 58 45 30 40 33 32 37 57 55 42 37 40 23 37 34 37 35 40 43 49 31 58 54 36 26 24 44 44 42 42 35 55 33 37 48 37 19 32 44 34 58 38 40 30 45 24 42 20 38 37 20 51 41 32 47 37 33 42 36 39 43 50 38 33 30 51 40 36 27 37 43 25 33 31 29 22 34 56 44 34 59 49 33 33 33 37 45 17 48 33 35 50 26 62 27 55 51 42 59 41 50 44 57 51 45 60 44 39 41 44 31 42 40 24 35 36 31 57 29 43 36 20 35 33 47 30 56 58 37 48 39 31 49 31 39 30 45 47 34 35 44 50 44 47 50 30 44 37 33 37 26 47 27 37 61 47 51 30 30 50 38 46 47 48 41 27 42 44 40 48 42 19 48 34 51 61 26 50 34 56 52 45 55 37 43 48 26 58 37 41 51 44 27 65 55 45 26 45 58 34 34 27 37 32 27 32 37 50 48 60 42 46 37 37 42 44 37 26 23 26 26 25 21 39 43 47 40 44 23 37 45 19 38 37 44 39 40 34 31 29 34 48 34 43 42 26 37 17 15 26 48 48 39 47 43 31 35 36 37 51 55 34 44 33 67 23 41 43 49 51 31 39 45 36 34 26 34 35 35 30 37 24 66 19 37 52 36 22 37 37 16 30 19 22 29 35 44 55 36 33 34 40 28 20 47 30 46 33 29 44 46 33 42 30 39 56 51 33 6 44 20 36 36 10 34 36 26 31 40 53 59 34 48 55 44 36 53 51 49 38 42 49 38 45 37 51 48 34 52 50 41 33 44 36 49 50 33 33 30 20 13 42 29 34 33 29 44 26 38 24 21 21 33 38 43 43 23 65 59 34 38 33 38 35 16 38 37 30 36 29 46 38 26 31 37 19 29 48 36 37 35 40 39 34 43 38 36 44 48 40 25 43 33 36 27 45 37 73 34 42 46 44 55 42 49 37 57 45 43 43 51 32 43 56 19 29 34 28 54 44 16 24 44 47 34 49 48 31 41 52 44 19 35 38 41 64 26 36 47 27 55 22 55 47 51 40 45 48 52 41 51 35 51 30 30 36 36 44 40 32 38 43 26 30 45 59 34 42 48 38 37 49 41 44 42 43 47 47 26 45 41 35 33 52 31 55 19 48 55 32 36 35 53 43 44 48 51 33 43 49 34 54 53 55 29 31 51 31 35 41 48 22 52 38 54 34 34 38 27 37 35 48 16 29 53 19 51 47 26 46 39 37 46 41 25 56 38 25 34 38 44 38 37 33 31 31 37 40 38 52 44 16 44 29 60 38 35 24 32 45 27 47 51 35 16 29 44 51 40 53 34 62 29 39 49 47 26 26 35 26 38 45 36 34 51 37 26 49 42 62 40 51 29 39 44 23 30 34 36 43 51 37 37 39 13 36 50 42 37 44 22 68 39 35 45 25 28 38 44 31 24 35 33 23 50 38 34 34 45 36 20 49 57 45 60 58 43 37 38 55 27 48 28 41 27 43 55 27 39 37 37 42 56 49 20 49 37 31 16 48 43 28 47 37 47 48 33 30 19 37 31 34 42 12 40 53 47 27 33 36 20 33 29 30 48 51 41 51 31 40 38 22 43 37 47 29 26 25 29 54 48 30 59 37 19 30 37 44 53 33 16 42 35 41 36 33 36 41 39 37 42 36 42 43 45 49 36 27 47 57 44 34 33 34 54 34 48 38 46 36 45 25 39 55 36 34 46 48 29 41 36 46 30 56 53 22 52 34 34 35 40 30 26 46 34 43 55 41 40 45 54 28 49 44 38 41 55 25 61 40 20 20 41 19 34 35 47 15 27 29 27 40 46 36 37 33 43 29 47 48 44 34 60 35 41 48 65 39 47 29 54 27 29 10 46 43 48 39 39 26 40 51 44 34 37 37 47 43 51 36 39 48 38 45 39 26 38 37 34 47 44 44 44 30 41 30 23 29 40 23 29 56 47 41 30 40 40 31 46 37 27 47 55 33 41 32 31 60 51 42 12 40 36 52 43 58 42 47 38 33 16 16 35 44 27 37 64 54 33 37 45 32 24 37 55 45 20 69 54 58 49 19 38 51 38 37 29 44 20 54 35 24 29 45 9 27 34 36 38 27 55 30 52 26 29 28 37 37 43 36 38 32 42 43 26 48 46 40 39 52 41 51 44 49 29 57 18 32 42 65 39 53 36 41 44 51 41 24 41 39 45 25 41 36 48 39 30 23 52 41 29 48 55 24 30 56 62 54 54 65 39 47 44 47 40 51 40 26 43 58 30 24 41 36 41 25 51 40 44 44 46 35 43 27 62 45 45 43 57 29 41 55 18 20 59 34 19 44 34 29 16 37 45 48 37 35 31 33 45 31 59 35 35 43 21 40 31 41 40 59 47 28 37 44 35 31 45 39 33 41 51 47 19 35 33 34 51 40 51 27 51 44 33 45 31 39 64 51 30 36 52 34 29 34 27 37 26 31 36 42 45 27 39 23 46 20 30 46 37 37 61 27 48 27 29 41 34 47 27 22 55 26 55 32 26 41 19 40 43 50 44 30 37 33 22 42 27 13 32 48 26 40 44 26 54 28 44 38 60 41 33 37 28 48 51 29 37 47 34 39 29 27 27 41 22 31 37 44 38 30 57 41 31 22 30 29 41 28 41 47 17 62 50 62 19 20 44 37 33 30 23 38 32 9 56 30 36 54 29 41 20 29 30 30 46 25 34 45 59 51 55 33 44 27 50 40 58 36 51 27 44 45 50 45 43 43 48 36 40 39 42 22 53 29 37 46 37 49 38 31 26 33 39 47 50 44 35 43 41 33 51 32 30 37 55 26 39 50 36 37 51 13 43 44 37 43 17 27 33 44 24 39 42 40 38 27 40 25 33 44 31 41 47 39 40 67 31 30 44 39 36 23 41 44 48 36 63 34 36 26 44 43 38 25 23 29 40 41 30 27 37 34 30 64 27 41 37 44 58 33 47 36 36 38 45 29 40 16 34 35 27 59 22 45 35 47 48 41 37 46 51 52 30 29 23 49 30 40 56 31 45 45 26 30 40 41 48 38 35 33 33 43 27 37 44 37 36 48 31 42 58 50 52 30 35 41 44 37 31 21 38 27 63 40 45 54 31 52 50 51 29 59 28 56 50 28 42 34 49 36 34 19 34 34 48 30 58 16 54 39 44 23 41 30 39 44 45 53 33 38 49 48 27 48 54 37 51 42 30 51 26 31 59 29 37 29 59 36 33 54 26 30 41 33 37 57 43 41 55 52 42 34 30 33 21 36 48 30 51 31 59 44 41 23 16 40 50 43 41 50 30 40 40 40 35 52 63 30 35 16 36 43 44 23 23 42 40 36 51 53 37 56 58 42 42 26 30 45 39 44 59 52 41 40 37 27 45 30 29 31 33 51 58 39 37 29 36 45 43 59 45 16 48 61 57 43 49 32 67 34 43 38 26 37 51 40 51 25 38 54 40 42 51 40 51 35 39 31 38 59 26 37 46 29 26 62 45 48 35 34 40 46 31 45 27 68 37 48 56 69 54 25 31 37 38 41 55 31 44 56 30 36 51 22 39 19 23 37 37 37 42 43 23 22 33 16 37 19 41 41 40 38 28 31 24 32 37 21 29 29 33 33 29 50 45 56 34 57 51 54 48 27 56 26 22 26 47 29 26 45 42 50 39 35 34 59 30 46 48 49 48 43 40 52 25 51 51 40 45 34 34 48 37 29 46 49 27 29 30 47 45 51 31 23 31 50 43 20 37 38 54 44 28 45 54 37 52 26 49 27 40 37 36 36 40 40 31 48 35 16 55 37 49 43 40 27 39 51 31 41 51 26 36 44 38 38 37 37 44 54 65 54 41 31 32 26 40 27 26 55 43 31 37 45 34 43 48 39 48 43 58 33 46 41 54 40 44 30 15 33 55 54 37 19 41 34 23 29 37 41 27 33 48 34 38 45 34 39 41 47 44 53 32 30 33 50 66 47 50 29 34 22 41 32 54 30 36 19 33 51 37 49 34 37 59 41 43 43 49 53 22 19 21 29 38 38 55 45 58 24 41 51 47 34 23 33 33 48 40 31 48 47 25 16 33 34 54 40 46 33 25 27 38 55 42 31 47 34 32 33 29 39 36 31 52 57 47 25 21 27 23 12 51 30 47 31 37 46 61 29 42 37 31 48 30 13 33 36 43 42 54 30 32 35 40 34 43 45 39 42 24 13 39 41 36 24 31 43 33 48 29 21 35 54 28 37 54 43 44 21 51 49 26 20 52 23 37 37 31 16 55 39 62 35 33 37 49 51 29 16 48 49 48 36 33 37 31 33 37 43 38 31 37 22 23 51 45 63 45 29 54 34 33 44 59 63 47 65 23 31 22 30 37 47 45 37 33 38 29 36 28 52 41 48 49 51 43 32 32 40 42 59 34 56 33 30 30 34 38 45 37 48 53 33 30 45 55 26 72 37 33 30 55 32 39 27 22 46 41 44 39 33 49 37 44 43 35 55 43 44 37 32 50 41 39 37 34 45 33 34 26 72 44 40 34 27 34 53 16 32 43 35 23 30 41 32 27 40 49 41 35 45 37 45 57 38 39 43 23 48 20 44 47 40 35 42 31 25 67 50 42 57 51 26 38 39 42 38 33 52 50 63 40 33 29 27 47 32 37 18 55 24 22 48 43 55 35 28 33 51 45 57 41 29 40 16 34 31 48 33 40 33 30 40 33 28 29 45 31 36 51 45 34 36 57 35 35 24 45 54 30 23 33 37 40 61 44 19 55 29 37 19 27 55 34 37 43 41 37 32 35 37 30 23 19 31 32 41 31 30 55 27 40 19 47 33 51 59 27 46 44 25 22 41 63 42 27 51 27 36 33 39 28 36 41 46 44 41 33 49 35 41 43 52 25 30 37 34 41 43 47 43 46 45 43 44 44 36 25 47 35 54 59 29 43 40 44 48 17 23 45 45 47 43 34 36 29 45 19 21 44 49 52 30 51 47 44 48 31 34 40 33 43 31 49 44 44 44 24 31 40 37 38 32 35 61 43 30 49 43 43 41 23 34 37 44 66 47 37 32 33 52 44 39 33 52 38 36 56 51 39 40 43 31 51 51 37 22 35 40 31 49 41 25 36 41 46 71 41 41 50 23 62 34 41 36 43 29 40 40 54 29 37 38 38 39 51 55 52 43 57 36 27 37 30 30 42 41 26 45 37 37 47 31 26 48 56 47 53 32 39 40 30 28 45 35 39 37 26 48 38 32 46 41 40 50 30 37 34 37 38 35 38 34 23 36 40 49 51 33 45 62 34 44 23 35 50 33 40 44 34 42 39 40 34 34 23 43 33 52 30 47 37 42 23 35 37 36 65 44 40 26 30 48 37 34 32 54 49 27 37 45 44 51 40 26 49 33 38 30 48 38 37 41 40 43 46 47 54 30 40 42 39 26 48 31 51 33 32 36 29 48 33 38 50 36 17 33 30 38 36 35 23 32 33 30 31 23 48 48 22 54 49 41 25 56 27 23 36 38 54 31 32 36 46 51 23 51 55 41 37 27 28 61 26 24 36 57 35 37 37 41 42 33 45 51 41 34 17 48 17 37 26 28 42 57 41 29 36 28 41 51 27 33 37 44 37 40 31 59 48 33 51 50 23 34 40 47 42 24 60 37 47 37 34 38 38 37 33 30 25 46 43 42 52 23 34 32 36 44 41 50 36 44 27 51 19 44 39 52 50 47 33 50 32 43 19 27 57 40 44 26 35 45 20 19 51 39 29 49 17 21 42 26 34 44 37 21 32 65 48 40 55 17 47 44 48 39 33 13 37 51 65 37 45 40 27 55 43 40 49 23 42 33 42 40 36 23 59 44 30 31 46 27 44 50 31 30 58 19 51 35 27 30 36 50 40 35 41 51 47 51 37 44 38 51 43 45 43 41 38 47 40 28 43 33 32 42 27 45 40 37 28 41 46 59 47 28 36 36 28 59 33 45 52 36 45 53 33 46 36 37 24 36 51 43 54 35 27 23 35 35 43 37 50 35 44 34 27 30 41 43 32 30 36 29 40 52 53 37 33 62 51 50 27 41 34 57 37 43 33 35 35 22 30 41 30 32 44 41 38 37 44 45 59 35 48 30 48 33 48 40 48 54 39 44 45 33 21 32 33 34 27 40 33 43 28 40 29 31 47 31 35 44 52 43 34 53 33 24 13 42 55 40 41 51 35 46 63 40 24 22 39 40 35 44 57 26 33 30 20 45 58 31 44 26 41 30 40 41 40 47 25 32 51 54 55 38 33 51 36 57 37 35 48 42 42 49 51 40 32 40 51 40 30 37 35 52 41 37 45 26 23 63 68 54 51 35 44 36 45 47 29 40 37 45 54 34 36 44 29 50 43 37 43 60 43 48 34 36 38 54 65 45 30 29 39 34 49 29 37 44 17 36 51 19 26 57 59 37 54 48 44 44 53 36 50 48 48 48 45 39 59 32 51 51 29 46 26 45 44 44 51 34 40 35 51 38 24 31 48 68 35 43 38 30 46 32 30 48 46 15 48 39 37 56 23 31 37 51 24 53 47 35 39 36 37 38 43 35 26 40 48 41 37 51 37 32 29 43 41 45 24 33 29 40 37 23 52 60 45 43 46 35 34 45 33 45 51 28 51 60 38 46 37 48 59 28 51 55 47 35 41 52 30 83 40 25 46 17 40 32 48 33 30 35 37 52 40 36 29 49 27 42 31 43 41 41 41 37 40 40 48 36 33 40 26 35 51 31 41 36 33 51 37 32 38 22 42 21 22 30 30 48 32 35 36 48 46 31 19 38 56 51 20 35 38 14 44 45 45 39 53 35 37 52 49 49 48 43 45 59 37 45 22 56 19 41 36 33 22 29 30 30 50 40 40 57 42 40 25 34 38 45 20 33 37 45 49 55 28 52 41 52 20 40 37 35 61 31 43 43 41 33 49 31 51 45 27 30 33 45 49 30 35 44 33 35 50 43 48 51 44 23 40 37 43 29 52 23 48 36 32 40 32 23 20 33 51 27 39 58 52 38 45 31 38 29 26 52 33 48 20 42 23 49 40 41 55 30 41 43 34 37 56 59 44 50 50 25 35 37 25 40 40 37 23 19 43 42 27 43 31 42 32 35 62 55 26 47 32 39 42 17 16 66 53 45 30 45 26 44 37 45 40 50 47 45 34 59 44 51 53 31 38 39 22 40 51 29 38 64 51 35 33 33 31 40 37 48 53 30 38 33 19 32 31 33 36 46 32 41 53 37 25 30 52 31 46 28 31 30 33 29 46 43 32 55 32 42 37 47 29 23 42 31 43 51 34 30 23 41 34 29 41 34 45 36 41 37 37 43 31 46 16 38 45 15 58 51 59 32 44 43 40 40 27 40 20 51 43 39 61 34 47 40 37 34 43 50 31 45 26 33 44 55 52 38 43 47 33 56 31 36 38 48 35 51 44 37 41 42 31 40 23 46 16 39 33 38 40 48 33 44 45 19 43 28 37 37 41 33 19 37 56 26 52 20 29 30 13 27 33 54 37 37 51 43 37 40 33 36 29 34 51 39 43 33 51 47 41 37 44 37 49 16 36 49 26 55 30 39 38 46 37 52 37 46 42 66 39 23 41 48 27 39 45 51 41 52 62 32 37 36 45 44 50 20 41 33 22 53 34 62 29 35 38 44 44 48 48 35 51 33 30 17 51 45 17 33 27 28 37 33 54 38 35 36 34 43 41 46 33 49 42 39 40 33 34 58 41 19 36 30 30 31 34 27 38 62 43 46 41 52 42 22 23 37 36 45 23 37 40 36 27 29 29 23 40 27 37 26 41 40 55 42 30 45 51 23 24 29 35 51 47 24 37 54 37 42 39 33 42 31 22 19 45 26 47 26 37 45 34 39 35 40 42 34 44 33 49 44 41 40 58 54 36 20 40 19 33 47 27 16 46 46 51 38 34 27 34 31 43 34 41 36 50 27 41 20 36 34 36 42 49 44 35 39 26 31 27 27 46 37 34 30 48 19 36 55 31 30 34 34 20 41 27 21 33 37 37 43 43 21 61 32 13 56 58 20 40 54 51 47 60 33 34 41 23 34 38 32 43 39 45 55 51 52 34 34 36 30 36 24 60 44 26 40 32 27 44 28 44 21 35 51 50 47 43 41 41 34 28 52 59 22 33 32 31 31 42 43 42 61 27 34 34 37 30 26 37 45 46 22 19 36 49 28 35 55 57 37 35 41 30 44 39 48 41 44 40 31 74 39 36 31 41 42 47 29 54 17 43 33 45 27 51 43 37 27 36 41 37 34 30 40 40 31 27 30 38 63 49 28 41 26 48 40 27 41 46 20 75 45 29 37 49 53 28 48 31 53 52 56 26 67 20 25 37 45 28 31 36 32 36 35 38 41 29 54 37 40 37 36 56 34 29 34 37 50 36 47 37 47 48 23 38 40 30 28 51 46 36 63 52 40 34 61 24 39 30 44 44 35 19 47 43 48 51 37 54 34 45 29 54 35 47 37 43 36 37 36 36 47 44 27 34 31 35 31 33 51 33 19 42 41 56 42 20 44 29 34 31 40 49 32 45 52 38 36 66 59 23 33 51 26 24 54 39 17 45 43 37 53 30 27 51 43 45 31 19 36 43 43 47 22 37 30 45 40 37 43 38 43 31 55 50 41 43 54 40 40 27 37 33 41 27 49 44 54 22 41 43 37 27 48 40 41 37 45 51 47 34 37 54 47 48 49 23 44 47 31 44 54 48 46 35 42 44 58 40 33 30 29 48 29 34 30 42 42 38 31 36 43 38 43 26 48 46 40 43 44 47 46 26 50 43 34 54 43 45 23 38 33 50 59 65 41 40 37 37 42 29 48 36 30 47 45 40 38 58 56 33 29 42 40 22 33 41 35 53 29 37 33 40 28 33 45 41 52 41 37 23 30 54 44 38 65 30 24 20 34 45 25 53 32 47 55 46 34 41 47 27 48 38 47 44 51 48 38 25 32 28 34 26 45 35 40 29 41 39 31 34 29 35 33 53 35 29 43 33 24 60 31 27 56 43 45 52 52 28 27 54 45 30 34 56 59 38 15 41 28 49 30 36 54 50 41 45 26 23 46 49 42 61 41 43 54 27 59 16 34 56 38 31 42 54 26 35 44 30 50 24 36 40 26 47 37 33 41 39 39 59 40 46 54 51 47 48 34 44 30 33 37 37 30 29 29 32 42 50 23 37 38 59 39 32 44 45 46 27 38 33 16 41 43 41 40 59 26 48 44 15 37 41 41 45 35 27 33 48 58 36 24 43 47 37 37 38 48 31 23 26 44 43 19 30 36 26 40 36 29 52 34 27 36 34 30 34 26 47 37 33 51 23 47 34 30 50 42 45 57 55 37 54 37 37 36 40 30 36 52 26 52 45 42 39 34 36 39 34 29 22 34 47 35 33 36 28 30 33 23 45 39 23 39 30 43 47 33 43 40 25 44 34 42 31 47 47 46 45 36 45 37 57 30 19 29 39 16 40 58 36 47 65 52 46 58 52 42 37 20 43 41 47 49 44 30 49 28 48 37 50 51 44 40 40 48 41 39 39 47 40 37 47 30 31 40 45 38 38 40 27 36 55 48 54 56 57 37 48 37 49 30 27 42 30 59 45 34 34 41 31 41 41 37 51 32 42 47 48 19 33 33 36 44 53 50 66 58 33 40 23 24 53 35 36 35 31 30 54 44 24 29 42 36 37 37 45 30 52 40 24 51 49 34 43 50 54 68 39 33 47 48 32 37 59 30 37 49 31 43 41 41 24 48 38 54 23 61 43 39 29 37 32 49 43 44 45 34 33 33 60 17 30 31 37 45 47 54 23 51 50 30 46 30 49 42 41 27 39 48 38 48 43 13 54 42 35 44 43 29 44 43 44 31 27 31 41 19 24 34 33 51 55 59 55 37 34 65 44 29 39 39 57 47 38 26 23 43 56 60 37 37 38 28 36 53 24 35 34 26 29 13 41 37 56 34 44 37 39 51 52 34 42 55 41 35 30 43 51 30 41 40 55 17 41 45 38 68 33 49 42 34 60 44 39 55 49 33 36 24 40 31 37 29 42 22 35 31 33 28 44 30 25 57 26 23 37 31 17 42 42 31 30 43 41 48 51 53 34 45 41 35 42 36 43 30 45 50 39 46 44 55 33 44 41 41 34 40 31 32 34 29 32 44 51 32 40 47 38 34 57 23 29 40 24 50 41 43 39 19 33 25 40 51 43 44 42 37 38 40 33 66 34 56 51 27 43 49 37 39 47 46 44 23 41 33 50 33 26 37 48 37 31 51 27 51 16 27 35 44 53 38 46 29 28 45 65 36 44 27 62 33 40 50 30 44 46 39 47 23 28 31 50 34 36 48 19 50 31 30 37 47 28 30 62 35 46 44 44 52 41 54 53 27 33 33 36 42 23 37 30 46 37 35 34 43 31 49 53 25 30 27 62 44 23 43 33 43 53 67 34 46 82 29 58 44 69 14 45 48 26 50 30 36 67 30 27 33 40 22 26 33 29 51 30 51 48 41 39 31 43 43 37 50 50 43 62 40 37 33 34 30 33 35 45 46 37 38 37 35 31 36 27 44 48 45 44 29 58 59 55 41 23 41 45 38 48 37 37 29 30 41 50 47 48 26 32 50 28 51 43 36 54 23 62 19 29 38 50 36 42 45 26 44 34 55 41 49 44 38 33 44 39 35 29 41 40 35 40 42 32 30 51 51 52 40 28 36 33 48 29 29 51 31 48 33 42 34 54 43 45 30 31 27 54 42 47 23 44 44 52 47 37 54 20 34 40 48 24 61 36 53 33 31 33 49 48 45 29 64 37 17 29 44 51 44 34 47 29 27 45 39 36 35 65 44 37 30 44 50 46 37 36 47 50 39 49 29 51 30 51 31 33 48 54 29 15 54 29 43 19 46 39 31 29 23 57 39 37 40 44 44 48 45 42 28 29 59 44 50 32 41 57 36 49 29 47 39 34 40 29 43 31 38 34 51 42 40 20 23 27 39 42 45 47 41 40 57 35 41 27 40 45 38 49 33 26 24 33 38 44 16 3 56 51 29 30 33 39 33 27 33 54 38 29 22 44 61 34 41 29 51 57 46 53 45 43 29 40 58 46 30 47 27 43 46 36 42 41 28 19 40 36 40 40 53 34 62 74 44 39 57 45 61 57 29 21 46 52 19 37 68 36 70 34 51 45 25 45 35 47 37 34 38 45 25 30 12 42 26 40 40 37 45 51 37 35 50 38 34 43 51 40 24 47 40 43 33 41 46 50 47 51 46 16 45 43 47 51 22 34 41 41 27 24 32 42 40 27 47 38 55 54 45 41 47 40 34 45 40 50 40 57 45 40 30 33 35 47 48 40 36 30 36 33 44 47 52 44 38 37 32 44 48 66 31 35 16 37 37 39 52 30 37 51 34 40 44 41 21 45 54 37 38 43 47 45 31 19 38 49 34 51 44 65 40 54 55 45 33 42 58 40 40 41 41 35 41 34 51 41 37 39 23 27 35 32 37 27 52 35 40 36 31 35 30 35 54 30 43 33 47 55 28 20 26 40 23 33 21 40 43 27 37 47 26 36 33 33 38 37 47 33 65 47 53 45 29 30 34 36 42 59 26 37 45 47 33 36 37 30 55 40 40 32 37 57 31 30 29 42 51 41 26 55 30 34 52 55 33 38 37 37 55 27 27 22 41 24 33 25 59 68 35 38 31 37 35 33 37 44 34 51 42 51 37 43 39 37 46 38 43 45 61 37 25 26 40 37 33 40 48 34 40 37 42 29 24 20 23 34 32 35 24 30 34 34 45 50 27 37 30 54 40 24 55 45 37 49 47 51 38 33 51 30 52 39 43 23 23 47 37 42 36 41 46 37 33 47 37 44 48 42 51 27 27 27 45 26 59 26 44 30 23 42 27 22 49 43 56 29 23 39 51 58 41 33 10 21 41 34 35 33 26 27 37 54 49 50 43 40 37 36 40 55 51 52 55 40 18 38 36 29 47 41 27 49 34 45 34 23 29 34 45 35 39 29 30 33 41 56 55 54 43 37 45 51 50 48 21 40 40 37 48 31 60 29 29 52 50 34 39 47 26 44 39 44 56 30 43 24 46 23 17 26 46 56 40 38 53 23 34 51 44 47 44 42 45 44 40 43 41 58 40 25 42 34 48 61 51 21 37 44 53 36 28 35 43 59 34 38 38 36 47 44 58 44 40 26 40 45 30 26 25 20 29 45 34 48 40 41 27 33 62 25 40 52 30 33 37 72 55 56 36 40 52 29 38 34 51 65 33 28 37 32 41 45 46 34 49 31 45 44 34 43 32 37 44 41 55 23 45 49 39 36 33 32 33 29 27 30 29 40 20 33 33 33 37 37 37 43 48 22 55 34 34 35 26 43 32 17 38 22 30 40 48 42 43 34 39 55 47 23 46 33 30 36 43 50 51 30 30 17 45 36 29 22 26 65 45 47 40 40 45 30 55 36 47 44 39 29 44 24 43 45 24 41 43 55 27 37 54 38 41 24 37 33 52 31 50 65 37 49 39 39 56 37 30 48 43 36 41 27 35 37 38 35 30 41 40 43 47 45 41 12 45 27 37 35 43 20 51 42 25 22 67 39 40 23 37 45 34 47 16 37 15 41 40 45 26 49 26 54 28 43 33 47 37 27 37 41 37 37 30 37 45 38 47 50 47 32 38 24 41 40 32 52 34 31 35 36 36 44 46 37 40 40 43 41 26 47 40 31 48 22 44 51 37 45 51 36 29 37 20 38 42 45 36 55 30 40 45 42 47 46 31 32 38 31 22 37 43 46 34 39 44 45 57 37 29 51 33 27 46 39 38 44 33 31 43 46 60 35 25 57 43 40 48 34 42 43 41 29 37 36 63 25 27 44 37 34 49 20 37 27 50 51 31 41 30 49 46 24 44 39 45 38 36 30 50 56 24 35 42 43 45 40 20 43 41 46 31 23 37 36 27 35 29 27 40 49 45 45 30 45 51 31 37 44 25 37 51 43 55 44 23 38 34 28 29 41 39 45 46 33 27 35 36 39 32 37 33 54 36 40 45 49 38 41 42 20 29 36 36 27 53 38 59 34 10 37 36 59 36 39 59 43 41 59 54 41 37 36 45 34 40 30 26 33 40 42 19 49 32 40 49 43 46 47 37 43 29 37 30 54 32 35 55 33 28 39 33 41 46 40 53 36 44 49 41 54 35 46 43 27 27 29 33 43 36 54 37 44 59 58 42 31 35 47 53 33 47 54 47 37 27 47 36 38 40 36 26 50 53 44 51 33 30 26 45 46 47 41 38 34 36 33 22 27 43 44 42 43 39 33 43 57 44 47 46 29 46 40 44 38 29 36 50 38 29 41 48 57 42 68 13 41 28 55 23 32 45 31 29 30 37 29 26 36 43 34 71 38 54 23 21 36 27 42 36 30 35 36 27 24 47 46 52 44 27 54 33 36 35 34 51 62 29 38 51 34 41 46 44 46 43 37 51 24 39 45 52 43 29 36 45 31 40 46 43 36 50 53 47 38 36 45 35 24 37 32 40 35 29 23 27 36 35 34 60 35 65 59 49 51 26 34 17 34 52 42 32 43 54 31 41 61 47 56 45 48 43 31 30 41 23 27 43 47 45 51 35 40 35 36 16 42 34 45 47 51 23 29 31 54 37 46 33 43 23 31 40 45 36 36 47 38 30 57 50 46 47 57 47 24 60 42 36 44 55 24 53 43 51 65 27 29 52 43 45 56 37 43 50 29 33 43 29 38 36 49 56 34 40 51 23 57 38 64 38 37 33 56 16 44 56 30 42 41 54 43 47 58 37 53 49 24 41 44 27 22 40 30 35 33 43 27 45 34 45 44 39 65 48 70 36 33 51 54 32 30 46 23 30 61 43 37 22 54 29 36 34 31 51 43 40 68 41 40 77 44 41 29 51 53 33 38 40 29 47 36 27 39 47 30 30 46 19 32 52 36 43 50 25 35 60 48 50 46 33 51 53 31 42 42 37 37 51 36 52 47 21 34 38 37 40 37 42 31 46 26 26 31 34 50 48 23 16 55 60 41 39 47 15 39 39 44 45 37 37 57 53 33 44 36 37 44 22 37 41 31 49 44 37 42 24 37 37 22 50 38 34 58 44 36 40 32 26 27 34 40 34 51 42 33 34 31 30 38 56 29 31 44 33 35 37 49 47 21 42 44 20 36 34 61 41 54 44 31 36 32 34 23 47 43 35 40 30 19 59 32 50 51 53 34 31 37 26 40 45 35 50 44 29 23 40 38 47 30 55 44 37 24 58 45 27 66 35 24 63 37 36 26 33 20 53 37 40 36 33 43 43 21 39 33 48 42 45 30 28 41 41 36 49 73 44 34 20 14 27 28 26 33 40 44 44 24 39 31 43 37 29 37 17 34 38 44 37 38 36 32 41 41 54 31 43 52 40 30 43 30 26 23 26 45 36 54 35 33 45 40 47 25 37 38 41 51 41 31 29 29 58 34 38 40 32 49 40 51 44 41 39 41 21 61 45 30 37 61 27 47 35 31 49 34 56 43 53 51 47 37 24 30 26 35 24 25 34 47 47 36 30 48 51 53 29 34 17 48 38 53 57 66 32 40 48 32 44 43 27 29 32 37 47 36 48 30 16 33 49 48 55 37 47 42 47 36 37 33 45 48 40 36 40 37 34 31 59 32 59 44 57 20 51 23 39 19 20 43 39 40 28 17 36 41 13 30 37 43 45 29 32 26 41 44 52 37 41 27 51 27 44 51 37 46 51 22 37 19 49 34 28 49 40 33 40 41 26 51 36 37 34 52 42 44 28 44 33 32 33 41 51 37 41 58 41 33 52 43 31 29 45 20 41 38 57 49 47 51 33 55 59 37 25 20 57 57 30 33 30 55 20 28 43 49 41 26 48 62 49 62 31 35 41 20 45 33 35 41 57 37 55 40 35 29 31 37 48 62 17 30 23 23 34 65 34 37 40 40 43 25 40 63 49 51 32 46 43 53 43 19 43 53 44 22 35 63 23 22 26 44 38 62 23 57 52 26 30 42 40 41 19 37 37 46 42 48 38 41 38 44 19 57 39 48 34 23 37 28 51 46 38 42 62 40 42 34 37 30 35 30 30 33 40 19 31 37 41 49 47 38 37 41 51 40 43 52 44 45 42 27 33 46 45 48 50 47 43 58 48 26 44 33 48 45 37 43 42 65 25 33 27 33 25 29 40 22 44 41 27 34 53 24 51 21 25 52 23 16 38 43 26 51 27 42 34 58 45 41 43 20 24 45 45 38 52 44 45 40 21 38 54 47 16 62 66 38 48 58 38 24 33 34 37 37 59 39 57 41 13 24 39 38 43 43 62 34 29 29 38 47 29 45 35 20 43 17 43 62 43 50 55 40 31 48 30 41 37 44 62 50 39 52 22 49 44 27 54 62 34 47 40 47 16 44 43</t>
+    <t>NIG(14.891484224790098, 1.6005247100980107, -1.375350203373996, 45.273074173342195)</t>
+  </si>
+  <si>
+    <t>21 6 -6 9 -4 1 -7 1 -4 -4 20 -22 -6 -12 -7 18 2 28 -6 -21 13 19 4 3 -14 12 12 7 8 24 -10 3 -1 3 -8 -3 7 -8 3 1 18 6 -8 18 -4 1 5 -1 -6 3 -3 6 -14 10 4 2 7 10 2 6 5 2 -6 -19 -32 3 -6 -14 -3 -6 -15 -17 11 18 -6 4 -6 6 11 1 24 18 -13 10 16 14 29 -10 -3 3 -7 16 5 -7 7 9 0 27 7 3 14 16 15 -3 4 7 14 3 3 3 -1 -5 -4 -7 3 24 18 -8 3 7 4 -18 20 -3 15 9 -13 -3 21 -17 21 2 -2 -6 15 3 3 16 -14 14 12 22 -2 0 10 -6 21 14 27 14 -12 -14 10 12 3 0 30 15 -8 17 -13 -3 15 -3 13 -6 10 17 10 -5 -3 3 2 24 22 -6 -20 21 10 24 7 3 10 -12 -3 -10 12 3 27 6 18 -7 4 5 13 13 10 31 24 13 -8 -3 -15 1 10 -3 14 4 8 6 -6 17 3 3 5 8 17 1 -5 3 -4 17 -14 -18 0 17 18 -4 6 6 14 17 -21 10 -22 2 6 20 3 11 -14 -3 6 11 26 9 7 -4 4 -6 7 7 -31 -3 -12 11 16 8 -17 3 10 -3 7 -2 -2 10 19 1 1 13 14 26 -8 2 -6 1 44 9 21 12 1 10 10 10 -30 -18 4 3 17 16 11 18 6 17 -21 -11 3 -2 11 -5 14 3 2 -4 6 3 11 3 20 7 17 3 13 -6 21 4 -3 7 28 2 17 -15 4 -11 3 -10 -3 20 10 8 8 5 -5 -13 4 -8 -3 17 8 13 21 -3 11 -22 21 3 3 16 -3 7 3 20 -2 -10 30 14 10 6 8 15 -4 11 -14 -5 -1 4 -13 -6 9 17 -10 3 9 3 15 -2 -18 -1 18 -3 7 -16 -3 14 14 -8 11 6 11 2 -14 10 3 3 2 10 11 -3 36 14 -17 -6 -24 11 21 -14 1 9 -6 -3 14 -7 -4 28 -3 -20 -20 17 -3 -6 -15 15 -5 -3 38 6 -3 17 3 -15 6 -3 4 -11 -6 3 24 11 21 -1 17 12 6 7 -2 -11 28 3 10 -11 -13 5 7 8 0 -14 3 -4 -14 -4 -3 6 -7 7 -17 3 28 9 -2 9 9 -2 -15 -7 8 7 17 3 -10 13 -19 12 4 -17 -17 21 -5 6 21 10 -9 -3 3 6 8 4 -6 17 -24 -9 8 3 -21 4 -3 14 3 2 -17 3 13 21 -1 17 9 2 14 25 1 -8 11 27 5 9 -11 12 -3 -5 22 -4 4 10 3 9 -7 12 -10 -3 20 -16 4 4 10 -7 15 1 4 15 13 -4 3 -21 -23 -5 6 1 23 17 -9 12 21 -12 -10 9 9 11 10 1 14 11 14 15 -3 6 7 -4 -4 -7 -3 -4 4 -14 11 -9 -15 3 2 -10 5 -4 21 30 -3 11 -6 7 -11 -11 8 14 21 33 -10 8 9 -11 31 12 6 10 -3 3 -4 -9 20 5 -3 17 16 -7 10 5 17 16 -3 -3 3 14 22 3 39 0 18 18 -19 -6 -7 -3 6 3 -14 -10 10 17 -3 -4 -5 15 -3 5 9 -18 11 12 4 7 10 -11 -13 6 6 14 2 25 2 2 -10 2 11 23 4 -4 11 7 -4 -14 20 4 -19 7 19 -16 13 1 -3 9 20 -14 -3 12 -1 -6 6 24 -8 3 -18 3 2 3 -4 -7 -13 26 10 -7 -23 18 -16 3 1 -3 7 -10 3 17 -6 3 0 3 3 -16 -7 1 1 -7 -27 17 3 -4 3 20 -6 3 -3 6 8 -9 7 -8 -3 3 -2 -10 7 2 -13 3 -13 12 13 7 -3 13 10 -17 -4 25 6 9 24 -7 4 -3 11 -3 7 27 11 15 13 8 -6 -5 5 -4 13 -5 -3 23 3 5 -14 -23 -1 29 -3 6 34 -7 19 -10 -8 20 -1 -10 6 10 -2 -3 19 21 4 6 13 9 3 6 23 20 -2 1 -7 3 -8 -17 1 25 -6 -5 -7 16 3 -14 21 -7 7 1 6 -10 3 3 7 6 10 27 -25 -5 29 -3 -12 14 11 3 4 6 16 4 8 14 7 17 27 -4 -22 -8 8 -6 15 -3 19 27 3 3 -48 21 2 -7 4 36 -2 -5 2 6 10 21 42 18 15 6 -10 26 7 -13 12 -14 -3 -10 -3 -10 11 0 4 -3 -3 -14 3 -1 -28 -7 -7 -16 -2 17 10 -15 -13 7 17 8 3 15 -3 -3 -23 3 1 4 -27 3 8 11 -5 -4 -8 1 -2 10 4 -3 -7 -14 -19 5 20 -7 10 17 4 14 15 3 4 3 9 -7 7 1 7 -7 -6 19 14 -3 -14 7 18 18 -4 12 9 12 -7 3 -24 -3 6 13 3 -7 8 25 3 10 -18 5 -3 2 10 5 7 3 3 -3 3 -16 1 -6 7 8 -3 10 8 -25 -5 2 5 7 -9 -1 33 17 17 7 11 -7 4 3 8 17 -11 -7 3 8 6 -11 4 3 -17 -10 21 21 7 10 10 45 7 11 8 -14 8 8 14 15 -3 -12 5 13 -17 7 3 34 3 -13 2 17 18 6 2 -10 4 -3 14 25 13 9 6 13 3 -11 3 -2 5 -3 10 -24 -3 38 -5 8 -3 6 -6 3 7 -2 6 7 18 7 5 -3 -7 -11 -8 -4 21 25 1 6 1 10 26 20 -13 4 17 -3 3 -7 10 10 -14 -20 4 10 9 3 11 5 7 -3 45 -3 3 3 10 3 -13 6 10 8 6 2 2 -3 7 -5 4 14 8 -1 8 22 12 27 26 10 -8 6 23 21 -7 5 4 13 17 -14 -28 6 30 16 -1 14 -1 8 17 17 -11 -13 15 10 -2 5 7 -3 -6 14 17 4 7 -8 -22 17 18 10 -10 -11 3 -5 6 13 -4 -10 7 -18 -17 -10 -14 3 -5 -5 0 14 -5 -7 17 -3 -2 -4 10 11 10 3 -8 10 14 7 -10 -16 21 -3 18 -1 -18 3 4 24 -7 7 -3 4 9 18 5 -14 -3 -7 7 13 3 14 7 -13 10 -1 3 3 6 7 -7 3 -12 7 17 18 11 -3 8 6 -6 25 17 31 6 -4 10 6 -7 -7 13 9 17 7 3 6 20 -7 14 20 -10 3 14 8 -6 19 6 -2 -11 24 1 7 -3 -12 -5 -15 -15 -3 17 7 20 -5 5 8 -4 -10 10 6 12 -16 1 -4 -3 5 -21 14 6 23 7 -4 3 -10 -3 20 3 5 4 7 11 11 -3 6 26 1 6 -18 14 -4 -2 -7 -2 11 23 15 8 14 17 18 5 8 26 -3 7 -32 14 5 -3 -3 20 20 -3 11 -2 -5 3 17 3 13 27 3 -10 23 3 15 -1 7 1 -18 6 -11 1 -3 4 8 17 3 28 14 11 -15 -13 3 14 -9 2 21 5 7 8 22 12 -9 -3 10 24 3 12 24 3 -3 -24 -13 7 -6 -1 5 13 -5 10 7 8 15 7 -7 -11 20 -4 -3 -5 19 18 -4 -31 6 24 13 -1 8 10 4 7 16 -18 7 21 13 -8 3 7 5 2 -6 4 -3 29 1 28 3 3 -24 4 -16 21 8 5 15 -4 7 9 -31 10 -1 -10 8 3 3 3 1 17 -15 6 -7 30 -2 -15 22 -17 22 11 -3 -11 6 2 -3 -5 7 5 5 -17 17 2 2 13 11 -24 18 24 21 2 3 7 -4 -9 21 -8 2 17 7 29 2 10 -21 1 8 18 3 2 -9 31 -2 4 18 2 6 -2 8 9 10 6 8 -7 3 -6 5 5 -4 -10 -18 25 16 6 30 11 16 -3 3 7 3 4 11 6 -7 41 -8 6 9 10 6 7 7 16 8 18 3 13 18 3 7 -6 -18 6 3 -2 3 3 -4 -6 5 11 -6 3 -14 -15 8 6 3 1 -13 4 3 9 2 -2 -3 7 -6 21 -6 3 -6 5 -7 3 -6 34 -9 3 -9 -7 -13 15 -1 -8 20 -2 14 24 -17 17 2 8 3 10 -8 13 7 -3 6 14 7 -2 11 -2 -21 -20 -1 -12 3 -10 -4 -3 -4 23 8 4 -9 5 18 -7 17 29 27 0 -3 19 -3 34 3 -17 2 5 12 0 4 3 16 6 32 -17 8 5 -5 16 17 6 -9 6 -3 10 -3 18 3 13 5 -3 -6 -3 27 13 10 2 24 -5 -2 -8 7 3 8 8 6 28 3 6 10 13 -10 -1 10 1 18 -31 13 12 15 7 -6 -9 19 6 -3 1 25 1 7 -3 -19 -6 -5 -15 1 5 -3 3 -3 -39 6 -13 6 17 -22 3 7 18 -3 3 -10 14 4 14 -10 3 -5 3 -6 6 10 3 -3 25 -14 -4 -4 -11 -7 -19 14 10 -3 -3 5 15 4 -9 -2 -3 11 -8 -4 -3 3 13 14 -3 17 4 3 -6 24 -4 3 5 17 15 -18 -7 5 3 -12 3 -3 -1 -6 -4 -3 -7 2 -6 -3 -8 14 25 -7 10 5 -8 4 -7 10 3 3 -4 6 14 -4 -8 -20 18 3 -28 10 -14 22 5 14 4 4 -4 -14 6 8 7 5 13 6 13 -6 -11 -6 27 11 12 6 3 -23 27 18 -9 10 -10 3 7 11 7 15 18 6 -14 -9 -21 24 21 17 -3 3 17 9 -6 28 5 -10 -11 14 -18 4 4 -3 8 13 14 -3 3 3 10 -10 -7 -6 -13 -14 -8 5 2 25 -17 13 -14 -6 0 -7 34 27 9 9 3 10 3 11 3 9 21 7 -15 18 7 -5 10 21 34 1 29 -8 25 7 16 25 3 3 -2 3 -4 -17 3 -2 3 -19 -8 -4 -17 7 -3 13 6 25 -18 25 -15 10 3 -18 6 6 -5 8 7 -3 28 4 28 7 -9 -25 21 -2 4 3 9 -7 -17 -15 20 -3 7 7 23 7 6 7 17 -7 1 14 8 -8 -3 -2 -3 12 12 2 -8 -18 -2 7 25 6 9 8 -15 7 -1 -2 25 -13 17 17 -11 11 -13 5 3 7 3 10 8 -19 -10 -5 7 -7 17 -18 7 4 28 -4 -6 13 -4 8 27 -3 -7 -10 6 -11 3 28 3 -8 -21 11 12 -17 -3 14 -14 10 -17 -2 4 -34 -8 3 -1 6 3 30 2 -3 5 6 4 -9 8 7 -3 22 -3 -3 -4 6 -4 1 6 17 -11 11 -7 18 -6 7 6 10 4 16 6 -19 -7 -8 3 4 -16 14 17 12 15 -6 10 -9 5 5 -3 11 20 16 33 -2 -10 13 4 6 10 3 41 -3 3 4 3 -14 -14 14 24 10 6 2 9 1 -3 9 -1 12 -2 4 17 18 14 8 8 9 7 6 -7 -15 -10 -2 17 -15 10 -21 6 -25 -6 6 18 18 9 4 -5 11 15 -4 -2 18 -5 3 -17 -14 5 20 3 7 2 13 -3 -6 10 19 -7 -3 -6 11 0 8 25 3 20 -3 -17 6 3 -5 5 5 -3 -11 13 9 -11 3 2 11 -10 -10 -19 -7 -3 2 -5 7 -9 6 20 4 -6 -8 9 6 3 3 -13 -1 -13 -4 -6 1 8 -6 -14 -17 -3 -8 -6 6 -25 24 4 6 -4 15 8 7 23 7 7 -6 -35 2 4 -2 -4 3 -14 -3 4 3 4 18 -3 3 1 3 -6 -9 4 -7 -31 16 5 16 10 16 21 3 28 10 15 3 6 5 -23 -10 -1 -16 -3 5 -15 13 -15 7 15 -4 4 11 -3 -1 -6 3 -6 2 4 5 25 -3 7 9 7 -5 6 3 1 -6 6 10 12 14 -3 7 11 24 6 -25 -6 -14 3 19 19 11 9 4 9 -4 -7 -11 14 -3 -11 -21 3 3 2 -17 0 -12 -4 27 -11 -5 -6 3 -11 -6 7 11 13 -3 3 27 -28 7 25 -12 13 3 -3 21 25 -20 -20 -6 -1 -3 31 3 -14 2 21 13 11 6 8 16 -9 10 8 -4 -11 6 -7 3 11 -5 5 -6 5 -21 3 15 -18 3 6 18 -7 -6 17 21 -5 18 -10 -5 -14 3 -3 11 -12 -11 15 6 7 7 -4 11 -6 3 3 3 -15 3 -2 -3 -5 -2 5 16 3 10 3 3 -5 -6 28 9 10 8 9 -13 -4 -3 -11 -4 20 8 -20 3 12 10 3 -1 16 8 -2 -12 12 14 3 0 5 12 3 1 -4 -3 8 8 10 6 -1 10 1 -3 -3 3 -18 -3 3 9 3 3 -14 -17 4 -3 14 -7 7 34 29 11 3 -8 -11 6 -9 19 12 35 20 14 3 14 10 3 4 -18 -22 14 9 -17 1 2 3 24 -21 -10 21 7 9 7 -4 -8 16 7 -6 6 10 19 -17 -1 -6 4 24 9 13 -7 3 -2 -11 1 3 -6 3 22 21 3 -16 35 -10 -16 19 -3 17 -8 -14 15 9 -3 -10 27 5 18 -7 -18 16 11 -8 3 8 6 8 21 6 1 3 3 -3 -8 -7 3 1 1 -3 10 -6 8 1 15 8 11 12 -8 -6 9 10 25 9 -8 -16 -16 -6 8 -5 -3 3 -7 7 -1 -7 11 -1 -4 -1 8 24 -8 8 6 1 -4 6 13 8 -3 -17 11 10 21 -10 5 14 -13 3 7 6 -9 2 11 3 -11 14 21 -8 13 3 -10 -6 11 14 7 -10 4 4 2 8 -9 -7 3 -5 27 -3 17 -6 14 12 3 -12 3 -9 14 -7 -3 -1 10 3 -4 -14 17 -3 9 -8 -11 -15 20 8 -3 -6 1 3 6 -6 7 -12 10 -7 14 7 -3 -6 18 18 19 3 8 -7 7 14 14 5 16 11 20 15 20 3 -10 15 10 7 12 20 12 -11 -2 15 6 -10 20 -7 3 4 31 -6 -1 3 -15 3 -8 24 -3 -4 18 -22 -14 -3 7 -6 -13 7 19 7 11 -6 15 15 4 -10 16 11 -7 5 11 5 -6 -3 0 3 -4 -7 21 -7 15 11 -3 23 -12 -4 11 22 12 -7 -18 -3 3 13 -17 10 13 -7 2 -1 -3 14 19 17 6 10 -4 25 -8 -8 2 7 21 21 8 0 8 2 3 -17 10 9 1 21 -7 -2 3 3 -5 -29 3 -4 9 -3 29 -3 14 3 3 13 8 13 -1 9 -18 -4 0 -1 -3 5 11 8 -3 16 3 9 -11 14 13 -25 14 7 18 7 -1 -3 15 -4 -8 4 6 14 10 11 -7 12 -8 -3 28 -3 24 20 -8 -12 3 22 -3 -7 -8 21 8 7 4 17 -6 19 7 3 3 -3 8 6 -3 6 23 3 6 -8 19 -11 -3 -5 21 -14 -8 -4 -19 17 1 18 11 31 20 24 16 -8 28 18 7 5 10 4 -18 -14 -2 10 3 3 -12 -7 4 -3 4 -3 -4 8 -16 4 5 28 4 37 6 -25 -13 10 3 -6 -14 -3 -8 7 31 -6 2 3 4 -3 -3 10 10 9 -7 -10 6 2 2 18 -1 27 17 -3 16 18 24 6 10 5 7 8 3 -3 -1 1 8 19 3 -5 -22 -18 7 17 -25 5 1 17 6 14 12 -10 23 -2 -5 -7 10 14 24 -15 -7 4 -4 -3 14 -4 -3 -8 38 7 24 7 -6 3 14 14 -3 -28 23 14 -5 20 5 28 18 -2 6 -6 -12 2 -10 -14 -23 -13 2 24 3 -3 -5 -12 14 -12 9 -6 -11 -6 1 -17 6 -3 20 -6 7 20 2 -6 6 6 -14 10 -1 12 11 25 -5 8 -6 -3 -21 -6 7 6 19 3 -16 27 24 -3 2 4 1 -10 -8 -3 -5 -7 34 -7 17 -13 18 -1 32 3 6 3 -10 15 22 -4 -20 7 3 -4 -5 3 -3 8 7 9 4 -2 -3 13 3 3 -13 -11 -7 -25 2 24 7 14 5 6 1 11 -4 3 13 6 14 6 -14 18 7 2 19 11 7 -15 -3 -6 7 -11 -15 7 10 7 14 12 11 -8 -34 -14 8 10 19 17 14 25 15 6 20 6 11 18 -16 3 7 -14 17 -7 -11 18 14 12 6 5 7 19 3 -1 7 3 -2 3 21 -8 -4 23 -8 -3 19 -2 -6 6 6 -6 4 -13 4 -13 -6 12 24 4 19 6 23 -3 16 16 8 -4 19 5 -3 10 1 -4 5 -10 12 17 -14 -4 14 -14 15 16 -8 -9 8 -13 2 5 8 17 26 3 -13 -3 -14 17 -11 3 -14 -5 6 23 3 -24 3 15 17 12 4 28 -1 3 2 4 0 -23 6 27 6 28 21 1 -37 26 7 1 6 11 -14 -16 28 7 24 -2 10 -24 16 -15 16 -7 -3 6 2 6 8 6 6 -4 3 -4 -14 2 10 -3 14 16 -6 3 -10 14 17 -14 5 10 4 -6 18 4 -4 8 -13 -14 -10 -11 -6 3 -8 14 13 -7 2 -3 9 2 7 17 18 -3 12 7 23 2 -4 1 3 -5 -3 10 12 1 -13 10 8 5 15 7 -31 -13 -3 7 4 6 8 19 7 29 16 -15 -4 -2 11 6 10 3 3 -19 -3 -9 4 -10 -4 8 22 -2 18 -14 13 23 2 -6 14 -7 -13 6 -21 27 7 11 -23 3 8 2 9 -2 4 6 10 11 2 -21 -6 10 -18 10 4 13 -3 14 -6 5 7 30 3 14 -27 10 2 10 7 6 1 -7 9 -14 14 4 -14 9 -24 20 6 24 7 -5 3 -12 -11 -7 -2 1 2 -20 8 6 -8 -7 25 6 7 11 -4 -5 3 -2 6 6 -3 -3 3 21 -8 23 6 15 -11 -1 -14 -6 1 16 3 10 8 -11 5 13 -1 3 -9 15 3 -10 17 7 -14 -23 14 13 21 6 17 9 4 10 9 4 4 27 -11 -15 13 11 26 4 6 -12 20 -18 -6 -10 0 6 -3 -13 8 4 -5 5 3 -4 -3 -4 -10 7 4 2 -3 3 19 -23 -10 -3 15 14 -7 27 10 -4 13 5 1 -3 10 15 22 -4 -9 3 -14 12 -6 -11 4 -4 21 13 -6 -3 14 16 10 3 16 -5 8 44 14 11 17 5 -21 9 -8 14 18 9 8 3 14 8 6 -14 -15 3 4 -1 3 34 9 3 21 -21 7 21 -6 24 3 17 -13 -4 4 4 19 15 11 -1 19 -10 3 8 2 -6 7 2 -4 -2 11 -2 2 -14 11 19 -3 -2 -6 20 15 4 12 -5 15 -7 4 3 -2 11 25 6 18 -6 -4 13 5 23 14 10 13 3 9 -7 6 -9 9 7 -7 -14 -4 14 9 3 10 -8 37 -10 9 18 11 13 29 -20 10 -3 -17 -14 6 10 17 5 -18 -11 -7 15 -6 14 10 24 -3 10 -6 -5 6 6 8 4 11 5 7 7 7 6 -2 7 9 3 20 -11 10 7 10 -6 12 6 6 -2 12 -20 -3 18 13 6 -23 7 -4 -18 8 11 -6 2 13 -3 -13 -7 -4 -17 4 -6 -5 -1 -3 -18 -16 -4 6 30 10 -3 -5 -18 28 3 11 26 -4 7 3 -13 -13 -6 -1 -16 10 25 8 -6 -9 -1 3 17 7 17 -8 -7 -5 7 -3 8 3 2 -17 -1 -2 -18 21 6 -1 31 -14 -5 -13 8 -4 -3 2 11 -7 24 -5 -4 -14 -3 13 -3 -7 27 -6 -6 6 5 14 -9 -3 5 -18 -6 17 5 9 19 -7 7 7 9 2 14 3 10 -17 10 2 7 9 -3 14 -4 7 24 6 -11 -10 3 10 18 -21 -3 3 22 -19 -4 24 6 3 10 27 10 -7 -6 18 14 -15 4 -26 -7 -4 7 25 6 27 -10 7 13 3 7 4 3 -3 12 -1 3 16 -4 -9 0 12 -3 -9 4 3 11 -1 2 -10 18 11 -4 3 8 21 -6 -9 19 21 5 -18 -4 -22 -5 -8 14 -3 -6 15 15 4 2 20 7 4 -30 -10 -3 12 3 8 16 -9 6 19 -1 14 -6 -5 -7 8 13 9 -7 7 17 6 -2 0 3 -13 6 -12 22 16 -4 14 -18 -6 13 7 27 6 6 5 -21 12 -2 6 -3 -11 19 6 -3 5 -3 -6 -2 22 12 0 -3 -3 -2 11 -13 3 8 -3 5 3 16 19 6 -14 -9 -6 14 6 9 1 -29 0 -22 3 -7 15 -2 -9 -8 4 3 3 6 14 -8 2 22 -5 8 -3 -27 -7 3 -7 9 -6 18 4 7 -4 -8 -5 8 17 -6 -11 7 3 13 3 28 18 -3 -12 17 -16 7 17 9 3 26 -6 35 -3 4 8 -3 2 -6 5 -2 25 9 1 4 7 -27 -7 6 21 17 21 11 6 5 20 18 7 -8 2 13 15 -3 -6 12 30 28 8 -8 -8 -6 -4 19 35 -1 14 15 -7 6 21 -3 -3 24 2 19 11 -11 -4 -14 1 7 13 -4 17 10 -15 3 -7 -27 7 6 -6 -17 3 9 8 12 23 -4 -1 -6 -4 8 9 7 19 20 -15 -3 17 -17 1 -8 6 3 -1 -30 28 6 -21 1 17 -8 6 3 -16 2 4 14 3 -12 -7 -3 13 8 -4 3 2 -8 4 3 -5 8 5 3 11 5 7 3 -15 4 14 -3 16 7 6 -7 8 2 20 12 3 -4 12 -21 -4 2 4 -6 -16 10 -22 4 -18 -10 -2 3 3 -11 3 7 -3 17 -3 -11 1 4 3 6 10 -4 6 11 20 -10 13 -12 -1 -1 8 10 7 11 -10 2 3 3 19 -6 9 14 13 12 4 3 3 -7 5 20 10 -3 -27 9 -14 27 6 10 -1 -5 39 17 6 2 5 7 7 7 4 5 -3 5 10 -6 3 5 -3 -3 26 -7 -7 3 -5 -4 3 -7 3 -22 5 18 4 -11 21 6 -19 7 23 7 3 3 -6 11 12 -4 -2 19 20 -11 10 3 1 10 -6 6 -4 11 -17 22 34 14 18 -10 3 -14 3 25 7 -4 -5 -18 15 -3 -11 -6 -7 32 -7 8 4 23 -7 7 6 29 14 6 18 19 10 7 3 3 3 7 -8 7 -10 10 3 -11 10 19 -4 11 26 -4 13 11 1 -11 -7 -14 36 9 -3 3 -3 -3 -2 -42 11 13 20 -7 25 8 -10 -10 -5 -3 0 3 25 3 3 -15 -3 -1 6 -17 -14 -13 6 27 11 6 1 -10 -3 14 -9 -4 -7 5 6 -6 6 19 13 2 7 2 7 -3 -13 -3 -18 -3 -3 6 -3 5 -12 14 5 -5 1 -3 28 -32 1 -10 -4 -28 -5 -14 -6 14 0 14 6 3 10 27 -3 -9 -8 -1 17 10 18 -2 -5 -1 -20 8 3 -4 15 11 13 3 -20 3 12 21 3 13 3 -9 6 7 23 -10 -6 3 8 16 3 -4 8 14 1 -7 -3 -6 -4 7 -3 7 -15 19 5 -3 17 -2 18 -13 9 11 14 3 10 6 18 7 8 -3 3 -7 -27 27 18 -20 -18 -5 11 -7 5 -1 14 -3 14 9 -19 -1 2 2 9 -10 2 13 -9 9 22 3 -13 -3 6 6 -7 8 8 1 6 3 18 21 6 -14 2 29 -5 5 6 10 -11 17 5 22 5 3 5 6 35 -3 3 3 3 18 23 21 14 3 17 11 3 -23 5 3 5 -3 5 -7 3 -16 3 3 1 23 -6 -11 8 -24 3 14 9 -6 -10 21 -10 -33 10 3 -19 7 -4 -3 8 3 11 4 -18 4 -21 4 2 -3 -3 6 8 -4 21 4 -5 20 -1 3 13 15 -7 -17 2 25 -7 -8 5 22 3 -10 -30 8 7 2 2 4 21 13 2 21 -1 -10 -10 -4 3 7 -12 -3 3 3 -3 3 -24 28 34 -3 -13 14 4 -8 5 22 -4 20 3 2 9 20 10 -1 10 -30 6 -4 3 -4 -3 28 17 32 13 13 -1 -14 6 7 -15 -6 -20 -20 2 -12 16 -7 25 -14 2 4 8 -14 -3 -21 -3 10 -14 20 -6 -13 8 -5 10 -4 4 13 -9 7 10 5 -2 16 5 -7 -4 7 -3 23 22 -6 -6 -4 2 -9 3 -11 -3 -6 3 15 24 14 -7 24 4 18 28 7 7 21 -3 -2 6 -20 -9 2 -3 3 18 6 -18 -27 11 -4 -3 21 -17 14 9 -3 28 7 -13 -6 -4 5 3 -6 -5 6 -40 21 -28 9 14 11 3 10 21 22 16 13 3 6 -13 27 7 6 0 21 -14 6 8 -4 3 3 10 10 5 -9 -6 4 -7 21 20 -15 14 -17 3 7 7 11 3 6 17 15 19 11 7 -14 14 -2 -16 3 25 21 7 14 -17 -12 -10 17 3 -13 -3 -4 11 7 12 0 -3 -1 13 -10 16 6 1 4 13 7 -3 4 19 3 3 27 3 13 14 6 2 17 -3 7 6 7 1 2 12 17 -5 11 19 -5 11 10 15 7 -5 21 11 6 -10 2 -3 26 10 12 18 -10 5 -17 3 3 -3 -6 22 2 11 9 -3 6 8 -13 24 6 17 17 7 -7 3 13 -15 24 14 7 4 14 -9 -14 -1 -14 20 2 6 14 10 19 3 -14 -12 -6 6 20 17 -10 -4 14 8 2 18 6 -8 4 6 2 13 -5 2 6 -6 3 -8 21 -28 3 -18 1 6 33 -3 4 -4 4 3 6 -6 23 -12 10 -4 0 14 11 -14 4 16 18 -10 25 14 13 -7 10 -1 -14 -11 6 13 12 -28 15 -8 14 25 2 -17 8 18 4 22 -3 14 -19 20 4 18 -3 -6 10 -1 14 -7 -15 3 4 -23 3 16 -5 15 -5 -9 -25 27 -3 4 -7 -15 -22 13 26 -3 -3 16 19 -10 17 -3 -3 4 14 18 4 3 5 20 3 23 3 5 5 11 -1 2 -3 3 11 -13 5 2 -6 22 12 3 -15 10 -16 -12 6 -3 9 -10 21 -6 13 -3 5 10 1 34 3 24 13 -7 -12 8 11 20 -10 -6 -6 -10 12 -3 -11 -25 -21 27 -15 3 13 2 6 19 8 -7 5 4 18 3 15 -8 6 13 3 11 -9 -13 14 3 -5 -5 7 13 -4 -3 15 -5 -5 3 -3 14 -4 -11 4 -6 -7 7 -3 3 -5 5 -10 27 -8 5 5 -1 -5 11 -7 16 -3 4 -3 -6 7 6 -12 2 -18 6 -1 -10 -3 17 -3 -7 3 8 3 -1 2 7 -17 -6 1 0 -6 11 24 -3 7 -4 -7 -1 15 -6 3 -1 11 -8 17 -7 10 13 3 12 10 -19 6 -11 8 4 -3 -9 5 -7 10 13 16 -3 -6 6 22 -3 13 -14 6 8 23 -3 25 6 24 3 2 8 9 18 -7 7 -18 -3 -12 -3 15 6 27 10 6 6 5 -9 16 3 15 -5 15 6 2 -3 8 6 -10 6 -11 -3 32 7 13 -12 6 22 -2 -2 -12 -11 1 -11 -3 9 -3 2 13 19 2 4 19 14 2 6 3 1 24 8 0 17 -13 10 -11 -3 17 -3 3 -12 3 3 -7 8 8 -6 -3 5 7 30 6 -10 -12 3 21 2 7 31 -1 20 18 -8 3 14 -4 12 8 3 21 22 15 22 -5 -5 6 -9 -3 -21 -6 -2 13 3 -10 14 13 6 6 -3 23 -3 32 -14 38 -14 8 3 1 -5 6 21 16 -1 1 -11 -12 19 5 17 3 0 14 2 -11 20 -7 23 -6 -7 7 -1 7 -7 -3 23 -3 8 3 13 7 -4 3 6 6 -12 25 7 13 4 17 -3 17 -9 1 11 30 7 -2 20 -6 -21 4 10 25 -15 -5 11 14 -28 9 -19 4 -3 13 -5 7 0 4 13 -3 -4 -3 32 -10 3 14 -2 -4 -3 9 25 6 -16 -23 8 15 5 -7 -28 -7 -11 21 15 3 21 -3 -9 10 -5 11 7 3 -8 1 11 -7 -14 -10 7 4 15 30 -9 16 -8 3 38 13 -4 -3 8 10 3 3 13 -8 24 2 -8 -8 -3 4 5 -7 -8 3 -13 22 3 -3 -13 -14 -1 -11 -11 -10 -11 7 11 -7 14 12 3 15 24 8 10 -14 24 17 22 7 -3 -5 9 -7 21 -18 3 14 15 -18 -3 17 3 15 12 -6 15 34 5 14 15 2 7 -17 16 -10 -1 -4 19 -3 6 -8 -9 7 6 6 14 -12 6 6 -6 -5 -7 -10 7 5 -5 7 -4 -8 -28 4 -10 14 24 8 28 18 11 2 8 21 10 19 -10 18 10 8 -4 -14 -6 -18 3 8 6 9 -9 2 2 6 -6 -6 17 6 7 3 -3 -10 -14 2 22 -17 -1 4 -14 21 -2 10 1 8 32 8 -22 -3 8 3 24 7 -5 -27 -10 17 -3 20 7 -8 -7 -1 16 -9 3 -7 -4 19 -17 7 20 21 -3 24 2 10 7 -1 1 6 5 7 28 -8 14 11 15 -13 7 23 -4 3 11 0 -6 3 6 -3 -3 40 9 -3 -6 17 3 -6 4 -3 37 4 19 11 -4 3 13 -8 31 20 6 3 9 3 24 6 8 -1 24 4 2 -5 -2 9 3 6 12 -7 13 8 -7 4 13 -5 -1 6 -20 -3 3 -20 21 25 12 -7 7 -8 -7 22 23 -2 11 10 3 1 -12 -6 16 7 -4 -6 13 -3 -3 -3 -3 6 1 6 3 5 12 3 1 4 -2 7 10 15 17 9 10 3 17 -1 5 -21 -3 -10 11 -14 27 -8 17 15 -7 -3 -6 18 3 6 -20 2 -3 4 6 17 21 -10 -1 -20 -7 22 -5 3 6 31 3 -7 -7 17 -14 -20 0 35 -3 14 3 15 -7 2 8 25 -7 4 47 6 -5 21 11 11 2 -4 -3 16 7 -7 -8 -9 18 8 -3 12 16 -3 -4 -3 2 20 14 -1 -3 -4 -5 14 5 6 18 3 16 24 -23 -5 -3 5 -3 -8 10 0 3 6 -10 -1 -13 -3 -6 19 9 -5 3 -7 25 6 16 12 -3 -4 7 -8 -5 -7 7 -7 14 -2 -6 3 0 17 3 7 14 4 21 6 14 17 -9 -17 -3 11 13 12 -24 22 -8 -3 10 10 18 9 -15 -3 -5 1 21 17 12 31 -11 7 10 -13 -7 -13 2 1 -2 -7 -6 11 12 -3 4 3 17 3 5 -5 11 -5 1 9 8 -6 -9 18 11 13 18 -2 8 -3 3 19 3 21 4 8 -3 4 6 8 -7 17 -9 -4 13 -12 3 -13 -14 -1 -11 20 18 -2 3 10 7 -3 -10 -16 3 10 -4 -8 7 -20 9 12 5 -17 -12 5 7 21 -10 -8 4 4 4 -5 22 -4 -3 2 10 -7 11 4 -19 6 3 -5 18 -7 -2 -4 -3 13 -6 3 20 -4 22 3 2 3 9 6 -17 9 -10 5 -21 15 2 9 -5 -23 2 -3 -3 4 -3 -13 -12 37 2 8 -3 10 14 32 4 7 3 3 -9 7 -26 3 3 1 3 13 17 15 7 -1 2 2 12 -17 -2 -3 3 -12 6 36 -10 -1 3 22 14 -21 -4 17 -20 4 18 9 7 -6 27 8 -14 -3 3 14 33 2 8 -6 -3 -3 13 -7 30 -6 -19 10 15 -10 12 3 3 17 3 14 24 0 18 -7 8 20 -15 3 7 15 5 7 8 3 12 3 22 1 -31 18 7 13 -3 -6 2 -3 10 2 -18 -1 4 6 18 -4 -2 3 -10 8 17 -17 6 31 7 -1 24 6 4 7 -7 -12 17 1 18 17 -13 -5 17 16 -11 7 16 2 10 16 29 18 6 6 6 0 4 -30 -7 -8 30 -3 -3 -3 9 2 18 16 -15 8 -4 -7 2 -7 1 -12 13 5 6 6 9 -10 3 -17 18 -3 3 -28 11 -6 3 -10 -5 28 4 1 -7 18 11 -9 -11 13 3 13 -10 -1 7 20 3 -15 -11 -3 -6 -6 12 -14 21 2 4 -26 3 14 17 -5 7 -7 17 -8 11 20 31 7 11 10 3 17 -3 -3 11 0 -11 25 -6 -14 20 -3 10 -5 -11 3 7 -1 20 -3 -17 12 3 -8 -6 -5 3 -21 -7 -4 7 10 12 11 -17 -11 -2 19 -4 5 -4 15 -10 4 -5 9 -8 5 1 4 15 3 -13 9 4 -1 -3 -11 10 -14 7 -1 19 3 3 7 -5 -7 -10 10 -3 14 4 24 -4 -6 19 -17 8 3 -14 14 12 11 24 3 0 -7 38 -7 10 -1 -7 2 -20 14 4 17 -6 6 12 5 -20 4 4 20 -12 -6 -13 3 15 -17 17 4 19 23 -3 3 -16 17 1 -6 21 17 -5 12 20 31 -15 -11 3 11 -12 21 19 -16 -13 11 2 -4 18 8 14 -3 13 -14 8 23 -4 1 9 -5 -12 -7 -4 -3 18 -6 20 2 28 3 15 21 7 2 11 -1 17 10 -4 34 3 -7 3 -3 3 2 -3 15 -2 3 27 -3 12 17 9 9 3 -7 27 -5 -3 8 28 3 2 17 11 18 -8 -3 5 -23 -5 -7 13 14 14 -2 3 -6 -6 9 7 19 -8 -7 20 6 -32 6 3 8 -9 -4 -19 6 28 -7 6 10 -6 -8 -3 24 1 -5 -5 0 37 21 4 10 3 -8 3 -3 6 -1 -12 20 -4 1 6 -8 -22 7 7 11 24 3 -7 20 3 10 12 4 13 20 19 8 14 15 18 15 -5 3 27 2 24 -10 10 19 24 44 20 -5 -11 6 -3 0 3 3 9 8 22 16 -14 8 17 1 11 21 4 -8 9 19 19 -4 7 10 9 9 16 11 22 13 -27 21 11 32 -14 37 32 25 18 6 8 6 -18 -11 -6 29 11 16 5 21 -5 4 -10 8 0 3 10 -3 1 -5 -9 14 5 -7 6 8 -14 14 -3 -1 7 28 9 3 11 14 3 -13 -3 11 31 6 10 -4 17 -6 14 2 -15 10 -14 -8 16 3 14 15 -3 18 26 5 -6 -10 -9 1 -8 -1 -14 14 -4 14 14 16 22 6 -7 9 -4 -4 7 22 15 -16 8 0 -7 6 4 -4 6 4 14 -21 -3 -12 14 15 -3 16 10 -14 3 14 6 2 28 3 2 3 17 11 -6 3 -2 10 -3 -24 -7 4 2 7 14 8 4 20 3 -1 20 -4 -13 -11 2 25 -3 -11 -4 11 10 20 -14 -17 -16 -18 7 24 3 -7 16 -17 -2 42 21 6 7 18 -6 3 -7 9 18 19 6 11 6 6 -6 10 -6 8 4 2 -31 3 10 7 17 3 3 2 17 11 -3 -3 11 -14 7 1 -1 -6 -7 20 3 14 8 3 -8 -11 8 -13 3 13 -11 5 -3 6 -14 17 20 13 -7 -2 11 -6 15 12 -3 -3 4 19 -10 -4 8 21 3 7 -10 5 5 34 3 2 -2 6 7 20 11 -3 8 -4 14 5 19 2 4 -7 11 3 7 -3 8 -5 -7 -20 8 5 3 -11 3 0 6 -1 18 34 9 24 -9 -21 25 3 3 7 16 -11 4 -5 18 15 -5 -11 5 19 -8 18 12 -6 5 8 2 8 -7 -9 -2 -4 6 3 12 13 1 8 -25 42 -14 8 -9 -15 10 6 12 8 -3 -7 6 14 9 3 -18 13 -15 -8 8 -10 -13 3 9 -5 16 -5 10 3 -9 -1 17 19 -22 -6 27 32 -1 -8 -3 7 -3 -7 18 -15 3 -3 10 3 -3 15 17 -3 -18 10 27 -17 -4 17 9 -22 6 -8 -15 2 -6 3 3 10 -3 3 5 -6 4 4 -7 6 -10 27 -1 -3 -21 -2 -5 34 -12 33 8 4 -3 -3 32 6 -3 -2 7 0 -17 7 17 7 -20 20 -1 5 0 -6 -4 3 -3 3 11 11 -14 6 3 11 9 -1 24 5 28 -5 0 3 8 3 18 3 5 15 -15 16 -7 -16 9 -14 -7 -14 11 30 14 4 -7 6 -3 9 10 3 -3 26 -5 3 -3 -7 10 17 -7 -3 1 6 18 -14 7 -4 17 -17 -3 8 7 3 8 -11 3 24 -20 -3 -18 -10 8 18 3 -5 3 8 -2 -6 -1 -21 -6 -10 -5 14 -7 19 -5 13 20 25 8 8 -3 1 9 -14 -13 7 6 3 -1 15 3 -8 3 4 13 3 21 9 -10 9 16 1 -7 30 -3 -4 -4 3 14 -17 0 11 -7 8 11 -6 -3 3 -16 -11 33 13 24 9 -6 -2 -4 22 -7 29 7 4 -7 4 -2 1 -2 4 -6 3 14 -3 3 0 -9 16 -2 -3 5 -4 2 3 6 1 14 -3 -3 16 6 7 -8 12 29 6 -13 15 -10 -15 15 9 -14 20 25 -3 4 3 -28 24 -13 -13 24 -7 -7 -13 16 -17 11 7 10 -6 0 -5 6 -13 19 3 -8 7 14 -7 24 -5 -5 17 6 3 10 17 -11 3 -3 15 -10 1 17 8 1 6 14 13 5 9 -6 -6 14 -9 7 -4 -3 25 -6 -8 -15 17 13 25 6 -1 17 3 4 6 -3 -7 3 -5 8 -5 4 11 5 16 -18 17 -5 -3 3 3 -29 3 13 -15 -6 6 7 11 -3 -8 10 -13 -17 -3 4 5 7 17 4 6 10 11 7 -7 7 -9 7 -7 -8 13 -18 -3 3 10 25 -17 -15 -14 22 3 -1 14 -19 7 -3 12 15 -7 25 23 3 6 10 3 31 24 -2 6 -1 3 16 20 -4 23 -10 30 -10 -3 1 3 17 14 17 18 11 6 2 12 4 -8 -3 -8 21 11 -2 -12 14 14 6 11 -1 -2 11 10 -6 5 -3 -8 -8 14 6 19 -14 -24 3 3 -9 6 -14 6 -6 14 7 31 -5 23 34 31 3 18 -6 -7 -21 -3 -21 -7 -22 18 4 11 10 7 3 -2 -2 4 -3 6 -7 -10 -3 3 28 18 12 -3 32 -7 3 9 -17 -10 4 22 3 -4 -4 17 30 5 -15 -5 -4 3 -3 17 1 -1 14 -2 4 -8 0 -8 -8 17 7 11 -11 -6 -4 -22 2 -7 9 17 8 -3 4 -7 -4 -4 -15 -14 21 1 -3 -11 -16 4 -4 20 7 -10 14 3 -5 3 4 -9 25 -3 3 25 7 -7 -35 -13 -3 10 9 3 28 6 10 13 4 5 -7 7 6 -7 7 -3 0 10 -3 10 -4 9 8 5 -14 9 6 10 -2 3 0 18 4 20 3 -9 4 -5 -1 18 1 14 20 10 -1 -2 -6 11 -15 4 3 11 20 11 7 4 -3 21 14 18 -7 6 4 7 7 -3 14 -5 8 3 4 11 18 5 -3 13 14 -1 -15 3 -3 -11 5 -11 3 11 6 -17 3 -6 -6 3 11 10 25 5 5 -10 -12 7 -18 -2 15 3 13 -21 14 10 2 19 -6 4 11 8 9 10 -5 16 16 4 23 -4 13 -17 23 7 17 7 -3 12 -15 -19 1 3 -3 6 -3 12 -4 25 5 7 3 -4 -3 -3 -5 -7 9 8 -3 -11 -16 -8 -3 1 8 13 -3 -3 7 4 -7 3 14 8 8 -9 2 -4 10 3 10 28 -13 5 -6 -17 1 3 10 3 -3 3 6 4 21 -2 18 -7 18 17 4 -7 -6 11 12 13 3 10 3 -3 17 24 6 3 3 11 2 -9 6 -8 14 -18 22 27 40 -22 -6 32 -25 -4 7 -3 17 11 -18 17 12 18 -5 3 30 14 -13 17 -3 18 12 7 14 3 6 3 7 15 8 -5 -8 31 8 6 3 -3 3 10 6 -11 3 -15 7 -5 11 11 14 6 3 33 17 -10 10 21 18 -13 3 -12 6 3 37 0 -6 7 16 2 11 -24 -14 3 1 -5 5 -9 6 9 1 6 10 17 -9 -6 -2 22 24 18 -3 10 7 8 -11 11 15 10 -3 -2 -12 -3 6 27 -17 -4 -22 -3 -4 -3 -20 6 7 14 -16 14 -6 -3 -8 5 3 26 9 4 11 10 -3 -10 6 -10 5 2 6 3 14 -25 21 17 -17 -6 7 7 3 -10 4 7 22 16 10 7 5 3 -10 6 14 -11 -7 6 1 -3 -13 -7 -2 3 3 6 17 20 -3 -6 4 3 -10 -3 -3 3 8 3 22 -7 12 7 -13 8 -6 26 21 16 19 -27 11 23 13 -13 -13 -20 0 17 17 8 -3 -13 20 -8 3 10 21 -17 -8 20 -13 0 -14 11 -7 -1 -1 6 -3 10 -3 8 24 -5 4 18 -12 4 -22 -7 -9 17 3 13 7 6 7 -15 -5 17 -19 6 -5 16 2 4 -11 19 -16 3 -19 7 -17 7 3 11 4 -4 3 -3 -9 -7 16 -1 9 3 3 -7 -2 13 -16 3 37 7 3 6 3 1 10 -14 26 6 3 -7 1 -3 1 -8 -16 9 9 -25 5 3 -8 10 -11 17 6 1 11 23 27 23 8 -7 -17 7 -14 21 3 7 -7 -7 6 12 3 -6 -3 15 21 5 -1 -12 4 -8 20 -8 2 20 17 5 8 -6 25 4 -18 13 3 -3 13 6 8 8 3 -17 4 1 -3 -3 1 -3 12 24 21 32 24 -3 10 3 17 2 -11 12 -3 23 9 3 5 13 -16 -2 -15 -6 -7 5 25 -10 -4 -4 18 -3 4 7 10 21 41 -28 -4 25 18 14 -2 -3 -10 6 -4 2 -3 9 3 32 3 -13 -4 15 -21 3 16 4 3 17 -21 -14 6 -17 3 14 13 19 -3 9 0 7 6 -3 -3 -6 -11 23 3 13 6 7 -8 3 14 -24 18 -3 -16 28 7 -11 12 14 -11 8 -4 12 5 -18 -2 5 7 -3 21 16 7 22 20 5 -4 1 -3 -22 3 11 1 10 -1 -4 4 -3 3 -10 16 -14 36 -3 -14 -14 14 31 -4 -3 -7 11 -13 3 26 -3 7 5 -17 -17 0 -11 12 23 -14 14 17 -11 14 20 -12 5 10 8 4 -2 24 7 10 -16 6 -1 18 -2 11 -2 3 6 13 5 -7 -2 -4 11 -3 -7 -4 7 3 3 11 19 -3 14 4 11 7 -15 26 -7 2 -25 -14 -6 10 12 5 6 13 3 3 7 17 21 24 0 -8 10 -6 -9 3 7 11 -11 -7 -3 2 10 -6 -6 -2 4 11 -14 6 -4 10 -7 -10 -17 -10 6 -23 2 -4 -12 3 2 1 13 6 22 -11 9 10 -7 5 -4 -7 -11 9 4 6 17 -9 3 17 -11 17 5 -7 3 -21 3 -7 -5 -2 28 -1 -8 13 5 -14 -18 16 0 3 12 9 3 10 -4 3 5 17 -3 7 -18 15 22 10 5 5 7 33 5 -1 24 10 3 11 17 7 3 -14 -11 24 -4 -7 3 17 14 14 10 6 -9 3 27 11 -3 -3 12 3 -4 7 31 7 11 -8 4 11 9 -3 23 5 21 -8 6 7 10 3 10 22 -1 -14 -12 -21 8 3 -4 3 3 16 12 18 14 15 -3 -1 3 -2 -3 14 3 -3 -3 0 25 3 -2 1 -3 -5 32 -10 14 -6 3 7 13 3 -30 -20 -30 2 3 -8 5 -18 14 3 28 14 22 -4 -5 -18 -9 1 4 25 -14 14 -2 -14 -22 15 12 -18 -10 17 6 8 3 -9 6 -3 5 4 -5 3 -11 6 -3 3 -3 -3 3 -8 -17 20 -2 -14 31 34 27 31 7 -3 7 8 8 8 -3 -2 -7 4 -21 17 11 21 3 7 25 9 -14 39 6 18 23 9 11 6 -11 19 30 2 -11 -1 -5 15 17 -10 -6 11 -6 10 3 -9 -5 -6 -13 7 -10 17 14 -8 -6 3 5 -7 -4 3 -11 25 7 13 10 4 -8 -5 7 6 -5 -2 -7 2 7 5 -13 5 13 2 7 4 9 13 -1 2 -2 -3 3 6 3 30 -3 -2 -9 7 28 6 17 23 16 5 -18 9 25 2 -4 4 2 -3 -7 -4 8 20 8 14 16 4 6 8 7 11 22 7 3 1 -13 11 -4 -8 -4 14 3 0 17 4 -5 -6 -6 31 8 6 18 -11 -25 7 6 -23 -20 -12 8 7 10 26 -7 -17 9 -15 17 10 11 3 -7 24 -8 0 -12 24 9 -4 -10 17 -4 22 -1 4 -3 -7 14 12 17 35 29 8 -4 2 15 10 1 5 7 7 3 5 -3 6 11 1 -1 -6 11 26 -4 -6 10 7 -2 21 5 13 -22 17 5 5 -4 13 -6 14 3 -25 3 -7 15 14 6 14 3 7 8 11 -2 4 8 3 -7 7 7 -5 -10 6 -28 9 -4 17 -14 23 -22 13 14 22 14 20 3 -7 19 -6 6 10 1 11 8 38 3 16 17 -3 22 34 -3 11 -12 6 0 -3 1 -7 -1 -22 4 1 -10 -6 11 21 15 21 19 3 12 7 4 20 7 3 -11 20 -6 -5 5 17 9 -3 3 -3 29 4 24 -20 10 14 3 4 -3 7 21 -13 3 36 1 4 -8 -11 -13 8 -3 -3 -3 -1 3 3 6 15 14 12 -3 -4 4 7 -3 2 -4 21 -10 17 3 24 15 -3 14 -7 13 17 4 -7 -6 6 -1 3 -15 7 14 11 -3 3 7 29 18 16 17 14 17 -5 -23 -10 -6 -4 21 3 24 3 -18 34 2 3 3 2 -15 8 -6 20 10 5 3 3 3 21 10 12 -5 4 -7 21 21 32 -14 6 23 21 2 14 19 -13 11 -4 -5 10 5 1 -6 10 7 15 22 -4 34 8 13 -4 14 13 3 -10 -8 -6 -16 3 4 15 7 -1 10 -7 23 -8 17 3 -4 -14 1 3 11 3 -3 -15 -2 3 16 -7 -3 4 -7 32 0 12 9 -4 13 6 19 13 12 -1 17 -7 -23 7 6 6 9 13 -31 3 2 15 14 -4 -1 -3 7 -18 6 6 -3 8 7 11 6 -18 -1 1 -3 22 3 7 2 -17 -3 -10 -1 -8 18 3 14 -16 20 5 12 4 15 8 8 3 -5 15 18 1 -14 39 7 -10 -7 -14 -2 -6 21 19 5 -24 28 -20 -3 14 10 28 10 15 -4 -3 -3 -20 -10 -5 3 -7 -6 3 -4 -21 3 2 -7 5 7 -11 -11 -3 10 7 -25 -2 12 -20 -2 20 -9 -20 6 0 -17 4 -7 -6 7 -3 -5 3 18 -9 4 3 17 4 9 18 4 17 24 13 -1 10 -2 -14 6 -4 -4 11 -3 2 7 13 12 16 -37 8 -8 -25 -1 19 -10 7 -16 -4 2 30 -3 13 7 11 4 16 10 -14 -5 -15 -5 5 4 16 -4 5 14 7 7 19 3 -6 7 -8 17 3 14 15 7 -17 3 -8 11 28 3 7 -2 7 1 28 14 8 7 14 14 7 -12 7 3 28 -2 3 10 -11 7 7 -1 14 11 20 25 -3 14 35 -3 11 -13 10 -7 17 -24 -14 14 -1 -14 5 12 -14 17 -6 -4 -3 3 8 3 -7 -2 -7 12 5 -9 18 31 3 -3 -7 4 17 27 21 7 -10 24 3 24 22 -4 -13 -3 3 -5 4 6 10 14 4 22 -24 3 -6 3 -15 29 7 11 -11 3 -1 -2 -3 4 3 9 -2 10 8 -7 -4 -1 27 -6 32 -8 -7 8 -11 -4 7 -13 37 2 12 2 7 -3 -4 3 -1 3 22 14 12 22 13 -5 19 -4 -6 18 -1 -3 10 -5 -3 7 24 -7 -1 7 -3 0 2 0 -11 8 -11 8 -24 14 15 -8 -1 3 -13 8 21 -3 3 7 -8 -1 7 3 3 -3 -6 4 13 16 6 3 14 5 -11 -6 1 0 -12 3 3 5 13 -32 29 15 6 3 -5 -6 22 3 3 16 23 6 -7 -3 23 6 -6 -20 -13 7 8 -14 4 17 -1 -9 -6 -6 -18 -8 -4 6 -6 -3 18 6 -11 -1 15 -11 -7 -15 16 -3 13 -6 14 7 -3 13 -3 3 -31 5 10 10 21 -3 2 11 13 6 -9 3 0 11 4 11 14 5 5 8 7 -7 3 -3 3 8 10 3 -20 -7 12 7 -14 11 20 20 7 4 12 -4 6 -4 7 -3 -3 18 7 -1 5 -5 -14 2 10 14 7 3 26 19 4 2 12 -21 -11 -17 31 7 24 6 10 7 10 11 3 7 18 35 10 12 -7 3 -6 16 4 21 -1 6 -6 -5 6 -4 -7 -3 -11 -9 2 25 -13 -9 -4 3 11 -14 3 11 -10 17 3 2 -14 7 -10 2 -3 -4 14 7 -10 18 15 3 28 7 -15 6 -5 -15 -9 2 -5 10 -11 15 -8 1 -21 39 3 3 -3 3 10 6 8 -3 18 7 -18 12 4 -10 -11 -19 20 5 -4 15 7 -6 -8 18 -3 38 4 23 4 3 17 6 -4 -3 24 -7 17 15 25 10 12 -4 -3 10 -17 3 -4 9 6 14 12 -2 14 11 9 -2 -7 18 5 -1 5 42 -30 1 15 3 -10 -10 7 -1 20 23 -3 -2 3 -5 7 -6 11 -7 -14 -11 -24 7 -10 -4 17 9 37 9 3 18 -20 -4 18 14 -23 21 -17 38 3 7 3 -17 11 -3 -10 -3 1 2 14 -2 -3 13 -2 14 -11 2 -7 -3 4 18 13 -3 6 18 21 -4 -14 3 -6 -6 -3 -4 20 -13 -3 25 6 -5 7 6 4 19 -11 14 -3 -1 18 14 -3 -8 -16 -6 3 -12 14 8 17 27 14 13 -9 9 -11 -6 6 -3 17 21 7 2 -10 28 -8 8 24 6 14 20 3 -27 -10 -29 7 11 5 -3 2 14 6 6 -22 7 29 30 -13 -2 17 3 7 25 4 7 -9 28 3 -7 3 9 6 4 6 7 25 18 10 -4 -10 -17 24 16 6 14 -10 6 14 14 -6 1 -4 -14 -8 30 -11 -5 -6 7 -2 18 -6 10 14 -8 -16 -8 -20 -1 14 5 -4 -17 5 11 15 7 -6 16 -5 3 7 -17 10 -5 -1 7 -7 -3 -8 15 1 3 6 -10 20 -45 19 7 15 -5 14 14 29 -24 -6 -12 -17 -6 -15 10 23 29 -19 6 17 7 -1 -4 5 -3 5 1 1 -5 31 27 -1 -17 -3 -7 6 15 13 2 18 4 17 -21 2 10 2 2 8 10 -18 13 14 7 -5 -3 1 2 12 3 -4 -3 -7 -8 9 -24 21 -13 -9 2 10 14 11 1 14 5 10 -12 21 7 18 7 -3 -20 7 -7 5 3 -2 20 21 6 10 -8 8 16 42 -3 9 24 11 18 10 18 3 45 0 -6 3 -6 26 9 -23 -7 5 27 21 23 18 -7 7 7 -7 22 24 -8 -6 13 16 26 3 3 -9 1 10 -3 -7 7 -6</t>
+  </si>
+  <si>
+    <t>JSB(1.7623178067579028, 4.316239238768313, -36.81737266080439, 189.61914513774934)</t>
+  </si>
+  <si>
+    <t>55 40 48 31 52 33 33 33 34 58 48 68 42 26 41 36 44 56 42 27 47 51 30 17 34 38 26 33 48 30 16 37 33 49 44 33 41 26 23 27 30 40 32 38 36 31 37 49 48 37 43 36 48 42 52 44 27 38 30 48 37 44 54 53 44 31 28 40 51 46 45 45 37 36 46 42 20 40 31 25 58 38 25 30 50 48 41 64 31 27 27 52 41 41 35 31 62 27 41 35 34 46 59 43 36 55 34 51 37 51 55 35 30 47 17 30 44 40 31 13 22 52 32 23 47 27 33 43 55 23 47 48 36 34 49 57 43 38 34 40 30 48 36 40 30 46 49 20 45 48 24 28 22 26 37 40 44 39 26 23 41 45 45 45 27 40 38 37 30 57 49 23 32 36 48 34 46 45 30 36 47 37 44 54 51 44 38 37 33 36 30 27 30 39 33 53 52 47 60 45 24 31 45 39 38 37 48 36 32 34 26 31 43 51 47 34 37 43 25 35 44 57 42 44 54 23 58 30 36 40 48 57 41 58 48 36 38 50 31 23 34 43 40 55 48 67 33 28 50 42 47 33 51 43 26 43 30 34 35 37 36 43 33 30 16 52 37 47 35 55 54 32 44 44 66 19 58 29 41 46 39 30 38 44 44 38 30 51 29 44 29 30 52 53 39 59 37 36 41 45 48 57 50 30 48 37 45 51 34 55 43 59 55 32 27 66 51 47 56 44 23 45 38 35 37 56 37 56 44 32 36 53 23 19 38 32 61 51 38 47 41 43 29 38 49 37 45 22 15 33 59 62 40 38 30 34 42 32 46 69 52 17 42 47 53 36 33 40 43 51 44 55 49 37 41 66 52 43 48 45 41 22 35 60 20 26 17 48 31 32 32 30 43 45 30 30 23 39 48 46 59 50 30 43 55 26 41 49 52 65 28 55 38 34 29 40 76 57 49 46 43 27 61 45 38 40 27 23 45 33 42 37 30 49 48 29 36 51 41 41 37 32 42 41 30 31 48 45 48 45 39 35 47 48 48 40 31 58 50 28 23 20 33 49 47 25 42 51 46 31 51 40 35 63 20 25 37 45 36 39 49 58 24 23 37 47 39 26 35 24 39 45 43 56 40 38 32 57 44 55 46 43 41 30 29 34 43 36 43 37 27 55 33 45 33 30 44 45 33 40 45 33 47 23 35 70 37 33 28 30 46 44 37 47 39 44 16 57 34 36 36 38 28 33 53 19 30 33 33 42 49 39 41 37 36 55 43 45 37 40 41 54 36 59 51 51 50 33 34 37 32 35 45 38 41 24 44 47 39 36 44 34 45 23 35 51 32 44 75 30 61 66 51 53 38 27 43 23 46 34 55 33 36 38 53 37 57 38 52 30 27 31 30 35 34 47 43 37 36 33 44 57 37 46 37 49 31 20 60 53 79 48 44 38 39 32 25 45 34 37 34 30 30 37 37 30 37 41 37 39 23 36 31 26 22 35 36 59 41 38 40 34 46 41 30 40 30 40 37 37 24 44 43 33 30 40 34 24 55 21 25 58 41 49 43 29 34 32 45 50 41 40 40 58 48 45 24 65 44 39 16 19 41 44 22 35 41 50 38 37 43 59 35 60 65 37 26 51 42 51 17 30 43 19 41 33 27 37 29 30 49 38 34 45 51 42 40 37 35 26 51 29 36 38 35 34 33 45 55 44 47 41 45 45 30 31 44 45 34 33 66 27 50 37 37 45 39 47 45 39 31 26 36 31 57 30 39 25 31 37 51 41 58 37 47 41 45 18 40 13 51 66 32 32 27 16 26 22 44 45 39 27 36 34 47 51 29 44 37 34 44 45 33 21 40 31 33 57 48 43 35 38 37 34 63 27 35 27 54 38 43 23 41 48 38 33 51 19 41 29 38 48 37 45 44 56 44 16 48 24 35 37 47 44 48 46 40 38 27 45 33 67 37 37 48 33 44 41 30 48 44 51 42 42 38 53 48 30 43 34 38 40 35 39 26 20 57 36 15 16 51 42 36 35 31 42 23 25 40 33 63 30 46 23 16 35 41 41 37 26 41 27 51 37 37 45 27 58 33 53 34 37 51 52 32 47 24 42 30 37 55 34 33 63 56 55 30 37 66 48 61 23 30 43 35 47 41 39 39 49 24 39 34 43 48 41 44 54 30 42 23 40 41 23 58 45 32 45 45 13 34 45 51 24 24 51 45 64 44 23 27 51 45 37 45 58 47 40 47 32 35 36 40 43 23 40 51 41 37 13 65 23 45 41 37 27 58 51 40 37 37 49 37 46 48 45 56 37 23 44 41 47 13 58 38 45 47 37 34 56 36 26 48 41 29 40 33 25 53 47 59 34 43 37 22 43 42 34 48 44 22 39 54 43 55 29 64 39 37 31 45 58 35 51 42 30 51 64 29 32 43 34 56 45 33 32 34 41 58 47 51 23 35 37 34 30 39 45 41 42 39 30 70 62 41 24 43 35 37 19 36 30 54 48 38 64 61 45 23 47 35 31 63 45 47 45 30 45 47 20 38 34 48 50 36 51 35 49 30 62 54 31 34 48 48 39 32 30 40 34 43 55 41 43 30 33 23 32 48 48 44 22 39 54 29 38 23 57 23 33 43 30 30 33 7 41 48 40 51 44 35 42 54 63 30 38 44 29 31 51 46 33 24 30 41 42 51 44 26 29 37 37 38 20 33 35 45 37 26 24 38 43 58 43 44 50 48 55 44 30 49 43 30 27 44 37 58 50 33 49 41 52 29 44 43 20 37 33 27 45 31 28 41 55 30 41 51 35 46 47 33 31 44 53 43 32 37 51 46 28 40 51 23 43 42 30 16 26 41 47 47 51 51 41 45 28 62 39 34 26 24 45 26 32 40 51 26 44 37 52 33 27 45 32 33 33 55 43 31 41 36 47 51 32 58 30 30 48 36 30 19 38 31 31 41 42 26 53 47 36 35 24 35 46 45 55 50 55 23 23 43 24 48 19 40 30 28 36 44 55 22 23 37 39 52 50 29 42 33 54 48 49 41 44 40 33 35 63 40 20 35 43 32 41 43 43 59 41 39 31 44 29 51 31 27 49 29 44 20 57 41 37 44 40 37 29 34 40 31 47 41 39 48 33 54 49 23 21 26 38 68 31 37 38 52 43 44 36 59 45 58 25 41 40 45 23 19 35 52 47 34 39 27 41 37 34 22 43 43 37 24 16 37 12 36 47 31 40 66 30 25 52 36 21 47 39 26 59 39 45 58 26 36 37 39 47 48 45 51 44 24 22 39 44 31 45 38 41 45 51 44 41 50 34 23 45 51 33 37 55 40 27 44 36 61 30 53 40 31 51 57 34 44 43 43 47 33 29 59 31 36 30 39 31 30 36 36 27 22 31 49 50 43 27 26 36 45 31 55 44 24 27 47 46 36 31 50 45 55 44 50 44 36 34 30 32 37 48 48 50 55 23 48 37 45 42 30 42 31 16 26 60 45 28 51 45 55 23 28 43 38 47 41 34 26 37 24 34 47 41 60 34 44 45 27 52 29 33 26 30 48 45 32 37 37 48 40 25 31 46 45 54 47 46 34 31 33 33 30 43 33 74 30 35 49 40 39 20 45 20 57 27 37 46 40 29 51 23 33 43 43 41 34 42 36 56 50 53 37 42 40 37 44 48 41 55 29 40 68 35 32 41 44 33 48 13 38 29 44 38 29 36 23 20 30 43 29 50 35 51 41 27 40 43 37 51 40 29 67 36 33 38 34 42 37 50 40 38 23 30 51 49 36 59 48 59 28 17 52 43 44 31 41 47 31 36 37 47 33 24 30 44 37 44 54 35 31 46 34 48 56 57 26 52 39 30 59 50 45 54 71 47 44 27 27 42 33 43 26 49 27 51 33 47 51 43 48 43 47 33 33 37 49 51 45 50 47 62 31 40 51 49 36 37 43 38 46 22 40 44 23 29 37 42 42 50 43 57 51 28 50 30 47 49 47 26 36 31 51 45 27 38 21 26 31 49 48 44 37 57 33 48 51 37 42 31 48 36 22 35 31 31 39 36 39 29 45 54 17 29 27 54 36 43 21 24 60 45 46 48 37 53 52 19 34 36 35 24 23 45 30 40 56 36 48 26 30 51 40 38 62 42 39 40 30 36 44 54 32 40 49 43 47 26 33 34 23 32 41 37 12 40 47 53 49 30 51 44 44 35 49 51 33 31 44 48 34 35 41 38 33 37 45 37 51 35 26 46 33 36 37 26 30 38 36 37 34 47 40 43 39 37 50 38 35 62 41 40 26 47 38 51 29 39 56 40 34 33 40 41 31 37 43 22 23 29 51 45 35 27 41 58 27 51 30 67 56 41 55 40 51 41 40 49 33 33 36 45 22 17 29 46 51 49 26 44 35 41 35 27 42 31 44 37 41 44 45 66 48 34 25 48 55 31 40 44 28 41 27 37 47 28 30 31 51 33 31 47 34 37 41 27 23 33 68 41 37 35 47 40 20 40 39 42 35 56 44 44 48 50 42 13 37 48 33 26 41 35 33 42 51 19 45 45 59 37 27 23 37 27 45 42 32 49 24 37 43 47 29 46 27 42 34 30 34 41 16 40 43 43 35 30 46 37 23 46 31 40 47 43 26 31 37 26 34 24 35 50 16 48 42 51 25 32 39 50 54 31 35 34 36 47 32 27 51 44 23 45 30 20 24 47 40 59 37 37 39 38 40 41 40 30 36 36 40 47 27 34 23 30 44 40 43 50 53 40 24 23 19 25 23 43 42 46 39 22 52 27 36 58 16 17 55 65 37 24 29 34 26 40 38 42 26 42 21 33 45 39 55 32 40 44 37 36 48 42 40 29 41 50 41 33 44 32 37 33 42 49 42 43 34 40 36 44 33 24 37 37 55 36 36 52 57 51 37 48 53 42 29 41 50 53 59 34 40 43 25 51 40 29 42 28 31 37 40 29 47 40 59 39 57 51 45 35 41 39 37 43 44 17 64 22 41 39 43 52 39 33 35 62 32 56 54 38 39 26 23 23 25 41 33 22 48 39 48 28 28 29 37 48 54 40 43 36 36 32 36 61 46 41 45 33 33 32 41 36 30 44 36 45 34 35 38 37 24 38 51 23 33 25 46 37 22 25 45 44 23 44 52 36 35 51 46 36 53 31 32 47 37 22 27 30 59 53 67 41 31 33 47 30 24 37 31 31 60 23 40 46 36 39 51 43 55 15 55 29 38 37 63 28 54 42 40 54 15 33 59 38 34 31 36 34 59 33 55 43 15 30 45 16 33 43 38 37 51 41 65 45 44 37 40 36 52 27 37 45 40 51 43 40 55 45 39 49 37 33 28 41 57 40 41 31 37 55 49 64 54 50 43 51 45 51 34 22 47 19 35 48 32 44 53 38 34 30 51 68 27 51 51 43 29 40 31 27 37 35 44 45 32 44 49 48 37 33 43 38 24 57 34 37 45 43 34 37 33 40 27 49 30 45 60 29 51 45 47 45 38 37 29 36 31 44 49 24 31 37 39 38 54 15 44 40 29 45 36 51 31 38 26 26 62 43 44 22 43 41 46 40 34 36 36 40 37 46 23 30 37 31 16 25 40 26 28 40 41 44 53 29 57 43 50 49 43 29 29 31 26 45 16 29 20 39 53 54 49 49 45 34 43 32 39 55 58 41 40 26 37 40 38 29 44 44 32 34 37 49 33 30 29 36 41 30 37 41 39 41 42 40 16 39 52 26 52 49 43 27 56 44 30 43 27 33 29 42 57 45 45 34 31 44 27 31 44 55 30 46 53 37 37 26 38 49 31 51 36 33 35 36 35 30 38 43 46 43 18 70 40 59 40 33 37 37 29 20 55 21 27 25 43 36 32 40 55 47 42 45 42 36 38 43 38 37 57 34 56 36 34 32 19 43 37 21 27 39 39 37 55 50 29 26 36 52 46 40 41 36 38 41 46 37 45 37 30 55 30 37 34 33 23 25 34 29 40 27 37 37 40 27 40 27 29 30 46 57 28 37 38 30 30 22 40 33 27 17 43 33 29 29 38 42 32 57 36 43 51 28 39 29 61 30 35 30 48 51 53 51 36 31 45 34 28 49 54 25 37 46 50 49 50 24 47 32 47 45 34 30 38 57 37 46 35 33 42 50 47 48 45 48 15 40 51 44 47 44 41 36 20 42 29 58 27 34 30 42 27 27 36 37 34 43 31 39 49 40 58 31 50 36 54 26 45 39 34 47 27 43 41 17 54 53 41 42 30 58 51 33 33 23 45 40 45 14 49 16 27 55 47 45 37 43 45 58 44 37 32 54 43 38 59 51 39 37 44 63 35 32 33 29 38 43 29 34 38 30 31 48 46 50 33 33 27 40 42 20 40 21 29 36 45 33 47 41 44 51 31 37 47 31 50 33 31 55 29 34 31 29 33 40 13 19 47 30 36 34 57 49 43 31 34 43 44 29 39 27 26 47 37 28 41 30 47 49 43 45 30 26 30 34 34 52 59 13 64 20 43 52 37 56 34 52 36 29 38 51 27 34 41 26 35 28 29 40 47 47 21 53 51 32 48 43 48 57 29 36 46 37 31 37 33 61 48 34 42 47 51 55 42 29 31 46 30 32 46 46 32 27 29 38 30 50 54 60 24 59 35 26 55 24 45 30 9 44 32 44 44 33 54 30 57 52 57 33 38 35 48 14 35 42 41 37 34 32 43 44 43 23 44 44 51 33 44 46 44 44 38 33 55 37 51 38 34 50 38 30 35 35 34 51 29 27 39 26 35 23 47 48 58 41 55 59 33 41 43 34 34 44 42 37 44 57 41 36 26 44 73 33 22 42 23 40 50 37 34 44 33 36 49 46 31 28 48 45 48 67 34 41 40 39 34 44 22 40 40 50 30 50 26 47 41 22 44 37 37 37 56 40 58 53 40 31 32 19 23 42 39 34 40 41 40 30 40 38 54 34 44 41 26 51 31 47 36 34 27 27 36 55 38 61 31 38 53 30 43 44 32 27 50 32 45 29 47 48 41 37 39 50 29 38 37 46 59 46 53 50 30 32 41 23 22 39 31 23 40 41 51 16 36 39 31 37 29 33 43 27 43 36 42 33 42 33 46 27 45 24 37 49 34 34 42 28 36 41 40 51 45 41 57 29 6 25 51 43 33 36 39 34 44 17 48 48 34 58 44 49 23 34 37 63 34 46 40 31 36 44 51 55 62 43 39 59 50 34 32 34 57 35 49 37 27 53 31 22 37 33 36 22 47 34 51 35 54 36 26 40 40 30 47 22 33 32 12 38 36 31 20 37 21 22 32 32 44 41 37 37 44 19 44 57 36 54 37 26 24 40 48 47 22 44 47 48 47 30 29 40 51 50 43 41 43 62 45 45 51 20 33 20 23 55 24 35 39 23 28 44 40 25 15 44 30 60 43 34 41 54 34 41 25 43 38 27 49 46 37 48 40 56 27 24 30 22 30 60 27 22 41 29 54 44 48 58 42 34 44 23 44 34 42 44 37 20 16 40 37 30 34 37 32 35 58 38 40 52 50 24 46 47 34 30 35 20 43 34 46 41 27 26 65 49 38 35 45 30 39 46 27 23 58 36 19 43 43 43 42 40 13 33 24 34 49 55 37 51 39 31 47 24 12 26 45 41 53 30 27 36 30 31 40 50 23 45 41 31 9 66 36 22 32 46 52 30 34 19 59 58 34 54 27 33 46 55 47 41 43 37 31 54 30 23 36 46 48 44 37 44 69 24 22 50 30 30 41 37 48 34 43 33 36 45 26 47 44 46 50 31 20 47 43 29 42 46 30 32 37 44 46 40 44 41 33 59 54 45 25 44 41 56 34 40 20 34 33 55 38 33 41 16 41 29 58 42 20 37 51 65 49 36 35 54 47 43 27 34 54 35 36 37 38 36 45 43 33 47 45 37 45 55 38 23 19 40 35 42 33 49 48 23 23 58 44 51 36 44 41 31 47 27 31 46 30 40 32 48 44 26 30 28 34 37 39 32 44 35 33 51 38 31 38 30 33 30 36 45 37 47 35 52 37 35 34 27 39 38 28 27 53 37 31 38 27 38 30 29 23 26 24 46 59 36 38 59 41 40 43 34 36 52 23 32 37 34 60 34 43 23 61 35 47 26 34 38 37 32 37 20 34 40 48 39 31 24 27 51 34 47 39 27 41 55 27 38 50 35 45 59 16 30 46 25 43 35 33 49 22 37 36 32 34 33 44 30 36 37 38 40 32 23 39 49 44 26 48 55 42 46 23 41 55 30 43 30 23 53 32 58 34 44 47 33 37 38 36 33 23 29 33 26 43 33 33 33 48 24 56 37 29 30 34 43 52 39 30 23 49 61 32 46 37 45 20 34 16 51 33 52 23 33 41 54 34 38 44 33 38 46 37 62 66 40 36 55 33 7 27 33 40 30 41 33 37 34 59 38 39 30 54 26 48 42 40 64 34 23 30 33 58 37 35 58 38 40 29 26 30 41 35 27 27 44 39 52 32 39 55 41 38 44 36 26 60 52 43 39 50 60 51 37 32 22 47 43 33 31 34 47 50 44 45 26 46 53 13 37 37 35 45 40 47 43 41 43 26 37 18 43 13 48 44 53 46 59 59 32 33 33 34 38 45 36 45 35 30 33 30 34 45 13 23 47 47 42 40 54 33 20 29 35 25 44 40 51 43 53 39 33 27 47 31 52 34 37 42 31 42 54 35 39 37 34 38 35 30 40 29 30 37 44 30 47 31 27 52 57 48 36 46 37 50 27 24 41 26 44 48 41 38 62 27 34 49 37 46 39 50 33 47 43 27 36 23 37 30 47 51 36 30 29 26 40 23 27 30 43 37 43 36 46 50 51 30 47 54 47 54 67 49 33 49 36 30 38 37 26 46 23 60 47 47 30 40 26 45 36 30 30 23 44 37 54 50 23 40 33 55 40 40 51 33 40 27 39 37 35 37 68 36 32 37 41 28 40 34 58 30 40 30 32 41 41 41 26 26 65 41 18 30 26 43 49 49 34 35 39 37 46 32 48 58 34 53 37 50 51 55 17 34 53 43 37 44 25 36 60 65 46 34 32 35 41 47 40 46 31 27 31 16 29 26 34 23 41 54 34 26 36 36 33 46 45 55 31 43 55 37 28 44 30 19 16 40 49 34 23 46 29 41 51 39 45 34 42 43 36 43 44 41 45 47 29 32 52 63 51 44 34 37 36 28 39 44 57 43 33 30 27 41 27 38 41 37 35 31 48 43 26 50 33 40 44 25 41 9 26 56 30 34 54 46 38 32 38 45 53 53 34 45 33 28 51 39 29 38 28 37 29 37 24 42 35 41 43 44 67 34 33 23 41 47 49 46 26 51 51 37 40 54 37 24 25 56 22 44 27 41 51 34 45 57 23 59 27 38 40 57 43 56 34 26 27 47 45 26 40 31 36 44 58 20 43 60 27 53 33 26 52 37 42 26 38 23 51 38 45 45 49 57 35 43 61 10 54 37 46 47 40 35 40 46 48 42 45 36 34 33 44 16 38 36 44 52 36 44 44 38 40 17 9 31 59 49 29 57 37 51 33 24 31 20 16 38 20 31 46 30 27 34 39 41 28 44 27 45 44 32 45 37 31 34 45 42 55 40 50 23 31 33 43 40 38 31 71 35 34 33 26 20 33 33 51 51 34 50 53 31 49 27 60 25 29 37 38 34 15 47 37 49 48 41 33 45 33 34 31 41 37 36 67 70 44 45 41 48 33 41 57 39 51 37 40 51 32 36 16 57 34 43 30 29 33 38 54 32 24 29 51 46 46 48 44 52 35 34 37 31 41 22 51 36 47 59 23 32 27 50 27 34 50 37 49 19 28 57 48 40 36 65 44 27 49 23 43 27 34 27 22 48 37 29 52 63 30 31 44 44 25 37 19 37 39 60 42 45 29 45 31 37 44 48 51 19 40 55 37 24 60 38 51 59 38 37 39 43 31 33 23 39 40 37 48 33 40 41 45 46 35 38 41 48 45 36 55 45 32 60 54 41 47 36 55 44 55 39 33 37 34 29 37 48 23 37 26 42 49 57 33 31 40 38 47 36 38 48 37 34 34 48 40 46 22 35 22 47 43 47 28 33 31 38 34 48 43 33 50 22 37 30 47 45 39 31 26 23 58 45 23 55 31 35 48 33 53 52 60 45 46 60 45 44 36 48 27 31 31 40 36 35 31 69 47 43 37 31 51 36 44 41 31 43 48 37 38 48 44 47 20 37 37 41 47 45 52 34 66 37 43 21 29 13 34 65 48 53 71 33 42 46 37 30 44 27 37 49 40 53 19 37 48 50 39 26 40 59 40 37 50 41 26 32 16 35 39 43 68 36 17 45 35 34 47 43 49 34 53 45 31 39 41 52 37 33 48 29 43 51 29 51 33 45 33 31 59 27 37 36 59 29 45 37 36 37 52 50 51 32 33 40 40 53 30 51 44 57 35 61 44 37 26 37 37 66 42 50 35 44 30 37 37 42 34 30 33 50 53 40 25 43 41 41 49 29 46 57 41 52 33 50 37 24 44 48 33 56 36 36 63 47 32 39 47 30 58 36 37 27 46 23 43 43 23 29 30 34 54 45 47 32 30 36 25 48 16 20 51 34 29 40 30 11 24 44 36 14 29 24 31 42 37 66 33 39 35 48 20 47 15 34 46 46 36 26 60 41 37 26 48 38 26 26 43 33 49 30 34 40 54 41 34 29 30 44 36 55 27 41 44 33 40 36 43 41 44 27 31 49 44 26 46 44 38 55 45 31 17 40 45 35 44 34 49 38 16 44 34 19 55 41 43 44 62 34 33 40 43 17 44 34 50 33 37 30 43 55 31 40 37 43 40 27 33 48 38 43 33 48 19 20 54 33 34 29 52 23 29 38 41 50 44 49 39 34 27 49 47 48 34 47 42 64 44 38 59 45 16 44 51 31 42 30 55 53 62 41 40 43 29 27 21 45 39 42 49 39 35 43 13 48 46 44 46 29 65 41 41 48 37 42 44 23 43 41 45 44 23 41 46 52 37 55 41 16 38 34 27 52 33 49 43 38 19 23 51 41 29 41 48 46 44 53 57 27 42 19 55 56 50 37 23 29 43 41 31 44 43 27 35 41 31 48 52 30 23 44 36 32 30 38 37 43 49 23 37 62 34 52 51 43 43 54 46 41 58 26 47 51 27 39 29 53 51 50 48 41 50 34 45 34 33 40 40 52 48 34 16 49 37 52 50 42 40 38 23 52 42 26 52 40 30 48 34 32 44 32 35 21 40 42 40 37 36 49 34 37 36 25 34 47 23 38 36 30 29 34 48 23 38 44 34 42 34 37 28 28 44 30 44 45 28 41 47 30 47 20 29 40 25 36 42 33 62 34 31 36 23 46 24 52 34 41 20 35 54 22 58 37 38 46 25 54 47 33 51 30 37 31 30 37 45 43 29 51 47 43 16 35 33 52 47 58 31 59 38 47 44 29 29 45 44 26 38 34 37 37 34 31 29 65 39 33 37 43 36 29 49 23 47 25 50 34 46 50 51 35 16 30 64 42 45 51 50 39 32 27 31 39 52 41 34 45 52 41 27 40 54 51 42 22 34 54 58 44 37 43 49 41 55 31 23 33 58 24 43 60 27 43 22 42 37 29 52 32 47 17 17 45 33 40 35 37 39 55 47 28 29 39 49 67 31 51 32 44 35 44 60 39 55 43 45 49 39 50 47 34 43 37 41 51 57 25 30 29 30 37 34 49 36 38 46 36 32 47 28 37 45 35 43 37 40 51 33 32 41 29 38 27 28 28 51 36 37 35 30 19 53 39 48 51 39 45 20 49 55 44 47 31 46 30 47 26 37 46 30 39 37 47 35 36 41 32 51 26 34 46 51 19 34 40 34 37 53 45 34 58 35 36 26 53 38 21 55 46 23 38 53 47 46 47 42 40 48 19 37 66 31 35 53 55 26 30 31 38 34 30 28 23 37 58 49 41 36 34 46 30 46 12 37 37 51 37 45 37 44 57 39 44 38 51 40 30 48 31 33 44 36 46 35 41 36 45 51 23 45 43 26 37 59 19 38 26 34 43 33 55 36 18 50 44 53 47 36 41 51 55 42 42 42 63 26 24 34 26 43 45 46 33 52 35 65 6 49 35 33 20 32 61 51 52 34 33 42 28 37 49 45 56 40 44 54 48 45 13 33 40 33 52 25 13 51 54 49 43 23 35 34 28 32 37 56 47 29 42 33 21 41 19 33 29 37 37 48 43 33 41 42 37 48 34 24 43 35 33 24 17 37 55 45 25 37 30 41 60 34 48 51 50 52 37 39 51 35 34 40 39 49 44 15 55 37 41 42 30 33 57 30 57 52 28 35 46 36 40 31 29 51 38 38 29 40 53 25 49 34 31 43 49 39 43 27 37 51 38 41 43 27 37 20 43 29 25 56 36 41 38 41 44 31 52 44 37 38 25 38 43 40 24 37 37 19 60 36 26 26 48 45 58 33 41 52 37 55 68 29 29 41 40 41 51 37 40 29 33 31 27 48 40 15 25 56 42 44 32 38 39 22 55 17 47 41 33 33 30 23 26 47 36 35 37 47 41 40 34 41 62 49 34 61 22 27 31 44 42 33 44 35 23 38 34 47 45 32 34 48 32 34 40 44 47 27 36 49 39 33 33 44 34 28 48 30 54 66 46 48 38 23 36 60 49 30 39 36 24 44 26 42 20 34 42 41 32 54 37 33 54 46 46 40 26 37 32 41 29 37 24 60 36 52 45 33 22 56 39 32 60 43 48 38 18 48 45 46 35 58 47 47 41 42 29 27 40 25 44 41 33 36 39 43 33 52 43 45 27 42 47 63 44 28 36 33 39 19 48 43 35 46 34 32 41 25 33 47 51 36 37 41 40 46 51 40 39 51 40 45 37 56 45 9 30 30 29 37 30 51 37 30 37 33 48 65 32 32 43 43 39 44 48 34 19 44 44 30 43 42 29 53 40 36 49 57 32 33 24 55 43 27 48 40 57 29 40 55 29 40 35 27 46 27 44 37 60 45 44 31 33 46 26 36 47 30 48 27 37 41 37 65 56 35 26 39 33 38 43 33 50 44 27 52 49 29 47 52 17 65 53 33 33 29 30 51 34 63 34 37 41 47 29 32 44 37 40 54 32 31 30 34 37 55 44 55 46 47 22 31 57 34 37 51 27 13 51 32 42 52 49 49 40 37 27 27 44 46 31 49 50 47 42 39 41 37 43 40 42 35 46 27 19 26 33 50 34 29 32 16 57 36 37 50 52 48 41 43 38 37 42 19 34 48 51 36 30 39 37 55 39 73 38 44 34 37 48 66 59 41 23 54 29 53 43 45 53 59 46 22 54 37 64 55 22 57 47 47 33 56 42 56 37 48 29 37 27 34 30 61 56 48 37 59 29 37 45 41 30 66 64 40 29 44 30 58 37 61 53 23 41 39 43 26 59 23 41 54 47 27 27 32 45 66 33 46 37 40 25 50 37 45 29 25 37 23 29 33 39 46 32 45 38 23 47 58 18 32 37 35 31 37 47 36 40 51 32 26 26 25 51 43 44 33 42 45 67 34 19 43 40 50 44 29 36 25 59 30 30 55 44 28 40 27 34 45 50 35 45 50 33 41 63 52 40 30 30 30 43 52 24 29 46 52 27 47 38 33 20 37 33 44 41 38 38 43 27 40 35 52 44 62 45 28 37 59 40 37 35 36 59 33 51 38 35 33 29 40 51 43 38 35 27 40 37 36 46 57 28 28 46 38 33 59 31 41 47 34 57 45 33 51 55 39 49 33 33 50 44 32 43 46 37 41 36 40 60 38 33 37 40 42 33 24 51 42 50 36 23 31 42 39 40 42 47 33 20 65 36 62 28 45 23 33 39 42 36 55 30 21 30 26 51 43 55 37 34 24 34 30 41 38 54 29 51 19 39 29 33 22 51 50 43 50 31 43 44 27 27 43 40 30 45 44 22 30 33 38 40 34 58 52 37 64 22 23 37 48 65 49 47 38 12 30 49 21 30 57 39 52 31 47 33 37 44 47 27 50 52 44 36 29 36 34 40 40 34 38 36 25 34 44 41 35 57 39 22 30 44 31 34 36 33 40 27 33 32 53 29 42 54 51 24 31 23 38 43 35 40 23 48 57 22 45 40 30 43 41 44 45 47 51 41 37 41 56 33 27 40 53 41 51 39 48 48 40 56 55 56 36 26 43 26 37 37 27 49 29 54 23 40 37 55 45 58 37 37 31 33 43 48 43 43 18 20 50 37 38 29 49 51 27 41 34 47 45 26 37 34 26 57 45 61 41 20 55 40 26 43 37 37 44 29 30 35 50 33 44 38 37 33 48 23 35 22 43 43 27 23 22 33 37 31 24 28 35 33 49 43 43 41 37 33 40 52 21 54 32 38 30 38 55 51 26 59 48 40 26 37 30 33 54 33 50 41 16 33 47 44 40 46 38 31 38 26 36 19 46 10 30 40 26 28 61 23 47 45 57 44 25 51 43 29 44 35 47 26 33 73 51 26 32 37 41 37 53 47 48 35 63 50 41 23 58 44 30 38 26 15 27 26 20 45 38 33 39 51 32 47 30 59 36 60 40 30 56 37 37 41 35 36 51 33 45 38 52 60 45 39 35 29 43 36 17 43 44 47 39 17 48 51 41 43 29 33 69 37 43 30 34 51 30 53 35 44 40 35 39 37 43 41 41 32 54 36 49 38 26 61 27 53 36 27 34 48 50 48 29 48 47 38 47 18 48 35 40 38 40 32 37 24 41 43 43 60 51 41 22 28 31 32 45 37 40 33 54 54 30 41 48 34 40 33 27 17 30 43 41 40 31 24 46 36 39 40 41 36 26 31 42 45 39 43 39 50 64 44 36 35 30 44 48 23 43 34 29 48 45 31 29 36 34 36 20 48 31 33 29 37 36 54 37 51 33 38 47 52 53 29 30 45 48 39 27 63 31 46 48 43 50 37 30 26 30 40 36 29 48 41 29 40 33 27 21 38 44 40 48 31 38 49 71 33 53 56 51 41 26 40 40 32 67 33 47 34 51 37 31 20 29 43 43 45 51 34 42 36 45 34 48 44 45 50 48 40 58 51 40 47 53 50 46 35 26 36 31 39 46 33 42 34 36 40 46 44 60 42 35 35 24 18 35 40 27 28 54 34 33 40 52 42 20 58 40 35 37 46 56 57 45 44 16 42 37 34 26 30 42 45 30 51 37 35 20 37 36 52 51 30 33 30 32 47 34 34 38 40 51 41 50 16 19 43 38 65 29 31 30 37 52 34 42 31 22 44 25 52 37 41 30 49 30 48 27 20 35 30 40 37 33 51 34 51 48 29 38 20 20 52 26 20 30 38 45 31 38 27 23 37 51 26 49 49 25 47 31 54 27 55 43 32 13 20 17 28 32 29 40 29 26 39 29 33 31 33 37 32 26 37 26 47 33 36 37 38 47 54 37 23 16 63 38 44 40 33 37 47 16 35 57 40 29 46 36 34 31 48 23 23 26 30 40 39 45 44 66 39 29 37 47 51 48 19 33 40 46 33 31 57 23 38 36 49 40 54 61 38 43 27 59 31 53 41 30 43 10 29 36 39 35 37 51 33 26 36 32 48 45 48 28 40 27 23 36 22 20 43 40 41 19 46 37 42 40 48 37 43 36 40 50 36 51 47 46 34 47 29 32 41 41 40 40 58 39 37 29 23 44 37 44 37 43 41 37 53 38 52 41 50 27 44 43 41 37 41 52 41 43 37 52 15 37 21 51 23 36 36 49 29 36 23 27 42 34 54 41 36 20 45 29 42 59 45 45 40 22 44 25 42 30 55 27 29 33 50 25 48 32 47 26 44 31 29 58 34 37 36 31 38 45 27 45 49 40 46 33 51 40 34 58 43 31 17 37 31 40 32 37 41 29 25 30 29 40 37 48 37 48 37 50 51 33 47 47 44 27 52 29 48 35 34 45 52 48 44 33 34 37 45 38 31 51 26 37 43 45 49 36 37 27 37 35 26 58 40 47 52 53 37 63 54 41 37 40 37 45 30 64 37 44 30 20 44 31 29 37 26 30 36 47 53 40 24 25 34 27 33 43 55 40 45 26 22 23 41 35 62 53 49 48 29 33 61 35 40 37 60 47 37 33 53 38 23 52 45 41 40 37 30 50 53 48 51 32 45 33 32 45 22 37 29 36 43 61 47 36 29 26 42 32 40 47 55 41 30 43 42 28 45 48 44 42 23 62 37 29 40 39 30 22 37 57 44 36 51 48 41 62 37 37 38 40 35 58 42 47 40 47 41 44 41 61 45 20 36 45 35 30 29 46 52 27 19 44 33 41 47 46 59 37 63 52 48 28 23 20 41 43 43 26 41 48 41 50 33 65 51 34 37 44 51 29 37 45 43 58 13 37 24 27 56 34 41 37 15 46 38 28 33 21 30 53 37 48 38 27 37 33 57 54 33 57 23 30 34 29 41 37 29 40 43 44 37 33 30 70 43 39 29 37 51 37 51 27 61 18 36 47 43 59 48 30 39 37 53 30 33 33 37 30 18 36 37 47 41 21 53 39 55 56 33 36 37 45 38 55 37 43 44 44 23 31 34 31 47 37 26 43 49 51 45 31 48 44 37 37 24 64 34 37 51 30 36 30 53 24 36 46 51 33 37 31 20 43 38 49 40 36 42 64 32 37 54 27 43 38 32 32 26 34 43 25 22 25 50 20 25 45 38 54 54 54 47 26 36 43 37 47 46 48 38 46 56 61 53 43 29 56 65 37 30 46 19 41 37 39 33 48 44 36 37 30 35 29 36 44 22 43 56 41 16 35 51 32 46 30 43 52 35 31 51 37 38 50 48 41 50 22 43 46 39 39 37 36 23 31 23 29 19 40 28 38 40 38 68 44 51 49 39 51 54 38 50 52 31 47 45 40 43 30 41 38 30 41 54 35 19 43 39 30 36 30 34 39 36 32 31 45 43 38 9 51 43 15 43 33 49 47 39 57 52 51 35 40 54 30 41 42 39 41 31 50 27 35 59 48 22 39 42 24 39 32 53 42 23 42 60 36 45 54 44 24 50 45 39 30 51 41 50 43 28 40 46 41 56 26 31 47 24 37 37 34 43 41 42 45 45 40 44 41 34 44 47 33 37 40 45 52 45 52 37 52 39 37 39 34 39 49 37 43 33 35 43 41 41 48 37 37 34 60 31 37 52 45 37 49 48 44 55 36 32 45 31 33 55 54 36 40 19 54 24 41 32 43 16 33 38 44 52 37 38 41 29 45 41 29 33 43 48 33 33 33 31 37 38 31 34 32 49 41 41 23 24 51 37 43 41 45 40 51 35 30 40 37 25 52 33 17 37 33 58 27 31 42 32 34 51 42 38 36 51 52 48 19 43 40 29 33 37 42 43 43 43 32 30 41 36 48 41 30 45 36 33 48 51 40 43 51 30 45 35 59 66 34 29 37 23 32 43 40 46 26 50 48 49 40 54 60 44 49 36 33 23 29 51 30 31 40 38 21 51 44 28 41 45 23 58 40 7 48 29 40 57 49 29 40 59 38 43 66 42 37 51 51 30 40 49 43 41 27 47 29 45 34 20 37 47 29 50 44 61 34 19 31 38 40 43 51 38 34 41 52 32 37 36 46 31 45 29 51 57 34 41 27 34 44 29 31 40 44 52 50 44 37 42 51 36 39 37 45 58 31 28 50 25 34 41 45 52 40 23 22 23 34 20 27 32 30 40 26 51 40 47 49 56 29 36 45 44 39 30 32 36 43 30 48 31 42 71 47 29 35 26 35 41 45 36 36 47 50 32 38 21 49 35 52 42 54 51 47 40 25 31 39 39 62 49 31 48 43 54 37 34 44 37 44 37 23 51 46 23 40 33 26 41 31 34 60 48 41 30 33 53 45 51 27 33 41 48 52 57 43 32 35 61 48 44 43 44 63 35 26 32 55 40 34 51 35 33 41 34 53 50 51 26 52 43 30 24 36 46 34 41 33 31 37 47 41 30 55 39 25 23 39 34 51 36 26 36 31 55 32 29 63 27 37 19 43 37 42 36 45 45 43 25 58 39 53 35 31 27 60 33 22 37 49 41 43 26 45 33 24 48 32 32 29 41 47 37 29 34 42 35 49 51 33 29 38 36 37 45 48 33 29 23 43 43 52 27 31 27 34 41 51 41 41 41 22 24 45 40 35 43 65 43 41 36 38 46 38 20 46 34 37 39 52 32 45 44 44 41 23 45 47 12 12 26 49 29 38 39 55 35 37 37 30 38 55 32 50 45 36 45 45 40 31 50 29 39 47 37 37 27 30 42 35 32 45 55 45 36 38 30 42 51 30 47 36 47 57 40 44 51 58 28 30 43 38 40 36 36 35 29 65 58 31 33 36 51 41 35 32 44 43 37 47 34 26 45 41 34 47 57 43 23 34 35 54 37 51 24 47 23 29 41 26 27 48 57 48 36 38 29 30 40 27 37 26 42 31 26 38 54 25 36 30 19 27 39 45 36 27 40 50 47 50 41 25 40 41 23 25 52 33 44 22 37 35 58 44 34 36 35 26 20 28 65 44 17 27 35 33 53 58 29 27 33 37 37 32 43 26 65 40 48 31 37 42 32 40 57 16 40 30 40 24 33 38 38 56 33 50 36 45 16 29 18 13 57 39 42 52 57 27 41 28 41 29 43 37 43 23 20 44 29 39 55 40 35 40 31 38 26 44 40 39 28 55 37 43 21 45 35 38 48 36 36 40 45 31 47 29 39 55 51 36 36 26 46 44 30 43 48 42 22 30 33 30 29 30 32 37 36 36 26 43 42 29 41 34 62 29 23 30 47 39 50 41 31 45 36 34 35 31 37 31 41 37 25 63 37 47 49 35 45 22 34 41 46 33 33 48 30 16 48 43 40 31 35 30 38 17 29 31 45 47 30 51 38 30 37 25 41 39 19 41 58 50 35 23 31 21 51 32 29 36 24 27 29 43 34 46 44 26 43 39 33 61 65 45 40 37 24 33 43 41 43 50 44 43 23 29 45 39 35 62 26 61 52 45 50 32 43 56 32 27 36 29 38 37 37 60 48 30 56 41 59 53 59 26 31 40 39 45 29 54 45 9 40 25 51 43 58 30 26 34 31 41 13 45 30 34 44 58 45 28 47 38 40 43 42 20 68 58 41 54 53 39 44 43 48 28 44 42 52 41 30 50 24 57 40 34 31 49 54 23 39 44 33 31 37 26 35 37 45 37 29 32 23 64 40 34 37 62 41 37 25 31 27 40 26 40 43 30 47 44 35 45 37 41 31 27 65 47 32 45 54 38 51 39 33 54 23 33 60 40 31 33 19 27 43 58 48 45 40 22 43 37 51 20 19 47 24 49 54 48 46 37 37 41 36 31 23 31 33 33 38 36 48 33 33 34 27 32 33 44 53 37 27 45 47 44 41 30 67 55 33 22 36 43 37 48 31 58 21 30 43 61 34 60 23 51 30 47 44 37 43 32 46 46 46 43 35 44 48 34 38 56 22 38 54 60 55 31 36 39 51 41 55 37 44 48 36 34 37 40 49 30 43 40 52 51 54 52 50 29 51 27 24 45 46 58 50 41 30 44 41 45 45 55 45 22 37 23 47 50 48 46 32 38 53 44 38 23 52 40 33 44 57 47 42 46 29 55 43 40 52 16 47 32 71 43 27 41 51 57 29 48 23 45 41 48 37 56 24 46 28 53 58 45 33 27 54 45 25 27 36 47 40 48 37 37 43 47 33 40 26 32 29 33 46 45 58 30 38 37 41 39 41 43 50 48 48 43 22 59 34 37 40 33 46 52 34 34 37 33 43 48 34 52 27 37 40 58 51 16 37 35 60 40 39 17 54 32 12 29 41 55 41 34 30 33 30 48 37 47 55 33 43 51 26 47 22 42 47 51 29 58 44 47 37 47 51 37 43 37 29 22 38 48 16 26 35 30 35 35 41 59 51 68 33 36 50 31 33 48 59 39 51 41 51 37 46 43 34 30 35 38 58 35 31 36 38 47 28 23 37 36 45 17 32 33 39 51 24 31 26 34 13 15 29 21 34 37 37 45 21 35 44 22 53 54 45 33 53 52 40 30 33 37 38 29 50 46 38 45 51 50 47 46 32 34 36 39 29 37 29 39 38 36 45 24 39 35 39 44 48 40 23 33 46 34 61 19 51 16 43 30 25 39 60 36 41 33 36 38 48 38 41 36 34 55 37 36 48 54 38 37 30 39 33 47 48 27 45 40 45 37 44 26 47 31 31 45 59 47 48 51 30 31 43 44 49 52 48 46 37 30 19 40 33 27 26 47 51 41 57 35 46 48 23 41 63 51 36 33 42 28 19 51 59 50 48 20 29 22 41 51 48 38 33 33 31 36 37 53 30 31 37 30 47 38 36 35 34 30 26 61 26 36 51 40 20 43 43 43 30 47 54 51 31 44 61 48 42 36 39 51 19 58 54 26 29 34 30 48 30 47 16 51 31 26 30 47 37 55 38 31 36 47 45 48 41 45 27 31 27 37 44 49 51 42 46 54 50 62 39 40 20 32 51 24 33 26 41 33 47 37 40 37 44 29 17 38 29 36 58 51 36 55 31 50 42 54 40 38 30 37 37 30 35 33 52 58 57 44 46 37 25 37 52 33 52 38 50 60 39 27 33 51 24 46 16 40 51 61 61 33 30 50 30 29 34 27 19 43 43 36 41 62 37 57 48 41 27 71 41 40 57 56 31 47 22 33 27 42 56 26 49 42 34 33 40 33 37 54 54 37 38 23 41 49 41 26 51 32 45 37 40 53 49 29 39 30 33 37 44 54 26 33 40 29 42 28 35 40 38 43 37 54 51 27 42 55 26 29 37 44 37 15 37 55 46 59 33 41 47 38 44 41 44 40 24 27 31 57 33 38 40 44 60 30 62 44 37 54 39 43 55 41 45 37 43 27 52 51 44 31 33 36 44 32 31 38 41 41 48 38 24 33 34 23 58 21 27 67 44 38 40 33 31 22 45 33 23 40 56 36 46 27 33 63 52 40 42 47 57 24 21 43 41 24 39 41 25 29 26 44 34 41 36 43 32 38 20 43 36 27 37 61 48 41 51 17 27 46 27 19 59 23 31 20 44 47 42 54 41 40 37 43 42 41 40 46 37 43 37 55 38 59 27 34 43 47 34 40 37 23 58 29 60 47 23 29 20 40 34 33 33 36 48 22 23 25 67 46 20 36 24 44 42 48 31 36 34 31 31 47 29 27 53 30 45 33 40 48 33 43 27 43 37 57 37 30 38 47 39 36 37 53 46 39 37 48 29 44 29 48 19 25 40 69 27 23 37 37 32 36 51 48 27 40 33 48 37 32 32 27 52 30 36 50 22 25 23 29 30 49 55 29 33 34 16 30 20 47 39 46 51 36 54 32 33 23 43 51 49 44 46 58 47 16 31 63 47 44 61 32 46 41 45 52 52 38 27 29 26 18 43 46 38 47 43 39 29 16 51 33 47 52 29 31 34 35 31 24 31 23 56 20 19 30 32 31 44 40 27 50 46 47 17 34 33 43 26 33 57 37 50 33 28 43 45 46 41 55 51 23 37 31 29 30 34 38 65 50 27 58 32 30 44 35 49 40 37 30 61 47 24 14 24 49 44 30 37 36 31 37 6 36 29 44 27 45 49 51 36 32 46 37 44 37 57 30 37 40 54 32 30 32 25 27 30 61 36 21 47 39 62 36 47 33 37 36 38 41 29 48 33 35 38 51 29 33 32 29 41 40 37 44 41 46 38 45 37 43 39 43 44 26 22 44 34 43 41 37 52 29 33 23 43 45 37 36 57 31 28 44 40 67 47 64 40 23 44 35 37 36 58 47 35 38 44 55 38 76 43 32 26 37 58 48 27 53 51 40 33 39 34 16 35 49 26 37 39 50 58 23 40 52 46 51 36 20 34 45 39 42 45 23 9 29 32 48 39 51 47 33 34 30 34 30 26 50 40 54 42 45 33 44 61 27 31 53 25 22 34 12 46 50 41 47 66 47 50 37 57 47 37 22 41 21 40 37 47 51 35 20 22 56 41 55 44 30 30 38 23 24 38 32 40 30 48 28 54 42 47 44 56 36 44 43 33 32 35 30 50 46 44 48 40 30 32 46 41 46 33 38 43 61 29 45 33 36 38 43 41 49 29 30 43 59 41 55 51 48 55 53 31 32 30 34 45 33 41 27 51 32 34 29 24 26 40 45 40 33 36 51 47 47 32 37 41 41 30 51 31 43 27 35 35 37 33 31 37 45 41 40 39 27 34 32 30 51 49 32 38 30 44 40 30 44 57 40 41 37 49 25 44 50 37 30 29 45 40 35 44 33 39 47 30 38 46 73 53 42 35 22 36 45 33 44 45 23 48 41 13 37 29 36 34 53 48 30 38 22 16 48 35 37 50 55 50 58 24 37 45 32 44 37 40 48 29 29 27 25 47 27 23 50 19 41 41 41 40 44 32 40 33 44 52 43 37 37 19 38 51 47 41 48</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>JSU(-14.444349931881248, 10.268925079567097, -52.46626114017556, 38.254742180279564)</t>
-  </si>
-  <si>
-    <t>27 23 31 22 17 17 31 24 27 20 32 27 16 27 20 30 14 24 19 21 30 8 24 7 23 17 21 13 31 28 27 26 10 31 20 27 17 24 6 13 23 27 25 27 16 21 21 20 24 14 14 13 17 28 10 38 16 23 14 23 31 13 33 28 31 20 14 22 13 7 30 28 23 27 24 19 17 24 6 15 27 10 20 30 32 20 24 16 31 31 27 26 19 24 31 9 6 10 7 19 27 27 17 37 20 29 24 21 19 6 18 23 21 28 31 27 28 19 21 23 23 34 23 34 20 10 27 18 42 10 7 16 6 10 16 28 3 31 33 30 27 8 13 17 22 10 38 23 20 23 6 24 24 19 20 30 17 24 24 24 19 16 16 27 27 24 34 24 24 12 27 27 16 30 6 35 14 21 26 13 25 24 27 13 16 23 20 13 27 21 17 19 16 35 17 28 45 27 13 29 35 18 17 21 20 16 26 27 20 31 23 23 27 14 24 30 16 17 30 6 10 34 26 26 17 25 16 28 27 27 20 24 10 37 27 6 30 37 25 17 27 10 24 30 20 30 13 24 6 13 24 34 21 31 19 7 13 29 9 24 13 6 21 22 23 24 21 30 28 31 24 17 29 28 18 19 6 23 27 22 16 23 17 27 28 17 6 29 34 23 21 6 34 14 19 25 38 27 27 10 12 24 24 15 18 26 16 30 20 17 30 19 20 13 9 10 15 10 20 21 24 17 24 24 7 31 14 27 26 27 17 9 15 28 24 20 23 23 20 34 14 24 20 10 27 26 33 24 33 10 27 23 27 24 42 20 17 19 28 21 14 26 13 26 20 23 10 20 22 24 33 24 22 17 20 14 28 16 44 16 16 7 31 28 28 31 23 30 21 13 34 37 21 10 23 31 27 20 9 20 27 10 30 6 23 6 14 11 24 17 27 24 13 42 27 20 6 23 30 31 26 10 30 16 31 27 31 23 26 25 24 14 26 24 21 20 35 13 18 13 20 10 17 37 20 6 30 24 45 23 6 23 21 30 21 13 38 15 21 16 24 21 31 24 23 43 27 21 15 10 10 10 29 17 33 10 30 14 38 16 23 34 26 24 31 22 13 14 20 26 24 10 24 21 16 17 19 31 23 15 10 7 27 13 21 23 23 23 33 28 16 27 26 30 20 21 19 28 19 16 23 13 16 27 9 20 23 34 9 17 18 29 13 27 9 44 13 8 37 9 20 23 17 23 34 38 16 23 17 16 23 20 20 17 16 24 17 16 23 27 14 18 0 10 23 45 33 25 22 24 31 26 17 10 14 13 14 23 31 31 10 13 20 14 27 30 28 13 10 13 45 13 6 20 13 7 24 10 23 35 22 29 16 31 21 24 18 31 23 20 10 37 7 9 10 25 17 20 13 26 22 28 27 28 0 19 24 14 27 23 18 13 24 35 14 29 13 20 31 10 14 20 6 31 37 21 28 17 24 20 27 23 24 13 13 34 29 27 9 17 17 16 34 12 24 17 10 28 20 6 16 34 24 21 17 23 20 10 31 14 30 16 6 24 13 30 24 13 8 24 30 10 16 24 11 3 23 34 23 27 17 16 13 20 14 30 27 41 27 21 15 3 20 17 10 17 19 19 20 27 16 20 17 20 32 14 28 23 21 16 3 31 10 23 14 35 7 16 24 10 34 10 7 3 27 20 17 17 24 28 21 14 13 33 3 31 10 17 24 20 17 24 6 17 27 28 23 10 17 17 40 38 14 7 13 23 14 17 10 16 22 20 16 32 31 28 30 27 10 3 31 27 28 24 14 27 22 17 13 23 21 17 14 16 30 29 3 20 19 16 17 13 23 10 37 28 35 21 29 27 14 9 17 22 27 17 27 31 30 22 7 11 13 27 20 23 10 20 21 24 12 20 14 22 16 29 10 24 38 17 23 26 23 20 20 10 24 34 22 24 17 21 20 7 12 21 26 30 14 28 25 12 35 19 31 24 21 26 24 20 31 15 21 9 13 17 16 24 27 26 30 24 20 28 26 17 20 10 27 15 23 24 17 30 8 24 20 31 21 27 17 17 31 13 10 23 24 44 17 16 16 28 12 31 11 12 15 27 16 6 25 13 27 23 26 30 16 20 16 20 31 24 20 13 28 24 10 24 23 14 45 10 3 16 30 27 17 9 28 25 23 4 29 31 18 20 21 14 16 21 21 26 27 7 20 24 28 13 28 27 25 19 20 16 24 30 10 24 6 24 31 31 27 13 17 17 20 20 21 16 17 20 26 21 12 6 30 27 20 20 27 28 30 13 29 24 26 25 17 13 17 27 17 28 21 13 20 31 17 20 23 20 17 7 34 10 20 17 0 24 21 16 16 19 17 23 3 18 24 18 9 24 28 27 22 17 21 21 23 6 19 23 13 13 31 33 27 17 35 20 28 9 24 13 6 20 24 17 27 21 20 6 24 27 43 21 14 20 28 34 24 20 24 20 45 13 20 3 16 41 31 30 14 27 9 21 14 21 24 17 6 31 13 16 34 20 21 24 21 21 17 26 21 9 36 24 21 14 37 10 20 27 27 31 21 33 8 16 38 27 20 37 9 24 21 26 27 13 20 35 34 31 28 13 17 20 28 13 14 12 20 41 10 20 23 12 31 12 21 21 33 28 30 11 20 6 24 10 16 9 30 17 19 26 27 24 24 14 6 35 20 20 27 42 30 26 24 29 20 13 7 23 21 27 16 20 20 14 17 24 31 10 26 14 10 20 13 9 31 26 24 16 27 28 33 17 24 20 28 31 18 13 37 14 10 31 17 27 18 20 27 27 17 12 28 31 22 35 30 24 23 13 23 28 19 27 21 20 37 21 6 17 10 12 28 27 31 10 22 12 23 13 14 17 10 23 31 27 11 13 16 19 23 27 20 13 17 34 20 23 10 20 17 28 10 35 21 21 30 21 14 20 6 24 13 12 34 41 24 21 5 10 3 26 26 27 26 27 16 28 24 3 8 14 20 26 17 35 24 22 7 34 17 31 13 17 17 15 20 21 16 10 17 41 20 16 13 24 13 3 6 24 23 27 20 16 21 23 37 24 13 16 38 31 13 31 27 13 20 26 17 10 19 15 13 20 21 24 9 17 29 24 23 21 6 27 13 3 31 19 13 24 38 26 3 17 30 17 31 17 31 14 34 14 8 22 28 17 31 20 10 31 14 28 17 27 34 20 24 38 24 31 27 16 17 27 20 31 17 10 14 12 24 7 14 13 20 21 21 10 37 32 21 17 10 25 9 20 19 21 20 31 17 31 17 27 12 17 33 20 23 23 21 21 31 24 42 10 16 21 20 24 38 18 30 31 21 31 10 10 27 16 16 18 9 17 9 18 13 17 19 23 23 31 23 23 32 42 16 24 6 21 19 23 13 16 17 13 17 27 31 16 27 27 20 28 22 9 34 20 37 17 17 17 20 6 31 24 34 10 26 7 20 17 0 27 28 20 19 24 34 10 26 27 20 16 10 33 13 19 29 28 21 20 21 23 27 17 25 17 27 17 17 6 31 17 31 23 16 20 23 21 14 13 23 28 16 24 6 10 10 35 14 17 17 20 24 20 13 17 12 22 33 20 27 21 37 16 25 13 13 14 13 24 13 13 37 14 17 23 14 22 38 25 30 7 23 17 30 17 15 24 16 21 22 17 14 21 23 20 9 28 31 3 24 24 17 20 13 13 9 24 23 27 27 20 16 31 16 30 31 16 28 16 12 21 27 19 19 20 24 13 14 9 35 17 14 24 20 17 22 14 17 17 17 29 20 35 15 24 16 20 27 34 9 16 38 19 31 12 17 22 30 14 34 17 24 26 27 13 33 24 27 35 3 36 17 17 16 14 21 33 20 21 38 14 12 34 24 13 14 21 16 13 24 21 13 7 19 17 31 33 21 13 14 17 24 21 22 30 14 27 17 13 13 28 37 17 31 27 20 24 10 14 10 17 20 20 27 41 20 16 20 14 14 20 19 31 27 29 16 31 24 17 26 20 19 30 0 17 31 27 24 17 12 15 31 26 20 28 16 33 17 14 14 21 13 17 34 23 24 13 17 27 38 27 28 21 10 27 31 11 23 20 3 25 10 18 27 7 13 24 22 17 21 17 7 28 20 6 20 30 20 19 28 3 19 28 27 9 18 24 30 17 23 22 10 45 13 27 31 16 27 17 17 36 24 23 28 25 19 10 20 34 20 35 20 29 20 26 27 24 15 27 24 24 20 19 14 20 16 17 23 21 30 17 27 16 20 23 24 20 24 25 20 17 31 13 21 34 19 20 17 17 21 14 23 13 13 10 0 10 31 20 20 9 24 38 22 26 24 7 30 13 16 28 24 21 23 25 30 16 18 24 28 9 21 12 18 35 20 16 20 17 33 13 38 23 16 12 30 21 31 23 6 13 14 15 24 20 15 23 13 17 6 10 34 21 17 14 30 23 27 17 35 20 24 16 27 22 10 17 20 21 14 16 22 17 21 23 19 20 24 13 7 21 17 24 19 20 34 41 3 21 17 23 18 29 36 21 20 16 17 20 28 24 5 26 24 7 19 23 34 6 20 20 31 20 17 14 23 20 27 21 28 26 14 27 10 17 30 28 20 23 14 24 17 17 27 28 23 23 27 20 14 31 20 24 20 20 21 20 6 16 10 31 13 17 27 9 12 24 19 35 19 7 13 12 20 27 14 13 23 18 30 26 12 23 28 14 27 31 13 6 31 26 17 20 20 28 34 16 24 21 17 27 31 31 23 37 19 27 27 27 27 9 26 27 13 23 20 22 23 23 27 24 17 20 26 13 21 21 20 20 3 17 27 27 20 3 9 27 34 41 27 26 12 20 30 17 23 31 31 27 34 15 20 11 25 14 19 17 17 33 17 3 27 16 8 33 31 30 13 24 21 27 17 29 30 16 28 13 6 33 23 24 17 29 13 23 10 31 10 23 23 20 33 0 31 3 22 14 34 42 7 14 17 17 20 15 20 34 12 16 14 24 17 31 31 19 23 22 19 17 34 12 15 13 16 19 31 30 24 34 17 11 30 27 19 20 26 37 17 23 19 31 15 21 17 20 23 25 11 23 24 26 7 30 20 27 20 17 31 7 10 31 20 33 28 20 10 31 24 27 13 14 9 21 31 20 22 31 14 24 26 17 28 19 21 29 19 17 20 14 34 14 17 21 9 6 20 13 16 6 20 20 10 17 30 10 29 34 20 17 32 19 24 27 19 17 19 38 20 24 17 24 7 28 20 27 42 26 10 27 10 14 31 31 17 17 24 21 40 21 27 9 3 14 27 27 17 27 31 23 40 13 30 42 33 30 27 20 17 13 9 27 24 20 25 17 10 24 29 17 7 23 23 31 22 17 21 17 11 13 20 21 17 17 14 17 34 26 6 17 20 16 27 13 20 34 28 16 13 10 24 34 13 24 19 40 17 20 13 24 24 22 27 26 20 19 30 24 13 23 5 17 29 27 24 37 13 16 36 35 14 27 22 21 41 16 22 23 17 22 24 20 10 13 20 35 23 10 10 20 26 22 14 17 10 21 26 15 23 24 21 13 17 20 55 6 23 27 30 17 28 27 31 24 26 31 35 20 22 29 14 17 24 13 20 20 31 38 9 20 42 13 9 24 17 20 18 27 27 0 24 19 21 20 17 23 14 17 27 27 26 29 31 7 12 20 21 24 20 17 31 17 17 28 21 24 27 19 27 27 31 13 24 25 37 14 19 16 27 14 34 52 22 38 20 24 20 31 38 23 24 17 19 33 30 13 17 19 31 26 21 25 20 28 13 14 7 31 27 3 18 23 28 17 23 17 7 21 24 23 37 22 14 16 17 16 23 33 13 17 24 31 10 27 22 29 25 11 24 24 26 23 37 20 20 28 20 31 14 41 19 28 20 19 15 22 17 21 12 28 17 18 15 21 6 34 20 27 17 21 10 13 24 34 28 7 30 28 31 34 27 27 34 10 15 16 20 21 24 13 33 24 23 13 16 27 20 3 24 34 20 14 27 9 14 27 24 24 15 21 34 28 6 23 17 7 18 35 38 17 34 35 31 14 10 24 16 23 17 26 24 20 14 13 20 38 10 17 20 17 28 23 16 14 14 37 24 20 27 10 7 23 20 14 13 27 17 30 14 23 42 17 31 21 27 20 23 21 21 16 17 35 13 24 29 20 22 16 29 16 6 38 23 24 22 28 24 6 41 10 13 28 13 14 23 15 16 23 26 24 37 31 21 3 9 25 16 16 16 17 30 13 20 14 45 23 3 3 23 27 17 20 19 13 30 31 23 6 27 28 24 34 26 14 17 20 12 20 44 24 24 3 24 17 29 12 23 34 26 26 17 13 22 22 14 16 34 27 20 17 21 30 7 13 33 16 14 14 30 27 31 16 27 20 27 6 23 31 17 17 16 49 24 21 24 17 21 30 11 21 31 28 16 7 17 27 13 16 23 17 16 12 34 14 13 13 13 21 24 31 20 17 34 30 19 19 30 35 14 16 27 20 27 31 17 23 16 7 17 15 17 16 16 28 31 30 27 20 37 17 23 13 26 24 21 28 20 38 10 30 13 10 17 14 22 16 6 20 13 23 21 16 21 24 42 20 14 16 27 10 8 17 24 15 28 20 12 24 13 27 32 20 19 38 18 17 21 23 27 22 23 40 19 20 21 3 23 34 14 22 19 20 17 24 23 14 38 20 32 21 13 14 17 31 20 24 17 22 17 17 24 17 41 3 16 24 10 13 26 17 20 6 30 17 30 10 31 17 17 6 20 16 13 10 17 18 10 24 23 26 14 20 20 13 27 17 29 13 19 10 21 27 23 23 38 13 24 17 10 27 37 6 13 33 20 23 14 24 13 13 31 30 20 24 27 10 20 14 20 21 13 16 6 24 20 37 23 34 23 42 20 17 21 45 22 18 20 36 17 6 23 3 17 35 35 26 20 7 24 13 17 17 13 7 27 27 20 17 26 7 30 24 19 23 22 22 30 7 26 10 9 17 12 12 27 15 14 30 10 28 10 24 6 23 6 17 22 6 20 17 16 24 31 16 23 13 26 6 24 16 20 16 24 19 17 30 13 24 24 17 13 24 10 23 24 24 23 28 23 30 17 26 6 10 31 31 19 21 19 21 20 17 26 17 3 26 24 21 34 27 30 13 31 10 16 13 31 23 17 33 30 13 26 17 20 27 6 22 24 33 11 24 14 27 23 12 17 20 23 12 16 7 6 16 27 31 27 21 38 28 19 17 19 24 14 10 20 13 12 27 9 24 21 17 27 28 28 24 34 24 27 24 31 38 21 26 14 24 10 14 17 21 29 23 15 19 19 36 27 11 10 21 25 17 41 35 20 14 23 14 18 14 26 10 35 20 10 19 17 24 21 20 31 16 21 17 17 17 20 24 24 24 28 26 20 18 10 34 21 15 27 34 24 17 26 20 17 30 24 9 14 34 24 38 10 23 34 21 25 24 31 13 21 27 10 34 20 24 34 21 14 48 30 21 10 31 34 20 21 17 20 10 10 12 17 30 24 38 28 26 20 13 32 17 30 6 9 10 6 16 14 22 20 25 27 21 13 20 21 3 23 17 27 23 23 31 14 19 13 21 28 20 14 14 20 7 12 20 33 24 17 17 27 24 14 23 31 23 37 10 34 17 45 10 24 20 21 20 13 28 7 16 7 19 20 27 21 16 23 17 41 9 17 28 27 10 28 31 10 20 13 13 17 14 24 31 21 23 31 27 7 13 17 20 34 14 13 16 29 18 28 14 11 37 31 19 3 30 17 22 13 7 17 14 17 10 16 31 28 14 31 38 24 26 28 24 15 24 28 34 21 27 17 27 27 10 31 24 14 20 17 30 29 33 15 10 27 13 0 23 16 12 14 6 17 10 21 21 6 14 20 16 33 20 13 31 38 17 23 23 14 19 6 15 16 24 19 16 34 7 26 24 10 6 17 21 23 13 12 23 22 20 14 24 6 10 31 31 18 17 20 23 24 21 27 38 10 18 16 17 31 23 35 24 23 17 19 20 38 19 9 22 6 20 20 0 24 27 16 17 31 30 10 22 22 14 27 21 16 6 15 10 28 22 17 9 23 10 17 19 31 30 31 19 20 21 34 17 24 20 31 20 7 21 30 24 13 20 19 20 10 20 33 21 34 26 28 22 24 28 21 34 28 27 31 31 23 21 28 19 33 31 17 37 13 23 41 22 30 18 28 20 21 45 24 23 29 26 7 30 41 31 16 14 28 7 7 23 42 19 7 22 31 10 24 38 10 17 29 45 13 16 28 16 24 20 19 22 25 17 27 27 10 35 10 9 21 23 31 25 31 13 17 17 23 13 10 25 34 6 13 16 27 16 20 9 9 38 20 17 28 16 13 12 23 34 24 8 23 38 20 24 7 7 12 16 20 23 21 21 14 34 27 24 16 25 14 28 23 27 17 15 31 7 23 13 27 24 27 20 14 23 13 20 24 26 20 17 6 34 30 12 14 22 11 16 28 7 17 28 10 14 37 24 10 15 21 13 10 22 27 24 38 25 20 17 7 31 17 21 21 24 10 27 34 10 19 24 13 23 27 21 17 35 17 24 13 34 34 12 38 23 13 27 19 17 10 20 17 20 35 3 23 35 26 10 19 15 6 10 22 13 27 27 21 24 16 24 24 19 16 13 30 13 26 13 17 24 28 24 21 17 16 17 20 35 31 20 13 21 20 14 16 20 19 30 30 30 30 26 16 23 31 34 14 17 27 27 28 21 20 10 28 34 21 24 26 20 20 12 27 31 20 20 20 27 12 17 22 26 17 25 34 10 31 24 20 21 16 23 12 33 21 23 28 27 18 21 31 28 28 27 20 24 37 15 38 21 3 0 24 9 13 9 20 0 7 19 13 23 24 16 20 20 16 6 24 23 31 24 41 29 17 24 31 23 25 16 44 17 12 10 27 22 27 20 6 20 24 27 27 34 17 11 10 17 27 13 17 17 27 23 12 17 30 17 6 41 30 16 30 10 15 17 13 16 27 10 15 42 22 14 20 24 27 16 22 17 17 38 29 10 35 10 14 31 38 28 12 23 27 29 23 35 14 30 14 20 6 9 22 29 10 30 19 31 6 16 27 22 24 31 27 31 7 35 31 41 28 9 14 31 14 10 13 16 10 23 20 17 17 24 0 24 13 10 15 17 35 20 31 16 13 7 17 21 30 23 32 19 22 20 20 38 20 24 23 37 21 27 24 28 12 27 8 26 29 34 30 39 21 31 21 14 19 21 31 24 25 18 24 12 27 29 20 10 19 17 9 38 31 14 16 30 28 24 24 27 18 27 28 31 28 35 16 6 31 34 30 7 24 23 22 9 20 13 37 31 16 24 23 3 48 31 21 30 17 16 24 24 6 6 31 27 13 27 27 12 10 21 14 30 30 19 17 20 21 21 31 28 19 20 6 16 24 17 24 31 34 21 20 31 21 14 18 22 20 28 27 21 10 21 13 24 38 19 27 14 31 34 16 24 17 30 34 24 13 14 35 6 17 14 13 17 13 20 14 20 24 21 13 0 22 14 17 13 17 17 44 17 31 21 23 27 17 26 24 22 41 19 31 19 16 14 13 24 24 31 20 10 28 20 3 27 17 7 15 21 6 17 20 10 34 17 20 22 27 10 27 20 21 28 31 20 17 33 24 21 9 17 12 27 19 28 24 25 13 10 34 28 14 15 17 26 18 15 24 27 14 34 31 27 9 14 17 3 19 13 13 21 19 3 18 24 20 30 20 21 7 19 10 17 27 16 10 17 28 27 31 27 20 7 30 26 28 24 37 17 23 27 29 31 13 24 31 22 23 30 19 14 25 16 27 27 10 19 22 24 19 9 19 20 24 24 19 34 21 13 24 20 17 27 24 6 20 20 24 20 27 10 23 27 20 16 17 17 20 27 17 30 18 16 31 24 16 19 23 27 10 24 19 26 16 40 17 10 34 23 16 16 31 20 31 12 33 10 20 10 31 20 24 9 3 10 23 27 17 6 21 24 17 41 17 31 20 14 38 20 26 23 19 15 24 23 20 9 7 26 10 38 13 24 14 27 17 24 20 22 30 17 20 12 16 23 21 13 37 17 21 11 16 3 27 24 27 20 17 20 17 19 23 34 23 20 23 28 17 21 33 28 31 13 13 28 17 18 24 7 22 6 45 13 24 31 20 25 30 24 16 31 19 34 16 16 24 34 26 24 21 7 7 24 10 13 40 13 20 16 37 10 10 3 24 24 17 29 27 21 34 21 16 21 34 13 27 29 20 28 17 17 31 19 20 16 38 24 17 30 6 16 27 16 21 34 16 24 38 21 23 24 13 23 7 24 29 24 27 14 24 17 24 13 10 17 14 37 24 35 27 23 24 23 21 31 33 17 14 10 13 13 23 6 10 26 16 30 24 37 20 29 24 28 15 14 17 21 9 30 31 38 31 10 17 13 11 17 10 21 13 27 28 23 20 23 29 17 19 41 28 3 17 33 30 23 28 13 29 14 29 21 9 21 24 37 24 18 24 34 24 29 27 23 16 19 15 18 22 39 12 13 26 13 16 35 24 27 19 20 16 38 17 28 17 37 27 31 26 21 28 15 28 20 22 24 37 14 28 25 24 16 27 13 26 9 10 3 27 23 28 20 13 12 24 6 20 13 10 15 24 31 14 17 17 20 20 9 29 16 17 20 10 34 21 22 27 38 31 27 31 17 35 17 10 10 27 6 20 17 18 30 26 25 6 28 21 22 27 37 10 23 24 28 14 24 27 31 21 13 27 27 10 23 19 42 17 9 13 20 27 27 24 13 21 24 27 7 10 15 34 24 3 24 20 20 22 23 32 24 16 21 15 19 30 27 21 27 12 13 20 17 25 19 30 27 19 36 17 26 27 10 16 17 11 14 17 20 20 34 34 24 17 21 13 16 23 17 16 26 23 14 20 21 13 27 27 31 41 34 42 17 30 24 33 23 30 20 9 20 34 30 20 12 35 7 17 9 17 28 13 17 45 20 24 21 13 20 20 20 17 30 15 10 14 28 38 23 36 23 24 6 17 19 34 30 27 10 27 27 14 38 24 27 44 16 21 20 27 37 14 7 7 16 24 22 20 28 38 10 35 27 15 24 10 14 17 28 14 17 31 25 16 10 10 20 38 7 26 20 9 17 31 37 10 14 35 28 20 17 17 31 20 13 23 28 26 8 14 27 20 12 24 20 24 17 26 16 24 16 25 20 25 34 21 13 9 33 19 31 35 17 19 27 27 20 23 25 20 20 24 3 19 34 17 14 10 34 14 31 16 14 16 33 6 19 20 23 24 0 27 34 14 17 23 7 20 37 17 7 20 16 40 10 9 17 28 24 16 16 27 31 31 27 23 14 17 13 20 26 31 24 20 13 3 21 29 45 24 16 20 10 23 27 28 37 27 34 10 14 16 21 27 21 21 20 10 21 13 16 15 29 26 34 36 24 16 10 19 13 24 28 7 42 19 13 17 14 28 21 20 21 31 10 17 26 27 19 45 20 14 0 34 13 17 17 2 11 24 31 32 30 38 24 20 24 15 41 29 17 21 11 30 22 23 17 14 24 27 20 6 38 13 6 10 17 12 28 6 13 30 19 14 13 24 16 6 23 22 27 14 27 27 21 21 21 14 22 17 31 13 27 23 23 35 12 21 19 32 41 19 36 20 20 17 18 24 21 20 30 34 33 27 18 19 14 31 25 24 16 31 10 17 21 30 24 13 22 30 37 21 31 31 16 17 9 14 10 38 27 23 24 20 27 20 17 23 24 17 16 27 19 20 27 20 14 19 7 24 17 27 9 20 16 23 34 23 7 14 13 17 13 20 38 14 20 23 14 20 20 29 23 30 3 10 16 15 21 14 13 38 10 27 6 37 24 27 21 17 27 21 10 15 20 38 24 24 28 17 16 20 16 13 29 28 27 30 17 10 35 14 31 20 17 17 13 20 14 24 30 27 23 29 24 20 23 20 17 16 34 16 34 31 20 23 13 24 26 10 6 24 24 24 6 34 21 17 21 10 7 20 24 22 13 30 34 30 21 10 10 27 24 20 17 31 27 24 20 7 7 24 20 14 20 21 28 24 27 24 20 26 13 16 25 17 41 42 27 13 23 16 24 29 20 23 25 21 27 20 34 26 30 32 17 24 27 16 16 19 23 21 23 13 12 16 35 26 37 17 23 24 17 33 20 27 17 27 13 23 24 39 13 22 7 14 22 24 30 35 16 38 20 10 16 19 6 22 27 20 21 24 20 27 12 16 20 31 21 38 10 16 27 17 21 28 28 11 20 20 21 10 23 29 30 27 26 10 27 24 17 14 14 17 10 7 13 17 28 24 24 24 34 14 27 10 19 37 20 26 27 14 29 24 27 24 10 13 28 7 35 24 35 20 28 20 19 13 23 41 20 31 16 12 24 27 27 23 24 28 18 24 24 27 24 33 19 34 19 21 30 27 24 13 24 27 16 22 31 30 24 23 19 26 20 31 24 27 16 20 23 6 10 23 24 26 10 10 18 17 24 28 9 13 22 16 23 24 10 10 21 16 21 27 13 15 34 14 6 20 24 36 14 13 10 20 33 10 31 31 24 20 12 17 24 7 10 19 21 26 13 20 24 18 10 31 21 18 15 7 14 10 24 17 6 23 51 24 13 19 12 14 27 20 13 24 31 13 24 24 31 25 27 27 27 17 10 26 17 19 16 40 23 31 20 14 24 24 21 27 17 10 28 16 16 22 10 13 19 12 24 24 28 26 20 17 27 6 27 22 28 25 26 16 29 9 37 9 17 23 21 37 13 20 25 20 0 17 26 23 34 17 7 36 23 28 34 17 18 16 28 34 30 24 10 13 27 21 23 15 10 21 30 41 24 24 27 20 31 22 23 34 10 24 13 18 11 16 20 40 20 21 20 33 20 27 20 20 14 45 0 38 23 17 18 8 31 21 21 35 24 34 27 27 30 16 37 22 21 23 28 11 37 27 17 16 13 22 22 17 31 27 20 16 20 17 31 30 21 20 33 10 35 20 24 31 23 27 38 9 26 19 20 13 9 17 23 35 20 14 13 14 14 24 6 33 22 31 20 17 13 14 15 29 17 17 20 23 18 37 20 17 28 26 37 20 24 27 31 13 24 23 21 14 10 7 28 11 12 20 24 25 20 26 24 31 21 14 13 30 10 37 17 24 28 28 20 24 16 14 20 6 17 17 17 13 20 15 34 17 21 31 19 13 30 30 26 13 33 21 7 13 21 38 21 21 34 18 20 42 24 10 12 19 17 23 20 34 17 17 27 13 21 45 17 28 13 30 17 30 17 24 17 12 26 20 37 35 24 17 27 19 42 17 14 27 24 28 38 17 20 19 26 27 24 17 20 26 18 17 10 18 17 13 33 39 23 28 21 27 23 24 27 16 27 3 31 24 20 17 24 20 44 23 17 13 33 20 31 20 16 16 31 43 17 14 17 21 14 28 15 20 18 10 9 27 9 12 27 38 20 30 27 27 17 43 20 31 20 31 28 28 16 37 23 27 38 12 19 19 14 20 20 13 20 30 16 27 24 15 17 34 37 27 16 19 23 30 16 17 24 19 12 27 9 17 35 16 17 20 10 10 29 24 12 29 30 24 24 23 21 23 24 21 24 20 35 17 20 20 26 24 38 7 13 13 33 20 13 24 45 35 19 24 26 27 15 19 24 24 11 27 34 24 20 17 27 38 21 37 16 26 21 31 31 7 49 17 11 26 17 37 10 17 13 24 19 20 31 27 17 17 22 17 22 10 20 28 17 7 20 30 33 34 26 14 17 16 21 17 17 20 20 17 28 15 20 17 16 19 18 16 6 20 20 15 27 6 31 30 21 9 21 33 24 7 14 21 8 31 21 28 29 25 17 14 21 21 26 31 23 24 31 23 28 10 16 7 17 13 12 9 15 10 27 36 34 23 27 30 19 15 20 21 24 14 13 21 24 26 31 14 24 17 28 17 13 24 28 44 14 20 13 17 10 35 6 20 21 12 21 23 18 33 24 14 17 23 19 13 13 28 20 17 20 24 20 37 19 34 10 45 13 19 17 19 23 13 14 24 10 16 24 33 21 23 12 23 16 13 31 16 12 13 28 14 38 33 10 34 20 17 13 10 21 35 34 30 28 34 17 16 31 9 17 23 34 10 6 23 10 10 17 7 14 11 16 35 29 17 17 15 20 22 7 0 36 30 27 12 24 19 31 30 24 33 20 30 24 20 32 20 27 16 21 23 23 16 37 24 16 12 41 38 21 14 3 15 21 20 28 37 16 25 20 16 26 17 13 19 27 3 34 37 17 15 20 24 24 27 7 12 16 27 10 23 27 23 31 22 24 13 34 13 13 18 17 22 31 24 20 13 26 24 23 24 14 27 21 20 37 21 36 14 36 10 20 21 9 34 23 31 13 20 23 30 27 13 23 7 31 23 17 37 3 37 23 20 27 24 33 25 9 16 17 27 28 28 22 20 23 24 23 19 27 17 31 20 23 17 20 24 24 17 23 10 30 6 24 10 24 27 27 20 21 24 16 17 12 20 17 30 20 19 10 35 16 24 17 13 16 10 10 23 20 13 20 27 20 27 20 10 20 16 14 17 26 20 20 24 14 22 20 17 17 22 16 16 26 6 34 23 20 7 26 20 29 20 27 28 29 33 20 28 27 27 16 13 22 17 35 24 26 15 24 15 24 16 3 24 17 19 38 27 42 16 19 31 34 28 27 26 16 23 23 13 10 27 31 7 17 10 17 17 23 24 15 19 16 27 23 23 24 20 24 28 16 13 16 11 34 31 3 16 6 17 21 10 10 17 45 27 33 24 20 20 13 20 17 17 24 9 0 23 27 14 17 17 13 24 14 24 6 24 17 31 14 17 31 27 13 12 16 15 24 27 9 21 24 17 28 23 10 28 17 6 16 27 16 25 23 20 31 14 25 23 27 23 18 16 10 33 29 27 17 30 23 23 10 30 16 17 21 7 13 26 26 20 31 13 10 16 17 27 0 20 24 30 7 20 17 30 10 17 15 17 27 21 24 16 24 20 17 20 17 24 20 31 10 13 34 17 3 13 21 7 35 10 21 16 30 24 20 33 7 42 16 3 31 45 3 17 24 17 20 45 10 10 25 7 20 31 13 20 26 24 38 27 21 28 24 21 20 19 14 35 24 16 9 20 20 20 17 27 18 21 24 26 20 16 27 24 10 12 38 41 9 20 29 17 17 26 23 27 12 6 13 20 27 17 6 17 24 26 16 9 20 37 11 19 31 30 31 25 21 23 21 32 27 24 34 23 9 29 27 26 21 24 17 30 16 30 10 34 17 21 13 36 20 20 17 12 24 21 20 17 11 7 17 14 17 17 36 14 15 21 20 31 13 17 27 29 13 49 21 17 20 16 31 19 20 14 24 31 42 6 44 13 12 24 24 18 18 21 13 26 16 11 27 12 34 27 30 20 20 29 20 19 21 27 19 19 38 10 35 25 10 17 17 10 6 30 30 24 35 31 23 24 37 7 23 20 23 24 20 16 27 6 27 23 7 45 24 18 16 23 18 27 24 23 12 17 16 20 40 20 17 21 14 22 7 14 38 13 12 26 7 35 19 13 28 13 24 21 13 28 22 15 23 18 22 21 31 20 20 28 23 16 41 26 10 24 16 21 15 20 7 31 24 28 17 13 10 20 30 24 15 17 10 17 23 17 26 14 16 24 17 28 24 23 23 23 27 10 17 17 28 21 23 31 23 19 24 23 23 24 29 13 22 20 21 27 21 10 27 17 30 28 21 17 17 24 14 30 28 27 19 26 28 23 37 16 13 17 13 28 23 21 20 22 26 24 21 19 23 24 33 23 27 24 24 19 28 27 26 16 34 26 21 20 20 24 13 26 23 29 28 35 37 19 20 27 31 17 31 24 17 26 27 17 17 27 25 10 16 31 31 13 13 14 16 25 14 21 23 17 13 9 36 24 28 22 31 10 20 36 41 18 37 16 17 14 18 21 19 36 12 27 31 12 20 13 16 17 20 19 25 27 24 31 21 14 9 9 24 10 21 16 17 16 27 30 17 24 19 9 23 31 27 16 30 26 21 54 9 10 35 26 24 27 42 21 10 20 14 13 20 25 31 17 12 27 13 35 13 19 30 30 14 25 17 10 27 23 16 37 27 19 20 13 40 10 20 30 14 7 24 34 16 21 17 17 23 14 17 16 13 30 27 20 22 17 23 31 16 20 30 24 23 13 24 20 20 8 17 27 6 23 13 14 14 24 23 17 28 28 23 22 13 24 12 13 23 17 3 27 13 20 30 28 16 21 27 9 20 28 28 24 27 17 24 18 21 20 21 23 31 30 28 14 27 15 13 16 27 24 9 24 26 17 29 12 13 31 13 10 19 28 17 24 20 16 27 20 23 10 19 24 23 33 12 14 21 22 21 14 17 23 20 16 17 23 20 12 38 11 16 17 8 26 20 10 23 10 24 24 14 20 26 19 13 9 10 24 18 20 24 10 29 25 19 23 37 19 20 20 22 14 38 24 16 24 13 17 6 26 14 16 19 26 10 23 34 8 24 41 22 15 23 42 26 17 17 31 20 23 28 27 14 21 17 21 21 34 31 31 23 31 31 28 23 19 33 24 10 30 10 11 16 28 24 12 10 13 20 38 20 33 28 36 15 31 20 18 13 20 35 7 31 34 24 24 24 17 24 11 20 24 15 24 16 28 10 14 17 17 31 27 25 35 30 20 17 13 14 22 21 17 14 9 20 26 17 7 19 27 33 9 20 24 14 31 24 14 18 27 13 20 38 38 44 18 20 34 24 20 27 35 24 13 26 14 13 14 17 17 31 35 24 10 27 23 26 16 20 20 26 20 17 30 7 20 30 31 10 13 17 10 28 34 20 13 38 34 16 23 14 26 20 20 17 21 37 23 35 23 3 34 28 14 10 13 19 10 23 24 10 14 21 24 13 7 7 20 24 28 28 24 10 6 31 23 20 17 22 27 16 9 19 17 30 27 31 20 17 23 19 16 40 14 13 14 9 16 6 28 9 35 20 27 31 24 24 29 24 21 24 24 28 13 22 30 14 10 7 17 3 17 24 21 41 19 30 18 20 34 24 26 31 28 9 23 17 17 17 21 26 21 16 21 18 21 12 27 24 6 36 16 10 20 7 10 26 23 17 13 24 31 30 31 29 24 18 21 12 24 15 23 13 14 19 26 22 13 40 17 21 10 17 27 23 21 10 13 10 12 31 27 23 27 24 10 24 26 10 6 26 14 29 24 37 10 7 20 15 17 31 27 27 36 20 14 23 20 28 21 25 20 7 19 23 24 21 20 26 31 20 31 20 17 33 17 20 17 17 17 24 10 28 10 14 12 13 20 22 36 20 15 24 25 23 20 24 42 19 19 34 24 16 24 33 26 6 11 7 23 19 19 20 13 28 17 30 24 34 11 23 38 16 26 21 17 11 24 20 28 10 17 19 26 22 6 17 17 27 16 27 10 24 17 23 23 9 10 17 55 27 13 29 17 23 24 30 27 26 45 23 20 28 31 0 21 20 16 19 21 13 45 20 3 27 23 12 17 16 6 20 13 23 31 10 32 12 24 19 21 23 31 20 28 16 24 21 21 17 19 16 21 34 14 10 17 32 11 24 10 20 31 21 37 16 30 25 48 25 10 27 24 28 31 16 20 19 17 13 19 31 34 17 20 28 16 21 37 19 29 10 27 16 12 24 35 23 28 30 16 24 10 41 24 19 24 21 14 27 22 18 16 23 20 19 27 20 14 13 24 17 28 23 20 17 16 31 22 16 24 23 31 20 35 14 41 23 34 11 10 21 30 19 26 13 17 31 28 17 24 31 10 24 21 24 10 33 23 44 20 21 27 34 20 34 16 45 23 14 16 27 17 34 14 38 16 10 14 10 27 16 45 34 20 6 17 34 30 24 15 30 35 21 29 20 34 20 29 12 20 34 37 20 9 30 13 10 7 26 24 31 9 3 23 16 10 34 20 20 22 24 30 20 16 31 17 24 26 24 34 19 18 6 16 13 24 14 17 20 28 15 20 27 28 23 6 9 14 23 23 24 38 27 24 31 27 22 17 23 45 21 24 16 10 17 13 7 28 16 0 40 31 9 14 20 24 20 24 20 27 17 16 13 31 37 24 21 16 35 27 20 37 24 27 7 27 28 16 10 21 19 27 27 3 20 10 18 19 24 21 13 17 29 24 28 56 28 10 30 24 38 34 13 21 20 31 6 16 37 30 48 14 22 24 14 14 15 27 31 24 21 24 16 20 3 28 19 20 30 17 38 31 17 16 31 24 14 10 24 27 7 30 24 34 20 21 26 31 24 33 31 13 30 14 14 30 13 24 28 22 17 17 12 16 21 10 20 16 28 30 21 17 30 16 24 29 31 19 31 43 31 10 11 12 19 26 27 17 17 9 20 23 30 37 18 38 14 20 22 17 31 36 10 22 7 23 20 21 18 10 17 31 27 27 28 29 12 36 46 14 24 11 34 35 14 6 31 38 20 17 21 31 23 34 17 24 17 27 30 30 29 35 24 20 24 27 35 27 26 24 10 10 21 19 13 10 26 21 21 29 24 12 20 10 30 16 27 20 25 31 15 3 10 16 13 20 7 13 19 17 20 33 20 21 10 14 23 20 28 14 29 20 27 14 13 20 20 28 19 28 19 17 21 26 17 22 20 10 31 19 13 21 23 30 24 16 16 17 27 24 17 35 10 14 24 31 7 23 30 14 26 17 20 3 17 10 10 12 45 40 23 31 17 30 26 17 30 19 31 27 29 27 17 23 12 17 29 21 20 24 45 20 10 9 31 13 20 17 31 27 27 20 17 16 8 10 17 13 7 15 14 24 24 21 24 28 21 14 20 25 6 14 24 21 27 22 10 41 31 14 27 23 32 11 23 13 13 29 22 14 20 13 26 17 27 31 14 31 31 23 44 10 17 17 15 16 24 16 22 17 10 14 10 13 28 27 21 13 14 29 24 41 21 16 7 12 24 20 18 10 16 24 20 31 38 28 23 17 23 16 26 31 27 35 24 17 12 15 16 23 16 24 13 22 13 21 24 20 6 31 24 26 9 13 20 19 24 37 24 34 20 20 21 27 34 21 14 34 12 20 28 20 40 16 12 28 33 14 23 24 17 27 20 23 37 13 20 17 26 10 7 16 31 25 13 21 29 17 10 27 18 34 30 18 28 30 14 16 27 34 14 12 28 15 48 26 23 10 23 17 38 23 0 19 20 14 17 27 17 17 24 16 43 21 23 16 34 24 13 10 3 17 13 24 27 28 23 21 10 17 25 10 26 28 27 30 17 48 38 21 13 30 31 13 24 21 34 30 17 19 17 12 21 28 34 24 28 18 21 28 20 20 19 27 21 17 36 13 21 18 23 20 19 19 10 20 6 9 10 23 3 16 13 16 21 16 24 19 31 9 48 24 24 15 19 33 12 7 24 16 15 24 35 22 37 24 17 28 27 17 27 23 14 16 23 24 24 20 18 7 21 26 13 15 10 31 21 30 19 13 17 14 31 20 20 27 23 23 17 17 21 24 15 24 24 35 21 20 18 24 14 14 17 26 21 16 28 51 20 23 22 17 16 20 13 21 30 16 34 10 21 20 17 21 21 27 13 23 27 24 24 9 14 10 21 18 37 13 30 9 10 22 30 20 21 13 24 17 10 24 13 31 12 17 23 28 10 28 23 41 21 30 24 33 34 12 20 17 27 20 20 27 30 18 27 16 34 19 22 14 30 24 20 40 24 20 14 27 23 13 27 14 13 34 24 35 7 33 16 10 37 10 13 17 20 28 38 30 16 20 7 21 29 21 30 17 20 23 22 24 28 20 17 23 24 17 12 20 10 31 24 9 21 35 35 20 13 24 20 24 24 26 21 27 23 23 20 21 34 18 17 27 20 13 27 25 23 30 28 23 30 21 28 16 14 24 17 14 21 3 24 24 20 27 20 20 13 21 31 10 23 19 24 17 17 20 22 37 10 22 26 31 16 24 17 14 17 20 17 7 13 19 21 15 20 10 27 31 29 28 17 21 24 14 20 19 9 20 24 20 31 18 10 35 20 15 27 17 21 21 27 17 21 14 21 29 13 20 16 41 23 23 36 22 28 30 14 10 13 20 17 14 22 21 22 31 10 20 21 31 16 15 31 28 13 35 30 21 24 23 24 24 17 30 10 16 27 26 13 28 19 24 26 23 37 40 17 21 9 20 16 30 19 7 31 20 21 20 9 28 24 21 35 23 27 21 28 31 15 37 33 20 17 13 16 16 14 34 17 26 28 35 28 11 21 26 30 13 30 44 17 14 21 27 27 24 26 6 23 34 35 21 28 20 10 10 24 30 20 26 31 21 17 20 9 17 23 24 20 23 17 18 29 42 23 30 20 23 31 30 20 17 13 16 26 26 13 10 33 30 34 38 0 24 7 37 14 23 36 17 6 23 13 10 13 19 13 10 46 21 24 20 11 14 10 25 23 24 13 23 13 14 21 31 30 27 16 30 23 20 20 27 17 34 16 24 24 20 24 20 23 24 27 16 27 10 17 37 17 29 13 23 21 11 27 27 27 6 26 18 27 21 27 29 19 17 20 19 17 14 19 13 10 10 7 10 25 19 34 31 34 27 7 16 14 14 38 26 19 23 28 17 30 30 20 40 24 27 30 17 17 31 6 10 23 20 31 21 17 16 14 19 3 28 13 30 17 31 6 13 31 14 20 19 11 30 23 28 13 14 23 29 21 31 20 30 27 20 26 38 26 10 38 12 19 31 31 3 33 23 23 45 7 16 29 23 21 35 30 23 28 13 16 23 17 24 23 39 35 31 20 34 10 30 22 28 21 27 10 25 10 28 31 17 20 24 27 20 27 24 18 27 21 8 19 30 13 10 30 20 21 10 20 17 17 20 21 35 21 41 31 46 23 20 27 34 19 17 26 6 24 23 24 24 10 38 6 14 10 17 38 24 30 34 24 34 49 24 24 10 27 35 23 25 26 10 26 17 17 18 37 14 13 23 6 19 28 30 21 31 9 19 33 17 34 24 20 24 28 17 18 31 13 37 38 26 31 21 14 14 23 15 23 10 14 14 24 7 16 14 24 31 35 16 3 26 27 31 13 27 9 28 17 24 35 34 20 35 31 27 21 17 17 37 19 17 22 14 14 7 20 28 14 17 17 5 19 14 20 41 31 6 24 23 10 17 17 24 27 27 34 19 27 14 17 30 41 23 17 31 0 14 13 38 30 12 15 27 6 13 20 40 34 31 27 14 23 18 20 17 26 13 21 14 23 12 38 19 21 24 31 24 14 27 16 23 28 21 27 27 17 14 30 10 28 17 31 31 27 7 38 21 24 52 28 14 38 17 14 19 17 13 24 21 23 16 20 20 24 9 25 13 34 28 21 24 11 17 20 27 35 42 20 10 3 14 13 26 7 23 21 17 14 21 32 17 20 20 16 20 0 20 14 30 20 29 17 13 7 14 34 24 17 21 23 17 30 20 10 10 12 34 14 30 19 20 24 24 38 13 13 24 20 24 24 14 12 16 21 14 24 13 21 34 31 16 21 24 24 28 7 34 27 23 21 24 10 20 24 21 21 24 41 23 29 27 33 13 10 17 23 21 21 18 10 20 24 27 13 35 31 24 23 14 7 6 31 34 34 25 29 19 13 19 23 23 13 20 19 20 16 30 35 14 13 17 27 31 27 24 20 13 30 9 16 17 25 23 24 20 17 27 24 21 21 13 37 27 31 13 24 13 23 9 7 16 18 24 13 3 12 30 13 12 17 23 24 12 19 19 24 27 24 27 17 10 20 15 31 27 20 12 27 19 23 9 26 21 15 28 27 17 14 27 23 23 20 23 27 34 28 26 19 31 13 10 27 17 17 31 27 34 13 23 24 23 24 7 28 6 27 24 17 30 22 30 12 21 42 13 16 0 34 23 20 13 24 21 20 7 24 33 24 10 31 26 43 34 17 16 24 7 21 20 15 31 30 30 31 17 26 22 7 17 27 42 14 6 13 13 20 41 14 17 23 23 13 19 26 28 25 24 10 33 33 38 24 12 23 31 20 12 28 38 16 9 10 31 15 28 10 25 37 17 27 13 17 10 13 14 27 22 27 27 17 17 14 31 6 27 22 28 13 23 20 21 34 19 15 20 28 17 24 24 20 24 13 14 13 26 24 16 14 20 24 27 31 22 14 24 38 13 27 21 38 28 28 10 26 20 34 24 23 41 17 38 38 10 24 27 28 28 20 20 23 34 9 20 10 13 19 23 23 19 27 27 17 13 17 17 24 12 16 18 3 6 17 20 23 23 17 16 21 28 18 27 20 6 24 25 21 28 31 24 21 24 14 28 34 24 9 37 41 28 28 28 31 17 16 13 20 17 50 16 37 17 13 14 17 15 20 10 28 21 20 17 24 28 20 7 6 6 23 10 24 21 16 19 35 23 14 19 16 17 20 17 38 20 22 29 16 21 27 10 31 35 24 20 23 13 6 31 23</t>
-  </si>
-  <si>
-    <t>EXN(0.41068498080153487, 19.814255668602357, 3.8666015754837817)</t>
-  </si>
-  <si>
-    <t>22 28 25 21 22 25 17 28 29 20 18 27 16 23 17 22 16 20 20 18 27 24 16 20 19 23 16 11 22 17 24 27 26 23 20 19 20 22 15 17 22 23 21 21 15 21 20 19 24 21 20 20 13 18 19 23 18 20 22 25 24 21 23 19 28 26 19 20 16 19 28 22 20 16 16 24 22 20 15 24 24 15 28 26 20 22 24 24 28 23 27 24 25 21 24 23 27 15 20 24 20 23 19 20 22 23 19 22 19 22 26 20 23 17 25 21 24 23 20 22 22 25 24 32 17 20 24 15 26 19 20 23 23 15 35 23 21 19 22 21 21 16 22 21 19 16 29 22 26 26 17 21 23 22 15 24 26 22 22 27 26 27 22 20 28 23 19 29 16 19 24 24 16 26 17 30 22 23 21 20 23 23 17 15 21 23 19 21 24 16 17 16 18 28 21 26 27 26 19 23 22 25 21 12 27 20 26 23 20 26 24 20 26 24 25 23 13 15 22 22 21 23 22 19 20 19 18 27 24 18 19 23 15 17 24 23 31 28 30 17 19 20 25 28 24 20 10 21 22 23 20 27 21 25 23 19 18 26 19 25 17 18 17 18 23 20 18 19 27 32 24 20 25 25 23 20 10 23 20 17 17 21 20 18 23 19 23 22 25 20 25 11 18 18 19 21 24 26 25 12 24 23 19 22 27 23 19 25 24 18 27 12 23 24 25 24 28 29 19 23 21 17 24 22 14 16 26 23 19 24 19 28 21 16 26 17 20 24 16 23 13 15 20 14 21 24 21 25 23 26 19 21 21 23 29 23 17 16 27 17 19 29 16 23 29 18 21 20 21 20 29 20 19 22 25 18 21 18 19 24 20 17 17 28 28 18 28 17 21 19 28 27 19 20 21 25 27 12 14 21 26 19 19 19 18 17 18 25 19 21 27 14 25 21 24 19 22 19 27 25 21 20 25 24 22 20 26 24 29 22 26 22 26 21 24 20 21 16 19 29 22 24 20 24 22 19 19 24 32 17 11 23 23 29 21 30 27 23 25 16 24 17 22 24 25 21 16 27 17 18 17 17 27 21 26 17 20 22 27 20 21 25 21 21 23 23 16 28 22 22 25 20 21 25 15 24 29 26 30 19 10 18 27 22 22 23 24 19 20 25 25 24 24 26 15 27 18 22 13 21 22 23 18 22 22 18 25 26 18 22 24 20 25 27 22 24 22 21 24 17 24 21 21 22 25 28 20 19 17 28 21 17 20 21 23 27 19 19 26 20 20 21 11 23 22 29 24 29 23 25 26 20 19 20 17 15 21 22 25 20 22 16 23 28 26 17 29 14 21 19 27 18 17 14 24 15 22 14 22 33 19 21 17 29 23 23 20 26 27 19 17 31 18 15 19 19 20 21 21 15 21 19 24 18 19 21 29 21 26 14 17 24 21 20 18 25 21 22 24 15 15 27 15 21 31 25 18 24 27 22 25 24 20 22 21 26 18 21 19 22 21 24 23 16 18 19 21 23 16 17 16 24 19 16 21 27 25 19 30 20 29 23 17 13 13 22 21 14 18 19 25 22 17 33 15 19 25 20 23 22 19 11 23 18 19 20 25 24 22 22 22 20 30 16 24 21 23 17 24 25 21 24 19 18 11 16 24 20 14 20 16 27 23 22 20 29 16 17 18 21 27 21 20 17 25 18 22 20 19 24 16 20 22 26 18 15 20 19 26 22 19 23 16 26 21 17 16 22 16 20 18 28 23 17 15 23 27 23 20 19 20 26 22 29 25 20 20 18 19 13 19 25 19 18 17 20 25 22 13 23 20 23 19 16 19 15 19 18 24 15 19 15 23 22 22 20 28 22 20 22 19 19 16 21 19 26 22 22 23 18 18 18 14 24 22 14 16 26 18 19 14 27 14 23 25 24 22 23 21 24 22 24 22 13 26 19 23 21 21 22 21 16 20 22 24 20 17 17 22 27 25 22 18 24 26 20 18 28 19 19 23 18 25 24 15 22 17 25 23 27 24 25 20 22 24 18 25 15 20 26 28 22 26 22 16 23 21 32 22 25 24 16 30 24 16 27 22 24 14 21 14 22 22 22 17 19 17 25 20 20 27 12 19 23 21 22 21 22 18 25 27 24 16 22 22 25 24 22 26 17 28 9 19 23 29 25 12 14 19 21 21 14 17 21 30 23 22 21 14 24 22 26 20 16 18 22 21 20 22 23 28 12 21 17 17 18 21 24 25 20 17 28 20 17 21 21 16 13 22 25 22 22 30 25 12 22 28 24 18 18 26 17 23 21 23 17 24 24 24 20 20 20 21 24 18 14 26 22 22 24 27 16 15 11 15 18 24 13 14 24 22 19 15 25 17 22 18 23 19 19 12 19 14 22 26 25 19 16 18 17 21 24 12 22 24 26 21 21 27 15 26 12 18 21 16 20 23 19 18 26 16 24 29 24 22 24 20 19 28 28 18 22 17 21 32 16 24 15 17 31 26 27 21 28 23 21 28 19 20 17 15 28 22 22 28 21 18 23 22 21 19 23 19 20 21 22 26 20 31 17 12 24 20 29 27 24 23 25 19 28 18 21 25 22 21 26 22 11 17 30 22 25 21 20 18 19 25 14 15 15 16 25 19 20 27 19 22 16 22 15 21 24 24 18 31 21 22 19 19 16 28 21 18 22 35 26 27 20 15 22 27 24 24 27 23 24 21 27 22 12 23 21 17 27 19 24 22 21 15 14 25 19 21 20 17 21 18 18 25 24 22 20 25 26 24 19 16 22 15 22 22 26 25 17 16 24 18 23 15 17 18 26 19 24 27 25 24 25 21 24 28 18 22 24 17 25 20 19 18 22 17 12 24 22 19 24 27 11 22 15 25 22 24 21 13 22 26 12 15 22 19 25 21 29 22 23 22 25 22 24 18 21 19 28 21 27 17 22 20 19 22 22 20 19 21 13 27 24 21 18 24 17 15 19 22 16 27 21 24 21 26 9 22 17 15 24 22 28 22 22 12 17 16 30 17 30 16 19 17 18 22 20 16 29 23 16 18 25 19 24 15 27 22 24 25 21 27 22 24 20 19 21 27 20 24 19 30 19 23 25 16 21 25 20 20 21 19 22 27 18 26 22 29 21 24 19 21 13 26 20 20 21 33 20 14 17 20 17 23 18 21 30 22 19 19 18 21 16 20 23 12 19 14 15 17 22 27 22 24 25 20 25 20 27 16 22 18 25 20 17 16 21 21 21 17 17 21 19 21 19 24 31 23 20 22 25 24 26 14 22 18 21 25 25 22 26 25 20 19 23 18 26 24 22 16 20 23 16 27 22 25 24 22 23 19 24 22 32 20 18 24 13 17 21 21 13 15 16 18 21 19 23 20 23 26 20 19 27 22 24 19 21 22 26 19 29 26 19 18 21 29 21 25 18 21 19 25 25 26 24 20 16 16 17 20 16 30 16 23 25 28 20 18 25 20 24 20 20 20 19 22 24 25 20 16 20 17 25 20 16 26 18 19 15 19 23 31 18 26 21 14 17 19 16 20 15 21 14 24 22 15 17 22 19 20 21 21 17 16 24 20 18 17 18 21 16 23 18 18 19 16 19 28 17 23 23 23 20 15 15 24 25 18 22 16 24 21 18 17 29 26 22 24 14 30 16 23 29 24 19 14 20 15 24 29 21 22 20 19 17 21 23 26 16 14 25 16 19 19 25 13 28 25 27 26 19 25 21 16 27 19 20 24 33 21 21 22 28 15 25 23 20 22 15 23 19 12 26 19 22 17 15 14 21 20 22 24 25 19 22 25 13 22 21 20 25 21 18 26 10 23 27 21 22 21 16 21 24 20 21 28 18 22 25 15 21 15 20 23 18 23 23 19 25 26 25 23 27 24 18 15 18 19 18 18 24 17 19 18 19 21 21 23 23 19 24 24 18 22 18 21 27 26 17 21 24 24 17 24 21 22 22 25 20 25 16 25 22 23 26 22 14 21 19 11 23 18 29 22 28 22 24 20 17 28 24 27 20 17 22 20 23 17 19 18 24 25 18 19 24 19 33 18 27 28 21 20 19 20 24 21 22 19 24 24 25 21 20 17 27 26 19 19 21 19 12 14 13 14 31 20 20 22 24 22 10 19 24 25 12 17 21 21 21 20 19 23 23 21 15 20 27 22 20 30 23 24 31 18 22 26 23 19 17 22 28 22 24 19 22 28 19 19 18 28 20 17 23 19 27 28 25 20 21 21 24 25 20 23 26 20 20 24 27 16 19 23 20 20 27 19 25 25 18 26 15 20 19 31 24 19 18 18 22 17 21 23 19 24 21 18 20 28 12 22 18 18 29 22 23 22 24 22 16 18 23 19 21 22 22 26 24 26 19 21 21 23 14 26 25 19 25 28 15 23 20 26 26 19 22 28 20 24 21 22 16 21 27 20 28 23 19 17 23 15 21 27 18 19 25 24 20 24 18 20 18 22 16 23 18 17 22 22 23 28 18 20 23 20 24 20 25 19 21 17 22 13 11 22 20 27 16 16 18 24 22 25 23 29 23 19 23 25 23 20 20 18 18 15 20 23 29 30 20 16 29 30 21 18 19 23 26 23 20 21 22 20 22 24 16 26 24 18 27 21 26 23 16 23 21 19 20 20 16 20 22 28 22 23 22 24 21 19 22 21 29 18 18 20 19 13 22 24 29 23 21 19 19 22 20 26 15 24 19 26 26 12 20 27 17 16 24 22 19 27 18 18 14 20 27 21 17 23 16 17 21 27 24 18 26 24 22 14 17 28 21 20 23 17 24 20 23 17 25 26 22 27 17 18 18 16 18 23 15 23 19 21 22 18 22 13 21 22 33 15 26 21 21 20 16 18 28 22 27 19 18 9 23 26 21 24 23 28 27 22 23 24 22 16 32 22 26 26 27 21 30 14 26 19 19 21 17 19 24 20 24 18 25 21 19 25 22 19 12 21 21 22 18 23 16 20 21 24 25 15 20 18 16 17 20 22 25 18 14 12 24 25 24 25 17 25 24 18 21 23 18 29 20 23 23 20 30 19 23 18 25 23 27 23 26 23 23 21 28 18 20 19 28 20 23 24 23 13 21 19 21 18 29 19 23 17 16 24 20 23 22 21 19 20 23 19 25 20 25 25 19 15 20 22 25 20 28 21 23 26 19 16 11 23 11 21 26 19 16 27 20 30 20 27 16 24 18 18 17 18 22 22 22 19 17 18 23 23 17 17 21 23 23 20 17 26 18 21 28 18 22 17 20 21 23 24 26 10 25 24 15 33 33 19 18 20 23 24 23 24 18 17 20 22 32 19 23 28 25 34 17 22 22 19 35 20 24 23 26 21 24 22 26 27 18 21 23 27 23 18 19 28 18 21 18 23 21 25 26 22 32 15 21 20 18 25 23 15 19 27 25 22 19 18 29 15 21 23 21 21 26 23 21 20 30 20 21 13 21 24 23 17 26 19 20 21 24 14 21 16 21 23 24 23 24 14 18 25 27 17 18 24 26 30 21 27 25 26 18 21 21 24 17 18 19 21 22 14 16 29 18 16 24 19 24 23 20 21 27 25 19 18 25 24 23 27 18 19 24 18 19 17 20 26 32 31 19 20 22 14 17 22 20 17 16 26 32 24 16 20 17 20 26 24 17 14 25 30 17 20 27 19 27 17 19 23 19 23 27 22 29 21 24 19 24 21 14 19 20 30 21 18 21 25 21 27 28 26 24 25 21 19 23 23 18 24 26 19 20 19 37 15 25 24 19 18 23 29 21 20 25 22 19 26 21 17 20 29 29 24 28 16 22 19 27 12 21 24 14 25 26 21 15 22 15 13 20 23 23 32 22 17 20 17 21 24 21 24 21 23 24 18 21 22 25 24 21 24 19 29 20 29 19 19 25 21 26 21 24 19 21 20 21 18 23 19 30 21 24 16 21 24 20 24 24 28 21 16 25 16 16 23 20 15 21 19 23 17 28 23 27 25 14 25 14 24 18 16 26 29 13 22 22 18 23 23 26 15 27 22 20 24 18 22 21 20 21 26 21 30 23 17 25 16 15 27 25 23 24 27 25 22 20 19 14 9 21 20 22 26 16 20 20 21 30 19 25 22 23 29 22 27 24 28 17 25 24 25 17 17 26 24 19 18 23 19 22 16 17 27 21 30 29 20 22 24 24 26 21 13 19 18 23 19 19 24 23 23 18 19 23 23 25 22 22 21 17 19 25 15 27 21 17 27 19 23 23 26 18 29 23 27 25 18 17 23 14 22 19 37 23 25 22 27 23 12 12 22 20 20 20 22 18 29 28 12 19 21 26 19 27 24 18 21 16 19 18 21 19 28 14 22 19 24 24 24 24 25 20 19 24 23 26 21 20 18 21 21 19 22 25 18 23 22 22 19 15 21 20 20 22 25 22 24 25 26 19 25 20 19 30 18 17 18 29 31 21 21 17 19 17 24 20 21 20 12 19 23 20 24 23 22 13 14 18 22 24 24 22 21 15 21 24 18 21 23 21 15 22 23 17 18 26 15 19 21 16 15 18 25 19 16 18 19 24 25 23 30 18 16 19 28 23 22 17 24 21 21 20 19 18 19 22 26 21 16 27 14 24 22 19 19 22 23 20 21 15 18 15 18 17 25 17 25 25 19 18 15 19 22 17 23 24 17 23 20 17 24 17 25 22 20 27 11 19 24 28 23 22 24 19 20 22 22 28 27 21 21 24 20 18 18 26 17 20 19 19 21 22 22 23 28 20 22 21 23 10 18 17 21 18 24 22 21 17 26 17 18 26 20 26 17 13 19 16 21 24 21 19 21 15 21 17 17 28 26 18 11 17 18 25 19 20 23 22 16 25 11 26 29 17 16 26 17 22 25 26 21 21 27 22 22 21 27 25 22 13 23 25 22 19 16 23 23 22 21 26 21 27 22 19 21 27 23 20 16 22 20 18 19 18 17 25 22 25 23 22 21 23 21 24 12 16 19 24 16 22 24 14 19 17 16 23 21 21 28 10 19 19 17 19 24 22 26 16 15 22 16 26 21 23 26 25 24 18 20 21 22 17 14 16 20 20 22 15 29 25 23 26 13 18 21 27 27 17 25 12 21 19 21 22 25 19 26 19 19 29 27 20 23 19 22 23 22 20 24 22 18 17 16 20 19 16 20 19 24 20 20 19 22 20 27 14 21 15 27 13 20 20 21 20 21 26 18 28 22 23 13 24 26 16 15 17 27 15 16 23 22 20 20 20 19 21 26 16 25 16 32 19 27 17 22 21 23 20 22 17 23 21 16 21 16 24 23 20 28 16 17 22 19 29 29 28 24 18 18 25 14 20 21 21 29 15 16 23 21 20 16 18 14 22 22 19 32 21 16 23 20 16 20 15 24 27 24 17 19 17 14 16 21 18 24 20 23 16 20 27 24 23 23 23 25 24 28 23 16 24 25 22 28 26 20 20 25 30 25 23 22 20 11 25 23 24 17 22 31 28 23 22 23 17 16 19 21 25 19 18 26 28 17 31 25 23 19 21 27 24 19 22 24 26 15 19 21 26 25 24 27 24 17 21 22 26 22 13 14 14 21 21 17 21 13 19 21 15 22 23 25 15 17 21 26 17 18 26 21 17 22 21 23 26 17 20 18 18 24 16 28 24 20 20 25 19 17 22 25 25 28 21 22 20 36 18 20 21 20 23 17 18 24 22 10 15 26 19 21 13 25 22 28 18 25 24 17 18 20 25 16 22 21 15 16 15 21 27 28 17 24 22 18 15 19 21 30 21 28 15 26 16 19 18 26 24 21 18 17 21 16 20 20 15 17 18 16 17 21 24 17 21 23 27 24 20 26 17 22 26 18 30 19 26 18 25 21 18 30 15 24 22 25 25 21 30 19 20 25 19 18 20 19 20 28 19 14 30 16 21 18 23 17 14 25 19 11 25 25 23 14 23 21 20 20 23 21 23 17 29 21 16 23 25 18 15 17 23 20 15 20 20 25 17 15 20 17 17 17 31 22 14 23 15 20 16 23 23 21 16 14 27 29 19 30 17 35 26 26 22 25 21 23 29 16 27 22 27 25 24 21 18 20 21 23 18 12 18 19 21 22 21 22 20 24 34 18 22 24 28 25 23 21 20 23 18 23 21 28 22 24 21 23 19 17 19 21 24 23 16 22 25 13 18 24 27 24 18 17 26 23 26 17 23 24 16 25 21 23 20 20 19 29 17 20 26 17 21 24 17 20 19 19 24 18 33 17 16 20 25 13 24 27 21 20 22 26 24 20 22 28 20 15 24 20 16 24 40 18 21 24 27 19 27 21 24 21 19 17 20 26 23 25 23 15 22 20 22 20 19 24 17 21 17 16 24 20 21 23 26 21 24 18 16 25 13 23 20 20 29 22 28 20 19 17 17 18 27 25 12 17 23 14 23 20 23 18 27 20 16 24 26 23 26 22 23 18 25 19 22 25 19 17 22 24 20 21 15 17 20 23 20 22 23 18 15 22 25 19 18 17 28 27 26 28 29 19 19 20 19 19 21 10 19 22 22 20 24 21 23 19 23 29 22 21 24 18 26 16 23 19 21 28 24 16 22 22 20 18 18 16 25 22 21 21 22 15 25 21 25 23 22 26 21 17 22 22 22 21 16 22 14 19 18 24 28 22 18 24 20 16 14 26 15 25 23 15 20 11 25 17 21 29 22 18 16 25 22 21 22 25 24 24 17 20 22 16 30 22 22 21 28 18 26 22 15 21 22 23 23 30 19 16 21 25 24 22 20 19 21 25 17 19 16 22 20 18 18 20 18 25 23 25 24 19 18 23 27 24 21 30 19 25 28 22 18 22 30 18 15 26 16 20 21 24 18 24 24 17 24 25 18 32 23 27 24 27 18 23 20 17 24 22 23 13 17 24 17 13 16 23 18 23 20 23 23 20 21 19 22 26 23 21 24 19 28 22 22 22 24 28 16 17 21 20 20 20 16 23 19 26 26 20 32 12 20 14 19 17 16 27 19 23 13 9 22 30 18 21 23 23 21 21 26 18 20 23 14 26 24 25 23 22 22 15 19 21 14 25 16 20 24 23 12 22 21 23 20 23 13 18 20 23 22 17 25 22 29 23 20 13 19 25 24 17 26 25 19 18 19 23 24 23 25 20 33 21 35 23 31 28 16 25 21 16 21 21 33 16 24 16 16 13 26 21 23 13 20 20 17 24 16 27 17 23 18 25 25 28 20 24 26 23 23 23 25 23 20 17 28 16 19 25 24 21 18 14 20 22 26 25 31 18 22 20 10 22 23 26 24 29 21 22 24 21 28 15 17 19 26 19 26 22 22 25 27 23 18 22 31 21 26 22 22 24 24 22 23 26 29 20 18 15 23 27 22 28 20 32 23 24 16 20 24 29 28 21 26 21 23 16 21 12 20 23 17 18 27 22 21 17 24 22 23 24 25 19 22 21 23 22 22 18 16 15 29 18 22 23 20 23 19 20 24 21 18 16 26 15 16 26 21 23 21 22 27 23 25 24 12 27 26 18 16 20 29 27 20 19 19 22 22 24 19 20 26 25 22 18 22 24 15 20 18 20 15 20 21 18 16 28 18 27 17 27 26 28 27 20 23 29 16 17 21 24 22 16 21 23 21 21 18 23 23 17 21 18 23 24 24 20 26 18 21 23 20 17 28 22 19 24 22 21 19 23 17 20 22 24 21 16 20 21 32 25 28 19 25 17 18 18 20 18 20 25 21 16 21 23 25 19 22 18 20 21 17 21 24 28 20 24 22 26 19 30 21 27 16 22 12 17 22 18 14 18 19 14 20 20 18 23 21 21 21 19 17 28 19 31 13 20 29 25 26 19 15 20 23 20 28 24 17 17 24 24 28 19 20 19 27 22 17 19 23 18 20 18 26 22 22 25 19 17 24 25 17 23 22 20 26 24 18 25 24 24 20 26 24 22 23 25 24 16 22 25 29 16 17 15 20 20 24 22 20 23 29 13 19 26 21 19 24 22 27 27 19 26 20 17 15 28 21 23 14 18 20 29 21 22 13 27 23 14 30 22 28 24 23 19 23 25 17 18 23 25 25 29 24 10 19 23 24 21 28 14 23 24 24 25 25 24 25 24 19 18 25 25 11 22 22 23 20 21 24 22 19 20 25 22 16 22 18 32 21 21 23 21 26 21 23 24 20 29 18 17 21 26 20 21 13 20 21 28 17 21 28 22 20 23 18 22 24 22 25 21 21 18 25 28 23 27 21 16 24 26 26 32 18 19 20 19 19 23 30 22 26 29 19 23 18 28 25 13 23 27 20 23 22 20 21 19 17 22 18 23 19 26 23 20 24 19 20 24 23 21 25 30 25 35 36 22 22 24 24 22 22 25 21 21 13 25 24 21 20 22 16 21 23 16 24 16 24 16 18 20 22 23 15 16 13 20 30 18 18 21 21 15 20 20 23 15 22 19 14 25 15 25 18 23 26 28 27 26 15 27 18 21 20 15 14 19 19 21 25 20 18 22 26 18 33 18 14 17 28 20 20 20 19 26 13 27 20 24 17 26 30 27 26 27 29 21 25 20 24 29 18 22 14 30 18 26 19 22 22 22 25 23 19 34 21 20 32 16 24 18 33 18 22 24 25 19 23 22 22 16 21 18 23 18 29 22 28 23 16 23 25 21 25 20 21 23 19 25 14 19 17 23 15 19 25 19 23 23 17 21 14 22 18 23 19 21 26 15 20 19 24 29 29 24 22 22 13 32 19 20 16 20 20 17 24 26 30 27 16 14 26 20 28 24 27 14 19 23 23 17 22 22 27 26 19 23 18 25 21 21 32 17 12 21 15 19 21 21 17 21 24 22 19 14 15 25 27 18 20 19 16 25 21 27 27 23 18 20 21 24 21 27 23 23 21 21 16 18 17 24 16 23 23 27 18 22 20 23 21 19 21 22 15 19 31 25 17 15 13 14 23 15 17 19 19 19 21 17 23 17 24 24 21 38 20 31 24 28 20 26 22 25 23 25 22 22 16 14 10 21 18 16 23 22 15 24 21 37 19 21 21 17 18 17 22 18 22 25 21 15 24 27 20 29 19 23 21 23 16 22 30 24 17 26 19 15 20 20 26 26 18 25 17 19 24 19 20 12 20 24 29 24 19 23 17 30 28 29 25 11 18 24 18 22 14 23 24 20 18 21 21 24 14 25 17 16 16 27 21 18 13 23 27 24 21 25 25 25 14 21 12 25 15 25 24 22 20 20 28 25 21 26 16 22 24 25 23 22 25 25 18 21 30 27 24 29 20 18 17 25 30 23 27 17 26 23 17 21 21 15 18 20 24 17 20 25 16 20 26 18 24 21 22 24 18 19 21 20 18 20 21 23 25 13 17 19 18 25 25 17 16 25 21 19 29 24 26 25 26 21 23 17 9 23 20 23 20 20 15 14 22 19 24 28 18 24 19 26 24 26 24 22 22 26 15 19 21 20 21 19 23 20 18 19 17 15 22 21 24 25 21 19 23 19 15 19 22 26 21 15 20 21 18 24 20 25 20 20 22 21 17 23 25 20 19 12 22 20 20 24 14 24 21 22 29 27 24 30 24 27 20 21 30 22 13 23 22 24 21 19 21 23 20 27 11 20 24 22 11 23 20 15 21 18 20 20 21 18 16 17 24 18 25 24 19 12 24 24 23 24 22 17 25 19 20 26 24 26 22 20 25 25 16 21 29 20 26 15 15 22 18 26 13 20 14 30 30 20 23 20 17 22 22 19 11 26 22 28 24 27 24 21 21 23 19 26 25 26 21 14 24 18 29 30 22 24 17 24 19 22 20 23 19 17 24 27 23 18 15 22 18 17 18 25 19 26 12 21 17 17 26 23 18 19 25 29 16 17 22 20 16 22 19 20 22 19 21 24 13 16 16 17 26 14 16 25 20 28 15 24 15 21 23 25 15 17 22 23 20 31 21 25 28 16 14 23 19 14 18 23 20 25 15 18 25 24 21 22 25 16 19 27 16 15 22 21 18 20 23 26 17 25 14 21 26 21 25 23 15 26 21 22 19 18 13 19 23 20 19 31 23 19 23 18 25 30 19 26 26 18 26 20 30 22 16 19 18 23 23 17 24 20 21 20 13 19 18 18 23 22 32 18 24 25 16 23 20 14 20 24 27 24 22 15 22 22 19 21 20 16 19 18 17 26 21 20 24 20 17 22 25 26 18 17 25 19 16 17 12 28 29 29 22 27 20 26 18 21 16 19 20 21 19 23 22 27 29 20 8 17 19 24 23 20 19 23 18 16 24 16 22 17 25 22 21 19 20 21 18 21 27 23 14 27 14 19 21 20 18 26 17 28 16 21 24 17 17 14 27 26 22 19 26 20 23 20 19 27 19 25 19 26 26 24 22 15 25 16 25 18 18 17 20 20 21 18 21 26 20 31 28 16 17 18 28 18 16 23 18 18 26 19 23 25 22 16 20 21 32 21 24 24 16 22 25 25 23 18 26 24 21 29 21 24 27 23 20 22 20 20 24 22 18 23 30 18 14 21 24 17 22 22 23 20 20 13 19 21 18 18 17 20 23 26 25 24 18 21 24 25 21 23 24 23 27 20 20 17 25 23 16 17 25 19 20 24 31 18 16 22 29 13 19 16 21 25 16 20 26 20 22 25 21 15 22 31 18 27 16 22 26 17 14 21 21 22 24 21 20 21 30 18 21 18 17 23 24 19 20 26 27 22 25 23 26 12 18 13 17 17 21 24 19 21 22 28 16 26 25 22 18 23 17 23 12 19 26 21 21 19 24 14 17 20 19 19 26 24 19 15 27 15 21 26 25 22 24 19 21 12 28 13 23 23 26 29 27 18 22 18 21 20 31 24 21 22 22 20 22 25 23 15 18 22 20 22 26 29 21 22 21 20 25 22 14 21 26 29 21 22 15 22 22 24 24 25 20 19 16 18 24 21 23 28 23 19 17 23 19 23 23 18 17 27 13 28 14 29 13 21 22 23 23 28 23 23 23 22 23 24 30 18 20 21 26 24 24 15 23 16 22 29 22 20 27 27 13 13 22 16 26 19 20 20 27 18 30 22 16 26 22 23 35 20 25 17 21 13 27 20 21 21 22 16 20 19 15 23 17 19 20 30 19 19 21 29 21 24 16 28 19 22 25 18 32 30 22 18 28 22 24 18 20 19 23 25 22 22 17 9 26 20 19 23 21 18 27 24 24 21 24 27 24 16 20 20 24 22 18 28 24 16 16 20 21 22 17 20 26 15 12 14 26 21 19 27 17 23 23 20 19 22 26 18 29 18 28 23 24 21 24 19 19 27 26 24 19 19 18 26 21 24 18 15 21 13 24 25 24 27 23 27 18 28 15 19 28 17 14 26 32 30 17 18 24 22 33 19 25 29 16 23 28 18 22 23 19 22 24 23 20 30 27 21 18 19 21 21 20 25 24 24 19 21 22 20 25 14 21 14 24 25 20 15 19 25 33 26 18 19 28 21 21 20 25 18 22 30 20 22 21 23 23 25 26 23 33 22 19 22 18 20 27 26 19 22 20 25 21 25 24 23 14 18 25 27 20 29 20 17 22 19 16 24 22 22 18 24 24 25 16 24 25 14 21 24 32 25 24 23 17 26 15 19 23 28 19 28 22 24 28 20 20 19 18 18 20 19 17 19 23 20 20 22 23 25 20 21 23 27 20 22 20 20 14 19 23 22 22 20 25 19 16 25 32 23 18 16 22 25 27 22 22 18 17 24 23 22 18 18 24 33 17 25 17 19 22 27 20 20 25 16 11 21 27 27 22 22 15 21 22 22 26 27 28 17 26 22 29 21 20 30 25 18 23 26 17 28 21 19 23 23 17 28 21 20 19 23 17 17 19 31 20 21 17 23 22 32 19 19 24 13 12 22 23 22 22 21 22 17 23 26 13 21 16 20 29 19 14 22 19 20 22 24 14 21 27 21 30 23 20 23 19 24 22 21 15 21 21 22 25 21 25 25 25 15 25 29 22 22 22 20 23 28 22 16 17 21 21 24 21 19 22 19 20 12 16 17 13 24 18 19 21 19 21 22 25 25 22 18 24 24 24 26 23 20 26 21 18 18 24 28 20 24 23 29 25 18 21 30 28 19 18 27 22 28 21 24 18 18 20 26 22 24 32 19 24 18 30 14 24 26 17 21 14 18 18 21 19 26 32 27 15 21 17 14 27 21 22 15 15 16 18 20 17 21 23 30 21 24 22 24 29 20 22 22 17 19 16 11 26 22 20 17 16 15 18 21 22 29 19 27 25 16 23 18 20 16 21 24 21 18 28 21 19 16 24 22 20 18 19 23 24 27 19 26 14 21 18 23 22 21 17 20 25 17 27 22 16 21 21 18 23 24 18 13 16 18 16 29 25 19 23 18 16 19 25 18 20 25 19 21 25 31 21 19 24 19 21 20 16 20 20 21 29 27 22 15 26 16 12 19 21 27 29 22 20 19 17 18 23 19 20 21 20 20 20 28 20 31 25 21 23 23 24 20 29 20 19 21 26 24 30 21 13 14 14 16 22 21 19 21 22 22 26 21 22 23 20 22 22 16 21 19 16 26 18 21 16 21 17 26 17 25 16 27 20 21 28 19 24 27 23 18 18 19 17 26 18 23 19 26 25 22 21 10 19 18 18 15 16 22 27 19 27 24 22 22 21 33 19 20 20 18 21 22 23 16 17 14 21 22 22 25 25 23 29 18 15 20 16 21 24 19 26 30 19 20 20 22 29 23 17 22 13 16 19 26 31 20 25 27 26 22 25 25 20 29 21 21 16 21 18 12 19 16 19 22 24 25 24 21 22 24 19 20 26 23 27 27 19 15 16 27 22 18 22 23 28 25 21 16 20 26 25 23 28 25 19 24 15 15 28 23 26 20 20 17 27 22 16 14 16 19 22 26 27 26 17 21 20 18 28 27 23 25 20 24 24 21 17 23 21 21 21 18 23 22 16 22 18 21 21 27 24 20 25 21 30 27 24 18 19 21 21 16 22 23 23 19 26 20 15 21 17 26 22 20 20 22 16 25 24 18 19 17 19 20 25 19 18 20 16 23 24 24 21 25 20 24 23 25 19 18 20 16 18 23 21 17 21 27 23 19 19 18 18 17 19 12 15 17 19 16 28 19 25 26 18 30 16 17 20 28 14 21 22 16 25 22 15 16 25 14 22 24 19 24 18 22 23 20 29 20 20 20 22 23 22 21 26 19 17 21 26 19 15 16 18 22 20 21 14 20 27 18 27 24 36 25 15 24 20 16 27 16 29 20 15 19 19 18 25 22 17 20 17 21 20 19 16 27 17 23 22 20 28 22 22 20 24 27 14 26 22 21 23 31 23 29 23 20 15 23 14 19 18 31 20 26 16 25 25 20 26 15 19 21 26 18 21 26 19 25 22 21 18 28 22 23 25 20 24 15 25 19 23 34 13 22 17 23 22 20 25 23 22 22 26 12 34 13 15 17 27 22 19 26 21 25 15 24 20 18 24 23 22 15 22 26 25 15 26 21 24 17 24 23 17 21 19 17 21 16 16 23 23 17 24 19 22 24 20 25 22 21 26 19 10 15 22 15 24 23 13 30 20 24 13 26 25 16 23 19 16 16 17 22 27 14 16 26 15 24 16 24 32 16 15 28 24 25 26 19 24 16 17 19 26 25 25 22 20 21 22 24 24 27 23 22 19 17 28 27 22 24 23 21 26 20 18 21 25 17 15 18 20 25 25 22 16 24 20 23 23 17 21 22 24 22 19 24 25 27 28 20 22 13 22 21 18 19 14 26 28 17 27 20 24 16 26 25 22 17 22 17 34 22 14 23 22 20 24 23 27 21 18 23 17 18 20 26 22 18 19 22 22 24 18 23 23 25 27 17 19 22 16 23 25 30 33 22 24 16 20 25 20 28 22 14 32 21 25 15 22 19 18 21 22 23 23 27 27 15 17 22 25 15 22 21 12 19 21 24 20 22 27 19 24 31 24 17 19 28 18 30 17 17 29 21 23 11 27 27 21 25 24 17 14 26 29 24 26 24 27 19 15 12 18 25 20 23 18 17 20 22 29 20 26 18 21 22 29 22 24 21 12 18 20 22 15 20 20 22 22 27 29 17 20 17 21 26 21 20 19 25 24 31 22 12 25 20 18 21 32 23 19 21 19 21 27 20 25 18 18 25 15 26 21 15 24 23 16 17 20 19 22 16 18 24 21 20 16 19 32 17 21 19 21 19 21 24 17 21 18 23 19 14 21 20 22 20 17 24 20 19 27 25 16 23 25 22 18 25 21 19 25 23 18 24 19 22 18 16 25 25 27 23 26 22 24 16 21 24 23 21 16 17 22 27 26 23 23 26 20 30 25 22 21 21 21 27 24 19 19 21 28 14 17 34 24 21 28 16 14 21 15 23 26 22 21 16 24 14 24 14 17 26 20 21 21 19 22 21 23 21 20 21 20 15 22 21 24 26 20 18 29 22 25 14 17 23 17 19 22 29 22 21 29 14 16 16 22 17 20 11 28 22 28 24 20 20 18 17 19 14 14 21 23 23 22 22 28 19 22 21 25 22 23 17 22 14 25 26 18 18 24 27 20 29 18 15 18 21 19 24 22 24 31 26 25 15 24 25 21 23 23 29 16 18 22 23 21 18 24 22 16 16 27 33 26 24 28 22 18 22 20 26 26 26 29 19 22 26 23 24 12 16 18 25 22 21 28 25 17 24 17 22 12 26 31 19 25 23 26 23 26 17 20 16 20 22 16 23 27 25 12 23 22 15 24 17 31 27 19 25 15 21 18 20 19 22 15 22 18 22 26 21 17 21 24 15 17 24 27 23 19 17 16 20 19 16 25 29 23 20 24 25 27 23 24 27 24 14 20 26 15 28 15 27 19 18 26 25 30 21 18 19 20 19 24 20 20 17 15 18 21 27 17 22 23 20 16 26 27 20 25 22 19 16 16 18 25 20 24 18 25 21 22 21 17 26 20 19 13 20 16 18 24 23 20 23 22 21 20 19 19 22 21 26 23 26 19 19 21 24 23 22 17 29 13 19 22 19 27 27 18 15 21 19 26 22 26 19 17 22 25 26 15 25 20 19 14 21 20 22 17 20 26 22 18 25 26 21 32 25 18 19 12 17 20 22 20 23 25 18 23 23 18 25 25 26 16 20 14 27 19 24 20 23 22 20 23 11 26 23 22 17 19 13 24 21 17 19 19 18 16 21 16 17 17 26 23 18 30 20 28 20 21 21 28 20 16 25 20 29 22 22 27 21 22 16 26 23 23 19 18 19 22 18 26 21 22 21 21 19 19 22 16 16 26 22 28 23 26 15 19 19 20 16 23 21 20 25 26 13 26 17 34 20 30 20 18 22 25 21 22 17 18 20 29 27 17 22 24 19 22 25 15 21 23 17 20 18 15 16 20 28 23 24 20 23 18 21 21 17 22 25 16 20 16 25 19 27 26 20 14 24 15 21 23 16 16 23 21 16 20 23 26 23 25 23 33 24 25 17 21 15 21 20 14 19 16 19 17 13 24 24 21 25 21 18 26 21 25 22 18 25 21 30 18 26 23 18 23 25 27 19 21 29 19 23 19 24 19 20 17 18 20 24 20 25 21 18 19 13 25 18 18 17 23 19 26 30 17 25 15 23 18 19 17 25 17 21 22 24 18 19 17 19 22 25 25 19 16 22 26 23 19 17 21 29 22 28 21 30 26 27 21 16 26 21 19 23 23 30 22 12 30 23 24 25 18 21 26 15 17 27 11 30 20 28 22 16 23 22 22 24 25 19 25 14 24 19 26 28 22 12 15 24 19 13 17 23 19 25 21 15 14 27 18 22 27 23 24 23 20 25 18 21 23 18 18 22 16 30 28 29 22 22 29 21 18 24 26 28 22 26 22 16 27 23 19 19 28 27 20 27 21 18 19 25 21 26 21 22 30 21 15 25 23 18 26 20 31 16 15 26 23 25 18 28 19 22 23 21 29 23 28 23 21 27 20 22 19 24 24 28 19 20 22 22 23 11 25 22 15 15 20 18 26 21 24 19 19 19 26 18 18 18 18 31 27 24 29 21 18 19 21 25 22 29 15 31 16 23 28 21 24 26 18 16 20 24 16 15 16 21 20 14 20 29 22 21 23 30 28 19 21 30 19 20 21 28 24 16 28 25 23 18 32 25 21 21 25 18 22 20 16 25 16 21 17 25 24 25 17 26 26 25 16 13 17 21 21 24 17 18 15 29 24 22 23 15 22 11 23 24 16 20 16 22 28 22 24 30 23 20 28 22 28 24 14 18 28 23 14 20 25 24 23 20 18 21 20 19 19 20 27 19 18 22 16 18 13 23 22 29 30 14 33 30 13 20 15 22 21 20 24 18 20 21 22 23 18 15 23 19 25 24 30 12 21 18 19 14 21 21 20 19 16 23 20 15 24 19 20 17 20 21 28 13 26 12 26 18 19 19 23 20 22 16 13 19 18 25 19 19 26 24 16 19 20 22 25 28 21 24 20 27 16 27 18 23 16 19 16 26 28 24 14 26 21 24 27 27 26 28 28 24 23 19 24 23 27 19 26 19 22 24 13 22 25 26 14 17 17 20 22 24 20 28 24 22 20 23 18 24 32 19 27 17 16 25 18 21 25 24 21 22 22 23 15 20 32 17 20 14 19 30 18 19 21 28 20 20 20 18 26 16 17 26 23 18 16 20 25 22 17 17 24 27 23 20 16 19 20 25 17 30 13 22 16 17 21 22 19 19 22 23 24 24 22 21 25 20 27 25 18 26 18 28 19 24 17 18 17 16 26 18 22 20 17 17 20 16 20 21 26 28 21 26 13 27 26 18 23 23 26 26 19 23 19 18 21 21 28 13 24 22 23 24 19 18 26 25 24 20 18 18 19 26 17 17 18 24 17 22 26 19 17 19 18 24 24 29 17 19 24 18 18 24 25 22 19 25 19 22 23 17 17 22 27 29 21 16 17 25 21 15 20 20 25 20 28 23 12 21 22 27 26 15 17 20 22 18 27 27 22 22 25 23 18 17 24 25 21 21 12 23 19 21 20 22 15 18 21 18 20 23 24 13 22 20 29 27 18 28 22 17 26 21 27 21 26 22 22 26 14 19 28 24 21 27 25 19 30 24 25 24 22 24 25 26 24 21 21 24 21 20 19 19 27 20 24 18 22 26 19 26 20 22 22 18 24 18 22 16 19 17 21 24 15 20 26 21 18 21 18 24 18 27 29 14 23 16 26 22 25 26 25 22 19 17 16 24 24 23 21 23 12 20 15 14 29 23 26 14 22 21 28 21 16 22 30 21 26 25 23 20 19 21 24 23 24 24 26 17 22 13 20 21 22 21 21 24 21 25 12 16 24 15 24 23 22 28 19 29 22 18 21 21 24 24 22 24 22 28 17 18 18 22 19 21 23 22 28 22 20 23 26 21 14 21 31 19 22 19 25 26 14 17 26 21 27 26 12 22 24 21 12 22 17 20 17 21 23 13 18 23 29 20 22 24 18 27 18 20 23 22 24 28 25 16 23 16 21 24 23 21 19 20 18 16 22 23 26 23 18 14 24 18 19 12 12 28 20 27 26 27 21 19 18 32 20 21 17 21 22 22 15 21 12 20 26 23 22 25 24 22 25 17 16 18 20 15 23 23 27 21 23 22 27 18 18 24 27 20 27 21 17 22 18 23 20 21 19 21 14 23 21 21 27 18 16 21 22 19 19 14 23 20 31 24 21 14 18 26 17 24 22 25 18 21 26 26 23 22 18 20 18 26 21 26 28 11 23 23 20 22 16 23 22 23 19 28 25 24 19 23 26 28 23 20 23 25 23 28 18 17 22 22 21 28 22 23 20 32 26 22 28 28 26 24 14 21 25 24 23 20 12 19 21 18 26 22 22 24 19 20 27 20 21 16 23 17 10 24 22 23 20 26 22 26 27 15 18 29 24 18 20 27 22 23 27 28 23 25 29 20 23 22 19 20 20 16 21 21 22 20 32 18 23 17 19 26 19 22 14 22 19 20 22 25 21 16 17 21 27 19 21 21 24 21 24 21 23 23 16 19 14 37 25 19 26 20 26 33 17 18 20 14 19 23 19 20 20 29 31 24 17 22 24 20 24 27 12 21 25 22 21 24 19 29 19 16 27 19 21 17 22 20 17 17 26 24 19 21 18 32 15 26 29 25 25 28 31 30 16 18 17 24 23 23 21 26 20 24 19 24 15 25 24 22 17 27 24 28 25 15 22 22 29 18 18 21 21 26 20 25 19 19 20 21 23 26 24 22 13 15 23 26 24 16 23 15 17 20 21 22 20 17 29 30 21 22 23 23 20 29 26 22 17 23 22 17 21 28 24 22 21 27 26 19 16 24 26 15 24 24 18 16 20 26 31 22 21 14 19 24 27 19 27 20 18 20 24 22 17 19 23 22 23 21 23 18 22 24 28 22 15 22 25 28 22 26 23 32 28 27 17 17 19 16 22 23 21 15 28 22 22 33 15 27 23 27 21 24 24 21 21 26 17 26 17 20 12 17 27 21 19 21 20 21 16 20 28 29 26 19 22 17 22 28 22 28 13 25 20 17 16 27 18 23 19 20 24 20 26 18 20 23 26 15 26 27 16 22 19 24 15 24 19 25 24 20 17 24 17 25 18 22 25 19 17 23 19 16 16 22 23 14 20 22 14 21 24 21 24 22 21 15 18 13 25 23 32 24 21 20 24 25 18 29 18 21 21 25 23 16 21 37 16 25 25 24 28 27 20 23 20 23 22 26 19 24 23 24 23 17 23 14 21 27 24 19 22 19 18 19 17 24 25 33 23 22 24 20 21 28 31 24 20 15 20 27 24 27 26 25 24 23 16 23 27 23 18 25 24 19 19 20 21 20 23 19 20 29 26 26 19 24 22 21 24 24 24 24 25 28 17 20 13 18 16 19 29 23 17 26 18 20 16 17 18 20 24 20 27 20 23 16 24 19 29 17 24 25 17 24 25 26 23 24 22 22 25 23 25 18 21 30 20 20 18 24 20 15 30 15 27 18 20 29 25 22 23 23 25 19 22 25 15 18 20 17 27 21 21 19 22 12 23 27 15 25 28 32 20 22 11 18 30 21 25 23 19 20 19 22 22 23 22 30 23 14 22 27 16 20 16 13 25 12 18 22 18 13 22 19 26 24 25 19 22 26 21 23 32 22 19 27 23 18 25 26 21 32 24 20 28 20 25 17 23 24 28 24 21 16 17 21 21 18 20 17 28 18 19 32 22 24 23 26 19 20 17 23 25 24 31 17 23 19 18 31 32 29 24 18 16 12 20 23 18 14 18 20 19 16 15 29 22 26 25 22 16 21 22 20 25 27 14 21 19 20 26 20 22 18 28 21 21 24 25 19 24 24 15 25 20 16 26 24 28 17 23 29 7 17 24 26 27 34 19 17 24 21 16 22 17 17 21 22 21 14 27 14 16 17 17 16 32 25 22 20 20 17 15 16 33 31 25 16 28 19 17 22 16 18 22 24 16 24 29 22 15 19 16 21 18 20 24 23 19 21 24 18 17 25 23 18 20 26 17 19 31 18 11 14 23 23 20 20 23 22 21 17 24 31 14 27 23 21 17 27 23 16 19 20 23 22 23 22 22 20 27 22 20 18 19 30 29 19 16 23 20 25 22 23 27 20 25 19 26 20 28 20 17 20 14 24 18 21 25 21 24 22 10 30 25 19 18 22 16 26 27 18 26 29 24 30 18 17 19 25 14 20 18 21 28 31 23 17 21 21 24 21 18 22 21 16 25 21 27 17 23 25 22 24 23 27 22 16 26 18 26 26 21 12 21 23 20 17 19 21 23 17 13 18 22 23 18 15 22 25 20 21 20 22 14 20 24 31 23 23 18 19 30 25 20 20 21 20 20 17 24 21 20 21 25 19 30 27 20 22 18 17 29 23 24 17 21 22 16 13 29 26 24 24 20 25 23 26 20 22 22 17 18 17 20 22 23 21 19 24 30 22 31 15 16 21 27 22 23 20 24 23 21 20 16 23 18 22 24 25 22 28 21 22 23 22 28 16 19 35 20 28 24 24 24 27 23 20 21 29 19 23 23 21 18 25 14 21 19 20 17 22 24 22 22 26 23 22 15 30 20 21 33 25 16 18 29 25 23 14 25 18 16 19 20 24 20 21 23 17 18 24 16 26 24 20 22 26 19 17 15 25 13 24 25 27 21 25 23 16 19 17 20 18 21 20 24 24 20 16 28 18 24 23 22 29 19 20 23 22 21 21 21 18 27 18 27 25 27 25 30 16 19 21 28 24 22 29 21 27 28 11 21 23 23 25 22 23 19 26 17 19 13 26 24 19 28 22 19 22 21 16 18 15 25 26 13 29 19 17 18 25 24 20 18 25 25 24 14 18 26 18 22 24 17 30 19 21 16 24 22 19 27 19 24 20 22 25 19 28 30 18 22 18 24 17 26 24 21 24 25 22 18 15 15 17 22 18 29 13 25 23 16 23 13 22 29 17 24 26 17 27 26 22 25 22 20 17 25 23 19 26 23 25 11 23 22 24 28 17 15 22 17 15 18 25 25</t>
-  </si>
-  <si>
-    <t>GAM(78.04599162786789, -16.44636401788501, 0.6282457635277509)</t>
-  </si>
-  <si>
-    <t>31 36 29 29 38 39 28 40 42 32 27 34 32 34 29 33 31 36 32 32 36 38 30 32 27 31 25 20 29 25 30 41 40 33 36 35 33 27 28 34 33 39 28 25 29 31 32 30 31 30 31 31 26 29 31 31 30 34 45 41 34 37 33 26 40 37 33 32 33 36 35 28 29 26 27 36 40 30 34 36 37 24 43 34 33 33 29 39 39 32 31 36 33 31 36 38 45 28 35 45 35 35 30 27 30 38 33 41 25 41 34 28 34 27 31 32 34 30 39 41 39 33 33 39 29 28 32 25 39 35 29 36 40 27 45 32 29 29 36 32 37 26 35 28 29 26 39 34 38 35 35 29 36 33 27 29 39 32 36 38 39 40 27 33 43 30 25 43 28 32 35 34 25 34 31 51 35 35 40 29 34 29 34 27 38 31 31 32 33 28 23 32 37 37 37 38 37 38 32 33 26 31 38 18 37 32 38 35 31 33 37 31 34 33 37 31 27 27 31 35 34 31 33 35 28 29 34 40 37 26 31 28 28 28 30 33 47 38 38 23 32 31 32 38 32 27 28 27 34 36 31 30 32 34 29 35 28 32 31 37 28 37 21 27 42 29 26 28 35 40 33 26 35 34 29 31 23 33 33 30 24 29 28 26 32 25 37 31 33 33 32 28 27 29 27 34 30 35 33 23 32 37 28 33 41 38 30 38 43 27 35 17 34 41 42 41 39 42 27 31 30 26 34 26 25 22 41 38 30 36 28 39 31 25 37 31 27 34 27 38 33 20 35 19 30 30 29 34 34 41 29 29 28 32 38 32 27 26 38 26 29 33 27 32 37 28 36 32 34 29 41 24 38 38 34 28 30 28 24 35 30 31 33 37 35 28 42 30 37 31 35 36 38 32 33 35 40 21 24 28 37 32 26 36 29 27 31 51 30 28 36 28 44 27 39 28 36 35 37 31 30 34 33 36 34 28 39 33 44 38 35 32 33 34 32 39 28 26 28 41 36 40 34 36 31 30 32 31 43 27 27 31 34 44 26 52 35 32 34 31 33 25 32 31 36 28 25 42 31 29 37 25 30 28 30 26 28 35 41 31 25 38 38 30 28 37 33 43 33 32 32 34 36 36 31 32 39 31 40 26 21 39 43 32 33 40 34 35 31 41 33 33 38 38 21 42 29 30 23 30 32 40 27 30 38 27 40 40 30 33 37 29 33 40 31 39 31 34 35 35 32 32 33 31 32 40 35 32 22 47 30 28 40 32 40 35 32 29 38 31 31 34 30 39 31 40 30 43 37 39 39 32 35 30 29 27 36 41 40 30 30 29 31 39 36 30 39 21 27 27 37 32 29 24 40 34 28 24 30 42 25 35 32 38 33 35 31 37 43 30 29 44 30 31 37 27 34 31 34 28 31 35 38 31 36 30 38 33 32 25 30 34 36 24 35 37 31 29 38 24 25 33 25 27 41 39 24 41 38 33 36 39 30 35 29 34 34 31 40 33 32 36 30 29 26 31 31 36 28 28 26 32 27 33 36 39 31 36 39 33 41 35 29 24 21 26 26 26 33 32 38 29 32 45 35 37 34 27 30 31 36 17 34 23 27 28 37 32 30 30 37 46 36 22 34 35 40 28 36 36 33 40 25 29 24 35 28 37 19 32 37 34 30 33 29 41 29 27 31 30 31 33 34 31 38 24 28 28 28 40 27 28 36 30 40 20 38 28 41 35 32 28 29 45 33 27 26 29 22 30 27 39 33 30 29 36 38 32 33 34 31 37 30 41 35 31 31 32 33 23 26 38 28 28 31 27 38 33 20 42 27 27 31 28 25 21 30 30 39 23 29 33 31 34 37 36 37 29 32 30 29 35 29 29 33 38 32 31 35 35 30 30 30 34 35 27 40 40 25 30 22 36 22 39 38 31 30 32 33 36 37 41 30 19 42 27 30 25 31 33 31 27 28 43 35 36 27 24 33 34 32 40 29 38 34 31 30 40 28 27 30 32 39 35 25 27 26 37 32 35 35 36 24 28 34 35 38 26 29 40 37 34 31 34 31 37 36 46 36 36 29 22 36 43 25 40 27 28 24 29 26 29 42 35 31 31 34 34 28 35 41 24 30 30 31 32 37 34 23 39 36 39 23 37 31 32 40 35 36 34 42 29 29 35 39 34 22 30 29 34 35 27 31 27 45 33 35 32 30 39 31 32 28 29 26 40 28 35 34 40 44 23 31 22 23 33 31 34 39 43 27 38 30 30 29 35 25 28 32 40 38 38 43 35 22 35 39 28 25 25 40 27 35 33 32 28 31 33 34 34 32 29 36 31 29 29 34 31 35 35 34 25 19 18 23 30 34 21 27 34 31 33 24 44 27 38 30 41 30 28 24 32 21 29 38 34 22 25 23 29 36 32 28 34 34 37 32 40 35 25 31 26 25 37 40 33 37 27 28 44 26 34 38 34 31 32 30 25 35 34 31 35 24 33 43 34 33 32 31 44 39 36 34 37 40 37 48 23 31 20 28 37 32 36 39 34 37 37 32 30 32 41 34 33 33 36 37 30 42 26 23 32 25 43 39 31 44 35 32 39 30 33 43 30 28 37 30 24 23 36 26 31 30 32 29 32 30 25 23 36 31 30 29 27 40 26 37 29 30 20 31 36 36 33 40 27 30 30 34 32 42 30 33 33 47 34 37 32 27 36 39 36 35 35 34 36 31 35 32 30 37 32 25 32 31 37 41 26 24 28 36 27 35 27 29 37 33 34 33 42 31 31 32 35 36 31 27 38 26 36 33 41 38 27 27 31 32 34 26 29 28 38 27 33 42 34 28 33 31 37 37 27 34 28 27 36 30 26 27 31 32 20 42 28 26 36 38 27 34 26 35 35 32 34 22 33 38 30 27 33 28 37 32 41 33 35 31 39 29 38 30 28 32 43 33 42 29 29 30 25 30 33 39 24 31 26 37 34 28 26 46 26 30 32 37 24 39 35 42 30 36 24 33 28 26 38 33 35 35 34 19 32 25 35 25 52 22 27 25 32 38 29 24 38 40 28 29 32 32 47 29 40 31 35 40 38 38 36 35 25 28 30 43 29 34 25 41 31 32 37 30 39 43 34 30 28 29 34 44 30 31 32 46 32 31 26 36 26 32 32 37 33 49 29 17 37 29 25 33 27 31 43 28 29 34 24 31 35 29 29 19 26 30 32 27 29 35 36 30 30 30 33 32 42 21 33 38 38 30 21 32 39 31 34 23 29 34 30 31 29 35 48 34 35 33 41 36 42 27 33 33 32 36 35 30 37 35 29 30 40 31 37 39 33 22 29 33 24 38 32 38 33 30 35 33 32 35 44 41 30 32 23 27 27 32 23 27 30 24 31 29 36 29 33 34 30 31 34 33 28 30 37 35 34 29 43 36 31 27 27 43 27 41 28 28 26 37 40 34 35 24 27 28 23 28 31 47 22 30 38 42 33 26 35 35 37 29 31 29 24 29 41 31 34 27 28 34 30 29 22 39 27 33 22 30 30 42 28 41 35 22 24 27 27 25 31 29 22 39 31 26 27 30 29 31 29 39 27 27 35 36 27 31 27 29 32 33 31 28 36 29 30 37 29 36 36 32 31 22 29 34 35 29 31 25 40 29 29 25 45 36 35 39 24 38 30 31 46 34 28 26 28 28 32 36 30 39 35 39 29 33 33 37 31 29 44 24 33 33 42 23 40 33 35 33 32 46 33 34 42 32 29 32 48 31 28 36 44 32 41 37 29 32 29 34 31 19 40 27 30 22 24 24 33 27 34 36 34 34 34 35 28 33 30 33 42 27 37 31 20 39 38 27 30 31 22 33 35 26 29 38 34 35 29 24 34 21 31 33 32 34 33 26 31 33 34 37 39 33 29 31 34 32 23 26 41 27 34 28 28 32 31 28 29 26 33 35 22 33 28 29 44 39 25 34 32 31 27 34 31 32 29 35 36 37 27 34 28 33 33 38 31 32 35 21 31 28 36 30 39 36 35 29 27 34 36 38 28 33 35 29 30 29 30 27 39 34 33 28 38 35 44 22 37 53 33 31 28 28 33 39 30 26 35 31 40 29 35 24 37 39 30 34 30 38 20 26 22 23 38 31 30 33 35 32 15 36 33 39 28 27 28 39 35 34 34 32 26 32 32 35 37 35 26 45 34 36 41 31 36 44 37 29 29 31 44 31 33 30 34 36 35 26 33 38 25 25 34 32 33 35 34 36 34 32 33 41 33 31 38 34 30 32 42 28 32 42 31 30 38 27 39 32 30 35 28 29 30 47 32 33 27 26 36 28 35 33 27 42 32 41 30 38 19 28 35 30 36 32 38 30 39 39 34 26 34 25 27 36 35 37 33 35 31 28 31 33 24 35 31 31 37 41 27 31 35 41 40 30 30 36 28 28 29 40 36 29 34 35 43 36 23 30 37 28 35 40 32 34 36 38 26 30 32 30 33 31 23 32 31 27 32 36 29 39 29 31 33 34 44 29 37 32 32 29 37 22 18 34 30 36 26 22 32 28 32 38 35 41 40 28 38 42 37 28 27 30 30 28 32 30 37 40 39 21 45 38 29 24 25 31 41 37 36 29 39 28 29 43 23 39 34 26 49 34 33 35 23 36 36 33 32 27 24 31 36 44 28 35 35 39 28 32 32 30 36 28 36 29 29 20 30 33 39 35 40 31 30 36 26 45 37 41 34 39 32 22 33 41 29 25 33 29 35 37 31 28 26 33 37 27 29 30 25 29 34 33 32 28 38 37 39 22 23 34 24 34 29 29 41 33 35 23 34 42 34 43 24 30 32 21 26 41 23 36 31 27 35 31 41 25 29 31 43 31 35 34 24 35 28 24 35 32 42 34 33 20 37 39 37 32 33 38 37 28 38 32 33 26 39 27 39 35 43 31 39 23 38 32 31 26 26 32 35 27 36 29 36 32 21 44 28 34 18 40 26 30 35 31 29 36 32 41 32 31 35 25 23 28 31 36 34 34 23 21 29 37 31 42 33 37 41 32 42 32 26 44 38 29 38 32 42 32 35 26 38 35 43 33 39 36 31 40 42 30 30 33 43 29 40 39 30 28 35 30 34 32 43 28 30 30 26 36 35 33 33 27 27 27 35 37 29 35 36 41 28 29 35 27 37 28 39 35 30 39 27 24 19 38 23 35 45 28 25 38 30 40 31 33 31 35 33 29 23 31 33 29 38 30 36 24 33 38 26 28 30 31 30 28 24 36 22 28 40 26 30 26 29 34 30 36 35 27 37 39 27 42 42 29 31 27 40 36 38 36 33 34 35 31 48 28 37 40 39 44 31 31 29 27 44 34 36 43 38 31 33 31 50 40 32 37 32 36 37 35 29 43 34 36 27 40 35 37 41 41 51 23 30 30 28 31 35 31 32 40 34 32 32 26 40 23 32 44 35 34 39 31 28 31 38 30 36 25 33 39 36 28 45 31 32 33 39 24 35 23 31 33 35 30 30 21 30 37 35 28 34 33 43 39 31 43 37 39 34 32 33 39 29 24 23 31 32 23 27 38 30 27 34 36 36 33 29 32 40 43 30 32 30 30 44 38 30 27 40 27 27 25 27 37 37 38 27 36 37 28 30 33 33 18 26 38 42 36 22 27 32 31 36 36 28 22 31 40 38 28 40 26 35 29 23 34 29 38 37 38 37 28 34 31 42 31 25 24 33 44 35 31 28 37 33 40 42 38 31 33 35 29 39 32 29 39 40 33 33 28 45 21 31 33 26 26 34 42 31 33 33 42 36 32 37 33 31 45 44 36 36 23 31 33 40 23 29 36 33 39 34 31 26 38 24 30 26 35 34 43 32 25 32 31 35 30 30 36 39 42 34 30 30 33 42 35 30 34 31 44 28 38 27 32 34 30 40 34 33 31 30 28 33 28 39 27 41 32 34 22 30 36 23 38 28 40 31 26 35 26 31 28 25 28 35 25 31 33 33 32 35 31 30 37 24 40 29 23 44 41 23 31 32 30 35 35 41 23 37 33 29 40 34 29 33 28 38 38 34 49 31 37 41 23 32 40 33 29 33 32 37 25 27 37 25 19 29 31 32 48 28 31 36 31 34 29 40 37 34 39 31 38 34 46 23 41 35 40 26 37 36 36 26 38 40 32 34 24 30 35 41 36 39 30 34 40 35 35 38 22 26 37 29 32 30 37 34 36 38 31 32 31 37 29 25 27 31 25 36 22 40 40 31 41 27 36 37 39 29 44 30 46 43 28 33 38 27 31 28 52 33 37 30 38 36 19 24 29 31 36 41 40 27 38 34 24 38 29 33 27 36 37 25 28 27 27 30 29 27 39 24 37 32 32 37 38 34 37 27 28 38 36 36 39 33 26 28 32 31 29 38 30 37 32 30 26 29 29 32 28 33 31 32 34 39 38 29 46 32 31 38 26 24 30 44 46 26 32 28 28 28 37 30 28 28 23 29 31 34 34 36 29 24 27 34 34 36 36 34 28 23 29 31 29 32 35 36 27 28 29 29 27 35 24 28 34 26 27 29 28 36 30 29 29 31 35 32 42 26 31 32 41 32 28 28 34 31 33 29 29 29 26 37 38 32 27 39 29 40 31 30 25 26 32 29 30 30 24 27 32 29 30 29 37 35 31 30 30 28 32 29 34 32 24 36 35 26 31 25 37 29 28 42 17 30 40 37 28 34 38 28 33 32 34 45 37 30 28 29 33 26 28 35 22 29 27 40 36 31 31 36 38 32 33 32 32 23 30 29 32 28 35 35 34 22 40 28 32 43 27 39 31 27 28 31 38 39 31 30 32 23 33 28 27 41 49 24 17 32 35 35 29 28 31 35 28 34 19 37 36 27 24 33 29 32 34 39 36 32 40 35 37 31 37 34 30 26 35 40 34 41 24 36 36 26 31 36 33 37 41 27 36 39 29 38 28 32 31 31 31 38 29 38 32 36 35 37 35 48 26 33 24 31 28 39 29 31 42 25 29 25 30 37 31 31 40 21 32 40 27 27 34 34 32 28 28 29 27 38 32 32 37 39 42 29 40 38 37 27 22 27 25 33 27 18 40 42 37 40 32 28 36 41 37 33 42 15 31 31 36 30 40 32 38 33 27 38 38 35 33 27 35 35 32 33 32 37 29 22 28 27 23 26 36 28 36 26 30 30 32 35 37 27 32 28 35 27 31 29 29 32 29 37 27 36 39 33 21 36 47 30 25 22 40 33 27 38 32 33 36 55 31 30 34 20 32 23 39 24 41 34 40 31 41 28 27 27 32 31 28 37 24 43 36 31 38 27 27 36 31 42 40 38 36 28 27 38 28 34 34 32 38 24 32 39 29 33 29 32 26 36 34 27 38 24 23 32 27 26 37 29 34 40 33 23 30 26 28 24 32 28 33 31 28 23 28 38 35 38 32 28 31 33 49 34 27 37 41 42 32 37 24 33 30 43 39 33 33 31 20 37 34 33 26 27 44 45 32 29 35 32 29 26 32 30 25 25 33 38 24 43 33 31 28 29 37 32 33 36 39 38 28 31 29 36 42 37 40 39 27 40 36 43 28 33 29 21 32 31 31 33 22 34 35 25 33 31 30 25 27 31 39 27 31 37 37 29 33 38 31 32 28 26 24 34 36 26 40 36 28 32 31 26 29 28 37 39 41 38 37 31 39 32 29 38 28 32 27 32 39 35 19 25 44 29 28 23 30 28 33 35 32 39 27 30 25 29 27 30 34 27 28 22 30 35 39 27 34 30 28 23 32 37 40 32 48 29 36 25 29 25 45 33 26 27 31 33 25 26 29 36 26 28 28 30 32 33 31 37 32 44 31 34 35 33 37 40 27 40 33 37 28 40 33 36 40 21 32 31 39 41 31 36 31 41 31 25 34 27 32 36 43 34 26 41 19 30 36 33 23 31 38 27 18 35 40 40 29 30 28 33 30 41 34 41 27 39 28 42 38 37 30 26 31 39 29 29 37 32 32 20 29 31 31 26 26 37 34 25 36 20 32 27 31 32 34 29 23 42 38 29 35 25 57 42 36 40 33 30 45 42 30 35 32 44 33 36 34 32 29 33 31 28 27 32 29 30 38 35 30 39 31 56 24 39 41 44 36 32 27 33 40 28 39 32 38 32 35 32 29 28 34 25 31 32 31 23 43 30 18 26 35 39 37 28 24 44 33 38 34 32 32 22 30 26 28 31 26 27 37 25 31 36 28 35 31 29 32 30 25 31 24 37 25 26 30 39 30 36 42 30 33 33 36 38 31 32 39 29 38 36 28 28 36 49 28 29 39 46 26 39 33 46 26 25 31 31 45 30 34 31 30 30 31 39 26 33 35 27 34 30 23 30 31 36 35 34 36 39 33 25 33 26 33 31 35 33 31 37 27 29 30 27 29 40 33 24 25 36 30 36 42 37 26 37 27 20 31 35 37 40 36 33 28 37 32 35 43 31 25 32 35 34 33 26 28 30 33 36 34 38 33 23 31 32 30 27 30 42 40 44 38 37 31 28 35 30 29 31 24 31 33 28 34 33 31 39 34 39 43 26 31 35 36 39 25 35 33 35 37 35 28 30 33 32 29 28 26 38 32 35 28 33 30 41 36 35 35 35 34 32 28 34 38 29 31 28 31 25 30 33 38 36 31 26 39 32 25 29 41 22 38 30 21 40 19 36 30 33 42 42 26 28 37 29 30 34 36 37 32 21 32 32 23 36 28 35 40 39 30 43 35 24 33 30 26 34 45 36 31 29 34 34 33 35 35 32 37 27 34 30 30 33 27 29 29 27 38 34 37 37 30 26 39 42 32 40 38 28 33 43 34 28 39 39 37 28 38 30 27 30 32 33 32 30 33 35 36 25 36 37 42 27 39 31 33 31 32 36 30 36 21 34 36 31 26 27 38 29 31 33 32 34 32 30 30 27 33 29 30 37 28 40 31 30 31 36 37 21 25 40 24 36 32 26 37 34 34 37 29 40 21 36 25 30 33 30 39 35 34 27 22 27 39 36 36 31 32 36 33 37 35 34 31 25 36 37 36 29 33 39 32 26 26 24 36 23 31 33 38 26 32 40 36 31 31 24 30 31 34 36 23 34 34 39 44 29 26 41 36 30 33 39 38 28 38 32 33 37 31 41 27 41 29 50 36 38 41 31 47 27 25 30 42 48 29 42 30 26 20 39 35 33 28 38 29 28 35 25 39 32 37 28 37 33 34 29 29 40 32 32 35 35 34 28 22 31 20 33 34 34 32 24 36 33 31 35 37 45 24 31 31 22 30 31 37 35 38 36 35 44 28 41 26 30 39 38 25 34 32 33 32 36 35 29 29 43 36 37 33 29 32 35 31 40 35 36 31 27 25 30 35 33 37 34 42 32 39 28 27 41 43 46 30 33 48 35 28 34 22 32 32 26 26 47 29 35 23 36 37 37 33 36 30 32 36 31 31 42 33 26 22 43 24 30 28 24 28 33 30 32 36 31 25 35 26 20 38 29 34 29 30 36 36 33 32 19 33 38 36 26 30 39 38 30 34 32 33 39 28 35 26 32 38 33 27 34 32 30 34 28 28 21 32 40 27 25 36 31 41 21 40 42 39 37 32 31 39 28 27 36 37 37 31 32 37 33 29 38 27 31 28 28 30 31 36 33 29 40 32 35 26 29 30 43 28 35 32 30 31 29 33 30 31 32 37 29 33 24 32 49 41 35 35 34 26 33 29 28 30 37 35 32 25 26 30 32 26 29 24 24 32 27 34 39 38 33 34 29 43 37 47 28 35 27 35 21 24 34 26 26 31 28 26 35 27 31 33 35 30 38 27 31 43 32 39 26 29 42 33 37 33 24 31 34 32 38 34 26 29 46 36 40 31 36 28 39 33 30 30 38 27 28 29 37 29 34 38 26 33 34 36 27 35 31 30 43 37 24 34 34 38 33 37 36 33 33 35 35 22 32 37 38 34 27 23 28 29 34 29 30 39 35 20 37 38 33 31 34 28 40 42 33 37 34 31 30 45 42 32 28 38 32 45 35 32 21 32 34 21 42 32 49 32 38 24 34 39 28 30 31 35 37 41 33 26 32 34 33 35 41 22 34 39 41 34 38 30 36 34 35 31 30 37 27 28 34 36 29 36 44 29 30 26 36 27 26 29 35 44 31 32 35 29 37 28 42 32 31 39 26 27 34 39 30 31 27 30 37 38 35 28 44 26 28 30 29 33 41 30 31 30 34 29 34 39 34 36 31 36 42 43 31 49 36 39 28 29 29 34 48 31 38 43 34 36 26 37 37 22 38 33 33 32 28 31 28 27 25 32 23 32 33 39 34 28 32 32 39 33 34 26 37 38 44 44 48 30 37 41 37 37 30 30 32 31 28 39 39 32 30 32 26 40 36 27 40 27 36 25 29 31 27 31 27 27 20 37 47 33 35 40 29 28 29 28 32 30 26 34 23 38 26 32 25 42 39 41 39 41 29 40 26 45 34 32 21 31 32 35 33 29 31 35 38 31 47 25 26 31 38 29 31 33 28 36 23 40 30 44 27 35 41 36 41 42 38 31 36 27 30 48 32 34 32 36 28 37 31 39 39 36 29 37 31 45 32 26 43 23 29 27 45 34 26 31 39 30 35 28 33 28 38 22 32 34 41 35 43 32 24 27 39 28 45 28 33 30 31 43 28 28 29 30 29 30 35 29 28 37 30 35 23 31 32 36 28 31 42 22 33 34 38 39 37 33 26 36 19 40 26 30 30 29 31 23 39 40 46 38 28 29 41 31 43 35 36 27 38 30 30 28 33 33 38 36 30 33 26 38 32 27 38 27 17 35 20 29 29 32 26 34 33 34 30 31 28 32 38 35 29 30 33 41 28 39 37 37 26 28 36 38 35 36 31 33 33 42 30 29 28 36 29 35 35 45 31 37 36 39 29 36 37 34 31 26 41 32 26 30 21 28 35 24 28 25 24 28 32 30 41 24 36 38 32 43 34 36 36 34 32 42 36 38 31 33 35 30 27 30 23 26 34 27 48 31 30 38 35 45 31 33 30 27 34 29 32 30 35 40 41 28 30 36 39 40 32 35 33 30 28 30 45 34 28 35 24 28 28 32 39 35 32 30 22 27 30 28 28 21 35 36 36 40 26 38 23 37 44 40 44 20 32 33 24 39 23 35 36 29 27 33 32 31 29 34 28 33 31 41 36 30 18 34 40 39 41 36 37 39 26 36 19 37 25 35 36 32 33 32 40 43 39 36 31 28 32 37 31 40 35 33 23 35 45 45 32 33 30 25 24 34 39 37 46 26 38 35 29 31 29 20 27 31 34 29 31 40 33 26 36 37 32 37 31 42 29 33 32 30 32 34 32 31 33 25 26 34 30 31 37 26 25 37 32 36 46 31 37 31 36 31 34 23 21 32 31 33 34 32 24 20 34 31 40 42 31 47 34 37 33 35 43 27 29 45 23 27 30 30 30 25 38 35 26 39 27 22 31 31 35 32 31 31 33 30 28 29 27 42 27 28 28 32 22 33 29 32 34 24 35 29 22 30 35 23 33 24 39 28 30 33 22 41 31 30 40 40 38 46 38 41 29 31 42 32 30 41 36 39 38 30 34 36 37 40 26 31 33 28 24 33 29 26 32 39 31 35 28 28 26 28 35 35 33 36 31 24 34 40 35 38 28 32 34 32 34 34 30 34 37 35 39 34 27 34 42 37 32 25 30 32 34 33 21 32 24 37 36 31 39 35 27 32 34 27 20 34 32 37 34 34 34 46 32 33 30 40 34 37 38 19 39 35 44 35 29 34 26 35 23 30 27 33 28 29 34 39 32 27 27 33 32 27 31 36 34 32 22 34 26 27 40 28 31 33 39 42 29 29 35 30 27 37 42 28 32 27 35 35 33 24 33 31 39 19 28 36 33 37 30 38 23 31 35 34 23 28 34 34 29 50 30 34 34 24 25 30 24 22 33 29 25 34 24 29 38 36 32 32 44 35 34 36 26 24 35 30 26 35 38 37 29 38 26 31 36 31 38 33 23 37 34 31 33 29 22 23 31 28 35 40 33 28 31 29 39 45 26 35 36 28 36 31 45 35 29 29 32 32 37 25 27 28 29 30 28 29 29 27 29 35 44 29 31 35 29 33 38 26 29 38 36 32 29 26 32 36 28 26 28 24 25 26 24 39 33 27 36 27 26 32 40 33 27 27 41 31 23 36 21 39 40 35 34 40 35 36 28 27 26 26 30 30 36 32 31 41 45 28 19 27 31 30 33 31 32 32 28 37 39 30 42 26 32 34 31 32 36 32 30 29 44 36 23 32 33 37 26 31 29 36 27 37 27 28 33 29 30 25 33 36 37 29 34 31 37 31 28 42 31 30 30 37 34 40 27 28 38 31 39 26 31 26 29 28 32 33 38 36 30 35 39 27 28 32 46 24 19 30 27 30 35 38 34 35 35 29 37 40 39 36 34 40 27 35 37 31 34 28 36 37 31 42 27 36 35 34 24 35 28 28 35 34 28 34 47 26 25 36 35 24 35 31 28 25 33 23 34 31 29 30 30 30 35 36 33 40 28 32 33 38 30 32 33 45 38 29 35 27 38 30 26 25 38 29 33 34 44 29 31 33 42 18 22 27 35 41 31 27 39 34 37 33 31 26 39 47 30 41 31 32 41 31 23 33 36 30 38 35 38 29 36 32 30 28 36 38 29 28 27 36 37 33 33 33 35 19 24 18 25 28 33 36 32 32 34 33 23 35 40 36 27 34 26 30 24 26 43 36 35 32 30 24 32 46 29 28 43 35 30 22 35 29 27 46 32 35 30 32 33 32 40 28 37 33 31 38 39 31 33 33 38 27 45 36 32 33 37 39 30 31 37 27 27 30 29 26 37 46 31 39 33 33 34 35 20 29 30 32 27 35 19 31 37 31 32 34 37 33 28 28 38 35 28 38 37 28 28 29 31 34 33 30 31 45 28 37 27 44 20 32 29 29 35 37 29 29 36 31 36 39 43 36 27 34 36 42 33 27 33 25 33 42 31 30 36 35 24 25 34 26 35 30 27 29 37 21 37 31 24 39 37 32 41 30 33 28 30 26 43 26 35 31 36 26 28 23 25 32 34 35 33 42 31 27 37 42 40 33 26 39 32 34 43 23 47 48 37 29 39 30 32 25 27 44 29 31 31 37 27 24 36 28 33 34 30 29 38 34 33 29 35 47 43 22 35 28 33 35 25 40 33 23 25 31 31 34 24 27 34 30 19 25 36 32 29 39 27 32 29 33 27 32 42 35 40 30 39 31 39 32 31 31 33 34 36 39 29 28 29 33 36 42 26 20 34 29 39 39 33 37 38 40 26 43 21 29 44 25 26 43 39 32 26 28 35 36 42 30 35 34 33 30 44 25 45 33 31 31 38 33 25 41 51 32 30 36 32 33 29 42 39 36 30 31 29 30 32 29 30 25 32 37 33 24 28 32 46 35 33 40 33 30 29 32 40 26 35 43 29 31 31 38 34 38 36 30 45 37 37 33 27 36 29 37 31 34 29 36 35 35 31 34 23 22 38 34 35 34 28 33 32 39 30 39 33 32 30 41 36 35 21 32 32 22 30 34 48 39 37 37 34 43 40 32 35 38 30 36 40 46 35 33 24 31 32 26 27 28 30 32 41 24 27 40 32 39 30 32 34 39 27 30 28 33 27 28 35 36 34 28 37 27 25 31 35 34 34 26 33 35 43 35 29 23 29 32 31 39 34 33 32 47 26 32 35 30 38 42 29 30 31 27 19 38 38 40 35 34 30 35 37 37 32 35 42 26 36 30 40 36 28 42 36 25 35 32 32 33 35 33 37 36 25 37 30 32 24 35 23 24 25 44 34 29 32 34 40 41 30 34 33 29 20 32 37 34 34 27 33 27 33 33 27 27 26 33 39 33 21 35 34 30 30 36 22 30 39 35 34 36 37 33 33 33 38 34 29 35 33 30 33 33 33 38 34 27 42 37 34 40 38 24 30 40 33 31 25 29 27 40 31 29 32 28 36 21 30 32 30 31 36 30 33 29 28 35 33 32 32 22 35 34 33 45 37 30 42 32 31 26 36 39 27 32 35 40 34 25 33 43 40 31 35 34 39 44 30 38 30 27 30 46 42 44 42 36 42 28 37 22 37 38 24 27 17 32 33 35 26 36 41 33 19 27 28 24 38 31 33 22 25 29 36 33 30 36 37 41 33 37 36 33 36 30 38 27 27 34 29 20 35 30 26 31 28 26 26 32 31 44 30 32 29 23 35 32 31 26 32 34 29 31 38 28 35 25 32 34 32 28 38 42 34 36 31 38 27 36 23 33 31 36 36 33 33 26 37 34 34 27 25 30 32 31 27 28 20 30 29 46 31 27 26 31 24 35 33 26 30 38 28 28 31 47 31 32 30 28 36 27 27 33 24 35 41 34 31 31 40 26 20 32 34 43 37 37 32 27 31 33 38 34 32 41 38 30 30 41 34 40 40 27 33 31 34 30 45 33 27 33 38 37 40 32 22 24 28 31 36 35 24 27 36 33 36 27 29 34 25 41 30 30 26 33 21 36 31 30 31 35 26 40 31 33 29 39 30 30 41 29 39 39 30 24 23 29 27 32 28 36 32 41 35 31 45 26 28 26 35 30 32 32 37 25 43 36 36 30 31 50 31 35 30 33 30 32 26 32 21 21 28 32 30 34 40 35 43 28 21 30 28 28 38 32 31 47 34 30 29 39 41 38 29 37 23 26 26 39 40 36 34 35 35 33 39 36 26 41 34 30 30 30 26 27 29 28 31 27 40 34 40 28 27 36 34 30 32 29 38 37 33 28 27 40 31 32 36 34 45 35 28 23 31 42 33 28 37 39 26 38 27 24 32 29 34 42 37 31 43 27 23 24 27 29 30 37 39 39 27 27 35 32 35 34 39 36 30 40 30 32 30 34 33 28 26 24 36 33 27 35 32 28 30 41 31 28 38 32 46 38 34 25 29 34 34 26 30 34 33 31 41 30 30 35 32 34 30 34 33 29 27 40 34 33 32 25 28 34 45 31 32 28 29 34 38 39 38 40 29 36 34 38 32 25 27 26 32 33 34 23 32 37 32 37 29 32 36 31 29 21 22 34 35 29 38 29 44 43 28 43 31 30 27 35 34 29 40 25 40 33 23 31 34 25 36 34 32 40 29 30 39 33 39 24 32 28 31 36 32 30 35 31 31 32 34 39 26 18 34 34 24 27 33 27 40 26 38 38 47 47 31 39 37 30 43 28 35 27 34 28 35 32 37 35 33 33 28 34 34 28 25 36 28 29 31 32 43 33 30 32 42 38 26 36 30 33 35 47 31 35 33 30 25 34 23 30 29 38 31 40 25 38 36 31 39 29 30 25 35 25 34 39 32 39 28 34 27 46 41 29 38 30 36 23 37 27 37 47 25 35 28 38 31 32 44 34 38 33 37 22 46 25 22 32 35 29 30 36 35 42 37 47 28 30 35 37 34 26 35 37 37 25 41 36 39 28 38 42 24 26 35 21 28 27 25 31 30 28 31 28 32 30 27 35 33 34 39 33 17 20 41 37 35 40 27 43 29 45 27 40 40 28 28 28 24 29 27 38 33 29 22 36 27 36 26 32 40 28 22 42 34 37 31 36 38 27 27 35 39 35 38 40 28 34 32 34 31 42 37 32 34 26 42 35 32 35 40 32 44 30 31 27 37 20 30 32 36 37 36 36 30 40 36 34 32 31 33 31 39 29 32 32 33 36 39 33 30 24 31 30 28 33 20 36 38 24 34 37 36 27 35 37 36 30 33 24 46 39 21 39 29 27 31 38 44 27 29 32 24 28 33 38 34 29 24 40 33 34 29 31 43 34 37 22 33 28 21 33 35 38 43 30 34 30 29 37 35 41 39 24 42 37 36 27 35 27 36 34 31 35 39 28 33 24 27 30 29 25 29 26 25 31 29 35 30 29 32 32 31 42 40 34 33 40 31 49 25 22 35 29 39 19 35 38 34 33 43 28 24 36 40 37 37 35 37 30 29 25 29 39 34 35 28 35 32 32 44 31 39 33 28 40 40 34 37 33 26 30 29 39 23 32 35 35 32 36 39 26 30 27 32 44 30 30 30 35 30 43 29 23 35 34 26 30 39 37 33 29 28 35 33 29 40 27 29 36 32 36 29 22 31 27 25 27 36 37 32 26 35 30 31 35 26 29 38 26 34 29 29 29 30 35 28 36 26 26 29 26 33 33 38 34 24 30 29 31 35 36 22 31 40 25 38 40 31 30 34 32 34 36 38 32 28 30 38 35 43 35 37 29 41 26 35 32 41 31 30 26 36 39 34 37 33 39 30 48 37 41 30 22 29 31 35 29 36 34 48 24 24 51 31 28 39 26 25 39 26 34 37 28 33 25 31 22 35 31 31 36 36 30 31 27 30 28 38 49 33 29 32 29 35 28 37 37 30 27 47 40 35 34 28 31 26 31 29 41 26 34 37 26 27 22 37 26 26 23 40 39 47 32 33 31 26 27 32 24 24 24 33 30 31 36 42 30 31 27 34 31 32 25 28 31 35 31 30 25 32 49 34 49 28 24 32 30 24 33 33 44 43 30 34 37 31 33 30 35 33 40 25 29 33 30 29 28 33 36 25 25 36 43 34 34 36 27 30 35 30 37 35 35 39 36 32 40 31 40 28 31 32 35 40 42 38 38 25 31 29 39 29 40 46 32 33 35 34 36 35 26 26 25 28 31 25 29 38 37 28 38 35 29 43 30 45 35 28 38 25 28 30 32 29 35 22 38 32 32 37 30 29 25 40 27 25 40 36 35 27 32 22 31 33 28 29 38 29 27 37 29 43 31 41 36 33 26 27 42 24 38 27 32 24 27 44 39 50 33 36 31 29 26 36 31 29 30 34 29 36 39 27 40 31 31 22 36 43 41 33 28 27 31 29 23 39 29 42 28 33 42 32 36 27 40 35 26 28 29 22 28 37 29 36 34 31 40 34 33 33 35 34 33 35 37 27 29 34 35 29 36 34 41 27 31 31 32 41 39 26 25 30 26 40 34 36 27 22 35 31 37 28 34 38 28 21 28 31 30 25 30 38 32 34 38 39 31 46 34 24 28 34 30 31 37 32 31 31 32 32 34 33 31 38 37 25 29 26 37 28 34 29 40 37 30 40 19 37 28 36 26 26 27 31 33 28 29 29 34 25 31 22 25 24 30 32 31 38 33 43 27 36 33 42 27 33 35 35 37 35 30 47 30 34 39 36 35 31 24 30 32 32 26 30 36 32 29 30 43 27 31 26 30 35 33 40 34 38 25 28 27 29 30 33 29 34 38 35 27 37 34 44 31 43 35 37 39 41 30 33 29 25 40 38 34 27 36 34 24 31 40 23 30 35 40 31 34 25 33 32 40 31 31 25 30 32 35 34 32 27 32 29 25 24 37 31 36 38 30 29 38 21 30 35 29 29 31 27 22 27 33 34 41 43 37 50 36 36 31 37 27 32 28 23 30 25 30 25 26 38 33 34 37 31 29 36 30 40 37 29 45 27 36 29 40 32 28 37 38 39 28 35 40 27 35 33 40 33 29 30 34 28 37 32 40 37 32 28 20 37 25 31 34 35 37 36 38 28 38 35 34 32 26 36 32 25 34 34 33 27 24 30 33 34 37 42 26 27 30 35 32 26 27 32 33 28 38 35 34 33 37 34 23 41 32 30 35 38 44 33 27 53 34 33 33 29 33 33 23 30 38 18 40 34 38 32 25 27 28 30 32 37 26 37 26 38 28 47 36 32 19 27 39 29 22 29 34 32 32 37 26 27 41 27 30 42 34 40 37 32 42 25 32 31 28 29 28 25 43 38 41 40 28 46 38 29 33 35 44 32 37 33 24 35 38 26 31 33 39 28 37 34 28 28 37 29 36 32 31 43 28 27 36 33 32 38 36 40 28 30 47 39 33 25 42 30 30 38 34 33 33 41 35 30 35 29 31 28 39 31 34 31 32 31 35 34 22 35 28 26 24 35 28 41 39 38 37 29 31 32 29 29 20 26 40 45 30 36 40 29 31 32 32 29 42 29 48 30 32 44 31 35 32 30 24 31 31 27 24 33 33 30 20 29 44 28 33 35 38 46 26 33 42 22 25 30 40 36 24 51 32 39 27 44 34 41 32 34 25 34 30 25 34 25 34 30 32 30 34 23 34 39 39 28 24 27 33 35 41 25 28 26 46 37 30 32 27 38 26 33 33 25 29 37 30 38 35 40 41 29 40 40 30 40 32 29 26 44 34 28 32 36 32 33 37 26 29 37 43 35 29 39 34 21 28 27 28 25 30 28 41 37 23 47 46 28 29 23 30 38 35 32 29 29 34 29 33 27 25 31 27 34 36 35 21 30 33 39 19 30 25 31 31 26 41 36 30 36 38 31 28 27 25 40 19 43 27 33 33 25 35 36 32 33 35 27 35 29 39 29 34 38 40 19 32 25 34 40 36 35 35 37 48 27 50 31 33 31 26 26 33 43 34 23 33 30 37 40 32 40 35 46 39 37 34 30 33 41 32 37 31 28 42 25 28 35 35 26 23 27 27 39 29 26 41 35 33 25 29 29 36 39 28 39 30 25 40 27 32 39 31 28 34 34 36 29 26 45 25 32 23 33 44 29 41 27 46 26 28 42 35 40 29 25 35 39 28 29 29 38 34 31 27 35 42 34 37 29 33 31 33 32 39 31 30 27 26 30 29 29 33 33 35 46 31 39 33 37 30 39 37 26 35 30 35 41 47 29 23 28 25 38 25 32 34 30 27 28 29 33 37 38 35 40 33 27 40 37 30 31 37 34 38 35 32 31 28 32 36 36 18 43 31 34 41 30 27 43 46 36 33 26 27 35 35 29 30 34 41 24 32 40 33 29 26 22 32 36 40 25 31 28 29 33 32 35 27 30 33 30 31 34 23 24 34 40 44 31 28 26 29 30 25 29 31 29 33 35 33 25 28 36 41 35 26 27 29 30 30 38 40 40 34 46 35 28 31 33 33 31 40 28 35 27 28 32 36 29 31 40 26 28 42 39 23 31 27 43 36 28 40 30 30 35 34 41 26 32 33 34 44 29 28 44 36 32 32 32 32 35 30 48 32 33 31 36 31 32 34 30 31 34 28 31 28 42 26 34 29 32 37 37 38 26 33 32 37 38 31 28 32 32 29 31 38 24 29 31 28 23 31 24 32 26 35 40 23 42 28 39 34 36 40 37 39 30 37 24 31 35 29 28 37 25 34 28 27 46 37 39 25 35 35 34 30 30 28 49 38 42 41 39 34 36 35 35 36 37 35 43 22 33 22 32 30 33 26 33 30 33 35 27 26 34 26 31 24 37 34 26 42 29 35 42 29 32 35 38 31 30 44 31 30 33 40 32 30 32 31 37 34 28 27 35 39 25 33 46 30 38 33 33 42 20 27 46 30 38 39 26 28 42 35 27 32 28 27 23 30 35 28 27 38 40 29 34 35 32 39 27 30 27 37 38 37 36 34 34 25 36 35 34 33 30 35 28 27 30 32 33 31 30 24 30 27 29 25 33 39 26 35 41 41 34 28 26 46 33 30 25 35 28 35 30 32 19 34 35 33 31 37 49 37 37 28 26 32 30 28 35 37 39 31 37 32 37 27 31 30 43 30 37 35 38 38 28 30 26 41 39 31 24 34 28 33 40 29 26 40 31 30 30 26 35 29 46 31 24 25 28 40 24 32 30 30 32 36 39 31 35 28 32 27 24 33 35 40 37 26 36 33 37 27 30 32 32 42 38 47 38 41 24 32 39 38 31 28 31 31 37 41 29 33 32 34 33 39 33 31 39 46 37 41 37 37 41 34 31 29 36 35 35 28 22 26 36 31 37 36 31 36 33 29 31 32 38 29 35 29 22 34 42 36 32 39 37 37 37 19 27 33 35 23 29 37 31 32 37 44 32 38 41 30 27 30 27 35 30 29 33 31 29 35 42 27 29 23 28 38 31 33 17 37 26 38 33 39 35 28 26 33 33 33 37 32 36 28 36 35 34 39 25 32 26 44 34 24 37 35 44 39 31 33 33 23 25 44 29 29 29 37 43 33 29 37 32 27 33 34 21 27 31 36 30 39 27 41 24 27 42 34 31 28 32 30 27 20 33 35 34 32 27 45 27 33 38 30 41 42 44 44 32 27 24 36 36 32 38 37 28 34 24 29 24 37 42 34 26 38 36 37 32 31 39 37 36 32 27 30 31 36 27 33 26 31 29 33 35 33 34 29 25 25 39 40 37 35 36 23 33 33 33 26 28 29 36 40 34 31 35 32 39 35 40 35 30 34 34 26 29 32 40 34 33 38 32 42 27 31 43 29 33 31 37 30 25 32 42 31 32 22 34 29 38 29 38 33 26 32 35 33 29 35 33 30 31 27 34 32 34 29 44 39 22 36 36 41 33 38 34 42 37 38 30 21 26 29 34 27 33 22 39 32 33 46 23 40 37 39 28 37 33 29 35 34 31 37 28 35 27 25 36 30 33 33 29 29 25 37 34 35 41 29 35 26 35 34 31 35 25 26 30 36 28 40 37 33 34 31 39 35 43 28 28 36 30 27 35 37 28 30 35 46 25 31 25 42 35 30 29 37 27 41 28 32 32 22 27 32 27 27 34 34 31 24 32 38 28 39 37 33 35 33 34 24 32 20 39 39 44 32 35 34 40 34 31 40 28 30 30 33 34 31 33 50 26 36 43 35 40 39 31 37 31 34 41 37 37 31 33 32 42 29 32 32 31 40 38 28 33 29 34 33 27 42 33 43 32 37 32 29 32 45 45 39 30 36 30 40 31 39 36 37 41 33 35 38 40 35 26 41 39 33 26 33 32 35 29 26 28 40 34 30 36 36 34 29 35 29 34 35 43 39 25 29 22 35 28 28 34 35 30 42 25 33 28 35 34 24 41 42 31 37 29 27 32 29 43 26 33 36 27 32 37 36 32 30 29 31 35 34 34 30 29 43 32 28 34 39 42 26 39 23 35 28 31 40 38 37 31 36 35 30 30 30 22 29 29 25 38 30 33 27 33 21 35 40 28 38 36 38 29 30 16 30 43 37 41 33 26 28 28 36 32 33 38 42 32 26 33 42 27 31 26 21 35 21 29 32 27 30 35 27 31 34 32 30 39 40 37 34 47 31 24 42 38 30 30 35 30 46 40 29 42 36 40 28 32 38 42 36 41 28 33 28 35 29 34 30 46 36 29 38 33 42 28 29 28 33 28 35 32 35 36 35 33 26 25 47 44 43 33 25 27 21 30 30 31 28 30 27 30 26 21 42 33 38 36 36 24 37 30 37 38 54 21 38 36 30 35 37 32 34 41 28 33 34 32 31 27 36 26 35 30 26 38 32 38 28 33 38 16 26 30 32 37 43 27 25 33 30 26 31 32 32 31 30 30 23 41 23 27 24 32 26 37 27 36 28 31 29 32 26 44 39 35 22 47 35 30 36 33 27 36 37 24 36 39 34 25 29 32 31 37 29 34 32 26 24 37 33 33 41 31 31 32 37 24 29 39 28 19 23 35 35 30 27 37 34 30 24 35 40 23 39 41 34 25 40 34 32 31 33 37 36 29 28 34 33 40 30 28 28 34 41 37 35 28 32 29 33 34 33 44 28 34 25 39 25 40 30 31 37 21 37 31 35 34 30 35 31 26 33 34 31 25 33 27 42 39 29 37 44 39 40 29 28 28 40 23 28 28 38 38 44 36 29 30 24 44 27 25 29 32 30 33 36 36 23 32 36 29 32 30 35 33 26 37 27 37 36 30 20 35 32 32 28 28 35 39 29 22 26 36 30 30 26 38 34 29 34 30 34 22 33 38 43 37 36 30 32 39 43 33 38 30 35 35 26 37 31 33 29 36 28 40 40 33 37 37 23 40 34 28 30 33 32 28 23 35 33 37 30 34 30 34 38 31 33 31 27 26 32 32 31 36 31 38 37 41 43 39 33 28 38 34 33 29 34 28 33 31 31 25 29 32 33 29 39 30 41 38 37 35 38 37 27 36 44 24 36 34 45 39 47 40 28 28 39 33 35 36 30 27 38 21 30 31 29 32 30 34 33 32 36 33 31 24 38 32 32 48 36 25 25 42 35 38 29 32 29 27 26 28 36 33 30 28 25 32 42 28 39 33 29 33 41 25 25 26 31 25 39 39 38 31 39 31 25 32 33 33 29 33 32 31 35 31 23 49 28 39 30 39 44 32 26 33 31 28 33 38 30 33 42 42 42 38 39 40 31 24 35 41 35 31 41 33 38 38 21 31 34 31 33 27 35 27 38 28 30 27 38 35 28 46 34 30 39 25 29 32 28 35 38 25 43 32 26 35 39 42 27 29 40 37 40 28 28 42 28 35 34 27 38 33 30 31 28 33 26 36 31 37 32 33 37 27 38 42 29 31 27 37 30 40 33 28 32 39 29 31 24 30 33 42 28 40 22 35 28 26 35 23 33 47 28 43 44 29 36 33 35 38 39 27 27 40 39 23 34 30 36 23 29 33 39 33 33 22 41 30 27 35 34 35</t>
-  </si>
-  <si>
-    <t>EXN(0.43942465434648187, 232.8655919443612, 47.630949929612726)</t>
-  </si>
-  <si>
-    <t>277 335 284 255 234 267 185 341 329 239 224 300 175 258 228 252 181 246 221 200 301 270 204 251 227 272 187 90 263 189 260 308 273 242 264 221 248 288 177 209 261 268 253 257 163 258 243 193 293 210 222 222 147 207 231 272 238 259 260 288 236 251 277 200 311 305 213 212 196 213 318 225 259 167 210 286 246 227 155 303 301 161 341 324 287 242 281 260 304 272 314 293 305 285 248 229 291 195 264 296 238 293 212 222 261 286 235 261 226 263 310 256 291 210 251 264 286 263 247 244 236 294 258 348 234 222 275 197 270 228 199 279 278 177 461 279 262 226 292 236 261 192 280 260 223 202 404 259 265 285 162 259 277 240 174 287 295 266 246 293 307 354 246 252 314 245 227 370 211 210 268 248 217 317 219 368 260 262 249 224 275 243 187 177 263 295 213 238 296 192 175 200 253 302 260 324 333 343 226 259 263 297 220 138 302 225 321 286 223 341 284 258 324 314 302 263 158 183 259 261 205 278 296 230 226 211 211 288 301 212 221 249 171 188 297 240 394 366 356 177 258 227 280 318 292 232 124 227 216 246 253 268 229 309 271 218 207 309 209 301 205 227 216 244 301 256 229 217 318 360 289 237 283 279 273 227 117 266 251 176 224 298 251 202 244 264 260 240 328 225 303 133 197 207 230 244 296 337 274 153 286 282 235 266 314 264 231 286 265 248 371 145 312 274 301 240 313 318 208 236 221 199 277 266 160 200 289 283 225 309 242 309 231 197 275 204 208 289 180 301 150 186 229 154 268 313 248 323 325 286 191 251 254 272 316 290 198 220 317 211 213 321 206 250 350 229 265 234 246 263 343 235 223 251 323 223 267 260 209 286 240 179 198 301 318 208 353 226 232 261 344 320 229 232 239 292 331 152 201 217 297 199 248 233 223 182 172 298 235 277 333 172 300 277 300 249 242 251 328 291 240 217 270 258 255 232 303 258 371 250 267 269 308 242 276 242 219 196 218 342 283 265 190 263 256 207 243 285 372 217 126 320 261 335 264 362 351 269 278 181 286 207 247 267 277 278 205 297 185 233 188 203 315 230 307 195 248 241 341 228 258 272 251 264 263 306 179 341 280 215 299 233 250 311 173 337 382 292 394 200 117 202 314 282 241 261 307 200 262 315 267 274 289 291 160 258 229 284 170 246 214 274 223 283 245 206 308 321 220 279 273 256 297 316 245 319 266 253 321 199 296 225 241 277 258 300 210 214 169 343 246 193 256 234 300 291 227 227 320 238 219 240 105 263 249 411 304 336 266 287 308 240 218 243 214 177 276 261 261 225 283 209 252 297 337 200 314 167 250 204 320 188 203 183 293 181 252 150 224 377 206 272 246 347 233 269 233 355 316 260 224 432 192 176 212 233 278 261 286 218 251 189 282 183 186 277 345 232 327 194 206 276 258 273 222 300 245 247 311 191 170 329 174 245 392 283 236 273 279 245 266 264 248 244 241 313 248 255 217 257 258 274 287 193 225 227 216 290 191 204 185 322 220 183 259 325 330 206 314 230 316 253 177 134 157 269 250 154 231 221 298 263 219 389 191 232 294 245 270 263 199 161 270 224 226 245 305 278 294 280 259 227 328 210 251 256 276 201 287 298 281 270 200 177 124 213 300 220 176 282 190 302 299 275 239 352 197 209 216 255 354 241 232 186 305 209 250 234 221 295 207 236 250 325 214 184 209 201 305 261 214 254 174 294 242 214 173 282 186 209 213 353 278 202 180 315 301 262 254 210 240 358 262 314 305 234 239 217 243 160 195 299 247 200 191 285 289 266 147 296 216 270 236 233 203 170 226 194 269 193 242 202 260 239 267 244 327 247 230 237 223 261 192 223 247 300 281 281 282 235 210 199 156 247 267 150 229 304 189 208 164 288 158 307 297 265 279 296 277 300 279 272 279 149 334 212 249 295 269 258 223 191 214 245 262 243 213 208 251 293 266 258 221 295 299 244 198 313 234 228 255 190 261 272 166 248 200 309 286 315 295 263 216 282 256 187 286 172 252 336 337 270 274 274 178 276 233 416 252 324 276 199 339 255 194 291 235 307 161 265 174 281 271 310 201 235 190 307 240 208 292 136 200 257 217 256 241 217 187 297 353 281 167 240 291 265 288 261 324 186 332 105 207 270 344 289 144 165 225 242 266 170 222 282 321 276 255 275 152 311 264 288 222 176 234 240 243 191 208 269 321 150 247 184 202 234 241 270 288 226 221 334 277 195 241 262 226 165 254 284 260 257 381 322 168 218 312 293 209 200 344 227 311 262 262 174 300 331 256 236 259 253 272 251 223 192 304 218 233 262 321 168 164 123 205 208 303 178 177 268 247 242 190 303 188 289 189 293 244 228 141 226 213 274 289 279 229 155 233 219 247 300 159 295 278 334 276 267 296 184 265 140 197 226 171 297 269 241 202 294 176 296 330 301 311 321 225 236 335 351 222 266 192 257 343 200 252 185 235 374 305 317 247 346 263 230 330 229 270 177 193 304 234 242 352 256 229 239 266 249 214 310 239 237 268 248 292 251 370 195 164 264 221 357 330 274 304 298 246 302 224 250 286 229 259 356 269 131 190 355 215 277 260 234 243 202 270 185 158 172 201 343 252 235 320 242 255 171 252 172 281 281 295 232 359 251 269 221 208 204 334 231 206 272 424 346 292 256 169 243 307 311 295 324 270 284 252 287 287 123 259 225 181 276 247 258 256 243 163 204 268 258 284 243 182 263 229 184 297 308 232 254 301 307 287 231 192 255 154 273 243 260 294 237 191 259 201 272 192 208 203 293 208 281 350 291 270 299 264 286 346 220 257 254 194 296 256 214 234 308 185 107 290 269 213 296 287 150 283 173 298 245 258 253 142 273 355 180 170 261 219 289 235 298 259 286 274 301 241 321 245 229 194 293 247 311 209 236 249 236 273 275 231 226 225 160 313 322 236 221 275 206 175 244 275 176 338 240 284 268 305 124 278 223 192 252 244 305 267 282 168 197 213 315 211 341 198 239 201 250 243 216 180 358 249 169 189 252 231 277 169 299 281 294 263 256 314 240 308 262 192 282 347 232 266 225 305 260 286 319 214 253 310 212 253 312 196 287 317 215 301 274 339 295 265 224 242 136 305 264 229 274 400 200 128 234 213 209 270 216 228 324 275 196 243 225 258 197 243 252 155 234 154 190 219 280 306 287 243 313 239 312 242 278 167 255 229 283 224 226 191 263 236 264 180 210 261 271 278 213 352 343 253 225 242 272 262 314 158 283 214 257 288 307 291 311 291 227 230 271 227 321 255 292 194 190 302 188 326 245 276 267 288 243 255 250 275 411 211 181 302 165 214 278 275 130 207 195 197 221 250 291 250 290 298 226 233 335 289 268 199 239 301 333 226 340 283 215 191 252 336 243 298 210 227 228 262 272 318 261 249 192 226 215 203 169 346 220 240 280 322 264 214 302 237 309 246 209 209 224 261 281 267 213 183 245 224 300 215 189 329 199 240 192 243 253 356 194 329 285 191 203 251 192 218 194 214 186 275 289 190 190 285 231 246 270 231 208 180 295 241 259 231 192 271 198 262 225 206 226 162 222 359 186 282 274 296 213 185 164 253 308 187 249 182 306 248 210 223 333 301 231 273 149 294 182 242 298 310 199 186 267 175 258 326 228 212 252 236 174 255 290 275 195 180 306 194 193 244 321 160 352 310 301 305 232 286 322 240 288 234 260 235 388 238 247 273 344 188 265 305 244 250 145 318 195 128 289 210 266 213 152 176 233 254 263 311 293 188 291 292 133 276 273 210 278 274 218 338 118 286 313 233 252 261 203 215 276 238 262 340 176 289 321 196 216 205 236 287 212 291 280 228 281 280 297 261 342 302 200 184 203 215 244 237 263 209 214 206 249 269 233 255 268 186 283 255 220 243 210 288 328 308 224 246 280 307 202 277 247 295 269 276 236 273 193 310 263 239 336 278 168 224 210 130 288 223 361 286 306 254 281 257 218 313 303 301 212 185 238 210 273 174 225 224 295 329 199 225 255 219 374 188 314 331 233 221 207 246 275 274 254 251 269 276 263 249 239 195 304 316 211 257 242 259 173 159 174 168 348 290 265 237 274 268 127 227 259 303 127 179 273 266 255 243 228 266 257 259 179 231 326 252 203 380 273 297 367 224 266 298 270 207 178 239 277 267 275 238 258 340 210 220 193 347 248 214 294 224 317 312 297 229 282 261 289 292 232 277 302 260 250 285 281 178 214 236 248 249 325 225 323 283 217 285 153 262 228 402 301 191 226 223 256 187 277 273 209 281 227 226 235 338 170 288 187 230 372 249 293 275 317 272 220 199 256 205 221 239 268 318 301 326 232 202 223 270 149 316 307 211 290 363 218 277 239 314 303 209 234 349 229 291 236 280 204 252 324 254 348 263 228 209 305 175 236 307 216 209 309 283 208 297 195 218 230 262 194 289 213 204 250 230 264 294 239 210 272 225 287 238 269 237 241 191 289 140 142 288 263 294 192 192 181 285 286 300 288 347 258 214 281 289 270 267 230 228 208 177 213 264 347 347 213 190 372 324 220 222 214 288 311 275 224 254 271 233 275 288 175 299 325 212 320 281 303 279 195 282 237 212 278 236 194 276 266 336 238 286 286 287 231 225 238 235 340 198 199 246 196 161 248 260 328 284 281 233 212 235 277 271 179 279 226 303 326 144 259 334 192 208 228 248 206 352 206 208 165 242 325 274 192 287 207 208 271 341 269 219 294 273 260 209 196 326 254 247 253 189 287 220 278 197 308 328 212 305 199 216 241 149 230 263 200 260 259 243 259 220 278 148 230 247 398 185 311 254 213 236 181 181 325 278 313 224 209 117 253 308 240 264 249 320 318 249 258 258 266 196 373 238 329 321 304 235 348 161 289 226 228 248 206 237 282 220 257 179 323 258 191 289 274 219 168 266 253 254 231 247 188 230 260 303 296 192 231 192 192 204 280 253 283 187 161 130 257 279 293 309 204 308 271 242 232 291 208 321 210 274 235 286 408 225 287 213 263 257 331 247 323 261 285 252 338 229 253 198 342 244 274 300 274 182 253 230 262 221 347 224 288 193 190 277 228 304 268 274 224 222 305 206 264 262 290 308 245 201 266 271 324 254 324 286 235 287 251 211 130 225 117 259 313 249 187 286 237 341 237 292 172 259 197 213 212 208 262 285 239 199 179 222 282 294 212 267 257 304 284 227 199 296 196 277 326 210 285 168 236 261 278 294 310 116 308 257 182 449 400 223 238 261 263 265 272 269 232 217 232 257 396 229 281 345 261 402 224 254 290 222 416 246 273 266 314 264 295 253 318 325 244 242 276 314 310 208 222 329 221 256 208 289 241 266 320 330 327 148 206 248 232 289 287 167 239 324 282 255 221 203 351 163 230 269 272 242 312 285 247 227 347 251 235 156 233 308 243 191 342 183 256 256 270 162 255 189 270 272 289 249 351 161 179 320 303 202 211 280 319 353 270 322 323 325 228 252 244 254 192 214 192 227 231 180 222 320 207 188 265 251 290 272 202 258 313 295 230 248 306 329 265 342 205 272 256 229 243 216 236 293 370 397 236 241 261 155 190 241 266 208 192 336 392 285 192 227 221 249 342 290 200 132 341 354 173 223 331 261 311 180 230 282 236 268 319 275 326 219 261 235 279 230 170 226 204 355 228 223 271 332 226 304 348 283 302 278 229 221 294 290 247 327 279 216 241 230 446 204 278 296 251 189 299 324 268 242 286 278 266 327 198 213 215 341 325 298 355 193 273 217 310 149 267 314 156 268 312 265 183 243 203 139 217 265 257 372 248 188 199 229 225 282 264 280 275 261 326 210 225 269 266 275 234 311 197 342 230 348 220 212 289 234 317 262 290 226 244 247 275 214 280 218 353 244 313 185 235 264 251 301 285 328 294 184 267 172 178 289 234 148 236 228 315 238 358 277 340 264 154 269 149 246 248 204 285 334 197 269 251 226 260 282 272 214 325 267 234 291 238 237 206 225 225 325 237 406 290 180 284 199 166 298 273 293 281 358 331 268 192 233 152 88 271 206 257 309 184 220 229 231 348 177 307 290 273 320 245 310 257 326 189 274 285 318 186 172 329 311 212 225 253 241 254 178 198 305 226 335 323 219 274 298 304 303 260 152 258 205 247 227 236 274 285 258 227 219 305 274 288 266 245 249 189 257 315 153 349 246 218 328 221 245 278 316 180 352 267 307 326 184 197 279 153 267 223 398 250 298 278 336 231 141 140 260 234 220 229 252 197 389 332 129 229 269 316 240 340 334 196 254 195 206 205 239 236 309 153 236 220 301 292 297 357 320 225 256 267 283 310 249 224 187 254 243 213 244 305 230 271 232 300 247 190 256 202 257 268 317 249 274 286 343 242 321 231 252 355 225 194 236 323 382 239 252 199 205 204 238 252 270 228 160 219 281 244 270 272 276 137 156 186 258 274 294 245 283 170 286 306 195 225 333 270 179 273 287 209 234 282 203 190 258 203 167 212 257 204 201 183 268 268 297 301 351 213 192 253 328 287 263 188 302 245 195 238 239 194 220 261 294 235 169 312 131 317 259 225 258 227 254 213 239 173 218 196 247 167 276 201 325 305 219 195 197 225 272 201 310 296 184 274 246 189 266 200 285 248 234 332 124 216 265 355 257 260 268 253 252 310 287 373 327 229 262 260 247 215 226 308 203 262 240 225 282 241 298 285 348 258 272 277 294 114 244 174 279 201 300 263 238 201 323 203 233 288 223 308 186 164 222 179 257 292 237 234 269 174 209 188 195 304 326 257 104 180 244 283 243 236 277 244 184 307 123 329 309 176 218 307 192 272 326 252 296 279 299 279 246 220 301 281 272 159 238 270 256 247 159 328 253 273 271 307 269 313 274 206 238 328 292 239 176 277 224 225 245 204 177 298 257 286 260 262 281 273 249 286 122 179 208 273 199 239 255 141 220 234 169 309 258 257 314 101 250 242 199 218 296 326 282 193 166 272 175 326 249 274 301 281 273 210 265 232 271 195 146 183 223 250 257 178 377 295 236 281 148 215 303 310 302 223 298 137 215 227 245 223 261 235 324 272 262 318 348 220 253 239 281 254 279 221 244 255 225 225 210 223 210 164 262 256 286 264 230 229 280 270 349 168 209 175 320 176 261 232 283 248 238 336 226 300 275 296 166 305 289 213 218 186 314 161 181 269 260 242 223 247 210 250 287 225 305 209 354 225 345 198 253 251 251 232 249 165 293 240 156 245 187 282 287 221 331 229 239 320 235 359 354 336 264 224 222 293 185 249 249 266 310 169 208 297 255 220 171 249 152 258 278 235 400 231 217 280 232 185 212 173 290 331 285 197 246 215 175 197 248 212 272 247 260 192 221 299 262 248 268 277 320 298 321 264 214 303 282 247 339 309 246 246 277 334 292 273 285 253 134 327 265 271 229 263 369 316 269 293 266 171 196 214 232 282 219 201 322 351 189 308 289 246 237 214 320 280 227 224 292 306 160 235 285 320 280 291 303 306 232 223 268 301 250 160 176 169 246 241 199 240 159 208 260 186 262 299 275 169 214 228 324 217 209 321 276 213 266 244 298 271 173 240 197 185 271 198 340 297 251 272 315 250 176 237 328 297 363 251 292 218 417 193 247 204 220 264 178 216 286 269 135 167 308 209 245 154 298 252 335 208 310 301 220 220 244 280 180 256 260 152 215 196 245 335 319 197 287 264 200 196 226 232 345 287 316 216 335 178 248 193 270 270 246 196 203 263 200 247 240 185 202 218 226 223 234 308 192 240 321 349 264 175 345 193 278 334 220 340 228 299 190 276 252 216 336 200 252 237 317 306 257 385 199 241 303 207 227 226 243 277 290 255 150 354 195 262 202 239 204 187 299 254 155 328 299 295 170 253 245 242 220 285 259 251 236 341 241 182 277 257 235 140 220 302 234 185 255 250 299 205 177 259 211 195 202 366 249 153 277 181 237 192 259 311 216 195 172 321 369 240 351 201 454 301 287 226 282 266 245 321 194 347 251 314 324 259 270 248 247 253 268 247 120 194 202 249 307 229 218 243 296 375 243 260 262 310 307 240 262 279 280 218 291 242 356 257 248 218 264 240 225 228 250 299 264 196 275 318 162 192 293 326 315 188 221 314 283 297 222 260 331 163 318 252 300 248 247 248 358 212 247 316 202 270 268 231 255 214 240 295 212 448 202 164 266 329 156 283 338 248 217 263 317 250 245 241 373 235 152 288 222 169 294 474 169 230 298 286 236 315 217 287 256 232 183 246 303 249 282 294 169 278 225 252 202 247 299 229 285 175 189 285 250 231 256 307 296 277 200 190 304 130 267 226 242 339 239 351 209 198 188 218 234 361 276 138 208 298 181 300 236 257 204 317 227 171 241 269 257 308 294 280 218 300 246 270 325 215 203 281 286 253 253 173 187 215 312 266 227 312 246 181 274 307 230 222 180 361 349 288 298 345 215 267 245 279 216 307 109 221 241 275 243 275 287 241 217 298 320 266 233 265 216 288 176 275 201 219 363 276 187 261 266 214 222 222 197 273 263 252 265 255 147 348 242 282 282 239 297 226 219 281 259 247 246 153 226 167 232 208 275 284 243 184 270 256 191 182 292 162 326 276 185 223 113 322 195 253 352 244 186 181 264 276 253 256 248 296 321 212 232 275 179 376 282 251 272 338 215 323 307 223 273 294 255 318 382 213 194 265 303 300 248 255 236 251 274 228 218 197 228 277 251 210 231 203 282 269 308 276 207 233 313 357 307 258 320 221 290 294 285 213 246 352 191 181 304 191 234 254 293 268 287 284 192 293 287 228 359 273 311 241 331 227 249 259 222 270 254 271 140 195 335 208 146 183 298 225 310 236 272 278 242 267 264 247 296 260 244 259 194 297 286 299 268 267 334 216 198 256 291 218 241 162 272 239 306 313 226 332 164 242 163 228 232 179 330 221 266 182 106 269 359 184 265 264 237 239 235 343 223 224 265 178 312 272 299 275 272 268 193 242 271 165 289 204 226 290 271 138 248 237 281 272 236 147 202 222 251 258 236 344 283 347 278 246 154 235 267 258 211 276 273 250 220 209 289 288 284 280 218 364 236 361 278 357 342 205 249 258 217 250 288 368 155 262 201 177 153 282 263 299 184 211 254 230 300 195 344 212 255 214 274 289 315 266 258 370 260 309 256 284 289 254 197 340 155 270 302 295 230 194 159 234 270 308 289 327 219 285 265 142 259 252 316 240 403 237 274 278 227 304 186 185 218 271 239 269 257 261 300 324 271 230 226 384 295 304 242 251 304 277 231 245 296 354 257 231 153 253 304 290 336 210 375 290 277 183 276 245 306 331 260 301 237 269 188 222 173 228 322 232 222 326 263 263 206 268 201 248 297 293 214 323 270 293 225 235 201 189 171 308 216 262 292 256 272 226 246 269 246 212 245 309 164 198 342 258 273 231 251 310 233 280 285 143 317 294 222 176 193 327 368 226 243 214 243 258 269 230 233 310 285 273 213 229 303 189 264 201 217 194 208 271 212 172 304 208 310 211 301 287 353 354 233 238 336 197 197 256 309 259 201 264 253 235 277 235 305 261 211 230 215 290 300 281 259 302 241 255 306 269 235 309 234 214 332 291 262 249 309 216 222 277 251 256 183 233 239 351 301 322 243 316 216 209 207 230 235 221 303 248 209 224 268 293 242 263 201 214 262 218 242 269 291 229 267 278 304 218 289 248 307 198 277 138 213 275 194 147 221 215 158 232 242 183 268 273 259 207 244 204 319 246 350 153 243 335 258 344 241 192 232 279 250 355 270 211 181 299 300 344 212 226 215 306 217 212 243 254 189 271 241 364 216 254 279 252 260 256 261 186 273 248 213 291 278 220 307 328 328 231 261 283 249 294 287 278 186 231 274 311 193 185 204 244 219 267 258 214 273 379 154 254 328 245 202 269 280 300 295 249 317 204 189 189 342 224 258 144 205 225 310 247 265 131 323 277 137 328 265 329 290 264 262 273 300 178 195 265 292 291 329 283 110 234 296 260 259 298 173 230 307 283 310 281 256 290 251 198 217 290 302 131 255 263 272 230 228 273 244 210 254 308 255 165 280 215 336 254 227 302 260 326 279 251 255 239 324 194 229 236 330 259 251 169 229 246 337 200 235 317 300 207 277 216 265 289 246 286 228 265 224 289 318 247 306 216 186 273 292 299 384 222 256 206 231 227 281 376 246 301 301 245 282 257 348 273 132 258 318 237 276 280 251 204 233 198 248 194 287 235 279 274 202 283 230 222 276 279 271 322 376 290 412 433 279 223 305 297 254 308 341 265 246 137 288 292 267 268 250 191 210 319 202 272 175 252 179 232 239 237 238 157 191 145 229 355 241 244 264 246 195 244 239 254 157 254 227 189 283 153 298 220 237 300 320 320 311 180 306 224 277 245 188 208 248 202 242 268 236 186 249 306 231 420 205 173 216 354 229 272 249 199 311 148 367 241 269 209 330 326 327 257 321 344 258 256 220 323 340 256 258 149 354 183 316 251 261 232 256 288 291 219 457 249 234 355 164 261 225 420 231 257 282 314 251 277 289 218 194 251 213 261 233 329 237 297 308 189 278 333 273 315 257 253 260 232 273 160 239 193 289 202 243 273 213 245 295 175 225 154 247 222 252 262 248 290 165 250 229 280 326 321 285 249 283 167 341 227 236 188 266 244 193 292 280 371 286 199 173 296 266 297 289 291 151 237 286 291 219 235 270 306 287 203 287 207 305 242 225 348 216 147 258 169 214 252 253 205 246 301 258 225 155 172 324 336 217 235 232 202 273 212 330 333 272 224 213 238 263 266 289 254 283 264 222 197 194 161 260 193 264 320 339 203 224 238 251 233 224 240 278 191 247 342 310 232 190 153 177 266 194 178 210 255 214 256 227 270 224 270 313 276 437 265 393 264 301 278 271 246 293 229 278 230 271 202 174 113 232 210 180 259 275 189 296 239 450 210 258 252 149 206 187 264 190 257 259 247 170 274 286 253 330 255 269 255 246 176 257 351 288 165 294 207 176 201 258 306 304 192 281 194 246 258 220 233 134 221 251 314 273 181 291 196 329 345 306 279 139 223 248 232 263 172 348 260 227 208 269 231 294 152 336 227 211 223 333 270 192 161 311 330 266 248 276 270 313 175 216 171 272 169 292 277 278 235 208 396 286 250 346 162 260 283 262 287 248 276 271 214 251 347 315 260 354 218 216 204 284 344 274 334 214 355 246 202 231 238 187 191 267 326 175 209 351 184 235 294 202 274 228 268 286 195 250 270 227 234 222 232 266 286 140 198 222 211 341 261 169 219 329 260 215 341 298 328 314 308 285 275 207 103 278 242 300 210 236 161 163 247 241 293 277 221 286 232 293 280 299 304 290 272 282 139 221 250 265 225 240 267 238 186 240 221 164 232 212 287 345 285 207 290 232 192 207 278 302 279 180 213 265 192 260 262 285 255 234 242 251 201 308 292 254 250 134 234 233 254 269 156 262 253 237 385 345 272 338 236 336 222 253 366 262 133 282 265 288 254 198 250 235 234 311 121 239 308 248 125 275 229 152 254 241 229 243 218 233 174 202 311 222 265 248 241 130 279 321 282 338 268 177 308 226 241 299 254 312 263 226 281 263 227 284 365 234 301 181 156 269 183 278 146 216 160 377 343 243 274 203 213 282 288 236 133 366 294 362 270 292 262 269 265 225 236 278 307 304 237 154 279 223 335 330 304 287 189 239 247 273 247 235 236 221 304 325 269 217 199 246 195 162 217 286 200 313 139 255 246 228 304 254 241 235 310 347 232 197 275 245 199 276 224 209 268 253 245 325 123 177 211 234 345 181 208 330 248 356 163 299 204 288 242 292 187 234 230 244 254 381 235 276 368 174 188 303 223 183 238 281 219 307 187 201 270 265 290 323 272 208 247 282 174 174 249 238 216 239 267 287 217 289 165 258 288 228 309 286 160 335 250 247 205 223 152 231 292 266 209 364 269 219 301 246 284 360 216 273 323 201 306 255 340 253 199 223 228 279 292 202 243 211 232 229 158 244 194 195 275 243 373 203 266 312 211 260 222 178 237 289 330 264 258 199 268 263 229 240 288 211 247 185 192 283 236 245 310 239 203 309 272 308 214 199 296 246 199 208 153 368 391 332 274 268 249 311 249 294 183 232 252 265 229 307 232 326 335 206 96 240 223 285 267 228 223 283 198 180 289 225 297 193 334 269 269 267 210 247 220 234 302 293 149 331 152 220 216 258 192 303 209 342 179 253 279 209 194 192 312 332 265 188 308 225 263 196 228 344 244 277 230 295 312 259 290 190 314 191 332 220 195 211 270 268 274 198 255 296 220 425 297 187 228 217 314 229 183 296 206 237 288 219 276 296 272 195 254 256 377 230 276 294 199 263 319 320 259 211 273 275 224 321 235 265 317 231 236 312 238 243 299 285 196 275 361 213 151 260 308 211 278 298 277 249 237 175 210 275 251 213 206 227 264 278 306 280 244 270 286 304 310 276 275 272 309 260 223 180 314 251 186 171 303 198 237 264 346 228 189 277 361 154 229 223 239 326 208 219 319 223 262 281 209 144 249 334 240 317 181 265 292 223 157 228 290 272 276 240 218 229 354 215 263 206 245 267 307 239 239 322 329 272 245 270 262 167 222 174 209 182 256 292 240 223 243 325 209 308 308 264 205 277 195 245 124 237 318 264 201 217 253 155 208 240 216 195 300 268 203 190 330 198 239 347 289 244 287 267 248 137 334 183 252 253 271 315 309 207 290 206 261 229 363 279 274 266 256 239 254 303 304 185 179 279 222 268 294 348 245 288 262 236 305 263 163 224 283 365 239 240 231 253 277 276 306 358 240 227 171 216 295 267 252 329 278 208 227 254 214 283 305 232 228 365 151 346 166 350 153 220 282 263 223 327 294 296 262 265 274 279 356 213 241 250 361 268 264 186 267 204 241 353 256 219 315 311 168 150 319 184 282 233 240 260 309 193 323 235 180 328 265 298 442 237 340 203 238 164 328 257 236 247 282 178 239 243 183 295 181 232 275 376 242 250 275 319 235 281 192 337 226 259 264 202 353 340 279 207 350 226 304 225 256 223 266 280 263 248 201 102 284 252 211 267 243 209 323 314 274 222 241 301 273 198 273 218 239 288 229 343 341 186 188 257 249 275 202 204 309 164 156 179 284 241 201 308 249 247 267 248 212 303 304 202 289 181 323 275 277 279 293 203 216 312 300 302 229 232 203 356 244 268 223 210 264 177 306 286 290 307 311 322 213 340 167 254 325 176 156 265 386 330 186 202 274 296 429 224 286 351 211 276 348 211 247 264 215 231 275 272 241 366 320 247 201 223 234 255 242 289 244 339 220 228 269 239 302 154 298 187 280 277 251 142 232 311 368 303 212 230 355 268 241 224 308 196 290 352 233 267 250 268 265 276 334 282 359 308 244 287 203 253 304 322 248 299 252 272 256 318 253 284 160 231 294 296 223 336 240 186 289 205 206 316 258 275 240 278 291 324 189 291 299 160 227 265 379 282 253 283 200 292 178 225 281 344 207 346 247 286 345 238 190 226 224 242 262 217 193 233 275 279 247 255 254 337 244 250 299 296 238 252 246 246 162 196 250 279 234 222 279 253 160 282 389 306 219 187 276 274 329 284 249 205 207 260 254 244 228 202 285 401 199 287 190 239 267 343 256 230 332 210 138 290 324 326 240 221 182 228 287 318 303 297 339 170 294 242 369 219 217 368 282 197 258 299 190 325 268 210 265 288 210 308 261 285 219 271 221 178 266 386 269 251 228 287 230 397 262 222 267 200 140 250 311 281 251 256 271 170 283 335 164 272 192 232 332 226 184 270 207 250 278 259 152 243 327 216 360 252 215 272 220 276 261 263 167 236 233 269 279 210 254 297 287 143 314 348 251 234 265 251 269 294 280 216 182 243 246 287 241 233 251 206 269 135 211 189 154 284 209 251 232 220 261 268 275 289 299 205 279 284 270 301 279 232 289 261 218 226 287 350 218 241 257 335 259 177 254 343 325 233 212 335 251 341 257 242 210 222 241 277 243 269 367 224 305 231 346 170 232 290 216 265 146 204 219 239 218 262 386 334 173 281 219 149 334 252 267 200 171 201 209 249 202 242 303 381 226 269 273 295 345 268 246 258 206 236 211 141 304 262 275 209 183 204 216 262 253 330 244 311 306 185 272 209 242 190 273 289 241 204 375 275 250 194 295 267 260 227 243 318 266 349 224 340 165 254 198 255 241 255 219 263 297 162 320 265 185 265 244 251 298 294 182 140 173 206 185 337 282 234 236 230 182 279 298 193 234 245 213 280 275 351 250 273 295 226 262 220 190 260 234 294 340 296 263 177 293 192 141 244 254 306 326 257 254 196 245 217 269 202 296 219 220 235 196 329 259 371 311 233 268 286 306 242 332 239 228 260 319 259 320 238 158 180 147 210 241 243 213 242 263 242 335 250 254 294 245 285 228 156 227 184 180 300 222 274 205 233 188 282 232 300 174 330 240 236 351 324 292 313 277 193 194 188 181 329 204 270 235 326 301 237 223 146 238 192 208 184 189 273 296 256 336 276 286 273 234 349 259 248 246 224 300 236 236 184 196 162 266 254 283 291 341 288 342 186 184 225 192 231 312 234 299 380 220 237 229 247 389 287 185 291 178 195 225 252 355 261 292 315 284 256 335 302 213 334 217 242 210 264 223 154 206 184 183 266 266 343 289 286 260 292 255 225 301 232 275 299 225 194 153 302 275 201 254 278 335 266 265 213 236 287 298 244 344 298 230 323 161 158 319 266 325 236 209 239 299 230 197 161 204 237 252 321 331 291 205 264 252 199 294 284 267 282 246 275 300 238 192 257 278 256 239 222 256 265 202 243 218 269 249 290 264 248 322 255 354 287 277 261 216 247 236 227 280 263 269 207 297 230 186 260 184 300 230 216 243 260 188 289 303 237 228 202 241 247 279 237 216 247 186 242 262 302 211 332 221 285 297 282 215 221 257 183 206 308 237 193 208 311 273 209 252 230 189 229 228 153 197 201 226 161 372 214 305 325 227 382 214 200 286 352 196 232 266 179 255 268 162 211 334 162 230 283 238 275 231 262 290 238 296 238 248 223 213 265 242 241 288 249 199 236 332 223 170 195 217 259 200 241 158 218 328 219 300 279 424 282 156 310 245 180 325 182 329 216 177 212 215 228 309 253 183 219 185 263 204 206 189 321 199 318 277 236 318 263 265 197 256 333 138 327 208 228 278 335 303 350 256 196 222 249 157 217 177 355 255 284 205 286 294 262 312 181 245 281 285 235 248 302 241 318 290 229 187 315 298 253 312 214 285 182 279 244 276 432 166 252 214 270 251 225 292 269 261 283 288 134 424 152 189 203 326 247 235 303 240 324 178 260 259 201 281 244 253 173 289 283 289 170 314 256 249 222 234 252 218 231 249 174 253 201 164 301 304 209 269 274 249 312 286 297 262 227 307 228 138 179 250 153 302 283 141 343 228 262 153 310 305 202 272 238 196 187 194 273 341 175 187 315 169 278 185 278 387 230 189 374 294 314 318 228 281 176 195 208 290 248 294 298 282 235 252 302 296 360 282 258 221 198 384 323 255 297 310 279 313 234 194 267 281 230 230 237 247 307 302 251 193 229 246 279 302 192 232 288 272 286 206 311 284 320 323 248 217 153 239 233 177 233 179 313 330 182 321 262 332 182 334 326 256 216 245 212 368 224 137 273 293 258 265 264 320 261 240 258 197 203 255 305 278 219 251 265 253 254 235 239 316 312 298 202 240 231 185 246 277 336 387 306 276 198 216 289 280 354 241 165 340 255 284 177 260 212 228 273 241 298 294 284 332 168 223 247 290 183 272 250 139 263 243 250 227 272 330 204 307 352 293 210 247 318 228 340 193 188 288 205 265 136 344 323 257 275 269 195 193 320 339 280 330 251 323 199 202 139 223 273 202 293 216 215 247 265 297 211 309 215 283 260 336 266 268 233 139 202 238 263 172 231 240 263 274 312 340 175 238 199 278 340 257 209 179 256 278 345 253 141 287 261 201 228 371 278 226 228 234 230 342 231 338 213 188 311 180 294 249 147 259 308 195 214 231 239 256 176 194 283 281 214 209 229 414 206 249 248 254 239 241 270 222 237 220 279 194 146 185 227 243 240 243 280 197 220 348 280 181 237 292 259 240 274 249 218 288 261 215 255 224 242 227 192 309 326 319 286 361 264 273 178 279 252 253 229 235 198 295 325 298 285 285 344 272 307 295 262 252 260 256 327 280 235 218 244 338 176 199 392 297 276 349 186 190 231 171 256 294 263 234 173 304 163 246 180 210 336 237 228 259 212 241 276 278 268 227 265 233 174 238 243 268 320 217 202 329 290 318 174 174 296 183 208 276 310 273 242 336 166 193 224 244 196 259 127 326 285 302 316 261 240 228 206 201 155 160 241 302 262 251 257 346 199 282 241 344 262 296 212 258 140 256 285 217 205 280 312 237 367 221 202 222 253 213 267 276 287 388 299 284 196 284 340 232 281 314 354 193 231 265 256 255 205 286 271 184 192 297 342 303 260 303 246 231 305 244 263 308 326 325 228 252 332 304 304 124 207 239 293 255 282 369 281 206 297 205 284 138 293 409 200 307 319 273 264 296 191 247 184 237 234 158 311 311 323 154 335 251 146 345 224 390 314 213 310 184 244 210 226 213 254 177 274 168 227 271 220 192 220 283 191 203 268 355 266 223 225 202 260 241 222 317 378 245 225 282 299 306 272 305 287 270 195 252 311 175 340 178 316 220 239 285 299 326 265 249 221 271 238 286 252 240 199 188 242 244 336 182 233 269 224 206 297 322 243 314 254 221 192 181 229 319 234 266 248 321 228 321 218 197 354 249 197 144 217 175 228 253 263 215 278 267 237 247 221 194 274 253 305 263 319 234 255 248 277 272 257 177 339 177 214 295 244 333 307 205 158 240 227 336 224 316 246 187 262 355 274 194 337 254 225 170 220 235 266 223 224 305 247 248 263 330 220 416 307 175 234 135 184 206 269 239 239 329 229 286 293 260 344 285 325 169 241 174 328 256 258 272 259 275 247 293 111 297 316 226 205 239 156 242 223 195 231 214 190 197 259 172 200 207 284 297 190 382 254 313 226 235 270 328 230 199 293 213 313 229 236 367 225 265 180 290 255 298 233 212 226 265 195 295 234 240 266 247 202 253 249 191 189 281 274 311 294 302 187 206 200 233 226 296 275 256 318 308 186 285 220 368 236 277 256 191 281 319 256 271 207 235 226 370 300 206 266 251 231 283 300 174 245 268 185 256 219 165 173 254 352 279 272 234 307 195 231 248 219 270 321 161 235 172 290 210 341 297 206 182 262 172 255 276 171 203 279 249 198 253 322 311 290 295 244 372 321 257 190 237 176 254 215 167 239 185 244 194 147 295 274 273 270 255 216 269 218 274 253 235 294 260 370 206 295 289 206 266 335 293 189 254 366 240 243 277 306 224 256 211 230 230 285 252 263 265 228 187 141 290 217 205 213 256 262 300 322 194 287 181 267 210 231 203 271 246 238 265 275 234 249 190 212 243 277 298 255 174 238 288 271 208 171 237 374 260 323 221 324 306 305 234 210 290 242 213 264 259 344 269 138 335 293 291 245 186 250 282 189 193 322 129 344 214 372 258 205 264 245 278 273 333 239 291 167 300 230 317 315 264 150 195 306 242 146 198 290 245 281 236 157 162 303 189 301 333 275 275 274 234 282 215 208 284 219 224 256 219 370 341 370 260 249 341 245 227 276 304 343 279 303 239 179 294 242 239 220 337 311 195 325 268 205 232 336 226 303 266 278 371 229 174 299 287 234 288 221 364 205 176 296 283 330 190 309 256 303 265 244 342 299 357 278 239 304 229 238 194 331 249 342 263 252 255 270 260 135 346 243 154 204 241 197 326 255 267 228 221 233 331 213 227 190 227 339 337 250 351 248 230 227 225 274 277 303 178 329 187 271 311 250 247 309 212 192 248 250 194 178 190 242 226 182 262 338 258 233 291 388 318 243 295 370 256 228 269 293 298 215 296 334 278 236 351 271 239 250 310 227 252 226 163 327 191 270 199 297 292 273 188 293 332 319 205 167 196 241 249 278 210 205 171 329 288 245 249 190 258 143 243 266 189 244 161 217 326 267 274 384 271 258 354 232 325 261 187 206 321 301 199 205 296 282 319 220 200 258 256 216 220 247 320 186 204 270 186 201 158 257 240 336 319 172 383 382 167 209 204 276 247 236 297 259 260 236 235 264 185 171 239 261 287 291 360 111 265 242 255 165 228 221 265 203 183 263 219 204 268 213 243 175 246 223 318 162 312 192 328 203 213 241 289 244 283 172 161 220 207 320 205 247 290 303 202 249 238 280 272 34</t>
+    <t>NIG(28.213811936726188, 15.6959070705392, -0.7036670355361729, 32.89733767680329)</t>
+  </si>
+  <si>
+    <t>38 23 21 20 24 17 13 17 15 27 34 23 18 7 17 27 23 42 18 3 30 35 17 10 10 25 19 20 28 27 3 20 16 26 18 15 24 9 13 14 24 23 12 28 16 16 21 24 21 20 20 21 17 26 28 23 17 24 16 27 21 23 24 17 6 17 11 13 24 20 15 14 24 27 20 23 7 23 21 13 41 28 6 20 33 31 35 27 14 15 10 34 23 17 21 20 31 27 24 19 24 31 37 20 20 31 24 27 20 27 27 15 13 20 10 27 31 16 17 10 13 17 26 10 31 18 10 20 38 3 34 25 17 14 32 30 23 27 10 27 21 35 17 20 20 20 35 17 36 31 6 7 16 19 20 20 37 27 9 20 14 21 30 21 20 17 24 27 20 26 23 13 17 30 35 14 13 33 20 30 27 20 27 21 24 17 25 20 30 21 24 10 17 22 23 33 31 39 42 29 8 14 15 20 24 17 31 20 20 20 10 24 23 27 26 21 27 22 10 19 20 37 14 13 27 20 38 13 21 23 31 37 10 34 13 19 22 35 17 17 10 20 23 33 37 38 20 12 27 18 27 20 10 20 7 27 23 21 9 20 23 20 20 14 7 31 28 24 18 34 34 29 18 23 30 10 51 19 31 29 20 20 24 27 7 10 17 27 23 30 20 24 29 35 9 24 20 17 26 20 31 30 26 13 27 20 28 27 27 31 30 31 34 13 24 35 24 27 42 23 20 15 21 12 20 23 17 38 27 20 22 29 9 3 21 12 29 34 23 30 31 20 20 8 35 20 24 19 6 20 31 41 19 14 30 24 26 19 27 42 24 14 14 21 26 20 10 17 26 34 17 29 29 20 28 32 17 21 33 21 24 3 16 37 17 9 14 27 21 17 9 20 23 24 16 20 17 18 42 30 21 22 3 27 38 6 21 29 23 31 21 24 17 31 13 10 28 37 23 20 14 21 28 21 38 23 12 20 24 9 24 17 17 19 21 16 30 31 31 20 27 22 24 24 14 10 38 24 29 17 13 20 27 28 24 13 17 27 18 12 10 13 13 28 15 14 35 30 22 20 30 19 10 28 14 16 27 24 13 26 15 35 14 3 10 34 17 16 28 17 15 21 23 31 24 21 13 37 10 23 27 23 10 17 13 24 23 19 13 20 20 38 16 31 21 16 29 35 17 16 28 30 26 16 12 41 17 14 25 13 25 27 20 28 16 28 3 27 27 10 20 21 19 13 34 10 17 24 23 19 26 9 9 16 21 28 33 31 14 26 31 21 13 34 30 31 30 17 24 24 23 25 21 22 24 10 20 20 18 16 24 10 28 7 10 27 17 17 40 13 41 48 24 32 16 17 16 6 27 24 38 33 13 23 31 13 44 25 29 20 12 17 13 13 27 26 20 27 26 13 27 31 27 31 17 23 17 17 41 28 59 24 31 28 10 13 9 21 20 20 10 10 20 27 17 13 16 28 17 22 16 9 21 19 13 21 23 24 14 22 23 24 24 33 16 21 10 21 24 30 14 20 27 20 13 13 27 14 18 14 22 21 27 25 20 19 27 9 21 31 20 17 23 41 20 24 3 34 23 21 6 6 14 35 16 14 9 34 11 20 22 28 21 25 34 27 10 27 21 27 10 7 18 10 21 13 0 27 16 13 26 29 14 24 24 24 24 14 21 9 24 16 17 14 21 18 10 24 21 28 30 24 21 29 20 7 20 35 20 21 45 10 27 17 24 21 23 37 28 27 22 17 15 13 31 13 26 10 14 30 27 23 22 7 23 35 21 12 37 3 35 28 12 26 13 3 16 16 21 21 29 24 20 20 30 30 16 25 30 27 21 23 13 12 16 7 17 41 21 19 14 27 20 10 42 10 21 14 30 14 23 13 24 27 24 30 13 7 35 13 13 31 24 24 24 31 30 10 28 19 21 27 37 20 13 19 24 16 21 21 26 47 20 20 0 27 23 17 17 42 21 23 22 24 24 37 45 24 29 20 14 33 21 13 19 3 27 13 6 3 31 21 20 16 14 14 13 12 6 13 28 7 22 20 13 10 14 24 27 17 22 21 24 17 7 24 14 31 3 28 21 24 23 24 12 24 11 26 17 17 24 10 7 34 38 24 20 27 35 31 38 13 17 23 22 20 24 20 23 21 9 29 24 20 17 24 31 36 13 27 16 26 17 13 17 21 19 29 24 3 21 35 27 17 3 28 21 33 27 14 17 27 24 17 24 21 24 17 27 20 16 23 24 9 9 21 28 24 14 6 49 20 31 24 24 10 31 27 24 27 13 21 20 27 27 17 30 20 3 17 31 34 10 34 24 45 27 24 21 21 22 17 31 28 13 14 19 19 18 27 31 34 23 12 12 30 30 20 25 17 13 18 34 34 34 19 35 26 20 10 24 28 20 24 26 3 24 51 12 20 20 20 25 24 20 15 20 24 38 27 28 10 14 13 13 13 30 35 21 24 20 20 48 41 14 14 30 16 20 6 23 20 20 14 21 37 35 24 17 26 21 14 54 21 25 24 20 24 17 13 24 21 27 26 19 24 21 22 17 38 31 15 21 35 30 33 29 20 16 20 33 38 17 24 17 23 20 9 10 27 37 19 19 34 14 23 20 37 6 10 29 20 14 19 7 19 21 27 34 24 21 17 16 40 24 24 17 9 17 23 26 23 10 10 24 12 17 17 6 16 16 16 19 17 14 14 31 17 12 10 24 27 34 23 18 30 31 31 17 7 35 20 24 13 13 20 31 37 13 28 19 28 19 31 24 3 17 13 17 29 17 21 24 21 20 20 27 19 26 27 13 17 16 30 30 25 24 24 27 17 17 38 20 37 24 13 13 16 17 20 30 30 34 24 24 17 41 16 24 23 7 24 20 20 17 35 16 21 13 38 17 17 21 10 14 9 20 20 24 24 28 21 28 20 27 10 20 27 24 7 10 17 14 18 10 28 16 38 27 16 19 7 16 33 24 30 27 31 17 17 20 15 37 10 23 6 21 16 21 24 10 17 30 27 30 32 23 30 19 31 37 23 24 6 27 19 16 30 30 20 16 27 15 18 23 30 31 27 33 17 17 26 27 23 13 28 15 13 13 23 21 17 24 24 27 16 31 27 21 16 14 21 31 12 28 35 14 14 17 30 40 11 17 24 38 23 28 30 31 21 17 6 24 17 22 14 16 15 31 27 21 27 17 17 13 27 9 20 19 28 21 6 3 9 30 30 15 24 38 17 16 34 9 14 34 26 9 31 23 25 30 10 20 17 34 24 38 24 27 10 14 3 30 26 18 30 17 24 27 10 27 20 20 21 13 24 27 17 27 20 23 10 37 17 23 26 18 31 21 24 23 20 23 20 19 27 19 17 21 24 19 16 26 21 3 27 30 24 12 17 28 23 17 24 9 19 31 19 42 23 17 3 24 27 27 17 26 18 43 21 27 31 19 20 14 20 23 29 27 29 24 13 21 21 25 19 10 12 28 16 16 45 28 22 24 24 31 13 16 27 22 20 41 13 16 23 17 20 27 24 38 21 31 24 20 35 16 20 10 6 27 24 15 20 20 22 17 15 21 20 24 20 16 27 20 17 17 10 17 23 21 38 14 16 28 17 30 7 24 7 31 10 20 20 37 10 27 7 13 15 29 20 13 31 17 35 37 18 27 22 24 20 27 20 27 31 13 23 41 21 15 26 21 6 14 6 13 16 17 17 13 16 23 14 17 17 17 34 14 34 35 27 20 20 28 24 37 16 25 19 19 25 17 23 20 33 23 35 3 19 28 22 26 38 27 25 17 7 31 20 31 17 27 26 14 15 17 37 23 17 16 34 16 21 23 21 17 27 21 27 42 30 16 31 26 10 29 30 23 36 20 30 28 21 17 18 12 31 16 23 14 38 17 27 24 12 21 19 16 17 19 17 26 24 3 28 17 34 24 9 27 28 27 17 23 14 30 13 27 17 13 12 20 18 24 30 23 27 38 7 23 13 18 21 14 20 23 14 24 25 21 21 6 12 14 30 20 20 17 30 23 31 24 27 23 17 21 30 9 19 18 24 27 9 16 17 24 21 10 13 13 24 16 20 7 13 27 21 19 31 31 23 31 12 13 20 14 17 13 24 13 23 35 16 20 3 24 27 6 24 24 32 22 27 17 20 20 20 19 24 28 24 30 16 23 14 6 13 34 24 12 23 25 15 38 24 21 27 17 19 28 31 20 23 31 27 10 13 10 31 27 27 21 20 34 22 10 37 19 13 13 20 6 21 20 17 21 30 27 20 21 20 30 14 14 28 14 13 9 26 20 38 6 26 21 17 17 13 37 34 20 23 23 16 13 20 27 27 28 17 13 38 17 23 20 44 45 21 42 16 38 24 28 37 18 18 17 24 9 0 16 22 27 15 9 20 9 24 16 20 24 28 13 31 13 27 24 24 27 20 10 28 31 14 34 24 28 24 9 6 34 13 17 17 30 13 7 16 27 17 24 17 23 20 37 24 27 14 24 27 14 16 18 20 16 34 28 23 20 16 20 10 31 27 21 17 13 21 16 20 38 3 31 31 24 24 7 14 20 17 24 26 20 15 7 16 25 20 23 14 17 23 31 13 14 27 6 24 35 20 14 10 26 13 13 37 17 16 13 27 19 7 17 20 10 17 9 24 10 7 17 27 12 19 21 40 28 14 20 20 20 19 20 17 24 33 10 21 13 13 10 24 23 38 13 24 16 28 17 24 23 20 20 26 23 14 10 13 13 17 14 27 30 31 34 17 17 7 12 15 10 27 31 31 36 10 21 20 20 32 13 10 48 31 20 14 16 10 6 27 31 26 16 22 15 17 21 24 27 22 19 24 27 27 31 25 24 19 24 28 17 9 17 15 27 9 26 14 24 9 14 23 27 31 21 14 16 24 35 16 17 35 26 27 10 17 29 31 16 24 26 33 28 14 25 31 9 24 17 20 21 18 28 20 30 13 15 23 31 17 31 28 21 12 27 24 13 23 23 14 27 6 11 16 20 27 17 20 13 34 26 30 24 15 24 16 13 13 6 20 10 9 21 20 28 11 7 6 17 20 24 23 9 30 20 19 16 38 27 24 34 20 20 13 3 19 17 21 16 24 10 16 21 20 14 28 24 13 17 14 20 14 13 9 7 30 14 30 31 26 28 27 37 23 34 17 19 26 7 6 13 7 28 29 26 27 8 20 31 13 14 24 14 15 27 13 17 24 20 22 38 20 31 12 31 12 22 20 32 11 30 26 26 34 6 20 35 31 20 3 15 10 31 26 37 27 12 17 27 6 13 16 26 17 20 10 34 24 23 10 20 12 24 27 13 20 17 27 16 17 31 28 26 23 20 30 0 24 41 14 27 17 17 38 37 22 17 22 21 24 38 27 10 12 34 16 23 27 20 30 22 24 21 13 20 37 10 27 31 19 17 17 18 3 20 25 13 24 19 31 21 21 27 27 19 28 7 26 10 20 21 27 11 13 24 23 17 28 13 28 27 16 27 24 16 24 18 17 12 17 18 30 26 17 17 20 17 16 41 12 27 24 19 16 16 24 10 17 23 17 21 23 28 16 23 20 31 24 16 12 24 27 20 23 14 21 20 16 6 11 24 17 19 23 20 27 27 13 27 23 16 23 23 19 16 17 6 14 10 13 17 16 30 44 39 30 24 13 16 19 15 37 35 38 30 20 20 27 24 16 24 13 5 24 23 16 17 16 16 30 10 10 29 24 24 24 19 16 16 23 23 16 31 34 13 13 25 24 27 26 20 13 16 20 23 23 24 14 17 33 24 17 14 45 10 15 36 17 27 9 12 32 20 24 13 30 20 27 14 6 27 27 19 23 13 38 24 40 23 17 20 20 13 6 24 12 14 13 20 23 13 24 28 31 25 28 27 14 16 26 24 31 33 13 20 10 14 20 7 20 20 7 17 19 16 24 27 23 14 17 30 22 27 23 21 16 22 27 27 17 14 24 20 38 10 21 24 10 13 16 20 10 21 19 20 13 27 24 16 20 16 10 20 34 21 22 14 17 17 12 24 12 10 10 19 30 13 23 16 28 22 30 12 23 21 21 16 13 30 20 19 13 17 34 25 30 14 10 15 27 18 23 24 13 20 26 22 28 19 17 20 23 27 21 14 24 28 38 20 27 14 20 28 32 26 32 28 34 15 30 27 17 31 27 24 24 20 27 9 28 21 20 10 31 10 15 20 34 14 21 17 12 26 16 41 14 23 27 16 6 21 23 14 17 17 31 24 14 24 34 28 23 10 37 31 13 19 17 25 17 21 7 26 6 10 38 20 30 24 20 34 23 20 24 27 33 18 10 28 27 26 10 27 38 14 17 16 13 26 31 23 20 24 13 28 20 19 26 20 27 24 24 21 14 21 12 6 23 27 17 34 17 21 27 17 16 9 17 23 21 14 42 13 24 17 16 23 24 13 9 28 6 16 17 28 23 24 21 21 20 30 16 24 8 20 30 6 21 24 24 27 24 20 30 13 9 17 20 24 31 35 3 38 6 20 40 17 40 27 22 12 16 30 24 10 13 31 17 21 16 23 17 33 27 12 28 24 20 27 20 27 40 16 21 19 28 10 17 14 41 17 13 19 14 34 28 30 20 31 33 27 24 19 37 25 17 17 24 17 16 20 29 17 31 19 7 24 14 21 17 3 20 20 14 24 19 41 17 47 29 16 10 24 19 21 0 16 17 24 34 14 17 23 24 20 10 27 27 30 13 17 26 23 23 28 16 41 27 24 27 26 37 22 20 20 21 21 27 13 13 20 17 27 13 21 13 20 24 36 17 19 21 30 20 24 28 16 30 21 26 17 23 20 34 29 13 13 19 10 27 23 17 13 41 20 30 28 20 17 21 31 21 10 45 24 18 30 22 31 31 10 23 17 19 16 20 6 12 14 12 34 20 17 16 22 27 23 31 17 10 13 10 3 24 18 27 17 24 30 16 17 22 30 10 27 20 19 31 28 21 22 14 12 3 15 31 22 40 17 11 40 27 20 23 18 14 20 12 21 12 20 41 17 27 13 34 14 35 20 26 31 18 34 36 13 6 24 13 9 17 17 10 24 24 30 10 17 18 22 20 16 10 16 10 9 19 33 20 28 19 26 14 28 10 20 31 20 24 24 7 27 24 21 35 28 24 21 13 0 16 20 14 20 23 23 24 28 14 20 7 10 33 27 34 20 24 31 39 20 33 23 21 27 14 27 31 24 30 16 24 34 24 22 20 31 21 34 20 13 30 17 10 20 27 14 9 35 13 24 27 26 15 16 23 17 17 17 13 10 13 12 31 20 25 13 30 9 19 24 20 20 30 21 17 27 10 20 31 13 33 27 6 10 27 17 31 19 18 19 28 17 16 17 24 34 38 23 14 20 24 31 17 27 3 14 13 23 29 0 19 27 20 20 24 34 12 9 23 17 30 10 20 34 30 31 31 13 3 32 17 25 26 24 17 12 42 17 24 14 16 3 38 6 19 17 13 30 23 27 33 24 20 20 13 20 10 22 27 17 17 16 17 20 10 24 27 9 20 34 21 17 35 27 10 27 17 10 10 12 7 23 13 30 27 10 14 31 29 20 21 31 24 18 29 17 23 30 16 10 23 19 20 26 26 7 10 17 21 27 35 22 10 13 14 27 14 9 17 32 24 41 23 6 16 14 21 23 30 13 24 11 14 0 35 13 9 20 34 25 24 10 16 41 30 14 34 10 10 26 17 37 24 27 7 17 31 16 16 17 25 27 27 24 23 24 9 16 16 20 17 27 17 31 14 24 20 33 24 20 10 27 24 30 19 13 24 18 19 14 30 17 9 23 10 33 23 34 24 14 31 21 17 9 21 21 29 7 24 13 13 13 40 22 20 26 6 18 16 28 24 13 17 24 34 35 14 29 30 31 16 13 10 24 18 26 20 24 22 17 24 23 23 24 14 30 29 14 20 13 13 6 28 23 35 27 20 16 31 27 30 20 24 34 10 16 20 21 36 17 23 10 34 13 10 10 14 20 17 13 20 24 15 19 27 17 14 17 10 20 17 19 21 20 33 6 21 17 25 24 10 33 24 12 20 29 19 14 24 21 30 13 10 13 6 18 20 24 20 17 40 27 17 20 24 26 31 13 24 16 21 52 24 27 20 33 7 28 9 24 28 23 20 20 17 21 23 17 12 17 14 13 27 34 28 21 24 10 31 24 16 37 19 31 23 6 17 25 22 29 23 16 34 6 20 22 17 14 20 23 13 17 24 18 21 9 17 29 23 21 10 34 35 23 29 9 28 24 17 23 14 17 39 19 38 14 20 30 19 30 26 23 23 13 19 13 16 17 21 20 13 17 10 35 23 16 20 13 40 21 24 24 17 31 45 6 28 17 14 3 20 13 34 19 17 6 13 28 24 24 24 34 15 24 20 16 34 36 24 20 33 19 7 17 20 23 14 24 21 20 27 24 24 23 20 24 19 27 24 19 38 7 10 24 23 32 7 21 27 10 24 20 10 16 27 16 7 10 20 11 28 13 17 27 19 10 14 16 16 45 31 20 17 16 44 27 24 29 9 27 23 10 9 14 23 17 27 35 17 20 22 6 20 27 21 31 16 20 19 24 20 17 20 10 13 6 23 13 37 26 29 45 9 14 10 21 17 21 19 28 14 27 14 13 10 21 13 10 20 37 18 17 30 19 17 10 16 15 13 17 34 24 31 29 13 17 27 20 27 24 20 26 7 26 28 21 24 17 24 17 21 27 23 9 10 20 27 24 13 14 15 37 19 22 30 26 20 30 27 17 17 10 31 31 13 21 18 10 15 28 31 26 33 20 20 30 23 17 20 13 17 21 23 27 26 13 10 13 26 10 9 17 23 24 21 19 18 34 31 13 25 31 34 24 29 34 27 27 9 13 8 16 9 30 10 27 31 31 17 21 23 26 20 0 10 10 28 20 31 33 7 23 26 27 27 17 23 13 24 20 24 15 21 27 37 17 16 20 14 17 14 28 37 13 27 6 13 27 24 34 16 16 35 10 15 14 16 20 19 34 20 16 22 17 20 15 35 35 17 25 17 24 31 21 10 21 25 24 20 30 22 21 23 28 20 24 19 22 21 9 20 12 17 10 23 7 10 9 19 13 22 30 24 9 19 29 14 27 21 14 12 23 24 23 11 31 17 13 6 16 22 21 20 20 9 24 27 26 24 31 30 20 12 30 14 24 31 28 16 29 23 49 24 24 21 17 19 11 22 21 41 26 17 17 17 7 10 22 31 27 28 21 27 24 23 34 20 16 23 19 28 3 10 34 30 31 31 19 15 13 17 32 44 26 24 30 13 17 36 18 13 31 15 28 20 13 10 14 18 24 28 20 42 22 9 13 17 10 28 26 10 17 27 23 24 33 30 10 12 25 9 26 18 24 35 27 15 27 20 21 14 15 23 30 21 13 31 16 3 24 31 9 23 17 10 23 31 17 23 24 10 25 23 17 24 20 22 9 21 13 23 23 25 24 30 31 21 23 23 7 34 17 31 27 23 14 24 24 34 27 24 16 23 6 20 9 21 15 14 31 7 24 13 14 19 10 6 10 31 28 13 37 17 20 17 14 17 13 13 17 13 21 33 10 20 11 19 20 18 27 17 28 17 17 24 20 25 14 27 28 34 26 27 13 17 13 24 30 24 14 22 22 10 30 16 15 16 14 45 34 20 26 29 19 28 17 32 15 13 21 24 14 9 26 17 23 37 17 13 24 14 15 17 17 20 7 36 44 24 17 31 27 7 24 40 23 27 20 17 31 22 16 7 38 27 16 20 16 17 24 24 19 10 20 17 34 40 31 31 21 19 10 20 28 24 9 23 9 31 28 6 13 10 41 10 21 27 30 21 13 17 43 31 23 27 42 27 17 26 13 23 17 13 17 6 29 20 9 31 41 13 21 35 20 19 24 10 13 16 23 39 27 13 24 14 17 21 3 31 16 30 24 31 16 25 14 23 28 19 20 32 23 17 9 10 19 23 10 17 10 23 34 28 26 18 14 19 31 18 16 24 25 19 27 30 30 30 19 31 23 31 18 10 17 8 13 17 27 10 21 7 28 27 26 17 14 34 3 24 13 17 10 16 10 14 31 20 30 14 19 16 37 20 19 10 16 24 24 26 23 19 16 15 15 20 13 31 28 26 17 3 13 35 33 13 34 17 13 27 20 38 21 27 24 27 38 24 20 22 31 14 12 14 17 16 21 14 38 16 31 21 14 34 17 31 14 20 27 31 20 24 27 31 27 14 17 20 17 10 36 35 7 24 16 27 7 17 6 24 31 31 31 26 16 22 24 23 10 23 20 14 29 31 28 3 17 27 28 16 17 24 30 23 20 34 31 16 9 9 32 17 24 37 23 3 31 20 28 26 23 27 20 44 21 17 21 22 35 30 27 31 16 30 31 16 14 19 24 19 14 32 10 20 10 31 16 23 30 15 13 30 13 27 23 21 17 15 37 10 9 27 30 8 34 20 17 17 20 24 35 12 27 7 24 16 17 17 24 21 13 27 27 24 30 12 23 27 28 21 6 24 41 17 22 19 36 20 7 7 28 20 29 19 20 42 30 17 30 23 10 24 16 20 17 17 10 23 23 10 16 3 31 44 21 17 23 17 14 15 35 6 20 27 18 19 30 20 5 17 7 21 5 16 10 14 35 27 49 23 26 17 17 13 27 0 14 13 13 19 7 38 17 31 6 25 21 17 6 20 6 23 20 10 30 24 14 21 12 20 20 20 34 9 24 27 19 19 26 24 17 20 17 14 36 33 10 20 20 20 23 24 10 7 17 24 25 34 24 21 31 10 31 31 13 31 31 20 21 34 7 12 21 20 10 31 20 16 3 24 13 20 38 7 27 23 20 34 17 10 21 17 24 18 21 7 13 7 27 3 19 33 17 16 24 31 36 30 31 21 20 7 38 27 27 17 34 14 35 26 17 31 24 13 27 28 11 18 17 24 37 41 13 27 13 16 17 14 28 21 24 33 27 27 27 10 17 30 21 15 16 45 31 24 31 10 15 17 20 23 14 21 20 17 24 29 26 17 27 27 3 27 20 14 28 23 28 20 21 19 13 27 34 16 27 31 26 23 35 27 17 24 13 28 29 31 27 9 20 31 18 21 27 29 17 15 31 21 27 21 16 10 35 23 22 24 14 21 13 26 13 17 28 28 27 31 26 20 30 27 14 41 16 32 34 17 16 16 33 18 37 31 24 27 24 18 10 16 13 30 27 27 24 13 34 20 19 19 18 23 29 20 21 19 20 30 21 24 27 13 18 25 17 24 8 21 24 17 20 14 35 3 20 9 13 20 40 10 21 16 17 16 20 21 23 13 27 15 21 24 24 7 16 30 24 17 35 21 27 20 20 23 3 9 23 19 24 7 24 27 24 28 19 3 27 21 28 28 19 17 8 37 13 38 17 16 28 12 34 20 9 27 17 7 17 23 16 30 19 10 13 37 20 10 14 9 15 30 42 14 28 27 33 17 23 13 21 24 20 28 19 20 21 27 17 26 34 22 19 24 21 19 13 26 17 17 15 26 14 34 31 27 10 13 7 26 24 21 30 20 30 13 20 14 22 31 21 34 24 38 27 10 14 31 31 31 6 14 24 24 28 17 16 12 10 41 8 13 23 30 15 31 34 10 24 13 30 20 22 22 19 30 10 14 18 10 27 19 16 17 31 30 12 13 27 22 31 17 24 23 20 12 24 27 16 31 20 24 22 22 20 37 13 24 21 20 23 34 9 23 13 17 17 14 28 21 13 24 9 19 23 9 17 31 16 18 20 24 27 16 17 24 6 16 14 14 11 31 30 17 21 13 6 26 27 21 27 19 28 6 33 24 27 30 17 29 20 14 16 13 27 17 18 14 26 14 23 27 24 24 10 20 34 24 16 10 23 21 30 25 35 20 41 19 19 17 31 28 7 31 14 10 13 25 31 26 37 26 23 27 12 14 41 17 25 24 35 16 16 14 23 20 10 17 6 17 45 28 27 12 20 34 14 22 0 13 19 20 17 27 17 23 35 29 23 21 35 27 16 27 17 17 34 22 23 26 14 23 17 24 20 21 23 7 20 31 6 23 17 14 20 19 31 33 12 20 16 28 34 19 24 41 27 31 30 17 33 20 10 23 17 23 33 34 24 37 15 30 6 20 16 6 7 15 37 27 21 24 23 24 17 17 36 21 44 13 41 20 28 24 7 14 23 27 34 12 7 20 21 34 24 20 19 17 21 17 13 38 20 26 18 13 14 20 13 13 13 30 17 28 23 23 24 19 20 27 20 6 34 21 23 14 17 17 36 18 13 24 30 24 29 27 21 15 27 31 31 12 23 23 24 6 24 15 24 6 34 16 24 21 17 23 27 13 27 42 9 19 30 17 18 14 19 38 22 11 3 24 34 15 21 3 12 16 35 27 23 24 17 21 24 18 27 17 20 6 22 20 9 21 13 24 21 28 37 11 34 18 20 38 19 17 20 24 17 20 20 16 26 30 14 9 20 21 31 19 17 22 20 21 45 16 13 14 13 20 20 13 15 9 20 21 10 31 26 9 20 40 25 27 9 31 28 22 31 7 21 25 13 27 6 13 20 31 9 16 27 25 28 26 14 28 48 27 24 38 12 17 7 30 16 16 20 27 10 22 13 19 26 19 20 31 10 20 23 19 21 10 13 28 22 14 20 20 13 0 26 10 34 45 27 38 28 17 19 34 35 20 29 13 21 27 17 19 3 14 12 22 20 30 23 12 28 24 26 17 10 27 19 24 16 17 7 23 19 37 14 16 13 21 30 15 35 22 28 35 13 13 21 27 19 41 27 21 7 16 23 12 30 16 18 17 16 26 15 23 13 24 31 14 17 31 34 30 34 15 23 20 19 10 27 24 21 37 13 23 26 20 10 27 37 16 20 26 20 20 27 23 18 24 40 27 17 25 31 6 12 17 13 37 17 35 24 13 20 23 20 48 26 19 23 26 21 34 27 21 9 34 24 16 19 20 19 28 23 24 21 35 20 13 14 34 19 13 27 10 27 16 10 38 27 26 14 17 19 10 33 30 29 28 27 17 17 17 10 26 27 13 21 20 17 19 17 31 31 18 16 21 19 25 23 17 27 21 17 31 32 23 28 31 10 41 26 19 6 13 10 31 10 45 13 27 28 20 13 13 31 20 23 17 17 14 17 20 27 38 17 27 13 20 22 13 30 20 34 27 10 3 34 9 11 26 42 23 27 20 21 10 23 27 28 21 27 47 24 17 31 24 27 21 19 16 31 17 6 9 12 34 21 13 22 16 27 16 17 26 36 31 20 20 17 16 28 12 20 33 27 26 27 8 16 26 22 35 15 27 17 20 27 28 29 14 10 24 24 31 19 24 23 42 26 19 33 17 30 31 7 26 20 27 13 35 20 25 20 24 23 20 17 24 17 41 31 31 27 25 6 17 28 27 21 21 43 16 13 27 20 38 23 23 25 9 21 30 30 19 45 6 24 32 17 10 7 17 23 32 13 20 24 26 11 27 20 31 16 15 16 17 12 17 24 27 13 18 28 17 30 38 8 20 17 19 25 20 34 20 24 24 18 16 17 9 34 17 20 23 15 24 27 10 9 16 30 34 21 16 23 16 28 10 7 29 27 12 16 17 7 27 31 20 14 19 19 24 42 21 16 17 17 17 19 37 10 13 24 31 10 29 21 7 13 20 14 31 17 18 17 20 20 17 19 36 20 42 24 15 20 34 23 10 22 13 32 6 33 20 22 14 3 21 24 20 21 16 7 14 37 19 27 27 19 21 39 21 20 31 17 16 27 4 30 24 17 27 34 28 32 20 16 26 23 22 13 22 17 22 12 23 48 14 16 20 31 28 6 10 34 11 27 27 16 19 18 33 24 14 22 18 17 49 19 35 11 21 10 23 16 36 15 18 20 18 10 19 27 23 36 20 24 24 17 24 17 23 37 7 27 13 27 17 20 15 27 31 23 36 16 6 31 17 20 20 17 16 21 27 12 6 16 21 23 26 27 25 20 27 15 20 10 27 48 28 23 31 9 17 28 7 9 37 20 35 24 17 14 27 30 18 17 33 27 27 26 29 27 20 23 23 17 21 3 9 13 37 19 16 27 24 12 24 30 8 21 16 13 21 10 17 10 33 17 24 30 30 7 17 3 28 20 19 6 17 21 30 6 20 34 17 22 17 31 28 19 20 27 20 27 23 16 17 30 28 13 20 18 21 21 26 21 38 29 20 0 23 20 27 16 17 21 23 23 17 30 34 31 28 34 20 27 14 15 27 24 16 34 6 3 35 17 24 12 19 27 17 20 27 22 14 19 20 13 10 26 24 20 17 8 31 25 19 27 10 13 21 24 13 20 23 24 17 21 16 21 20 14 18 13 29 23 7 16 13 16 17 10 17 7 21 16 34 23 23 24 16 13 15 31 9 34 18 31 13 16 37 17 17 31 17 27 19 24 27 18 27 13 44 17 13 16 20 23 10 30 21 24 16 16 24 12 13 7 17 30 7 11 24 13 31 14 37 24 22 37 20 16 14 26 24 10 27 45 23 19 26 34 13 13 28 29 18 28 41 17 14 17 30 20 24 23 20 6 20 6 14 34 17 17 24 23 10 20 13 28 27 27 30 16 42 20 26 31 21 19 31 16 31 24 24 47 24 16 19 13 23 19 7 29 21 25 33 7 30 34 25 26 16 13 48 16 20 19 31 27 16 35 23 31 16 16 22 7 19 17 27 23 34 17 26 16 10 35 17 36 14 10 27 27 9 27 16 28 19 17 14 12 38 14 23 24 17 12 17 24 21 19 19 30 44 31 13 19 17 12 24 17 23 16 21 37 13 21 27 13 9 20 17 14 27 23 17 30 17 17 29 20 26 30 30 22 20 23 30 30 17 23 33 26 44 17 23 27 27 44 34 9 16 20 13 24 24 17 19 22 28 26 3 28 24 17 20 29 20 23 23 35 26 17 27 31 31 19 23 28 35 26 0 42 21 39 17 40 41 31 24 16 19 23 9 9 21 35 20 28 19 24 8 21 17 24 24 17 24 23 36 14 22 35 28 17 16 24 13 23 32 16 27 31 30 20 21 17 16 15 20 28 41 20 26 16 31 14 31 23 15 30 17 16 37 27 27 31 25 34 36 20 10 13 11 20 19 16 14 24 16 27 30 30 41 24 14 22 10 7 21 31 21 6 31 17 13 23 28 19 13 31 27 7 17 17 35 36 21 30 13 14 20 24 16 16 35 24 16 27 27 23 7 20 17 31 24 3 13 17 17 27 24 21 21 30 27 20 35 6 3 16 20 45 13 10 13 24 31 27 14 7 3 13 16 38 20 17 23 16 14 45 24 13 21 24 17 20 13 30 26 35 27 20 22 13 7 31 10 14 17 20 7 17 24 17 20 20 27 14 33 30 11 22 21 20 17 28 21 13 3 20 10 21 20 16 16 9 17 13 16 23 10 19 17 19 6 27 23 30 13 17 24 16 31 33 17 10 10 41 14 20 24 27 20 27 3 20 31 37 16 24 17 20 19 34 17 10 17 13 27 22 32 23 35 16 20 20 27 24 28 7 13 10 27 19 17 23 13 19 21 24 29 44 35 31 17 3 42 17 28 24 23 16 7 12 27 27 15 13 28 26 9 27 22 21 25 28 15 24 10 7 17 9 13 23 26 27 10 27 6 42 13 28 14 14 23 23 31 22 24 20 26 24 28 16 7 27 13 16 24 24 13 20 19 9 30 16 27 20 17 20 27 36 8 23 34 41 13 18 20 24 17 17 35 13 23 17 31 9 17 18 34 10 9 23 38 6 16 20 18 10 20 23 13 19 7 24 16 26 28 24 25 17 13 24 9 24 10 41 13 13 6 24 10 41 10 40 17 24 14 13 45 20 17 17 19 19 14 17 31 28 10 33 16 28 20 14 27 23 14 10 24 21 13 19 20 26 19 12 27 17 34 16 24 20 28 20 34 27 19 31 16 30 10 18 19 17 14 10 28 41 31 24 13 20 17 27 24 17 24 26 16 23 21 21 23 27 10 17 18 16 38 13 27 24 35 10 30 31 24 20 24 13 24 27 22 17 13 10 14 31 17 12 20 17 14 15 23 16 17 7 10 24 10 26 19 34 30 35 17 15 10 21 22 24 20 28 27 16 16 38 19 16 20 32 30 20 27 31 14 16 34 23 17 35 17 13 23 28 31 17 16 28 13 20 28 8 17 16 10 16 47 30 30 19 10 20 14 31 20 42 24 17 18 23 13 23 23 24 18 13 38 17 16 20 15 23 10 17 31 20 19 27 27 21 38 17 17 27 23 21 25 27 38 23 17 28 17 13 38 27 3 28 35 16 17 16 9 38 7 3 34 13 17 17 31 21 24 35 31 21 14 9 13 14 31 23 9 24 31 17 37 14 30 34 20 20 27 34 9 20 21 29 24 7 27 16 14 31 24 27 21 12 20 16 21 12 14 13 25 31 21 15 6 27 23 41 30 16 37 13 17 20 13 17 20 12 24 19 24 24 19 23 26 30 17 13 20 27 4 27 20 23 6 21 27 27 28 20 20 13 10 25 17 19 20 27 17 12 23 24 27 17 14 22 23 24 24 23 9 17 24 24 40 10 14 15 33 13 15 24 6 27 17 19 29 21 38 34 17 27 27 20 34 24 31 20 18 27 23 28 13 38 7 33 18 24 17 20 24 17 30 28 30 23 19 27 34 12 17 23 24 27 18 10 23 20 20 27 12 10 18 30 7 15 21 15 23 34 30 33 6 6 23 20 19 26 17 22 20 35 34 42 19 26 45 48 20 24 20 6 10 17 9 13 13 31 20 24 20 21 16 17 21 13 20 31 17 3 16 27 30 32 21 20 42 14 17 30 10 14 27 35 22 23 9 30 38 22 12 16 16 13 14 20 15 9 27 13 21 16 19 30 18 34 28 25 20 24 17 14 27 12 28 31 24 20 17 17 17 13 13 20 28 10 20 14 7 20 13 27 23 13 23 17 20 23 21 0 38 20 9 34 20 21 6 13 27 31 30 19 34 30 20 27 23 22 17 19 28 10 21 28 24 16 18 26 10 24 20 29 14 16 24 35 17 24 27 31 14 35 24 15 17 23 20 34 22 21 30 28 20 27 10 21 16 14 20 24 27 27 24 23 21 33 27 31 17 20 24 27 20 17 27 20 30 24 28 24 35 22 17 26 24 19 17 20 20 11 20 16 22 26 27 10 20 14 27 17 24 31 35 21 27 19 16 31 9 15 30 17 23 17 34 23 21 19 24 14 26 20 26 13 14 27 30 28 30 17 27 6 34 24 23 20 20 30 9 7 17 17 17 22 14 23 14 37 23 24 13 10 24 17 19 17 27 24 24 12 7 16 17 13 30 23 7 17 20 31 10 17 28 20 21 21 22 17 23 27 31 38 3 24 17 6 17 20 26 23 20 23 19 17 31 17 33 17 24 31 20 13 21 31 26 28 27 20 24 16 38 45 20 16 20 17 17 17 23 19 20 16 35 38 40 16 27 38 12 16 20 10 23 31 6 24 26 28 8 27 37 21 14 31 10 38 26 7 31 16 23 30 28 22 24 27 15 37 37 24 20 24 27 20 23 19 23 13 17 21 20 28 24 13 20 40 23 20 27 41 26 3 17 13 23 23 44 19 14 24 34 17 24 6 16 17 23 12 28 24 20 25 14 20 27 23 11 17 21 37 37 31 17 26 29 22 14 24 30 34 14 13 19 11 20 34 14 24 9 10 9 10 7 13 17 23 7 27 10 24 16 26 26 41 19 20 28 27 18 10 19 13 24 16 27 17 28 23 34 23 9 10 21 24 24 13 20 27 36 24 24 14 27 19 21 24 34 20 20 23 13 14 13 16 30 26 17 27 30 37 17 14 24 20 17 17 10 27 27 13 31 13 19 24 9 21 27 37 31 23 26 13 28 37 20 10 14 14 26 37 30 20 16 24 34 18 23 27 42 9 9 26 21 20 10 31 14 16 20 20 25 30 24 17 38 19 17 21 12 25 6 17 12 24 20 30 24 18 31 12 10 20 10 20 23 26 14 20 10 37 8 16 22 17 10 13 23 24 23 16 24 21 17 9 37 19 31 19 17 10 29 23 3 20 43 24 23 16 24 17 17 17 29 19 16 17 24 17 15 13 13 22 29 13 19 16 15 23 13 31 27 17 20 23 35 33 30 10 7 17 10 31 27 24 17 17 14 18 24 17 16 29 43 24 20 12 21 19 29 6 24 27 27 22 30 13 35 24 13 27 13 21 30 9 10 17 26 6 21 20 26 16 19 17 21 31 38 32 37 21 23 24 31 21 10 31 13 31 28 20 21 20 7 20 10 13 19 30 35 13 17 13 30 24 17 27 23 34 49 6 20 38 38 21 14 20 14 23 16 19 16 19 34 45 17 10 16 33 10 19 24 24 23 27 13 10 16 14 22 24 30 38 20 16 17 21 30 17 24 9 18 23 16 27 16 17 20 30 31 6 28 13 7 34 17 13 19 28 10 17 17 33 15 9 14 12 17 18 33 26 17 31 35 26 23 21 11 9 22 17 13 31 16 20 13 17 19 24 30 10 36 16 6 3 21 48 20 7 10 23 10 28 42 13 17 19 10 10 16 16 19 44 13 31 24 13 28 26 14 31 13 24 17 19 24 20 24 11 31 16 34 17 28 7 16 12 13 31 16 20 24 34 12 17 12 24 16 23 24 31 10 17 24 20 23 20 33 14 21 3 12 10 27 26 22 17 34 20 23 14 31 28 31 24 14 23 17 18 17 27 20 14 24 24 19 23 10 20 21 17 27 17 24 9 20 13 10 6 10 19 7 19 16 7 23 22 15 27 20 42 9 16 20 20 22 23 17 10 27 20 20 26 11 20 24 15 27 15 28 20 13 26 14 20 10 31 20 19 23 19 17 6 16 24 23 26 20 19 20 17 10 17 24 21 27 6 33 30 20 21 15 24 36 12 20 41 30 19 17 24 14 27 9 9 30 10 10 16 30 24 30 27 16 17 21 30 36 31 21 26 20 10 20 37 24 27 21 24 27 16 13 34 22 28 27 16 34 31 24 30 27 21 21 10 3 22 16 17 20 20 38 30 24 35 28 28 26 31 12 14 27 21 21 13 27 35 6 19 13 24 19 45 10 20 14 17 24 13 24 0 7 7 30 24 10 26 10 27 23 35 17 45 27 18 18 22 20 24 34 17 21 21 14 15 28 21 16 7 37 23 21 17 20 30 10 22 24 14 17 13 16 16 20 21 17 16 12 3 42 19 10 34 48 34 34 16 14 17 24 17 24 20 14 20 24 7 31 24 31 17 17 45 28 9 42 30 28 37 24 22 30 6 26 45 21 10 16 7 21 30 24 21 28 17 16 23 14 23 7 3 27 7 33 34 20 20 20 21 17 16 17 6 28 20 23 24 20 20 14 20 20 11 15 13 23 30 21 7 25 30 23 24 17 38 34 16 12 17 20 20 27 17 44 9 14 17 34 31 33 20 37 23 26 13 23 34 17 21 25 24 20 14 20 28 27 23 35 19 21 30 34 31 21 29 23 27 21 21 24 20 20 16 24 20 20 33 17 19 17 23 41 31 29 34 9 13 17 15 11 13 23 29 24 20 35 17 14 27 20 31 16 24 13 20 37 20 23 10 31 31 20 14 20 24 31 16 24 27 20 28 29 23 45 36 24 24 9 31 21 36 24 17 24 27 31 13 27 17 23 20 21 24 41 10 20 19 30 28 33 19 20 16 31 15 16 16 30 17 31 20 6 23 20 24 27 16 23 16 20 27 28 28 17 23 20 17 23 24 19 20 27 10 26 9 38 10 30 9 23 30 37 24 27 20 13 31 21 20 31 14 24 24 48 27 16 27 16 41 37 18 14 21 19 6 13 21 24 20 6 17 17 10 21 24 34 35 27 31 27 19 27 13 31 27 27 9 39 19 21 21 32 30 17 23 17 29 13 31 14 13 20 19 17 16 21 31 23 27 52 17 20 21 10 10 28 28 18 24 20 27 20 26 29 24 21 16 17 31 21 14 19 17 34 9 20 20 30 30 7 23 13 26 34 14 12 10 20 6 9 7 14 24 24 17 24 14 32 31 19 35 34 31 14 15 21 17 13 27 20 31 16 16 40 20 24 27 26 16 27 13 27 23 22 16 20 16 30 24 24 20 14 16 28 30 38 17 23 23 27 24 24 40 3 31 6 19 20 15 20 27 23 24 24 29 17 41 23 27 16 24 34 20 13 20 24 11 20 17 27 20 23 29 10 34 16 31 20 20 6 24 17 21 24 28 16 23 27 23 12 20 24 21 42 24 29 23 13 16 23 26 20 19 23 34 17 17 21 26 27 16 27 16 27 19 24 28 12 9 24 33 16 27 13 13 15 24 31 27 10 16 17 14 29 20 30 16 7 17 10 23 15 27 19 24 7 23 33 19 20 33 24 14 23 19 29 24 24 20 45 19 17 27 17 20 15 30 35 12 17 41 3 13 24 20 38 20 31 6 24 14 3 10 21 20 24 16 17 16 13 24 25 17 25 17 10 8 17 27 28 13 20 29 17 24 41 15 10 13 16 17 14 13 10 24 15 21 20 29 14 24 16 17 21 19 27 31 34 30 34 15 30 20 20 23 17 13 24 17 16 21 23 32 37 10 26 19 6 12 28 21 20 18 17 26 45 18 20 20 31 14 31 13 13 23 23 28 19 17 33 13 17 24 17 13 31 23 15 24 27 27 30 31 28 17 27 22 16 34 42 17 27 10 20 14 35 35 17 28 28 24 20 14 20 20 41 26 20 24 6 24 28 20 20 31 26 35 17 27 44 23 20 13 20 13 27 10 20 20 16 13 17 27 7 26 17 17 20 20 31 27 10 20 24 19 17 14 31 34 9 17 24 25 38 30 31 27 14 34 22 34 31 10 7 14 30 14 21 23 27 37 17 42 10 20 24 21 14 42 24 28 13 23 13 25 24 24 17 21 17 27 20 12 17 20 34 21 35 8 13 21 6 27 14 7 52 23 25 21 20 14 9 24 16 13 31 35 24 34 20 14 41 24 17 30 23 27 17 8 20 24 24 16 20 16 13 13 23 17 15 22 16 20 7 17 29 14 13 20 24 28 31 24 10 17 19 13 13 31 13 14 7 24 30 29 30 22 27 21 16 18 21 20 17 20 23 21 34 3 44 21 20 23 21 14 31 20 13 37 26 33 20 10 26 13 17 7 10 20 22 17 13 20 12 29 20 7 9 8 20 24 21 14 27 20 10 15 31 9 10 19 23 21 23 17 31 20 20 20 20 20 13 21 20 24 34 18 19 24 33 26 15 20 24 20 24 20 31 12 15 24 38 10 13 17 20 20 23 27 14 10 26 20 17 24 26 26 17 28 21 16 28 9 16 10 13 24 28 27 17 14 10 9 20 17 27 21 36 35 20 28 22 6 6 13 41 28 34 26 34 27 13 21 33 27 31 48 21 29 17 24 23 34 21 24 14 16 6 19 26 17 20 20 14 10 9 38 10 19 24 16 21 10 19 21 7 24 13 29 3 13 10 17 14 20 27 17 20 32 31 10 31 20 14 16 14 21 14 26 14 19 16 30 19 21 17 45 13 20 14 16 20 20 23 31 34 17 20 22 17 17 12 15 30 21 13 38 27 9 3 21 23 41 17 30 20 17 27 6 16 13 34 10 31 32 38 23 22 21 17 27 10 30 13 23 23 34 22 14 23 18 18 14 27 27 13 23 22 52 3 24 24 20 13 14 24 14 34 28 16 18 27 12 20 13 20 17 13 13 10 24 18 17 31 23 40 24 23 31 3 9 31 24 10 31 10 45 16 20 13 13 28 17 13 27 16 15 29 19 32 30 31 27 6 23 14 17 20 38 30 16 22 31 38 17 31 23 13 10 17 27 34 7 25 38 23 14 23 20 10 27 19 20 17 19 34 36 10 16 18 20 27 12 17 21 31 33 28 29 7 9 9 13 27 18 34 34 20 18 10 31 11 17 37 23 34 31 24 3 17 16 17 21 29 11 12 24 9 26 14 24 38 48 17 24 27 30 27 31 13 24 6 34 20 20 27 22 13 13 31 24 40 31 20 13 14 3 24 27 19 27 10 27 21 34 18 24 20 21 14 37 16 14 13 21 14 34 20 27 31 16 7 12 13 20 30 19 17 13 33 20 30 20 15 27 19 22 28 6 20 19 29 24 24 24 20 35 27 17 19 10 27 0 26 24 21 23 23 24 29 0 10 14 14 17 9 23 37 38 14 19 27 24 20 13 28 14 24 14 18 15 34 30 15 10 21 17 23 27 20 18 25 17 34 14 17 24 16 23 24 20 13 35 27 24 16 23 13 23 31 20 13 13 19 16 22 10 27 13 19 16 24 30 42 27 28 20 16 12 33 20 31 26 10 14 24 3 21 16 17 27 37 27 20 15 15 16 45 16 23 37 33 34 34 21 20 45 16 19 20 17 37 19 3 10 15 37 24 23 34 6 24 24 17 31 34 12 17 23 30 39 23 20 14 10 24 24 20 24 21</t>
+  </si>
+  <si>
+    <t>NIG(172.14551153038224, 83.66253365965883, -3.8286886003041705, 45.41701386434447)</t>
+  </si>
+  <si>
+    <t>29 30 26 20 23 19 17 17 25 27 20 27 17 11 19 25 22 23 21 16 25 26 16 23 24 22 21 22 23 25 24 27 17 21 19 15 24 14 19 21 22 22 21 20 22 23 22 23 19 23 17 23 28 17 15 21 18 28 17 28 22 18 19 20 16 22 17 18 23 23 25 24 21 20 24 16 21 20 21 18 26 24 11 16 19 27 26 29 17 25 23 26 19 16 22 23 31 30 22 19 21 27 22 18 17 24 26 25 24 21 21 19 17 17 14 21 30 24 16 15 17 25 24 19 25 19 18 18 24 16 27 21 26 22 25 22 23 24 20 22 22 27 15 26 19 24 27 17 24 22 22 26 20 23 20 25 36 23 13 22 20 22 20 25 21 19 23 22 21 13 19 26 23 20 27 21 16 25 21 18 23 24 17 28 20 23 16 21 21 24 19 21 20 19 23 27 21 24 24 19 13 16 18 18 24 16 27 22 26 27 26 26 25 29 21 19 23 25 20 22 22 22 28 19 21 25 32 21 17 21 24 28 24 24 19 25 18 32 18 21 19 21 25 28 26 25 21 18 25 24 21 24 26 16 13 24 27 19 13 14 27 18 15 23 16 23 26 15 19 25 23 23 13 23 26 16 30 19 21 17 11 23 19 27 13 15 11 27 20 25 19 20 22 29 25 20 22 25 23 20 28 20 26 17 28 21 24 25 23 23 16 26 22 17 23 22 20 20 30 22 30 23 18 14 27 20 22 27 12 25 19 20 21 14 15 12 27 25 20 24 23 17 25 19 22 26 25 16 14 23 25 24 16 20 22 15 34 18 20 25 29 17 18 18 17 19 14 24 19 25 27 29 22 24 23 25 22 19 29 21 26 19 18 21 17 18 19 23 13 18 14 25 21 18 17 23 23 23 21 20 20 25 14 29 26 17 20 22 18 25 24 21 25 28 27 28 23 25 29 15 12 27 20 23 23 15 15 26 24 25 25 18 16 25 20 18 27 18 21 20 38 23 16 23 21 12 23 27 22 24 19 19 30 17 22 22 22 26 19 14 16 24 14 25 23 19 32 27 25 25 24 13 15 21 14 20 15 26 20 27 19 26 22 21 13 32 13 18 25 19 22 15 24 25 21 21 29 23 15 26 14 21 25 25 21 23 23 22 23 22 23 29 11 21 21 18 16 24 19 21 22 22 25 19 18 25 16 17 28 17 16 24 19 30 17 28 24 27 17 13 31 16 23 20 20 13 25 19 25 16 23 22 22 18 23 24 23 23 18 23 26 17 19 30 22 26 20 17 25 21 29 20 21 21 21 16 28 13 25 17 19 29 17 15 19 20 12 20 27 17 23 27 18 23 16 15 14 15 27 26 30 31 14 26 23 27 34 22 24 21 16 31 22 17 20 20 25 25 21 15 23 22 17 32 21 30 24 22 27 27 32 26 22 23 18 18 11 27 18 23 21 26 30 21 18 16 17 22 25 15 18 27 22 17 17 20 20 21 22 22 20 21 22 23 20 18 24 18 16 24 15 24 22 15 20 24 33 27 23 18 26 31 27 28 16 26 21 20 26 26 18 28 20 21 15 18 16 25 24 19 26 21 25 22 21 21 19 24 26 20 21 23 20 25 29 19 23 27 27 21 25 17 19 18 13 25 19 21 26 17 24 24 22 23 22 23 22 18 19 16 22 16 26 17 23 17 21 19 23 15 23 26 16 24 17 20 21 25 26 19 32 18 23 15 22 18 19 21 16 20 19 15 27 18 24 20 27 15 20 21 17 25 26 23 17 23 18 16 20 13 28 28 18 27 21 21 19 18 20 14 18 28 25 18 20 24 15 22 25 23 21 16 24 18 25 24 17 30 23 20 16 28 22 23 26 21 17 16 26 26 20 25 25 17 23 27 19 11 23 18 21 25 22 20 20 25 26 16 20 21 24 19 26 26 21 23 18 25 23 18 27 28 20 24 14 29 28 20 19 31 20 23 22 22 18 25 25 20 22 15 19 28 23 25 30 26 21 19 13 22 21 20 22 22 10 24 19 16 23 30 26 12 16 22 18 14 24 18 27 17 21 25 19 20 17 24 19 21 15 24 17 18 20 22 23 24 22 24 22 22 20 25 17 20 30 24 20 24 22 19 28 17 16 23 15 26 19 16 22 26 17 17 17 20 23 17 19 27 21 28 16 16 17 17 20 18 22 18 27 20 19 21 23 24 14 25 16 23 15 19 24 23 16 31 22 23 18 20 18 22 17 17 22 18 22 16 18 27 23 17 23 21 28 26 16 15 33 18 29 21 15 26 25 28 22 27 23 20 12 17 25 24 26 17 20 30 15 26 23 22 21 26 18 19 13 18 22 21 24 23 26 29 22 22 20 31 19 20 20 24 13 24 24 19 21 23 24 19 13 15 24 21 15 23 22 19 18 38 18 19 24 20 25 24 20 22 22 27 34 15 26 18 21 20 26 19 17 29 17 27 18 23 30 23 21 20 28 21 28 14 17 22 22 22 22 23 24 21 22 18 24 21 31 22 19 22 21 24 26 17 23 20 27 21 21 25 27 25 16 25 17 18 19 27 21 25 29 17 15 25 25 24 27 20 23 19 25 20 19 29 31 22 19 30 22 24 28 24 11 20 26 18 21 28 17 21 14 22 21 27 23 17 22 25 21 28 13 21 20 22 26 29 20 23 18 30 20 21 21 19 23 17 21 21 14 24 25 26 20 20 21 23 22 29 23 24 20 23 22 22 18 19 22 18 22 24 30 25 23 23 23 25 21 24 19 10 9 21 22 18 21 22 22 20 17 24 19 17 28 24 29 24 20 19 28 19 16 26 19 15 17 21 20 27 18 17 22 19 17 18 27 17 24 21 18 19 28 22 21 22 17 17 21 15 16 24 18 24 20 29 21 19 17 17 22 21 19 25 26 20 22 24 20 17 24 29 17 22 19 15 19 22 17 23 15 19 17 19 26 24 23 23 14 32 19 24 20 15 21 22 21 15 30 16 23 22 31 21 15 27 16 14 25 20 24 21 22 30 26 18 28 24 22 27 24 16 23 22 24 23 23 19 13 20 21 22 29 22 25 22 28 28 29 21 29 22 22 23 23 25 18 17 20 22 18 20 24 22 26 26 25 21 22 20 19 26 20 22 16 22 24 23 23 21 29 22 22 25 23 24 15 26 21 19 20 16 20 20 27 20 22 18 14 17 16 22 21 17 19 21 23 18 19 11 27 26 20 20 31 18 23 25 18 19 24 17 19 22 25 22 19 10 17 19 28 16 22 28 28 16 23 18 20 15 21 19 17 23 18 23 23 27 22 15 19 22 20 20 21 35 23 21 25 21 26 33 20 23 28 30 26 20 21 20 17 16 18 24 26 24 20 25 27 18 20 25 28 28 14 19 20 25 17 18 14 26 30 18 24 20 21 18 21 21 26 20 25 26 31 18 26 28 21 19 17 23 21 23 19 21 31 14 25 20 20 25 24 18 23 23 21 32 31 24 21 26 22 26 19 19 25 20 26 22 18 17 20 17 19 24 28 18 20 20 18 23 20 23 20 23 19 21 24 20 19 21 24 23 19 25 17 28 25 22 15 20 22 15 21 19 25 19 24 20 25 16 23 16 24 13 19 13 17 15 24 24 25 14 20 18 18 22 20 36 20 24 31 22 20 17 20 15 26 18 21 23 24 23 21 21 18 18 25 21 22 19 24 18 20 21 21 18 30 12 19 25 11 26 24 24 31 26 23 19 17 24 23 21 24 26 19 18 28 16 17 22 22 22 21 21 16 22 28 29 20 21 18 17 25 25 19 21 23 22 18 16 23 21 16 16 18 24 22 23 23 23 18 16 12 21 32 22 16 21 23 23 26 21 21 24 23 23 21 21 21 16 19 18 22 21 18 29 15 18 26 20 27 22 24 23 20 18 21 20 19 24 21 24 17 18 20 24 23 24 21 16 20 17 23 25 18 21 19 20 17 20 20 23 28 14 21 17 17 24 18 23 21 22 20 30 17 16 26 21 19 24 18 22 22 24 19 21 20 15 13 21 26 24 18 17 11 20 21 19 13 17 20 30 12 19 16 20 23 21 16 19 28 29 14 23 33 32 25 29 21 21 19 24 21 21 23 18 17 16 20 15 19 20 16 16 20 24 25 19 20 19 17 22 23 21 20 20 20 18 16 21 22 18 23 22 20 25 26 21 27 25 27 26 21 18 29 24 19 13 24 23 24 15 17 27 31 22 23 23 19 24 17 27 16 17 24 24 19 25 22 26 15 28 24 20 18 19 23 18 23 25 20 24 21 22 21 31 18 20 24 19 22 16 19 25 19 20 16 21 17 19 20 22 25 22 14 23 19 25 20 23 30 13 33 18 25 23 25 19 16 22 30 15 22 16 12 16 29 25 22 27 28 17 19 17 25 25 21 23 21 20 22 26 28 18 25 25 22 22 26 25 24 22 13 17 27 16 14 16 25 14 21 23 21 24 21 18 24 20 28 20 22 28 15 19 20 17 29 20 31 30 23 16 15 25 31 17 20 25 23 15 21 18 29 14 25 24 21 24 22 28 12 17 19 30 21 26 20 26 17 23 19 24 22 15 22 20 26 16 21 20 19 24 22 17 20 14 23 24 20 25 21 15 21 27 20 16 19 22 19 20 22 19 15 24 25 16 21 22 19 23 22 22 13 23 12 15 21 28 15 19 25 21 24 22 24 21 23 20 17 18 22 25 17 20 19 20 23 25 26 18 17 20 18 16 24 18 24 23 21 22 27 20 14 27 19 24 21 23 28 12 24 23 23 29 18 11 33 26 24 15 17 21 24 23 29 23 21 30 19 21 27 23 23 21 23 23 26 24 23 20 21 21 27 27 22 15 20 26 21 19 24 24 23 26 17 22 14 26 15 17 18 27 30 19 13 24 25 20 21 20 26 26 26 16 18 23 25 18 18 28 19 27 22 19 25 25 27 22 23 15 23 14 23 19 16 19 22 25 20 23 16 22 15 23 22 18 22 24 20 23 23 24 18 25 24 19 19 18 26 26 16 16 16 29 16 25 24 23 26 18 20 14 21 16 17 21 24 25 20 28 18 33 19 18 20 19 22 15 14 13 14 22 20 22 17 21 21 24 22 25 22 16 15 18 19 18 16 16 24 26 16 21 31 20 18 24 25 20 24 21 22 25 18 22 19 20 24 23 25 26 13 21 22 22 21 21 17 23 23 21 17 14 17 18 23 13 25 23 27 21 18 23 23 21 26 26 23 20 18 19 26 27 25 17 25 24 24 23 21 21 16 15 21 20 16 21 18 14 19 26 27 24 25 18 28 19 20 24 21 19 24 24 23 18 17 24 18 20 25 26 15 19 24 23 27 21 21 26 22 26 20 22 19 25 15 22 20 22 23 17 17 27 19 15 22 22 20 18 24 22 19 25 26 20 19 22 20 21 20 22 28 29 19 26 25 18 25 22 17 24 11 25 28 15 21 25 23 27 15 19 21 20 21 26 18 15 25 22 12 20 16 22 23 17 22 17 30 15 17 20 17 22 31 24 25 21 17 18 17 17 24 19 24 22 24 20 30 18 19 22 26 22 25 23 21 24 22 29 18 22 22 13 11 17 15 13 24 17 18 20 19 21 30 16 21 26 27 14 13 22 16 13 30 20 21 22 28 28 24 19 22 15 19 21 21 20 32 25 26 16 28 24 17 17 25 20 22 22 22 25 29 26 19 17 14 28 20 20 18 22 22 23 16 19 31 19 15 28 25 14 26 26 23 26 25 25 11 21 22 27 17 17 19 29 20 20 21 31 26 22 28 15 29 17 22 20 14 21 23 23 15 26 18 20 28 23 21 27 22 23 17 27 21 15 22 22 16 21 25 17 14 16 16 17 11 19 22 28 18 23 19 16 20 18 18 24 24 27 21 16 22 28 14 22 27 13 19 21 14 22 18 27 18 19 28 25 21 17 18 17 20 19 25 14 19 24 21 22 14 26 23 13 25 18 17 19 18 17 27 18 21 22 14 20 22 23 21 24 24 19 20 23 19 21 23 20 13 22 16 23 20 23 19 27 18 20 19 25 20 23 23 24 25 25 22 14 25 34 28 24 22 16 20 27 26 19 28 21 26 25 21 29 26 19 18 28 25 22 18 22 24 25 21 25 20 19 24 24 17 20 16 24 28 18 23 18 20 28 22 24 25 23 23 20 25 21 17 31 24 27 24 34 19 26 21 19 21 21 26 20 22 12 23 25 23 16 21 21 14 25 20 18 24 26 29 14 18 27 28 18 17 25 24 27 22 22 26 21 10 23 19 24 22 20 22 21 23 17 20 29 19 21 25 28 20 14 16 29 21 18 15 14 19 22 17 15 17 20 23 21 21 24 25 26 19 22 22 18 23 21 22 20 22 18 22 17 14 21 25 19 18 18 18 23 14 29 14 25 28 29 19 18 18 20 24 24 18 20 25 24 20 20 30 27 18 19 24 19 24 20 18 18 19 21 21 22 24 20 19 10 24 23 20 25 23 14 25 20 21 22 15 22 24 24 20 18 27 28 18 22 22 13 21 11 17 21 25 17 19 20 17 19 21 17 19 27 26 22 19 21 24 19 23 25 28 22 22 18 19 21 20 17 28 26 23 26 15 25 25 19 21 19 22 22 28 22 14 24 14 18 17 21 19 20 15 22 20 20 17 20 30 22 25 24 25 18 23 18 20 14 29 17 21 30 21 19 18 19 20 14 20 28 21 18 22 19 19 21 33 16 24 19 22 19 24 30 21 21 19 13 21 19 16 15 20 16 17 12 18 26 24 19 21 26 14 20 28 15 30 21 12 29 21 19 14 28 19 26 26 19 20 22 11 27 16 18 24 24 25 26 17 23 19 21 24 29 20 29 24 27 21 14 22 23 19 18 17 24 25 25 19 21 14 13 28 22 28 24 24 17 25 20 17 21 20 12 11 18 22 21 21 21 28 18 18 12 22 21 17 18 15 29 29 22 20 21 20 29 14 26 30 26 18 17 25 18 20 25 20 26 17 22 25 20 20 29 23 26 19 21 17 24 16 25 33 23 18 24 19 13 17 23 18 18 17 21 27 23 20 20 17 17 15 17 21 20 20 21 19 20 30 28 25 24 24 14 19 17 19 25 26 31 22 22 27 27 24 28 23 21 25 24 7 25 26 19 17 20 19 29 26 19 18 21 19 21 22 22 25 19 25 20 24 20 17 18 24 24 16 20 24 20 18 26 27 18 21 23 23 19 31 23 17 24 24 25 19 23 22 14 28 16 22 25 20 17 25 16 22 18 19 16 18 15 20 27 17 23 16 25 23 22 22 16 25 27 26 17 29 20 21 27 26 27 21 20 15 20 34 24 24 21 26 27 24 21 16 23 25 25 17 17 21 37 26 14 23 20 22 12 24 21 17 19 24 22 23 26 27 12 12 19 21 20 19 24 25 24 25 24 15 20 19 21 23 19 18 22 28 29 17 28 20 17 24 22 17 22 22 14 23 23 17 19 21 17 20 14 21 24 21 21 22 18 16 24 23 21 18 26 19 21 21 20 24 28 22 18 21 21 15 19 14 21 19 16 23 22 23 20 30 27 18 20 26 29 21 26 18 22 21 20 17 17 21 19 22 20 21 17 15 13 23 27 21 27 27 20 20 13 16 20 24 19 24 29 16 17 21 20 20 20 16 27 16 15 12 23 27 24 16 27 21 25 15 17 32 24 20 26 19 16 26 19 26 19 23 21 20 24 20 19 22 26 15 20 18 21 26 21 22 13 16 17 19 21 33 24 27 21 28 19 18 18 21 21 22 23 17 22 23 19 24 20 20 25 21 21 18 22 23 26 18 30 17 25 20 23 18 19 21 18 11 15 20 28 16 19 21 19 28 21 21 22 16 17 26 20 22 21 22 32 20 15 25 15 19 24 23 18 23 28 18 24 19 23 19 12 23 25 28 15 19 20 16 23 22 27 21 21 22 20 22 23 17 18 31 13 27 31 26 22 13 20 14 25 23 24 25 21 24 24 21 21 20 24 20 25 23 26 18 20 16 14 23 25 15 23 17 21 19 26 25 16 20 23 21 21 23 29 17 20 19 26 15 12 18 14 23 21 21 20 24 30 15 19 18 19 23 24 16 23 19 20 25 23 14 19 24 20 23 19 25 20 22 19 21 26 19 21 24 20 18 21 18 23 25 18 18 26 12 27 21 15 18 20 22 23 14 14 19 18 23 21 22 30 22 26 16 19 8 18 22 21 24 17 18 28 25 18 19 23 19 21 28 21 22 23 28 19 19 18 20 21 16 24 23 22 21 23 26 21 29 19 17 20 16 20 24 22 13 24 20 17 23 19 18 23 27 13 17 24 22 24 17 21 14 16 26 16 23 15 18 20 22 19 18 14 21 17 18 30 29 20 23 23 23 24 22 25 31 22 24 22 19 21 19 20 20 14 16 25 26 24 23 22 18 24 20 16 11 23 19 21 19 15 23 23 25 19 24 23 19 19 18 20 17 15 24 21 24 16 24 23 18 20 25 18 18 14 21 18 32 25 22 25 18 32 23 25 20 16 23 28 18 28 25 21 19 24 32 24 20 20 16 18 23 26 22 24 21 18 24 20 22 26 11 18 25 21 24 28 22 25 27 21 18 16 21 21 25 15 18 17 31 17 27 22 17 23 21 21 29 24 14 22 29 22 17 17 17 22 21 22 21 27 18 18 24 23 25 18 27 23 21 15 22 22 26 26 20 18 25 25 27 16 19 22 21 27 20 18 17 17 21 21 24 22 17 22 19 23 22 18 26 28 24 21 21 23 14 27 24 22 20 24 21 14 27 21 22 26 19 17 14 22 26 25 17 22 19 24 25 18 19 19 20 25 23 19 27 22 21 25 21 21 24 24 26 23 24 21 22 18 22 21 24 27 20 23 23 17 22 25 16 17 14 17 21 17 19 20 21 24 19 20 20 22 21 23 20 14 15 16 17 12 23 28 20 24 18 18 20 23 28 26 14 24 15 20 28 20 22 19 25 20 24 16 19 22 17 24 31 20 22 15 18 28 13 30 23 21 27 20 26 25 27 16 15 21 19 11 27 18 24 24 32 21 22 21 18 31 17 28 18 16 14 22 12 22 19 19 14 19 19 14 13 19 18 32 20 21 17 18 20 25 23 24 20 23 35 20 23 27 24 26 20 23 22 30 24 16 22 20 30 28 29 24 26 22 23 22 30 20 30 21 17 21 18 23 20 17 24 21 19 17 13 19 16 19 20 26 21 24 21 25 23 23 27 20 14 24 26 24 19 18 20 26 29 24 19 18 18 20 20 25 21 23 31 21 29 30 20 23 26 18 20 24 18 21 22 18 26 19 22 27 18 25 26 19 19 23 28 22 25 25 29 24 23 21 30 19 20 22 23 23 21 23 20 18 19 18 27 20 22 21 25 16 26 27 16 22 24 17 21 20 16 21 23 21 20 22 20 24 23 23 26 21 21 21 17 20 22 27 22 16 26 26 18 20 16 22 20 20 27 20 19 20 19 21 22 26 23 23 23 14 21 23 20 16 20 28 25 11 20 23 25 18 15 24 15 27 19 23 29 20 19 23 22 16 20 19 17 21 22 21 25 19 21 19 18 25 21 18 21 19 14 22 16 22 17 23 21 21 25 22 22 24 18 19 22 19 14 35 22 19 25 8 24 22 13 32 23 20 19 26 20 22 21 29 23 19 21 25 22 24 26 20 26 24 18 20 19 15 16 24 14 20 13 29 24 24 21 24 18 20 18 30 18 23 23 23 30 20 26 16 26 25 22 23 25 20 19 24 16 22 22 28 20 26 26 20 19 22 19 20 20 16 25 20 13 23 24 17 20 15 29 21 20 18 19 19 18 16 27 17 15 15 31 27 22 20 18 15 20 19 19 19 14 18 20 30 30 21 17 32 21 21 23 19 14 12 22 28 27 18 21 21 24 26 26 22 23 25 29 27 14 20 16 16 19 22 23 23 20 15 16 20 20 16 20 18 20 24 25 15 18 18 22 23 25 14 23 21 19 23 25 24 22 27 19 22 23 26 24 11 22 20 19 17 24 18 22 9 21 19 22 20 18 22 20 17 19 18 23 23 19 15 16 26 19 25 15 23 20 15 14 14 17 28 28 20 24 19 19 22 14 20 15 21 23 23 16 18 20 25 23 22 21 21 16 27 21 25 25 23 22 26 23 19 23 9 25 16 21 18 23 26 24 22 19 23 21 27 22 19 20 25 18 20 20 26 20 15 20 27 26 21 17 23 21 23 22 22 18 24 24 28 22 15 21 23 22 27 21 23 20 22 24 24 18 22 26 25 26 19 14 18 23 18 22 21 22 25 24 21 22 24 27 22 16 17 26 18 21 32 25 18 28 15 27 21 19 23 20 28 15 24 25 24 22 18 24 23 18 25 24 22 17 25 28 21 27 21 15 19 18 30 18 25 27 22 22 18 19 26 20 17 20 18 25 17 23 19 28 18 24 27 21 25 10 22 20 18 15 16 19 14 18 19 22 14 22 22 21 21 15 15 24 27 24 26 13 19 18 20 28 21 29 16 17 12 23 16 27 18 23 27 27 16 22 20 27 24 18 18 21 18 16 20 18 14 21 16 27 25 27 20 21 24 18 20 29 15 24 21 19 19 29 18 15 19 26 21 19 22 18 29 26 22 24 17 21 23 18 17 15 12 23 20 20 24 20 31 22 25 19 24 26 17 18 19 19 20 24 24 23 20 19 18 17 24 16 20 20 19 23 22 14 24 17 23 18 21 17 24 28 22 22 18 19 16 24 19 16 14 20 22 22 21 28 18 25 15 18 23 16 20 25 21 19 32 20 16 25 18 21 24 19 27 16 19 22 26 17 22 19 19 24 22 27 16 20 26 24 16 24 17 20 17 25 22 14 19 22 17 25 27 24 27 25 22 30 25 23 20 27 24 25 26 18 21 18 21 25 27 19 27 19 31 17 23 20 28 20 18 22 18 17 18 25 21 22 22 17 24 16 10 23 27 19 24 19 22 30 14 20 23 16 20 22 24 12 25 28 23 18 30 26 20 24 20 26 25 23 17 21 23 20 24 22 25 20 24 32 24 29 22 19 22 17 20 24 21 15 22 19 20 25 15 25 29 23 17 23 29 18 19 23 14 20 25 23 12 26 19 20 20 25 25 20 20 24 17 25 28 20 18 19 16 20 31 20 24 25 20 25 18 22 20 23 15 24 20 18 27 21 26 26 21 25 28 21 16 17 13 38 24 31 19 16 18 23 24 19 22 19 22 16 20 28 23 15 29 21 22 15 18 17 19 19 18 24 22 16 16 16 19 24 19 21 20 23 18 16 27 21 26 20 21 22 27 20 15 19 20 21 17 23 23 25 11 18 25 18 19 24 19 27 20 26 24 17 19 15 15 21 22 21 27 18 16 28 34 18 21 22 20 16 13 22 21 19 18 17 21 24 23 18 28 22 22 27 27 17 21 23 14 25 21 24 11 32 20 29 17 25 22 18 25 20 23 20 29 21 19 19 24 20 27 25 17 24 18 16 27 20 27 23 24 11 29 22 26 20 23 17 20 27 23 26 29 23 21 26 19 27 20 15 30 26 33 20 18 20 21 24 26 23 16 26 23 24 21 24 30 20 24 27 32 24 22 20 28 17 17 20 18 21 19 20 25 20 21 22 15 20 19 24 13 27 17 23 27 14 15 22 31 30 17 22 15 19 17 23 24 21 22 18 23 17 24 23 23 20 23 22 24 22 27 19 22 21 15 26 17 27 24 14 18 16 17 24 12 20 19 12 21 27 23 27 25 23 20 21 19 18 22 16 24 20 25 20 19 18 22 26 12 22 17 24 19 31 27 18 22 24 17 14 12 23 16 19 26 29 26 25 22 18 29 27 29 19 17 29 24 21 21 27 15 19 28 28 21 26 20 20 21 26 24 14 20 26 15 18 28 19 17 28 24 20 22 19 12 26 19 23 29 32 21 20 24 23 22 25 20 15 15 26 26 16 22 23 22 17 28 14 24 22 25 15 26 21 17 29 22 19 22 28 26 18 21 21 12 20 18 26 24 22 19 19 21 23 21 25 19 17 20 18 22 21 21 24 18 21 29 13 20 21 25 25 22 19 25 15 27 28 18 22 15 19 23 14 24 23 24 20 28 25 26 21 26 24 24 17 18 18 24 22 18 22 23 13 24 26 26 23 28 26 22 24 23 14 12 21 24 25 23 14 20 24 26 20 26 18 24 20 20 21 29 19 28 18 17 19 21 24 16 19 19 15 25 18 21 20 17 17 21 27 16 21 23 18 16 24 26 30 17 17 28 30 19 23 27 31 24 19 22 24 25 19 28 22 22 24 21 25 18 20 24 17 22 26 24 28 20 18 24 21 22 22 21 23 15 14 24 23 27 13 23 22 21 23 18 21 15 22 31 24 17 22 23 18 21 27 27 17 19 26 22 14 19 15 22 14 29 30 17 29 18 22 19 20 19 23 19 24 25 25 16 26 20 15 16 21 21 23 18 25 22 22 28 26 18 17 29 28 25 22 23 24 13 23 22 24 25 25 19 20 23 29 23 21 22 28 25 23 26 19 20 21 25 33 18 18 17 13 19 17 24 29 22 15 20 33 16 17 28 23 21 19 27 17 18 19 22 22 20 12 16 22 17 24 26 17 17 18 15 20 18 22 20 21 20 17 25 23 18 20 26 22 28 21 33 27 13 27 19 21 19 21 20 23 25 20 23 17 17 17 21 13 16 28 22 21 18 24 20 24 25 21 23 21 21 22 26 21 27 20 17 15 27 26 26 24 14 26 19 17 22 23 20 17 33 22 22 15 13 22 19 24 19 20 29 20 19 23 19 17 27 22 20 21 30 24 22 28 20 24 16 19 16 29 19 31 22 15 22 22 16 18 21 22 20 16 23 29 17 20 23 23 26 23 29 23 25 16 14 14 14 23 31 16 26 15 17 25 19 26 29 26 16 32 26 14 32 24 22 22 25 26 15 19 22 19 18 17 28 22 25 28 19 16 23 22 21 19 30 22 17 22 28 17 21 22 20 29 15 28 24 20 21 17 24 19 25 17 22 22 19 20 26 14 18 22 20 24 19 19 14 15 17 22 13 22 25 12 26 23 26 24 23 26 27 20 20 16 24 20 29 19 27 27 25 22 22 15 22 23 29 22 31 18 23 12 18 21 29 21 26 16 22 23 22 25 13 25 20 16 16 22 18 25 24 26 30 17 17 24 18 16 15 22 25 21 30 19 19 28 18 29 19 19 25 24 18 18 20 21 21 20 23 19 24 19 18 17 25 29 26 25 25 28 27 20 19 22 20 21 18 27 21 26 21 18 30 15 27 27 25 23 31 19 38 17 24 21 22 23 24 17 27 24 25 18 22 17 19 16 20 25 24 18 31 25 25 16 23 25 23 19 17 24 26 23 26 26 32 23 22 23 22 14 24 28 25 21 22 22 21 23 24 20 17 25 23 25 23 24 12 18 17 28 20 18 17 21 29 19 18 19 24 20 15 22 24 23 18 18 12 17 22 25 25 16 27 22 24 18 33 16 21 20 16 17 25 22 9 18 21 14 28 18 22 30 22 23 18 21 23 34 13 14 26 30 28 15 24 29 22 29 18 21 18 26 18 22 18 20 24 25 20 25 21 19 22 29 26 21 24 25 16 21 27 17 18 20 24 19 22 16 15 28 16 18 24 17 20 26 21 22 24 21 24 14 24 20 27 16 21 21 22 22 21 22 28 26 23 20 15 22 17 20 22 23 17 12 22 31 23 13 25 24 23 23 15 18 24 15 19 25 18 20 21 18 34 26 23 29 10 22 24 21 26 23 25 22 22 20 21 29 17 14 13 25 26 19 15 19 23 20 23 25 18 14 24 16 20 22 23 15 28 19 23 17 22 17 28 17 23 24 27 20 20 24 13 20 19 25 21 20 19 25 22 22 24 22 14 18 16 18 22 24 19 21 21 21 31 28 17 29 21 15 20 16 27 26 18 22 9 15 17 14 21 23 22 21 22 14 21 16 25 32 23 22 23 16 18 21 16 23 25 21 22 26 14 15 21 24 27 22 21 15 21 30 27 27 13 23 20 18 20 17 17 17 28 23 20 20 21 20 18 26 27 19 21 23 15 17 17 21 21 13 19 27 22 24 19 22 18 21 21 15 19 21 28 17 21 29 18 20 20 24 14 24 26 16 25 23 26 19 24 21 25 13 19 18 19 27 17 28 25 24 20 20 28 21 31 16 24 23 19 23 23 30 23 25 23 17 23 22 21 19 25 30 20 21 21 15 32 26 29 20 24 20 17 27 28 18 21 21 24 17 18 23 21 16 18 17 24 22 20 22 15 20 26 20 25 19 21 18 22 18 24 17 26 17 20 13 26 21 23 18 25 21 16 13 17 17 22 14 24 25 20 25 28 18 26 26 18 22 20 22 20 24 21 22 20 26 25 25 20 21 24 16 28 24 31 21 19 18 20 18 16 26 27 26 18 23 21 21 22 15 28 21 20 27 23 11 25 26 26 23 32 24 20 24 26 20 21 17 22 23 18 24 24 25 24 19 21 23 31 30 31 15 24 18 27 23 27 18 19 16 25 16 18 20 11 16 24 23 14 17 22 23 23 27 21 18 25 23 27 25 13 32 26 20 17 26 18 35 16 20 27 23 26 19 17 21 12 23 17 17 23 21 22 19 22 17 27 17 24 24 24 22 17 26 25 23 15 17 19 12 15 20 26 19 31 15 29 19 17 17 23 24 18 16 21 25 25 23 21 24 17 28 15 19 24 22 22 22 18 19 11 25 17 17 21 31 23 22 10 22 16 17 20 15 18 21 20 23 16 25 27 12 22 17 19 21 28 20 15 19 17 12 24 16 21 21 31 18 20 26 27 22 20 17 28 25 29 18 26 32 19 25 31 16 25 21 17 23 22 21 21 28 23 26 18 23 23 19 24 22 21 30 24 27 21 22 25 26 26 23 27 17 19 24 17 27 22 28 17 36 20 23 23 21 24 17 20 17 24 23 21 22 17 21 14 21 25 21 28 20 32 26 25 24 27 30 23 26 22 17 20 26 21 21 20 23 23 19 24 22 20 18 21 20 30 25 15 20 23 21 23 25 27 26 22 24 24 25 28 26 29 21 28 17 23 21 23 22 21 23 15 18 24 24 29 22 28 28 16 22 26 15 22 23 24 12 24 25 14 15 24 15 22 24 18 17 20 25 24 18 26 25 24 15 20 21 22 22 25 22 23 31 26 19 19 19 21 24 18 19 19 22 18 26 20 20 15 24 26 21 26 18 19 25 19 25 22 20 21 20 22 18 13 20 20 22 23 29 14 16 19 19 19 34 24 23 21 21 20 18 19 26 28 23 19 16 14 18 13 22 17 23 17 26 14 20 17 19 21 21 24 19 23 20 18 24 19 23 20 22 14 21 15 20 16 22 19 22 15 24 21 18 28 26 19 16 16 20 24 21 19 23 17 22 21 23 21 21 18 21 19 28 26 24 22 33 23 23 22 22 17 29 26 17 26 23 16 22 26 18 21 18 30 20 28 24 27 22 23 21 16 21 13 11 24 18 22 28 22 27 12 22 22 21 33 29 32 21 20 22 25 20 28 24 24 20 14 24 24 20 17 17 24 19 18 21 19 20 22 21 21 21 15 15 10 22 20 18 30 19 18 19 23 28 21 20 14 17 22 10 25 15 19 21 21 24 31 21 22 25 23 26 16 27 16 23 24 15 28 28 25 17 17 19 24 29 19 20 19 26 18 15 24 24 24 21 28 24 18 19 27 21 14 23 28 13 24 18 20 18 24 20 25 12 24 26 18 25 17 24 19 25 27 28 22 23 19 21 18 21 15 24 17 22 18 22 21 33 19 28 25 19 21 22 30 20 26 16 21 25 18 13 23 28 19 28 20 12 27 21 23 22 18 19 20 21 21 20 15 24 15 17 30 17 19 24 27 15 23 19 24 19 25 17 20 27 16 28 13 23 21 19 24 28 29 18 18 16 22 21 19 19 24 19 21 19 26 21 22 24 23 25 22 21 30 14 26 24 22 25 25 25 22 22 25 10 29 26 16 19 24 23 21 20 21 22 21 24 23 17 22 25 16 14 15 19 15 21 20 35 25 28 24 19 20 20 24 20 22 18 16 24 22 26 19 14 20 29 24 26 22 26 21 17 26 25 21 22 23 22 17 24 23 24 26 20 28 17 29 25 18 18 17 23 25 32 27 23 12 21 17 22 24 24 20 13 21 28 21 19 21 24 21 20 27 24 29 22 30 15 21 23 18 15 16 26 21 18 24 20 17 25 18 26 24 28 24 21 19 16 23 24 23 23 20 26 15 26 19 19 19 26 18 14 23 22 24 19 25 25 19 26 18 15 22 21 25 15 26 14 20 18 24 29 22 14 21 23 29 15 18 21 22 23 25 20 21 16 23 21 24 27 17 27 18 24 18 24 19 17 19 17 25 23 22 13 17 28 19 22 22 23 26 19 17 21 21 20 20 19 19 21 18 17 19 25 19 21 23 22 20 20 16 16 22 28 19 14 19 24 25 23 17 26 21 26 17 21 16 27 29 18 26 21 26 17 28 25 21 16 23 24 19 24 28 24 25 15 18 23 23 22 23 22 21 22 14 17 25 14 24 26 11 21 28 18 24 22 30 21 29 23 23 29 17 22 21 19 28 21 18 24 19 18 24 25 25 21 23 27 26 19 28 22 23 21 24 22 26 19 27 22 16 13 24 21 11 22 24 24 22 22 26 23 25 22 14 17 28 19 24 24 24 28 31 26 17 23 26 27 19 23 21 20 25 17 15 25 16 24 22 25 20 17 16 20 23 21 25 19 19 12 22 29 22 23 23 12 26 17 22 21 15 24 32 27 21 22 19 24 22 15 19 22 20 20 21 23 15 16 28 20 14 22 20 20 20 24 15 29 23 21 25 18 19 19 21 24 16 28 21 22 26 17 17 21 20 16 23 20 19 17 20 25 21 21 23 18 18 27 19 14 21 22 12 29 18 17 27 24 30 24 25 14 27 21 19 17 25 22 23 21 23 18 22 17 17 18 31 20 16 21 24 18 26 22 24 28 22 23 19 26 21 26 23 20 12 26 22 24 20 21 22 23 21 27 12 23 22 21 23 24 28 21 19 15 19 15 27 20 28 20 22 25 22 22 20 20 21 25 21 22 33 24 23 31 23 22 26 23 21 21 20 23 22 23 25 16 22 16 20 25 23 30 24 22 24 20 19 19 22 23 21 27 19 25 30 20 22 19 17 14 23 16 18 25 26 25 22 19 30 22 26 18 19 20 24 16 20 29 27 11 20 22 19 18 15 21 22 25 18 21 18 19 19 20 31 20 20 20 18 12 13 18 23 15 17 22 19 18 20 18 15 19 29 19 26 14 24 20 19 26 27 26 13 19 22 23 21 23 14 20 17 27 17 19 24 24 22 18 22 20 19 21 23 26 23 28 25 25 20 19 28 22 21 20 21 18 22 20 17 18 18 20 25 36 29 24 17 22 20 18 29 19 28 23 14 18 21 21 25 28 28 16 25 28 18 23 19 15 21 26 23 22 30 15 23 18 22 27 29 20 17 22 25 18 30 25 22 21 22 25 19 24 19 23 21 28 20 28 21 27 23 15 18 18 24 14 28 27 20 18 27 20 24 23 23 17 25 19 28 25 22 27 16 19 22 20 24 23 22 32 29 24 18 22 24 20 19 17 22 22 17 23 15 23 21 28 16 20 20 21 24 22 22 16 21 22 25 21 21 22 21 20 22 32 27 23 20 20 18 17 28 20 20 23 27 30 18 21 25 17 19 23 19 18 19 21 23 20 22 24 17 20 23 22 23 22 24 30 22 21 15 24 20 10 27 21 15 23 25 28 19 18 18 15 21 23 23 26 33 15 26 14 20 26 19 26 22 26 24 22 20 18 24 27 20 28 24 21 23 22 23 18 12 23 20 21 25 21 28 22 18 24 22 26 16 26 27 17 19 19 25 26 17 25 23 24 20 26 22 16 26 22 15 24 16 19 23 15 25 15 14 20 14 22 25 25 22 17 14 31 15 12 28 19 24 17 24 26 22 20 22 22 20 17 29 24 24 25 23 14 25 22 15 19 25 22 19 15 29 20 22 23 26 21 20 21 21 22 18 23 16 21 24 24 23 21 14 22 11 29 28 21 19 29 23 29 25 19 23 22 23 17 19 19 24 20 23 24 18 23 29 21 28 20 24 14 21 21 25 15 24 22 24 15 25 19 25 19 18 22 23 26 16 19 19 19 22 28 20 19 21 20 21 22 21 29 24 25 30 25 20 19 22 19 19 24 16 31 29 21 23 19 22 25 17 20 21 21 23 18 23 24 28 21 21 20 20 18 30 17 18 26 18 26 24 17 25 23 23 25 24 27 26 26 19 15 21 22 22 29 26 19 13 21 19 17 15 23 18 19 24 14 20 12 23 25 29 20 20 19 22 21 25 22 20 25 25 26 25 13 20 23 16 27 20 20 25 36 17 19 24 20 19 20 21 22 17 24 29 24 22 26 26 24 21 22 15 20 15 18 20 22 19 19 14 14 21 27 27 22 19 26 14 24 22 33 25 17 16 21 17 21 28 23 20 23 21 19 25 25 19 33 19 30 25 18 23 31 23 20 14 27 21 21 21 14 26 16 24 19 30 23 21 21 16 24 26 22 23 16 20 27 16 16 16 20 21 27 15 27 19 24 27 22 24 23 22 20 26 11 17 22 18 25 18 16 18 26 22 15 21 26 22 21 14 18 14 25 17 20 18 22 21 22 23 24 13 21 17 26 29 22 19 21 14 18 23 22 23 19 12 21 18 13 20 20 13 19 22 21 15 21 19 22 20 22 20 22 27 24 21 18 23 25 23 22 17 22 22 21 21 19 13 23 17 26 22 21 23 20 22 17 18 27 22 17 17 20 26 20 18 16 25 22 22 19 31 21 15 21 23 21 23 28 19 28 18 26 21 26 18 20 21 19 25 17 18 19 26 18 25 27 20 19 24 23 23 26 21 22 20 18 22 19 23 22 20 22 25 16 15 32 19 24 21 22 26 21 22 21 22 21 21 21 21 24 22 25 17 18 32 32 22 27 25 25 11 19 23 20 22 17 15 21 27 21 19 20 17 22 25 27 19 15 27 21 16 19 21 19 14 23 22 18 16 23 14 25 21 26 21 30 24 26 26 22 24 17 20 19 16 22 20 21 20 24 29 16 28 25 16 20 27 22 26 24 25 18 17 24 30 13 19 27 22 22 21 11 22 19 16 18 24 27 21 15 21 17 20 25 20 15 23 24 20 14 25 24 24 14 13 25 18 16 29 19 19 29 24 23 20 13 29 29 23 19 20 19 20 28 29 24 22 22 15 19 15 20 15 12 26 14 23 21 21 20 23 26 21 18 17 20 29 25 23 21 21 22 16 21 22 22 23 19 24 19 25 16 23 26 21 23 16 23 25 13 15 19 17 13 26 16 22 21 15 14 20 26 27 12 31 24 29 16 23 23 20 20 22 23 27 18 19 24 19 21 24 19 22 16 18 26 22 22 12 24 19 21 14 20 18 24 21 22 23 28 21 23 24 19 20 19 22 26 16 20 18 18 29 25 25 22 21 24 26 20 24 23 26 21 18 24 26 20 28 25 27 13 24 20 24 14 22 25 32 15 22 20 20 19 11 25 24 20 21 24 23 24 21 27 22 22 20 20 21 27 24 20 21 21 23 26 27 18 21 18 22 23 24 18 20 22 24 25 20 17 24 16 22 26 14 24 18 22 26 21 28 18 12 20 27 23 20 18 18 10 21 30 23 21 22 19 23 21 26 21 21 14 24 18 26 21 29 25 20 18 17 19 27 24 21 19 24 20 22 20 19 23 15 12 20 15 19 14 20 23 28 24 32 24 14 22 19 22 18 30 24 18 24 28 26 19 20 22 20 20 25 22 14 24 19 20 20 24 22 22 16 25 26 23 16 30 21 32 22 23 23 18 26 18 19 21 18 18 17 24 19 29 29 30 27 19 29 21 24 17 25 21 18 21 20 23 32 21 18 18 28 32 22 22 20 14 24 18 23 18 24 18 19 13 13 22 21 22 24 17 30 21 24 25 22 25 21 23 23 23 21 27 19 26 21 22 22 16 24 23 22 12 16 18 30 21 27 19 22 15 22 28 18 19 19 16 24 31 27 16 26 25 25 20 21 25 22 24 18 23 19 18 17 34 16 20 24 22 17 31 24 20 19 21 18 22 22 24 28 17 18 15 28 17 26 22 17 26 17 23 22 21 23 22 24 25 18 21 17 19 25 28 25 24 22 21 24 20 23 18 22 19 18 20 25 23 18 28 15 25 17 22 16 20 20 17 26 17 25 22 19 21 28 21 20 27 19 24 23 27 23 25 24 17 16 21 25 31 21 17 18 22 17 23 20 23 21 17 18 23 28 24 23 22 23 22 18 21 24 28 22 21 26 18 23 15 17 19 27 21 23 17 18 27 13 19 20 23 31 25 21 19 27 16 13 20 12 26 19 20 26 19 23 21 27 24 21 16 17 23 12 25 16 26 21 29 19 23 30 23 21 19 22 24 22 17 10 16 22 26 19 24 31 14 19 22 19 19 15 28 25 24 25 23 21 20 19 20 22 23 18 29 18 18 20 17 25 25 18 20 25 15 26 21 18 22 28 24 31 21 29 17 27 20 27 23 16 30 32 26 16 16 27 16 25 25 17 18 30 19 25 24 24 25 23 24 16 19 34 24 21 30 31 20 21 15 17 18 29 23 18 27 18 26 29 13 22 23 34 22 23 23 19 21 27 20 18 17 24 25 24 27 27 26 20 21 18 26 24 28 17 23 20 24 17 21 18 23 23 19 24 23 25 20 16 24 22 16 21 13 23 23 25 17 21 21 31 33 21 20 17 23 21 21 24 18 21 18 25 19 14 25 27 20 20 25 17 29 21 17 18 30 19 28 19 25 19 16 25 27 18 22 21 19 22 20 23 19 29 25 27 13 21 20 28 22 14 32 25 15 16 18 19 15 22 20 20 12 18 28 23 23 15 15 28 22 16 21 22 26 18 23 25 25 22 24 24 20 18 31 16 22 25 19 24 22 20 22 17 11 19 23 26 26 28 25 19 14 20 19 20 20 20 26 18 23 22 17 27 26 21 20 23 16 21 25 20 21 25 20 30 16 31 21 24 22 26 14 28 18 22 27 22 25 16 25 20 16 12 20 13 18 24 18 18 16 20 29 20 18 17 16 21 15 22 18 23 19 22 18 22 24 18 18 29 23 21 17 26 13 20 29 20 16 21 23 24 21 17 17 26 16 21 20 23 22 27 19 21 16 27 19 24 24 28 18 20 20 23 16 22 21 27 15 26 14 14 27 27 21 28 26 20 17 25 21 24 18 18 21 28 20 12 16 18 20 21 30 19 20 20 24 21 20 23 23 13 21 26 21 19 20 20 10 18 19 21 21 22 28 18 22 29 23 23 27 29 25 22 17 20 31 20 31 25 19 19 12 19 29 19 21 20 27 14 18 18 22 7 19 21 24 14 19 24 19 21 22 29 17 21 21 28 12 28 19 13 21 17 16 24 23 23 16 18 25 24 20 24 30 24 23 23 18 19 23 26 34 24 18 30 18 18 20 23 23 32 26 22 31 16 17 18 22 22 30 23 32 25 26 20 10 15 14 25 13 21 14 24 20 25 20 15 24 17 24 14 22 16 28 24 21 24 19 17 23 18 27 19 14 26 30 15 26 22 20 27 17 21 21 20 23 22 19 23 14 15 21 26 21 25 16 16 20 28 23 25 21 25 23 23 27 18 16 25 24 16 26 24 28 24 18 26 18 19 28 20 24 20 16 22 23 26 25 19 22 17 25 18 21 21 29 22 21 19 22 27 22 26 23 19 23 26 23 27 13 21 28 24 20 20 21 23 21 16 22 8 19 31 24 27 21 26 22 18 23 22 18 26 21 25 18 19 17 22 17 24 21 28 23 23 21 18 25 16 23 23 19 27 23 22 12 24 26 19 22 26 20 19 22 20 24 15 22 28 27 19 24 29 22 20 29 14 25 20 30 17 19 25 22 23 16 20 23 32 23 22 20 18 17 16 19 15 21 18 19 22 23 24 18 20 26 20 27 27 24 13 23 17 23 17 21 26 22 21 18 22 24 21 23 18 25 19 15 18 21 22 25 17 23 24 24 21 25 22 21 25 19 21 24 19 21 21 20 20 13 23 24 25 19 17 22 23 21 14 18 19 17 16 17 26 24 24 23 23 23 24 22 23 18 15 20 17 26 24 35 23 23 26 16 22 29 25 19 26 23 24 22 21 26 23 21 22 18 28 19 19 27 23 23 20 25 20 25 28 15 21 17 24 18 22 24 19 16 20 18 24 18 24 22 23 19 20 21 22 19 17 24 11 22 17 21 26 25 20 18 21 16 23 22 27 16 18 27 24 21 27 22 18 25 25 21 19 22 29 24 18 20 22 24 17 20 23 11 21 21 15 24 28 18 26 19 17 24 27 25 15 18 29 23 17 21 23</t>
+  </si>
+  <si>
+    <t>JSU(-4.021324601714701, 7.035380589877086, 12.362876467462694, 33.157984234452606)</t>
+  </si>
+  <si>
+    <t>42 35 37 34 35 30 28 30 36 37 35 39 34 18 29 27 36 31 31 28 35 37 21 41 43 35 33 32 29 45 37 39 34 34 32 28 35 31 32 24 31 38 31 29 35 34 31 36 31 33 31 34 47 25 26 35 29 35 31 41 32 31 35 33 26 33 27 26 35 36 36 36 29 29 47 25 30 30 31 26 37 40 29 29 32 37 39 44 27 37 34 38 28 33 36 34 47 43 37 31 31 40 37 27 27 32 35 40 34 31 35 35 26 29 25 31 45 43 26 25 28 36 35 33 28 22 33 27 40 26 38 30 37 33 35 29 29 34 36 37 31 37 26 37 28 31 33 30 37 36 36 49 33 32 29 37 46 35 26 37 34 33 33 32 27 31 31 32 29 23 28 40 30 33 37 32 29 37 32 25 34 33 28 47 28 34 24 22 30 36 32 33 33 31 34 42 31 37 31 32 24 26 29 27 34 26 33 32 35 38 42 36 34 39 36 28 33 35 27 33 32 30 53 31 35 42 39 33 24 31 38 41 34 32 32 38 31 45 28 31 41 30 40 43 36 32 34 33 35 37 33 36 41 30 22 33 35 30 26 24 31 33 24 31 25 31 38 24 29 38 34 37 22 31 41 29 43 27 30 30 18 28 27 33 32 34 19 39 31 37 30 27 38 38 43 29 40 39 35 29 34 30 46 30 41 30 29 34 32 32 21 33 33 25 37 28 33 33 37 32 40 36 32 25 36 30 35 32 27 36 29 30 35 26 22 31 40 30 32 34 36 30 36 35 28 45 40 27 24 36 35 33 26 31 35 28 40 32 29 32 39 22 28 26 27 28 30 37 28 31 47 41 30 34 31 31 36 23 39 33 37 33 27 27 23 30 30 29 25 32 26 43 33 28 31 32 31 32 29 28 32 37 29 41 38 33 30 31 24 32 31 27 34 34 41 42 41 37 43 24 30 37 26 29 34 30 26 36 29 40 37 24 24 35 29 31 39 28 33 33 50 36 26 34 31 27 29 41 37 39 37 25 43 31 34 40 36 40 27 32 27 32 27 39 39 26 41 44 32 38 36 21 30 33 27 26 21 40 27 40 33 35 31 40 23 41 25 28 36 34 34 23 42 36 31 36 37 33 26 38 19 40 44 40 35 31 39 33 34 35 33 41 24 33 33 33 30 35 31 28 25 39 32 31 28 31 31 32 42 29 30 38 35 38 36 34 35 39 28 34 40 29 33 32 34 18 38 31 38 21 37 34 41 28 32 33 35 29 32 27 33 34 31 45 36 35 30 25 32 33 38 29 27 38 25 26 37 22 35 31 29 51 24 27 33 27 21 35 34 31 34 37 25 31 28 26 31 29 38 34 43 41 25 39 32 43 43 39 34 38 29 44 42 24 33 33 35 38 30 20 31 26 22 41 32 42 40 30 35 30 42 41 30 36 31 34 29 40 24 39 34 47 39 31 26 21 26 27 44 22 28 40 35 24 26 26 26 36 39 32 29 33 34 43 30 30 41 33 29 36 22 38 33 25 28 38 44 40 34 33 39 47 38 37 33 42 31 37 39 40 31 43 26 38 28 32 29 35 34 30 40 39 36 29 29 33 33 38 43 37 29 33 32 42 39 26 39 41 38 39 37 32 31 27 19 37 39 33 30 33 35 32 41 39 44 33 31 32 32 32 30 32 36 26 38 27 34 30 38 25 31 30 28 35 25 29 31 33 32 34 42 28 34 22 32 29 29 35 24 34 29 27 36 26 30 29 35 26 33 31 23 36 38 37 31 35 26 25 30 33 41 38 27 36 29 27 29 23 30 26 28 37 42 29 29 35 26 31 40 42 28 26 33 28 42 38 27 45 33 44 29 39 29 30 36 41 29 23 33 40 31 36 38 25 31 40 33 19 32 31 28 31 30 27 31 31 37 26 26 26 31 29 33 35 36 30 26 40 41 30 39 41 30 29 27 40 40 31 29 41 33 38 28 29 31 34 39 30 40 20 39 39 32 43 42 38 31 27 26 37 33 35 32 37 21 35 28 29 37 46 39 20 28 30 32 23 38 29 34 25 29 29 29 34 33 42 29 26 32 30 32 30 30 30 39 36 36 29 29 32 35 48 33 26 42 33 31 35 30 30 35 26 26 33 28 34 32 28 30 34 29 30 25 29 35 29 27 40 31 39 27 29 31 26 34 28 31 24 37 38 30 29 29 34 28 31 22 35 21 26 35 33 22 47 30 37 31 35 26 31 27 27 32 33 28 27 28 36 42 25 35 33 38 36 26 25 42 34 38 27 27 33 37 35 32 40 32 30 28 33 35 35 36 26 27 40 21 41 31 38 33 40 29 27 30 32 33 31 40 35 37 40 34 37 29 43 30 28 35 31 23 39 39 29 32 39 34 29 19 23 36 31 29 37 28 33 24 50 37 27 34 32 36 42 24 31 29 35 41 22 33 28 30 31 40 34 24 39 27 37 33 38 41 40 35 27 39 36 44 33 22 28 38 38 29 29 34 33 35 27 28 37 40 34 29 28 37 32 34 29 30 32 36 30 32 44 41 40 24 37 23 29 30 35 32 38 34 25 25 38 34 29 36 31 34 27 38 38 36 42 43 36 31 48 33 33 35 31 23 33 38 24 30 40 27 37 23 32 29 36 34 26 33 34 31 41 29 33 28 39 43 38 28 30 31 47 37 26 34 26 31 24 37 31 23 31 37 41 33 31 26 35 32 40 33 32 32 37 33 40 23 31 30 34 37 37 44 34 37 29 42 40 35 35 25 18 25 33 35 30 30 35 40 29 29 33 28 31 39 33 39 34 35 30 40 29 30 35 25 25 24 30 31 37 22 25 33 33 26 25 39 23 37 25 26 31 32 35 27 35 35 29 34 30 22 34 29 35 32 40 30 25 26 29 32 34 34 38 37 32 27 37 26 28 33 42 30 27 27 26 24 36 24 35 25 33 28 30 34 38 37 38 28 39 29 36 35 27 32 35 33 34 38 22 32 33 43 34 28 36 27 24 35 30 32 27 32 40 37 22 37 35 29 45 32 25 36 29 43 37 35 22 19 31 31 26 40 32 31 33 41 47 39 35 44 35 32 35 31 38 27 28 29 35 28 34 30 38 36 35 37 30 35 34 34 36 24 32 28 33 32 38 36 27 42 28 29 34 27 41 28 45 30 29 32 25 28 30 36 32 32 26 29 26 27 38 35 25 39 31 33 30 41 27 41 37 38 26 37 31 34 35 37 29 36 27 34 29 37 30 26 19 30 30 34 21 31 36 39 37 37 32 27 26 29 36 28 41 28 39 36 39 34 25 31 31 32 40 32 57 36 29 40 36 38 47 40 31 36 41 36 31 36 33 28 29 29 30 38 34 29 40 40 31 36 35 36 38 25 24 26 42 27 25 25 33 42 29 27 32 35 34 28 31 36 32 33 41 48 28 37 44 29 26 34 32 31 32 26 31 45 33 36 25 39 35 41 30 32 36 35 42 39 34 35 36 30 37 27 33 32 31 34 40 28 35 34 24 31 35 41 25 31 35 29 39 32 31 38 42 25 31 37 30 30 33 43 34 33 39 27 44 33 28 28 30 31 32 32 31 36 31 35 32 40 26 37 28 38 27 25 25 27 27 35 35 41 31 34 42 27 34 34 44 33 34 44 36 30 30 26 23 37 27 24 33 31 39 31 34 33 31 34 38 40 26 35 33 30 31 35 27 41 26 26 34 22 37 33 30 38 38 36 33 26 37 36 37 34 37 29 33 39 33 34 35 33 29 39 31 25 33 45 41 32 27 25 26 34 39 32 36 36 31 36 28 38 33 25 27 28 30 35 32 36 37 27 27 23 40 47 29 23 28 31 35 38 31 35 34 34 32 31 30 33 29 27 29 40 33 28 36 22 27 40 33 41 30 36 30 31 28 30 29 32 36 31 37 26 33 32 35 33 44 39 30 30 29 26 38 27 36 30 31 25 25 32 30 39 31 36 31 28 37 40 34 32 31 33 48 30 20 36 33 30 35 33 30 34 36 27 28 33 27 25 36 42 32 28 34 22 36 32 36 24 26 33 46 24 24 26 31 41 32 27 34 41 38 26 35 44 47 35 41 35 38 30 33 30 36 34 28 27 26 37 31 28 26 37 22 30 36 33 31 30 28 33 32 34 32 29 35 28 26 29 30 33 26 31 34 32 36 35 35 36 32 45 32 29 29 37 29 33 27 39 36 37 26 30 35 48 29 30 27 25 37 33 39 29 23 45 33 34 34 30 33 27 38 29 36 25 29 31 37 35 37 28 39 40 39 33 44 29 36 30 29 39 23 32 32 36 31 28 40 23 30 35 33 34 34 25 36 30 38 36 29 36 23 44 26 33 34 32 27 21 38 44 29 32 31 22 27 40 36 34 34 43 26 26 30 40 29 33 29 37 33 30 47 37 27 38 29 32 37 38 36 31 33 26 35 37 24 31 35 32 29 36 40 32 35 29 24 37 34 38 37 34 36 25 29 26 30 38 23 42 42 29 28 24 39 43 28 37 31 34 23 37 27 41 25 35 33 34 34 32 41 22 26 29 40 36 40 31 36 25 46 29 33 37 28 31 30 43 23 29 35 33 33 31 28 33 28 36 38 30 38 33 19 35 42 35 27 30 31 30 39 39 29 25 32 34 28 33 30 34 35 27 34 23 36 24 30 28 40 25 25 36 32 34 33 37 34 32 26 25 26 35 35 30 25 29 30 38 35 36 41 28 31 36 24 43 31 39 31 31 36 37 32 23 40 25 34 31 28 45 22 32 38 33 42 29 24 46 33 32 22 36 30 42 34 42 29 31 46 31 32 36 33 32 30 38 35 36 30 33 34 28 31 33 34 35 26 31 44 32 31 38 41 33 42 25 34 19 35 23 32 28 44 40 31 20 30 39 29 36 34 39 37 40 24 29 35 31 35 31 35 33 36 36 27 42 45 34 32 38 23 36 29 31 26 29 25 30 38 29 27 36 31 24 30 36 30 40 39 31 32 35 37 33 34 37 29 34 26 36 37 29 25 29 40 27 37 39 39 32 25 37 30 29 33 23 33 37 34 29 42 26 42 24 22 35 34 33 29 33 18 20 34 36 29 25 32 30 40 33 35 34 28 23 32 29 27 22 32 36 36 27 36 40 26 26 33 37 24 35 31 35 38 32 34 30 33 32 35 49 32 20 29 28 33 25 30 28 31 34 32 26 24 28 31 34 30 33 36 38 28 29 33 35 37 38 34 36 25 25 29 32 34 36 29 33 40 34 34 39 29 30 29 31 38 28 33 22 22 31 36 36 39 37 41 37 33 32 34 37 30 33 41 39 34 26 38 26 36 36 38 27 34 30 38 38 29 33 37 39 36 36 37 26 36 23 30 27 39 28 26 27 32 26 27 31 31 29 31 41 36 26 38 34 30 30 34 31 38 31 31 47 44 28 34 41 28 32 33 35 33 17 40 42 26 31 33 35 39 23 26 30 28 29 33 26 27 37 32 23 30 37 27 31 29 28 27 52 20 25 31 24 32 47 33 32 26 32 37 35 29 43 31 33 30 42 34 44 28 30 33 39 29 36 27 30 36 34 44 27 34 39 26 20 33 22 30 40 25 27 27 34 32 48 27 34 37 39 31 26 31 32 30 41 26 33 34 39 45 31 33 35 24 31 28 33 31 36 34 37 24 45 35 27 31 32 36 33 34 29 37 37 36 28 24 29 41 31 28 27 29 34 35 27 29 46 32 20 39 37 24 41 35 29 42 45 40 21 25 32 43 28 28 27 37 28 33 31 43 40 38 41 26 40 29 37 35 18 30 42 31 24 37 28 29 39 38 38 40 33 36 33 41 27 26 30 33 26 30 31 31 21 32 27 33 20 26 29 33 31 29 23 26 29 36 31 35 36 41 34 27 34 34 26 30 39 23 32 31 26 35 27 48 24 30 36 39 29 26 32 26 28 31 37 27 29 39 30 33 29 34 34 34 35 28 28 30 27 32 41 37 31 33 18 28 39 38 35 37 38 32 28 38 28 33 35 35 21 29 26 34 32 31 30 38 31 36 32 35 31 34 30 35 40 30 32 26 39 40 36 34 32 33 36 39 34 33 40 31 35 42 31 35 39 29 28 43 39 36 28 28 33 33 30 32 28 30 34 35 30 28 26 35 37 27 36 34 31 37 33 34 40 35 34 29 33 29 25 42 35 48 34 47 36 36 30 26 32 33 34 30 36 22 44 40 31 28 35 33 27 34 30 32 32 43 33 23 31 39 39 32 25 41 30 48 36 38 37 29 19 29 34 38 29 26 34 36 33 32 27 42 30 40 36 37 34 29 25 43 35 28 30 22 23 35 27 25 28 34 29 31 30 32 35 40 29 31 31 28 30 29 29 31 31 28 29 30 23 34 37 32 38 28 30 32 27 35 21 34 38 40 35 26 24 31 30 41 35 34 35 37 28 29 42 40 28 31 35 33 32 27 37 28 25 28 34 38 37 31 31 20 33 31 28 35 27 20 34 29 33 35 28 33 36 38 29 31 37 43 30 31 28 21 30 23 27 30 41 27 38 31 29 33 26 24 30 40 38 29 43 31 35 27 32 39 42 36 34 32 26 25 32 21 42 39 39 37 30 35 38 35 30 33 38 41 39 39 24 38 26 30 26 27 28 28 30 33 33 33 29 34 39 32 36 40 35 31 34 33 25 28 54 29 32 44 30 27 25 33 34 26 31 41 30 28 40 28 29 34 39 32 36 29 33 34 36 42 25 37 28 24 29 28 28 31 34 25 23 24 31 41 41 25 25 41 21 29 37 31 37 29 17 39 33 28 25 34 32 38 36 38 32 29 22 41 29 32 33 36 37 36 22 32 32 38 34 41 30 37 33 34 33 30 30 31 32 25 31 39 36 37 32 41 22 25 40 37 40 34 36 27 30 31 28 35 33 21 28 27 31 29 34 29 34 28 33 23 37 39 23 24 28 48 34 30 34 34 31 50 27 30 49 47 24 33 39 28 32 35 31 41 31 34 45 27 31 43 36 36 36 30 31 29 27 37 39 40 28 36 33 29 28 35 32 32 28 36 36 30 25 29 29 25 29 33 31 32 32 32 33 33 40 40 34 30 32 21 31 26 22 34 36 42 29 35 42 38 32 37 38 28 45 39 23 35 43 38 28 27 29 38 32 26 33 42 30 33 32 29 34 29 36 36 33 32 24 27 35 42 26 30 39 39 31 36 33 27 34 33 30 29 43 32 32 38 34 33 32 36 35 25 38 28 32 32 37 30 35 32 38 25 29 27 31 28 26 39 30 34 26 43 41 32 31 27 37 31 31 29 39 28 34 37 35 33 30 36 30 29 45 30 32 35 45 35 38 32 27 33 36 32 31 38 32 53 35 23 35 39 27 24 34 29 32 33 33 31 28 34 43 21 22 33 27 32 41 31 35 32 38 30 29 37 27 28 33 23 24 36 46 34 27 39 32 24 40 31 36 33 35 23 33 31 25 29 31 31 28 29 31 42 31 26 34 24 28 36 35 31 32 33 39 29 30 31 31 33 33 29 25 36 25 31 24 26 28 31 31 33 41 30 39 34 28 31 41 38 34 37 30 35 39 35 33 23 33 29 30 33 31 29 22 25 29 39 31 47 34 28 32 27 31 30 35 33 32 43 26 35 37 32 29 26 31 42 28 31 23 30 41 44 23 40 29 32 28 23 38 28 30 31 35 31 44 36 34 29 35 32 34 32 28 28 30 39 29 36 24 30 40 25 35 32 27 27 31 34 40 37 38 31 41 25 34 35 34 29 36 31 36 34 32 31 36 37 28 38 28 31 27 34 38 38 26 45 27 35 40 30 28 29 29 28 25 28 28 38 22 30 40 39 43 35 34 29 23 30 31 30 26 26 32 45 27 30 36 28 31 29 34 25 34 35 26 35 34 30 31 30 29 36 41 21 36 32 30 33 34 34 31 30 35 35 33 30 25 27 41 27 42 40 35 36 20 30 27 27 36 39 43 36 30 39 31 31 28 37 31 42 36 34 29 29 25 22 36 40 23 35 30 33 25 41 41 27 32 28 36 29 32 36 28 29 32 41 22 20 33 26 38 32 33 36 38 36 20 28 29 27 37 32 26 33 29 24 32 30 21 31 28 35 31 35 36 29 39 30 33 35 31 30 37 36 32 32 29 32 38 25 28 40 24 38 32 25 29 33 31 35 26 27 28 30 36 34 30 40 35 41 23 28 18 29 32 31 39 25 31 42 42 25 33 34 29 38 44 24 35 34 42 25 29 30 31 27 25 31 38 25 30 34 31 32 40 28 27 30 25 36 32 37 18 29 30 29 35 33 26 33 35 23 31 33 32 35 29 34 22 26 44 24 31 32 33 34 29 23 26 22 28 31 33 46 42 29 34 32 38 40 28 35 45 34 38 35 26 38 30 29 27 25 26 34 38 36 34 35 25 35 30 36 23 33 24 35 40 27 34 36 32 39 34 34 39 31 29 30 27 24 48 36 37 29 36 30 28 36 33 33 34 30 41 33 47 29 37 39 31 41 35 34 31 27 28 44 27 38 32 30 24 30 42 35 33 31 31 27 34 32 34 35 30 30 32 27 22 33 27 26 43 33 35 38 31 35 37 34 32 28 31 34 34 29 29 30 38 25 39 31 24 33 42 29 40 29 25 29 45 32 30 29 27 37 30 30 30 36 29 24 37 33 35 30 38 37 27 28 28 36 37 33 28 30 34 32 32 29 31 38 30 41 32 25 29 26 27 37 26 30 32 30 31 34 37 25 40 34 32 36 33 33 24 39 37 28 34 30 27 26 37 30 34 35 36 34 21 35 37 35 33 36 31 29 36 31 35 30 36 30 35 30 45 32 27 34 32 33 31 33 35 37 33 36 31 33 36 38 33 35 32 33 35 29 36 32 29 32 25 35 37 25 30 27 30 37 36 27 27 30 32 35 30 22 26 28 32 18 32 35 39 45 27 34 28 42 39 35 23 30 33 26 38 31 33 31 35 27 38 22 36 37 27 35 37 30 39 25 27 36 27 38 35 35 35 27 37 33 38 32 26 26 30 24 37 29 35 45 47 34 31 29 28 45 36 44 32 28 33 35 21 32 27 28 26 31 31 29 33 26 25 46 25 29 28 32 32 32 35 31 29 30 45 36 32 47 33 40 30 36 33 36 34 21 33 27 44 47 38 42 42 30 40 33 44 32 41 32 30 28 33 35 35 33 42 34 29 24 20 31 31 28 32 33 31 30 38 35 33 32 39 28 32 34 36 30 34 30 33 34 41 27 30 40 31 31 27 30 30 33 46 30 37 35 26 35 34 35 31 37 35 32 43 31 35 35 29 38 27 40 38 29 34 35 40 40 38 35 35 40 30 36 39 32 29 30 32 34 27 31 31 31 29 27 38 34 38 34 35 23 39 36 30 36 32 30 33 26 26 34 33 32 30 36 36 36 31 31 34 32 31 33 30 29 37 39 27 23 34 40 30 32 31 41 27 25 40 25 22 28 29 30 29 36 28 30 31 22 34 33 34 23 29 43 35 24 33 42 42 24 24 29 23 38 31 38 40 32 35 29 34 25 35 30 26 33 42 28 35 31 41 34 30 38 30 28 29 37 23 33 29 34 27 35 30 34 35 29 34 32 33 26 35 31 24 48 38 37 41 22 34 39 21 38 27 33 26 44 33 30 33 39 38 29 29 32 34 35 37 34 42 35 27 36 26 27 27 39 22 29 23 42 30 37 32 37 27 28 32 37 34 31 29 39 35 34 41 30 35 38 42 29 36 36 32 37 24 37 29 44 31 35 37 27 37 40 31 30 33 31 37 34 31 28 38 28 32 27 36 26 31 28 31 33 28 27 38 26 28 28 39 39 30 29 27 25 36 30 24 30 29 25 41 46 39 32 30 41 29 29 34 32 27 22 35 42 38 28 32 35 39 37 39 33 37 38 39 39 32 25 26 26 25 28 32 36 29 28 31 29 34 26 34 31 30 39 32 20 25 28 37 36 31 25 28 30 36 36 34 37 31 31 33 36 28 37 35 34 36 35 28 28 38 32 31 20 31 27 35 29 27 29 39 26 36 29 40 35 39 27 22 45 29 36 30 29 29 23 25 26 29 32 40 31 36 29 33 38 32 30 22 31 30 38 26 39 37 34 27 35 27 26 31 36 28 31 34 38 32 31 32 28 34 22 34 24 38 27 33 38 34 33 22 45 37 36 29 25 30 32 29 25 28 33 33 23 31 31 40 31 24 32 35 32 28 32 31 36 39 31 36 23 33 34 37 36 31 33 27 38 40 36 27 32 38 32 37 29 24 32 31 30 31 29 30 29 33 28 31 30 35 36 26 40 48 28 29 43 34 27 41 21 36 27 33 31 33 42 25 41 33 38 32 27 32 35 26 36 30 37 35 34 42 31 39 34 29 35 34 45 33 35 33 31 38 30 38 36 30 24 30 28 36 27 38 28 38 27 34 42 33 31 17 28 26 31 27 36 27 32 39 29 34 24 30 29 33 30 25 29 34 35 33 39 26 30 29 33 40 30 40 26 30 26 34 26 30 28 32 33 37 24 35 31 38 41 32 25 29 32 30 30 36 26 34 31 35 40 44 25 33 38 25 32 38 37 33 27 36 31 43 26 30 29 39 37 33 37 29 36 41 32 27 34 32 33 30 25 31 24 33 30 32 32 32 40 34 35 40 36 36 25 33 29 33 30 36 37 34 29 39 36 28 29 21 25 30 31 33 35 24 46 27 38 25 36 20 36 37 34 31 26 30 27 34 29 27 24 32 30 34 29 39 29 39 20 26 34 31 29 34 30 34 47 34 25 30 35 36 34 25 44 34 35 36 35 29 42 27 37 38 31 40 27 27 36 34 30 34 27 31 40 35 37 29 30 29 29 33 41 39 39 29 40 48 38 33 34 37 41 33 38 26 34 27 26 40 44 29 35 37 49 30 35 31 34 31 25 41 26 28 25 36 25 31 32 22 36 26 16 35 43 30 40 31 33 41 21 31 38 26 29 29 28 33 37 41 35 28 41 38 35 29 26 43 41 32 28 29 36 30 39 31 39 35 36 44 36 39 33 33 34 22 33 30 34 24 28 22 26 37 28 36 37 36 23 34 38 32 32 26 21 31 36 35 26 34 27 29 24 34 34 30 29 38 28 43 40 34 28 29 25 33 43 39 39 37 30 34 28 33 30 31 25 34 28 25 36 31 35 54 31 42 33 31 24 32 23 48 40 44 31 29 31 38 31 24 36 31 32 30 24 41 34 31 41 30 32 23 29 24 34 28 30 34 42 30 25 21 25 39 32 25 35 29 28 25 43 35 43 36 33 35 36 30 26 40 37 27 27 29 34 40 22 29 39 35 29 38 28 42 28 37 35 27 29 29 34 29 33 25 31 27 25 47 48 27 33 33 31 23 28 33 31 33 27 32 31 40 37 28 40 34 33 39 44 26 28 38 24 41 26 36 24 38 31 39 29 37 34 25 32 32 30 31 48 30 28 28 36 34 40 48 30 33 25 27 47 24 40 27 33 21 41 34 36 34 32 22 33 36 29 36 39 36 33 33 33 40 32 25 39 29 42 28 28 30 28 31 35 42 25 33 30 38 34 36 49 27 35 44 45 36 31 31 39 34 27 32 30 28 28 31 32 35 24 38 26 33 33 34 27 45 26 36 34 28 25 31 48 41 26 30 33 30 26 31 39 29 31 24 30 24 35 36 36 31 34 30 34 38 37 36 33 34 28 37 25 33 35 37 23 27 24 47 23 38 24 23 39 35 30 39 41 29 27 40 28 27 39 29 31 26 46 30 28 30 32 36 18 37 29 36 32 44 39 35 31 38 28 28 26 34 32 29 37 39 36 36 32 30 36 40 41 36 31 37 37 34 30 35 26 28 44 38 32 32 26 31 33 39 32 28 31 42 30 34 42 27 23 39 36 33 37 23 25 36 26 31 44 38 37 31 31 35 35 42 31 31 23 33 34 27 45 33 25 30 39 24 34 31 43 31 38 32 27 38 32 29 30 41 40 30 33 30 23 28 30 36 35 27 35 29 35 33 32 40 27 23 32 26 34 29 31 40 29 31 44 28 33 33 34 33 33 25 33 25 35 37 30 34 18 29 37 25 39 32 31 24 38 34 42 32 40 40 39 31 30 26 36 34 32 33 29 17 44 37 38 32 43 34 31 31 34 28 20 30 27 34 31 21 34 28 34 29 36 21 35 34 35 41 38 39 42 29 30 26 37 34 28 31 27 27 29 28 24 29 26 33 28 43 30 26 36 29 30 31 36 42 28 25 38 42 28 35 37 48 42 26 27 38 41 29 38 30 37 29 31 36 33 30 41 22 37 30 32 40 33 28 30 36 33 31 31 37 28 28 37 35 39 25 32 24 36 35 30 34 28 28 40 31 29 32 38 32 30 41 37 28 31 37 35 26 28 29 37 22 37 45 26 39 23 35 28 30 26 33 28 35 36 43 24 49 28 24 25 39 32 31 31 34 29 34 45 33 31 33 46 44 33 38 33 31 27 33 27 35 35 35 35 32 32 41 35 39 40 39 38 32 44 31 28 32 33 49 27 28 24 29 32 27 32 35 38 24 24 41 29 25 41 34 33 33 44 27 36 35 29 33 36 25 30 30 29 35 39 33 30 34 32 31 29 36 26 28 34 26 34 35 31 28 42 29 41 28 44 35 22 39 29 31 25 33 34 31 35 28 34 35 34 26 32 21 28 40 36 34 25 36 33 31 32 32 34 31 32 34 41 32 34 35 26 23 43 34 41 34 26 44 30 28 32 35 33 27 46 32 33 23 28 35 32 41 30 27 44 28 29 34 23 30 37 27 29 36 42 35 37 34 33 31 25 30 28 33 26 42 37 19 30 32 27 30 33 32 30 23 30 41 32 34 34 31 38 32 41 36 34 30 25 23 20 31 39 26 31 20 23 32 29 42 38 34 23 44 44 23 52 35 31 34 39 35 31 28 34 29 28 30 43 35 33 33 31 27 36 35 29 27 42 27 29 36 34 30 35 35 27 45 28 32 37 31 36 32 30 32 38 31 36 29 30 32 35 21 32 29 34 32 36 31 22 21 28 38 22 33 37 20 35 35 40 34 38 42 37 30 33 37 36 35 40 34 33 41 36 35 35 29 34 36 41 34 49 29 35 20 33 28 38 34 33 25 28 36 29 39 25 36 31 27 29 27 29 40 41 34 40 34 29 33 31 22 23 26 37 30 38 32 33 34 26 34 33 29 34 34 32 24 30 38 31 32 37 30 36 29 33 26 39 36 40 36 36 41 45 32 36 33 33 34 31 38 39 36 38 29 47 25 38 40 42 38 44 26 59 31 29 27 31 31 35 23 34 33 30 23 39 25 27 24 30 42 31 28 37 35 32 29 33 38 28 29 30 39 33 35 33 41 54 41 33 34 29 21 41 40 39 31 30 29 31 33 32 35 29 31 30 34 32 31 25 30 25 46 31 28 27 27 40 34 24 27 30 32 19 30 29 36 31 31 16 33 35 32 38 28 42 38 32 32 46 31 29 31 28 32 37 32 18 31 32 28 42 31 36 37 34 38 31 40 29 47 21 26 40 36 34 25 38 36 30 43 30 33 27 33 34 42 27 34 31 31 28 36 36 28 33 37 37 29 30 36 27 33 36 34 28 25 33 32 27 27 25 41 22 36 30 29 28 40 32 37 35 39 35 25 29 29 39 29 33 32 39 28 31 28 43 39 34 28 24 42 27 28 32 31 28 25 35 44 30 22 36 36 29 32 27 28 31 22 37 38 26 26 32 28 44 29 27 40 20 40 33 36 31 38 36 36 35 42 31 36 29 35 25 35 38 31 26 33 35 28 37 37 27 24 35 28 35 34 36 23 38 27 30 33 41 39 44 27 36 32 42 35 28 40 19 31 34 34 34 31 36 38 28 36 38 34 21 25 23 27 29 37 32 32 32 30 39 38 30 40 35 24 32 27 36 42 28 35 19 27 29 27 32 37 39 32 37 28 29 29 35 43 29 39 40 26 29 35 25 45 30 29 28 41 25 21 33 32 37 35 31 16 27 43 35 43 19 39 36 26 33 27 29 28 36 28 31 38 34 33 28 35 41 34 38 36 21 33 28 40 34 21 28 40 32 39 28 40 26 32 33 30 31 31 40 29 42 37 32 37 31 37 21 40 41 28 35 38 37 32 32 28 37 21 38 29 27 47 24 42 40 29 30 34 42 34 44 30 36 32 28 32 29 43 36 33 29 31 29 31 36 33 35 44 35 28 41 30 45 43 37 38 34 32 28 39 41 31 35 28 37 31 31 34 29 21 29 29 34 31 30 33 29 31 36 26 40 27 34 26 31 28 33 22 37 25 28 24 41 29 37 27 36 29 36 21 25 27 32 25 37 38 35 33 37 34 38 34 29 34 34 30 25 36 32 31 33 35 37 33 29 28 40 25 41 37 48 32 34 38 33 27 35 40 41 35 25 39 32 26 40 25 39 36 34 44 38 24 38 38 40 28 46 30 36 33 34 34 35 30 32 31 30 39 34 35 33 35 35 36 44 37 42 31 33 26 41 36 41 34 26 27 33 23 25 29 20 25 32 30 29 30 28 30 31 41 31 27 35 32 34 32 17 40 45 27 25 33 24 52 25 33 37 37 39 28 27 30 25 33 25 22 32 32 32 26 37 30 36 23 37 34 33 30 31 34 34 31 23 22 28 27 25 32 36 26 43 25 39 32 31 26 36 36 31 28 32 36 43 35 34 30 36 42 27 30 30 35 32 29 32 29 20 32 25 30 29 47 31 29 19 31 22 28 29 28 25 36 28 35 29 43 39 21 32 26 30 33 39 30 26 31 24 20 28 24 37 31 40 30 30 45 43 32 29 24 38 35 44 31 32 43 32 40 40 27 41 37 26 38 31 31 29 41 32 35 30 28 35 37 34 37 28 44 29 41 38 29 38 33 42 35 41 25 27 34 27 32 34 46 31 47 29 35 28 35 31 24 34 31 38 31 36 33 26 27 29 30 32 30 40 27 36 34 44 37 39 36 32 39 29 26 37 33 34 33 27 29 32 30 33 31 34 25 33 29 38 33 30 34 35 29 34 33 39 32 35 37 34 35 32 36 45 28 39 27 32 33 38 34 32 35 26 27 39 39 36 34 38 34 23 30 36 23 30 29 38 26 38 50 22 25 32 28 33 30 27 30 30 44 30 27 43 34 33 29 30 39 35 35 35 35 32 49 37 27 31 28 36 32 28 30 31 34 28 37 33 34 24 29 39 25 36 32 33 35 33 36 34 33 33 31 26 32 23 37 34 35 34 35 21 26 29 41 30 40 33 35 31 34 32 31 29 41 45 33 32 21 24 30 26 37 25 34 26 36 24 33 28 26 24 34 34 27 35 30 32 37 29 41 28 33 24 31 21 33 24 37 27 33 27 36 33 34 42 37 36 23 25 31 34 30 33 32 29 39 28 38 31 37 25 32 27 36 37 37 33 55 36 33 40 29 27 40 37 25 37 33 25 37 37 27 33 31 40 29 32 35 32 30 33 32 27 30 28 22 34 29 31 40 30 48 21 35 29 30 43 38 43 34 37 33 30 35 33 33 42 36 25 35 36 27 27 30 34 26 28 36 30 33 30 24 31 29 24 27 16 34 28 28 44 33 28 25 43 32 35 28 22 36 30 20 29 30 32 30 34 37 44 34 37 34 35 46 22 47 23 29 35 30 36 42 34 25 33 37 30 34 30 31 32 34 28 24 33 31 40 34 34 44 26 31 34 41 33 32 34 25 37 30 33 25 34 32 35 23 31 35 41 35 29 31 31 35 37 41 35 38 31 27 29 38 25 33 30 32 30 40 29 44 35 42 34 27 31 33 41 34 37 24 31 36 29 31 32 36 38 46 35 23 39 29 28 34 23 32 29 31 33 32 24 35 24 24 42 30 27 37 40 22 30 37 35 28 35 35 36 37 24 44 26 40 32 34 38 39 38 24 35 24 30 32 30 31 32 29 34 27 36 39 36 34 37 34 31 34 41 23 38 34 32 43 39 38 30 31 36 16 44 30 24 29 41 32 33 33 32 38 31 34 33 28 36 39 23 25 22 30 25 42 33 47 36 38 30 36 29 32 34 42 35 28 26 35 36 39 32 28 29 45 34 41 29 32 42 26 37 35 25 33 41 34 28 30 27 39 42 33 36 23 35 33 30 25 27 33 35 43 37 40 23 32 23 37 38 30 28 22 29 39 34 25 30 35 39 33 36 37 43 30 46 22 26 35 31 27 26 40 31 30 33 29 24 36 25 38 37 38 34 29 32 23 41 33 33 34 40 32 31 34 30 35 32 39 28 30 35 35 30 33 37 36 31 40 31 22 34 35 44 23 42 20 36 27 33 50 31 20 29 37 41 26 33 33 29 37 37 32 33 29 33 30 39 35 22 37 31 41 27 39 28 32 29 33 33 30 31 20 32 37 31 37 33 37 30 33 25 31 33 33 38 34 28 36 31 25 24 36 31 29 33 33 37 27 31 25 35 43 29 21 30 34 37 33 26 39 33 41 31 28 24 43 38 35 40 31 32 24 41 39 37 27 33 35 27 35 38 37 38 28 28 41 31 32 34 31 34 30 21 25 43 25 30 38 16 29 36 28 32 33 41 33 36 32 29 43 29 27 38 33 46 25 24 30 28 24 34 35 35 31 34 39 44 23 39 36 31 29 32 35 37 26 41 31 27 21 36 28 19 32 33 31 36 25 42 32 42 45 27 29 43 23 43 33 43 38 42 34 32 31 33 33 27 29 33 32 41 30 32 34 25 34 30 39 30 26 29 29 31 28 32 29 27 25 31 38 35 37 37 20 38 28 29 31 25 36 42 36 34 31 30 35 32 22 24 33 35 34 33 30 29 25 34 31 22 38 33 32 41 40 19 39 41 34 36 25 24 38 27 32 24 37 33 33 31 23 28 40 28 24 38 27 30 27 29 39 34 33 32 26 29 37 29 24 28 30 25 36 29 27 42 42 41 35 43 24 33 34 32 32 32 33 35 29 32 25 27 26 36 31 37 28 37 27 34 31 46 35 33 36 33 31 25 36 32 34 37 33 24 38 34 33 37 37 33 33 32 43 18 32 34 30 28 32 40 34 32 28 36 20 33 31 34 29 32 33 28 33 31 38 35 34 34 30 42 35 30 40 31 36 38 39 34 28 29 32 34 34 37 28 31 31 30 38 35 41 38 30 31 39 32 24 33 35 41 36 27 44 41 30 29 30 36 25 36 27 32 35 37 40 36 24 39 32 35 34 33 32 36 26 33 40 40 23 26 32 33 26 25 28 30 32 28 35 28 28 33 32 46 36 27 33 24 28 17 30 37 22 21 32 32 31 35 29 21 28 36 27 37 30 39 33 32 32 34 37 29 29 34 40 32 36 26 31 30 40 31 29 35 38 32 28 35 29 29 34 40 34 33 38 40 31 29 34 35 32 39 45 30 23 30 33 29 36 26 28 36 40 40 39 27 30 35 36 35 28 41 28 26 28 32 35 38 43 39 29 38 39 33 29 27 22 35 39 36 32 41 30 37 23 38 37 36 28 25 29 38 28 42 38 35 37 32 39 35 39 25 37 33 32 28 49 27 35 46 28 29 28 39 24 38 50 35 22 34 36 44 41 37 25 41 31 39 31 26 36 26 28 31 27 40 30 32 42 39 31 33 30 35 35 31 26 29 33 28 31 27 30 31 40 25 37 38 32 48 28 30 28 36 35 43 28 32 34 37 37 30 43 41 34 27 28 32 29 43 33 37 37 34 46 27 38 38 33 26 36 28 33 30 39 40 29 34 39 27 26 30 32 37 30 44 40 31 33 26 36 36 20 40 32 26 36 33 41 27 26 32 25 36 31 35 34 48 24 35 25 31 36 32 39 32 37 34 31 27 30 33 40 27 37 38 29 36 32 37 25 28 46 30 33 36 31 37 34 27 32 46 40 31 33 39 25 35 30 38 33 31 36 25 37 31 35 36 27 41 33 26 36 30 31 32 26 29 31 24 33 25 35 41 38 37 31 26 44 35 20 45 27 39 24 35 36 31 34 32 28 39 33 40 35 36 42 34 25 38 28 22 24 32 29 35 23 40 25 28 41 37 31 36 33 29 30 24 32 25 28 32 43 33 29 26 37 23 40 35 27 33 36 34 41 34 31 34 39 32 22 30 26 34 29 35 30 29 29 45 33 41 28 32 28 31 34 34 25 37 32 37 23 38 31 37 28 33 35 36 37 24 31 32 31 35 43 29 27 31 29 34 31 32 39 35 34 44 37 31 29 31 27 26 37 28 44 35 28 33 27 37 36 35 27 34 32 32 27 37 37 37 29 32 32 32 28 39 35 26 37 26 34 37 26 31 33 33 40 39 38 41 41 29 30 33 29 43 42 35 32 24 34 38 27 24 38 32 26 39 19 32 28 31 35 44 41 36 35 31 35 35 34 33 31 35 34 34 36 36 34 29 43 35 34 31 52 24 29 37 27 37 35 31 34 34 34 47 35 36 36 36 35 34 34 28 30 20 26 30 28 29 30 27 25 28 39 34 30 31 40 24 36 31 40 37 31 27 30 28 28 40 47 31 33 34 32 40 45 30 44 30 41 37 33 31 42 33 33 25 37 28 35 28 28 39 32 32 27 46 39 30 38 28 37 45 36 30 29 29 38 24 28 26 29 31 40 28 35 34 33 34 38 33 38 35 32 41 22 31 34 34 46 31 28 29 39 39 27 32 44 34 32 24 34 24 47 28 32 27 29 35 37 42 33 25 31 25 33 41 34 28 38 25 34 31 44 41 32 29 35 29 24 40 29 21 25 29 28 28 34 32 31 28 37 32 28 42 39 28 28 38 34 32 31 29 33 36 36 39 36 18 33 31 33 31 31 33 30 44 36 32 35 33 25 30 29 37 38 27 21 37 32 30 38 42 34 21 31 36 29 37 35 26 44 33 36 33 36 27 29 33 35 35 25 34 32 38 28 32 34 28 29 34 30 33 39 30 34 26 26 34 32 31 33 24 37 32 27 24 40 23 41 31 32 34 28 33 27 34 33 37 37 35 28 33 39 23 25 45 40 35 30 33 36 25 31 30 30 28 25 28 36 41 33 33 30 29 32 35 34 26 23 39 32 25 28 29 38 29 39 33 29 28 29 28 37 32 36 33 40 37 43 35 34 34 25 34 32 29 34 44 41 29 34 54 28 32 36 22 27 38 32 40 39 36 27 25 34 38 27 30 36 33 37 29 26 27 27 29 23 36 34 28 24 37 24 32 31 26 24 32 37 30 25 34 38 34 23 23 30 26 25 37 28 26 40 33 33 34 25 45 40 32 33 28 37 32 37 44 37 27 37 25 31 26 35 21 28 33 29 29 31 29 35 40 37 27 27 22 42 38 35 33 33 30 32 28 31 28 32 32 32 33 26 39 35 35 37 30 30 25 35 30 27 28 35 24 26 38 26 31 37 29 21 36 34 34 23 40 37 36 31 32 33 26 25 34 31 37 25 32 32 26 32 29 30 37 32 25 35 35 34 22 36 27 33 22 28 23 39 31 30 31 38 34 37 37 25 32 23 31 38 39 33 26 26 43 41 35 34 28 30 37 35 30 37 45 28 27 30 44 31 38 42 40 27 31 32 37 17 26 39 45 34 35 27 33 24 22 39 33 36 28 35 32 31 40 43 33 30 34 32 28 41 32 35 31 25 37 37 36 29 31 31 35 38 35 32 30 36 32 36 30 26 38 25 34 43 30 38 29 32 34 34 38 33 19 30 34 29 29 28 29 23 33 43 33 39 34 37 33 35 41 33 36 27 32 24 35 31 39 33 29 29 31 31 34 39 30 21 34 28 40 28 33 30 25 19 25 26 22 25 34 34 40 34 49 31 24 34 29 30 24 37 42 27 33 39 41 33 28 32 32 31 33 38 23 33 30 35 27 29 30 35 29 39 42 41 22 51 30 42 29 35 40 29 39 27 31 31 28 34 26 40 36 46 45 38 35 33 43 31 32 32 38 31 24 31 26 34 43 36 30 31 34 42 33 33 32 27 35 24 35 27 35 34 30 23 23 25 31 35 35 27 38 26 35 34 34 32 30 31 33 32 33 38 22 33 29 31 32 22 33 36 34 21 27 31 42 32 35 32 33 18 34 39 25 30 30 24 28 39 40 31 38 37 32 31 29 34 34 36 35 32 24 27 25 46 29 28 30 34 32 44 34 29 29 38 27 28 30 36 40 32 26 26 39 31 40 33 31 35 33 36 30 30 39 34 39 32 30 31 34 31 35 36 39 36 32 30 35 32 34 24 37 32 27 29 43 31 29 37 21 37 23 33 25 31 31 38 37 29 37 31 33 33 37 28 34 34 27 31 39 44 32 36 44 26 29 31 34 39 32 27 32 35 29 33 30 32 34 23 34 42 40 29 30 39 32 33 31 30 34 38 31 36 45 29 41 26 33 31 46 33 38 32 33 37 28 25 31 30 39 44 29 33 33 31 22 31 16 39 29 31 37 30 36 29 41 35 38 26 31 43 25 32 23 46 37 38 39 32 35 35 38 31 38 38 34 30 21 24 31 39 26 37 43 24 33 30 31 30 25 34 33 30 36 35 27 31 31 29 34 28 29 41 29 27 38 34 34 44 29 38 50 20 35 34 27 32 41 32 49 34 40 32 40 28 35 41 28 40 53 31 25 28 38 33 39 37 28 24 44 25 49 32 31 36 38 36 27 31 44 32 31 33 43 30 34 20 26 29 34 34 29 40 27 34 37 25 36 30 45 33 33 31 30 30 34 27 27 25 37 27 36 37 36 43 26 36 25 37 37 40 43 30 31 45 26 31 37 35 35 31 41 32 36 32 35 37 32 24 38 26 31 33 35 22 30 30 41 39 32 29 34 34 27 30 33 30 37 25 36 24 19 35 39 28 32 27 26 40 30 23 31 38 29 39 32 37 37 28 32 37 28 29 26 33 32 32 30 32 43 35 35 19 35 32 45 33 26 44 38 23 31 31 26 29 34 28 32 27 22 40 33 31 24 25 39 38 22 31 32 36 30 47 33 44 29 34 30 29 33 51 29 35 37 32 35 36 32 28 30 21 34 31 53 34 43 40 28 24 31 39 33 27 35 37 29 27 27 20 32 30 32 35 35 27 36 41 27 32 40 25 43 28 44 29 39 34 37 25 45 29 38 36 35 33 28 39 36 25 21 34 28 27 39 34 31 23 33 43 34 29 27 24 31 27 38 25 37 31 33 24 30 38 37 29 39 38 32 28 35 20 28 42 34 21 38 33 28 28 27 35 38 26 36 30 40 33 38 28 34 26 37 29 36 34 38 31 23 31 30 21 34 32 38 27 34 21 23 37 39 35 38 35 32 32 37 34 31 24 37 37 42 33 19 30 32 28 31 43 30 37 28 34 29 26 33 38 27 33 35 32 28 30 33 15 26 26 32 35 34 37 25 28 37 37 35 40 41 38 30 29 38 49 36 42 34 32 31 26 34 38 33 30 35 41 21 29 27 31 16 29 27 35 27 31 37 32 29 34 38 35 29 35 35 21 38 25 24 31 26 34 36 32 28 32 33 37 32 34 37 42 41 33 33 31 31 35 35 50 30 30 36 29 26 36 35 39 40 36 30 34 19 25 30 29 34 37 34 43 30 36 28 21 26 23 34 21 31 25 33 32 33 32 21 26 29 29 22 31 27 36 35 32 34 26 28 34 29 37 26 21 35 37 38 37 31 28 40 36 33 30 31 31 35 24 37 24 23 43 37 32 36 33 34 28 41 34 35 32 37 35 31 33 32 25 37 39 32 39 48 44 32 25 43 38 29 47 42 43 31 30 31 35 36 33 31 31 29 35 29 33 30 35 32 26 26 32 33 34 44 35 30 34 30 42 41 29 36 43 37 29 37 30 36 33 31 32 20 32 37 39 37 36 41 31 23 32 39 35 28 32 35 28 32 34 38 25 37 25 36 28 32 32 29 34 23 36 32 25 37 35 36 30 34 42 30 30 32 27 26 34 29 40 24 36 35 39 34 29 43 36 26 39 22 33 33 42 29 26 34 25 32 30 26 37 43 32 29 37 29 32 29 29 26 33 26 25 28 39 39 27 27 39 33 40 41 34 23 34 31 33 28 28 35 34 35 27 39 38 31 31 22 39 32 26 26 41 35 34 25 31 35 42 31 34 28 31 33 31 34 30 35 37 36 35 26 28 33 34 32 30 29 35 35 38 25 29 26 27 26 27 35 35 33 33 37 35 33 39 28 32 20 34 31 44 32 44 33 36 32 29 31 36 37 29 37 37 28 33 32 36 37 28 33 28 47 27 32 35 34 35 33 37 28 37 42 36 34 25 39 32 33 35 34 25 35 27 35 25 29 35 33 32 31 34 32 29 23 33 22 32 27 38 37 31 26 25 34 28 37 34 36 28 30 37 37 32 34 37 27 39 36 30 25 31 41 27 44 30 34 37 25 25 38 20 30 32 22 34 37 31 41 32 40 31 38 33 23 21 34 30 31 29 32</t>
+  </si>
+  <si>
+    <t>EXN(0.44601374529119125, 232.8857137062297, 47.84490056540654)</t>
+  </si>
+  <si>
+    <t>330 328 300 270 302 225 197 201 284 318 260 344 249 125 229 308 280 312 245 180 302 292 222 265 266 251 251 259 292 267 260 305 162 265 253 177 289 143 220 268 256 280 247 294 270 279 253 313 241 272 180 264 338 213 189 248 222 315 230 349 237 245 287 238 183 259 184 223 323 272 307 289 270 267 270 182 245 287 271 213 283 309 132 169 223 306 333 326 181 301 280 316 209 180 292 271 384 388 270 219 230 304 218 226 187 299 343 288 286 247 252 198 192 216 154 257 350 284 216 170 234 263 252 212 304 208 191 226 280 194 318 258 280 231 318 227 316 295 227 228 268 315 160 309 243 279 301 185 306 271 223 308 235 268 207 270 467 271 176 238 238 269 259 273 233 212 296 227 276 144 217 323 263 257 332 246 208 286 238 215 275 284 225 327 245 288 185 262 274 283 225 228 196 212 286 305 257 293 306 201 144 211 219 214 298 192 311 260 318 315 288 288 287 376 224 199 273 318 228 230 224 277 338 235 270 277 390 278 207 258 305 350 280 311 218 284 196 381 216 240 221 244 276 340 336 278 260 198 277 277 250 304 294 200 170 270 308 234 140 161 297 216 196 283 182 276 315 204 256 279 319 321 166 261 330 208 349 223 258 205 128 297 249 347 170 175 130 359 224 306 238 216 255 332 293 247 300 279 301 277 337 218 302 214 287 264 300 283 262 247 171 320 275 186 266 286 268 246 333 277 358 236 214 186 320 241 247 354 211 292 234 237 233 188 183 149 341 296 195 292 242 237 308 230 260 327 242 168 180 272 288 284 194 267 275 176 416 232 214 265 353 206 240 207 154 212 159 315 239 286 326 329 260 295 305 289 266 218 335 239 293 243 222 246 218 224 249 303 165 258 144 312 243 220 212 293 233 295 263 250 236 238 162 366 286 219 293 253 234 310 271 243 270 342 296 330 308 298 339 173 145 318 219 297 258 178 175 274 264 264 310 198 165 300 253 248 324 203 236 211 397 305 178 273 241 164 283 332 258 298 213 231 325 219 258 255 240 317 234 190 194 282 140 292 238 235 356 325 292 310 286 147 205 230 161 241 195 315 211 335 221 290 278 216 185 361 181 227 326 217 243 170 273 325 282 242 338 242 159 309 144 260 303 283 248 279 262 313 236 277 274 324 146 239 266 242 208 295 192 250 251 294 273 180 210 325 203 184 356 200 185 307 259 346 209 322 249 319 199 169 329 195 260 265 259 138 303 223 295 189 260 249 262 210 274 289 256 256 232 254 320 231 216 385 288 287 244 201 292 265 344 283 242 260 218 185 324 195 276 225 244 310 182 183 217 226 141 198 308 233 270 350 200 308 177 192 175 185 301 343 325 344 169 299 244 284 410 273 255 214 205 370 248 205 241 213 284 292 238 185 267 288 205 361 256 347 298 239 346 284 444 313 247 245 205 203 162 331 220 252 236 281 316 226 213 187 181 258 278 225 223 322 295 191 210 230 229 258 241 242 218 251 294 272 222 215 310 207 182 288 160 273 296 205 238 293 372 316 263 180 279 368 324 301 166 318 247 249 324 295 228 337 230 265 189 238 179 270 296 190 309 264 309 260 245 245 241 327 324 223 241 276 201 312 331 260 253 325 316 256 309 180 230 190 158 267 204 258 324 198 304 277 234 298 274 266 251 172 224 198 251 189 309 190 266 175 240 179 264 257 273 277 160 305 185 222 264 293 319 217 433 180 259 161 271 217 210 226 220 249 269 174 317 179 259 216 330 163 261 263 239 299 335 230 190 303 202 191 273 136 348 331 184 334 266 245 243 238 269 157 242 380 298 211 233 290 169 254 288 289 224 202 268 225 289 250 202 373 240 264 168 337 276 281 295 258 186 195 268 302 252 291 272 176 250 331 228 132 274 212 235 302 267 258 241 277 337 183 239 229 303 230 326 289 263 286 197 310 273 207 287 351 222 312 178 366 302 220 204 343 246 245 278 265 212 317 321 281 266 163 227 298 258 266 325 283 255 204 168 270 227 260 241 274 108 316 229 198 274 342 321 148 204 283 235 174 266 237 310 211 246 286 217 270 187 241 205 249 169 302 183 232 236 258 243 286 247 307 241 225 284 284 194 270 384 267 221 244 296 229 326 185 170 271 206 310 213 190 273 326 195 193 192 236 260 200 233 318 238 296 214 219 223 176 238 223 265 257 326 237 217 258 238 284 164 333 186 301 157 237 276 293 201 324 282 259 246 290 265 243 189 220 274 201 255 196 201 299 247 157 236 214 320 306 199 207 378 191 334 262 145 274 284 303 252 298 275 244 128 204 303 279 310 179 213 381 192 305 236 240 247 285 208 279 161 241 264 245 259 278 311 370 240 229 244 364 219 243 233 277 172 286 278 236 249 303 291 223 159 172 266 281 195 254 293 218 215 471 229 211 239 249 280 292 236 212 253 353 427 184 326 167 267 232 306 212 222 372 205 285 233 285 358 327 254 188 336 233 355 153 186 265 264 267 229 281 284 266 238 228 238 223 436 276 237 256 221 258 305 192 263 256 341 241 250 262 305 271 194 328 188 210 262 313 231 311 363 192 203 287 301 299 320 249 267 221 298 228 241 343 360 297 228 344 256 284 316 315 141 256 273 207 254 331 194 247 173 276 214 380 239 188 255 301 243 308 189 260 225 258 313 330 263 294 233 356 251 256 246 252 256 178 259 231 166 291 290 301 237 241 235 266 266 315 264 285 227 263 234 254 228 255 257 212 254 276 346 306 300 289 286 289 251 274 212 118 120 237 230 215 251 265 285 256 230 254 259 183 337 289 304 245 229 226 282 212 185 302 237 169 216 302 235 349 204 190 263 214 172 202 322 213 327 292 193 215 321 261 272 265 165 193 214 198 187 302 240 260 218 363 238 208 194 220 237 266 253 274 277 254 259 282 223 219 262 320 166 291 207 166 192 297 173 290 176 250 235 234 275 301 263 251 190 355 209 308 241 185 254 235 278 175 346 204 269 236 384 256 175 318 180 209 292 234 254 231 243 395 310 219 335 275 264 317 281 211 270 273 278 286 279 249 142 244 236 248 320 253 283 265 304 357 361 271 362 307 259 258 287 288 224 205 234 263 228 241 288 268 253 260 284 229 335 242 239 332 208 215 177 264 277 234 250 250 357 232 299 314 243 300 171 294 252 189 260 183 234 253 328 225 263 199 159 208 183 246 258 202 217 283 296 231 212 128 309 364 269 263 358 245 284 303 215 216 271 188 203 268 312 263 249 95 203 207 321 232 229 315 330 208 283 234 277 197 274 256 217 243 209 284 261 284 255 157 224 302 269 219 203 451 309 225 306 223 359 379 264 240 337 342 306 218 253 256 195 229 216 289 343 277 221 280 329 213 242 312 333 302 162 251 251 271 189 218 150 280 353 244 282 229 243 216 236 255 318 233 319 338 370 233 297 349 239 251 183 283 227 282 216 257 333 162 283 285 246 269 286 196 290 263 255 338 342 286 257 327 270 283 245 231 296 217 326 267 199 204 240 210 244 330 332 197 240 214 182 282 269 286 234 290 282 234 271 211 245 247 270 242 207 336 202 313 272 262 163 214 258 174 270 231 290 232 275 251 310 191 247 180 271 172 192 157 216 213 278 255 319 161 225 210 211 226 225 392 245 309 407 266 239 187 250 176 331 184 250 261 270 286 233 254 187 233 280 239 221 238 267 241 230 235 244 179 340 162 223 274 109 289 317 297 361 281 287 226 173 273 262 255 271 347 230 239 307 181 182 263 296 240 284 268 213 262 317 349 229 244 192 183 270 285 268 245 260 278 214 190 231 264 197 174 226 299 263 289 266 284 217 156 136 252 435 242 167 245 280 271 307 254 264 289 266 322 253 230 253 199 251 216 282 237 195 328 176 208 357 221 306 262 231 277 214 174 269 253 199 268 249 302 184 219 197 265 301 261 272 207 265 210 264 305 257 272 216 226 192 259 243 256 317 138 207 193 198 303 181 288 239 281 224 343 201 192 305 252 208 252 221 275 262 290 234 257 249 165 141 241 303 271 221 190 149 225 240 239 177 195 227 344 117 217 147 211 293 239 189 229 356 302 184 266 413 361 313 336 242 228 221 285 266 272 282 240 169 223 235 174 191 250 174 199 268 276 316 278 247 204 227 271 283 237 236 201 284 208 209 223 262 222 256 246 224 310 275 223 302 303 322 318 284 232 316 260 267 142 238 263 243 177 193 320 356 293 289 255 246 289 204 382 204 215 257 250 252 299 259 320 212 367 274 234 221 253 314 219 237 323 224 254 230 260 269 311 216 251 293 250 265 168 251 303 226 261 196 223 198 223 258 271 285 319 167 260 198 262 209 257 410 155 413 207 292 274 299 231 172 238 358 173 232 218 156 196 352 300 243 299 353 167 209 187 253 295 248 278 251 216 283 311 353 215 275 303 273 308 307 278 276 300 176 184 278 212 155 195 263 146 269 281 229 300 248 252 314 221 374 259 254 330 167 218 194 202 303 215 338 373 278 216 192 288 352 186 263 285 282 193 196 249 366 149 286 275 241 277 259 336 121 203 232 356 269 323 234 330 178 280 230 276 273 176 262 245 315 203 255 231 220 296 271 195 243 147 290 245 227 306 242 181 207 361 238 168 252 239 211 253 253 229 192 278 277 202 211 246 229 249 265 261 177 304 168 163 246 322 221 213 275 258 284 289 308 261 265 252 183 174 243 316 202 248 236 255 266 331 288 215 201 256 215 169 266 236 287 283 256 269 334 232 180 308 219 263 235 241 360 161 291 273 248 298 225 134 418 315 268 193 235 270 290 296 290 285 211 344 216 250 313 268 285 241 275 265 293 276 321 240 246 234 358 291 281 191 253 296 280 228 290 284 261 298 178 258 149 327 128 227 217 338 375 223 135 254 318 248 224 241 300 319 306 180 199 270 314 181 232 307 232 302 251 252 306 310 313 234 261 174 263 203 275 227 205 209 261 309 264 301 191 264 180 272 245 179 244 280 210 303 267 282 252 337 267 220 249 233 293 320 197 183 179 332 193 281 254 263 284 210 250 163 226 212 229 262 247 281 241 293 202 388 233 214 236 279 282 195 169 189 189 255 241 247 190 235 250 270 286 313 258 188 217 229 215 233 202 186 251 320 189 274 395 266 184 282 278 219 260 238 277 283 212 235 223 223 334 273 287 324 161 214 291 248 230 201 212 250 230 239 202 175 203 184 270 162 356 272 286 278 189 256 251 244 266 273 285 244 223 251 282 324 298 188 300 240 281 276 260 252 204 167 282 211 181 257 228 173 269 337 330 294 351 225 305 211 259 276 224 253 279 324 280 209 206 305 215 241 275 297 180 249 309 274 307 273 248 307 237 288 238 246 234 289 176 269 244 264 262 169 241 289 213 165 258 241 208 218 291 253 224 251 278 260 216 258 211 250 274 249 347 339 195 279 337 219 296 321 249 295 120 290 320 193 255 293 285 321 219 266 252 247 226 289 179 155 310 263 130 276 208 284 256 203 272 210 345 164 188 236 175 250 380 319 302 258 198 219 188 192 300 204 268 266 318 203 392 220 239 231 329 294 264 295 240 278 286 358 228 266 242 176 109 202 201 160 283 170 209 235 252 282 364 205 216 334 307 150 142 249 183 154 339 222 253 266 313 361 272 192 311 189 231 282 248 262 333 308 306 206 352 266 182 197 344 247 265 259 229 299 282 284 223 217 167 305 247 244 188 242 280 262 181 238 355 226 167 320 285 144 353 331 290 331 311 284 100 247 263 331 229 191 223 401 239 212 229 387 340 264 328 175 339 237 271 284 180 227 295 283 171 315 181 228 300 304 263 295 288 313 221 344 243 194 255 243 164 212 327 203 154 190 187 184 142 246 267 313 204 260 243 179 244 208 204 292 283 318 258 179 238 335 173 265 318 172 214 277 167 248 226 322 207 216 325 314 223 206 208 181 247 279 297 177 236 272 215 253 192 300 268 175 262 227 195 212 182 191 313 232 222 296 156 256 267 260 292 285 251 203 249 261 267 254 258 246 178 279 189 292 220 250 230 340 240 242 229 274 228 246 281 291 289 319 267 163 272 396 339 303 255 173 238 313 323 212 300 286 310 291 268 375 287 256 214 312 279 265 225 249 301 298 293 307 218 211 279 273 199 250 163 332 349 207 298 195 266 308 272 297 292 275 288 265 300 255 265 330 296 321 261 378 237 300 261 248 263 250 325 237 265 139 278 270 278 209 254 249 168 278 221 202 282 310 336 158 224 349 329 209 217 297 260 302 244 241 322 231 135 291 269 254 259 246 265 243 244 201 237 379 230 255 328 317 253 177 177 349 239 193 190 174 186 261 201 174 196 249 281 242 225 290 319 320 211 235 260 173 279 256 270 237 266 232 282 211 161 257 302 206 245 245 219 261 164 338 191 321 328 334 222 228 192 252 298 275 226 281 305 281 265 247 376 334 200 227 304 236 276 261 218 208 240 239 268 280 279 239 217 132 273 237 254 295 298 193 309 227 253 273 213 242 274 266 225 220 306 354 229 227 246 149 253 118 179 240 298 188 256 262 182 222 237 200 229 333 295 292 225 252 326 226 260 320 332 266 245 219 243 250 241 195 345 311 289 275 188 289 319 225 231 196 244 245 340 274 176 284 179 227 203 242 232 235 176 268 218 215 244 243 364 265 302 273 323 236 266 240 256 187 330 171 263 324 266 226 222 208 225 164 226 334 269 204 284 228 229 261 380 217 281 205 263 203 322 363 246 267 219 133 270 225 172 164 232 163 204 142 215 291 288 199 239 309 191 244 329 207 336 233 156 298 255 199 226 333 254 314 253 249 227 235 133 326 226 216 257 287 301 286 194 293 220 235 267 360 255 325 284 318 215 169 243 335 199 228 213 249 329 322 231 237 154 142 309 218 357 262 278 266 282 252 188 258 245 134 113 221 294 255 230 254 357 195 217 134 259 217 213 210 175 377 338 240 242 233 235 324 169 315 390 331 246 182 276 205 230 296 229 314 207 235 318 195 253 347 239 288 235 227 214 282 204 305 382 265 206 342 226 156 210 295 230 218 220 249 324 301 246 222 188 190 179 214 264 241 267 245 221 262 361 336 321 254 247 144 245 199 240 296 307 392 253 271 326 354 275 341 311 235 297 273 78 361 275 230 194 225 225 302 300 241 204 305 220 249 268 259 311 218 275 277 306 288 219 167 307 303 199 226 310 241 213 303 330 212 264 294 251 223 338 272 194 341 230 277 233 271 270 180 342 188 278 301 253 228 299 226 259 218 221 178 194 179 231 318 209 299 175 298 278 286 250 230 282 318 292 194 301 256 264 319 317 348 268 234 184 202 432 287 249 278 291 287 259 269 181 260 272 333 145 205 248 413 240 188 286 247 246 126 307 225 183 216 277 302 296 294 333 165 127 225 248 227 222 303 351 308 274 296 203 255 225 254 289 213 217 232 302 324 180 355 208 220 284 280 245 263 256 177 238 285 223 200 247 178 225 188 249 250 237 234 253 215 188 281 263 287 212 321 212 247 285 230 289 295 294 197 301 245 179 231 154 250 264 193 294 242 287 231 334 314 199 234 329 317 242 337 196 241 241 259 195 194 266 242 230 235 233 212 133 122 259 292 227 292 307 230 242 156 182 200 271 213 289 329 156 183 201 266 224 251 200 288 206 161 161 226 337 293 193 335 228 265 198 191 355 284 234 310 214 193 307 239 366 229 259 247 244 299 250 216 271 281 203 252 215 268 309 259 260 163 184 174 223 233 406 283 284 260 330 201 188 219 280 241 259 249 202 247 287 241 306 258 263 255 268 231 219 293 309 346 210 335 207 296 230 287 223 220 267 244 158 183 220 327 202 255 241 213 345 256 224 279 154 182 314 236 229 232 277 329 211 201 305 177 249 285 262 210 280 305 230 272 240 274 251 171 290 292 284 168 245 189 190 291 260 286 251 251 230 234 266 262 196 222 352 171 329 346 326 217 135 242 172 255 321 290 252 240 280 292 229 238 243 278 232 281 276 317 198 265 194 167 274 265 194 274 183 242 216 331 291 202 237 273 265 265 299 297 215 224 246 341 194 148 207 157 287 266 266 233 323 363 178 228 217 251 258 320 174 272 226 189 269 252 160 230 262 221 249 214 302 216 266 272 267 318 220 250 293 239 189 258 185 317 274 202 232 292 158 299 238 169 235 257 226 265 170 163 211 216 275 288 277 318 252 315 194 287 68 240 242 248 273 234 218 334 331 223 226 247 227 222 312 240 285 273 332 254 196 196 237 227 177 284 298 280 210 277 289 253 314 232 218 260 195 236 288 274 159 312 251 173 295 233 221 289 304 170 221 304 256 278 212 242 152 181 301 241 254 163 193 247 274 226 220 170 240 194 231 360 346 199 290 320 272 311 270 277 359 284 287 273 228 231 234 231 221 202 217 291 291 289 278 293 215 290 242 219 135 289 225 219 246 190 291 267 276 239 308 247 259 228 214 245 208 178 313 231 279 210 279 306 199 231 296 222 214 164 232 210 378 285 254 337 208 367 263 268 224 193 248 331 193 310 286 252 197 274 346 277 263 241 195 187 258 292 248 260 238 208 288 239 261 265 121 198 280 263 271 305 295 264 305 244 196 159 273 235 302 194 197 217 320 182 310 258 218 279 247 275 330 269 184 220 291 266 177 165 227 274 263 295 227 331 237 209 312 281 315 221 361 293 220 166 295 261 336 321 200 188 265 269 300 219 214 291 247 330 246 206 217 206 233 274 298 250 177 291 253 255 257 217 309 331 260 244 242 301 143 307 276 291 218 252 240 163 321 270 257 328 227 226 159 281 299 285 196 240 228 302 275 213 240 193 249 291 246 200 308 248 238 315 219 235 277 273 282 256 250 290 284 226 266 231 283 297 269 328 279 210 280 266 212 188 170 220 255 248 237 245 281 302 284 233 231 248 241 271 237 202 188 177 229 129 316 384 245 291 209 216 226 295 281 343 185 298 189 266 331 229 243 232 300 245 258 164 206 223 259 296 353 218 267 210 208 329 148 361 341 279 317 229 281 292 302 203 173 245 233 152 350 207 268 315 375 279 300 261 179 325 187 317 251 182 165 282 143 271 260 200 164 237 218 179 144 228 212 332 254 234 203 231 247 316 266 293 290 291 383 250 271 357 257 296 249 270 266 315 268 170 231 234 376 372 348 297 275 264 270 231 309 236 367 288 200 251 173 258 237 197 256 288 239 209 156 229 188 210 258 312 236 294 236 255 266 294 298 232 170 247 300 257 195 218 247 329 333 321 222 238 207 247 249 303 254 252 352 252 333 371 290 273 333 224 233 297 243 223 281 188 288 237 226 282 237 260 298 207 233 284 326 288 293 272 360 280 263 251 364 219 239 251 299 252 226 264 244 210 281 217 296 249 267 222 329 174 305 288 170 230 263 179 288 275 170 245 262 292 255 271 248 272 259 256 296 256 220 247 219 241 246 340 262 197 322 337 192 244 198 255 247 234 325 211 231 240 221 284 244 289 294 248 275 149 259 276 226 196 220 327 252 136 240 267 265 222 182 261 176 297 197 271 342 243 241 292 261 191 227 233 196 270 277 243 273 217 229 249 213 261 231 203 235 222 162 262 190 277 192 278 253 248 303 279 268 294 232 204 263 225 160 384 258 247 306 103 302 243 162 374 255 209 234 292 234 255 253 309 247 215 245 272 243 273 309 272 319 316 212 243 224 187 190 288 148 233 162 382 289 278 240 306 229 221 249 381 228 269 269 245 367 236 294 208 332 309 246 295 243 252 211 274 198 262 236 281 238 302 330 246 230 277 192 203 208 203 271 228 178 287 281 206 197 164 381 235 250 204 256 218 209 175 338 196 187 169 401 310 240 255 240 166 271 214 213 220 163 194 225 328 398 266 205 325 217 257 287 230 174 148 241 359 298 216 231 290 265 294 303 254 277 280 333 298 155 265 199 191 238 266 252 278 246 174 179 241 245 191 236 193 211 256 279 195 242 196 265 281 311 159 305 243 252 272 316 271 248 305 222 234 270 328 246 124 248 241 234 173 267 215 228 106 209 267 232 231 187 234 245 236 254 209 263 307 239 203 168 285 244 337 186 269 240 221 180 160 220 321 334 214 289 228 253 282 169 226 169 212 255 283 190 190 223 298 286 232 277 228 206 321 263 308 292 304 264 294 231 206 278 108 276 192 229 188 245 266 252 281 219 279 256 293 275 253 210 299 176 225 256 293 270 179 235 304 288 245 205 263 237 254 263 307 183 320 252 303 296 173 258 260 254 318 243 242 249 279 276 284 213 240 301 291 279 209 226 204 278 215 225 272 233 333 306 246 252 296 333 253 203 238 306 204 236 323 299 222 304 161 336 270 249 311 225 398 179 276 273 285 247 241 248 259 211 304 291 260 260 301 291 295 293 232 203 235 204 325 229 294 304 251 256 218 233 297 226 193 250 220 276 207 329 260 343 202 277 336 201 279 105 222 224 248 197 202 235 172 213 220 241 181 259 284 250 239 181 198 275 321 293 306 147 229 233 233 317 238 370 178 194 114 301 194 278 238 260 333 317 195 246 246 329 255 226 205 232 223 179 242 232 148 261 186 367 283 326 227 262 281 202 261 332 171 263 263 205 235 391 235 173 194 306 213 262 264 205 331 336 248 290 219 263 268 229 205 173 159 266 220 217 304 226 375 278 323 252 296 326 233 209 209 208 239 252 297 293 217 211 227 202 280 192 267 242 210 295 241 159 292 171 235 217 234 224 296 334 288 289 212 245 193 310 231 173 150 280 270 266 208 320 201 317 155 205 272 188 242 257 243 175 368 257 174 296 200 254 275 208 368 207 196 244 284 235 265 246 210 249 244 305 191 218 270 266 212 281 218 240 167 289 292 179 191 273 201 305 307 307 303 307 275 385 285 303 243 353 269 306 294 228 261 184 232 287 293 232 302 227 347 212 254 210 326 238 196 268 231 214 191 298 257 253 297 180 284 197 103 318 313 189 260 237 289 376 154 229 235 212 255 267 268 186 275 316 245 222 398 342 250 298 264 312 325 238 219 307 251 244 261 268 282 237 279 412 292 380 312 203 247 188 210 287 272 201 280 256 251 270 201 318 333 275 200 317 307 213 219 286 167 239 298 233 126 288 247 246 227 292 267 218 227 282 231 327 375 239 216 261 215 214 372 261 324 275 221 293 226 237 223 285 177 270 220 215 335 278 307 319 254 296 360 259 195 182 158 418 314 357 203 191 235 277 256 195 290 234 231 195 213 302 267 211 354 239 260 173 234 237 224 198 204 296 267 193 178 223 225 282 241 248 259 238 206 207 278 272 322 261 248 275 306 222 153 234 259 263 187 255 255 247 121 242 323 250 208 329 231 297 240 291 279 195 222 170 193 254 261 281 279 199 155 317 353 190 271 259 253 219 170 270 242 201 216 191 234 262 235 191 376 242 263 332 303 204 237 252 160 281 307 264 135 379 273 327 200 304 234 201 262 231 267 263 343 244 213 206 323 245 326 290 186 284 196 183 318 244 288 244 281 121 320 260 315 260 281 179 215 305 280 267 322 266 259 320 193 328 241 193 357 299 420 238 211 210 261 306 336 281 201 261 250 306 277 257 358 233 304 305 352 278 252 251 325 213 230 261 206 243 241 248 274 297 267 258 175 255 205 293 152 355 241 281 334 179 173 233 405 298 188 288 195 177 212 290 267 234 268 209 283 202 286 277 262 267 254 242 311 255 332 238 234 237 184 315 220 308 305 178 199 164 194 288 150 250 233 122 247 302 267 352 311 239 213 217 210 214 258 184 272 251 288 264 221 179 306 339 144 301 206 272 222 411 337 212 264 297 195 161 147 277 197 247 323 322 282 302 219 203 351 336 328 207 203 363 295 223 242 329 188 247 318 329 238 310 247 248 288 310 294 172 204 330 173 217 318 235 176 342 336 221 272 212 144 303 236 282 326 358 259 220 280 262 251 286 232 181 161 306 303 182 269 243 274 209 346 192 261 284 287 186 297 260 240 351 246 225 251 298 299 248 259 256 155 242 210 318 273 246 242 239 256 251 265 310 200 177 251 215 251 233 210 290 228 251 330 144 239 217 280 284 270 237 302 181 261 297 199 302 158 213 319 158 287 277 265 212 359 286 351 240 287 281 285 208 211 191 309 252 219 276 251 146 274 304 298 251 324 306 222 274 271 166 127 242 225 293 269 153 269 305 291 235 288 218 294 239 251 229 382 256 336 227 189 184 254 278 197 178 230 165 259 229 248 243 212 229 268 308 195 257 277 213 185 311 325 365 192 218 327 381 237 261 314 374 285 214 280 287 244 221 321 246 244 299 235 252 211 253 260 217 270 283 273 344 195 211 270 291 268 257 257 267 172 150 312 291 299 171 268 291 278 286 193 259 180 258 374 289 236 266 272 227 229 317 273 221 207 278 268 126 234 188 261 169 342 418 186 342 202 291 254 223 256 262 244 264 294 294 221 293 216 188 190 210 223 245 200 292 244 267 326 315 213 177 336 318 268 271 275 294 161 260 291 278 303 292 204 292 254 328 304 241 288 348 278 251 329 231 250 219 275 333 206 209 216 156 232 209 300 332 268 154 229 350 204 220 357 247 278 237 330 232 210 229 270 234 249 168 228 276 220 254 301 183 214 205 203 228 202 215 238 233 240 207 274 273 194 238 302 293 331 279 367 292 133 330 202 270 207 265 235 252 288 274 271 195 194 214 263 185 172 328 275 244 194 276 217 265 279 247 273 242 255 194 312 244 359 227 206 171 300 324 303 265 171 357 226 210 265 273 268 229 390 260 276 155 142 298 250 260 211 237 320 216 227 247 212 205 336 303 224 230 374 317 254 311 248 285 196 238 197 339 236 389 269 209 244 234 198 232 224 252 244 193 278 390 213 236 262 279 334 290 365 289 316 186 183 182 182 249 331 179 282 165 195 307 204 287 320 304 177 376 317 143 410 305 232 259 287 337 148 282 264 256 226 207 335 270 284 327 231 174 265 241 244 240 298 247 185 230 310 184 226 298 236 303 165 359 287 244 228 224 255 245 320 225 267 255 227 261 337 171 209 247 251 279 228 217 159 175 198 238 172 277 279 157 336 293 342 314 247 315 296 240 236 189 286 245 370 210 345 324 272 267 249 167 256 254 288 278 404 169 222 150 229 243 330 233 273 176 238 287 257 316 137 280 265 210 170 243 193 272 301 283 354 219 199 240 193 188 154 238 318 230 354 224 245 303 191 334 239 240 279 267 196 223 217 254 246 233 269 232 279 217 230 193 314 346 354 270 308 301 350 215 227 269 276 259 208 357 213 308 250 221 333 166 343 344 316 290 398 213 454 150 285 234 308 258 296 188 262 287 300 260 267 213 237 192 277 307 300 207 386 281 319 193 264 286 292 228 202 295 306 278 302 291 387 300 269 269 279 186 296 343 309 256 258 259 228 313 255 257 198 262 296 295 251 304 156 238 199 330 237 187 201 248 357 228 198 246 271 227 178 267 294 253 213 223 154 176 275 305 307 178 308 271 272 205 377 176 244 228 205 207 296 248 99 206 259 162 330 211 229 360 297 273 232 211 277 403 166 186 281 368 329 191 319 333 249 341 210 250 200 298 191 267 204 245 246 333 215 265 242 241 270 311 269 217 302 286 195 216 327 201 195 286 245 236 261 187 184 290 192 234 339 208 244 324 270 272 258 223 311 173 254 260 311 190 246 226 271 242 289 298 347 299 238 239 181 213 181 231 299 232 230 151 262 345 259 147 310 296 285 278 216 246 270 160 209 287 193 248 255 198 386 302 259 334 148 285 274 233 316 278 338 245 272 227 258 361 236 163 138 300 301 209 209 259 277 260 266 295 193 177 270 194 212 282 291 189 396 222 257 232 260 204 323 205 305 276 323 258 237 232 147 247 244 305 276 256 229 247 249 253 266 301 149 228 181 249 268 316 219 260 264 229 365 308 192 370 286 158 241 197 372 275 220 294 103 174 197 157 250 274 284 254 260 164 214 173 289 385 236 247 308 185 188 231 165 287 325 243 251 321 164 178 247 268 279 249 257 150 229 358 297 295 161 270 246 183 303 165 183 200 293 229 235 264 257 256 223 338 298 224 250 290 173 210 247 250 225 123 200 316 289 283 215 231 218 240 237 186 205 216 377 199 237 323 225 240 218 261 153 287 331 173 306 262 310 237 266 236 349 149 248 221 259 327 196 297 312 316 236 232 358 263 378 207 248 252 211 272 278 358 257 331 273 176 238 245 240 245 268 324 257 254 276 171 372 348 347 255 288 223 224 329 354 233 248 312 274 215 220 296 232 188 189 201 290 270 258 284 178 206 305 190 293 238 269 234 242 195 311 191 274 207 246 157 300 245 300 205 288 262 161 152 213 197 256 165 259 300 193 282 343 197 301 315 224 265 221 265 224 271 281 233 236 333 300 306 246 224 313 219 380 287 328 271 244 203 253 201 223 296 317 344 199 276 250 242 259 178 317 234 219 307 267 116 267 320 308 275 358 275 224 308 356 249 252 220 243 264 243 266 313 304 314 260 264 273 346 327 393 173 279 210 274 261 311 220 213 208 260 187 192 234 144 186 262 264 181 204 250 278 250 310 270 220 305 282 315 290 151 381 279 207 206 281 230 408 187 218 309 283 325 256 197 277 154 278 237 204 297 273 277 233 272 181 306 201 296 275 289 290 225 289 316 265 177 208 227 166 175 240 317 256 377 204 355 222 200 242 256 317 258 167 260 290 286 253 273 279 232 335 172 209 280 290 246 272 201 215 131 305 212 209 262 406 247 225 128 271 156 196 228 156 216 261 232 284 199 290 312 142 271 221 231 264 311 266 159 216 207 163 279 222 268 251 353 220 264 310 329 246 231 205 327 310 357 194 275 444 228 307 373 199 288 266 195 297 256 233 251 332 310 285 211 271 241 260 291 260 237 361 284 365 297 254 304 321 264 291 337 209 235 285 179 334 271 368 229 402 267 270 264 246 267 208 212 224 246 285 288 264 207 282 163 212 294 242 327 213 371 266 268 256 308 367 262 287 237 234 230 307 302 246 186 276 253 214 303 270 222 246 249 231 376 280 170 228 258 232 272 299 329 329 248 243 293 267 300 256 342 274 334 205 253 276 268 246 240 273 181 206 274 315 306 261 320 344 208 240 280 207 231 288 275 135 307 311 160 157 280 166 225 291 208 187 259 314 267 225 310 297 247 197 229 243 269 260 264 271 276 364 336 250 236 209 250 280 201 236 207 251 194 295 204 193 166 303 293 238 292 181 228 294 205 324 234 259 256 246 242 212 147 258 227 243 284 386 176 182 209 196 213 408 282 247 223 240 222 227 246 333 313 268 212 183 145 229 145 236 203 280 188 281 145 239 223 231 225 266 306 229 269 269 221 300 226 255 251 282 157 226 134 253 189 266 247 275 189 317 233 220 306 307 218 202 179 225 259 232 244 327 179 265 263 285 239 259 222 265 215 332 279 287 285 376 318 261 258 273 205 309 302 246 291 260 181 238 286 205 299 228 334 242 346 275 356 247 317 234 183 229 138 171 253 193 297 334 222 311 128 252 263 232 401 345 401 250 242 282 315 205 339 279 286 253 157 262 262 227 182 204 266 220 220 264 218 233 243 276 255 257 178 166 147 257 244 237 313 207 190 198 289 361 224 258 159 197 228 142 270 149 228 216 258 277 397 233 245 300 224 287 226 330 188 250 295 204 357 339 282 199 227 238 320 332 215 254 245 292 217 199 281 270 304 289 304 295 265 226 323 241 143 271 321 162 245 209 242 181 312 231 330 158 275 267 206 315 215 315 204 324 295 347 257 240 229 287 216 295 201 278 219 246 218 286 263 386 220 368 281 212 211 282 367 271 305 174 214 289 215 182 296 302 178 340 232 100 332 222 270 278 233 242 268 216 247 249 221 298 182 225 351 193 251 262 320 163 260 206 305 259 305 164 245 323 173 331 166 275 230 215 260 270 382 233 206 193 284 291 202 252 287 215 235 217 298 229 231 286 246 283 243 268 354 186 303 280 265 286 289 259 220 242 313 140 342 303 204 248 261 293 234 260 246 268 258 303 236 171 265 293 202 160 166 232 159 286 244 396 251 348 321 243 210 222 238 231 228 205 240 293 269 274 247 171 276 293 275 299 259 309 260 204 263 321 265 230 255 251 179 274 242 293 300 246 322 207 348 260 204 223 207 255 304 411 306 261 147 252 212 249 304 296 258 162 258 316 254 234 211 267 243 251 294 277 358 269 325 150 253 271 223 171 196 312 294 191 288 278 206 294 211 331 255 333 300 256 246 231 264 263 285 262 240 304 175 332 229 251 235 342 196 166 302 255 284 245 305 291 215 304 228 183 255 236 279 178 299 189 271 201 287 310 286 173 287 291 318 188 223 239 235 256 281 226 297 194 337 262 278 344 214 334 194 274 221 281 215 197 224 202 298 290 288 136 204 324 209 274 282 266 313 244 213 269 240 279 260 208 210 280 255 196 237 279 235 221 243 253 237 253 214 205 270 308 251 153 259 272 315 249 229 249 242 309 194 272 183 326 321 202 324 266 274 200 323 293 310 187 276 293 256 272 317 279 321 191 207 273 283 234 264 290 220 238 168 215 316 148 283 315 130 248 355 208 272 259 331 236 367 273 241 367 180 260 241 220 313 291 223 278 211 217 285 294 334 244 299 311 331 221 344 260 254 252 273 267 303 225 341 320 196 145 273 230 129 259 281 245 269 262 353 266 286 229 168 221 301 234 273 286 275 306 334 313 193 249 310 321 245 267 261 249 307 231 164 276 195 289 264 300 241 242 215 249 240 241 284 247 230 163 260 320 270 321 275 156 312 193 240 285 176 298 338 347 259 247 230 272 281 169 220 268 237 235 243 243 164 200 323 222 199 247 244 267 278 260 204 327 259 250 276 202 230 212 236 265 216 298 246 274 309 254 205 263 272 186 269 220 203 225 244 285 249 259 285 189 199 337 197 184 264 255 135 359 201 171 327 265 344 280 276 162 325 246 234 224 307 261 297 220 288 193 265 191 198 230 337 199 165 242 253 242 322 268 310 310 293 288 213 296 245 302 280 241 173 309 300 288 250 266 235 263 225 322 137 266 277 256 271 262 345 240 193 209 230 173 379 270 322 218 256 299 242 245 236 249 254 289 273 280 391 303 263 364 264 294 279 258 214 217 222 264 257 331 322 179 239 172 263 303 270 370 278 263 269 251 255 239 248 283 233 308 215 274 343 229 267 222 185 164 245 185 258 306 271 295 263 219 342 244 325 214 181 236 283 180 247 301 359 152 237 231 252 197 191 225 271 294 208 260 264 221 212 226 355 223 257 230 178 148 150 220 275 180 216 265 214 202 238 243 188 201 317 217 340 153 298 208 250 334 283 296 152 225 258 247 250 283 191 226 239 318 224 248 313 289 298 212 278 230 209 265 241 310 259 301 286 255 212 207 355 253 274 254 245 203 246 248 222 220 218 210 302 435 320 274 215 281 227 226 338 226 279 302 159 224 252 240 290 315 314 224 268 312 205 306 243 174 265 325 239 260 313 175 295 229 245 333 327 245 214 267 271 203 358 285 242 229 241 314 235 290 218 243 244 316 237 330 250 356 261 181 184 225 307 175 312 329 229 169 329 263 255 286 280 195 262 275 325 298 255 320 174 230 294 238 290 246 234 372 356 276 201 281 281 195 216 211 297 236 192 262 186 275 246 353 205 266 214 216 278 262 263 208 287 291 237 233 281 276 254 239 266 372 316 282 260 241 184 198 334 240 271 288 308 326 225 257 312 212 228 285 227 211 191 256 276 238 258 272 233 192 282 266 238 262 335 376 233 245 175 328 267 138 330 225 182 290 305 345 248 218 195 168 248 244 268 293 358 165 318 172 233 304 250 310 282 295 273 309 252 242 303 339 213 302 259 240 249 245 264 221 154 301 242 254 296 272 339 254 229 295 290 318 194 311 293 195 216 238 291 342 209 296 265 308 295 302 290 195 323 248 187 263 219 226 286 173 286 176 156 227 166 274 283 252 237 212 179 401 162 127 311 234 260 214 283 315 258 239 264 228 222 244 365 268 268 351 267 179 286 280 182 211 295 260 219 210 363 211 298 285 333 261 213 239 281 243 202 296 168 256 283 283 264 251 155 251 154 365 375 225 217 339 267 339 258 189 234 271 237 225 223 255 289 194 248 316 210 283 367 219 362 219 281 151 317 236 278 141 288 269 297 198 332 240 346 221 201 242 262 284 205 219 230 220 264 334 227 236 262 244 216 273 240 337 326 288 369 286 239 226 263 199 235 306 227 354 338 217 300 235 269 275 185 227 252 226 286 204 262 275 294 237 215 231 220 222 378 167 261 303 240 319 257 206 309 273 311 252 304 323 328 279 219 182 249 246 245 338 296 216 152 257 205 200 159 282 227 233 266 191 240 143 276 278 338 248 240 221 240 297</t>
   </si>
   <si>
     <t>F(1.4397263716806328, 1.2228878725253847, -1.3243832187893344e-31, 1.3389966018438875)</t>
   </si>
   <si>
-    <t>2 2 4 1 1 1 2 0 2 2 2 1 0 3 1 4 1 1 1 1 2 1 3 1 1 2 2 1 4 1 2 3 1 1 2 1 2 2 0 1 2 2 3 1 1 2 2 1 3 0 2 1 2 2 0 3 1 2 2 2 3 0 3 2 3 0 1 1 1 1 2 2 2 0 2 1 1 2 0 2 2 1 2 2 1 2 2 1 2 3 1 1 0 3 3 0 0 0 1 0 1 3 2 3 2 3 1 2 2 0 2 0 2 2 2 0 3 1 2 2 2 3 1 3 0 1 1 1 4 1 1 0 0 1 2 2 0 3 2 1 1 1 0 1 1 0 2 1 2 1 0 2 1 1 1 1 1 1 2 2 1 2 2 2 2 2 3 1 1 0 2 2 1 3 0 3 2 2 2 1 2 2 2 0 1 1 2 0 1 1 2 0 0 4 2 2 2 2 1 2 1 2 1 1 1 1 1 3 0 4 1 2 3 0 3 1 1 2 2 0 1 1 1 2 2 2 1 2 3 2 0 2 0 3 2 1 1 2 1 1 2 1 3 4 1 1 0 0 1 2 3 3 3 1 1 1 1 4 0 2 2 0 2 1 2 2 1 2 2 3 3 2 2 1 2 1 0 1 3 1 0 0 1 2 3 1 0 3 3 3 3 0 3 0 0 0 5 2 2 1 0 2 3 1 2 1 1 2 1 2 2 1 1 1 0 1 0 1 1 2 3 1 1 1 1 1 2 1 1 3 0 1 2 2 3 2 1 2 2 2 1 0 2 1 0 1 2 1 2 1 1 3 2 1 4 1 2 0 3 1 2 2 1 1 1 1 0 2 2 1 3 2 1 2 1 2 2 2 3 1 0 1 3 3 3 2 2 1 2 1 3 4 1 1 1 2 1 1 0 1 3 1 2 0 1 0 2 1 1 1 2 2 0 2 2 1 0 2 2 3 2 1 3 0 3 1 3 1 2 3 3 2 2 3 3 2 1 1 1 2 2 1 1 1 1 0 3 2 5 0 0 2 2 1 2 1 3 0 3 2 1 1 2 0 2 3 2 3 1 0 0 1 2 1 2 1 1 2 4 1 2 4 2 1 1 2 0 1 2 3 2 1 2 3 1 1 1 3 1 2 0 1 2 1 3 3 1 2 2 2 2 2 1 2 1 1 2 0 0 1 2 0 0 1 0 1 1 1 1 2 1 0 0 2 0 5 2 1 1 0 2 2 1 2 2 4 0 1 2 2 1 1 2 2 1 2 1 1 1 2 2 0 0 1 2 5 2 3 2 3 2 2 1 0 1 1 1 1 2 4 1 0 2 1 3 1 3 1 1 1 3 1 0 1 1 1 2 0 2 4 2 2 1 3 2 2 2 2 2 2 1 3 0 0 1 1 1 1 0 0 2 4 1 4 0 2 1 2 1 0 1 0 2 3 1 2 1 1 2 0 2 2 0 1 2 2 1 2 1 1 2 1 2 1 1 3 1 3 0 1 2 2 3 0 2 2 0 4 2 0 1 1 2 1 2 2 2 1 3 2 3 1 0 2 1 1 2 1 1 3 0 1 2 3 1 0 1 2 1 2 2 1 1 2 1 3 3 4 3 2 1 0 2 2 0 0 0 2 2 2 0 1 1 2 1 0 4 1 1 1 0 3 0 2 1 3 1 0 2 0 3 0 0 0 2 1 1 2 1 1 2 2 1 2 0 3 1 1 2 1 1 2 0 2 2 2 2 0 0 0 2 4 2 0 0 1 1 2 0 1 0 1 1 1 3 1 2 3 0 0 2 2 3 2 2 3 1 1 0 2 2 1 1 0 3 2 0 2 1 0 2 1 2 1 3 3 3 2 3 2 2 0 1 2 1 2 3 2 0 1 0 1 1 3 1 1 0 1 2 2 1 2 1 2 0 2 1 2 3 1 2 3 1 0 2 0 1 3 0 3 2 3 1 1 1 3 0 2 2 2 2 1 2 1 3 3 2 3 1 2 1 1 2 1 1 1 1 3 3 2 2 1 2 3 1 1 1 0 1 2 2 2 2 3 1 2 2 4 2 1 2 2 2 0 1 1 3 2 0 1 0 2 0 2 1 1 0 3 2 0 3 1 1 1 2 2 1 1 2 2 3 1 1 1 3 2 0 3 2 0 3 0 0 1 4 3 1 0 3 2 2 0 1 2 2 0 1 0 0 3 2 2 2 1 0 2 2 1 3 2 3 0 2 1 2 2 1 3 0 2 2 4 1 0 1 1 0 2 3 0 0 1 1 2 1 0 1 2 2 2 4 1 2 0 3 2 2 1 1 0 1 1 2 3 1 0 1 3 2 2 2 1 0 1 2 0 2 0 0 2 2 1 0 1 0 2 0 1 2 1 0 2 1 1 3 2 2 1 2 0 2 0 0 2 3 3 2 1 2 1 3 0 3 1 0 1 2 2 3 3 1 0 1 2 1 2 1 2 4 3 2 2 0 0 5 1 1 0 1 2 2 3 1 2 0 2 2 2 2 2 0 2 1 1 2 2 2 1 2 2 1 1 1 0 3 1 3 1 2 0 0 3 2 2 3 3 1 1 3 2 1 2 0 2 2 0 0 1 0 2 2 2 2 1 0 2 3 0 2 0 2 3 1 1 2 0 3 0 3 1 2 2 3 1 2 0 1 1 1 0 3 2 0 1 3 3 3 2 0 5 1 2 1 3 2 1 3 2 2 1 0 2 2 3 1 2 1 2 1 2 0 1 0 1 1 1 0 1 3 1 1 1 0 4 3 2 1 2 3 4 1 1 3 1 0 2 0 1 1 2 2 3 2 1 4 2 1 2 1 3 2 2 1 3 2 2 1 2 2 1 0 2 1 1 1 2 3 1 0 1 2 1 1 2 1 3 2 0 0 1 1 1 2 4 1 0 1 3 2 1 0 1 1 4 1 2 2 3 3 1 1 1 0 3 1 1 3 2 0 1 0 1 0 1 3 1 2 1 0 4 2 0 1 1 0 4 2 2 2 0 0 1 0 3 1 1 0 1 2 1 1 1 0 2 1 1 1 1 1 0 0 3 2 1 1 0 2 1 2 2 1 0 3 2 0 1 2 0 0 0 0 1 1 2 1 2 2 3 1 0 3 2 3 1 0 2 1 0 1 2 1 0 4 2 0 0 2 0 3 0 2 1 2 2 1 1 1 2 2 1 0 2 1 1 2 2 3 2 2 1 3 2 1 1 2 3 1 3 2 0 2 0 2 1 2 1 2 1 2 1 3 3 3 1 0 2 0 2 0 2 2 2 2 1 2 3 1 1 2 1 0 2 1 2 2 2 3 1 1 2 2 2 2 2 2 1 2 3 1 0 3 0 1 1 0 2 0 1 0 2 1 2 1 2 1 1 1 3 2 3 0 1 0 1 1 0 2 1 1 1 3 2 2 2 1 2 2 0 3 0 1 2 1 0 2 0 3 2 2 1 0 1 3 1 0 2 2 2 3 0 2 1 1 2 2 0 1 1 1 2 1 2 3 1 2 2 2 2 3 0 1 1 2 1 2 1 3 1 0 1 0 3 1 1 0 3 1 1 0 0 1 3 1 1 1 2 2 2 1 1 0 3 3 2 2 3 1 1 1 1 0 2 1 3 1 1 3 2 1 2 1 1 4 2 2 1 1 1 2 1 1 2 0 2 0 1 1 2 1 1 0 1 4 0 2 2 2 1 1 0 0 3 0 2 3 2 2 1 1 3 2 0 4 2 0 0 2 2 0 1 3 1 2 0 3 1 0 3 1 2 2 2 1 2 1 3 2 5 1 2 1 1 2 1 0 1 1 1 1 0 0 2 3 2 4 1 2 1 2 0 1 2 1 1 0 3 1 2 2 1 3 3 1 2 2 2 0 3 3 1 1 3 1 1 3 1 0 0 0 1 3 2 3 1 1 1 2 1 3 2 2 2 1 1 1 4 3 0 2 3 1 2 1 1 1 1 2 1 1 3 2 1 3 1 0 2 1 1 2 3 1 3 2 1 3 0 2 3 0 2 4 1 2 2 1 0 1 1 2 3 1 4 2 2 1 2 1 1 4 2 1 1 0 0 3 2 2 3 1 3 4 1 2 0 0 1 0 1 1 1 0 3 3 2 2 0 1 3 1 0 2 1 1 2 0 0 2 3 1 1 0 1 0 2 2 0 1 5 0 2 3 1 3 1 2 2 2 2 2 2 0 1 1 1 1 3 2 3 2 2 2 3 1 1 1 3 1 2 2 1 0 2 1 3 3 0 1 0 2 2 0 2 2 1 2 1 3 0 2 3 0 0 1 1 1 2 2 1 2 0 0 1 2 1 1 0 0 5 3 2 3 1 3 1 1 3 2 2 2 2 1 1 2 3 1 0 3 1 1 1 1 1 1 2 3 0 2 2 1 0 2 3 3 2 0 1 1 1 2 1 1 0 1 1 0 0 0 2 1 2 2 1 2 1 2 2 3 1 2 0 0 1 1 1 2 1 3 1 2 2 1 2 2 2 1 3 0 3 1 1 3 2 0 2 0 2 2 1 5 2 2 1 0 2 0 3 0 1 3 1 0 1 3 0 1 2 2 2 1 1 2 1 3 3 2 1 2 2 1 1 2 2 1 0 1 2 2 1 1 1 2 2 2 0 2 3 1 3 2 1 3 2 0 2 1 2 1 2 1 0 1 2 0 2 1 1 0 0 1 1 2 1 1 1 2 2 0 1 3 1 1 2 1 0 3 1 2 0 1 3 2 0 1 3 1 2 2 1 0 1 1 2 1 2 3 0 1 1 1 1 1 2 1 2 2 3 1 1 1 1 1 3 1 2 0 1 3 2 1 0 0 2 1 2 1 3 0 2 2 2 1 4 1 2 3 2 1 1 0 1 1 1 2 2 1 0 3 0 0 3 0 1 1 3 3 2 1 3 3 1 3 1 0 2 2 1 1 3 2 3 0 2 1 0 2 0 3 0 3 0 2 2 2 5 1 2 2 1 2 1 2 3 0 0 1 2 2 1 2 1 2 1 1 2 3 1 2 1 1 2 2 3 2 1 1 1 3 3 2 2 3 1 2 2 1 4 0 3 0 2 1 3 1 1 1 1 1 1 0 1 1 1 1 1 1 2 1 3 2 2 0 3 3 2 1 1 0 0 4 1 1 3 2 2 2 0 3 0 2 0 0 1 1 1 2 1 2 3 0 0 2 1 1 0 2 2 1 1 1 0 2 4 1 1 1 1 2 3 1 1 2 5 1 2 2 3 0 2 1 2 3 3 1 3 1 1 3 3 1 2 3 3 4 2 1 0 0 0 1 4 0 3 2 1 5 0 0 1 3 3 1 2 1 0 0 3 3 2 2 1 1 3 3 1 1 1 1 3 1 1 1 1 1 2 1 2 2 2 2 1 3 2 0 1 1 2 3 1 2 3 2 0 1 0 3 4 0 3 1 5 2 2 1 2 1 2 1 1 2 2 1 3 2 2 0 0 3 1 2 2 0 1 4 3 0 2 2 1 3 2 2 2 2 1 2 1 1 0 2 1 2 0 1 2 2 1 1 1 1 2 1 1 2 1 2 0 1 2 5 0 2 2 3 2 1 3 1 1 2 2 3 2 0 2 2 2 3 1 1 2 3 4 0 2 4 1 1 3 2 2 1 1 2 0 1 1 0 2 2 1 2 0 1 2 2 1 4 1 1 2 2 1 2 2 2 1 0 2 2 3 3 0 1 1 4 1 3 1 3 1 1 2 2 2 2 6 2 2 2 0 1 3 5 0 1 2 2 3 3 0 0 1 3 2 3 3 2 1 1 2 0 2 1 0 2 2 4 2 2 2 1 2 2 2 3 2 1 1 1 1 1 3 1 2 2 2 0 2 2 3 1 0 3 3 1 0 3 1 1 4 1 3 1 2 1 3 1 2 1 2 2 3 1 2 1 2 1 2 0 3 1 2 1 1 1 0 2 3 2 1 0 3 2 2 0 0 2 0 2 2 2 1 2 2 4 1 1 0 1 1 0 0 0 3 1 1 2 1 2 3 2 2 0 2 3 4 0 1 1 0 1 5 2 2 4 4 3 1 1 1 1 0 2 1 3 1 1 0 2 4 1 1 1 2 3 2 1 1 2 4 3 1 3 1 1 2 3 1 0 3 0 3 2 1 3 2 3 3 3 2 2 2 3 0 1 3 1 2 0 1 3 0 1 1 0 5 3 1 0 3 2 0 1 1 1 2 0 0 1 1 0 1 1 2 3 2 2 0 0 1 1 1 1 2 3 1 2 2 4 0 0 0 1 3 1 0 1 1 1 3 1 0 1 4 1 2 1 1 1 1 1 1 3 1 2 0 3 2 1 0 1 3 2 1 0 1 2 1 1 1 2 3 2 1 1 4 1 1 3 0 1 2 1 3 0 1 1 1 3 0 1 2 2 2 1 6 2 3 3 2 2 4 1 3 2 2 2 1 2 1 0 1 1 1 1 0 2 1 1 1 1 1 1 4 2 1 2 1 2 1 3 1 0 0 0 1 2 4 2 1 1 0 1 1 1 1 1 1 2 4 2 1 3 1 3 0 3 3 1 3 1 2 1 1 1 0 2 2 1 1 0 1 1 2 2 0 1 3 2 1 2 1 2 1 0 2 2 0 3 1 1 2 0 3 2 0 1 2 2 1 1 0 2 2 2 2 1 1 1 0 2 3 2 2 1 1 2 1 1 1 2 0 3 2 2 2 2 2 2 2 2 1 1 2 1 1 5 0 1 2 1 1 3 2 2 0 2 1 2 1 2 1 0 0 1 1 1 1 2 1 1 2 2 2 1 2 2 1 2 1 1 0 2 0 2 1 0 1 4 1 2 2 1 3 3 1 1 2 1 1 2 3 0 1 2 0 1 2 2 0 1 0 0 2 1 0 0 1 2 4 1 4 1 4 1 1 0 4 2 1 1 2 2 0 1 0 1 3 4 2 1 1 2 1 0 2 0 1 2 2 1 2 2 1 1 2 1 1 1 0 1 1 1 1 0 2 0 1 3 0 1 2 0 3 1 1 0 2 0 1 1 0 2 1 1 2 4 0 1 0 2 0 3 2 0 1 2 2 2 1 1 2 3 2 0 3 1 0 3 2 0 2 2 2 1 3 0 0 2 2 1 2 2 3 2 1 2 0 0 2 3 2 2 2 1 0 4 0 2 0 4 2 2 1 0 2 2 1 2 3 0 2 1 1 1 1 1 1 2 0 1 1 1 0 0 1 1 0 2 1 3 2 4 1 1 1 1 1 1 1 0 1 1 3 0 2 2 2 1 2 4 0 3 0 1 2 2 4 1 2 2 2 0 2 1 1 3 1 0 2 1 3 1 0 1 2 2 0 3 1 1 2 1 2 2 1 2 0 4 0 1 0 1 1 2 0 2 1 1 1 1 1 2 3 1 2 3 1 2 2 0 2 1 2 0 2 1 1 2 1 2 1 1 1 1 3 1 4 0 3 4 2 3 2 2 1 1 0 1 4 2 1 3 3 2 4 2 3 1 4 4 1 2 0 2 1 1 1 1 1 2 2 2 2 1 1 1 2 2 0 1 1 0 2 1 2 2 3 1 1 1 0 2 0 1 0 3 0 2 3 1 2 1 1 2 2 2 0 2 1 0 1 3 2 1 2 3 2 2 3 3 0 1 0 3 1 5 0 2 1 2 2 1 1 0 1 1 2 2 1 3 1 2 1 3 0 2 2 1 1 3 3 1 0 1 1 2 1 3 2 3 2 2 2 1 1 2 2 3 2 1 1 1 1 0 0 1 2 2 1 0 0 2 0 0 1 1 1 1 1 2 4 1 2 2 5 2 2 3 1 1 2 1 3 1 2 1 3 1 1 1 3 2 1 1 2 3 2 0 1 3 1 0 1 1 0 2 0 2 1 2 3 0 2 1 1 3 0 1 4 3 1 0 1 1 0 0 2 2 3 0 1 2 1 1 2 1 0 2 2 1 1 0 1 2 2 1 2 0 1 2 3 0 1 2 2 2 3 1 1 1 2 1 2 2 3 4 1 2 1 2 2 4 1 1 2 0 0 1 0 2 2 1 1 2 2 1 1 3 1 2 1 2 0 2 0 4 2 2 1 2 1 2 2 1 1 2 1 2 1 3 0 3 1 1 1 1 3 1 1 0 2 1 1 1 0 3 3 4 1 2 2 0 0 3 2 2 3 2 2 1 3 1 1 3 1 2 3 1 1 3 0 2 2 4 1 2 4 2 3 1 2 1 2 4 3 1 1 4 1 1 3 3 0 1 2 2 1 2 3 0 1 3 2 1 2 2 1 0 1 1 2 0 1 3 1 1 4 1 0 1 1 3 2 3 1 0 2 3 1 1 3 2 0 1 1 2 0 1 0 1 5 1 1 3 1 1 1 2 3 2 0 3 4 0 2 1 1 1 0 2 1 3 3 2 4 1 1 1 3 2 4 2 1 0 2 3 1 2 1 2 1 1 2 1 2 1 2 2 1 1 1 0 2 1 0 2 1 0 1 2 1 2 1 1 2 3 1 1 1 2 2 0 2 3 2 2 2 2 1 0 2 1 3 1 2 0 2 2 1 1 1 0 3 2 2 1 1 1 2 1 1 2 0 3 2 1 1 0 2 1 2 2 0 2 0 2 5 1 1 1 2 0 1 0 1 1 2 2 1 0 2 1 0 1 0 2 0 2 0 0 3 3 1 1 1 1 2 2 2 1 1 1 2 1 2 1 1 1 1 2 2 3 2 1 1 3 4 2 0 1 2 4 0 2 0 3 3 3 1 3 1 2 0 3 3 1 2 2 2 1 2 2 1 1 1 4 1 2 3 2 2 2 1 0 1 1 1 1 3 1 3 3 1 1 2 2 2 2 0 2 2 0 0 2 0 0 0 2 0 1 1 1 1 1 1 1 2 2 1 1 2 2 2 2 2 2 1 4 1 3 1 2 1 1 0 1 2 3 1 0 0 2 2 1 2 1 1 0 1 1 1 2 1 1 2 0 0 1 2 1 5 2 2 2 1 2 1 1 1 3 1 0 3 2 2 1 3 0 1 1 2 2 4 0 1 3 1 2 2 2 1 0 1 1 3 2 3 1 3 1 1 0 0 1 2 0 2 2 3 0 1 3 1 2 3 2 2 0 4 3 2 2 0 2 2 2 0 0 2 1 2 0 1 0 3 0 3 1 1 2 1 4 0 2 0 1 1 2 1 3 1 1 1 2 2 1 2 2 1 2 4 2 2 2 2 1 1 0 2 3 4 2 3 3 2 3 2 1 2 3 1 2 0 1 1 1 1 1 1 1 2 0 4 2 1 1 3 2 2 2 4 2 3 4 3 0 2 2 0 3 3 0 1 1 2 1 0 2 2 2 2 1 2 0 0 4 2 1 3 1 1 1 1 0 0 3 3 1 3 2 1 0 1 2 2 2 2 1 1 0 3 2 4 1 0 0 1 3 1 2 1 2 1 2 3 3 1 2 2 2 0 3 3 1 1 0 2 3 1 2 1 3 1 0 2 1 1 2 1 0 2 3 0 1 2 1 1 1 1 1 3 1 0 1 0 2 1 2 0 1 2 4 1 2 2 2 1 1 2 1 1 4 2 2 1 1 2 1 2 3 4 0 1 3 1 0 1 1 1 1 1 0 2 0 1 3 1 2 3 3 0 1 2 2 2 2 0 1 0 1 1 0 2 1 3 1 4 1 2 1 1 3 2 1 1 2 1 1 1 2 3 2 2 1 3 0 1 1 0 2 0 0 1 1 0 2 3 1 2 2 1 1 0 1 1 1 1 1 1 1 2 3 2 1 1 2 1 4 3 4 0 2 3 3 3 0 2 2 1 1 2 1 1 1 1 0 3 1 1 1 2 1 0 0 1 2 2 1 3 1 1 3 1 0 2 3 0 2 2 3 0 3 0 0 3 1 1 2 1 2 2 1 3 2 1 3 2 1 1 1 0 0 2 2 3 1 3 1 1 1 1 1 1 2 1 2 0 2 0 1 1 1 2 3 0 0 0 3 3 1 0 3 1 2 3 2 3 1 1 1 1 1 2 0 1 1 0 1 0 0 1 1 3 0 2 1 3 2 3 2 1 2 1 1 1 1 2 2 1 3 1 2 1 1 0 1 3 1 1 1 2 0 2 1 2 2 2 1 2 1 2 3 2 2 1 1 0 1 1 1 1 2 0 5 1 3 1 1 2 2 2 0 2 1 3 2 1 2 3 1 3 2 1 0 0 0 1 5 1 1 1 2 1 1 0 1 2 1 2 1 3 3 3 0 1 2 2 3 2 0 2 2 1 3 1 2 1 2 1 2 2 0 1 1 1 3 3 1 2 5 2 1 1 0 1 1 3 2 1 2 2 3 2 1 0 0 2 2 2 1 4 3 2 2 1 2 2 3 2 1 0 0 2 1 0 1 2 0 1 1 2 1 2 0 2 2 2 2 1 1 3 2 1 2 0 1 0 1 1 0 1 1 2 3 3 2 1 1 2 1 4 1 0 1 3 3 1 3 0 2 2 2 2 0 1 1 4 2 1 1 2 3 3 1 3 2 1 1 1 2 4 0 1 2 0 1 4 3 2 0 0 1 4 2 3 1 3 1 3 2 3 2 0 4 2 1 3 2 0 1 3 3 1 3 0 1 0 0 0 2 2 2 2 1 0 2 0 1 1 1 2 2 2 0 1 2 2 2 0 1 0 2 2 0 3 1 1 2 4 4 3 2 1 2 1 1 0 1 0 2 1 2 3 1 0 0 4 1 2 2 5 1 0 2 1 1 3 1 3 1 1 1 3 1 1 1 4 1 0 1 1 2 1 1 0 2 2 2 1 0 1 2 3 0 0 2 1 2 2 2 2 1 1 2 1 2 1 3 3 1 0 2 0 1 2 2 2 2 1 2 1 3 1 1 0 1 2 2 2 0 4 3 2 1 1 0 1 1 1 1 2 2 1 1 1 1 2 2 2 4 2 4 0 3 2 3 1 3 1 0 2 2 1 1 0 3 1 1 1 2 2 1 2 4 2 1 2 2 1 0 1 1 4 1 1 2 3 2 0 2 2 3 0 1 1 2 2 3 1 1 2 2 2 2 2 4 1 2 2 1 3 0 0 0 1 2 1 0 1 1 1 5 2 2 2 0 1 2 2 2 2 1 3 1 0 1 2 2 1 3 1 0 0 1 3 0 1 3 4 1 2 2 1 2 2 2 0 2 0 2 2 1 0 2 0 2 1 1 1 3 1 0 1 2 3 3 0 0 2 1 4 2 1 1 1 2 0 2 2 2 1 2 0 1 3 1 1 1 2 2 2 0 1 2 0 0 0 2 1 2 0 1 3 0 2 1 1 1 2 1 0 1 1 2 1 0 0 3 1 0 1 1 2 2 3 2 1 1 1 2 2 2 2 2 1 0 2 1 3 3 1 2 1 2 3 3 3 2 1 1 1 0 2 1 2 2 2 0 0 0 0 0 4 2 4 3 2 0 1 1 1 1 3 1 4 0 1 2 2 2 3 2 3 2 0 2 3 1 1 3 2 1 0 2 0 2 1 0 1 2 2 1 2 2 2 2 2 0 2 2 1 3 1 3 0 1 0 1 1 2 2 0 5 0 0 1 2 1 4 0 1 2 1 2 0 2 1 0 2 2 1 1 2 2 2 3 1 1 2 1 3 1 3 2 2 3 1 3 0 2 2 1 4 1 2 1 2 2 0 1 1 0 2 2 1 1 2 4 1 1 0 2 0 2 2 2 1 0 1 1 2 3 3 3 1 0 0 0 1 5 3 0 1 2 1 1 1 2 3 1 0 3 1 1 0 1 1 1 0 3 1 2 0 1 1 0 3 1 0 0 2 2 1 0 5 2 1 2 2 1 1 2 2 1 0 1 1 0 2 1 0 1 0 3 0 2 3 1 3 2 2 2 1 0 1 4 2 3 3 2 1 1 0 0 2 2 2 1 0 1 4 2 2 1 2 0 1 2 1 1 3 2 0 1 2 1 1 1 1 1 3 1 3 2 1 2 1 2 1 1 0 2 2 3 0 4 1 2 2 1 1 2 2 3 1 2 4 1 2 1 1 2 2 1 1 2 4 2 1 0 1 2 0 2 2 2 3 2 1 1 1 3 0 0 1 1 2 3 2 0 1 1 1 2 0 2 2 1 1 2 2 0 1 0 0 2 3 1 0 1 2 2 2 1 1 0 2 2 2 1 2 2 1 4 2 2 1 1 0 2 3 2 1 1 0 2 0 3 3 2 1 3 0 1 1 1 0 1 1 1 1 2 2 1 0 1 2 2 2 2 1 0 2 1 2 4 2 1 0 2 2 0 1 1 3 2 0 1 2 1 2 2 2 1 1 1 1 2 4 3 3 1 4 1 1 1 0 3 2 1 2 2 1 2 3 1 1 0 2 0 5 2 2 2 1 2 1 1 0 3 1 2 1 0 2 0 2 1 2 1 1 3 1 2 3 4 1 2 1 2 3 3 0 1 1 3 2 1 2 3 3 2 1 2 2 2 2 3 1 2 1 1 1 1 1 1 0 1 1 1 3 3 1 0 1 0 2 2 0 1 2 1 3 3 1 1 2 0 0 1 3 4 2 1 1 1 3 0 3 1 3 2 0 0 1 0 0 0 3 1 1 1 2 2 0 2 2 1 0 0 1 1 3 1 0 1 5 1 1 2 0 2 1 1 1 3 3 1 3 2 2 1 1 0 1 2 1 2 2 1 0 3 1 3 2 2 1 2 3 1 0 1 1 2 1 2 1 0 1 1 2 2 4 2 2 1 2 0 3 1 4 3 2 1 1 0 2 0 2 3 3 3 1 1 1 1 0 1 2 2 0 1 1 2 2 3 2 2 1 1 3 4 3 2 1 1 3 2 2 0 0 2 4 5 3 1 1 1 2 2 1 2 1 1 0 1 1 0 2 3 2 2 0 2 1 2 3 2 0 5 0 3 0 2 1 1 2 3 2 3 2 3 2 2 1 0 3 0 2 2 2 1 3 0 1 2 0 1 2 2 1 2 2 1 1 1 2 3 3 2 2 1 4 2 2 2 1 2 4 0 3 2 1 1 1 1 0 2 1 1 1 2 2 2 0 1 1 3 1 1 2 2 2 2 1 1 1 2 2 3 2 1 2 1 1 2 2 3 2 0 2 2 3 2 1 0 2 0 0 1 1 3 2 0 3 2 2 2 1 1 0 3 2 2 3 1 2 2 0 1 1 0 1 0 2 0 1 1 1 0 1 3 2 2 2 2 2 1 2 1 1 1 3 2 3 3 0 0 0 4 2 1 0 0 1 1 2 2 1 2 2 0 0 4 1 1 0 2 2 2 1 2 2 0 2 1 3 4 3 2 1 1 4 1 1 4 3 3 4 1 1 1 1 1 2 2 1 3 2 0 0 1 1 1 3 5 1 2 3 2 1 1 2 1 2 0 3 2 2 1 1 2 1 2 2 1 1 1 1 1 0 1 3 3 1 1 2 1 1 3 1 1 1 0 0 2 0 0 3 4 1 2 2 3 2 5 2 3 2 3 2 2 1 2 2 1 2 1 1 2 2 1 1 1 2 2 2 3 3 1 1 3 3 3 1 0 0 3 0 1 1 2 0 2 1 2 3 1 1 1 1 1 1 2 1 2 2 2 2 1 3 1 1 3 2 2 5 1 1 1 1 1 4 1 2 0 2 1 0 3 4 3 2 1 2 3 1 1 2 2 0 3 2 1 1 0 2 4 3 2 1 0 1 2 1 0 4 2 1 1 2 2 1 2 1 1 1 0 2 3 2 2 2 1 1 1 1 3 1 0 2 2 1 1 2 2 2 0 1 1 2 0 1 0 2 2 1 2 1 1 0 1 0 2 2 1 3 0 0 1 3 1 2 2 3 0 1 2 0 3 2 2 1 3 1 1 2 2 2 2 3 3 3 3 3 1 2 1 2 1 1 0 1 0 3 2 3 2 3 4 1 0 0 3 3 2 0 1 1 0 1 0 3 2 3 2 0 1 2 3 0 1 0 2 0 3 0 0 2 0 1 2 2 3 0 0 1 2 1 2 2 1 2 1 2 1 1 2 0 3 1 4 1 1 2 2 1 1 1 2 1 2 1 3 3 0 1 2 0 1 3 0 1 1 4 0 3 3 0 2 0 1 0 1 1 3 1 3 1 2 2 1 1 0 2 1 1 1 0 1 1 1 2 1 1 0 1 3 3 1 0 1 0 3 1 0 2 0 2 0 0 1 3 2 2 3 2 3 2 0 1 0 1 1 3 2 1 1 1 2 0 1 2 4 3 1 0 1 1 2 3 3 1 0 1 1 2 0 1 1 3 0 3 3 1 1 2 2 2 1 0 0 1 2 1 1 3 2 1 1 1 0 2 1 1 2 0 2 4 2 2 0 2 2 2 1 0 1 2 2 3 3 3 1 3 0 1 2 0 3 2 4 1 2 1 0 2 1 1 1 2 2 1 3 0 3 0 2 2 3 2 2 1 0 2 3 4 2 3 2 2 2 2 0 3 2 1 1 2 1 0 3 2 2 1 0 2 0 2 1 2 2 3 3 1 3 1 1 0 0 0 1 2 1 1 2 0 1 0 0 1 1 1 1 2 1 0 1 1 1 2 1 2 1 2 2 2 2 1 2 1 2 2 1 2 3 0 0 1 0 1 0 3 1 2 1 1 1 1 3 2 3 2 2 1 0 0 1 1 1 5 3 2 2 2 2 1 1 0 2 1 0 2 3 4 0 0 4 4 2 1 3 2 2 2 1 1 2 2 0 2 1 2 1 2 2 1 2 1 1 1 1 1 1 2 4 1 1 1 1 3 4 0 1 0 2 2 0 1 1 3 2 2 1 1 2 1 1 1 1 2 0 0 1 2 1 2 1 0 2 2 3 0 2 1 3 2 2 3 3 0 0 1 1 2 1 1 1 0 2 3 2 1 4 1 1 1 2 0 2 1 0 3 2 1 1 3 2 0 2 1 2 3 3 2 2 2 2 1 1 0 2 2 1 1 2 2 1 3 1 1 1 1 2 0 2 2 2 1 2 2 3 0 2 1 1 2 1 3 2 0 1 1 1 1 1 2 4 1 1 0 1 0 0 2 1 1 1 3 1 2 1 2 2 1 4 1 0 2 4 0 2 3 2 2 3 1 0 3 0 3 3 1 1 0 1 3 2 2 1 0 1 1 0 2 2 3 1 0 2 0 2 1 3 1 2 2 2 0 1 2 1 1 0 4 4 0 1 2 0 0 1 2 2 1 0 1 0 1 2 0 2 1 2 1 0 0 2 1 1 2 1 3 1 2 1 2 1 1 2 2 2 1 4 2 2 2 2 0 3 1 2 1 3 0 2 1 2 1 1 2 0 2 3 2 1 1 1 1 1 0 1 2 1 1 3 1 2 1 2 1 3 0 5 1 2 2 1 3 0 3 1 1 1 4 0 5 1 0 1 3 0 1 3 1 2 1 1 2 0 3 2 2 2 1 2 2 1 2 2 2 2 5 1 1 3 1 1 2 1 0 1 2 2 5 2 2 1 0 1 2 2 1 2 1 1 2 0 1 1 1 4 1 2 0 2 2 1 3 1 0 2 1 2 1 0 1 2 2 1 1 1 4 0 0 1 1 5 1 0 2 0 1 2 0 3 2 2 2 0 1 2 2 1 2 3 1 1 4 0 0 2 2 3 2 0 1 2 3 2 1 0 1 2 2 2 1 1 1 2 2 2 2 0 0 0 1 3 1 0 2 0 2 1 2 1 3 1 0 2 3 0 1 2 1 2 3 1 1 1 2 2 3 0 3 2 2 2 2 1 0 2 1 2 2 1 0 1 3 1 3 2 0 2 1 3 1 2 1 1 1 3 2 1 2 3 4 2 3 2 2 0 1 2 1 0 2 2 2 1 1 2 0 1 2 1 1 2 5 1 1 3 3 1 2 2 1 1 2 2 0 1 2 1 1 3 3 0 0 2 1 1 1 1 2 2 1 0 1 3 1 2 3 0 1 2 4 2 3 0 1 2 2 0 1 3 1 2 1 1 1 1 0 2 3 1 0 3 1 3 1 1 0 0 1 0 1 1 2 1 2 2 1 1 1 1 1 4 2 1 2 3 1 4 1 1 2 1 2 2 5 1 1 1 1 1 2 2 3 2 0 2 0 4 1 1 2 3 1 0 1 1 2 1 1 3 1 2 1 1 3 0 1 2 2 0 2 3 0 1 2 1 2 1 2 0 1 2 2 1 2 0 2 2 1 1 2 1 1 1 2 0 0 1 1 2 0 2 1 2 1 1 1 1 1 3 1 1 1 2 1 0 2 0 0 2 1 2 0 3 0 1 3 0 1 2 3 3 3 1 2 2 3 2 3 1 4 1 4 1 1 0 1 1 3 1 0 1 1 2 2 0 0 3 1 1 1 1 2 1 1 1 1 1 0 1 2 2 1 3 1 1 2 3 2 1 1 1 0 1 1 3 1 1 3 1 2 2 1 2 1 0 2 1 2 1 1 1 2 1 1 0 1 3 2 1 2 1 2 2 0 2 3 1 1 1 2 1 2 1 1 2 1 2 0 4 2 0 1 2 1 1 4 0 2 4 2 0 1 3 1 1 1 4 2 3 3 2 2 2 2 1 2 3 3 4 1 3 4 1 1 1 3 3 1 2 0 1 1 3 1 1 0 0 0 3 2 2 3 4 2 2 1 1 1 1 4 1 2 2 1 2 2 2 2 0 1 2 1 0 1 3 1 2 1 1 3 2 1 3 2 2 1 0 2 1 1 2 2 0 1 2 2 1 1 2 2 0 0 3 1 2 3 1 2 2 0 0 4 3 4 2 0 3 2 1 2 2 1 1 1 2 0 2 1 1 2 3 3 1 2 1 1 0 1 1 1 2 1 1 0 1 1 4 0 1 1 1 2 2 2 1 5 2 0 0 1 1 1 0 1 1 2 2 2 1 0 2 2 1 0 1 1 1 2 1 1 1 2 2 1 0 1 1 3 3 1 1 0 0 2 1 2 2 2 1 1 1 0 1 3 2 2 2 1 2 1 1 3 0 0 0 0 1 0 4 0 3 0 2 2 2 1 3 3 1 2 2 1 1 2 2 2 0 1 1 0 1 2 2 2 0 3 1 1 3 0 2 3 3 0 1 1 2 2 2 1 2 1 1 1 2 0 2 2 0 3 1 0 0 1 0 2 2 2 1 3 2 2 3 3 1 2 1 1 2 2 2 1 2 2 1 1 0 4 1 2 0 2 1 2 2 1 1 1 1 3 2 2 2 1 0 3 2 0 0 1 2 3 2 3 1 1 1 1 2 2 2 0 0 1 1 2 0 2 2 3 1 1 1 0 2 3 1 0 3 2 3 1 2 3 1 2 2 2 2 2 1 2 1 2 1 1 2 1 3 1 1 2 3 0 1 2 4 1 2 3 3 2 0 3 1 0 1 0 1 2 1 0 0 4 1 2 1 3 1 2 5 1 1 1 0 1 1 2 2 1 1 1 2 1 0 1 2 3 2 2 0 2 1 2 2 0 1 1 5 2 1 3 0 1 2 3 1 0 3 1 1 2 2 0 2 2 1 1 3 2 5 2 0 3 1 0 2 0 1 2 1 1 2 0 1 0 2 1 1 3 2 2 3 1 2 2 2 2 1 2 3 2 2 0 1 3 1 2 1 2 3 3 3 0 4 3 3 1 1 2 1 1 4 2 2 2 1 1 2 0 3 1 1 4 1 1 1 0 3 1 3 1 0 1 5 0 1 3 1 2 1 5 2 2 2 2 1 3 0 2 0 2 1 0 1 0 2 0 2 1 3 2 1 2 0 2 2 1 1 2 1 1 3 2 4 2 4 1 1 2 1 1 2 1 2 3 3 2 2 2 1 3 3 2 1 2 1 1 1 1 0 2 1 2 1 3 1 1 1 2 2 3 1 1 1 1 1 0 3 1 5 2 1 0 1 1 2 1 1 2 5 3 3 2 2 1 4 0 2 3 1 1 0 2 1 1 0 1 1 0 0 0 1 0 1 2 1 2 3 3 3 1 0 4 1 3 3 2 3 1 2 0 1 0 1 2 2 2 4 1 1 1 3 2 0 1 1 2 2 2 2 3 2 3 2 1 1 1 2 2 2 0 1 1 1 1 3 1 0 5 3 0 2 2 3 1 2 1 1 2 0 1 4 3 1 3 1 4 2 1 2 3 2 1 1 3 1 1 3 2 2 2 0 2 1 0 1 2 0 0 1 2 2 2 3 2 1 1 3 2 3 0 2 1 3 0 1 3 3 6 2 2 3 0 1 0 3 4 2 2 3 0 1 0 3 2 1 2 1 4 4 2 1 3 2 1 1 3 2 0 1 2 3 2 0 3 3 2 1 2 1 2 0 1 0 1 3 2 2 2 1 0 1 1 1 1 1 1 2 2 1 2 0 0 0 1 0 1 1 1 1 1 0 0 2 2 2 2 1 1 0 3 1 2 3 2 1 1 2 2 3 1 2 1 1 1 2 1 1 2 0 3 1 1 2 0 3 4 1 1 1 3 4 2 0 1 3 3 1 1 3 1 2 1 2 1 2 2 2 2 3 3 0 1 2 1 1 2 1 1 1 2 1 1 1 1 1 2 2 2 2 0 1 2 1 1 2 1 1 0 0 1 1 1 0 1 1 2 2 1 2 2 3 0 2 2 2 2 1 3 2 3 2 0 2 2 2 0 2 1 2 3 3 1 2 2 1 2 1 1 1 1 1 1 0 0 2 3 3 1 2 0 2 2 3 1 1 2 1 2 1 2 0 1 1 0 1 5 2 1 3 1 3 2 1 3 0 3 2 2 3 2 2 1 2 3 2 1 2 3 2 1 0 3 2 2 1 3 2 2 1 2 1 1 1 1 0 1 1 2 1 2 1 3 4 1 1 1 2 1 2 1 3 2 2 1 2 2 2 2 1 3 0 1 1 0 1 2 2 1 1 2 1 2 3 1 3 2 1 2 0 1 0 2 1 3 0 0 2 1 2 0 0 4 3 1 0 1 3 1 2 2 0 1 0 2 1 1 1 1 2 1 3 2 2 1 2 1 2 1 2 2 4 2 1 0 2 1 1 2 2 1 1 1 3 2 1 0 3 2 1 1 0 2 1 2 1 2 2 1 1 1 3 2 1 1 2 0 1 3 2 4 1 0 2 1 1 1 2 1 2 1 2 5 1 2 2 2 0 1 0 1 1 0 1 3 2 1 2 2 2 1 2 1 3 1 2 3 3 1 0 1 1 5 3 1 0 2 0 5 2 0 0 0 0 1 3 1 2 2 2 2 3 2 1 2 1 1 1 0 2 0 3 1 3 2 1 0 1 3 1 3 2 1 1 2 4 2 2 1 1 2 1 3 3 3 2 2 1 1 1 1 4 3 2 4 2 2 2 2 0 0 2 2 2 4 0 3 2 1 2 1 1 1 0 0 0 1 0 0 0 1 1 1 1 2 0 3 0 4 3 1 1 2 1 1 0 0 0 0 2 3 0 1 2 2 2 2 2 0 1 0 1 2 1 1 1 2 0 2 2 0 0 0 2 2 2 2 0 2 2 3 2 1 1 1 1 1 1 3 2 1 3 3 1 2 2 2 3 2 0 0 2 1 1 1 5 1 1 0 1 2 2 1 2 1 1 2 1 1 0 0 1 1 1 1 3 2 3 3 0 1 1 1 1 1 0 1 0 1 2 2 1 3 0 2 2 1 3 1 2 0 1 3 3 0 2 2 4 3 4 1 2 2 0 2 2 2 0 0 2 3 1 1 1 3 0 2 1 3 2 2 4 2 2 0 3 1 1 1 1 1 4 3 3 1 4 1 1 3 1 1 1 1 1 3 1 1 0 1 1 1 3 3 1 0 0 1 2 3 1 1 0 1 0 1 1 1 3 2 1 2 3 3 0 1 2 1 1 1 2 3 3 3 0 2 2 4 1 1 4 2 1 2 0 2 0 2 1 2 1 3 1 1 3 1 0 2 0 2 2 2 2 2 0 1 3 3 0 3 1 2 1 2 2 2 2 0 1 0 4 1 2 2 2 0 3 1 1 1 1 1 1 1 1 2 4 2 3 1 1 3 2 1 1 0 1 2 1 3 1 1 4 1 1 2 2 3 1 1 1 1 1 3 1 1 1 0 5 1 1 3 2 2 0 2 1 1 1 1 2 2 2 2 2 0 2 2 4 0 1 3 2 1 4 2 3 1 1 0 3 2 1 1 1 1 2 1 3 1 3 2 1 3 2 2 2 0 2 1 1 1 1 2 0 0 3 0 3 2 2 3 2 2 2 3 3 1 2 3 1 1 1 1 1 2 3 1 2 2 2 3 1 2 1 2 1 3 3 2 1 2 3 2 2 2 0 1 3 4 2 2 1 1 1 2 2 1 2 2 0 1 2 0 1 0 2 2 2 1 1 1 3 2 1 1 2 3 3 1 0 1 1 2 1 1 1 3 2 1 4 0 2 1 3 2 1 2 1 0 1 2 1 0 0 1 1 5 2 1 2 0 2 1 0 2 3 1 2 1 1 1 3 3 3 1 4 1 1 0 3 0 2 1 3 2 1 3 1 2 2 2 0 3 0 1 3 1 1 0 3 2 1 0 3 1 0 2 2 1 3 4 2 1 2 1 1 2 2 2 0 1 1 1 1 2 0 3 3 1 2 1 1 0 2 5 2 1 2 3 0 2 3 2 0 1 3 1 1 2 3 0 0 2 2 3 2 2 2 1 1 0 4 1 2 1 0 0 1 4 1 1 2 1 1 1 2 1 2 1 1 2 3 1 1 2 2 0 3 2 1 1 0 1 3 3 0 2 1 2 1 1 1 1 2 2 3 3 2 2 1 0 1 2 2 0 3 4 3 2 2 1 2 1 3 3 2 1 2 0 2 1 1 3 1 2 1 2 3 0 2 1 1 2 1 0 0 2 1 1 1 2 2 1 1 3 3 1 2 4 6 2 1 2 3 1 0 3 0 0 2 1 2 1 3 0 2 1 2 4 3 1 2 2 3 2 1 2 1 2 4 1 1 2 0 0 2 0 2 4 1 0 1 0 1 2 2 3 3 0 0 4 2 4 2 2 3 2 1 0 3 1 3 1 0 3 2 1 1 2 2 2 1 1 2 1 1 2 2 3 3 4 0 0 3 2 1 1 3 0 1 2 1 2 1 1 2 3 2 3 2 2 1 0 1 0 1 1 0 2 4 2 2 1 0 1 1 0 5 3 0 3 2 1 2 1 1 2 1 2 0 3 0 1 1 3 1 2 1 0 2 0 3 1 0 1 3 0 2 1 4 1 3 2 1 2 1 1 0 1 1 2 1 1 0 5 0 1 1 3 2 2 2 1 1 3 2 1 1 2 2 2 1 2 2 1 2 2 1 2 3 3 4 2 1 2 2 2 1 0 1 2 3 2 0 1 1 1 0 1 0 4 4 2 2 1 1 2 2 2 4 1 0 0 1 1 1 1 2 2 1 1 1 1 1 0 1 1 2 0 1 2 2 1 2 1 0 0 1 3 2 1 2 1 0 3 0 1 1 0 1 2 1 1 2 3 3 3 1 0 3 3 1 3 2 1 0 2 2 3 1 2 3 4 2 1 2 2 1 1 4 1 2 0 2 1 1 1 2 2 1 2 1 2 2 3 0 1 1 2 2 2 1 1 1 2 2 1 2 3 3 1 2 0 0 3 3 2 3 2 2 1 1 1 1 1 0 1 1 1 3 1 2 1 2 2 3 1 1 2 1 2 1 2 1 0 1 3 1 0 3 1 2 3 0 3 3 3 0 2 1 1 0 0 1 2 2 1 0 1 2 0 0 2 2 3 1 1 1 3 3 2 1 1 1 2 0 3 3 2 1 2 0 1 0 2 2 1 2 2 1 1 2 2 2 1 1 1 2 4 0 0 3 0 1 3 2 1 4 2 4 1 2 2 1 3 1 2 1 1 2 1 3 2 2 0 2 4 1 1 0 4 3 1 1 1 2 1 1 1 4 2 1 2 3 3 2 2 1 2 1 1 2 1 2 3 3 2 2 3 1 1 0 2 4 2 0 1 0 0 3 1 2 1 0 1 1 2 3 1 2 0 2 2 4 2 0 2 3 1 0 2 4 1 0 1 3 1 2 0 3 2 1 2 1 1 1 1 1 1 1 2 2 2 1 2 3 0 2 0 3 1 0 2 1 2 2 1 2 3 1 3 2 1 0 1 2 1 1 3 1 2 2 1 2 2 2 1 1 4 1 3 2 3 3 3 1 3 2 1 2 1 2 2 4 5 0 2 1 3 2 1 1 2 4 0 2 1 1 0 1 1 0 1 1 2 1 2 0 3 0 0 2 0 0 2 2 2 2 2 2 2 3 0 3 1 0 0 2 2 1 0 1 1 2 1 3 5 2 0 1 3 1 3 4 3 2 1 1 1 2 3 2 1 1 0 1 2 0 2 1 1 1 2 0 2 3 0 1 0 0 1 0 2 2 2 2 1 2 2 1 1 1 2 1 2 2 1 1 0 3 2 1 4 3 1 2 1 1 0 2 2</t>
-  </si>
-  <si>
-    <t>GAM(0.1534643516084061, -2.4392791042118458e-29, 0.6345566633504217)</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 1 1 1 0 0 1 0 1 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 2 1 0 0 1 1 0 2 1 2 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 3 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 0 1 0 1 0 0 3 0 1 0 1 0 1 0 0 1 0 1 0 0 3 0 0 0 0 0 0 0 3 0 0 1 2 3 1 1 0 0 1 1 0 1 0 1 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 2 0 2 1 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 2 1 0 2 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 2 3 2 0 2 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 2 0 3 1 1 2 0 0 1 0 0 0 0 1 1 0 0 2 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 2 0 1 0 0 1 3 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 2 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 1 1 2 0 3 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 2 2 1 1 0 1 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 3 0 0 0 0 2 0 0 1 1 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 3 0 0 0 0 1 1 2 0 0 0 1 1 0 1 1 0 0 1 1 0 1 0 0 2 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 2 1 1 1 0 3 0 0 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 0 0 1 0 1 0 2 0 0 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 2 2 0 0 0 0 0 1 0 1 1 2 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 1 0 3 0 1 1 0 1 2 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 2 0 0 3 0 1 2 2 0 0 0 0 0 2 0 0 2 1 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 1 1 1 0 1 0 1 0 0 0 0 2 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 2 1 1 0 0 0 0 1 0 2 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 1 2 0 0 1 0 0 0 1 0 0 1 1 0 0 1 1 1 0 0 1 0 2 2 1 0 0 0 1 0 0 0 0 0 0 2 0 1 1 1 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 2 1 1 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 3 0 3 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 2 0 0 1 0 0 1 0 2 0 0 0 0 1 1 0 2 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 1 2 0 0 1 1 0 1 0 0 2 1 0 1 0 0 0 0 2 0 0 1 0 0 1 1 1 1 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 2 0 1 0 1 2 1 0 1 0 1 1 1 0 2 1 0 1 0 0 0 0 1 0 1 2 1 1 1 1 1 0 0 1 3 0 0 0 0 1 2 0 1 0 2 0 2 1 1 1 1 0 2 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 1 1 1 0 0 1 1 0 1 0 0 1 2 1 2 2 1 1 0 1 0 0 0 0 0 2 0 1 1 0 0 1 0 0 2 0 1 1 1 0 1 0 1 0 0 0 1 1 0 1 0 4 0 0 0 2 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 2 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 2 1 0 2 2 0 0 0 0 0 0 0 1 1 0 0 0 2 1 0 1 0 0 0 0 0 0 1 1 0 1 2 1 0 0 0 1 0 1 0 0 2 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 1 1 2 2 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 1 1 1 0 0 2 1 0 0 1 0 1 1 0 0 1 1 0 0 1 0 1 0 0 0 0 2 0 0 1 0 0 1 1 1 1 1 1 1 0 0 2 1 0 1 1 0 1 2 0 1 1 0 0 0 0 0 1 1 1 1 0 0 2 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 2 0 1 0 0 1 0 1 0 1 0 0 0 1 1 1 2 0 1 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 1 3 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 2 3 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 2 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 2 2 0 1 0 0 1 0 1 0 0 2 0 1 0 2 0 1 0 2 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 2 1 1 0 1 1 0 0 0 0 0 0 0 0 0 2 0 1 2 0 1 0 0 2 0 0 0 0 0 0 2 0 1 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 1 2 1 0 0 0 0 0 2 0 2 0 0 0 1 0 1 0 0 1 1 1 0 0 1 1 1 1 1 0 0 0 1 2 1 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 2 0 1 0 0 1 2 2 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 2 2 1 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 3 0 0 1 0 0 1 0 2 0 0 1 0 0 2 1 1 1 2 0 0 0 0 0 0 1 1 0 0 0 2 0 2 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 2 1 1 2 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 2 0 0 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 2 1 2 0 2 0 0 1 2 0 0 0 0 2 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 1 1 1 2 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 1 1 0 0 0 1 1 1 1 1 0 1 0 0 0 1 1 2 0 0 1 1 1 1 2 0 2 1 0 0 0 1 0 0 1 0 0 0 0 0 2 1 0 1 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 2 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 2 0 1 0 1 0 0 3 0 1 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 0 0 2 0 0 1 0 0 0 0 1 1 0 1 2 1 1 0 1 0 0 0 0 0 0 1 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 1 0 0 2 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 2 2 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 2 0 1 0 0 1 2 1 0 0 0 1 0 1 0 0 0 0 1 0 2 1 0 0 1 0 0 1 0 0 0 0 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 2 2 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 0 1 0 2 0 0 1 0 1 1 1 0 0 1 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 0 0 1 1 0 0 0 1 0 0 1 2 1 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 3 0 1 0 0 2 1 1 1 1 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 1 1 1 0 3 0 1 2 0 0 1 0 0 0 2 0 1 0 0 0 0 2 0 0 2 0 0 2 1 1 0 1 2 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 1 0 0 0 0 2 1 0 0 0 0 2 0 0 1 1 0 0 0 0 1 1 1 1 0 1 1 0 2 0 0 1 1 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 2 0 0 0 2 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 2 1 1 0 1 0 0 0 1 0 0 0 1 2 0 0 0 0 1 0 0 0 0 1 1 2 0 1 0 0 0 0 1 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 2 0 2 1 1 0 1 0 0 1 1 0 2 2 0 0 0 0 0 0 3 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 2 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 2 2 1 0 2 1 0 0 1 0 0 3 0 1 2 0 1 1 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 2 0 1 0 0 2 0 1 1 1 0 0 2 1 2 0 0 0 1 0 0 0 3 0 3 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 2 1 0 1 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 1 1 0 0 0 0 2 0 1 0 0 1 0 1 0 2 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 1 0 3 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 0 1 1 1 1 0 0 2 1 1 1 0 1 0 1 1 1 0 2 0 1 0 2 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 1 2 0 0 0 1 0 2 2 0 0 0 0 4 1 2 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 2 1 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 2 0 1 0 1 0 0 1 1 0 2 0 1 0 0 1 0 0 0 0 1 0 1 1 2 0 2 0 1 1 1 2 2 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 2 1 1 0 0 2 0 0 1 0 0 0 0 1 0 1 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 2 0 1 0 0 0 0 2 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 2 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 3 0 0 0 1 0 1 1 0 0 0 1 0 2 0 0 2 0 0 0 0 1 0 0 0 2 1 1 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 2 1 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 1 1 0 2 0 0 0 0 1 1 1 1 2 1 0 0 0 0 2 1 0 0 0 0 1 0 0 1 2 1 0 2 0 1 2 0 1 0 1 0 0 1 0 1 0 0 1 0 1 1 3 1 0 0 0 1 0 1 0 0 1 1 5 0 0 0 0 1 0 0 0 0 1 1 2 1 1 0 0 1 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 1 2 0 0 0 1 0 0 0 2 0 0 1 0 3 0 1 1 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0 2 0 2 0 4 1 1 0 2 1 0 1 1 0 0 0 1 1 1 0 1 0 0 2 0 2 0 0 3 1 0 1 1 0 0 2 0 0 0 0 3 0 1 1 2 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 2 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 2 0 2 1 0 1 1 2 0 1 0 0 2 2 0 0 1 0 0 0 1 0 0 0 1 0 1 1 1 2 0 1 1 0 1 1 0 0 0 0 1 1 1 0 0 1 1 1 0 1 0 0 0 0 1 1 1 1 1 1 0 1 0 1 0 0 0 1 1 0 1 1 1 0 1 0 0 2 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 2 0 0 1 0 0 0 2 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 2 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 1 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 2 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 4 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 1 0 1 0 0 0 0 0 1 0 1 1 1 2 0 1 0 1 0 2 0 0 1 2 0 0 1 0 0 0 1 0 1 1 1 1 0 0 0 0 1 1 1 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 2 0 0 0 1 0 1 0 1 0 0 0 1 2 0 0 0 1 0 0 0 1 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 2 0 2 0 0 0 0 0 1 1 0 1 0 1 0 1 0 2 1 0 0 1 2 1 0 1 1 0 1 0 1 1 0 1 0 0 2 0 0 0 0 0 1 0 0 2 0 0 1 0 0 2 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 1 1 1 2 0 2 0 1 0 1 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 1 1 1 0 0 1 0 0 2 0 0 0 1 1 0 2 0 0 0 1 1 0 1 2 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 2 1 0 0 1 1 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 2 1 1 0 0 0 2 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 3 0 0 1 2 0 0 1 0 1 0 0 0 1 1 1 0 0 1 1 1 0 1 0 1 2 2 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 1 0 2 0 0 0 1 0 2 0 0 0 1 0 0 0 0 1 0 1 2 0 0 0 0 1 1 1 0 1 1 0 0 0 0 1 0 0 1 0 2 0 1 0 2 2 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 2 0 0 0 1 0 0 1 1 2 1 2 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 2 0 1 1 1 0 1 0 1 3 0 2 1 0 1 2 0 2 0 0 0 0 0 1 3 0 0 1 0 1 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 2 1 0 0 2 0 0 0 0 0 2 0 0 0 0 0 2 1 1 0 2 1 0 0 0 0 0 1 0 0 0 2 1 1 0 1 0 1 2 1 0 0 1 2 0 0 0 0 0 2 1 3 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 2 1 0 1 1 1 1 0 1 1 1 0 1 0 0 0 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 1 0 0 0 1 1 1 1 1 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 3 0 0 1 0 1 1 1 0 0 1 1 1 0 1 1 0 1 0 1 1 1 0 0 0 0 1 0 0 1 0 1 0 1 1 1 2 0 0 0 0 1 1 0 0 0 0 0 1 1 2 2 1 1 1 0 2 0 0 0 1 0 2 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 2 2 0 2 1 0 1 0 0 2 0 0 1 0 1 2 0 2 1 1 0 1 1 1 0 0 0 1 1 1 1 2 1 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 2 0 1 0 0 0 0 1 0 1 0 2 2 0 0 0 1 0 0 2 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 2 0 1 0 0 1 1 1 1 0 2 0 0 0 1 0 0 1 1 0 0 2 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 1 0 0 1 0 2 0 0 1 0 1 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 2 2 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 2 1 2 0 0 2 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 2 1 2 1 0 1 0 1 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 2 0 1 1 1 2 0 0 0 1 2 1 0 2 2 0 0 1 0 0 0 1 0 2 3 1 1 0 0 1 2 1 0 0 0 0 2 0 0 2 1 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 2 0 0 2 0 0 1 1 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 2 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 2 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 3 2 1 0 0 0 0 0 1 0 1 2 0 0 0 0 0 2 0 1 1 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 2 1 0 1 0 2 1 0 1 0 0 0 0 0 0 0 1 1 1 1 1 2 0 0 0 0 0 0 1 1 1 0 1 2 0 0 0 0 1 0 1 0 2 1 0 0 0 2 2 0 0 0 0 2 1 1 1 0 0 1 1 0 0 1 1 0 0 3 0 0 0 0 1 0 0 2 0 0 1 1 0 0 0 0 0 1 0 0 2 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 2 1 0 0 0 0 1 1 0 2 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 2 0 0 1 1 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 2 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 2 2 0 0 0 1 0 1 0 1 1 0 1 0 0 1 2 0 0 1 0 0 1 1 1 1 1 0 1 0 0 0 0 0 1 0 2 0 1 0 0 0 0 2 1 1 1 2 1 1 0 1 1 0 0 2 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 2 1 1 1 0 0 1 1 0 0 1 1 2 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 1 0 0 0 1 2 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 1 0 0 0 0 1 0 2 0 1 0 0 1 1 2 0 0 0 0 0 0 0 1 1 4 0 0 0 2 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 2 1 0 1 0 2 1 2 0 1 0 2 0 0 1 0 2 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 3 1 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 2 2 0 0 1 0 2 0 0 0 0 1 0 1 0 0 0 1 0 3 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0 3 0 2 1 1 0 0 1 1 1 0 0 1 0 1 2 1 0 0 0 0 2 0 1 0 0 0 2 3 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 2 2 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 3 0 1 0 1 1 0 0 0 0 0 1 0 1 1 1 0 0 0 1 1 0 0 1 0 1 0 2 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 2 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 1 1 0 1 1 1 0 0 0 0 2 1 0 0 1 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 3 0 0 0 0 1 1 0 1 0 1 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 1 3 1 2 2 2 1 0 1 0 0 0 1 0 1 0 0 1 0 2 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 2 0 1 2 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 1 2 0 1 1 0 2 0 2 0 0 0 2 3 0 0 0 0 0 0 2 0 0 0 2 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 2 1 0 0 1 0 0 0 1 0 0 2 0 0 0 1 0 1 2 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 1 2 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 1 2 0 0 1 1 0 1 1 0 3 0 2 0 1 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 2 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 2 0 1 1 1 1 0 0 1 3 0 0 1 0 0 0 1 1 0 2 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 2 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 1 1 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 2 2 1 1 0 1 1 0 0 0 0 2 0 1 0 0 1 1 0 0 0 2 0 0 1 0 1 0 0 0 0 0 2 0 1 0 1 1 0 0 2 1 0 1 1 1 0 2 0 0 1 0 2 2 1 0 0 0 0 1 2 5 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 2 0 2 2 0 0 0 0 0 0 1 0 0 4 1 1 0 1 1 0 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 1 0 2 0 2 0 0 0 1 1 0 1 0 0 0 1 3 1 0 1 0 1 0 0 0 1 0 0 0 3 0 0 3 0 0 0 2 2 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 3 0 0 1 0 1 0 1 1 0 1 0 1 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 1 1 1 1 0 0 1 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 1 1 0 2 0 1 2 1 0 0 0 0 1 0 0 3 1 1 0 0 0 1 1 1 0 1 1 1 0 0 0 0 1 2 0 1 0 2 0 1 1 1 0 0 0 0 1 0 1 1 2 0 0 1 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 2 0 0 0 1 1 0 0 1 2 0 0 0 1 0 0 2 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 2 1 0 1 0 2 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 2 0 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 2 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 3 0 1 0 2 2 0 0 1 0 0 2 0 0 1 0 0 2 0 0 0 0 0 1 2 1 0 1 0 0 1 1 0 0 2 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 2 0 2 0 0 1 2 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 2 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 3 0 0 1 1 1 0 0 1 1 0 0 2 0 1 0 1 0 0 2 1 2 1 0 1 1 1 0 0 1 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0 1 1 0 0 3 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 2 2 0 3 2 2 0 2 1 1 0 1 0 0 1 0 0 1 0 4 1 1 1 0 0 0 1 1 3 2 0 1 0 0 2 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 2 1 1 1 3 1 0 0 0 0 0 2 0 0 0 0 2 1 0 0 1 1 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 2 1 1 0 0 0 1 1 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 2 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 0 2 4 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 2 0 2 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 1 1 1 1 0 3 0 0 0 1 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 1 3 1 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 1 1 0 1 1 0 0 1 0 0 0 1 1 0 0 1 2 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 2 3 1 2 1 0 1 0 1 0 1 0 1 0 2 0 0 1 0 1 0 0 2 0 0 2 0 0 0 0 0 2 0 2 0 1 1 1 1 1 0 1 0 0 0 2 1 1 0 0 1 2 2 1 2 1 0 1 0 0 0 1 0 0 0 1 1 2 0 0 0 1 0 1 0 1 1 0 0 0 2 0 1 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 1 2 0 0 1 1 1 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 2 0 0 1 0 0 2 0 1 0 0 0 2 0 0 0 1 0 2 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 2 0 0 1 1 0 2 0 1 1 1 0 0 2 0 0 2 0 1 1 0 0 1 1 1 0 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 1 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 2 1 0 1 0 0 0 1 1 1 1 2 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 2 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 3 1 0 0 1 1 1 0 1 1 0 1 0 1 0 0 3 2 0 0 3 0 0 0 0 0 0 0 0 0 0 1 1 1 1 2 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 2 1 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 2 0 1 1 0 1 0 0 0 1 0 1 0 0 2 1 0 1 1 2 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 2 0 0 1 0 1 0 0 1 1 2 0 1 0 0 1 0 0 0 0 2 0 0 1 1 1 3 0 0 1 0 0 2 0 1 0 0 0 4 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 3 0 1 0 0 0 1 2 0 0 0 1 1 2 1 1 0 0 2 3 0 0 3 0 0 0 1 0 0 2 1 1 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 2 0 0 3 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 1 0 1 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 2 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 2 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 2 1 1 1 1 1 0 0 1 1 0 1 0 0 0 1 1 1 1 0 0 0 0 1 1 1 3 0 2 1 0 0 1 1 0 1 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 2 0 0 1 1 1 1 1 1 0 0 0 0 2 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 1 1 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 2 0 1 2 1 0 0 2 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 1 2 1 1 0 1 0 2 0 0 0 2 2 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 1 1 0 1 1 0 0 0 1 0 1 1 1 0 1 2 0 0 0 2 0 1 0 3 1 1 0 0 0 1 0 0 1 0 0 0 1 2 0 0 0 0 0 0 2 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 1 2 0 0 0 4 2 1 0 2 1 0 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 1 0 1 0 1 1 1 0 1 1 1 0 2 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 1 0 1 1 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 1 1 0 0 1 0 1 0 0 1 0 0 1 0 0 3 0 0 1 1 1 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 1 1 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 2 0 0 1 0 2 2 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 2 1 0 1 0 0 0 0 1 0 0 1 1 0 1 2 0 0 2 0 1 0 1 0 0 0 1 1 1 0 0 1 0 2 0 0 0 1 2 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 2 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 1 1 0 0 1 0 0 0 0 2 0 1 0 0 0 1 0 1 0 2 0 2 0 0 2 0 0 1 1 0 1 0 1 1 2 0 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 3 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 2 1 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 1 2 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 2 0 1 0 0 1 0 1 1 0 1 1 2 1 0 0 1 0 1 0 0 2 1 0 1 2 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 1 0 0 2 2 0 0 1 0 0 0 1 1 0 0 0 0 1 0 2 0 3 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 3 1 1 1 0 0 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 2 1 0 0 0 0 1 0 1 2 0 0 0 0 1 0 0 0 1 2 1 0 0 0 0 2 1 0 1 0 1 0 1 1 0 1 0 0 0 0 1 1 0 0 2 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 2 1 0 0 1 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 4 0 1 0 0 0 0 1 0 1 0 1 0 1 2 0 0 3 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 3 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 2 1 1 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 3 0 0 0 0 0 1 0 0 0 1 0 1 1 2 0 0 0 1 1 0 1 0 0 0 1 1 1 1 1 0 1 1 0 0 0 1 1 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 1 1 1 3 2 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 2 1 0 1 1 2 0 1 0 2 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 2 0 0 0 1 1 0 2 1 0 0 0 0 0 0 3 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 2 2 2 0 2 0 0 2 0 0 1 1 1 2 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 2 2 0 0</t>
-  </si>
-  <si>
-    <t>NIG(24.065433367770744, 15.274429623022098, -1.053394614326895, 123.1212201737817)</t>
-  </si>
-  <si>
-    <t>140 105 86 41 72 82 112 131 87 65 142 76 134 124 96 85 142 115 108 166 110 67 42 46 108 48 141 101 102 93 208 92 72 137 101 89 58 105 99 129 98 113 113 80 66 67 76 115 96 97 59 101 86 84 70 131 69 69 89 85 136 83 135 134 152 151 96 71 118 50 81 112 133 137 68 100 60 117 107 31 165 48 73 115 69 90 88 63 91 98 117 135 93 92 137 65 19 61 26 59 137 66 114 215 108 158 70 49 85 61 62 115 63 142 80 108 90 62 59 113 82 112 99 106 130 101 129 94 111 62 54 87 78 61 70 161 61 109 146 128 67 11 75 93 133 100 113 152 87 108 119 73 90 99 101 119 69 125 148 109 82 55 96 142 133 118 138 122 165 138 124 115 127 170 73 116 35 125 114 115 111 125 145 94 36 82 110 131 136 107 102 106 123 152 100 158 165 83 80 62 143 101 124 157 51 68 164 75 110 62 132 112 141 82 77 162 99 72 125 67 69 148 129 181 62 149 87 74 80 174 159 116 70 211 102 61 42 124 92 136 94 86 42 89 68 108 111 143 117 69 84 144 80 87 86 77 106 166 101 99 55 42 102 94 88 148 43 119 116 97 115 91 84 139 72 82 109 137 114 35 132 106 104 88 129 78 104 104 133 89 79 51 118 102 102 123 149 36 132 48 61 70 134 58 39 130 101 92 105 85 122 120 92 28 57 66 64 107 82 110 145 94 159 72 71 199 55 136 61 153 100 15 42 163 70 68 154 73 134 136 57 105 108 50 71 91 123 136 118 96 136 98 103 118 190 54 45 100 95 175 57 84 49 127 83 171 120 74 133 166 100 99 91 65 75 102 120 101 264 131 77 62 181 131 109 112 64 104 141 71 89 70 86 20 91 96 55 108 88 118 103 41 203 54 167 83 152 28 151 91 129 70 111 171 92 95 71 106 92 44 140 104 92 99 166 184 97 134 74 133 142 43 48 118 97 100 246 90 90 94 46 42 51 184 49 54 194 95 105 90 85 96 97 119 68 50 137 76 127 117 81 123 171 144 179 155 169 74 99 41 143 89 174 59 169 78 172 49 56 84 47 119 146 82 167 96 165 57 102 78 117 50 70 104 51 148 84 152 68 35 89 25 142 88 75 91 111 109 187 60 149 98 80 120 124 67 98 99 115 78 116 68 130 76 125 130 154 121 66 40 65 142 74 126 68 119 105 54 141 106 110 142 19 90 144 93 87 128 107 35 173 107 81 88 93 93 154 95 52 120 53 48 42 99 147 97 117 33 89 79 87 94 65 52 132 82 32 62 77 90 42 72 137 32 85 159 130 180 70 69 158 108 101 105 110 70 75 80 85 94 114 163 120 122 106 93 95 118 107 84 103 96 69 79 133 53 88 82 63 147 93 163 82 91 89 143 83 135 108 159 163 48 126 153 83 70 116 79 76 114 146 92 76 81 145 76 97 69 64 95 84 129 119 78 142 111 167 84 78 141 63 126 147 93 110 85 82 87 128 75 144 110 155 124 41 92 86 99 69 55 88 71 112 157 119 139 142 47 46 110 120 39 102 50 20 39 43 159 123 127 73 85 75 102 69 190 102 138 120 84 72 66 57 29 49 46 126 93 83 132 85 76 127 143 149 106 119 114 164 110 11 113 42 145 127 133 54 95 135 86 96 76 100 36 100 70 48 127 105 86 105 55 53 144 44 208 64 89 92 193 97 144 58 44 63 154 95 63 103 123 181 74 52 109 100 125 45 76 112 137 138 82 89 82 128 110 84 145 66 32 159 103 70 88 44 75 83 79 82 64 127 67 113 123 143 178 59 64 97 131 98 93 110 53 117 127 115 87 122 92 88 69 199 139 104 87 99 101 147 67 87 27 129 170 162 155 90 108 111 111 88 76 132 62 66 100 39 105 92 23 84 80 128 140 94 152 133 126 85 84 84 59 64 50 52 136 159 115 73 67 93 60 128 64 106 88 85 64 173 69 108 119 136 12 53 111 71 31 80 125 83 125 99 85 95 82 177 104 124 41 112 97 112 103 74 82 78 102 100 84 60 39 79 102 56 126 116 165 120 48 113 95 70 105 57 131 83 154 112 135 24 90 153 142 126 157 84 121 150 69 98 102 123 80 123 119 88 105 77 91 115 108 56 61 41 54 59 72 107 116 78 52 120 89 51 108 69 60 191 30 34 100 180 68 120 52 105 152 130 182 29 141 73 131 140 107 59 64 80 145 146 116 102 145 118 72 90 80 61 94 117 174 80 81 109 116 191 112 132 102 86 172 82 79 123 163 138 42 114 123 94 131 93 155 81 198 116 92 91 88 83 129 150 128 219 117 117 132 47 108 71 103 136 48 127 69 37 83 90 40 96 89 172 140 25 67 136 81 111 76 79 174 185 86 119 98 86 54 159 88 134 107 120 154 75 138 89 68 82 66 189 68 112 70 119 137 64 82 42 126 125 82 78 175 114 124 112 88 134 125 88 103 137 102 72 75 28 98 105 101 32 90 73 86 98 68 125 84 82 94 36 96 78 105 152 93 101 86 120 159 151 109 130 86 74 130 20 97 109 100 69 124 14 117 73 100 119 125 100 107 188 161 134 48 65 81 87 139 80 109 91 121 46 125 101 96 187 87 115 120 93 118 74 27 65 87 197 99 87 78 118 55 86 119 41 34 91 68 45 98 39 82 91 146 115 58 159 154 74 188 76 137 108 102 79 87 82 88 108 169 128 116 99 77 113 83 37 41 133 113 96 56 64 64 200 210 109 116 201 72 111 57 124 45 48 112 109 97 86 90 169 100 109 91 117 72 137 153 87 102 73 159 118 120 57 42 76 66 154 87 89 154 34 77 175 82 93 67 108 74 89 68 100 79 116 69 106 137 109 126 103 178 112 51 176 113 89 143 70 127 76 75 75 88 17 153 107 110 181 142 86 104 70 167 111 108 145 127 122 108 54 63 45 126 17 111 118 103 68 107 77 71 37 83 148 60 74 191 65 72 113 125 99 127 72 118 140 94 156 103 134 99 83 146 101 143 80 144 64 47 82 84 105 137 53 102 46 107 109 176 88 113 128 103 89 151 59 82 151 86 79 24 123 55 59 67 100 79 55 91 95 107 104 65 53 89 46 83 111 110 84 96 90 129 72 145 133 112 98 113 167 96 132 55 83 87 143 111 144 89 74 169 109 150 48 85 131 84 97 133 99 107 128 81 97 133 107 121 63 102 157 58 114 59 88 43 45 75 56 76 160 64 97 73 75 154 96 96 170 66 79 137 51 106 55 58 79 102 151 148 124 76 100 79 147 150 154 80 36 90 114 114 180 50 177 107 150 106 96 65 68 92 107 105 68 135 64 153 69 85 110 100 108 153 114 137 110 176 75 140 101 66 54 106 88 98 134 91 94 100 74 88 80 119 145 142 127 53 99 60 230 129 85 104 127 110 103 117 187 74 114 59 79 92 16 100 101 80 14 167 110 91 74 92 85 79 118 129 79 129 109 174 58 162 84 104 70 113 66 76 88 104 83 8 123 82 98 95 128 99 124 115 69 99 100 95 84 138 65 135 41 171 78 102 101 139 128 115 101 78 130 94 73 48 91 145 117 109 163 106 71 46 101 72 81 34 177 107 135 66 44 117 147 128 92 67 126 83 86 97 90 78 74 107 78 80 64 69 151 139 101 148 120 91 124 81 39 101 122 19 88 31 144 114 110 95 92 152 66 132 107 88 99 72 80 114 77 59 117 105 94 90 4 144 98 160 200 73 94 57 130 79 95 66 109 100 51 110 177 148 63 152 84 172 189 19 108 110 108 100 65 24 127 35 133 127 120 72 137 139 105 126 169 110 22 186 96 43 49 36 55 94 90 70 116 53 119 99 113 50 29 76 88 107 132 54 112 121 87 67 130 139 133 112 119 82 77 93 54 145 84 79 36 141 67 84 165 132 56 147 105 112 49 118 73 91 45 103 126 106 90 167 136 102 88 70 153 117 82 110 81 141 82 89 137 70 137 100 109 55 148 104 115 56 86 54 94 117 122 98 97 78 79 42 75 71 58 111 113 79 88 68 117 82 92 130 161 80 67 99 61 36 63 110 55 173 93 48 81 42 134 121 84 96 124 168 59 91 95 91 116 206 150 103 101 87 38 155 88 90 73 163 153 98 78 93 102 56 62 126 76 61 85 88 158 149 108 62 76 99 78 87 129 174 104 156 93 98 58 78 87 103 55 137 99 62 61 86 153 69 114 58 121 107 79 106 175 136 88 71 94 77 74 79 115 94 164 114 83 170 59 160 65 35 115 52 76 66 15 142 35 96 148 135 111 74 127 65 110 57 81 13 107 65 74 178 101 93 144 165 157 89 92 123 208 62 63 61 85 105 121 68 101 101 131 117 152 121 134 58 111 79 98 126 75 109 124 105 68 121 84 111 82 59 113 65 119 84 69 70 101 160 95 66 102 99 70 122 95 147 133 159 67 135 37 85 36 70 92 34 108 110 165 68 53 56 128 90 99 103 105 198 101 86 82 127 78 80 60 136 160 78 61 101 109 103 86 147 96 63 137 92 127 57 98 72 92 124 114 112 83 132 143 37 108 174 86 89 64 132 87 60 155 112 92 58 66 159 114 149 130 86 170 90 93 161 65 87 53 66 69 147 65 65 68 59 112 96 91 88 69 126 137 128 80 49 98 119 113 96 64 91 114 131 146 131 130 96 105 126 179 193 117 84 59 201 82 134 86 120 117 95 88 46 71 95 126 137 107 126 127 82 127 97 138 56 123 99 65 85 166 91 161 80 130 88 124 121 135 52 159 40 101 50 63 150 151 56 91 24 62 89 161 170 133 98 74 139 120 111 107 94 90 103 259 43 106 56 103 94 139 156 41 103 97 60 73 92 129 65 92 196 94 99 93 78 140 74 117 39 131 71 54 124 65 100 73 106 49 109 22 113 67 122 153 125 140 47 92 70 70 41 141 186 13 53 124 133 81 16 81 134 137 93 84 93 84 137 62 174 129 94 72 102 130 63 74 77 102 45 140 65 91 140 111 114 116 41 86 74 124 157 107 127 170 175 122 49 154 81 163 86 93 131 95 106 52 131 41 104 155 122 157 83 57 96 95 160 88 56 81 85 84 147 43 39 76 114 161 93 126 36 62 63 57 104 164 140 102 183 126 60 124 120 116 54 102 112 57 89 78 79 89 84 65 100 56 134 110 77 66 99 122 150 171 37 101 141 66 31 108 187 86 48 113 117 100 104 100 115 119 92 75 92 55 130 66 45 138 99 89 105 126 30 91 88 62 105 139 49 106 75 139 88 67 87 187 139 194 86 109 73 22 93 78 158 84 49 80 128 47 77 35 98 71 221 60 112 70 91 131 92 69 61 77 129 107 154 53 64 80 66 90 94 59 133 107 77 100 96 134 86 75 83 89 153 30 172 201 126 104 114 76 135 114 122 119 73 97 83 113 100 60 76 111 72 87 105 126 173 103 73 145 101 75 163 89 110 123 79 93 137 79 43 112 86 31 103 59 223 108 60 99 156 61 92 101 61 88 87 94 63 160 123 66 127 55 53 172 93 91 145 102 67 129 105 145 40 42 74 88 105 141 71 74 83 72 126 89 125 105 118 79 86 154 108 73 61 52 156 134 113 93 56 103 52 59 76 76 113 39 106 177 93 170 124 108 90 63 21 107 158 93 86 102 70 84 82 58 106 80 96 172 84 107 37 142 125 98 102 116 49 125 108 163 67 77 161 66 107 126 116 110 91 144 73 61 139 114 104 61 71 94 132 114 85 102 122 64 14 68 64 103 74 85 90 70 114 120 125 40 57 82 135 136 136 85 85 129 98 90 121 87 64 120 100 27 125 63 100 133 72 64 142 59 83 93 72 91 76 125 110 48 145 161 108 46 77 150 31 108 92 137 94 82 81 59 83 64 93 101 49 81 82 88 70 63 153 199 81 111 56 142 89 125 138 187 108 90 165 107 113 156 14 63 108 64 99 41 139 123 106 100 116 111 67 180 18 61 125 138 77 63 121 78 42 87 125 127 63 83 110 186 44 103 52 127 59 99 171 165 74 126 133 35 119 114 97 102 108 75 159 89 120 116 50 37 93 66 173 69 71 101 82 56 76 47 89 154 77 46 85 85 69 131 66 62 70 124 106 125 117 33 83 209 132 107 60 209 79 82 71 83 77 59 92 80 114 153 91 83 81 217 50 117 92 82 92 46 37 43 126 108 108 175 131 43 66 87 85 122 86 60 99 132 98 79 57 94 146 97 96 114 145 77 167 39 52 95 74 264 34 114 105 125 101 131 47 94 120 97 120 108 88 67 64 74 49 84 65 58 98 128 69 55 49 118 81 122 159 154 198 121 117 118 173 45 118 140 95 92 105 162 66 117 123 113 83 121 78 77 129 52 119 93 158 118 128 91 43 106 99 33 63 131 109 91 89 100 132 120 65 81 57 92 111 119 117 118 84 93 112 100 108 48 80 122 170 114 74 107 120 52 97 160 89 110 89 89 98 108 93 116 98 124 147 140 173 144 89 82 90 125 52 109 64 79 115 93 166 102 99 66 124 134 80 73 44 115 51 104 91 168 146 100 110 154 113 164 155 37 107 168 38 49 74 71 79 94 86 45 153 99 139 152 161 110 146 87 92 77 154 118 88 82 111 138 79 89 88 87 148 17 116 106 111 30 67 98 73 113 185 146 46 54 64 57 137 92 113 69 173 68 85 99 60 124 64 107 50 109 133 105 110 49 42 154 69 115 71 122 159 105 110 125 97 41 108 60 128 81 115 99 102 118 87 99 103 130 116 93 74 208 119 123 98 124 120 199 82 52 14 90 92 109 129 51 112 102 66 34 72 80 78 180 159 78 143 119 70 110 80 111 56 27 88 79 106 60 147 128 124 91 107 149 86 72 105 75 62 75 130 38 35 79 62 156 107 140 37 82 4 65 25 70 169 105 36 157 161 127 50 110 64 105 86 95 92 90 195 99 103 66 35 106 86 114 54 109 96 69 90 51 117 76 63 109 54 52 115 70 72 141 61 140 106 126 88 101 121 73 76 74 56 124 104 108 83 75 154 23 92 80 86 173 143 79 120 44 98 63 37 68 111 54 65 50 80 83 137 105 157 123 120 59 123 174 83 82 93 113 141 147 143 143 65 68 117 82 129 111 160 120 123 160 29 164 75 129 120 31 143 131 77 66 98 95 182 71 79 158 80 102 120 57 25 23 119 112 150 100 134 92 111 78 120 142 125 37 89 106 95 105 100 139 113 80 53 118 110 61 124 105 121 162 113 61 96 48 101 98 51 75 31 79 86 81 130 104 56 113 146 142 87 67 99 99 79 130 165 127 20 97 78 23 68 77 59 99 112 27 64 76 132 92 84 229 75 66 59 100 82 88 92 83 74 56 59 83 62 100 137 122 56 50 103 116 61 49 39 35 107 97 116 114 107 133 160 68 128 95 94 98 105 117 52 139 141 62 179 139 189 171 69 80 133 70 59 83 103 144 112 80 159 102 45 112 92 73 94 132 193 112 149 112 110 102 44 147 78 129 90 63 73 112 74 185 103 106 125 139 148 71 96 103 84 74 120 148 121 61 113 64 89 104 80 110 82 105 120 114 85 110 116 36 67 78 115 101 120 70 107 131 52 92 60 75 89 159 101 123 43 70 188 47 77 71 63 114 128 105 141 81 129 161 137 108 97 121 60 121 105 95 85 58 71 120 76 136 138 50 59 83 119 62 131 109 119 124 99 36 84 51 134 128 114 16 188 85 89 117 122 146 60 128 87 167 56 112 69 87 51 172 99 89 95 135 129 78 152 53 112 76 108 122 138 126 67 133 66 104 48 78 128 128 104 138 89 110 84 73 89 48 95 77 80 50 123 83 46 75 117 110 106 125 69 158 179 76 109 134 108 114 98 88 108 64 54 65 83 70 99 183 74 141 120 58 88 55 60 126 91 20 188 76 86 50 90 115 60 96 70 95 157 105 115 141 111 162 129 84 120 70 70 80 181 59 139 20 57 39 47 131 86 38 64 90 78 129 54 81 145 117 75 173 168 71 101 105 95 117 96 24 76 31 41 236 62 44 48 78 38 102 116 181 132 95 83 64 71 91 86 121 61 142 54 56 92 134 116 38 97 110 90 65 88 136 19 161 109 161 127 102 71 62 120 73 152 84 129 132 77 184 103 76 157 68 106 110 77 198 112 87 84 105 73 146 97 127 143 186 75 16 136 132 80 131 85 40 84 35 132 116 143 69 79 132 56 144 67 88 76 78 182 86 66 137 118 164 64 120 69 52 71 101 145 97 116 64 66 56 141 150 88 80 107 156 74 118 80 51 41 193 81 33 86 138 123 103 90 64 122 68 53 76 84 91 86 92 137 83 16 100 164 119 89 60 55 63 102 18 159 50 107 87 145 100 132 108 84 75 70 99 117 110 57 120 50 106 35 112 119 69 98 130 84 49 158 80 89 192 38 117 175 104 66 72 93 64 115 89 58 140 90 114 92 100 86 62 63 112 72 89 110 85 101 189 17 117 115 46 140 110 108 143 85 93 142 92 87 60 106 88 122 79 48 86 177 65 90 143 145 151 78 140 105 46 92 134 108 103 106 88 142 151 55 89 108 155 84 130 91 121 47 104 102 63 106 85 76 186 78 194 109 46 84 139 109 115 81 108 86 147 41 35 65 69 66 82 57 108 129 49 102 90 87 86 69 99 110 139 110 72 208 156 57 143 111 108 75 104 139 82 91 39 106 112 140 64 107 119 91 67 40 113 107 110 110 62 79 44 81 82 204 94 130 96 62 86 67 118 216 52 108 111 152 85 88 115 85 88 62 106 127 68 103 55 82 137 116 125 139 54 61 137 127 98 58 61 46 76 81 82 119 78 76 87 137 37 41 104 128 107 89 108 117 66 62 98 124 101 84 158 117 134 40 81 85 66 100 49 147 71 117 70 150 150 37 125 65 86 87 44 81 156 77 138 113 103 82 45 137 110 68 106 96 79 85 114 146 95 104 89 182 65 78 41 97 115 93 85 120 93 151 145 58 154 101 96 94 200 189 122 86 146 96 137 85 68 72 97 61 80 47 86 139 108 84 50 152 56 186 85 103 109 105 175 78 64 60 96 143 92 88 61 125 49 88 91 86 70 69 85 148 118 69 16 96 82 74 75 107 126 156 86 134 55 55 84 143 119 55 132 90 91 88 98 160 84 126 112 81 107 73 85 96 64 149 88 168 101 83 152 121 89 165 104 38 95 105 82 172 61 149 81 85 150 126 88 81 62 111 115 132 56 67 102 88 103 142 166 55 51 97 91 162 148 109 93 66 155 114 124 64 147 114 116 53 29 84 69 141 55 137 112 9 177 82 150 103 47 62 148 83 106 81 46 94 82 137 130 65 116 139 51 72 75 82 140 48 151 31 145 71 117 105 58 76 157 150 99 160 166 106 170 102 99 90 68 93 133 228 59 36 27 91 78 84 126 55 91 131 128 151 130 137 129 164 58 175 105 127 134 80 118 45 84 80 54 112 86 118 91 167 56 40 89 94 55 60 162 163 199 65 123 74 70 150 108 71 111 101 90 105 95 94 129 37 77 108 117 91 102 75 111 83 119 168 79 94 37 29 37 62 99 60 84 69 89 62 93 35 76 91 119 191 101 80 67 141 69 104 94 111 82 104 68 41 102 95 51 74 154 190 92 130 62 104 110 89 75 149 87 193 195 132 68 73 58 53 114 132 82 113 60 64 39 113 115 102 122 132 90 117 66 164 138 121 111 124 77 190 118 92 106 83 125 134 75 126 92 59 85 71 133 144 85 152 112 117 120 126 105 130 159 66 127 53 57 53 121 90 83 78 140 102 165 60 150 95 125 83 119 84 75 96 99 104 60 62 132 73 102 110 112 105 83 54 148 122 69 67 86 75 115 87 119 108 95 112 133 116 92 64 71 139 71 62 76 47 98 163 104 78 123 59 103 37 110 76 80 50 103 97 50 74 62 94 129 71 58 71 103 147 137 166 93 109 173 57 176 76 144 125 173 91 75 126 50 94 91 111 80 82 49 116 81 113 85 79 73 71 131 135 161 93 96 59 120 84 163 132 90 22 158 31 99 102 114 65 109 48 92 81 125 178 143 92 131 98 90 114 119 135 148 107 97 106 62 131 127 60 104 58 125 96 139 100 93 104 57 148 140 86 88 84 50 92 207 144 104 113 65 73 77 132 97 48 125 98 35 98 158 68 38 71 101 73 94 105 145 108 89 16 130 106 110 96 104 121 106 144 128 116 110 155 106 66 163 113 78 98 46 72 168 75 55 131 100 95 95 91 156 156 58 119 101 48 87 88 114 74 52 11 121 64 68 95 21 178 167 140 156 116 82 101 50 135 130 76 135 56 60 55 85 72 34 99 188 164 81 133 191 84 70 142 16 103 69 140 45 119 118 97 128 63 79 80 51 88 96 149 81 163 74 52 163 62 77 67 98 110 176 62 64 158 169 129 60 95 56 52 84 95 70 136 101 175 87 103 111 127 142 160 143 149 15 71 72 143 99 272 111 55 153 90 47 110 111 107 88 74 52 116 226 64 141 103 112 117 80 63 142 96 151 125 141 59 141 44 156 77 168 47 171 82 209 52 62 44 141 65 109 96 133 114 98 76 102 82 44 32 126 157 157 118 79 128 94 106 152 133 91 118 79 167 119 67 77 136 76 175 117 124 130 72 101 40 145 63 74 115 49 145 85 80 45 80 82 21 170 95 62 70 72 141 131 88 133 69 58 59 96 165 50 106 79 133 127 84 81 108 121 134 117 123 59 100 110 39 96 61 102 137 55 180 76 106 74 194 55 99 112 132 99 121 86 103 92 71 61 72 68 111 117 200 64 173 46 100 136 220 168 120 61 76 30 92 52 80 123 108 103 89 146 119 87 130 103 61 134 49 111 61 234 82 68 75 67 75 156 70 108 92 115 86 102 80 123 148 126 44 145 201 77 118 129 90 112 21 50 115 119 92 110 64 118 80 82 85 101 76 104 130 123 60 114 110 114 145 87 89 93 44 88 83 123 105 118 74 95 94 138 189 104 97 108 99 69 112 154 113 72 118 52 117 116 95 71 147 84 111 43 106 71 100 82 134 33 63 58 79 82 162 77 94 51 49 138 96 48 83 89 130 107 172 82 154 87 70 89 79 118 184 58 34 74 142 163 82 59 135 102 133 114 88 122 155 122 128 80 87 80 93 48 124 62 122 82 96 95 162 152 109 83 144 75 93 60 115 109 45 117 85 149 187 45 116 69 103 138 140 201 159 116 84 55 148 24 69 117 56 71 147 69 84 205 109 154 139 140 71 95 100 148 97 105 88 77 123 147 81 117 120 79 104 77 27 110 100 108 115 117 156 121 73 92 52 186 139 111 104 72 69 81 76 78 112 164 157 91 34 149 92 126 87 110 132 85 106 88 151 178 121 124 99 124 112 172 88 126 85 128 71 66 63 103 141 77 52 155 130 141 107 106 30 108 92 122 80 167 45 46 64 187 79 87 111 67 64 113 136 120 139 147 216 58 91 106 146 79 90 74 45 99 121 91 64 48 122 110 99 33 167 51 15 68 82 85 114 92 141 161 112 83 107 83 77 94 84 121 128 100 61 128 78 37 124 134 86 80 163 84 89 137 64 127 53 109 117 103 92 80 117 163 124 93 107 50 154 112 161 162 154 119 128 123 91 133 120 130 161 86 155 60 62 100 118 69 98 143 214 71 84 123 119 155 85 79 15 135 154 120 111 106 128 57 121 133 121 91 36 120 94 105 202 86 109 102 64 75 80 94 142 65 93 117 107 106 90 26 32 81 87 93 152 12 86 74 55 159 75 177 110 181 93 101 100 78 26 71 114 100 87 110 71 150 105 115 99 71 96 83 87 80 87 44 76 108 73 145 161 55 55 108 199 81 94 86 98 34 93 67 58 120 38 117 27 111 67 149 80 137 141 65 146 42 126 70 100 123 104 53 123 127 117 53 61 153 160 99 97 93 69 92 45 140 122 129 46 47 110 100 126 103 50 195 115 244 57 79 107 176 137 103 68 142 196 167 126 103 97 101 96 89 117 77 42 98 137 48 45 91 76 162 192 64 86 147 110 93 131 86 130 102 103 103 67 76 175 33 117 82 118 162 104 118 87 88 104 98 105 83 140 46 101 49 114 96 76 57 112 59 93 87 85 185 57 105 135 112 55 169 91 92 67 33 146 58 90 191 97 153 155 115 98 110 80 192 102 59 64 159 64 90 128 84 39 74 142 77 72 89 130 87 86 130 145 53 131 91 41 83 145 116 124 65 143 74 75 83 116 38 86 87 92 80 76 59 62 86 56 155 97 74 114 63 113 180 91 120 103 49 68 120 110 89 87 96 146 67 76 72 138 87 176 139 112 84 141 115 65 102 115 69 85 137 105 170 101 100 55 60 153 167 58 103 108 78 91 113 62 143 128 41 103 77 29 77 122 104 80 78 90 120 102 102 122 112 112 66 131 79 46 131 81 147 33 93 84 64 98 103 84 124 81 94 135 146 155 59 64 97 72 128 65 87 147 101 52 131 85 150 59 134 103 71 109 47 138 209 98 101 88 104 36 83 91 90 79 145 100 109 119 63 101 138 76 127 108 127 70 146 86 82 81 100 182 156 52 80 126 38 114 120 103 108 177 49 122 57 105 99 160 152 131 111 45 113 40 84 116 189 145 107 98 112 120 82 73 106 94 124 96 67 73 49 101 100 57 79 142 91 80 108 92 81 167 129 102 86 84 78 86 128 115 42 165 69 117 156 92 168 131 76 44 117 60 95 70 108 135 75 93 122 117 82 101 56 104 78 153 81 108 83 7 72 93 128 99 95 85 141 123 154 105 143 165 122 82 71 75 149 91 115 119 67 19 93 147 141 64 130 135 84 119 179 107 96 98 174 30 98 133 80 176 11 121 60 125 94 121 116 99 117 127 123 120 129 124 134 87 58 137 115 69 89 80 69 95 116 82 80 115 107 77 71 132 164 108 103 95 58 85 84 124 66 105 132 112 89 74 129 129 89 28 76 114 83 72 172 114 77 128 73 63 121 60 153 80 117 47 72 50 130 105 27 95 196 94 119 100 71 101 131 134 101 87 97 114 57 120 80 44 60 47 80 168 90 103 70 136 67 83 84 120 117 125 27 87 179 96 138 119 114 82 199 78 172 91 120 157 33 93 88 109 69 107 131 133 92 126 162 147 70 119 175 86 61 85 93 48 105 82 142 47 90 127 79 164 130 97 66 64 101 111 70 119 124 75 105 169 116 66 109 119 132 150 125 100 145 110 117 25 80 122 99 103 113 85 114 159 62 54 88 60 110 154 136 86 73 111 76 147 134 89 82 92 75 57 93 72 73 83 46 56 119 76 129 88 83 105 88 77 133 102 77 111 68 109 121 75 108 126 77 108 66 87 104 93 157 109 126 140 87 75 42 106 60 64 97 77 105 32 72 86 134 69 69 57 133 128 103 113 80 72 157 95 176 112 174 106 131 89 100 64 129 153 54 92 78 58 100 64 38 94 108 96 161 88 87 57 102 100 132 66 93 148 64 218 71 102 36 69 130 66 62 145 106 139 66 36 85 158 127 13 81 155 111 121 111 118 99 96 96 111 152 159 52 145 66 191 81 196 45 53 96 134 99 124 113 121 191 88 143 124 133 25 65 108 64 78 77 169 103 49 147 128 96 101 173 106 97 92 81 82 68 145 72 68 218 92 88 71 106 84 161 69 124 91 111 78 152 34 64 82 63 79 118 103 82 87 64 136 150 114 71 48 55 146 58 64 176 85 63 170 83 72 111 126 113 113 86 86 128 47 121 103 54 164 160 108 60 110 150 65 65 84 51 97 125 73 98 99 67 167 64 97 70 83 126 128 114 53 91 111 94 33 50 91 70 64 68 110 62 189 142 162 83 165 120 51 89 135 90 112 58 44 103 108 100 114 166 93 122 101 71 71 93 121 192 105 132 71 64 110 127 85 72 60 130 92 117 26 163 109 85 65 113 124 89 37 128 49 84 137 108 131 107 106 130 77 158 72 146 45 153 108 41 62 76 73 59 55 151 100 101 66 80 88 124 59 124 26 78 123 106 179 133 33 184 127 85 76 57 61 99 93 102 166 119 140 135 108 94 92 57 144 92 96 120 140 49 39 69 93 34 107 222 119 68 103 94 76 104 104 64 153 128 76 61 106 117 139 110 173 73 112 55 54 159 86 167 137 44 94 117 71 134 110 85 46 33 175 183 63 135 58 51 63 110 129 141 102 95 109 93 92 151 80 123 85 66 138 150 143 98 129 93 89 120 55 138 108 132 62 134 92 122 153 68 154 92 108 58 54 62 135 74 130 56 86 122 98 160 51 185 75 87 26 71 171 171 142 118 119 93 126 71 98 109 67 114 43 76 154 147 71 117 133 51 109 140 89 163 73 116 94 123 113 92 77 49 42 98 87 80 57 106 149 105 210 104 109 141 149 93 154 109 85 105 73 66 112 54 86 100 127 86 104 52 114 153 95 46 87 133 89 107 50 108 129 106 59 62 16 101 88 100 145 154 142 105 65 122 86 33 115 150 59 137 113 65 134 79 109 107 106 80 106 83 47 175 43 70 65 45 133 81 172 25 113 93 70 105 142 181 135 85 135 124 155 128 60 195 184 115 116 55 59 151 147 27 99 65 127 53 94 28 109 37 103 125 202 167 92 115 78 107 138 60 87 86 82 90 105 61 58 82 110 109 85 136 111 73 113 52 74 98 90 93 79 117 166 84 84 84 111 88 112 89 190 150 88 128 79 82 106 36 62 42 152 111 107 103 87 115 121 111 83 137 38 126 28 82 80 157 119 126 100 162 92 89 72 67 57 130 122 77 131 72 169 102 88 82 33 133 68 125 140 51 103 127 58 125 114 67 86 54 89 82 97 89 103 52 55 100 81 103 160 47 53 149 86 137 101 92 116 139 126 130 99 57 122 44 86 94 88 23 108 120 82 72 110 72 78 114 101 110 52 168 51 105 85 114 79 44 83 165 32 80 96 88 66 78 122 143 129 114 70 80 148 52 30 95 107 109 177 86 115 61 128 75 33 139 44 118 150 124 51 131 69 84 66 58 99 120 45 55 44 63 165 97 49 45 91 97 123 122 29 145 87 162 65 68 83 116 96 140 103 64 112 88 94 189 129 94 108 93 119 34 109 111 93 85 81 125 99 41 122 88 109 101 73 128 26 38 80 84 75 120 68 72 120 138 133 114 116 85 115 66 135 134 111 95 78 132 81 130 164 86 131 139 81 46 107 51 103 79 126 92 84 70 147 58 81 89 70 121 100 100 63 85 78 36 113 150 22 47 79 79 68 82 135 42 84 82 104 131 41 125 129 106 91 146 100 56 116 94 108 114 61 46 99 121 155 78 92 99 134 106 182 31 59 95 44 90 84 81 89 55 135 156 211 103 69 105 123 154 68 114 77 141 158 76 187 112 61 96 111 98 56 69 92 99 102 148 168 84 189 79 74 162 160 129 99 134 110 54 112 84 33 231 118 29 212 70 114 188 71 197 107 113 133 101 135 145 112 89 91 154 75 93 45 122 93 97 63 51 88 151 110 77 100 96 91 99 76 26 104 103 91 60 121 71 104 112 170 129 98 116 74 54 50 148 40 152 89 149 47 133 89 85 47 54 140 113 89 77 56 112 126 92 100 100 85 143 30 104 93 73 35 104 160 127 33 73 116 164 157 88 82 115 68 85 116 157 92 74 109 132 63 100 39 58 196 25 136 279 134 93 80 68 124 157 182 104 56 155 106 99 110 63 120 170 15 117 98 72 49 133 138 45 108 181 101 67 77 107 95 77 161 89 124 54 138 63 120 61 132 85 98 119 147 111 117 132 88 125 147 128 126 118 161 129 159 50 112 98 131 64 116 70 95 25 28 99 72 59 65 65 70 116 85 103 83 90 93 75 107 85 121 44 153 135 168 112 142 68 80 101 98 86 159 156 135 82 114 36 147 78 78 51 49 131 48 153 114 97 61 75 104 73 63 106 199 85 155 107 96 59 76 61 107 133 71 23 114 99 109 43 176 111 99 203 69 81 136 103 124 96 74 124 58 63 70 123 54 96 72 85 81 145 156 107 100 124 150 99 112 90 81 66 118 135 52 115 126 90 103 90 90 62 83 163 106 81 105 180 107 131 99 82 106 76 145 119 102 147 91 71 144 69 61 64 136 103 121 104 87 53 141 105 126 43 127 113 82 136 98 94 79 46 56 49 122 116 70 189 62 60 53 84 68 106 64 61 88 112 174 85 85 74 52 143 85 91 124 115 60 193 39 134 4 94 125 131 93 187 84 64 130 122 128 42 133 88 54 90 171 148 138 53 92 70 55 90 139 147 77 149 132 76 102 130 103 71 88 106 89 130 35 59 27 96 125 82 120 145 90 93 85 76 27 81 119 66 67 134 27 165 131 78 143 60 97 69 44 107 96 111 97 122 50 93 67 93 122 60 34 134 35 100 81 162 82 92 95 182 144 106 68 169 81 31 38 53 59 79 95 68 99 138 99 50 127 145 52 156 133 96 136 100 77 115 150 112 77 73 77 134 77 99 167 177 76 73 81 140 144 144 96 63 86 103 58 66 66 83 116 84 157 67 106 77 82 174 66 218 86 86 95 136 115 142 145 141 82 35 89 112 86 143 141 97 143 30 120 95 107 123 81 104 81 59 52 114 133 66 110 116 116 117 133 96 49 63 72 85 88 50 85 132 46 45 66 143 156 70 126 128 76 135 94 100 104 69 125 108 122 100 227 98 78 81 87 99 81 128 85 82 179 76 59 98 117 55 161 164 108 40 96 146 215 142 132 76 115 146 99 167 33 136 180 73 92 121 118 57 120 130 143 102 139 147 109 129 106 123 109 151 66 145 123 104 91 163 102 87 163 98 73 101 72 70 79 78 115 78 131 143 90 81 69 82 47 105 106 109 49 35 154 48 119 55 171 125 98 27 147 108 100 103 166 149 114 104 51 128 140 115 79 104 27 139 91 64 79 187 92 158 162 122 85 114 126 106 115 129 122 65 57 105 77 54 36 112 75 114 101 126 141 76 87 80 70 98 88 92 132 160 76 59 77 89 91 73 119 152 50 154 117 29 65 146 89 94 168 86 150 155 85 90 149 133 90 126 159 164 80 155 76 92 36 120 49 90 63 122 122 29 96 91 92 64 150 61 63 108 74 106 125 173 51 79 51 90 89 91 131 127 78 72 69 108 122 58 125 124 80 114 116 65 84 103 113 71 87 122 120 178 77 83 169 45 81 72 69 70 60 110 128 98 83 92 168 81 103 105 74 69 194 112 81 76 106 61 169 152 73 52 82 68 73 24 125 178 197 73 102 65 47 80 131 133 110 126 214 128 65 52 133 107 60 36 93 158 111 122 128 129 82 112 124 53 93 80 105 132 95 119 118 75 34 96 71 109 55 81 61 119 149 100 98 93 87 87 167 39 65 131 114 104 64 61 45 169 147 81 93 110 97 95 92 191 170 138 102 123 102 62 96 83 130 64 94 103 100 172 91 59 104 176 126 56 80 43 49 117 143 117 102 162 109 91 95 72 161 118 93 140 114 119 123 98 142 150 83 58 98 73 74 80 102 96 74 89 137 81 71 115 105 94 78 123 145 46 92 90 124 117 66 88 61 166 55 56 122 108 116 78 144 132 116 132 147 49 76 44 83 85 140 106 72 123 97 88 75 78 145 118 95 46 69 102 73 107 86 92 138 176 68 121 110 94 131 65 65 60 137 99 29 59 134 132 85 125 139 143 154 191 103 90 76 133 71 117 98 185 112 89 49 45 99 86 63 199 67 113 160 99 149 114 150 82 163 152 62 155 120 116 156 99 129 128 92 56 149 104 99 121 141 143 45 23 50 117 134 106 160 69 25 95 126 124 129 90 148 122 51 153 122 117 127 61 125 71 132 109 129 142 113 81 13 99 117 93 120 55 109 69 60 29 167 131 57 75 58 100 124 96 111 105 141 116 99 127 116 28 24 74 128 115 89 129 65 112 90 102 124 112 164 103 136 112 61 177 100 119 167 90 123 98 126 94 107 126 160 173 48 75 96 77 17 95 112 83 89 121 60 79 105 133 106 148 86 148 115 60 81 187 68 83 118 127 91 135 125 179 174 94 78 137 124 93 65 19 128 122 64 20 123 162 83 119 150 112 50 84 89 141 52 161 103 63 130 123 184 172 87 143 88 135 86 89 160 112 150 71 77 73 101 35 104 83 93 186 98 70 84 91 73 122 88 103 49 76 99 62 149 54 176 120 103 44 70 126 41 106 110 67 76 160 93 121 53 89 137 68 97 64 45 181 78 148 100 119 94 96 123 88 77 73 108 75 94 117 66 112 109 126 91 157 143 107 113 157 85 14 72 90 128 74 68 70 42 70 89 169 84 147 85 73 37 120 98 46 130 120 74 130 65 140 98 108 23 47 93 88 212 89 125 90 84 99 90 122 131 40 113 101 54 100 67 250 76 102 125 197 120 136 61 132 109 155 167 102 135 96 99 92 72 142 107 105 71 84 27 102 114 93 105 83 159 59 129 142 60 74 131 64 55 97 111 70 156 74 162 97 97 128 60 170 101 81 35 145 163 172 72 131 99 130 40 116 127 103 121 86 130 96 96 59 61 133 112 106 84 135 109 144 116 98 68 86 68 110 50 133 97 192 97 80 65 87 183 112 93 89 73 69 158 139 36 87 72 119 126 117 130 40 99 96 94 76 143 200 70 111 127 165 79 101 89 98 146 67 95 105 125 76 30 61 81 128 137 107 218 101 59 101 148 71 48 104 161 80 130 103 69 87 50 144 96 111 21 78 100 167 146 149 118 127 79 67 98 92 15 42 91 100 161 55 22 100 161 68 47 135 117 43 72 81 106 128 133 89 72 128 109 123 84 155 119 110 123 147 145 79 85 90 54 62 42 81 91 97 141 137 151 109 104 146 126 38 66 128 103 135 109 99 89 90 94 110 87 118 85 142 89 157 152 45 104 54 130 80 132 115 136 107 101 92 115 26 115 151 33 135 75 64 111 109 67 73 67 152 104 112 109 139 86 155 107 138 140 81 85 97 110 112 164 82 137 138 47 97 96 127 176 76 54 95 112 59 163 82 72 125 135 110 73 128 67 78 121 116 90 134 119 110 43 137 95 124 118 101 27 88 142 128 165 64 91 78 176 99 80 61 176 123 200 84 137 89 59 103 127 107 52 106 71 107 114 132 45 55 63 24 236 108 180 124 114 118 47 138 73 76 113 130 117 185 125 90 161 98 139 57 110 92 132 152 82 100 128 97 65 146 172 68 111 163 111 101 89 65 115 63 113 86 198 112 70 59 122 139 52 94 75 105 64 99 141 90 60 55 109 66 56 139 77 90 70 98 54 121 138 41 45 77 144 91 128 122 126 116 119 115 101 72 107 128 91 107 107 137 93 102 168 134 82 138 32 114 91 62 163 145 65 72 63 102 104 72 142 99 70 86 65 111 64 100 154 88 54 63 92 55 156 36 98 94 93 99 87 63 117 89 72 57 99 118 136 96 10 106 45 85 158 83 61 83 103 119 102 132 125 46 41 118 134 115 105 69 135 21 107 142 89 76 133 115 65 97 135 105 82 116 93 72 201 44 110 97 127 110 71 156 67 94 85 160 138 36 63 60 61 124 121 73 92 105 90 101 129 148 145 99 145 162 101 144 68 85 91 83 131 85 172 99 114 50 86 89 77 87 83 41 57 264 108 87 78 93 139 71 124 52 52 126 101 150 96 73 71 89 133 105 96 91 164 102 114 108 140 89 45 83 110 80 53 68 112 93 115 76 146 134 115 72 48 121 69 91 57 125 84 54 71 151 118 122 54 88 115 192 102 78 57 109 85 70 89 73 87 107 58 107 123 73 149 96 70 180 155 71 88 80 100 62 92 73 124 75 142 57 98 178 88 71 103 106 60 42 87 87 48 80 66 130 90 97 54 175 76 69 153 73 59 108 90 49 72 48 136 21 68 72 48 47 101 79 107 67 125 163 87 83 95 75 88 52 72 110 133 109 147 62 78 66 175 80 74 120 76 68 133 93 91 88 144 113 55 92 83 98 140 138 95 110 113 112 15 138 96 116 131 86 35 135 41 180 74 77 86 83 62 75 143 110 98 109 114 133 184 105 131 125 46 129 79 80 157 107 133 120 125 125 148 158 163 118 114 61 58 80 111 106 67 46 77 121 135 151 56 92 101 99 76 88 102 90 92 107 58 152 158 125 55 102 121 49 121 137 99 153 125 99 84 41 118 113 85 105 121 173 54 135 143 64 114 89 92 67 115 117 82 167 124 106 85 82 76 95 76 83 112 90 93 99 91 76 97 54 51 100 116 73 90 170 75 111 110 67 131 99 82 78 124 108 113 147 94 34 132 179 181 80 98 45 51 56 59 108 103 69 109 88 84 47 83 143 64 94 116 85 74 116 98 98 72 70 69 106 49 41 89 88 108 94 88 91 82 101 80 51 109 72 67 98 65 125 88 56 75 123 89 65 82 71 47 49 91 104 82 119 56 107 134 39 119 116 104 40 135 36 126 131 74 95 106 74 124 109 135 84 91 87 63 96 29 19 58 69 96 103 195 121 87 119 156 62 164 131 56 167 41 86 182 84 113 176 105 75 149 116 73 73 43 90 102 48 118 75 124 41 85 99 128 95 95 109 50 119 67 64 154 25 136 68 41 130 110 138 65 85 95 87 76 107 96 144 103 121 121 90 109 39 198 57 143 140 66 43 195 128 140 208 79 67 85 106 80 84 106 162 115 86 98 89 114 135 79 175 93 92 176 153 78 124 119 70 95 105 29 42 61 105 155 68 105 161 78 92 129 95 80 95 115 59 85 178 63 47 126 197 54 66 93 132 86 83 53 166 112 147 51 110 49 85 64 161 102 146 107 55 84 47 89 126 79 107 60 73 19 119 112 72 92 133 111 171 239 78 130 59 153 124 111 71 95 86 113 66 105 147 81 94 116 93 86 82 82 176 35 155 86 78 78 62 159 79 138 96 86 134 136 110 70 154 139 128 109 139 166 66 105 72 95 69 118 65 120 136 69 125 86 99 102 82 32 78 52 91 45 80 168 66 56 135 97 129 77 108 112 87 50 71 77 119 108 66 91 88 72 62 156 150 85 88 44 86 131 89 108 115 107 45 114 91 65 80 133 48 155</t>
-  </si>
-  <si>
-    <t>GAM(0.1849553976417293, -3.4442546484448025e-27, 1.0758685667095378)</t>
-  </si>
-  <si>
-    <t>1 0 0 1 1 1 2 3 1 0 1 2 1 0 1 0 1 2 0 2 1 0 0 0 1 0 1 0 0 3 1 0 0 3 0 2 0 1 0 0 0 1 0 2 0 1 1 1 0 2 0 0 0 0 1 2 0 0 0 0 1 1 0 2 1 1 1 2 0 0 1 2 1 3 1 0 1 1 0 0 1 0 0 2 2 0 1 0 2 1 2 1 2 0 0 0 0 1 0 1 2 0 0 1 0 0 0 0 0 0 0 2 0 1 2 3 1 0 1 0 0 2 1 1 2 0 2 1 2 0 0 1 0 0 0 2 0 1 2 2 1 0 1 1 1 1 3 1 0 1 0 1 2 0 1 2 1 2 1 1 1 0 0 2 1 1 1 2 2 0 1 1 0 1 0 2 0 1 1 0 1 1 2 1 0 1 0 1 2 1 0 1 1 1 0 2 4 1 0 1 4 0 1 2 1 0 2 0 2 0 1 0 1 1 0 2 0 0 1 0 0 3 1 0 0 1 1 0 0 1 1 1 1 1 1 0 2 3 2 1 1 0 0 0 2 3 0 3 0 0 0 1 0 3 0 0 0 0 0 1 0 0 1 2 0 1 2 1 2 1 0 0 1 3 0 0 0 1 0 0 1 2 1 1 1 1 0 1 1 0 0 0 1 2 2 1 0 1 1 0 0 1 0 1 0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 1 0 1 2 2 0 3 0 2 1 0 2 0 0 2 0 0 2 0 0 2 0 2 0 0 3 1 2 2 1 0 2 0 1 2 2 1 0 1 1 2 0 1 1 1 1 1 1 0 1 2 1 1 0 0 1 0 2 0 2 0 1 0 1 1 1 2 0 2 1 0 1 0 2 0 1 1 2 1 0 1 0 0 2 0 1 0 0 0 2 1 1 1 1 2 2 1 0 0 1 1 1 0 0 1 1 2 1 1 0 0 0 0 0 0 0 0 4 0 0 0 0 0 1 3 1 0 1 1 1 2 0 0 0 3 1 1 2 0 0 0 2 2 2 3 0 2 1 0 0 1 1 0 1 1 1 0 2 0 1 0 0 0 0 2 3 0 1 0 0 0 1 0 1 0 0 1 1 1 1 0 1 0 1 0 0 0 1 0 3 2 0 1 1 1 1 1 0 4 1 1 1 1 1 2 0 1 1 3 0 0 1 3 1 1 0 1 0 0 3 0 0 1 1 0 2 1 1 1 0 0 1 0 1 0 1 1 1 0 1 1 0 1 0 0 0 1 2 0 1 0 2 0 1 1 1 0 1 1 2 0 0 1 0 1 0 2 1 0 0 0 3 1 0 1 0 0 1 1 0 1 0 0 0 1 1 1 0 2 0 0 0 1 1 0 0 2 1 1 1 2 0 0 2 0 0 0 2 0 2 2 1 1 1 2 1 1 0 2 2 1 0 0 0 3 2 1 3 0 1 1 1 1 1 0 0 1 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 3 1 2 0 0 0 0 1 0 0 1 0 1 0 2 1 0 0 0 3 0 0 0 0 0 1 3 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 0 1 2 1 0 0 1 1 1 1 0 2 2 0 1 2 1 0 1 1 0 1 2 0 1 1 1 1 1 1 0 1 1 1 0 2 1 1 0 0 1 0 1 0 1 0 1 1 1 0 0 1 2 0 1 2 2 3 1 0 1 1 1 0 0 1 0 2 1 0 1 1 1 1 0 1 0 2 1 1 1 0 0 2 0 1 0 1 1 1 1 1 2 0 0 0 1 0 0 1 0 1 1 2 1 0 1 0 0 1 1 2 0 0 2 3 0 1 0 0 0 1 1 1 1 1 0 0 0 1 1 1 2 0 1 2 1 0 0 2 2 0 1 2 2 1 0 0 0 1 0 0 0 3 1 0 2 1 0 1 0 1 0 1 0 2 0 3 0 1 0 0 1 0 0 0 1 1 2 0 1 1 1 1 1 2 0 0 1 0 0 0 1 0 0 1 2 0 0 2 1 0 2 0 3 2 0 1 1 0 2 0 1 1 0 0 0 0 0 1 1 0 2 1 1 0 0 1 2 1 0 1 1 1 0 0 2 3 1 0 1 0 0 1 0 1 0 0 0 1 2 0 2 0 2 1 0 1 0 0 0 2 1 2 0 1 1 0 1 0 1 1 1 0 0 0 0 2 0 2 1 1 1 2 0 0 1 2 1 2 1 0 0 2 1 0 1 0 3 2 1 0 1 0 1 1 1 1 2 0 1 1 1 1 1 0 0 0 1 2 0 2 1 0 2 0 1 1 0 1 0 1 0 0 0 1 0 0 1 3 2 0 0 1 1 1 0 0 2 1 0 1 1 1 1 3 1 0 0 0 0 0 1 1 0 0 0 1 0 2 1 4 1 1 1 0 1 1 0 3 2 1 0 1 0 1 3 2 1 1 1 0 1 0 1 1 0 0 2 0 1 2 0 1 1 1 1 1 1 2 0 1 2 0 1 2 1 2 0 2 2 0 1 0 0 1 1 2 2 0 1 1 2 3 0 2 3 3 2 2 0 2 0 1 1 0 0 0 3 0 1 0 2 1 0 0 2 2 2 0 0 0 0 2 0 1 0 0 0 1 1 0 0 0 0 0 0 2 0 2 3 1 1 0 1 0 0 1 1 1 0 0 0 0 0 1 1 3 0 2 1 0 1 1 0 1 1 2 0 3 0 0 0 2 0 1 0 1 0 1 1 1 2 2 2 0 0 0 0 0 0 0 2 0 3 2 0 0 0 1 1 0 1 2 0 3 2 0 0 0 0 2 1 1 0 3 0 0 0 1 0 0 0 2 3 0 0 0 1 0 0 1 1 1 1 0 2 1 1 1 0 0 3 1 0 0 2 1 1 0 0 0 0 1 3 3 2 0 0 0 2 0 1 1 2 1 0 0 0 0 1 2 0 0 3 1 2 1 3 2 1 0 1 2 1 0 1 0 0 2 3 1 0 0 2 0 0 0 0 1 2 1 1 0 1 2 1 0 1 2 2 1 3 1 1 2 3 2 0 1 0 0 1 1 0 0 2 0 1 0 2 0 1 0 0 3 0 0 2 1 0 0 1 1 2 1 1 2 1 2 0 0 2 3 0 2 1 1 2 0 3 0 1 1 0 1 4 0 2 2 0 0 0 1 1 0 1 0 0 1 0 0 1 0 2 1 0 1 0 0 1 1 0 0 0 1 1 0 2 0 3 0 0 0 1 1 1 2 1 2 1 2 1 3 0 0 0 0 1 3 0 1 3 1 1 0 1 1 1 0 1 0 0 0 1 1 0 1 0 1 2 2 1 2 3 0 0 0 1 1 1 0 1 0 0 1 2 1 0 1 1 1 2 1 0 1 2 4 0 1 2 0 0 1 1 2 0 2 0 0 1 0 1 2 1 0 3 2 0 1 1 0 1 0 3 0 0 1 2 0 2 1 0 1 0 0 2 2 1 0 0 2 1 1 1 1 1 2 0 1 0 2 0 0 2 0 1 0 2 0 1 1 0 1 1 0 1 0 0 0 0 1 0 3 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 2 1 1 1 1 1 0 3 0 0 1 1 0 1 0 1 0 0 2 1 0 0 0 3 0 1 2 2 0 0 0 3 1 0 1 1 0 0 0 0 1 1 2 0 1 0 0 0 1 0 1 1 0 0 0 1 1 1 1 3 0 1 4 0 3 0 2 0 0 0 0 1 1 2 1 1 2 1 2 4 0 1 1 0 0 1 0 1 1 1 3 0 0 1 0 0 1 0 0 0 0 1 1 1 2 1 1 2 0 0 1 1 1 1 0 1 0 1 0 0 0 0 1 2 2 0 1 1 0 1 0 1 0 1 2 2 0 0 0 1 2 0 1 3 1 0 1 1 1 1 1 2 0 0 0 0 0 2 1 0 0 1 3 1 0 1 0 0 0 0 0 1 0 1 0 1 2 0 2 3 2 1 2 0 0 0 0 0 0 2 0 2 1 1 3 0 1 0 0 0 1 2 0 1 1 0 0 3 1 0 4 0 0 0 2 0 1 2 3 0 0 2 0 1 1 1 1 0 0 1 0 2 1 1 0 1 1 0 2 3 1 2 0 0 0 1 1 0 1 2 2 0 1 0 0 1 1 0 1 0 0 2 2 1 0 1 3 0 1 1 0 1 1 1 0 1 1 2 1 1 2 0 0 0 0 1 0 0 2 1 1 0 3 0 0 1 0 0 0 0 0 1 1 1 1 0 2 0 0 0 3 0 0 0 1 4 2 0 1 0 1 1 3 0 0 1 1 0 1 0 0 0 0 0 1 1 0 2 0 1 0 1 4 1 1 0 1 1 1 1 3 0 0 0 1 2 1 1 1 2 0 0 0 1 1 0 1 0 1 0 0 0 2 0 0 1 1 3 0 1 2 0 0 2 0 0 0 0 2 0 4 0 0 1 0 0 2 1 1 0 1 0 2 0 1 1 1 1 0 0 2 2 0 1 0 1 1 2 1 2 1 1 0 0 3 2 0 0 1 2 0 1 1 0 0 1 0 0 0 0 0 2 0 0 2 0 0 1 1 3 0 0 1 0 1 2 0 0 1 0 1 1 0 1 1 1 1 2 0 0 1 1 0 2 0 1 2 1 2 0 1 1 2 3 2 3 1 1 3 1 0 0 1 2 1 1 1 0 1 0 1 0 0 1 1 0 2 0 1 0 0 1 1 1 1 0 0 1 3 3 2 0 1 0 1 0 2 0 3 1 2 0 1 0 2 1 0 1 0 1 1 0 1 1 1 1 3 2 0 0 0 1 1 0 0 0 1 0 0 2 0 2 1 1 0 0 1 2 0 2 1 2 1 0 1 0 1 0 2 1 0 0 0 1 0 0 0 0 0 1 0 1 0 3 1 0 0 1 1 0 2 0 0 0 0 0 2 0 1 3 1 0 0 0 0 0 0 3 0 1 1 0 0 0 2 0 1 0 0 2 2 1 0 2 2 2 1 0 3 0 0 2 1 1 2 0 1 1 0 1 0 0 0 1 0 1 1 1 0 1 1 2 1 1 1 2 1 1 1 1 2 1 0 0 0 0 1 0 0 0 0 0 0 1 2 1 2 0 1 1 2 0 1 0 2 1 0 0 1 1 0 0 1 2 1 1 2 0 0 0 0 1 1 1 1 0 0 0 1 1 2 0 0 0 2 0 2 0 2 1 1 1 3 5 1 1 2 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 1 1 1 1 1 1 0 0 1 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1 2 2 0 1 0 0 1 0 1 0 0 0 0 1 2 1 2 1 0 0 2 0 0 1 0 2 0 2 1 2 1 0 0 2 1 1 0 1 2 0 0 0 0 0 1 1 0 1 0 4 0 1 0 0 0 1 1 1 0 1 1 1 0 2 1 1 1 0 2 0 0 1 1 0 2 0 3 2 0 2 2 0 1 0 0 0 0 1 1 1 1 1 0 0 2 0 0 0 0 0 1 2 1 0 1 1 3 0 0 1 0 2 2 1 0 1 0 0 0 0 1 2 0 0 2 1 2 1 1 0 0 1 2 2 0 0 0 1 1 1 0 0 1 0 2 1 1 3 0 2 1 1 0 2 2 0 0 0 1 1 2 1 1 1 0 0 1 3 0 0 1 2 2 0 0 0 0 0 1 0 0 1 1 1 1 0 1 0 1 0 1 0 0 0 1 2 1 1 1 0 1 0 0 0 2 2 1 1 1 0 1 1 1 3 1 1 1 0 0 1 0 0 0 2 1 0 1 1 0 2 1 1 1 1 0 1 1 1 2 0 3 1 2 2 3 3 2 1 0 0 0 2 1 0 0 2 1 1 0 2 2 0 3 2 1 1 1 0 0 0 1 1 1 1 1 0 0 1 1 1 1 0 3 0 0 1 1 1 0 2 0 2 0 1 0 1 1 1 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 1 1 2 0 0 1 3 0 1 0 0 0 0 1 0 1 1 2 0 1 3 1 0 1 3 1 0 0 0 2 2 1 1 0 4 0 0 0 1 1 1 0 1 2 1 1 1 2 1 0 0 1 0 0 0 0 0 0 0 0 2 2 0 0 1 0 1 0 0 0 3 1 1 0 2 0 2 2 2 1 1 1 0 1 2 2 1 0 0 0 3 1 1 1 0 2 2 0 0 0 1 0 2 0 0 1 2 0 0 0 1 2 1 0 2 0 4 0 2 1 0 0 1 2 0 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 0 2 1 0 1 1 0 1 2 1 1 0 0 2 2 0 0 1 2 2 0 0 0 4 2 1 3 1 1 0 0 1 1 1 1 1 1 0 0 2 2 0 1 1 1 1 0 1 0 0 2 1 1 3 0 2 0 1 0 0 2 1 0 1 0 1 1 1 2 0 3 1 0 0 1 0 0 0 1 1 0 1 0 1 1 0 1 3 2 3 0 1 2 2 1 1 0 3 0 2 2 0 0 1 0 0 0 1 0 2 2 0 3 2 0 1 0 0 0 2 0 1 0 1 1 0 2 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 1 2 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 1 1 1 1 1 2 2 1 1 0 1 0 0 0 1 0 0 2 1 1 0 0 1 0 2 3 1 1 1 1 1 2 2 1 0 1 0 1 0 0 1 0 1 2 1 1 3 2 1 1 1 2 0 0 1 0 1 2 1 0 1 0 1 0 2 0 1 0 1 1 1 0 1 0 2 1 1 1 1 2 2 0 1 0 0 0 0 0 0 0 1 2 1 1 0 2 0 0 0 1 0 0 0 1 0 1 0 1 2 2 1 0 0 0 2 0 1 0 0 2 0 1 0 0 1 0 0 2 0 1 2 1 0 1 1 0 0 1 2 2 1 1 0 0 0 1 1 2 0 0 0 1 2 1 2 1 0 1 0 1 0 0 0 2 3 0 1 1 0 0 0 0 2 2 0 2 1 2 0 1 1 1 1 0 1 0 0 1 1 3 1 1 1 3 0 1 0 2 0 0 2 0 0 0 0 1 1 0 2 2 0 3 1 3 2 1 1 1 2 0 0 1 1 0 1 2 0 2 1 0 1 0 2 0 0 1 0 2 2 4 1 0 2 0 0 1 0 1 1 2 0 2 1 2 1 2 2 0 2 1 1 0 0 0 2 1 1 1 0 0 1 2 1 0 3 2 2 0 1 1 0 2 2 0 1 1 2 1 1 0 0 1 0 1 2 0 2 3 0 0 0 2 1 0 0 3 1 0 0 0 0 1 1 2 0 0 0 0 1 2 1 3 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 0 2 2 0 2 0 0 1 2 0 3 1 1 1 0 1 2 2 1 0 0 0 0 1 1 1 1 1 0 0 1 0 0 1 3 3 1 1 1 1 1 1 1 0 0 1 3 1 0 0 0 0 2 0 0 0 1 2 0 0 2 2 0 1 1 0 2 0 0 0 1 0 2 0 0 2 1 0 0 0 0 1 0 0 0 1 1 3 2 0 3 2 0 0 3 0 2 1 0 1 0 1 0 0 0 2 0 2 0 1 1 1 2 1 1 3 2 2 1 1 0 2 0 3 0 0 0 1 1 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 2 1 2 1 1 1 0 0 0 0 1 0 3 0 1 1 0 0 0 0 1 0 0 1 0 0 1 1 0 0 2 1 1 1 0 1 1 0 2 4 0 0 0 0 2 0 1 2 0 1 0 0 1 0 0 1 0 2 1 0 1 1 0 1 2 1 0 1 0 1 1 2 0 0 0 1 0 1 0 0 0 0 0 0 3 2 2 0 0 2 1 2 0 1 3 1 0 0 2 2 1 0 1 1 0 2 1 0 0 1 2 0 3 4 0 2 2 0 2 2 1 0 3 0 0 3 0 1 0 1 2 2 1 0 0 1 1 2 1 0 2 1 0 2 1 0 0 1 0 0 0 0 3 2 0 0 2 0 1 2 1 1 0 4 0 0 1 0 3 1 0 0 1 1 1 2 0 1 0 0 1 1 1 0 1 0 2 0 0 0 0 0 2 0 1 0 2 1 1 0 0 0 1 1 1 1 0 0 0 1 1 1 0 1 2 1 0 0 0 2 0 1 0 0 0 0 2 2 0 0 0 0 1 2 2 0 1 0 0 0 1 2 2 0 1 0 0 1 1 1 1 1 0 2 2 0 0 1 1 0 2 0 0 3 0 0 1 2 0 1 1 0 1 0 0 1 3 1 0 1 1 1 1 0 0 1 1 1 2 0 1 2 1 0 1 0 1 1 0 1 0 3 2 0 2 1 0 2 1 0 0 0 0 2 3 0 1 0 1 0 0 0 0 0 2 0 2 1 1 2 1 1 2 1 1 1 1 1 0 1 2 0 1 2 2 1 1 0 0 3 3 1 0 1 1 0 0 1 0 2 1 1 0 1 1 1 1 1 0 2 2 1 0 1 0 1 1 2 0 2 0 1 1 0 0 1 1 0 0 1 0 0 0 1 1 2 0 0 2 0 0 1 0 1 0 3 2 1 3 0 0 0 1 3 3 1 0 1 2 1 3 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 2 0 2 0 3 1 0 2 0 2 0 0 4 1 0 1 2 1 0 2 0 2 0 1 2 2 1 0 1 1 2 0 0 1 2 1 0 2 2 0 0 1 1 0 1 0 0 1 0 0 0 0 1 3 1 0 1 0 3 0 1 0 0 1 3 0 2 0 0 2 3 3 0 1 2 1 0 2 1 0 1 1 0 0 1 0 1 1 0 1 0 1 1 0 1 1 1 2 1 0 1 3 2 0 0 2 0 1 1 0 0 1 3 1 2 0 0 0 0 0 0 1 1 2 2 1 0 0 0 2 0 1 3 0 0 0 1 3 0 2 0 1 1 1 1 1 0 2 0 1 0 0 1 1 0 2 0 0 1 1 1 2 1 1 1 0 2 1 1 0 1 0 0 1 2 1 0 1 2 1 1 0 0 0 0 1 3 3 0 0 1 1 3 0 2 0 1 0 0 0 2 2 0 1 2 0 2 2 2 1 0 0 2 2 0 0 1 0 0 0 1 0 1 2 0 1 1 0 1 1 3 0 2 0 0 2 0 1 0 1 1 3 2 2 0 1 0 1 0 0 1 2 0 0 0 2 1 1 2 0 1 1 1 3 2 1 1 2 2 2 1 0 2 0 1 0 0 1 0 1 1 0 2 1 0 0 1 1 0 1 1 0 2 1 2 1 0 2 1 0 2 1 2 0 1 0 0 0 0 1 0 0 2 0 1 1 0 2 1 0 0 2 0 0 2 0 1 1 0 0 0 1 2 0 1 2 2 2 1 4 2 2 0 0 0 0 0 0 2 1 0 0 1 2 1 0 0 1 1 0 1 1 0 2 3 1 0 1 1 0 0 1 1 2 0 0 0 0 2 1 0 2 0 1 0 1 2 0 0 1 2 1 1 1 1 0 2 1 0 0 0 1 0 0 0 1 1 1 1 0 2 1 0 1 2 0 3 0 0 1 0 1 0 0 1 1 1 1 0 1 2 0 0 1 2 1 0 0 0 1 0 2 1 1 2 0 1 0 0 1 0 1 1 1 0 0 1 1 0 1 1 3 1 1 0 0 0 2 1 0 3 1 1 0 2 1 2 0 2 1 1 0 3 0 0 0 0 1 0 0 1 0 0 2 0 2 0 1 1 1 4 1 2 0 1 0 2 2 1 0 1 2 0 1 2 1 1 0 0 0 0 1 1 1 1 0 0 0 1 0 1 1 1 0 0 0 2 0 2 1 1 0 2 0 2 2 0 0 2 2 1 0 1 1 2 0 0 2 1 0 2 0 1 0 1 0 0 2 1 0 1 1 1 2 1 1 0 0 1 1 1 0 1 0 1 2 0 0 0 0 1 0 2 0 0 0 2 1 1 1 2 0 1 0 1 1 2 0 0 2 2 2 0 1 1 1 0 0 3 2 0 1 0 0 2 0 0 1 1 1 0 1 2 2 1 1 0 0 1 2 1 0 0 0 1 1 1 0 0 2 2 1 0 0 1 1 1 2 0 0 1 1 1 0 1 0 0 0 1 3 2 3 1 2 3 2 0 0 0 2 0 0 1 4 2 1 1 1 0 1 1 2 0 1 1 0 0 1 1 0 1 1 3 0 1 1 0 1 1 1 1 0 1 1 0 2 2 1 1 0 2 2 0 1 2 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 1 2 1 1 0 1 1 2 2 1 1 0 2 0 0 0 1 0 2 1 3 0 0 0 0 1 1 0 1 0 1 0 2 0 0 0 1 0 1 1 0 0 1 2 2 1 0 0 0 0 1 1 0 0 1 1 1 1 1 1 0 0 2 1 2 1 0 1 2 0 0 1 0 0 1 2 0 0 2 1 1 0 0 2 1 3 1 0 2 1 2 0 2 0 0 1 1 2 1 0 0 1 1 2 1 1 1 1 2 0 1 0 2 0 0 3 0 1 0 0 2 1 1 2 0 0 1 2 0 0 0 1 0 2 2 0 1 1 0 2 0 1 0 0 0 2 0 0 0 0 2 0 1 1 1 2 1 1 1 1 0 1 1 1 1 1 0 1 1 2 1 2 2 2 1 1 0 1 0 1 0 0 3 2 1 0 2 0 1 0 0 2 0 0 2 0 2 1 0 1 2 1 1 0 0 0 0 1 3 2 2 0 0 0 1 1 2 1 0 0 2 1 0 3 1 1 1 0 1 0 2 1 2 1 1 0 1 2 2 3 4 0 0 0 0 1 1 1 0 2 0 0 3 0 0 1 0 0 3 0 0 1 0 2 3 1 1 0 2 0 1 0 0 3 0 0 0 3 0 0 0 1 1 0 1 2 1 1 1 0 0 0 1 1 0 1 0 1 0 1 1 0 3 1 0 2 1 2 0 1 0 1 1 0 0 1 1 1 0 2 0 2 1 1 0 3 0 1 0 1 1 0 2 1 2 0 2 0 1 2 1 1 0 0 2 0 0 2 1 2 1 0 3 2 2 0 0 0 1 0 0 1 2 1 0 0 0 0 2 3 0 0 0 0 0 0 0 1 1 2 0 1 1 1 2 1 1 0 1 3 1 1 1 0 1 0 1 1 1 0 0 0 2 1 0 2 2 0 0 0 2 0 0 0 2 1 0 0 2 1 3 0 1 0 2 1 0 1 0 0 1 2 2 1 3 1 0 1 1 3 1 1 0 0 1 1 2 1 1 2 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 2 1 1 1 0 0 2 1 1 1 1 0 0 1 0 2 0 0 1 2 3 1 0 1 0 1 0 1 3 1 3 4 2 1 1 0 0 0 1 2 1 2 1 0 1 2 2 1 1 2 2 0 1 1 0 2 0 2 0 0 0 2 2 0 1 1 1 1 0 1 1 0 2 1 3 2 0 0 1 0 1 1 0 1 0 2 1 1 1 1 0 0 0 2 0 0 1 0 0 1 1 2 0 2 0 0 0 1 1 1 1 3 1 0 0 2 0 2 0 0 1 1 0 1 1 1 1 0 1 0 0 1 1 1 1 2 1 2 2 0 0 0 2 1 0 0 0 0 1 2 0 1 2 1 1 1 1 1 1 1 1 1 1 2 1 0 0 1 2 0 0 1 1 0 0 0 2 0 0 0 0 1 1 0 0 1 0 2 1 0 0 1 1 1 1 2 0 1 1 1 0 1 2 0 0 1 1 1 2 2 1 0 1 1 1 1 3 3 1 1 1 0 2 2 2 1 0 2 2 0 2 2 2 3 2 1 0 0 1 0 1 0 0 0 0 1 3 1 2 1 0 1 1 1 0 1 1 2 1 1 0 2 0 2 1 0 2 0 0 3 0 2 2 0 0 1 0 1 2 1 2 1 0 2 0 0 0 2 1 3 0 1 1 1 1 0 2 0 2 0 1 1 1 2 0 1 2 0 1 1 0 0 0 1 0 0 0 0 0 0 0 2 0 1 2 0 1 1 0 2 1 0 1 1 0 1 0 1 2 1 0 1 3 0 3 0 0 0 2 2 1 2 1 0 1 3 1 1 1 2 1 0 2 1 0 0 0 2 1 1 0 0 3 0 2 1 0 1 2 1 0 0 0 0 0 2 1 0 0 0 1 0 0 1 2 1 1 0 0 1 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 0 2 2 0 1 0 0 0 0 0 1 1 1 1 2 0 0 1 2 2 1 1 1 0 1 0 1 1 0 1 2 1 1 1 1 1 0 0 1 0 1 1 2 0 0 0 0 2 1 0 0 1 0 0 1 2 2 2 3 2 0 0 1 0 1 1 2 1 1 0 0 2 1 0 2 2 0 3 0 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 1 0 0 1 0 2 0 2 0 0 0 0 1 0 1 1 1 0 1 0 0 4 1 0 2 0 1 2 0 0 0 1 0 0 1 0 0 0 1 0 1 1 1 0 1 0 2 2 1 2 0 1 2 0 2 1 1 0 1 0 2 0 1 2 1 1 1 0 0 2 1 0 2 2 0 1 0 2 0 1 1 1 1 1 1 2 1 1 1 1 0 2 0 1 3 1 0 1 0 1 0 3 1 0 0 1 1 1 1 0 0 1 0 1 0 1 2 1 1 1 0 0 0 1 0 0 1 2 3 1 1 0 0 0 1 0 2 1 1 1 1 0 0 0 0 1 1 1 0 0 2 0 1 2 2 3 0 1 0 2 1 1 0 0 0 0 1 1 1 0 1 2 0 0 2 0 2 1 0 0 3 1 1 0 1 1 3 0 1 1 0 1 0 1 2 0 1 1 1 3 2 2 1 0 0 1 1 1 0 1 1 0 0 0 3 0 0 4 1 2 2 1 0 0 2 1 2 0 1 1 0 1 1 3 2 1 3 1 1 0 1 1 1 0 0 0 1 1 1 0 0 1 1 2 1 1 0 0 1 1 1 1 0 1 2 1 0 1 0 0 2 1 1 1 0 1 0 1 2 0 1 2 2 1 0 1 0 1 1 0 1 2 0 5 0 0 0 3 1 3 1 1 0 1 2 1 1 0 0 0 1 0 1 1 1 0 1 0 0 0 1 1 1 1 0 0 0 0 1 0 1 2 2 1 3 0 2 3 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 2 0 1 1 2 0 1 1 2 0 0 1 0 0 2 1 1 1 0 0 2 1 0 1 1 1 1 1 0 1 2 0 1 0 0 1 1 1 2 1 1 0 0 1 2 0 1 0 2 2 0 2 0 1 1 0 1 1 1 0 2 2 1 2 1 1 0 2 0 2 2 2 3 1 3 0 0 2 0 2 0 0 1 2 0 2 2 0 0 0 0 1 1 0 1 1 1 1 0 1 2 3 0 0 0 1 2 1 0 2 2 2 2 0 1 0 1 1 1 1 0 0 0 0 0 1 4 2 0 0 1 2 0 1 1 1 0 1 1 2 2 0 1 1 0 1 1 2 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 0 1 2 2 2 3 1 0 0 1 0 1 2 2 3 2 1 1 0 1 2 0 2 0 1 0 0 0 1 3 2 0 0 0 0 0 3 1 1 0 2 1 2 1 1 0 2 1 1 0 0 1 0 1 1 0 0 2 0 0 2 0 0 1 0 1 1 0 0 0 2 2 1 1 2 2 1 1 0 2 2 3 0 3 2 0 0 3 1 0 1 3 0 0 1 0 0 0 0 1 1 1 2 0 1 2 0 2 0 0 0 3 3 1 0 3 0 1 1 1 1 0 1 1 2 1 2 2 0 0 0 1 0 3 1 1 0 3 1 0 1 0 0 2 0 1 1 0 2 1 0 0 2 0 0 0 0 1 1 0 0 0 1 1 3 1 0 0 1 0 1 0 0 3 1 2 2 2 0 0 0 2 1 0 1 1 1 0 1 0 1 1 2 1 0 1 0 1 0 1 1 1 1 0 1 0 0 0 0 1 3 1 0 2 0 2 0 1 1 0 1 2 0 1 0 1 0 0 1 0 0 0 2 0 0 1 1 1 1 0 0 3 1 0 1 1 0 1 0 1 1 1 0 1 0 1 1 0 0 2 0 0 1 0 2 2 2 0 0 0 3 1 2 2 1 0 0 0 1 0 0 2 2 1 2 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 1 0 3 2 0 0 1 1 1 1 2 1 1 0 0 2 3 3 1 0 2 1 0 0 0 0 1 0 2 0 0 1 1 1 3 0 2 1 1 0 1 2 2 0 0 0 0 0 0 1 2 1 0 0 0 1 0 1 0 0 0 2 1 1 2 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 3 1 2 2 1 0 0 1 1 1 1 0 0 1 1 1 0 1 1 1 0 0 0 1 1 1 0 0 1 0 1 0 0 0 1 2 0 2 2 0 1 0 0 0 1 0 0 1 1 0 1 2 1 0 1 1 0 1 0 0 0 2 0 0 0 1 1 0 0 2 1 0 1 0 0 1 1 0 1 0 0 1 1 1 0 0 1 2 0 0 0 0 1 0 0 0 1 2 0 0 2 1 1 1 1 2 0 0 0 0 4 1 0 1 1 0 4 0 0 0 1 2 0 1 0 2 0 0 2 2 0 0 0 0 0 2 0 1 0 1 0 1 0 1 2 2 2 1 0 3 3 2 1 1 0 3 0 0 0 0 2 0 1 1 0 0 1 0 2 0 1 2 0 0 1 1 0 1 0 2 2 2 0 1 0 0 0 2 2 0 0 0 2 0 0 0 2 3 0 1 2 2 0 2 1 1 1 1 3 0 2 0 0 0 1 0 1 1 2 0 0 1 0 1 0 1 0 1 1 1 0 0 1 0 0 1 0 0 1 1 2 1 3 0 0 0 1 2 0 0 2 1 1 2 2 0 0 1 1 1 0 1 2 3 2 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 1 1 2 0 2 1 0 0 1 1 0 0 0 0 4 0 0 1 0 0 0 2 1 1 0 2 1 2 4 0 0 0 1 1 1 1 1 0 2 1 0 2 2 0 1 0 0 2 0 1 0 0 0 0 3 3 1 1 0 0 0 1 1 1 0 1 0 0 0 1 0 1 2 1 1 1 0 0 1 1 0 0 2 1 0 1 1 0 1 2 1 1 0 0 0 2 0 2 0 2 1 1 0 0 1 1 0 1 0 0 0 0 1 1 1 3 1 1 1 2 1 2 1 0 0 1 1 0 2 2 0 1 2 0 1 1 0 0 1 1 1 1 0 1 0 0 2 2 0 1 2 1 1 1 2 2 1 1 1 1 1 0 1 0 0 1 1 1 1 1 1 0 1 1 1 0 0 0 0 1 1 1 3 1 2 1 2 0 1 1 1 1 1 1 1 2 2 3 0 1 1 0 1 1 2 1 1 1 1 0 2 2 1 0 0 1 1 1 1 0 0 0 1 2 0 0 0 0 3 0 3 1 1 1 1 2 1 0 1 1 1 0 0 2 0 1 0 2 3 0 1 0 2 0 0 0 1 0 1 1 2 1 0 0 2 1 2 0 0 0 1 1 1 2 0 0 1 0 1 0 1 0 2 2 0 0 3 1 1 1 1 1 0 1 1 0 0 1 1 0 1 2 1 1 0 0 2 0 1 2 1 0 1 1 0 1 2 0 1 0 2 1 1 2 0 1 1 1 1 2 0 1 1 1 0 1 0 1 1 1 0 2 0 2 0 1 2 2 2 0 1 2 2 0 1 1 0 0 0 0 1 2 1 1 3 1 1 0 0 1 0 1 0 2 0 1 0 0 3 1 1 2 0 0 1 2 1 0 0 1 1 0 0 0 0 1 0 2 0 1 2 1 0 1 0 2 0 2 1 0 0 0 1 1 0 0 0 3 0 2 1 0 2 1 2 0 0 1 1 0 0 1 0 0 1 1 1 1 2 0 1 0 2 0 2 0 0 0 0 0 1 1 0 0 1 2 1 1 1 0 0 0 0 0 0 1 1 0 0 0 2 0 1 1 1 1 0 1 3 2 0 1 0 0 0 0 0 1 0 1 0 2 0 0 1 1 1 1 1 3 2 1 1 0 1 0 1 1 0 1 0 2 1 1 1 0 1 1 0 3 1 1 0 0 0 1 1 0 0 1 2 0 1 1 2 2 0 2 0 0 0 2 1 0 0 1 1 0 2 2 2 1 1 0 1 1 1 1 0 1 1 1 0 0 1 1 1 1 1 2 1 0 1 1 0 1 2 0 0 0 1 1 0 0 0 1 1 0 2 0 1 2 0 1 0 1 1 3 1 2 1 0 2 2 1 1 1 2 2 0 1 0 1 0 1 1 2 2 0 0 1 1 2 1 1 2 2 0 1 2 1 1 2 0 1 0 1 0 2 2 0 0 0 2 1 2 1 1 1 2 1 2 2 0 3 1 0 0 2 1 1 0 0 0 0 2 0 1 1 0 0 1 0 2 0 1 2 2 1 0 2 1 0 0 0 2 0 0 1 1 0 1 2 0 1 0 0 1 1 2 1 1 1 0 0 0 0 1 2 1 2 1 2 1 0 1 1 1 1 0 0 2 0 1 0 1 0 1 1 1 3 1 0 1 1 2 3 0 1 1 0 1 1 0 0 1 1 1 0 0 0 1 0 1 1 0 1 0 1 2 0 1 0 1 0 0 0 2 1 1 1 2 0 2 0 1 0 1 0 0 0 2 0 1 1 1 1 1 0 2 0 1 0 0 0 0 1 1 0 1 2 1 0 2 1 0 2 0 0 1 1 0 0 1 0 0 2 1 3 3 0 1 1 2 2 1 0 1 0 1 2 1 0 1 2 1 0 1 1 0 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 1 1 1 1 0 2 1 1 2 1 1 1 0 0 3 0 1 0 0 1 2 1 0 3 1 0 1 1 2 1 0 0 0 0 2 2 2 0 2 0 2 0 1 1 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 1 2 1 0 0 2 1 1 0 2 3 3 1 1 2 2 0 1 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 2 1 2 1 1 0 2 0 2 1 1 0 1 1 1 0 0 0 0 2 0 1 1 0 0 1 0 0 1 0 1 1 0 0 3 2 0 1 2 3 0 0 0 0 1 0 0 4 1 1 1 0 0 2 3 1 0 0 0 0 1 2 0 2 3 0 1 1 0 0 1 0 1 1 1 0 1 0 1 0 1 1 2 2 0 1 1 1 1 1 1 0 1 2 0 0 2 1 3 2 2 0 1 0 0 0 0 1 2 0 1 0 0 1 1 0 1 2 0 0 0 1 0 2 1 4 1 2 3 2 1 3 0 3 1 1 0 1 0 1 1 4 0 0 1 1 0 0 1 2 1 0 1 3 1 2 1 1 0 0 1 0 2 1 0 0 0 1 3 1 0 2 0 0 1 1 2 4 0 0 2 1 0 2 1 0 0 0 0 1 1 0 1 0 0 1 1 1 0 0 0 1 2 0 0 0 0 0 1 2 0 0 0 0 1 1 1 1 3 1 1 1 1 1 1 1 4 1 1 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 1 2 0 1 0 0 1 2 0 0 1 1 1 3 0 1 0 2 1 0 0 0 0 1 1 0 0 0 1 0 1 3 1 1 1 1 1 5 2 0 2 0 3 1 1 1 1 1 1 1 2 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 1 0 1 1 1 1 0 0 1 1 1 1 0 0 1 1 2 1 1 0 3 0 1 1 2 2 0 1 2 0 3 0 0 1 0 0 1 0 0 2 0 1 0 3 1 1 1 1 1 3 2 3 2 3 4 2 0 0 0 1 1 1 0 0 0 1 2 1 3 0 2 0 1 1 0 2 1 0 1 0 1 1 1 1 0 0 4 1 2 3 0 0 1 1 1 2 0 1 1 0 0 3 2 0 1 2 1 2 2 1 1 1 1 1 2 0 2 0 2 2 1 4 2 1 2 0 0 0 1 0 0 2 2 1 1 0 0 2 0 2 0 2 1 0 2 0 0 0 0 0 2 0 0 0 0 1 2 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 2 2 2 1 0 0 1 1 0 0 0 2 0 0 2 1 2 2 1 1 0 1 0 1 3 1 0 1 1 0 1 1 1 0 1 0 0 1 0 1 0 1 3 1 1 1 0 0 1 0 1 1 1 1 0 0 0 0 0 0 1 1 1 3 0 0 0 1 0 0 1 1 1 1 1 0 0 0 0 1 1 0 1 0 2 1 2 0 0 2 1 1 1 0 0 2 0 1 0 0 3 2 0 1 1 1 1 1 0 1 2 0 0 1 1 1 1 1 1 1 1 2 1 3 1 1 2 0 0 0 1 1 0 0 0 1 1 0 0 2 1 1 0 2 3 1 1 0 1 1 1 0 0 0 1 1 1 3 2 1 0 1 0 2 2 1 1 1 1 1 0 0 1 0 1 0 1 0 0 1 1 0 1 1 2 0 1 0 0 1 3 1 3 1 1 1 0 2 1 1 2 1 1 1 0 1 0 1 2 2 1 1 1 1 1 1 0 0 1 1 0 1 1 0 1 3 2 1 2 0 0 0 0 0 2 2 0 3 0 1 0 0 1 1 1 2 0 1 0 2 1 0 2 0 0 0 1 2 2 1 0 1 0 1 0 2 0 0 0 2 2 0 0 0 0 1 0 2 1 1 2 1 0 0 0 0 2 2 2 0 2 3 1 0 2 2 0 0 0 1 2 0 0 1 0 1 0 1 1 0 0 1 2 0 2 1 1 1 0 0 1 0 0 1 0 0 0 0 2 0 1 0 2 0 1 0 0 2 0 1 1 1 0 2 0 2 0 0 2 0 1 3 1 0 1 2 1 3 1 0 2 1 0 3 1 2 0 0 2 2 1 0 1 1 0 1 0 1 2 1 1 0 1 0 0 1 0 1 2 1 1 1 1 0 1 1 0 0 4 1 0 0 0 0 2 2 0 1 0 2 1 1 1 1 1 0 0 0 1 2 0 2 0 2 2 2 2 2 1 0 0 1 0 0 0 1 0 2 1 3 1 2 0 0 0 1 2 0 1 1 0 0 0 0 2 1 1 0 1 1 2 1 1 0 0 2 1 2 0 0 0 1 2 2 1 0 0 2 1 1 2 1 1 0 1 0 1 1 0 2 0 1 0 2 1 0 0 0 1 0 1 0 0 1 0 1 1 1 3 2 2 0 2 0 2 1 0 0 1 2 2 2 1 0 1 1 2 2 2 0 1 0 1 1 0 1 2 2 2 0 1 1 2 2 1 0 0 0 2 0 1 0 0 1 0 1 1 1 2 1 3 2 1 1 1 1 0 1 0 1 2 1 0 1 1 0 1 0 2 0 0 1 1 0 0 1 1 0 0 1 2 1 0 3 0 1 1 0 0 2 0 1 0 0 1 2 0 1 0 1 0 2 1 0 0 0 0 1 0 0 1 1 1 1 1 0 1 1 0 2 0 0 2 1 1 2 1 0 2 0 1 1 0 1 2 1 0 0 3 0 0 0 1 1 0 0 1 1 2 1 0 1 0 1 0 0 2 0 1 2 0 2 1 3 0 0 2 0 0 2 1 0 1 1 0 0 1 1 2 0 1 0 0 0 3 0 0 2 2 1 0 0 1 1 1 2 0 1 1 1 1 0 3 0 1 1 0 0 0 0 1 1 1 1 3 1 0 1 1 1 0 0 2 0 1 1 0 1 1 0 0 1 1 1 1 2 1 0 0 1 1 1 0 2 3 1 0 0 1 2 1 0 0 1 1 1 3 0 2 1 0 1 0 1 2 0 0 0 1 0 0 0 1 3 1 0 1 0 1 0 1 2 1 0 1 0 0 1 1 0 0 1 1 2 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 2 0 2 2 0 0 0 1 0 2 0 1 1 1 0 1 1 2 1 1 1 0 1 0 3 0 2 0 1 0 2 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1 3 1 0 1 2 0 0 1 1 0 1 2 1 1 0 5 2 0 2 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 4 0 0 0 1 1 0 0 2 1 2 0 0 1 2 1 1 1 2 2 0 2 2 1 0 4 1 0 1 1 0 2 1 1 5 0 0 2 0 1 1 1 0 1 0 1 1 0 1 2 1 1 1 0 2 0 1 1 1 0 0 0 0 1 2 3 1 0 2 1 1 1 0 1 1 1 0 0 2 1 1 1 1 1 0 0 0 1 1 0 2 2 3 0 0 0 1 1 1 1 2 0 0 3 1 2 1 0 2 0 0 0 0 1 0 2 2 0 1 5 2 1 0 1 1 1 2 0 1 2 0 2 0 0 1 1 1 0 1 1 1 0 1 0 1 0 0 0 1 0 0 2 1 2 1 0 1 4 3 1 1 0 0 0 0 0 0 1 0 2 0 0 0 0 1 1 2 0 0 1 3 0 0 0 3 0 2 3 3 1 3 1 1 0 0 0 3 2 1 1 0 1 1 0 0 0 0 1 0 0 1 2 1 1 0 0 1 0 0 1 2 1 2 2 1 0 2 1 3 2 1 0 3 0 0 1 2 2 0 1 1 0 0 1 1 3 1 1 1 0 0 1 2 1 0 1 1 1 1 0 2 2 2 1 1 0 1 1 1 1 1 2 2 0 0 1 0 1 0 2 1 1 0 3 0 0 3 2 1 3 0 0 0 2 0 1 0 1 1 1 1 2 1 1 1 0 0 0 1 0 1 0 1 3 2 1 1 0 1 0 1 0 1 1 1 0 2 2 1 2 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 2 0 2 0 0 0 3 0 2 0 0 0 0 2 0 1 0 0 2 0 0 0 1 1 0 0 0 1 1 0 0 2 1 1 3 0 0 2 0 2 1 0 1 2 1 0 2 3 1 0 1 1 1 0 1 0 0 1 0 0 1 1 1 0 3 1 0 1 0 1 0 1 1 2 0 0 0 0 1 1 1 0 2 1 1 0 0 4 0 0 0 1 1 2 2 0 0 2 0 0 1 2 1 0 1 2 0 2 1 0 1 1 0 1 1 1 0 2 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 2 1 0 0 0 1 1 2 0 1 1 0 2 1 1 1 1 0 1 1 1 2 2 0 2 2 1 1 0 0 0 1 0 1 0 0 0 1 1 0 0 2 0 2 1 0 0 0 1 0 1 2 0 0 0 0 0 1 0 2 1 1 0 2 0 1 0 2 0 1 2 0 0 0 0 2 0 1 2 1 0 2 0 0 0 0 2 1 2 0 0 0 1 2 2 0 0 1 3 0 0 1 1 1 1 1 1 1 1 1 1 0 1 1 0 2 1 0 0 0 1 1 2 1 0 2 1 2 0 0 0 0 1 2 0 1 1 0 1 0 1 0 1 1 1 0 2 0 2 2 0 0 0 0 1 0 1 1 3 0 0 0 1 0 0 0 0 2 1 2 0 1 2 1 0 0 1 2 1 1 0 1 0 3 1 1 4 0 1 0 1 1 2 1 2 1 1 1 0 0 0 0 0 1 1 2 2 2 2 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 1 0 1 0 1 3 4 2 2 1 0 1 0 1 0 3 2 3 1 0 1 0 0 0 1 0 3 0 4 1 1 1 0 1 0 0 2 2 0 2 1 1 2 0 0 0 1 1 1 0 0 0 4 1 0 1 0 1 0 1 3 0 1 2 1 0 1 0 0 2 2 0 1 0 0 2 0</t>
+    <t>2 3 0 2 1 1 1 0 0 3 1 3 1 1 1 2 2 2 1 0 1 4 2 0 1 1 1 0 2 2 0 1 2 1 2 0 2 0 0 2 3 2 0 2 1 0 2 3 3 1 2 2 1 2 1 1 1 2 1 3 2 0 0 1 1 1 0 1 2 1 0 0 2 2 1 1 0 3 3 1 4 3 0 1 2 4 3 3 1 1 1 2 2 1 0 2 2 2 2 0 1 3 2 2 1 3 2 2 1 1 3 1 1 2 1 1 3 1 1 1 2 2 2 1 3 0 1 1 5 0 4 1 2 2 3 2 2 0 1 3 2 3 2 1 0 2 2 0 2 3 0 1 0 2 1 2 2 1 1 1 2 3 2 3 2 2 1 2 0 1 1 1 0 2 3 2 1 2 2 2 3 2 1 3 2 2 0 1 1 2 3 0 1 1 1 2 3 2 4 1 1 0 2 1 2 1 2 1 1 2 1 1 1 1 0 1 2 3 1 1 2 2 2 1 1 2 4 0 2 1 2 2 1 4 1 0 3 5 0 2 1 1 1 1 4 3 1 1 2 2 1 2 1 2 0 0 1 1 0 1 2 1 1 0 0 3 2 1 0 1 4 0 1 2 1 1 2 2 2 0 2 1 1 2 0 1 0 1 2 2 2 1 1 3 0 3 1 2 1 0 2 0 0 0 3 2 1 2 1 4 2 2 2 1 1 4 2 3 5 2 0 2 2 0 2 3 2 4 1 1 2 3 0 0 1 0 3 3 2 2 2 1 2 1 4 2 2 1 0 1 3 1 1 2 1 0 2 1 3 4 3 0 1 2 2 2 0 1 0 3 0 3 1 2 3 4 2 2 2 1 3 0 0 3 1 0 0 3 2 0 0 2 0 3 1 1 2 2 2 2 3 1 0 2 5 0 3 3 1 3 3 2 2 1 1 1 3 4 2 2 0 2 2 2 1 1 0 1 3 0 2 2 1 2 2 1 3 3 1 1 2 2 2 3 1 0 2 1 2 2 1 2 1 3 2 1 0 2 2 0 1 0 1 1 2 1 4 3 2 2 1 2 1 3 1 1 3 0 1 3 2 4 1 0 1 4 2 0 1 1 2 1 1 3 3 2 1 3 1 0 2 2 1 1 1 2 0 0 2 1 0 4 0 1 1 1 1 3 2 2 2 1 0 1 1 4 1 2 2 1 1 2 1 3 1 4 0 3 1 0 0 3 1 1 2 0 1 2 1 1 3 0 0 2 1 2 2 2 0 1 3 2 1 1 2 4 1 1 2 1 1 2 2 2 2 0 2 0 1 1 2 1 1 1 1 2 2 1 2 1 3 2 1 2 0 1 1 0 3 2 1 3 1 2 3 1 4 2 3 2 0 1 1 0 2 2 1 2 3 0 2 2 0 2 0 3 1 2 2 3 6 3 1 3 1 1 0 3 1 1 1 0 2 1 2 1 0 3 1 0 1 0 3 0 1 2 1 3 2 3 1 1 1 1 1 1 1 1 2 3 1 2 2 0 1 1 3 0 1 1 1 2 3 2 2 2 1 0 2 3 0 2 1 3 0 2 0 3 2 2 0 0 0 5 1 2 1 3 0 1 1 3 2 2 3 2 1 2 3 3 1 0 1 0 1 1 0 3 1 0 1 2 1 1 2 2 1 2 1 0 3 1 2 1 2 2 1 1 2 0 1 2 1 3 1 0 1 4 1 3 4 1 4 2 1 1 0 4 2 3 2 0 1 1 3 0 3 1 1 1 2 2 2 1 1 0 3 0 1 0 3 3 1 1 0 0 1 2 3 2 3 2 1 2 2 1 0 3 1 1 3 1 0 0 2 0 1 3 1 2 0 3 2 1 5 0 0 1 3 2 1 0 3 2 2 1 1 1 3 1 0 3 3 2 2 2 2 1 3 1 1 1 3 1 1 2 2 1 0 3 2 3 1 2 0 2 2 1 2 4 2 2 2 1 1 2 5 1 3 2 1 4 2 1 1 0 3 1 0 0 2 0 2 1 1 2 0 0 0 1 4 1 1 2 1 1 1 1 3 0 3 3 3 0 0 2 1 3 0 3 1 1 1 2 1 2 0 1 2 1 1 1 1 1 5 2 0 2 2 3 4 1 0 0 1 1 3 2 2 1 0 0 2 2 1 3 3 2 0 3 1 0 0 1 2 1 1 2 2 0 1 4 3 2 0 1 3 3 2 1 1 1 2 1 3 1 2 2 2 2 1 2 3 0 0 3 1 2 1 0 3 2 3 2 2 1 3 2 1 1 1 3 1 2 3 1 2 1 0 2 1 3 1 3 3 2 2 2 2 1 2 2 0 3 1 1 1 2 2 2 3 4 2 0 1 1 2 2 1 1 0 2 2 3 3 1 3 0 1 0 3 2 2 2 2 0 3 4 1 1 2 1 3 3 1 1 1 2 3 3 2 0 1 1 1 1 2 4 2 3 2 2 4 4 1 1 2 1 1 0 1 0 2 1 2 2 5 2 2 1 3 1 5 1 0 2 1 2 2 0 1 3 1 1 1 3 0 3 0 4 3 0 1 3 1 3 2 1 0 2 2 4 2 2 0 0 2 0 0 3 3 1 0 3 2 0 2 1 0 0 2 1 1 0 1 2 3 2 3 2 1 1 2 4 1 2 1 0 2 2 1 2 0 1 1 1 2 1 0 1 2 2 0 2 1 0 2 1 1 1 2 2 2 2 2 3 2 1 1 1 2 2 3 1 1 2 2 2 1 4 1 4 1 2 2 0 0 1 1 0 1 2 2 2 1 2 3 1 2 2 1 1 0 3 2 2 2 2 1 1 0 2 2 2 2 1 1 1 1 2 2 3 3 3 2 1 2 2 0 1 1 1 1 0 0 1 1 2 0 4 1 2 2 0 2 0 2 2 2 1 2 3 2 1 3 1 1 1 2 1 1 1 2 1 1 3 1 2 2 0 0 1 1 2 3 2 2 1 1 1 1 0 4 1 1 0 2 1 3 1 1 0 2 0 4 2 1 1 1 3 2 2 3 0 2 0 0 4 1 3 1 1 0 1 2 1 3 2 3 1 2 2 3 0 1 2 1 2 0 2 2 1 1 3 0 1 4 2 2 1 1 2 3 0 2 1 1 2 2 3 5 1 2 3 3 1 4 1 2 2 2 0 1 1 2 2 0 1 4 2 1 3 0 2 1 3 0 0 1 3 2 0 0 0 3 3 1 2 3 2 1 3 0 2 3 2 0 3 1 1 4 1 1 1 1 0 3 2 1 0 1 0 1 2 1 1 1 3 1 1 3 1 2 2 0 2 1 2 2 2 2 1 4 2 1 2 2 3 3 3 3 2 1 2 1 2 1 1 2 3 1 1 2 2 0 2 3 2 0 1 1 2 1 2 0 1 3 2 5 2 0 0 2 3 1 1 1 2 3 2 2 1 1 2 1 2 2 2 3 1 2 1 2 1 2 1 0 1 2 1 1 4 3 1 3 1 2 1 1 2 2 2 3 1 1 1 0 0 2 0 4 2 1 3 2 3 1 0 0 0 2 2 2 2 1 1 2 0 3 2 1 2 1 2 2 2 1 0 2 1 2 2 1 2 2 1 3 0 1 0 0 0 0 2 2 0 3 1 1 1 1 0 1 4 1 3 3 1 3 1 2 1 1 2 0 2 0 2 4 2 2 1 3 0 2 0 0 2 1 1 1 0 0 1 1 2 1 2 1 3 3 2 0 2 2 2 2 1 3 2 2 0 2 2 1 3 1 3 0 2 2 3 3 4 3 2 2 1 2 2 4 2 3 2 2 2 1 2 2 2 0 2 1 2 3 1 1 2 1 2 5 3 1 2 1 0 4 1 0 2 3 1 3 1 2 1 0 2 1 1 2 5 1 3 2 0 2 1 1 1 2 1 1 2 0 2 2 5 1 0 1 2 1 0 1 0 3 0 1 2 1 1 2 1 3 2 0 1 4 1 1 0 1 2 1 2 1 2 2 2 1 3 0 1 2 2 3 1 2 3 0 3 1 0 1 0 2 1 0 0 0 0 3 0 0 2 2 2 0 1 1 2 1 1 1 1 2 3 1 2 1 3 3 1 0 2 1 1 0 3 0 2 4 1 1 0 2 2 0 1 2 4 3 1 0 2 0 2 1 1 3 1 2 1 3 1 0 0 2 2 0 2 3 2 4 1 2 1 1 0 3 2 1 1 2 1 1 0 1 1 3 1 2 0 4 1 0 2 1 1 0 2 0 3 1 1 2 3 2 1 2 1 1 2 2 3 2 1 0 2 2 5 0 1 3 2 1 1 3 4 1 1 0 1 1 1 1 2 2 1 0 4 2 2 1 4 3 2 4 2 4 3 4 2 1 1 1 2 0 0 0 2 3 1 0 2 1 2 1 1 1 3 1 2 1 2 3 2 1 1 0 3 1 1 3 2 1 3 0 1 3 2 0 0 3 0 1 2 2 2 2 1 2 2 2 2 3 1 2 2 1 2 2 2 1 1 3 2 1 0 2 1 0 3 1 2 2 1 0 1 4 0 1 4 1 3 1 1 1 2 1 1 2 2 1 1 3 1 1 2 1 2 4 0 2 1 0 1 1 1 1 1 2 1 0 2 1 2 1 3 2 0 1 1 1 1 0 3 0 1 1 0 0 2 1 3 2 2 1 1 0 1 0 2 2 3 1 0 0 0 1 0 1 2 1 2 1 3 2 3 2 0 1 2 1 2 0 1 1 1 2 2 1 1 4 1 0 0 1 0 0 3 3 4 2 1 2 1 2 4 1 1 3 4 1 2 0 1 0 3 2 3 1 2 0 0 3 2 1 1 2 3 3 2 2 1 2 1 1 2 2 1 0 2 2 0 1 2 3 1 2 2 1 4 2 1 1 3 3 0 2 3 3 2 0 2 2 3 1 3 0 2 1 2 2 2 0 3 2 0 3 0 2 2 2 0 2 1 3 2 2 3 3 1 0 2 0 1 1 2 3 0 1 2 2 4 1 2 1 2 2 1 2 2 3 1 1 1 0 2 1 0 2 1 2 0 1 0 2 1 3 1 0 0 1 2 0 4 3 2 3 0 2 0 0 1 1 2 1 2 1 1 2 1 1 1 2 1 1 2 1 2 1 0 1 3 0 0 2 3 3 2 3 2 2 2 1 1 0 1 1 0 4 0 3 1 0 1 3 1 2 2 2 1 2 1 1 0 2 3 3 1 3 1 2 0 3 2 3 1 2 3 1 1 0 2 3 3 1 0 2 1 3 2 2 2 0 1 1 0 1 2 2 1 2 1 4 3 1 1 2 0 1 2 1 3 2 2 1 1 1 2 1 1 2 2 0 2 3 1 2 1 1 2 4 3 2 3 2 1 2 2 1 0 4 1 1 3 0 3 2 1 2 0 2 3 1 1 2 1 1 2 1 0 0 2 0 3 1 3 3 2 2 1 0 2 1 4 1 1 2 2 0 1 2 2 2 3 1 3 2 1 3 1 0 1 1 1 0 1 1 2 1 0 0 2 2 1 2 0 1 2 0 0 0 3 1 1 2 1 1 3 3 1 1 3 2 2 1 1 2 2 0 0 1 2 1 1 0 0 2 1 2 0 2 3 2 1 4 1 2 0 0 1 0 2 0 2 1 1 1 1 3 5 1 3 2 1 1 0 1 2 2 3 4 2 2 1 3 1 2 0 0 1 0 2 2 1 0 3 1 1 1 2 3 3 2 1 0 2 0 0 3 3 1 1 2 3 1 2 2 0 0 1 1 3 1 1 1 3 1 2 2 3 1 2 3 1 2 0 0 1 0 3 1 0 0 2 1 0 3 1 0 2 1 4 1 4 3 2 2 2 1 0 3 1 1 0 2 2 0 3 4 1 1 2 1 1 1 2 2 3 3 0 1 0 2 2 0 1 1 1 1 1 1 2 3 1 2 1 2 2 0 2 1 1 2 2 1 1 2 2 1 2 0 3 2 1 1 1 2 1 3 3 1 1 2 1 1 2 2 1 2 2 2 2 1 1 2 0 3 1 1 1 0 2 1 2 1 4 1 3 1 0 3 1 1 1 2 2 1 0 2 3 3 2 0 1 1 2 0 2 2 1 2 2 1 4 2 1 1 1 3 2 1 2 1 4 0 3 2 3 2 1 2 2 3 1 0 0 3 1 2 3 2 1 2 2 0 3 2 1 1 3 1 0 3 3 2 2 1 0 2 1 3 1 1 1 2 0 2 0 2 1 0 4 3 1 3 2 3 1 0 3 4 0 1 0 3 2 2 1 1 0 1 3 1 2 1 2 3 2 1 2 2 3 0 1 3 2 3 1 1 4 1 1 1 0 2 2 2 2 1 0 1 2 1 2 2 3 1 3 3 1 2 0 0 1 2 1 2 2 1 1 2 1 0 2 3 3 2 4 2 2 1 1 2 1 0 0 2 1 0 1 2 3 1 1 2 1 0 1 2 0 2 1 0 3 2 0 2 2 2 2 1 0 2 0 1 2 4 0 3 1 2 2 1 3 1 2 1 2 3 2 0 1 2 1 1 1 2 2 3 2 0 1 2 2 2 2 1 3 1 1 2 2 0 1 1 3 0 1 1 1 2 2 4 2 3 1 3 2 0 3 1 1 2 3 1 1 2 3 0 2 0 1 3 1 1 1 0 2 2 2 3 1 3 1 2 1 1 1 3 0 1 0 1 2 3 4 2 1 1 3 2 1 1 3 3 2 1 2 3 1 3 0 2 1 2 1 1 3 2 0 0 2 2 3 0 1 0 1 1 0 2 1 2 3 2 1 1 3 3 1 3 4 1 2 2 2 0 2 1 1 3 1 1 1 1 3 0 2 1 3 1 2 2 1 2 3 2 1 1 6 2 2 2 2 4 3 1 2 0 1 1 2 0 1 2 0 2 1 2 1 2 2 1 3 0 1 1 0 0 0 2 1 1 3 3 0 2 0 2 0 3 1 1 2 3 3 0 1 1 0 1 3 2 3 1 1 1 2 2 1 0 1 3 1 1 1 0 2 2 2 1 3 0 1 1 1 3 2 2 1 0 0 1 1 0 1 2 1 3 2 2 0 1 1 1 0 1 0 1 1 0 1 4 2 2 1 2 2 2 0 1 2 1 3 3 1 2 2 3 4 2 3 2 1 0 1 3 1 2 1 1 2 4 2 0 0 1 3 1 3 2 1 3 3 2 2 2 1 1 2 1 4 2 1 1 3 4 1 0 2 2 3 2 2 1 2 1 1 0 1 1 0 5 0 3 2 3 0 1 0 1 1 1 1 1 0 0 3 2 1 1 2 0 0 2 1 2 3 1 2 2 1 2 3 2 1 2 0 0 1 2 2 2 1 2 4 2 0 1 1 3 1 1 2 2 2 3 1 2 0 1 0 2 3 0 1 1 1 2 3 3 0 0 2 1 2 1 2 4 3 3 3 0 0 3 2 2 2 2 2 0 5 1 2 2 1 0 3 0 1 1 1 3 2 2 2 3 2 2 0 2 0 1 2 1 1 0 2 2 0 3 2 1 2 3 2 2 2 1 0 2 2 1 0 1 1 1 1 1 2 1 1 4 3 1 2 3 1 2 2 1 3 2 0 1 2 2 2 1 1 0 1 2 2 3 3 3 0 2 1 2 2 0 1 1 2 2 2 0 1 1 2 1 1 1 1 1 0 0 3 1 0 1 3 3 1 0 1 4 1 1 3 1 1 0 2 1 1 2 1 1 3 1 0 2 3 1 2 1 1 3 0 0 1 1 1 2 1 4 1 2 2 3 2 2 1 2 2 2 2 0 2 1 1 1 0 2 0 1 1 2 0 3 1 1 3 2 2 0 2 2 2 1 1 1 0 1 2 2 1 1 0 1 0 2 2 1 1 3 2 5 2 1 3 3 0 1 1 3 0 1 1 1 1 0 1 1 0 1 1 3 4 2 2 0 1 0 3 2 3 1 1 1 2 3 2 1 1 4 0 1 2 2 1 2 2 0 2 1 1 0 1 1 1 2 1 1 1 1 2 0 2 1 1 1 1 1 2 0 3 1 3 1 2 1 0 3 1 0 1 1 2 2 1 3 2 1 1 1 0 0 2 3 1 2 4 0 2 1 2 2 3 1 3 2 2 5 2 1 0 3 1 3 0 2 2 2 2 2 2 2 1 1 0 1 2 0 3 4 3 2 3 0 3 2 1 4 1 4 2 0 0 3 1 0 1 1 4 0 1 1 0 0 2 1 1 1 1 2 1 0 1 2 2 2 1 2 2 2 3 0 2 3 1 1 1 0 3 1 3 1 1 2 1 2 2 1 1 0 1 1 0 0 2 1 1 1 1 3 2 1 0 0 3 2 2 2 1 1 0 0 3 0 1 0 2 1 2 1 2 0 1 2 2 3 2 1 0 2 2 1 2 2 2 1 2 2 1 1 1 1 0 2 1 2 2 3 2 3 1 2 0 1 2 2 3 0 0 1 2 2 0 1 2 0 0 1 0 0 2 0 1 1 2 1 2 1 2 3 1 1 1 2 0 4 3 1 2 1 4 2 2 1 0 1 2 1 0 1 1 1 2 5 2 2 3 1 2 3 2 4 2 1 1 2 0 2 2 1 1 0 2 1 3 2 3 4 0 2 1 2 1 1 0 3 1 2 1 1 1 3 1 1 2 2 1 1 3 2 0 0 0 0 1 2 3 2 3 0 1 1 2 1 0 2 2 1 1 1 4 2 2 2 3 1 2 2 1 1 1 1 2 2 1 0 1 3 2 2 3 3 0 2 2 1 2 1 1 3 1 2 2 0 0 2 2 1 2 3 1 3 2 1 2 1 2 1 2 3 3 1 1 0 1 1 0 1 1 2 3 0 2 4 3 0 1 4 3 3 3 3 1 2 0 1 0 2 0 1 1 3 3 3 1 1 3 0 0 0 0 1 3 0 4 0 1 2 1 1 2 2 3 1 0 2 0 1 1 2 3 2 1 2 2 0 0 3 5 1 1 0 1 0 0 3 1 0 1 1 0 2 1 1 2 4 3 1 1 0 1 0 4 3 2 2 2 3 1 3 0 2 2 1 2 2 1 3 3 4 2 2 2 3 3 0 2 1 2 1 1 1 1 0 1 1 1 1 2 0 1 1 2 1 2 0 0 2 2 2 1 1 2 1 0 2 2 3 2 1 1 2 3 2 1 4 3 1 1 3 1 2 3 4 1 4 1 5 2 1 1 2 1 0 0 1 2 1 1 1 1 1 1 2 3 1 3 0 2 2 2 3 2 1 2 0 2 0 1 1 3 4 2 1 0 1 1 2 5 2 1 2 0 1 1 1 1 2 0 4 2 1 0 1 2 3 3 1 3 2 1 1 1 0 3 2 1 1 2 1 2 2 1 0 0 3 0 2 2 3 1 2 2 2 2 3 2 2 2 2 2 1 2 1 0 3 2 0 0 1 1 1 4 1 1 0 1 3 1 2 2 2 2 0 1 1 3 2 1 2 2 2 1 2 2 1 4 1 3 1 1 1 2 1 2 2 3 0 1 0 1 0 1 2 2 4 1 1 1 2 2 1 0 1 2 2 0 3 2 2 1 2 1 1 1 2 1 3 1 1 1 0 2 2 0 2 2 1 2 2 2 1 1 1 1 3 2 1 1 1 1 0 2 3 2 1 3 0 1 2 1 1 1 1 6 3 2 2 3 0 3 2 2 0 1 3 1 2 0 2 2 1 4 2 1 2 1 0 1 2 1 1 3 2 3 1 3 3 1 1 4 1 2 2 2 1 1 0 1 3 3 1 1 1 1 3 3 0 1 1 1 2 1 3 3 2 0 1 2 2 2 0 1 0 2 3 0 2 0 3 1 2 1 2 1 1 0 4 4 2 1 3 2 2 1 0 1 1 1 2 0 1 1 0 4 4 1 0 3 1 1 3 1 1 0 2 2 1 0 2 2 1 3 0 1 1 2 0 4 0 2 2 1 2 1 2 2 1 0 0 1 1 1 1 2 1 1 2 1 1 1 1 0 3 2 1 2 1 2 2 3 2 2 1 3 1 1 2 0 2 1 1 2 3 0 2 0 4 2 1 1 2 2 0 1 1 2 0 2 1 1 3 1 2 1 0 0 2 0 1 1 1 2 2 3 3 2 1 1 0 1 1 2 1 2 2 0 1 2 3 1 1 1 0 2 2 2 3 1 3 3 2 1 2 1 3 1 1 2 2 2 2 1 4 1 2 2 2 1 1 3 2 2 2 1 1 2 3 3 3 2 1 1 1 1 3 2 0 1 1 2 1 2 0 1 3 3 1 3 1 2 1 2 0 1 2 1 2 1 1 0 1 2 4 0 1 3 2 3 1 3 3 1 0 0 2 1 3 2 2 0 4 2 3 1 2 2 0 3 2 2 3 1 3 2 2 2 0 1 1 0 1 1 3 1 2 4 1 1 1 4 1 3 3 1 0 1 2 1 2 1 1 1 2 1 1 2 0 1 4 2 2 1 2 2 2 1 3 1 2 1 1 2 1 1 1 2 2 2 2 0 1 2 2 2 0 0 3 1 2 1 4 1 0 0 3 0 4 2 2 4 2 0 1 2 1 3 0 2 2 2 0 1 2 1 1 0 2 4 3 2 0 1 1 1 5 0 1 1 0 0 2 2 0 1 1 3 0 1 1 2 2 1 2 2 1 1 1 0 3 0 2 0 2 1 1 4 2 2 0 3 1 0 0 2 1 1 1 1 2 3 2 1 0 0 1 3 3 0 2 2 1 2 2 2 1 1 1 1 3 2 0 2 2 2 2 1 1 0 1 1 2 3 3 1 2 1 4 2 0 4 2 1 3 4 0 0 0 1 0 4 0 1 0 2 1 2 3 0 1 0 2 4 2 1 3 2 2 0 2 1 1 0 3 0 1 1 0 1 2 2 1 1 2 2 2 1 2 1 3 2 2 1 3 1 1 2 3 0 1 2 1 2 1 2 3 3 1 2 0 1 2 1 4 3 0 3 2 2 2 0 1 2 3 2 1 5 2 0 2 1 0 1 2 2 2 1 2 2 2 3 2 1 1 3 0 2 3 1 3 2 2 2 2 1 1 3 3 1 2 2 2 2 1 2 0 2 1 3 2 3 1 0 1 4 1 2 2 1 0 1 2 2 3 2 1 1 2 0 2 2 0 2 2 1 0 2 4 3 2 4 1 0 1 2 2 3 0 1 4 0 0 2 2 2 3 2 1 2 1 2 1 1 1 2 2 1 1 1 4 0 2 1 1 0 0 1 3 2 2 3 2 1 3 1 0 2 1 1 0 1 2 1 1 1 1 0 2 0 1 0 5 1 3 0 2 1 1 2 3 1 1 0 3 2 1 1 0 1 1 2 4 1 3 0 1 1 0 0 2 0 3 1 3 3 1 2 0 0 2 3 2 2 1 2 0 3 0 2 2 1 1 0 2 2 0 1 2 1 1 2 1 3 2 1 1 4 0 1 1 0 1 2 4 0 2 1 2 2 1 1 3 3 1 2 1 2 2 1 0 2 2 1 1 1 2 2 1 2 0 2 1 1 1 3 2 2 0 0 1 1 2 3 4 2 2 0 1 2 1 1 3 3 1 2 3 0 2 2 3 1 0 1 2 2 2 0 2 1 1 3 1 1 2 2 1 3 1 1 3 1 1 2 1 0 1 3 1 1 1 1 2 0 1 0 3 3 0 1 1 2 2 2 2 1 1 0 2 2 2 3 1 2 0 3 2 2 0 1 2 0 2 4 0 1 1 1 2 2 3 2 0 3 0 1 2 1 1 3 1 0 1 0 3 1 2 2 0 2 2 1 1 2 2 2 2 1 0 1 3 1 2 0 4 0 1 1 1 1 2 1 2 1 0 1 2 1 2 2 2 1 1 1 3 2 1 2 3 1 1 1 2 3 2 3 4 2 1 1 1 2 3 2 0 3 2 0 0 3 2 1 4 1 1 3 1 1 2 1 0 3 3 2 1 1 1 1 1 1 0 1 3 2 2 1 1 0 2 2 0 2 1 2 0 3 1 1 4 2 2 1 5 3 0 2 2 1 3 0 1 1 1 0 2 3 1 3 0 1 2 2 0 2 1 2 2 2 2 3 0 2 1 3 2 1 2 3 1 3 2 2 2 1 1 1 2 0 3 3 3 3 1 1 0 2 1 1 0 1 4 3 3 0 2 3 1 1 4 3 3 1 4 3 3 1 0 2 2 2 4 0 0 1 3 4 2 2 0 1 1 2 1 2 0 3 2 1 2 2 1 1 0 0 1 4 0 2 2 1 0 2 1 0 1 3 2 1 1 1 4 1 0 2 0 2 3 2 3 1 3 2 2 1 2 2 2 0 1 1 2 0 2 2 0 1 2 1 3 1 1 4 1 0 2 2 1 2 2 3 1 1 0 3 2 1 1 0 0 1 5 1 1 2 0 0 1 1 2 2 1 1 0 2 0 3 0 3 1 4 1 1 4 2 2 1 0 1 2 1 1 2 1 1 3 1 1 0 2 2 3 0 2 2 1 3 4 1 1 2 1 1 2 0 0 0 1 2 1 4 1 1 1 2 2 2 1 2 3 0 2 1 0 3 1 1 0 1 2 3 1 1 1 1 3 2 1 3 5 1 1 2 0 2 0 3 1 0 2 2 1 2 0 0 1 1 2 4 1 1 1 2 1 1 1 2 2 2 2 1 1 0 3 1 2 3 1 5 2 1 0 1 3 1 1 1 2 1 2 1 0 2 1 2 0 2 2 0 4 3 1 1 1 2 1 2 0 2 1 1 2 3 2 1 1 3 1 2 3 1 4 3 1 2 2 2 2 3 3 3 1 2 2 0 1 2 2 1 0 2 2 2 1 1 4 2 1 4 3 2 4 1 1 2 1 1 2 2 3 2 0 1 2 2 1 2 2 0 1 3 2 0 3 2 1 1 3 2 2 1 1 0 0 1 1 5 1 5 2 1 2 2 2 3 1 1 2 1 1 3 2 2 0 0 3 1 2 1 1 2 1 1 1 4 1 0 2 4 1 1 2 1 1 1 1 3 1 2 1 1 2 1 3 2 3 2 3 2 2 2 0 1 2 1 1 2 1 1 1 3 1 1 1 1 1 1 1 0 1 2 0 2 2 1 2 3 0 2 1 1 0 1 1 3 0 3 1 3 0 1 0 1 3 2 3 2 1 2 1 1 3 3 1 2 1 2 2 1 2 1 0 2 0 0 3 0 1 1 5 1 1 1 3 1 2 1 0 3 0 3 2 0 3 2 2 3 0 1 4 2 0 1 0 2 3 1 2 1 3 1 1 0 2 1 2 2 2 2 3 0 1 2 3 1 2 1 1 2 1 4 2 1 2 2 2 3 3 2 1 3 2 3 1 3 2 3 2 0 1 1 2 1 1 1 0 3 0 2 1 2 0 2 0 2 2 2 1 1 4 2 2 3 0 1 3 0 0 3 5 1 0 3 2 5 1 3 2 0 3 2 3 1 2 0 2 1 2 1 1 1 2 3 0 0 1 2 0 2 2 1 0 0 1 1 1 2 3 2 1 1 2 2 2 4 0 3 1 2 1 1 0 1 1 3 1 1 1 1 2 1 2 0 2 0 3 1 0 1 3 3 2 1 3 0 3 0 1 1 3 0 0 1 1 3 2 2 2 1 0 0 5 1 1 1 0 1 2 3 1 1 1 3 0 3 2 1 1 1 1 3 2 2 1 1 2 1 1 1 1 4 2 0 2 2 2 1 2 2 4 0 3 2 1 1 0 2 3 1 3 2 0 1 3 1 1 2 0 2 1 1 1 3 2 0 3 0 1 2 2 3 2 1 3 1 1 4 0 2 1 3 1 1 1 1 5 2 0 1 1 3 0 1 3 1 2 3 1 1 0 1 1 1 0 1 1 4 1 3 1 3 1 1 0 2 2 2 2 0 1 0 3 1 3 2 3 3 2 1 2 2 3 0 2 1 3 1 2 1 2 1 1 3 1 0 3 1 1 1 1 1 3 1 0 0 0 2 1 2 3 3 2 2 0 1 1 1 3 3 2 2 0 2 2 1 0 3 2 2 1 1 1 2 1 1 2 2 2 2 2 1 3 0 1 2 1 1 0 1 0 3 0 1 2 1 0 2 0 1 0 1 0 0 1 1 0 2 1 1 2 0 1 1 0 3 1 1 0 2 2 2 0 2 3 1 1 2 2 3 1 2 3 2 3 3 1 0 3 2 0 1 1 3 1 2 3 3 1 0 0 2 2 3 0 1 3 1 1 1 2 2 3 3 3 2 3 1 2 2 1 0 1 0 0 4 1 3 1 2 2 2 2 1 1 2 1 1 0 1 3 2 1 0 0 2 2 1 2 1 0 3 3 1 2 1 3 1 2 1 3 2 1 0 0 2 1 1 1 1 1 2 0 2 1 2 1 3 1 0 2 2 1 0 4 0 3 1 1 1 1 1 2 2 3 2 2 2 2 2 1 2 1 3 1 1 1 1 2 1 2 3 2 1 1 2 0 1 1 2 2 1 1 2 1 0 2 3 1 2 2 2 0 2 1 3 0 1 5 1 1 1 2 1 1 3 2 2 3 4 2 1 2 1 1 2 1 0 0 1 0 2 0 0 2 2 2 1 2 1 2 2 2 3 0 3 1 0 2 1 2 2 0 1 2 1 4 3 2 2 1 1 1 0 2 3 3 1 0 2 3 2 1 1 1 4 1 1 1 2 3 1 5 1 4 1 1 1 0 0 2 2 0 2 0 1 1 1 5 1 3 1 0 0 2 0 1 0 2 0 2 1 1 1 2 2 2 2 0 0 2 2 2 1 2 3 3 0 0 1 0 2 1 2 0 2 3 1 1 3 0 1 1 2 2 2 1 2 1 2 2 1 3 2 2 2 0 1 1 1 3 2 2 2 1 3 1 2 3 2 1 2 1 1 2 0 2 1 2 1 2 2 3 0 3 3 2 0 1 1 3 0 1 1 1 2 1 2 1 1 0 2 1 0 4 2 2 2 3 2 3 2 1 1 3 1 0 3 2 2 2 0 0 0 3 2 1 3 2 1 3 3 2 3 2 1 2 1 2 1 1 2 1 2 2 2 1 2 2 1 1 1 3 3 1 2 2 3 2 3 2 2 1 1 2 2 3 3 3 3 2 2 1 1 1 1 2 1 0 1 1 1 2 3 1 3 2 2 2 1 1 2 0 2 0 1 2 0 1 2 1 1 2 2 1 2 1 5 2 2 1 1 2 1 3 2 1 2 3 1 3 1 2 0 2 1 1 3 0 0 2 2 3 3 2 2 2 3 1 3 0 0 1 0 3 1 0 1 2 1 2 1 1 0 1 1 2 2 1 2 1 1 4 2 1 2 3 1 1 1 1 2 2 2 1 2 1 1 4 0 1 1 2 1 1 2 1 0 2 2 1 2 2 1 1 3 1 2 2 2 1 0 2 0 3 2 0 2 0 2 1 1 2 1 1 2 1 0 2 1 2 1 1 2 1 1 2 2 1 1 3 1 2 1 2 1 0 0 0 3 2 1 1 2 0 1 1 2 0 0 0 3 1 2 1 2 2 0 2 2 2 2 0 1 1 2 1 2 2 0 1 2 0 3 3 5 4 1 0 5 1 2 1 2 2 0 0 2 1 1 0 2 1 0 2 1 1 1 3 1 2 0 1 1 0 1 1 2 3 1 2 0 4 2 3 0 2 0 1 3 2 2 2 3 2 4 0 1 3 1 1 3 2 0 2 0 0 3 2 3 1 1 1 2 2 1 2 1 4 0 0 2 2 2 2 4 2 2 2 3 0 1 0 2 1 1 2 2 0 1 1 2 1 2 3 1 0 0 2 0 2 2 2 1 1 1 2 0 2 0 5 0 1 0 3 1 5 1 3 2 2 2 1 5 2 2 1 1 0 0 1 2 4 1 2 1 2 1 2 2 2 2 1 2 2 1 1 1 0 1 0 2 0 2 1 3 1 4 0 3 1 1 2 1 3 1 1 1 1 2 0 2 5 4 2 0 0 2 2 2 1 2 2 1 1 2 2 1 2 1 2 1 1 5 0 1 2 3 1 0 2 3 1 1 1 1 2 2 0 2 0 1 1 2 1 1 1 2 1 2 1 2 1 1 0 1 1 1 3 3 1 1 0 1 2 1 2 2 2 1 1 1 3 0 2 1 4 3 1 1 4 2 0 4 2 2 3 2 0 1 4 3 2 1 2 1 1 3 1 2 2 1 1 4 3 2 0 1 1 1 3 1 4 1 0 1 2 0 3 3 0 1 1 4 2 1 1 1 0 1 2 1 2 0 2 1 3 2 1 2 1 3 3 3 3 3 2 2 2 1 1 2 2 0 4 1 1 1 0 0 3 1 0 3 1 2 1 3 3 1 2 3 2 2 0 1 2 4 0 0 2 4 1 3 2 2 3 2 2 1 4 1 2 2 2 2 1 1 1 1 3 2 3 2 0 1 1 2 1 2 1 1 2 0 1 0 3 2 3 2 1 2 1 0 1 1 1 1 0 3 2 1 0 2 3 2 2 2 1 1 3 0 2 1 2 0 1 2 2 2 2 1 1 1 2 1 1 1 3 2 0 1 3 2 1 1 2 2 2 3 2 0 2 2 3 1 1 2 1 3 1 1 2 0 2 1 1 2 3 2 2 1 2 4 2 2 2 2 1 0 1 2 0 1 1 0 2 1 1 0 1 2 1 3 2 3 2 1 3 3 0 0 2 3 1 1 0 2 2 2 1 0 1 1 1 1 1 2 2 3 3 0 1 0 0 0 2 2 0 1 1 2 2 4 2 1 2 3 4 1 3 1 0 1 1 1 1 2 2 1 3 0 3 0 2 2 1 1 1 1 0 1 2 1 2 2 0 4 2 2 1 0 1 3 3 2 2 0 2 3 0 0 1 1 1 2 1 2 0 2 1 1 0 0 2 2 4 4 2 2 2 1 2 2 0 1 2 3 2 1 1 1 0 0 1 3 1 1 2 0 1 1 2 1 1 1 1 1 2 1 0 3 1 1 3 2 3 1 1 2 2 3 0 1 3 2 1 2 2 2 1 2 1 2 1 0 0 1 1 1 2 1 2 2 0 2 3 1 2 1 0 2 5 3 2 0 1 0 3 1 2 1 2 1 3 0 2 0 1 2 2 2 3 3 1 2 1 2 2 0 1 3 3 0 1 1 1 1 2 2 1 2 2 1 2 2 1 1 2 2 1 1 1 2 1 3 0 0 2 2 2 3 3 3 2 3 2 0 2 1 1 3 2 2 2 4 0 3 1 2 1 2 2 1 0 2 2 2 2 2 1 3 0 4 1 1 0 1 1 1 0 1 2 1 1 1 2 1 2 2 0 0 1 2 1 2 2 2 1 3 0 0 1 2 1 1 1 0 0 2 2 1 1 2 2 3 2 1 2 1 2 3 3 0 1 2 1 1 0 0 2 1 1 0 1 1 1 2 2 2 2 1 1 2 2 3 3 1 2 2 1 3 5 1 2 1 1 0 1 2 2 1 2 3 4 3 1 0 4 1 1 2 1 2 2 0 1 2 4 0 2 4 0 2 3 1 4 1 1 1 1 2 2 3 1 2 1 1 3 4 2 2 3 2 1 1 2 1 1 1 2 1 3 1 1 2 4 1 2 2 2 2 0 1 0 0 1 3 1 2 3 2 2 3 1 2 1 2 1 3 3 2 1 1 1 1 1 1 2 2 4 4 3 2 2 3 2 1 2 0 3 1 1 1 1 2 2 1 2 1 1 0 1 0 0 1 2 1 3 1 3 2 2 2 2 0 1 1 1 2 0 2 1 3 0 3 2 1 3 3 1 1 1 3 2 1 0 1 0 3 3 0 1 3 1 3 1 2 3 1 2 0 0 0 0 1 0 1 2 2 4 1 2 2 2 2 2 1 3 1 1 3 1 2 3 1 1 1 3 3 1 1 2 3 2 1 1 2 2 2 2 2 2 1 2 3 2 1 2 3 1 0 1 3 2 0 2 1 1 1 1 3 3 2 2 4 2 2 1 1 2 0 1 0 2 0 1 3 0 2 0 0 1 0 0 1 2 1 1 1 5 0 1 3 2 1 0 2 3 1 1 2 1 2 0 2 2 2 1 1 1 2 1 0 0 3 2 1 0 3 1 1 1 2 1 1 2 3 2 1 1 1 1 3 1 1 0 1 1 1 2 2 1 1 1 3 3 2 0 0 1 1 3 2 3 2 1 2 0 0 2 0 2 3 2 0 0 2 1 2 0 2 2 3 0 3 1 2 3 1 3 1 2 3 0 1 1 1 0 1 2 0 1 2 2 2 2 5 3 1 1 1 1 3 2 1 2 0 2 3 2 3 2 0 2 1 0 1 4 2 1 1 1 4 3 2 1 2 2 3 0 1 4 3 1 1 1 1 1 0 2 1 0 2 4 2 1 1 3 1 1 1 3 2 2 1 1 1 1 0 1 2 2 0 1 1 1 2 2 3 0 1 1 0 0 1 1 0 1 2 0 3 1 1 4 2 0 2 3 1 2 1 2 1 0 2 1 1 2 3 1 0 3 4 1 2 3 1 1 2 1 2 4 1 2 1 2 1 3 2 1 2 1 0 0 2 5 2 1 1 1 1 2 3 1 2 1 0 1 1 2 1 4 1 3 3 1 2 1 1 3 0 3 0 2 0 1 3 1 2 1 4 1 3 0 1 0 1 4 0 0 2 3 0 1 0 0 1 2 2 2 0 2 2 1 1 1 3 1 1 0 0 1 1 3 2 1 1 1 1 0 2 3 1 3 0 1 2 2 0 2 1 2 1 2 1 0 1 2 2 2 3 1 1 0 1 0 1 1 0 0 1 0 1 0 1 2 1 1 1 3 0 0 2 2 1 1 2 0 3 3 2 0 1 1 3 2 2 1 1 2 0 2 0 2 1 3 1 1 1 1 2 1 1 2 1 1 1 1 1 1 1 1 2 1 3 0 3 2 2 1 1 2 2 1 1 2 1 2 1 3 2 2 0 1 3 1 0 2 1 2 2 2 1 2 2 1 3 3 3 2 1 0 1 3 3 3 3 3 3 0 1 2 2 3 1 2 4 1 2 2 2 0 1 0 0 1 1 2 1 2 4 3 2 3 3 4 0 0 1 2 1 3 0 1 2 2 0 1 0 2 2 6 1 1 2 2 1 1 2 0 1 1 1 1 0 1 1 2 2 3 2 4 1 1 2 1 2 2 2 0 2 2 1 2 1 2 1 1 3 2 0 2 0 2 1 1 1 2 2 0 1 1 1 2 1 1 1 0 3 1 0 3 4 3 1 1 1 1 3 1 1 0 2 2 2 0 2 3 3 2 2 4 2 0 5 3 3 4 1 1 1 0 2 5 2 1 0 0 1 3 3 3 1 2 1 2 2 2 0 0 3 0 1 2 2 1 2 3 2 1 1 0 3 1 1 1 2 2 1 1 1 1 2 1 2 3 3 1 2 3 0 2 2 2 3 0 0 1 1 0 2 2 3 0 2 0 3 3 3 0 3 1 2 0 2 2 1 3 2 2 2 2 1 3 3 2 5 1 1 1 1 2 1 1 0 2 1 1 2 1 2 1 1 1 1 2 0 1 1 2 2 2 3 3 1 1 1 1 1 2 3 3 3 1 5 2 2 3 1 2 0 2 1 2 2 2 1 1 2 0 2 2 2 2 1 0 1 2 1 2 2 1 4 2 2 2 0 1 1 4 2 1 2 1 3 1 1 1 1 2 2 2 5 1 2 1 2 1 2 1 2 1 4 0 0 1 2 0 2 2 0 3 1 2 2 1 2 1 1 2 3 2 1 2 2 1 2 2 1 3 3 1 3 0 3 0 3 0 0 2 5 1 0 1 1 1 1 2 2 2 2 2 3 2 0 1 0 4 4 1 0 1 1 0 1 3 2 1 1 2 2 1 2 1 3 2 1 2 2 2 2 1 3 0 2 0 4 1 2 2 2 2 1 1 2 2 1 2 2 1 2 1 0 0 2 2 2 3 4 2 1 1 1 1 2 2 2 1 2 2 1 2 2 1 3 2 1 1 2 1 0 1 3 1 1 1 2 3 1 1 1 1 4 2 0 1 3 0 0 1 0 2 2 2 1 2 1 1 2 3 2 3 2 1 2 0 1 2 2 3 1 0 2 1 2 3 1 0 0 1 3 2 2 1 0 1 2 2 1 1 0 1 3 3 4 1 1 2 2 1 2 2 0 2 0 1 2 1 1 3 1 3 2 2 2 3 1 3 1 1 1 3 0 1 3 1 1 1 3 1 1 1 1 3 0 1 1 1 0 2 1 1 2 3 1 1 2 1 0 1 1 3 3 1 2 2 1 1 1 3 0 1 1 2 2 2 1 3 2 0 1 1 2 1 3 2 0 0 0 1 2 2 1 2 0 3 1 2 1 1 2 2 2 1 2 1 0 1 1 2 2 1 1 1 1 2 4 0 1 3 3 1 2 1 2 1 3 2 5 2 2 2 2 1 1 1 1 0 1 3 0 1 2 3 5 1 2 0 3 0 0 1 3 2 1 1 2 0 1 2 1 2 2 1 1 1 1 1 2 2 1 2 0 2 3 1 1 1 1 2 2 1 1 0 0 3 2 2 2 2 1 2 3 0 3 2 4 3 2 0 1 2 1 2 1 1 2 2 1 3 2 2 2 0 1 1 0 1 2 2 2 2 1 0 1 2 1 2 3 1 3 0 0 3 1 2 2 2 4 0 2 2 2 1 3 1 1 3 4 2 1 2 2 2 3 0 2 5 3 2 2 0 1 0 4 3 2 3 2 3 2 2 2 2 5 1 1 2 0 3 3 2 1 1 1 2 2 2 5 1 1 1 1 1 2 0 2 1 1 1 1 2 0 0 1 1 2 1 2 2 0 2 2 1 1 0 2 3 0 2 2 1 4 4 2 2 1 1 2 2 3 1 1 1 1 2 0 2 2 3 1 5 1 2 3 1 2 4 3 3 1 1 1 2 2 3 1 2 1 2 1 0 0 1 4 1 1 1 1 0 0 3 2 1 5 1 1 2 0 2 0 0 1 1 2 5 1 3 2 1 4 2 2 1 1 2 1 0 1 2 2 2 2 1 1 1 1 0 2 2 1 1 1 1 1 1 1 2 2 2 4 2 1 1 1 1 1 3 1 2 1 1 1 2 2 2 3 3 2 2 2 2 0 1 1 3 3 0 3 2 2 2 1 1 1 1 1 3 1 3 1 0 3 0 1 1 0 2 2 2 1 2 0 3 0 1 0 1 2 2 1 1 0 1 1 2 2 0 1 1 2 2 0 1 4 0 1 2 3 1 0 3 2 2 0 1 2 1 1 2 2 2 1 2 2 1 2 0 0 2 2 0 0 0 1 0 2 1 1 1 1 1 0 0 1 1 1 4 2 0 2 1 0 0 1 2 2 2 2 2 1 0 0 1 2 2 3 2 2 2 1 1 0 1 4 3 2 2 4 1 0 2 2 3 2 3 2 2 1 1 1 2 1 3 1 0 0 1 1 2 2 1 1 1 1 3 1 2 1 0 2 0 1 3 1 1 0 2 0 1 0 2 1 2 3 2 2 2 2 1 3 3 0 1 1 2 2 1 1 1 1 2 1 3 1 4 1 2 1 0 2 2 3 3 4 2 2 1 1 2 0 2 1 2 1 3 1 0 0 2 1 3 2 3 3 2 1 0 0 0 2 1 3 1 3 0 1 2 1 2 1 2 0 3 0 4 1 2 1 0 0 1 0 1 0 0 1 4 0 3 2 0 1 2 2 0 2 2 1 2 2 1 1 1 2 1 1 1 1 1 2 2 3 2 1 2 3 3 0 0 1 1 1 1 1 4 1 1 0 1 3 2 1 1 1 0 2 2 3 1 4 3 0 1 2 1 0 2 3 0 2 2 3 1 4 2 1 0 1 3 4 0 1 3 1 2 1 1 0 1 1 2 1 1 3 2 1 2 1 1 0 0 2 2 2 1 1 1 1 0 1 0 2 1 3 3 2 0 1 4 1 2 2 2 2 1 3 0 0 0 2 1 2 1 1 3 0 2 1 2 4 2 2 2 2 2 1 2 1 2 0 3 1 1 1 1 0 1 2 3 3 1 1 1 2 0 1 3 2 2 1 2 3 2 1 2 2 3 1 1 2 1 0 2 2 3 2 2 3 1 0 1 2 2 2 1 2 2 2 1 2 0 2 2 1 3 3 0 1 3 1 1 1 3 3 4 3 1 2 0 3 0 1 1 2 1 1 3 1 0 1 1 2 1 0 2 2 3 2 2 3 1 2 1 1 1 1 1 0 2 1 2 1 0 2 1 1 3 2 1 2 2 3 1 1 2 1 1 1 1 1 4 2 3 1 2 0 1 3 2 1 1 2 1 3 0 3 0 1 0 2 0 6 2 3 1 1 1 3 2 2 0 1 2 2 0 2 1 0 2 3 1 2 1 0 1 4 0 1 4 3 2 2 2 1 4 1 1 1 2 3 0 0 1 1 3 2 1 3 0 0 2 1 3 2 1 2 2 3 5 2 2 2 1 2 1 3 3 2</t>
+  </si>
+  <si>
+    <t>GAM(0.3486054038716878, -4.2742485266018925e-27, 0.5288586955215546)</t>
+  </si>
+  <si>
+    <t>0 0 3 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 1 2 0 0 0 2 2 1 1 1 0 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 0 2 2 0 0 0 2 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 1 0 0 1 1 1 1 0 1 0 1 0 0 2 0 0 1 0 1 0 1 4 0 0 0 2 0 0 0 0 1 2 1 0 1 2 0 0 0 1 1 0 2 0 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0 1 1 2 0 2 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 2 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 2 0 0 0 0 0 2 0 0 1 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 2 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 2 1 1 0 1 0 0 0 0 0 2 0 0 0 0 1 1 0 2 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 3 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 2 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 1 2 0 2 0 0 0 0 0 0 1 0 0 0 1 3 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 2 0 1 0 2 0 1 1 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 1 1 2 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 2 0 1 1 0 1 0 0 2 1 1 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 3 0 1 2 1 3 0 1 0 1 0 2 0 0 1 0 0 1 0 1 1 2 1 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 2 2 0 0 0 1 0 0 1 1 0 0 1 0 2 0 0 0 0 0 1 0 0 1 1 2 1 0 2 0 0 0 0 0 0 0 0 1 2 0 0 0 0 2 0 1 2 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 2 0 1 0 0 2 1 0 0 0 1 0 1 1 0 0 1 1 0 0 0 2 0 2 0 1 1 1 2 0 1 1 0 1 1 0 1 0 0 1 0 1 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 2 0 2 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 3 3 0 0 0 1 1 1 2 1 0 0 0 0 0 1 1 0 1 1 0 1 1 1 1 0 1 1 0 1 0 0 0 1 0 1 1 0 2 0 0 0 1 0 1 0 2 1 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 0 3 0 2 0 0 1 1 1 2 0 0 1 3 0 1 1 0 1 2 1 2 2 0 1 1 0 1 0 0 0 2 0 0 1 1 0 0 1 0 0 0 0 1 1 0 1 1 0 4 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 2 0 2 0 0 0 0 0 0 2 0 2 0 1 1 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 2 0 2 0 0 0 0 2 0 0 0 1 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 2 0 1 0 0 0 0 1 0 0 1 3 0 0 0 0 0 0 2 0 1 0 0 3 1 0 0 0 1 0 1 0 0 0 0 0 0 2 0 1 1 1 0 1 1 0 0 0 0 0 0 2 0 1 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 0 0 2 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 2 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 1 0 2 0 1 2 1 2 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 1 0 2 2 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 2 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 2 1 0 0 0 0 0 0 0 1 0 1 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 2 0 1 0 0 1 0 1 2 0 0 2 1 0 0 1 2 0 1 1 1 0 2 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 2 0 1 3 1 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 1 0 0 0 2 2 1 1 1 0 0 1 0 0 2 0 1 1 1 2 0 0 0 0 0 1 1 0 0 0 1 1 2 2 0 0 1 0 0 0 1 0 1 0 2 2 3 1 0 1 0 0 1 0 0 1 0 3 1 1 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 1 0 1 0 2 2 0 1 0 0 1 2 0 1 0 0 0 1 0 0 2 0 0 1 2 0 0 0 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 2 0 0 2 0 0 0 1 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 3 1 0 1 0 0 1 1 0 0 1 1 2 1 0 0 0 0 1 0 2 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 3 1 2 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 1 0 0 2 1 0 1 1 2 1 0 1 1 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 2 2 0 0 0 1 0 1 1 0 0 0 0 3 0 0 1 1 0 0 0 3 0 0 1 2 3 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 1 1 1 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 1 0 0 0 1 1 0 2 0 1 0 0 0 0 1 0 2 0 0 2 0 0 1 1 0 1 1 1 1 1 0 0 0 0 1 1 1 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 3 1 1 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 2 1 3 0 1 1 1 0 0 0 2 0 0 0 0 0 0 0 2 1 0 1 0 0 1 0 0 1 1 1 0 1 0 2 0 1 1 1 0 0 2 0 0 2 1 1 1 0 0 1 1 1 1 0 1 1 0 1 0 1 0 1 1 0 0 0 1 0 2 0 0 1 0 1 1 1 0 0 1 1 0 2 0 0 1 1 0 1 0 1 0 0 0 1 2 2 2 0 0 0 1 1 0 1 2 0 1 0 0 0 1 0 1 0 0 2 0 0 0 0 1 1 1 3 1 0 1 0 2 0 0 0 0 0 0 1 0 1 0 1 1 2 1 0 2 1 1 1 0 1 0 0 0 1 0 0 1 1 0 1 1 1 2 0 2 0 1 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 2 0 1 1 1 2 0 1 0 2 1 1 0 0 0 1 0 1 0 0 1 0 1 0 1 1 0 2 0 0 1 0 0 2 0 1 1 2 0 1 1 0 0 0 1 0 0 0 1 0 0 1 1 1 0 1 1 0 1 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 2 1 1 0 0 3 0 0 2 1 0 0 1 2 0 0 1 0 3 0 0 0 0 1 0 0 0 1 0 1 0 0 2 0 3 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 1 0 1 0 0 1 0 1 1 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 2 0 2 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 0 0 0 1 1 2 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 1 1 1 0 0 0 2 0 1 2 1 0 0 4 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 1 2 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 2 0 1 1 1 1 1 0 0 0 2 2 0 0 1 0 0 0 2 0 2 0 1 1 0 1 1 1 1 0 1 0 1 0 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 2 1 0 1 1 1 2 2 1 0 0 2 0 0 0 0 0 0 0 0 0 1 1 2 0 1 1 0 0 0 1 0 1 2 0 1 0 1 1 0 1 0 1 1 0 1 0 2 1 0 0 1 0 0 1 0 1 0 0 3 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 2 0 0 0 1 0 1 0 0 0 1 0 0 0 2 1 0 0 0 1 2 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 1 1 3 1 0 0 1 0 1 3 1 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 1 0 1 0 2 1 0 1 0 0 0 1 0 0 2 0 1 1 0 2 1 1 0 2 0 1 0 0 0 0 1 1 2 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 1 0 0 2 1 0 0 1 0 0 2 1 0 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 1 1 0 0 0 1 1 1 0 0 3 2 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 3 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 1 2 0 0 0 0 1 0 0 2 1 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 2 1 0 1 0 1 0 0 0 0 0 0 1 1 1 1 0 0 2 1 0 0 1 1 1 1 2 0 1 3 1 0 0 2 0 1 0 2 0 1 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 1 0 1 0 0 1 0 1 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 2 0 0 2 0 1 4 0 1 0 1 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 3 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 1 2 0 1 0 0 1 0 0 1 0 0 0 2 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 0 1 1 1 1 0 1 0 2 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 2 1 2 0 0 1 2 1 1 1 1 0 1 0 1 2 0 0 0 0 1 1 0 1 1 1 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 2 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 1 1 1 3 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 1 1 0 0 0 1 0 1 2 0 1 0 0 0 2 1 0 1 0 0 0 0 2 1 2 0 0 0 0 3 1 0 0 1 2 1 0 2 0 0 1 0 0 0 0 0 2 1 1 1 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 3 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 2 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 3 0 1 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0 1 0 2 1 0 1 0 1 0 1 1 0 1 1 0 1 0 1 0 0 0 0 2 1 1 0 0 1 0 1 1 0 0 2 0 0 1 0 1 0 1 1 0 0 2 0 0 0 0 1 0 1 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 2 0 1 0 0 1 0 2 0 1 0 0 0 0 3 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 2 1 1 1 0 0 0 0 0 0 0 1 0 1 1 2 1 0 0 0 0 0 0 2 1 0 0 0 1 1 0 1 2 1 0 2 0 0 0 2 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 2 2 1 0 0 1 1 0 0 2 0 0 3 1 0 0 2 0 0 2 1 0 0 2 0 0 2 0 0 0 2 1 2 0 0 2 0 3 0 0 0 0 0 1 1 0 0 0 2 1 0 0 1 1 0 0 0 2 0 0 0 0 0 1 2 1 2 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 1 1 2 0 1 0 0 0 0 1 0 0 3 0 1 0 2 0 0 3 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 2 0 1 0 2 1 3 2 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 2 0 1 2 0 0 0 0 1 1 0 1 0 0 0 1 0 2 2 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 2 1 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 0 2 1 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 2 2 0 0 1 0 1 1 0 0 1 0 1 0 1 0 2 0 0 0 1 0 0 0 1 0 2 0 1 0 0 1 0 1 1 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 1 0 2 0 0 0 2 0 1 1 0 0 0 0 0 2 2 0 1 1 0 2 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 1 2 1 1 0 1 0 3 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 2 1 0 0 1 1 0 3 1 0 0 0 0 1 0 1 1 1 0 1 0 1 1 1 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 2 2 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 2 0 0 2 1 2 1 2 2 0 0 0 0 0 1 0 1 1 1 0 1 0 0 1 0 2 1 1 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 1 0 1 0 0 2 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 0 2 0 0 1 1 1 0 0 1 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 2 0 2 0 1 0 0 0 1 0 1 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 2 0 0 1 1 0 1 1 2 1 0 1 0 0 1 1 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 1 0 0 0 0 2 1 0 0 0 1 0 1 2 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 2 1 0 0 0 2 0 1 0 0 0 0 0 1 1 3 0 1 3 0 0 0 0 0 0 1 0 3 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 1 0 0 1 1 1 1 0 0 2 1 2 0 1 1 1 4 0 0 0 0 0 1 1 0 1 1 1 1 1 1 0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 2 1 0 0 0 1 0 0 0 0 0 1 0 1 3 0 2 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 1 0 0 0 0 3 0 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 3 0 1 0 0 0 1 0 0 2 0 2 0 0 0 0 1 1 1 0 1 0 1 0 1 0 0 1 2 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 2 1 0 1 1 0 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 2 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 2 0 0 0 1 2 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 2 0 0 2 0 1 0 0 0 0 1 1 0 2 2 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 1 1 0 2 2 0 0 1 0 1 0 0 1 2 0 1 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 2 0 0 1 1 0 0 1 1 1 0 0 1 2 1 0 0 0 1 0 1 1 1 0 1 0 0 0 2 1 3 1 0 0 0 0 3 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 2 0 2 1 0 0 0 0 1 0 2 0 1 1 0 0 1 1 0 1 0 1 1 1 0 1 0 3 1 0 0 0 0 1 2 0 0 1 2 1 1 0 0 2 0 0 0 0 1 0 2 2 1 0 1 0 1 2 0 1 0 0 0 1 0 0 1 1 1 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 1 0 0 0 0 2 1 1 1 0 0 0 0 1 0 0 1 1 0 2 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 4 0 0 0 0 0 0 0 1 0 0 1 1 0 0 2 0 0 0 0 1 2 0 0 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 2 1 0 0 2 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 3 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 2 1 0 0 2 0 0 1 0 1 0 2 0 0 0 0 0 2 0 0 2 0 1 1 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 2 2 1 2 0 0 0 1 0 1 0 0 0 1 0 2 1 1 1 1 0 1 0 0 0 0 2 1 0 0 1 0 0 0 0 0 3 0 0 1 1 0 0 1 2 0 0 0 0 1 2 0 1 1 1 1 0 0 2 1 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 1 0 1 0 0 2 0 2 1 1 0 0 1 0 2 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 2 0 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 1 1 0 1 1 0 0 1 0 1 0 0 1 0 1 1 0 1 0 1 2 0 2 2 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 1 1 2 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 2 0 1 0 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 2 0 1 0 0 1 0 0 0 1 0 3 1 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 1 2 0 0 2 0 0 0 1 3 0 1 1 1 2 0 3 1 0 0 0 1 0 2 0 0 0 0 1 0 0 0 0 0 1 0 2 1 0 0 1 0 0 0 2 1 0 0 1 0 1 0 0 0 0 0 1 0 0 2 0 0 1 0 2 1 0 0 0 0 0 0 1 1 1 1 3 0 1 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 1 0 0 1 2 2 0 2 1 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 1 1 1 0 0 1 0 0 0 1 2 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 2 0 1 1 1 1 1 1 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 1 1 0 0 2 0 1 0 0 0 0 0 2 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 1 3 0 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 0 1 1 3 0 0 1 4 0 2 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 2 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 2 0 0 1 1 0 0 0 1 1 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 2 0 1 1 1 1 0 0 0 0 1 1 2 0 0 0 1 0 0 0 0 0 0 1 1 1 1 2 0 1 0 1 1 1 0 0 0 0 1 0 1 1 1 0 1 0 0 2 0 2 2 1 2 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 3 0 0 1 3 1 2 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 1 1 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 1 0 2 0 1 0 0 2 2 0 3 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 1 0 1 1 0 0 0 1 1 0 1 0 1 0 0 0 0 2 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 2 0 2 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 1 0 2 1 0 1 1 1 1 0 0 0 0 0 1 0 0 1 0 1 1 1 1 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 3 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 2 2 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 2 2 1 1 1 1 0 1 0 0 0 0 0 0 0 2 1 0 2 1 0 1 3 2 0 2 0 0 0 2 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 0 0 0 2 0 3 1 1 1 0 1 0 1 0 0 1 0 0 0 2 1 0 0 0 1 0 0 0 0 0 1 0 2 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 2 0 0 0 0 2 1 0 0 0 0 0 0 0 0 2 0 0 0 1 1 1 2 0 0 0 0 0 2 0 1 1 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 1 2 0 2 1 0 1 0 0 0 0 0 0 0 0 2 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 2 3 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 2 0 1 1 1 1 0 1 1 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 0 0 1 1 0 0 0 1 0 1 1 0 1 1 0 0 1 1 1 2 0 1 2 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 2 0 1 0 0 0 1 0 1 0 1 0 1 0 1 0 1 0 0 1 0 2 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 2 0 1 1 0 0 0 1 1 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 1 1 2 0 0 0 0 2 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 3 1 2 1 0 0 0 0 0 0 1 2 0 0 0 0 1 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 2 0 1 0 2 1 0 0 0 2 0 0 1 0 0 0 0 1 0 2 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 3 0 0 0 2 0 0 0 0 0 1 1 1 2 2 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 1 0 0 2 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 1 0 1 0 2 1 1 0 0 1 1 1 0 0 0 1 0 1 1 0 0 0 2 0 3 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 1 2 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 1 1 1 2 0 0 0 1 1 0 2 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 2 1 0 0 1 0 0 1 2 1 0 0 0 1 1 1 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 3 0 2 0 0 2 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 1 1 2 0 1 0 0 0 1 1 0 0 1 0 0 0 3 3 0 1 0 0 1 1 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 2 1 1 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 1 2 0 2 1 0 0 0 1 1 1 0 0 1 2 0 0 1 0 0 0 0 1 1 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 2 0 0 0 1 3 1 0 1 1 0 0 0 1 0 1 1 2 0 2 2 1 1 0 0 0 1 0 1 0 0 0 0 1 1 2 2 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 4 1 0 0 1 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 3 0 1 0 0 0 1 1 1 1 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 3 1 0 1 3 0 1 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 1 0 4 2 0 0 0 1 1 0 0 1 0 2 0 0 1 0 0 0 1 0 0 0 0 0 2 2 1 0 1 1 2 0 0 1 1 1 1 0 1 1 0 0 1 0 0 1 0 2 0 1 1 0 0 0 0 0 0 2 1 0 0 1 1 0 0 0 0 0 1 1 0 0 0 2 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 2 0 1 2 2 0 2 0 3 1 1 0 0 0 1 1 1 2 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 2 0 1 0 0 0 0 0 1 0 0 3 0 1 0 0 1 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 3 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 1 1 2 0 0 0 0 1 2 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 1 0 1 0 1 2 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 3 0 0 0 1 0 1 0 1 2 0 1 1 0 0 0 0 0 0 2 0 0 1 1 1 0 0 0 2 2 0 2 0 0 0 0 0 0 0 2 0 1 1 0 2 1 1 0 1 0 0 0 0 0 1 0 2 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 2 1 0 0 1 2 1 0 0 0 0 1 0 0 0 1 0 1 0 1 1 2 2 0 0 0 0 2 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 2 0 1 1 0 1 1 0 1 2 2 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 2 0 0 2 0 0 0 0 0 0 0 3 1 3 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 1 0 0 2 0 0 1 0 0 0 0 1 1 0 1 0 2 1 0 1 0 0 0 0 0 1 0 1 0 0 0 2 1 0 0 2 0 0 0 0 1 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 1 0 1 1 0 0 0 1 0 2 0 3 1 1 1 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 1 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 2 0 0 1 1 1 1 0 0 0 0 1 0 1 1 1 0 1 1 1 0 2 0 1 0 1 1 0 0 1 0 0 0 0 1 0 0 2 1 1 0 2 1 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 2 1 0 0 0 0 2 1 1 1 1 0 2 0 0 1 1 2 2 2 0 0 0 1 1 1 0 0 0 0 1 3 1 0 2 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 2 1 1 0 0 1 1 0 2 1 1 1 0 2 1 1 0 0 1 0 1 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 1 0 3 1 1 1 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 2 0 0 3 0 1 0 0 1 0 1 0 1 0 0 0 1 1 0 1 1 0 1 0 1 1 1 0 0 1 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 2 1 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 3 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 2 0 0 0 0 1 0 2 2 0 0 1 0 1 2 0 0 0 0 0 0 1 0 0 0 0 0 2 2 0 0 0 1 0 2 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 1 1 1 1 1 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 3 0 1 0 2 0 2 1 0 0 0 0 1 1 1 0 1 1 0 0 0 1 1 1 0 1 0 2 0 0 1 1 1 2 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 2 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 3 0 1 0 0 1 1 0 3 1 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 1 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 1 3 0 1 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 3 0 0 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 2 0 0 1 0 0 1 0 0 3 0 0 0 0 0 0 0 1 2 1 1 2 0 1 2 0 0 3 0 0 0 0 1 2 0 1 0 1 0 0 1 2 1 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 1 2 0 0 2 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 2 0 1 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 2 1 1 1 0 1 0 1 1 1 0 1 0 1 1 0 1 2 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 1 1 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 2 0 1 1 1 0 2 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 0 2 1 0 1 0 2 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 1 1 0 1 2 0 0 0 0 0 0 0 1 0 0 1 2 2 0 0 1 0 1 1 1 0 0 0 0 0 0 1 0 2 0 0 0 2 0 1 1 3 1 0 2 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 2 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 0 2 0 0 1 0 1 0 1 0 1 2 1 0 0 0 1 0 1 0 1 1 1 0 0 1 0 1 1 2 1 1 0 0 1 0 0 0 0 1 3 0 0 1 1 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 1 1 1 0 1 0 0 1 0 2 1 2 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 3 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 3 4 0 0 2 0 1 1 0 0 0 0 4 0 0 1 0 1 1 0 0 0 0 0 2 0 0 0 1 1 1 1 2 1 1 2 0 0 2 1 1 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 1 0 1 0 1 0 1 1 2 0 0 1 0 0 0 0 0 0 0 3 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 3 1 0 1 3 0 2</t>
+  </si>
+  <si>
+    <t>GAM(18.033656416614786, -58.524992553926594, 8.80280111825148)</t>
+  </si>
+  <si>
+    <t>81 85 110 119 79 56 135 100 58 68 216 28 114 87 138 168 120 193 93 61 178 139 76 114 40 131 63 73 102 146 82 42 93 227 27 83 107 70 123 51 98 102 65 84 71 68 96 96 120 81 138 94 45 124 140 121 105 94 103 55 88 125 150 142 28 92 86 102 137 80 69 57 79 94 93 131 45 101 73 85 138 85 25 34 218 104 124 85 78 159 117 132 72 108 89 74 87 70 136 87 130 101 158 112 91 82 98 81 106 124 119 138 117 122 91 91 45 65 111 131 32 73 102 124 60 88 81 121 87 80 114 127 42 92 91 80 98 155 120 74 89 71 119 155 78 130 146 137 128 115 159 47 97 110 83 121 119 123 70 155 55 96 110 66 82 87 83 100 89 142 152 62 56 129 125 64 98 105 107 137 78 101 157 35 137 121 155 111 157 103 86 73 137 156 90 130 177 139 156 186 74 75 57 90 90 85 79 93 59 99 52 66 71 140 168 75 123 113 68 137 107 135 28 74 195 122 106 128 70 89 87 120 110 93 53 61 128 91 94 63 69 83 107 70 91 112 109 64 92 108 146 35 45 84 87 132 69 116 49 103 102 124 62 79 49 132 158 131 91 90 126 138 117 115 53 73 116 86 209 189 128 45 114 73 24 37 145 125 117 94 142 124 181 127 86 68 97 68 194 89 82 92 93 151 60 71 130 68 169 165 160 103 177 76 79 104 140 106 101 115 112 64 158 87 61 98 127 117 190 27 193 111 94 63 107 57 82 115 142 81 167 94 88 18 122 42 109 89 82 31 100 147 131 48 198 135 87 109 126 134 82 145 51 71 189 128 80 140 154 138 42 72 211 128 97 73 58 111 150 109 70 98 87 180 57 87 79 79 75 77 81 85 47 75 124 64 126 74 136 125 100 94 20 66 165 93 43 95 139 113 159 102 76 89 48 12 71 63 74 87 81 118 118 94 197 124 78 97 125 75 131 102 112 57 112 95 124 180 125 103 31 71 152 90 163 62 106 89 119 45 31 105 56 114 126 78 94 93 123 89 43 71 121 121 28 89 145 114 98 96 96 118 92 103 153 100 70 77 40 81 41 86 65 43 70 158 103 105 68 124 73 70 155 87 118 143 111 148 28 95 124 77 58 121 88 96 67 71 30 144 95 185 148 171 161 72 209 105 115 90 138 156 91 125 73 192 65 60 140 119 114 115 83 56 89 65 83 75 148 143 43 70 99 146 161 75 73 110 145 122 147 52 91 44 175 77 124 77 53 158 121 109 65 102 121 114 139 69 120 145 69 139 59 73 153 71 95 77 97 140 66 94 115 129 74 94 61 133 162 134 103 132 131 176 29 123 82 64 54 103 161 118 127 75 176 82 74 54 71 140 117 75 113 108 126 130 99 126 104 43 74 109 186 98 72 73 87 89 151 92 92 80 159 98 43 111 43 66 98 89 61 63 95 77 104 87 145 82 200 158 97 62 61 126 74 153 81 107 37 76 125 38 80 47 129 115 67 119 132 102 146 169 85 139 157 17 46 79 30 120 97 84 103 94 117 79 141 76 94 91 105 77 153 152 108 77 70 133 84 139 77 47 98 161 66 29 90 131 98 87 108 78 148 42 87 75 92 67 79 99 127 76 85 91 134 72 34 92 137 74 127 101 66 77 76 136 125 82 64 55 115 91 25 97 107 116 84 142 95 131 186 108 97 82 157 80 62 80 77 97 102 99 99 92 94 87 83 145 145 81 100 172 134 67 87 88 71 63 43 158 117 60 87 49 75 118 162 86 183 91 61 143 83 87 66 43 94 82 65 104 95 75 78 116 142 70 122 104 149 130 147 146 102 138 40 53 190 64 79 53 41 77 134 61 143 70 106 71 98 35 130 154 91 170 75 117 57 113 137 86 73 110 99 99 116 65 97 91 85 111 110 104 82 82 93 87 158 95 70 81 144 112 95 114 25 120 180 116 102 106 71 102 90 116 79 122 145 82 69 80 68 88 105 84 96 56 109 59 42 48 155 108 140 76 139 83 90 91 32 47 35 120 140 120 86 111 82 164 114 147 128 62 90 60 50 116 111 79 88 119 137 92 60 89 47 56 105 112 77 111 84 48 72 144 94 84 95 98 141 123 94 65 108 116 83 103 102 102 102 142 60 123 152 64 88 79 88 77 101 64 86 159 75 84 74 118 103 98 177 87 105 132 173 123 63 71 104 49 105 40 83 64 118 39 90 69 148 38 170 67 94 82 94 32 65 71 104 98 55 62 246 104 155 77 116 68 64 152 135 132 109 88 107 89 152 42 96 115 62 33 127 158 98 127 70 163 125 90 102 73 62 85 200 76 78 70 125 63 47 114 79 107 104 87 60 84 112 111 157 62 128 59 144 133 70 157 142 130 171 91 155 107 48 120 143 42 97 85 114 165 112 85 77 65 78 101 162 100 89 153 67 121 175 131 64 99 118 149 62 96 79 62 123 125 37 94 59 132 80 104 108 116 101 110 76 154 106 131 154 115 101 82 202 90 148 91 132 92 101 113 97 33 91 94 76 80 95 49 115 82 186 104 143 100 132 113 126 170 68 92 195 109 80 151 44 113 90 50 27 84 142 51 142 75 92 115 103 141 94 47 115 103 101 54 85 74 96 103 110 59 132 53 23 82 100 119 119 49 98 86 96 76 152 62 93 9 50 155 136 108 131 81 101 83 101 97 94 138 59 113 167 109 162 84 65 175 191 106 114 90 115 75 123 80 82 76 96 148 41 65 110 75 95 128 194 97 192 78 87 107 78 117 102 88 117 142 130 84 108 121 58 79 85 80 169 109 169 93 135 68 149 109 170 137 145 99 63 117 146 186 161 172 91 96 111 67 153 36 94 166 27 150 90 152 157 107 109 65 97 162 117 170 60 80 86 55 94 84 121 154 170 112 87 95 134 39 69 103 88 48 162 69 58 180 50 84 95 216 149 52 111 52 114 95 111 115 136 165 145 64 99 99 135 81 143 119 58 107 178 94 55 81 66 106 89 201 88 87 113 73 126 92 52 36 93 131 130 66 78 98 156 123 153 87 49 159 109 119 98 109 80 84 104 112 40 133 70 30 81 89 147 49 111 89 120 65 113 77 92 92 62 140 84 118 86 130 102 75 54 204 119 45 122 132 62 91 54 126 123 73 65 43 126 77 39 119 77 95 80 84 111 134 115 111 96 112 95 144 72 91 104 100 32 126 75 93 85 180 93 76 96 137 36 88 136 125 98 129 98 148 129 106 163 82 140 101 163 110 118 53 111 37 130 118 97 132 158 96 81 31 132 96 74 184 122 107 130 49 132 82 94 69 163 76 20 54 34 68 68 104 50 154 71 108 103 119 127 83 20 102 50 79 119 101 20 141 68 125 89 70 109 96 103 102 75 107 152 123 183 84 70 73 134 50 112 49 91 40 139 88 74 145 133 103 86 92 111 95 115 141 95 151 83 78 127 50 61 81 169 95 103 150 130 71 130 112 138 89 86 120 151 125 156 107 74 68 90 134 165 96 76 135 168 63 122 94 39 73 67 47 195 95 66 40 103 60 42 146 103 26 163 120 56 194 116 86 126 81 124 96 83 160 60 122 141 136 172 128 118 52 134 82 140 129 154 56 89 104 94 89 218 82 77 103 113 126 46 46 89 108 42 130 78 65 103 130 82 72 265 114 137 126 125 72 70 87 91 72 132 68 71 73 141 70 56 25 140 121 88 177 129 81 164 141 173 116 136 99 48 72 65 131 90 103 124 102 119 111 30 122 116 116 56 99 120 46 128 106 156 82 116 96 120 67 138 137 123 156 138 94 47 148 70 83 66 96 125 183 103 147 75 131 138 152 105 67 120 131 100 157 112 147 48 118 52 119 92 95 78 179 58 112 106 69 47 86 81 103 83 73 106 73 119 90 34 107 63 123 143 21 124 163 62 93 102 80 129 154 54 57 103 90 104 61 116 113 104 161 151 131 100 111 90 75 118 74 134 48 89 63 123 112 86 77 88 172 74 71 149 114 193 109 88 193 101 120 69 96 98 62 191 114 90 67 94 120 89 58 99 54 93 113 101 83 27 69 77 81 65 125 81 49 133 83 92 120 51 88 56 92 74 169 235 67 96 36 199 153 61 119 58 103 84 67 96 98 86 120 126 133 172 131 92 96 110 90 80 59 125 100 66 58 74 29 138 136 73 35 81 121 72 78 108 102 161 103 26 144 87 102 86 112 77 101 171 91 88 119 114 105 110 73 89 55 89 123 93 81 109 83 103 91 110 65 76 43 52 46 104 76 99 71 57 129 62 99 142 83 159 77 93 149 126 102 61 115 82 139 103 76 86 186 67 88 90 189 150 123 118 96 66 72 157 169 100 110 73 153 82 88 144 162 89 48 88 153 41 101 90 116 115 145 35 167 42 161 63 33 77 103 88 144 98 85 180 74 106 101 75 53 121 84 81 172 92 97 93 55 124 73 70 124 109 64 104 137 94 74 90 117 112 89 45 107 109 101 143 90 112 88 63 98 139 73 98 121 68 130 78 206 162 44 129 139 79 135 107 122 142 56 165 121 17 57 72 120 89 95 91 64 88 103 94 111 110 122 89 172 146 75 40 75 173 70 122 84 94 92 24 60 95 147 86 106 68 54 65 82 81 48 64 169 95 122 136 119 97 52 74 50 90 117 130 51 194 143 138 132 124 81 108 145 105 129 63 96 66 169 71 119 118 94 110 79 79 30 83 106 63 133 67 128 132 126 86 77 85 106 88 94 71 118 117 138 118 112 83 76 157 197 106 72 64 89 70 95 106 63 77 131 141 73 48 107 60 99 68 124 122 142 104 125 61 122 123 89 72 53 56 136 74 34 56 67 94 120 126 67 126 48 120 110 156 98 127 21 88 64 172 118 96 151 59 134 79 103 93 147 74 146 65 115 173 112 109 101 81 95 70 80 100 60 104 82 130 123 24 227 60 94 115 143 134 69 95 56 122 113 149 67 142 51 49 114 132 61 99 70 56 109 168 105 43 90 90 108 155 136 86 83 131 102 107 100 161 128 57 42 39 108 54 76 5 91 125 96 125 90 142 105 89 116 41 122 29 108 72 87 98 151 27 76 123 90 113 59 127 53 116 67 117 123 75 132 30 82 169 176 130 94 68 102 143 106 151 102 79 123 35 41 120 110 64 140 92 142 79 154 117 103 66 123 66 53 95 51 82 105 60 143 184 143 93 91 65 67 87 90 83 62 177 48 110 183 90 56 158 111 98 74 115 51 109 110 143 137 186 182 112 108 98 55 108 83 55 52 95 132 109 48 162 163 77 73 93 83 167 106 128 47 150 100 61 82 124 145 37 134 133 84 88 89 102 128 154 80 56 80 114 87 185 70 95 131 112 108 130 94 126 159 86 149 85 89 54 206 116 134 126 64 93 75 90 28 76 173 53 140 118 123 110 61 138 102 77 92 46 87 36 64 91 162 39 70 86 81 49 84 102 92 138 137 92 125 70 95 50 109 102 125 79 157 66 122 90 90 86 69 81 110 145 113 76 83 119 110 43 126 78 52 14 153 70 73 115 107 121 77 65 24 102 68 97 133 83 81 68 63 111 74 93 109 63 117 169 106 114 91 80 126 109 104 99 96 105 66 50 65 61 95 101 59 89 112 125 88 43 60 103 70 87 103 117 117 106 49 78 108 122 94 62 73 96 97 117 49 101 95 137 140 27 92 166 95 181 166 88 80 126 82 119 103 157 160 75 104 71 58 128 82 94 93 149 90 135 46 141 40 43 119 67 56 52 103 53 51 180 105 141 87 135 113 148 80 61 117 143 175 75 59 82 91 87 154 110 74 113 63 102 111 115 17 48 119 53 62 75 77 55 133 73 110 101 85 111 96 80 125 56 65 146 124 121 41 92 91 103 51 78 58 53 61 141 65 80 113 97 102 44 80 78 48 127 116 132 40 81 123 106 124 59 64 70 143 108 93 76 63 62 91 115 34 86 112 74 96 78 124 82 64 74 44 168 151 145 73 68 55 72 173 162 117 97 112 224 85 108 143 145 134 141 146 114 80 64 117 108 31 123 76 92 133 115 86 73 101 61 73 64 101 63 75 63 60 63 78 106 72 72 64 69 61 87 60 106 151 185 186 174 89 67 106 96 174 71 94 158 113 92 133 70 49 96 55 87 51 83 107 50 104 85 182 91 115 37 111 51 82 64 64 50 125 156 150 104 87 63 124 37 87 89 112 102 43 93 46 76 72 157 164 94 150 58 165 35 71 101 135 127 53 78 71 62 125 80 111 89 92 117 52 118 76 137 96 126 112 134 25 88 130 101 112 114 79 51 145 80 92 190 128 122 119 109 148 125 79 58 80 130 167 154 100 153 43 65 54 91 88 153 112 98 63 129 91 63 102 62 102 117 92 145 123 84 85 115 100 75 122 109 87 92 37 119 120 117 116 126 44 68 71 179 139 78 113 111 208 31 75 94 84 137 119 73 235 109 76 165 186 99 127 115 67 109 154 64 195 87 275 190 110 100 75 129 58 73 75 125 124 42 126 178 111 104 173 67 178 100 71 65 165 99 155 143 91 108 131 68 120 50 81 116 109 107 44 143 99 96 161 97 94 47 112 54 176 111 59 114 125 162 70 43 60 113 93 131 77 143 87 118 65 83 133 84 120 144 91 100 113 214 103 56 88 108 152 96 94 72 87 86 130 97 53 140 79 101 152 137 110 150 84 72 169 104 149 49 94 159 157 199 153 145 152 119 115 120 175 146 100 155 140 94 92 103 101 110 73 90 125 155 67 203 134 74 64 119 78 185 152 67 154 178 47 93 140 120 88 53 90 90 105 153 73 88 109 112 157 85 59 111 18 199 51 59 101 28 61 275 94 153 91 73 124 68 103 53 48 47 66 92 102 132 148 89 97 127 105 80 152 98 79 66 140 91 145 76 105 132 80 70 98 112 164 111 129 145 137 111 61 111 97 116 77 79 54 104 58 78 132 91 61 219 105 92 127 44 96 66 88 58 108 164 122 99 119 62 193 75 132 91 172 65 172 204 122 107 51 170 52 90 73 86 74 116 115 69 59 108 84 162 118 65 86 73 42 56 68 166 39 82 82 131 192 107 121 71 105 102 83 56 84 82 58 80 55 58 130 53 122 58 39 57 46 139 115 86 130 61 128 117 17 106 133 88 125 121 122 172 90 88 133 115 85 136 68 150 72 33 79 78 80 104 69 154 58 160 100 142 128 91 108 161 53 99 88 73 115 152 143 65 109 111 88 117 96 118 108 48 80 44 108 125 136 113 59 45 96 45 53 159 57 92 107 90 96 51 121 122 132 27 90 68 76 79 111 20 124 160 41 98 114 137 72 139 72 62 147 166 36 77 84 126 133 31 32 66 127 132 183 34 146 54 177 86 63 128 78 104 90 157 136 69 75 110 132 134 120 70 37 174 73 120 133 89 81 69 126 160 113 70 111 16 182 50 103 87 104 129 39 98 120 145 88 66 103 100 25 110 93 116 99 104 50 41 35 78 151 56 73 79 93 67 167 113 101 118 17 100 38 53 84 137 150 118 263 40 42 79 121 131 58 67 115 63 50 137 125 117 122 93 145 72 91 95 135 78 33 113 117 146 109 83 73 36 91 109 121 117 114 171 59 193 61 58 181 79 120 66 105 83 130 61 36 62 123 95 74 122 87 95 120 48 176 135 126 72 119 102 68 70 76 90 120 182 46 78 111 183 68 88 86 207 164 109 104 58 125 121 91 152 181 113 124 55 46 81 84 126 147 130 34 76 197 107 49 51 126 68 89 72 156 59 74 120 31 127 81 141 111 94 115 128 65 52 116 126 86 49 110 84 117 91 92 136 88 116 74 55 116 95 125 131 71 136 147 150 27 133 121 156 134 76 54 64 158 103 126 112 65 112 163 98 141 148 92 95 74 62 111 58 106 112 149 88 173 84 125 80 53 157 147 130 149 105 86 67 107 143 143 118 63 142 117 54 48 76 162 158 54 67 128 97 132 109 108 72 76 50 61 99 105 118 66 139 146 50 151 58 126 130 75 119 114 126 167 107 83 93 151 93 118 98 74 121 50 99 75 59 83 70 150 196 102 102 109 121 101 118 106 91 188 181 80 155 117 113 55 132 101 103 142 102 142 76 61 89 87 80 55 168 53 114 82 132 123 101 33 145 81 88 84 113 123 171 69 54 110 141 120 73 98 76 106 99 135 89 60 161 126 108 76 76 134 39 99 50 113 87 91 79 64 127 130 102 166 138 114 104 64 73 85 92 191 113 91 63 79 162 82 92 139 135 71 102 69 51 163 52 78 98 51 75 79 221 61 85 75 48 178 84 49 90 56 183 238 76 142 91 126 99 109 101 129 129 164 97 105 123 49 44 119 129 96 123 74 33 121 139 116 64 105 73 58 49 71 63 81 124 153 110 128 105 108 115 139 82 131 88 67 56 185 66 70 80 71 94 20 69 154 85 98 90 104 124 142 59 78 52 157 34 107 113 72 79 125 74 166 67 58 168 116 133 69 68 76 136 96 123 82 92 93 81 22 101 112 34 77 116 67 19 54 96 104 121 103 189 65 62 93 62 132 85 109 124 69 149 39 79 152 135 69 144 80 74 99 100 71 59 121 165 125 118 99 42 71 117 62 93 74 91 92 138 147 89 118 65 128 61 68 59 111 79 89 163 101 72 114 95 147 73 80 42 70 48 96 89 95 82 95 77 117 77 165 73 46 95 98 116 50 119 110 135 53 80 134 100 77 112 134 142 124 65 84 145 36 89 50 113 61 138 110 128 142 80 120 122 80 87 115 117 52 133 52 134 62 100 54 140 133 117 128 72 180 122 86 183 94 128 130 107 75 190 137 86 110 108 128 81 62 85 81 67 52 118 69 83 114 81 156 50 124 212 100 52 89 87 96 114 76 111 86 117 128 116 97 87 91 76 113 97 145 116 126 92 90 65 84 134 28 131 65 84 93 81 82 45 41 198 131 143 97 110 121 19 143 55 129 68 97 130 148 97 150 99 167 165 115 133 80 98 103 41 149 79 103 78 115 155 118 146 88 67 33 20 166 112 138 95 43 13 94 64 101 55 137 57 85 92 130 35 95 163 104 82 170 134 76 209 61 102 112 90 98 120 120 141 74 71 81 50 52 127 85 115 20 80 112 85 93 119 106 65 36 49 38 69 113 72 115 102 103 129 52 88 132 117 100 99 117 65 149 82 106 79 118 42 117 84 67 157 151 125 86 68 67 124 153 80 101 66 134 86 26 165 149 109 143 112 75 61 111 137 136 92 110 78 54 107 143 96 134 99 83 195 70 92 79 73 85 152 160 82 129 128 50 50 39 59 132 91 59 81 147 59 118 153 190 111 86 66 99 89 80 114 131 137 31 94 103 55 45 40 60 94 190 38 158 91 23 69 137 52 85 92 42 97 57 106 132 79 51 110 119 138 82 119 97 83 105 101 86 96 229 79 68 124 110 195 82 95 108 45 135 124 75 123 74 56 143 130 89 75 127 51 108 65 101 48 35 92 56 97 84 31 115 90 80 60 160 177 82 150 108 34 125 110 114 64 86 61 79 136 111 71 88 95 138 46 117 171 118 138 138 65 98 125 119 95 128 115 175 112 140 63 108 98 83 87 135 91 40 84 59 70 55 87 80 52 139 64 114 86 111 116 148 81 106 92 69 102 129 115 50 96 67 48 124 101 68 145 102 71 111 138 107 59 70 207 87 68 159 124 64 157 49 143 73 97 112 106 140 73 84 84 100 66 117 52 94 85 79 117 99 126 48 121 122 84 108 116 84 32 135 97 111 52 82 83 126 92 73 57 81 132 79 86 199 127 62 103 243 184 204 157 137 113 56 126 41 113 172 104 64 56 63 234 83 58 113 127 113 131 208 97 73 120 74 44 154 183 121 51 68 128 48 77 74 38 152 111 112 58 78 98 94 66 108 97 58 107 106 129 43 68 52 93 161 97 60 77 66 143 104 79 124 60 137 115 96 56 165 163 117 56 158 190 135 114 122 105 144 111 136 85 61 102 63 103 81 134 106 113 112 107 49 44 153 1 164 57 153 62 44 69 106 168 89 134 88 225 121 177 73 94 60 143 106 68 144 95 60 69 40 66 129 41 138 165 106 85 88 63 123 83 75 112 89 167 131 89 131 51 90 64 89 195 195 58 151 75 82 55 92 78 43 111 85 203 144 113 106 81 154 115 102 71 132 76 104 88 147 102 49 135 84 62 137 87 56 76 69 58 31 68 47 112 85 61 74 114 125 144 146 97 65 67 43 74 90 99 77 129 157 137 41 122 109 47 46 102 42 76 130 190 152 135 113 47 119 106 137 84 137 105 61 104 194 97 102 55 100 104 107 60 85 57 209 106 135 114 166 68 205 118 79 57 97 89 63 62 109 55 104 50 56 148 113 115 124 97 140 29 99 100 102 49 55 112 69 7 88 97 36 151 100 117 70 156 121 145 81 207 93 147 101 73 67 144 126 118 123 192 93 139 108 83 114 125 178 22 177 158 111 55 180 61 142 67 39 65 169 62 64 98 93 106 107 170 93 73 113 103 56 80 41 88 82 125 48 68 65 140 101 71 93 85 78 112 96 118 78 76 148 88 61 88 147 72 106 23 127 81 112 92 85 135 168 197 100 104 55 47 97 185 86 53 30 42 90 39 50 92 118 72 77 115 155 50 59 62 121 92 48 124 104 34 83 108 113 54 99 172 111 73 105 51 102 108 125 74 123 107 174 85 126 79 115 48 83 32 127 126 60 80 123 83 107 40 103 117 101 160 101 55 131 119 95 49 90 69 73 61 127 81 171 132 50 20 48 49 93 199 46 133 120 65 129 51 51 103 72 118 107 66 79 97 36 116 56 155 188 53 118 96 127 175 144 89 107 39 85 148 137 30 124 102 71 154 121 161 82 77 120 141 80 73 44 85 105 143 103 80 118 29 100 76 100 86 94 103 141 211 101 156 148 66 88 88 35 53 148 82 210 110 45 109 71 89 130 104 80 82 105 101 47 36 72 108 61 33 117 110 89 113 77 93 73 139 116 149 83 160 75 60 89 212 77 129 83 64 139 58 118 109 173 118 59 49 125 58 94 65 150 134 95 115 124 143 83 100 75 172 110 159 150 72 96 34 161 127 129 21 37 83 86 89 95 133 46 36 158 120 125 109 154 58 32 98 97 107 89 113 136 99 35 54 101 51 82 87 96 168 103 68 106 107 106 69 150 95 82 109 190 152 108 78 131 110 110 107 101 56 112 79 144 72 95 131 116 104 23 111 150 47 107 107 69 98 115 81 117 131 118 105 97 142 69 152 83 110 107 135 137 92 113 131 60 174 169 134 76 43 72 63 90 43 92 58 57 123 121 105 34 115 77 127 94 116 94 29 73 122 113 113 141 175 88 170 92 86 146 89 31 108 104 133 112 115 136 40 117 144 50 78 129 48 111 126 102 82 116 80 82 72 90 57 127 74 114 56 118 116 100 129 105 131 92 77 136 70 125 83 39 69 17 71 90 64 86 135 68 28 58 49 154 105 55 148 93 114 94 83 97 55 127 82 112 96 105 123 101 61 111 128 69 76 94 148 32 76 99 47 61 90 137 41 142 69 154 77 110 193 63 110 64 169 128 82 68 68 196 125 78 99 27 128 101 46 109 99 119 135 57 120 105 66 102 85 79 178 49 82 75 35 178 53 56 119 155 54 87 45 114 73 81 78 129 85 113 92 74 61 60 75 102 125 80 38 72 113 61 83 207 81 98 65 83 115 77 50 96 22 53 51 99 34 97 72 61 106 137 17 72 180 130 176 110 91 64 104 94 80 57 71 181 128 38 113 84 162 101 48 53 135 134 101 130 122 54 93 89 98 109 90 88 92 141 152 57 90 91 135 118 62 87 60 170 65 120 91 113 91 93 101 104 133 122 109 85 125 140 104 90 76 58 94 108 88 99 146 111 61 95 79 86 135 96 198 27 112 210 65 107 76 97 166 78 79 112 127 151 144 137 84 74 163 131 98 117 88 157 145 79 83 91 65 98 107 117 116 115 107 17 131 113 87 97 127 51 119 82 95 131 64 139 95 107 133 130 163 165 185 125 62 61 151 141 92 116 122 166 133 80 132 134 97 88 134 101 36 37 87 68 107 110 100 135 109 96 121 113 118 76 117 50 165 45 131 90 64 48 76 103 162 113 81 69 39 95 92 87 72 136 119 72 45 112 149 100 89 61 73 107 113 111 92 184 117 141 81 107 87 68 80 73 112 74 157 62 90 108 72 127 69 89 70 94 175 94 161 100 53 93 85 88 217 49 111 97 159 51 115 79 130 28 117 70 192 150 83 106 102 119 174 222 93 93 83 62 84 112 125 120 65 45 33 66 197 84 132 50 74 50 221 106 79 109 127 101 82 108 112 71 107 39 50 56 105 54 37 89 156 92 73 50 118 116 56 163 160 65 71 131 115 73 122 99 72 74 107 83 150 60 89 191 88 108 106 27 119 149 101 42 107 107 55 87 78 35 162 55 34 92 147 99 145 163 83 69 89 129 89 94 99 99 93 76 108 81 44 109 108 100 70 77 148 92 147 81 85 60 144 214 158 75 43 51 86 148 64 138 103 165 82 82 89 103 115 70 81 54 107 90 136 82 140 137 34 104 94 89 82 108 117 19 94 70 116 151 78 108 106 78 99 147 154 83 126 95 107 104 21 83 95 72 77 87 84 208 122 65 119 125 126 36 70 102 78 124 126 67 67 79 134 105 71 67 155 42 109 61 161 113 125 104 91 65 145 131 104 86 124 142 58 75 111 105 69 79 68 111 158 87 50 133 110 58 78 76 78 119 105 113 116 96 124 98 122 114 132 114 72 224 56 136 104 87 52 106 157 105 85 119 101 128 175 71 123 96 127 108 84 82 110 61 105 117 78 112 146 87 139 53 93 129 104 115 123 158 89 66 82 67 42 75 85 209 78 126 48 72 69 144 175 67 89 152 86 123 88 54 109 59 78 33 108 102 56 124 86 150 124 122 40 110 78 105 116 114 137 89 56 49 102 132 126 76 73 53 189 171 115 124 89 139 92 107 118 135 141 94 81 84 129 161 109 90 108 117 68 93 152 66 96 52 41 120 66 126 83 103 99 68 79 77 77 91 111 14 95 106 132 127 98 196 108 110 31 98 69 70 121 112 189 83 110 115 134 50 41 113 186 90 65 150 83 78 107 138 174 59 179 120 73 110 81 162 167 89 123 55 75 79 87 79 94 179 46 41 78 84 65 82 72 97 89 43 81 100 61 72 125 94 142 187 96 145 99 21 22 102 120 82 121 79 109 72 60 93 101 28 119 52 106 142 100 161 98 217 105 102 125 85 99 114 59 127 92 81 103 127 76 76 104 94 158 32 138 114 55 152 141 103 121 52 40 86 125 106 134 83 146 38 75 148 126 128 65 31 73 99 47 151 136 98 174 55 103 142 44 48 63 129 106 22 88 128 48 134 64 108 99 82 129 107 117 85 81 49 63 41 55 65 139 109 178 158 115 100 126 105 75 79 121 121 80 54 88 90 118 80 163 85 112 135 64 101 83 62 114 56 76 91 100 151 122 123 80 103 69 127 193 90 85 119 60 84 56 106 72 100 153 131 140 87 109 139 73 105 77 162 71 114 98 122 92 138 87 31 83 108 86 116 168 98 74 140 114 132 105 129 84 137 148 42 94 142 111 56 29 63 96 81 134 77 87 108 58 94 71 137 72 64 90 102 124 114 224 86 71 85 129 71 184 94 84 90 138 58 214 78 111 95 79 180 145 93 106 136 159 102 34 17 150 151 54 149 104 91 90 193 138 105 108 91 126 83 99 76 97 149 78 130 67 86 81 71 149 137 176 81 113 95 88 97 85 141 78 53 61 159 60 130 92 92 131 40 97 127 121 95 112 106 138 97 60 131 130 95 57 138 103 113 103 98 77 55 102 83 127 58 84 75 98 129 110 77 94 124 106 134 64 118 87 87 73 116 51 151 121 148 112 117 80 101 221 126 74 111 74 165 73 104 62 142 172 48 138 140 226 131 70 128 155 141 143 117 137 101 45 102 140 129 164 60 109 103 58 99 78 75 116 80 84 103 102 116 35 107 73 151 85 149 84 98 80 124 71 112 57 138 84 84 88 92 112 79 109 74 178 155 124 27 85 80 99 45 44 65 162 110 105 92 71 70 91 141 23 118 138 106 48 44 111 105 76 110 80 135 113 137 140 153 90 61 100 107 117 82 68 46 104 124 173 62 99 96 119 55 128 60 107 104 96 78 113 40 115 58 43 148 44 115 165 106 86 87 105 107 115 51 94 61 93 76 80 120 194 112 96 59 76 77 78 190 95 78 100 71 72 146 53 61 122 175 89 47 116 128 148 119 140 30 80 107 100 101 81 122 157 55 33 134 97 141 77 83 141 89 118 183 122 87 100 144 163 106 109 71 155 78 154 162 121 96 110 54 139 109 66 88 147 48 69 32 106 186 48 85 74 49 166 96 53 73 90 112 109 155 151 66 64 112 92 22 55 111 78 33 72 106 79 77 90 55 69 74 171 125 76 92 40 109 172 198 105 105 75 61 104 95 87 73 51 146 175 163 65 95 140 155 63 104 114 179 120 92 103 86 46 134 111 102 96 32 123 146 92 158 108 102 117 118 88 111 70 167 80 121 88 117 77 90 185 141 164 85 69 121 53 149 94 116 73 85 70 103 124 64 135 96 98 70 114 148 88 29 180 80 110 134 76 95 130 188 47 129 127 71 64 127 113 97 158 108 84 82 165 110 74 117 113 132 150 160 40 60 103 150 116 82 110 33 120 62 84 108 87 87 120 79 87 95 53 117 69 86 126 47 114 108 87 61 137 94 104 208 104 112 88 123 246 91 95 34 110 98 115 107 104 90 104 115 70 59 100 145 48 73 87 127 41 106 122 127 68 102 110 103 115 101 177 134 146 15 186 90 105 56 107 87 62 180 52 93 82 39 68 67 106 78 209 79 111 92 93 88 87 93 128 74 100 191 50 96 97 104 50 115 92 48 103 82 81 113 159 94 132 55 84 153 60 109 112 57 148 145 99 151 34 129 85 51 85 76 59 202 75 79 97 69 73 171 68 99 81 38 84 128 90 140 105 137 92 164 85 58 88 53 124 92 63 120 104 147 46 94 92 148 198 81 162 74 110 127 70 26 75 165 193 54 102 69 17 124 130 61 88 183 53 102 107 132 107 102 193 91 103 87 95 99 70 118 84 133 71 118 121 46 130 92 90 47 110 88 239 85 82 110 100 122 111 77 47 100 80 92 153 117 70 218 63 129 128 107 104 119 100 57 122 93 83 60 135 135 139 143 137 155 149 102 78 89 80 73 72 166 82 111 87 43 81 79 62 99 52 160 42 91 173 101 103 84 150 100 102 96 92 83 53 78 71 132 84 60 125 78 158 105 141 139 91 74 63 93 118 120 133 121 64 93 110 117 98 81 116 71 153 104 132 101 94 87 129 108 134 112 122 98 134 128 29 76 128 123 101 131 83 91 159 128 75 144 81 58 70 119 68 154 95 137 84 74 101 116 117 69 118 125 80 160 63 46 93 45 71 111 61 145 96 83 109 185 117 73 152 111 103 47 164 54 117 41 85 195 60 99 132 104 113 60 145 53 89 115 82 171 55 131 129 158 195 102 107 99 67 64 172 111 61 117 55 136 48 74 147 113 76 95 65 161 69 66 101 86 63 51 104 134 105 34 205 46 81 58 38 72 14 71 65 66 43 162 135 90 79 20 103 171 74 104 79 19 110 62 58 58 45 63 107 103 130 149 163 104 80 65 80 57 77 59 124 89 123 88 110 50 104 60 126 47 126 78 114 156 92 44 129 82 114 90 83 81 102 43 119 128 115 129 35 93 52 119 170 54 82 53 69 130 108 130 69 59 113 171 71 81 75 125 113 164 138 111 236 105 148 101 50 77 42 133 37 117 190 62 118 127 193 95 149 158 132 86 120 74 109 81 158 84 105 113 70 106 70 114 110 114 116 146 71 164 89 96 87 66 102 123 89 109 149 33 128 146 166 95 66 139 64 99 48 159 22 82 77 66 86 109 127 124 111 168 70 101 66 77 67 142 92 51 107 176 105 99 73 57 96 82 56 103 110 141 83 64 143 92 93 128 163 95 100 128 91 179 97 115 201 38 87 20 108 86 96 55 96 172 46 99 100 76 64 111 73 119 157 132 67 66 109 73 142 122 93 90 94 110 115 81 93 40 101 54 146 185 101 128 86 82 90 146 68 188 120 67 80 81 120 93 184 62 164 42 22 162 114 102 108 170 100 145 149 7 126 104 52 128 60 68 48 83 23 118 110 94 56 163 68 105 41 88 132 32 114 93 35 148 50 103 108 92 99 168 187 47 108 99 109 89 84 103 100 85 72 182 101 172 115 104 48 65 125 98 75 126 93 75 132 80 83 175 171 67 112 134 74 49 96 100 86 99 140 83 50 115 142 111 130 42 137 68 48 81 109 52 236 117 40 62 161 95 119 147 139 94 45 105 107 83 86 163 52 77 77 96 97 74 70 66 28 126 127 81 95 69 24 58 102 171 57 69 53 176 75 101 137 112 117 53 121 67 123 163 181 148 121 62 137 103 99 166 73 62 73 65 66 61 183 64 153 39 99 75 103 125 143 92 133 142 132 45 70 98 125 47 83 117 83 106 84 65 149 53 142 101 116 62 91 102 55 96 104 71 163 161 155 85 47 154 93 68 140 60 194 58 85 107 174 81 71 149 165 138 124 119 97 73 142 49 74 54 116 145 64 103 82 102 65 135 60 62 118 99 93 77 51 155 128 100 152 151 87 69 116 74 53 44 102 144 104 88 70 187 161 102 112 119 63 53 126 95 105 111 71 62 113 117 119 50 113 155 77 116 75 79 115 119 74 159 111 114 75 73 86 67 114 147 104 130 66 104 43 106 127 97 119 142 78 66 81 88 44 60 34 177 93 97 151 110 185 22 70 107 116 67 124 102 145 131 128 92 71 55 113 143 80 34 155 148 88 76 136 90 67 67 66 31 87 112 127 45 147 164 111 150 138 47 26 108 22 91 145 118 153 157 109 229 92 108 90 72 103 98 83 95 88 96 48 117 218 146 110 61 98 121 84 155 75 137 54 151 106 60 101 97 66 133 83 120 94 145 84 122 66 58 147 140 92 83 144 149 50 120 118 96 73 159 69 110 36 97 114 81 154 119 114 93 42 115 134 90 177 109 151 120 154 109 83 36 158 153 144 91 55 104 66 181 105 117 152 80 77 97 72 158 63 84 144 63 73 49 109 166 54 141 67 111 127 124 118 132 174 152 86 69 124 58 71 176 72 83 55 61 110 72 149 100 100 17 117 108 85 82 118 142 153 36 131 121 64 81 135 142 120 158 90 62 36 93 70 108 99 68 115 76 72 96 104 129 128 82 112 104 38 130 199 102 117 76 121 151 40 114 72 140 55 130 91 153 58 117 152 15 74 37 72 140 75 81 141 99 188 57 147 136 111 63 121 55 161 126 79 146 63 74 137 78 87 55 133 85 166 105 116 112 121 75 127 77 25 60 134 114 77 139 76 151 62 83 149 111 26 181 183 140 70 122 70 73 116 112 106 64 148 101 70 98 46 68 121 96 116 86 54 79 122 131 121 138 119 65 124 109 220 89 123 77 133 138 167 121 133 116 158 109 130 172 77 152 152 48 79 75 74 88 65 86 93 71 59 56 128 128 145 16 102 160 141 86 90 128 119 126 91 110 73 116 69 104 55 116 47 113 145 44 51 88 107 133 116 98 122 75 143 159 138 138 124 67 140 81 18 103 92 84 76 74 146 123 138 103 146 120 74 67 101 104 118 35 100 84 86 71 133 83 76 75 96 50 46 103 94 87 96 90 62 71 155 84 38 56 56 91 110 73 27 112 40 193 85 151 60 163 59 58 117 28 138 102 72 69 130 97 93 47 71 137 96 132 70 82 103 72 112 11 81 67 140 170 160 93 154 157 127 78 158 57 155 80 67 55 69 94 94 124 171 143 49 52 103 76 57 78 122 72 83 58 56 75 123 112 109 93 57 200 124 51 59 139 177 97 137 87 68 64 62 130 80 76 77 50 127 132 52 40 80 70 -2 125 95 95 149 69 126 42 84 37 76 150 109 81 49 138 74 88 140 133 71 118 90 58 49 172 69 40 168 93 124 106 78 67 78 88 146 48 137 117 71 80 54 105 90 65 129 109 93 162 33 50 85 99 79 158 34 95 92 116 80 99 111 146 108 81 103 66 110 48 124 51 113 69 126 106 84 100 90 103 85 88 92 164 122 114 72 78 79 71 112 74 145 177 184 133 75 89 153 99 76 55 112 75 60 95 73 53 108 138 173 141 57 68 206 53 69 102 106 152 93 59 83 97 106 107 100 71 132 49 34 167 95 95 64 104 101 68 76 60 132 97 68 47 89 115 34 134 87 48 123 73 67 109 75 93 81 128 131 71 67 126 43 93 92 45 94 119 111 135 111 70 115 89 21 147 110 53 91 103 21 109 100 139 44 89 35 159 46 52 62 77 142 107 57 44 109 96 123 119 91 80 86 84 62 54 34 112 108 77 67 132 123 63 64 26 101 229 134 87 135 145 144 151 45 81 87 61 87 50 56 69 100 78 97 82 105 158 84 59 97 59 156 112 72 151 105 72 80 84 117 42 125 98 113 90 64 107 121 113 128 144 95 108 174 148 123 157 108 159 117 77 107 132 35 68 97 95 9 136 83 138 58 94 119 155 25 115 107 109 59 94 96 61 98 61 83 20 118 103 65 74 62 104 138 88 114 66 133 180 72 143 98 76 89 91 91 99 176 41 73 108 58 90 141 90 111 85 161 102 53 85 90 117 83 115 60 73 78 118 93 102 108 234 116 97 94 57 74 57 73 84 58 114 149 158 92 79 96 103 84 100 124 189 98 97 77 80 159 51 104 92 93 96 110 128 128 135 71 70 105 126 153 111 72 43 139 134 53 73 146 104 92 116 101 100 144 31 152 78 115 155 107 100 216 92 140 112 127 141 65 63 91 55 46 94 67 101 99 102 90 40 124 139 149 88 66 91 159 97 116 98 102 110 174 104 53 44 83 57 109 33 137 79 71 83 16 82 14 111 86 104 108 55 115 81 164 89 154 99 41 67 59 73 80 131 91 140 114 107 25 72 119 56 89 111 62 88 105 99 121 98 90 116 120 59 105 70 133 110 100 126 85 89 71 171 131 155 155 106 136 108 79 35 66 158 108 181 97 99 92 82 96 139 105 102 74 77 153 93 65 177 122 81 158 107 70 65 102 109 142 83 109 86 73 137 94 27 56 156 65 70 39 75 120 112 63 84 68 144 81 68 150 78 57 77 127 86 68 155 93 110 108 135 95 60 173 98 104 72 85 66 182 62 51 108 88 88 89 40 216 66 132 54 83 69 122 94 107 134 88 102 115 195 163 104 200 92 97 91 61 101 87 131 58 62 62 77 75 99 155 132 130 93 92 66 113 191 107 129 173 229 128 83 115 134 106 108 51 82 30 137 89 99 116 107 158 176 191 83 154 85 38 80 90 50 63 66 111 137 160 117 60 56 72 75 136 73 97 98 70 63 109 108 121 78 176 77 116 149 80 111 112 117 45 92 108 194 204 227 162 135 100 139 103 92 69 123 102 59 130 121 55 93 94 161 62 94 125 113 56 94 56 99 71 121 128 94 44 186 108 138 60 135 136 126 85 40 125 115 85 144 73 112 95 92 122 82 71 101 141 90 140 57 57 79 141 182 80 89 83 110 91 57 74 72 136 116 106 54 88 86 146 50 90 119 93 74 89 152 110 120 84 99 167 138 112 124 92 69 185 85 125 56 70 66 88 112 77 86 93 117 83 113 131 93 107 85 76 157 81 72 42 171 57 143 174 156 129 93 88 72 117 139 154 53 64 56 150 75 123 123 92 66 92 148 88 141 170 89 17 130 90 45 123 171 129 44 87 114 137 74 71 81 76 103 112 92 69 93 52 101 90 147 112 84 107 65 186 168 63 96 79 158 130 103 62 72 66 100 64 71 65 113 145 111 124 66 98 114 36 97 41 81 131 166 123 20 64 176 111 121 122 90 121 138 91 88 82 45 54 116 87 166 98 139 130 56 58 151 122 198 65 34 153 78 65 127 143 51 99 98 136 70 126 154 95 132 124 133 96 80 91 84 108 119 107 107 84 133 120 82 78 146 145 71 82 106 65 57 116 84 110 152 109 68 76 76 89 138 83 77 106 75 129 73 73 107 65 145 232 131 100 54 149 81 71 196 108 148 86 83 101 149 114 127 118 123 55 94 124 98 90 130 87 89 190 55 119 126 94 62 86 71 107 77 69 186 85 124 90 65 71 81 73 64 99 71 51 116 107 33 137 129 83 27 101 79 90 110 114 81 66 94 62 153 69 61 105 75 64 95 214 195 111 179 82 56 106 124 130 128 120 131 118 56 147 42 70 150 121 88 89 58 160 28 136 83 114 162 124 106 38 135 130 87 79 99 102 83 81 135 80 34 108 73 57 56 79 83 72 54 68 81 92 67 82 115 84 133 132 98 72 85 131 102 104 146 99 150 131 127 101 133 57 99 106 119 148 157 19 152 105 53 121 107 71 137 68 81 88 112 110 77 79 72 57 78 100 78 45 16 73 161 115 80 91 76 105 59 116 95 92 86 63 72 135 94 133 156 122 41 75 99 106 120 81 125 80 108 72 131 120 50 108 105 166 90 92 58 70 61 97 65 153 126 83 108 79 106 159 106 135 45 104 159 120 103 42 122 47 87 31 104 136 136 22 96 118 149 159 75 137 64 124 93 168 110 36 84 155 92 83 160 126 51 97 98 94 128 66 107 126 80 120 33 91 96 161 159 58 134 111 88 193 85 171 77 108 37 79 93 142 79 86 94 120 78 104 120 94 17 55 89 114 76 84 76 112 160 83 128 84 97 54 164 128 95 87 68 52 162 125 129 134 162 94 68 127 74 69 118 161 132 191 112 111 140 116 113 141 132 149 83 61 71 98 106 44 70 122 65 115 132 134 45 122 83 70 16 86 135 55 46 62 44 116 106 32 91 52 53 38 122 80 141 120 68 61 87 90 73 59 171 112 50 88 55 85 141 119 69 163 129 10 118 88 71 56 73 153 101 132 108 92 90 112 127 42 105 125 134 73 60 94 77 111 134 101 78 83 1</t>
+  </si>
+  <si>
+    <t>GAM(0.2668947915976208, -1.3792966599103238e-27, 0.7672267476610984)</t>
+  </si>
+  <si>
+    <t>3 0 3 0 1 1 0 2 0 0 3 0 1 0 1 1 0 2 1 0 2 1 0 1 0 2 1 2 2 1 0 1 0 1 0 1 0 0 1 0 0 1 0 2 0 2 1 0 0 1 0 1 1 0 3 1 1 1 0 0 1 2 3 1 0 1 1 0 1 1 0 1 1 1 1 1 1 0 0 1 1 1 0 1 1 0 2 0 1 0 0 2 1 0 1 0 1 1 1 1 2 1 2 1 1 0 1 1 1 2 0 1 0 0 0 2 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 2 0 3 0 0 1 2 0 1 2 0 3 2 2 1 0 0 1 0 1 0 2 2 0 1 0 0 1 0 0 0 2 1 2 2 1 0 2 1 2 0 0 1 0 2 1 0 2 0 1 0 2 1 3 1 0 1 1 0 1 1 1 2 2 1 0 2 0 1 1 1 2 1 1 1 0 2 1 2 2 2 1 0 0 0 0 2 0 0 2 0 1 1 1 2 2 2 0 0 0 1 0 0 2 0 0 1 1 2 0 2 1 0 1 0 2 0 0 0 1 3 1 2 0 1 0 1 1 2 1 1 1 2 0 3 0 2 1 0 2 0 4 0 2 2 0 1 2 1 1 0 2 2 0 1 0 2 2 2 1 0 1 0 2 2 2 3 2 1 0 0 3 1 2 0 1 2 2 0 2 1 1 0 1 0 2 0 1 0 0 0 0 1 2 1 0 0 0 0 2 0 1 1 1 0 2 1 0 0 1 0 1 0 0 1 1 4 1 0 2 2 0 0 0 2 0 2 1 1 1 0 1 1 2 1 2 1 3 0 1 0 0 1 2 2 0 0 1 1 1 0 0 0 1 2 0 0 2 0 0 1 0 0 4 2 0 2 0 1 0 0 0 1 1 1 0 1 0 3 0 0 1 1 0 0 2 1 2 1 4 1 0 1 0 0 1 0 0 0 0 1 0 1 3 1 1 1 1 0 1 1 3 2 2 0 0 0 2 1 1 0 1 1 0 0 0 1 0 3 0 1 1 0 1 0 2 0 0 1 1 0 0 2 0 0 0 1 1 0 0 0 0 1 3 1 0 1 1 1 0 1 0 1 0 3 2 0 0 1 0 1 2 1 0 1 2 1 1 3 2 0 1 2 0 0 2 2 2 0 0 1 1 0 0 0 1 1 1 1 0 0 0 0 2 1 2 0 0 0 2 1 1 1 1 1 0 0 0 0 2 2 1 2 1 1 1 1 0 3 1 0 2 1 1 2 1 1 1 1 1 1 0 2 1 0 1 0 3 0 0 1 0 1 3 0 2 4 2 2 1 1 0 0 0 1 4 0 0 0 1 0 1 1 1 0 0 1 0 1 1 1 1 1 0 1 1 2 3 2 2 0 1 0 3 1 2 0 3 1 0 0 0 0 1 0 0 1 0 2 0 0 1 1 1 2 0 0 0 2 0 1 1 0 0 0 1 2 2 2 0 2 0 2 1 1 1 1 1 2 0 0 0 0 1 1 0 1 1 1 0 0 2 0 1 1 2 0 1 2 2 1 0 1 0 1 0 0 2 0 0 0 0 1 0 1 0 1 0 0 1 1 0 1 0 0 0 1 1 1 2 0 0 0 0 1 1 1 0 2 0 1 2 0 2 0 0 0 0 1 1 0 0 1 1 4 2 1 1 0 1 1 1 1 1 0 2 0 0 0 2 1 2 0 2 0 0 2 1 0 1 1 0 0 0 3 1 0 1 0 1 5 0 1 3 0 2 1 0 1 1 0 0 0 0 1 0 1 1 0 1 2 1 0 2 2 0 2 1 0 0 1 1 2 1 0 2 0 0 0 1 1 2 1 0 0 1 1 0 1 1 2 0 0 2 0 1 1 0 1 1 2 1 0 1 0 2 2 2 1 0 0 1 0 3 0 1 2 1 0 0 1 0 1 0 2 1 0 0 2 2 2 1 2 1 0 0 0 0 0 1 0 0 0 0 0 2 3 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 2 0 2 0 0 0 1 1 1 1 1 0 1 2 1 2 1 0 1 0 2 0 1 1 0 0 3 0 1 2 1 3 0 1 0 2 1 2 1 0 0 0 2 0 3 1 0 1 0 1 1 1 0 1 2 2 0 0 2 0 2 0 0 2 1 0 0 0 2 0 1 1 1 1 2 1 1 0 2 1 0 1 0 1 0 0 0 0 0 3 1 0 0 4 0 1 1 1 0 1 1 2 2 0 0 1 1 0 1 1 1 0 0 3 2 0 1 0 4 1 1 1 2 0 0 4 1 0 1 0 0 0 1 1 0 0 0 0 2 1 0 2 1 1 0 2 1 1 0 2 3 1 1 0 2 0 1 0 0 0 2 0 1 0 1 0 0 2 0 0 1 2 0 2 1 1 0 1 0 1 1 1 0 1 1 3 1 1 1 1 0 1 0 2 2 0 1 1 3 0 1 0 1 0 0 2 2 3 1 1 1 0 1 2 0 2 1 1 0 3 0 2 1 1 1 2 2 2 0 1 1 1 0 2 1 0 1 2 2 0 0 1 0 1 0 1 1 0 2 0 4 0 1 0 0 1 1 0 0 0 1 1 1 1 0 0 1 2 1 1 0 0 1 2 0 1 0 2 0 0 1 0 0 0 0 1 0 1 2 2 1 0 0 1 1 2 0 0 0 2 3 1 0 3 0 0 0 0 0 2 2 0 0 0 0 1 2 1 0 1 0 1 4 1 1 1 1 1 0 0 0 1 1 0 1 1 0 2 0 1 1 2 1 2 3 0 3 1 0 0 0 1 0 1 1 1 0 1 1 3 0 3 1 0 2 1 2 2 4 0 1 1 1 1 0 1 1 0 0 0 0 1 2 2 0 2 1 0 0 1 2 1 0 0 1 0 0 0 1 0 3 1 1 1 0 0 2 0 1 1 2 1 1 1 1 1 0 1 0 1 1 0 2 0 2 2 3 0 2 2 2 0 1 2 0 0 0 1 1 1 0 2 0 0 2 1 0 0 2 1 1 0 1 0 0 0 2 0 2 0 0 1 1 1 1 2 0 3 1 0 1 1 0 1 1 1 0 2 4 1 0 0 0 0 0 0 0 2 1 0 2 2 0 0 0 2 1 0 0 1 0 0 1 2 1 2 0 0 0 0 2 1 1 1 0 0 0 0 0 0 1 2 0 0 1 0 0 1 1 0 1 1 1 0 0 1 1 3 3 2 1 2 1 1 0 2 1 0 2 1 0 2 0 0 1 0 1 1 1 2 0 1 0 0 0 0 0 2 1 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 1 1 0 1 3 0 1 1 0 1 1 0 1 0 2 0 1 0 2 1 2 0 2 1 1 3 0 0 1 0 0 2 0 1 1 0 0 2 1 0 1 0 2 0 0 2 1 1 0 2 2 0 0 1 0 0 2 0 0 1 2 2 1 3 1 1 3 0 0 2 0 2 1 0 1 1 0 0 1 1 0 1 0 0 2 0 0 1 0 0 1 1 0 1 1 3 1 0 2 1 0 1 2 1 4 1 2 0 3 1 0 0 0 0 2 2 0 0 1 2 1 1 0 0 1 1 2 1 3 1 1 0 1 0 0 2 0 0 0 0 1 0 1 1 0 1 2 1 1 0 1 2 1 1 2 1 1 0 2 1 2 0 0 0 0 2 0 0 1 0 1 2 0 0 2 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 2 0 0 1 2 0 1 0 1 1 1 2 1 1 0 0 2 1 1 0 2 2 2 0 2 1 2 0 1 0 2 0 1 0 0 1 0 1 1 1 0 0 1 0 1 2 1 0 1 0 0 2 1 2 2 2 2 1 2 1 1 2 0 0 0 1 1 0 2 2 2 1 0 2 1 1 0 1 0 1 0 1 0 2 0 0 0 0 1 0 1 0 1 2 1 2 3 1 2 0 2 0 1 0 1 0 0 1 0 1 0 1 1 0 1 0 1 0 1 1 0 1 1 3 0 1 0 1 0 0 1 1 0 1 0 1 0 1 0 1 1 0 2 1 0 0 2 2 0 2 1 1 2 1 2 1 0 0 1 0 1 2 1 1 0 0 0 1 2 0 2 1 1 0 2 1 1 2 2 0 1 0 3 0 2 1 2 1 1 1 2 1 0 1 0 0 0 1 1 1 0 1 1 1 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 1 2 0 0 1 2 1 2 1 1 1 0 1 1 2 3 1 2 0 1 0 0 2 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 2 2 1 0 2 0 1 0 0 2 1 1 1 3 0 1 1 3 0 0 0 1 0 2 1 1 1 0 0 1 0 1 1 1 0 3 1 0 1 1 1 1 0 0 0 0 3 1 0 1 1 0 0 4 0 2 0 0 2 1 1 1 0 3 0 2 0 0 1 1 0 2 2 0 0 0 1 0 1 1 0 1 1 0 1 0 2 0 2 4 1 1 0 1 0 1 2 1 0 0 0 0 1 1 1 0 1 0 0 1 0 1 3 0 0 2 1 2 0 1 1 2 0 2 0 1 1 0 2 1 1 0 3 1 3 0 1 0 1 0 0 0 2 1 0 1 0 1 0 0 1 0 1 2 3 0 1 2 1 0 1 1 0 1 0 1 0 0 1 1 0 0 0 3 0 2 0 1 0 0 1 2 0 0 0 0 2 0 1 2 2 0 0 0 1 2 1 1 0 2 2 0 0 2 0 1 0 1 0 0 0 0 0 2 0 1 1 0 0 2 1 0 2 0 1 1 0 1 1 0 0 2 1 3 0 1 2 0 0 0 2 0 1 2 0 2 1 0 1 1 0 2 1 0 0 3 1 1 1 1 0 0 0 0 0 0 0 1 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 1 0 1 0 3 1 0 1 1 0 1 1 2 0 1 0 1 1 1 0 1 0 0 1 1 1 3 1 0 1 0 1 0 0 0 0 0 2 3 2 0 0 1 1 0 2 0 0 2 1 0 0 1 0 3 0 2 0 1 1 0 0 1 0 0 1 0 1 3 0 0 2 1 1 0 1 0 0 0 0 0 2 0 1 3 0 0 2 1 1 0 0 0 1 0 2 1 0 1 2 0 0 0 0 1 0 0 0 0 1 0 0 1 2 1 1 0 0 1 0 1 3 2 1 1 0 1 0 1 2 1 1 1 1 3 0 0 0 0 1 2 3 1 0 1 0 0 1 0 2 0 1 1 1 1 0 2 0 2 2 1 1 0 0 0 2 1 1 0 0 1 0 1 1 2 2 2 0 0 0 1 0 1 0 0 1 0 0 1 0 1 1 0 1 2 1 2 0 1 1 1 1 1 1 2 2 0 0 0 3 0 2 1 1 1 1 0 0 1 0 1 2 0 1 0 1 0 2 1 0 0 1 1 2 2 1 1 1 0 0 0 1 1 0 2 1 0 1 0 0 1 0 2 2 0 1 0 0 0 0 0 1 1 0 0 3 0 1 0 0 2 0 2 3 2 0 0 0 2 0 0 1 1 0 2 2 0 0 0 1 0 0 0 3 1 0 0 0 0 1 0 2 1 1 1 0 0 1 0 2 0 0 1 1 2 2 0 2 1 1 0 2 0 0 3 0 0 1 1 1 0 0 2 2 0 0 4 2 1 1 0 0 2 1 0 0 1 2 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 3 1 2 2 1 0 0 1 1 0 1 1 1 0 0 1 1 1 0 1 0 0 1 0 1 0 1 2 1 3 1 2 0 0 1 2 1 0 1 1 3 1 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 2 1 1 1 1 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 2 0 2 1 0 1 0 0 1 0 1 0 1 2 0 0 1 0 0 0 0 0 1 2 0 1 1 1 2 0 1 1 1 3 1 2 0 0 0 2 3 1 0 1 3 1 3 0 1 2 0 1 2 0 1 0 1 1 1 0 1 0 0 0 1 0 1 1 0 0 1 2 0 1 2 0 0 1 2 0 1 2 0 0 1 0 2 1 1 1 1 0 1 0 2 0 0 0 0 1 0 0 2 1 1 2 0 1 0 1 1 1 1 1 0 0 1 0 0 2 1 1 1 0 1 0 2 0 0 2 1 3 1 1 0 0 0 2 0 0 1 1 0 0 1 1 1 2 0 2 2 0 0 1 0 0 0 0 1 0 1 1 0 1 2 1 0 2 0 1 1 2 0 2 2 1 1 3 0 1 0 0 2 0 0 1 3 1 1 0 2 0 1 0 3 2 2 1 0 2 0 0 2 1 2 2 1 0 0 0 0 1 0 2 1 2 0 1 0 1 1 0 3 1 0 1 0 2 2 1 1 0 2 1 1 1 2 2 0 1 1 2 2 0 0 1 2 0 1 2 1 0 1 0 0 1 1 0 0 2 2 1 0 0 1 1 1 0 0 0 0 0 1 2 1 3 2 1 0 0 1 2 0 0 0 0 0 0 1 1 0 1 0 2 0 0 0 1 1 0 1 1 1 3 2 1 2 1 1 1 2 2 0 1 0 1 0 2 1 2 1 1 0 0 0 3 1 1 0 0 0 0 0 1 1 1 1 2 0 1 3 1 0 0 0 0 0 2 0 0 2 1 1 2 1 0 0 2 2 0 0 0 0 2 0 0 1 0 1 2 0 0 0 0 0 0 0 2 1 0 1 0 1 1 1 2 0 0 1 0 3 0 2 1 0 0 1 0 3 2 1 0 1 1 2 1 0 1 1 0 0 0 1 0 2 1 0 4 1 0 1 1 0 0 0 0 0 2 3 0 1 0 1 2 4 1 2 1 0 3 2 1 0 2 0 0 1 0 0 0 1 1 1 1 1 0 2 0 1 1 0 0 0 0 0 2 0 1 0 2 1 1 2 1 0 0 0 1 1 0 1 2 0 1 0 0 0 0 1 0 2 1 1 0 0 2 1 0 1 2 1 0 1 1 1 0 2 0 2 2 0 2 0 1 2 0 0 0 1 2 0 2 0 2 0 0 1 1 0 2 2 1 0 0 1 0 1 0 0 0 2 1 1 1 0 0 1 0 1 0 1 0 1 0 1 1 1 0 0 2 0 1 0 0 1 0 3 1 0 1 2 0 2 0 1 0 0 0 1 1 2 1 4 1 0 0 1 1 1 1 0 1 1 0 1 0 0 2 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 0 0 0 1 0 1 0 0 1 1 1 0 0 0 2 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 2 1 1 1 0 0 1 0 1 0 0 1 1 0 3 3 1 1 0 0 1 0 0 1 0 2 1 0 1 0 0 1 1 1 2 0 1 1 0 1 1 0 0 0 0 2 1 1 0 0 1 1 2 0 1 0 1 1 0 0 1 2 1 3 0 0 0 1 1 1 2 0 2 0 1 0 2 0 0 1 1 0 2 1 0 1 2 1 1 0 0 2 0 3 2 1 0 1 1 0 1 0 0 2 1 2 1 0 0 1 0 1 1 1 1 0 0 1 0 1 1 0 0 1 1 1 0 1 1 0 0 1 3 0 0 2 0 1 2 1 2 1 1 1 0 0 1 1 0 0 2 0 1 0 2 1 0 1 0 1 1 2 1 0 1 0 2 0 0 1 1 1 1 0 0 0 2 2 1 2 0 2 2 1 2 2 1 1 0 0 0 1 0 0 1 0 2 2 1 0 2 0 1 1 2 0 1 1 0 1 3 0 0 1 2 0 0 1 1 1 1 0 1 2 0 0 1 2 0 1 0 1 1 0 0 2 1 0 0 1 0 2 1 1 2 0 1 2 0 0 2 0 1 1 0 0 0 1 0 0 1 0 1 3 0 1 1 1 1 0 0 0 1 2 1 2 2 2 0 1 0 1 2 0 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 1 1 1 0 1 1 0 0 0 2 0 0 2 1 0 0 0 1 1 2 2 0 2 0 1 2 0 2 0 1 0 0 1 0 2 3 0 0 0 2 0 1 1 1 2 1 1 2 1 1 1 1 1 0 1 1 1 0 0 1 2 1 1 0 1 0 2 0 0 2 1 2 1 1 1 1 3 6 0 1 2 1 0 0 0 2 1 0 0 0 2 1 0 1 3 1 1 0 1 2 2 1 1 1 0 0 1 1 1 2 1 2 0 2 0 1 0 1 1 1 2 1 0 2 1 1 2 0 2 1 2 2 1 2 1 1 1 1 1 0 0 0 0 2 1 0 0 1 0 1 0 1 2 1 1 0 1 2 1 1 1 0 2 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 1 0 0 0 2 0 1 2 0 0 0 1 1 2 1 1 1 1 1 0 0 0 0 0 0 2 1 1 0 0 2 1 1 1 0 0 1 1 1 2 1 1 1 1 3 1 0 1 0 1 0 1 1 0 0 1 0 1 1 0 0 1 1 1 1 2 1 1 0 1 0 0 2 1 1 1 0 0 3 1 0 1 0 1 1 2 2 2 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 2 0 0 1 1 1 0 1 0 0 1 1 2 0 1 0 1 1 2 1 0 0 0 0 0 2 0 0 1 1 1 2 0 2 2 0 1 0 1 2 0 3 0 0 1 2 1 0 0 0 3 0 3 1 2 1 1 0 0 0 0 2 2 1 0 0 2 0 0 4 3 1 0 2 4 0 0 0 1 1 0 0 0 1 0 1 1 1 1 2 0 1 0 0 3 0 1 1 1 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 2 1 0 0 1 0 2 1 2 0 1 1 0 0 3 0 0 0 0 1 0 0 1 0 1 0 0 2 0 0 1 0 0 1 1 1 0 0 0 1 2 1 2 2 0 1 0 2 2 3 1 1 1 1 0 0 1 1 2 1 0 1 1 0 1 0 0 0 1 2 0 0 3 0 0 2 1 1 0 1 1 1 0 2 1 1 1 3 1 0 2 0 0 1 0 1 0 0 0 1 1 3 0 0 0 1 1 1 1 0 0 1 2 1 2 2 1 0 0 0 0 0 0 4 1 0 1 1 0 0 0 0 1 1 1 2 0 0 0 2 0 2 1 0 1 0 1 1 3 0 0 1 0 1 0 0 0 2 0 0 0 1 1 2 2 2 0 1 0 0 1 1 3 1 0 1 2 2 1 0 2 2 0 1 0 2 0 0 0 0 2 0 0 1 0 0 0 2 2 1 1 0 0 1 0 1 1 0 0 0 0 2 0 1 1 0 0 1 1 0 3 0 0 1 1 1 1 2 0 2 1 2 0 1 1 1 0 1 1 0 1 0 1 0 0 0 1 0 1 0 1 0 2 1 0 2 0 0 0 2 0 0 0 0 1 0 0 0 1 1 1 1 0 1 0 2 3 0 1 1 0 0 2 1 1 1 0 0 3 1 1 0 2 0 0 1 0 1 0 0 2 0 1 1 2 3 1 1 1 1 0 0 2 0 0 2 0 2 1 0 0 1 2 0 1 2 1 2 0 2 1 0 1 2 3 1 0 1 1 1 1 0 0 0 2 1 0 0 1 0 3 2 1 0 0 0 0 1 1 2 2 1 1 0 1 0 0 3 0 1 3 0 1 1 0 1 2 0 0 2 1 2 0 0 0 1 0 0 0 1 2 3 1 1 1 1 1 0 0 1 1 0 1 1 1 1 0 1 1 3 0 1 0 0 0 0 0 1 1 1 0 1 2 1 0 2 0 2 0 0 1 0 0 1 1 1 1 1 1 1 2 2 1 0 0 1 1 0 0 0 0 1 1 1 0 2 3 0 0 0 0 3 1 0 3 1 1 2 0 3 0 2 0 0 3 2 0 0 0 1 0 0 0 0 1 0 1 1 2 1 0 3 1 1 0 1 1 3 1 1 0 1 0 0 1 1 1 0 1 3 1 2 1 1 0 0 0 2 1 1 3 0 0 0 2 0 1 1 0 1 1 3 3 0 1 2 0 1 1 0 2 0 1 1 1 0 0 0 1 1 0 2 0 0 0 0 1 2 0 1 2 2 1 0 0 0 2 2 1 2 1 3 3 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 2 0 2 1 1 2 0 0 2 3 0 0 0 0 1 0 1 3 0 1 0 1 0 1 0 2 2 0 1 1 1 1 1 1 1 2 1 0 3 2 1 1 0 0 1 1 1 1 2 0 0 0 2 1 2 2 0 0 0 1 0 0 0 1 1 0 0 0 0 2 1 0 0 2 1 1 0 0 0 1 2 0 2 1 0 0 1 0 0 0 0 0 0 3 2 5 0 1 1 1 1 0 0 0 1 0 1 0 1 0 2 0 0 2 2 0 0 0 2 1 0 2 0 0 0 0 2 1 0 1 0 0 1 1 0 0 1 1 1 1 1 0 1 1 0 0 0 0 2 0 1 1 2 0 1 0 1 2 0 0 2 1 0 2 1 0 1 1 0 2 1 1 0 2 0 0 1 0 0 2 1 2 2 0 0 0 0 0 0 1 2 1 0 0 1 0 0 0 3 2 0 1 2 2 2 2 1 0 0 3 2 0 0 2 1 2 1 1 2 0 1 2 2 0 0 1 1 1 3 0 1 1 0 0 0 0 0 3 0 1 1 1 1 1 1 0 0 0 1 2 3 2 0 1 1 0 0 0 1 0 0 1 0 0 0 2 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 1 2 1 0 4 1 2 1 0 1 1 1 0 0 1 0 0 1 1 1 2 0 2 1 0 0 1 0 3 2 0 1 2 1 0 2 1 0 0 1 1 0 1 2 2 1 0 2 1 2 0 2 1 0 1 0 2 2 2 2 2 0 0 1 0 1 2 2 2 0 0 2 0 1 1 2 2 1 0 0 0 0 1 2 0 0 1 1 1 2 0 2 1 1 1 1 2 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 2 0 0 1 2 0 1 2 2 0 1 2 0 2 1 1 0 0 0 1 0 0 0 1 2 2 2 0 1 0 2 2 0 0 0 1 1 3 0 0 3 1 2 0 0 2 0 0 1 0 0 0 0 0 1 0 2 0 1 0 0 1 2 2 2 2 1 0 1 0 0 0 1 2 0 0 1 2 2 0 2 0 1 2 1 0 0 0 2 0 0 1 1 1 2 1 1 1 0 1 1 0 0 1 1 1 1 0 1 3 0 1 2 3 0 1 0 2 1 3 0 1 1 1 2 2 0 0 0 2 0 0 0 1 0 1 3 0 0 0 3 0 1 3 0 1 0 1 1 0 1 1 0 2 1 0 0 0 3 0 2 0 1 2 2 1 1 1 0 1 1 1 2 0 0 2 1 2 1 2 0 0 0 2 0 1 0 0 1 1 1 0 0 0 0 0 1 1 0 1 1 3 0 0 0 1 0 0 0 1 0 2 2 0 1 0 0 2 0 2 1 1 0 0 2 2 2 2 0 2 0 1 2 0 1 1 0 0 0 1 1 2 0 0 0 0 1 2 0 0 0 0 2 0 1 0 4 0 0 0 1 2 1 1 0 1 1 0 2 1 0 2 1 0 0 1 3 1 2 0 2 0 0 1 1 1 0 1 0 1 3 2 1 0 1 4 0 0 0 0 1 0 2 0 1 1 1 1 0 2 0 0 1 1 0 1 1 1 1 1 1 2 0 0 1 0 2 0 1 2 0 1 1 0 0 0 2 0 0 1 1 1 2 0 1 2 2 1 1 0 2 1 0 1 0 2 1 1 0 1 0 3 0 0 0 0 1 0 0 0 0 3 0 0 1 1 1 0 2 0 1 0 1 2 1 0 0 1 0 0 1 1 0 0 1 0 1 1 1 0 0 3 2 0 0 1 0 0 0 0 1 3 1 0 2 0 1 1 2 1 1 0 3 0 0 1 1 1 1 1 1 1 3 1 1 1 0 1 0 2 2 0 1 0 1 0 2 1 1 0 2 0 3 2 0 1 0 0 2 2 0 1 1 0 0 0 0 2 2 0 0 0 3 0 2 0 0 0 0 2 1 1 2 3 2 0 1 0 1 0 2 0 0 0 1 0 2 0 3 0 1 0 0 4 1 1 0 2 1 0 1 0 0 2 1 1 0 1 1 3 0 1 1 0 2 0 0 0 0 1 1 1 1 0 2 1 0 0 1 0 1 2 0 1 0 1 1 1 2 0 3 0 0 2 0 0 0 1 0 0 2 1 1 1 1 1 2 2 2 3 0 0 1 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 2 0 2 0 0 1 0 0 0 1 0 0 0 0 2 3 2 0 2 1 1 3 2 1 1 0 1 2 0 0 0 0 0 1 2 2 0 0 0 0 2 1 0 1 1 1 1 0 0 1 0 1 0 1 0 0 2 0 2 1 0 2 0 0 1 1 0 2 1 0 0 0 0 0 2 0 0 1 1 0 0 0 0 2 0 0 1 0 1 1 0 1 2 0 1 0 2 1 0 2 1 1 1 0 0 1 2 1 1 0 0 2 0 0 1 2 2 1 0 1 3 0 0 1 0 0 1 0 1 0 0 0 0 3 1 0 0 1 2 1 1 1 1 4 0 0 0 1 0 2 1 2 1 1 1 1 0 0 0 0 1 0 2 0 0 2 2 0 0 1 0 0 1 1 1 2 0 0 0 0 1 1 1 1 2 1 1 1 1 1 3 0 0 2 1 0 1 2 2 1 2 2 1 1 2 1 1 3 1 0 0 0 0 1 1 3 0 0 2 1 1 0 1 0 0 0 1 0 1 1 0 2 1 1 1 0 0 0 1 1 4 1 1 0 1 0 0 1 1 1 2 1 0 0 0 2 4 0 3 2 1 2 1 1 1 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 1 2 3 3 0 0 0 0 1 0 1 1 0 2 1 0 0 0 0 1 0 2 0 0 0 1 1 0 0 0 1 1 1 0 0 3 0 1 3 1 1 3 0 2 2 0 1 3 2 1 2 1 2 0 0 1 1 4 0 2 1 0 0 1 1 3 3 0 1 0 1 0 0 0 2 0 1 0 0 1 0 0 4 0 1 3 0 0 0 1 1 1 1 2 2 1 1 1 1 3 1 0 0 1 0 0 0 1 0 1 2 0 1 1 0 0 1 0 1 1 4 2 1 0 0 0 1 0 2 1 0 2 0 3 1 0 0 1 0 1 1 0 0 1 1 1 0 2 0 1 1 1 0 0 2 0 0 1 2 3 1 1 1 1 2 1 0 2 0 0 2 1 1 0 0 0 0 2 1 1 0 0 1 1 0 1 0 2 1 2 1 0 0 2 0 0 1 0 0 0 0 0 2 1 0 1 0 1 0 0 1 1 1 1 2 1 1 1 3 1 1 1 0 2 1 0 2 1 0 1 2 3 1 1 0 0 2 0 0 0 1 1 0 1 1 0 1 1 3 1 0 0 1 0 1 0 0 1 2 2 2 1 2 0 1 3 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0 2 0 1 2 1 1 1 0 1 0 0 1 3 1 1 1 0 1 1 1 1 1 0 0 2 0 0 1 1 1 0 0 0 0 1 0 1 0 2 3 1 1 1 0 0 1 0 0 1 0 3 1 1 1 1 3 1 0 1 2 1 1 1 0 2 2 0 1 2 0 0 1 1 1 0 1 2 0 1 3 0 3 0 1 3 0 1 1 2 1 2 2 3 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 0 2 1 0 1 0 0 0 0 0 2 0 2 1 1 1 0 1 1 0 2 2 3 0 0 0 0 1 1 0 1 2 1 2 2 1 1 1 0 0 1 0 1 1 1 3 0 0 1 1 0 0 0 1 0 0 2 1 0 0 1 1 0 0 1 1 2 0 2 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 1 1 2 1 1 1 0 0 0 0 0 1 0 0 1 1 1 1 2 1 0 0 1 0 0 1 1 3 0 0 3 0 0 1 0 1 0 1 1 1 0 0 2 1 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 1 0 4 0 1 2 0 2 0 1 0 2 0 1 2 1 1 0 1 2 0 0 1 1 0 1 1 0 1 0 3 1 1 1 2 0 1 0 0 5 2 0 1 0 0 0 0 1 1 1 0 2 3 1 3 2 2 0 1 1 3 1 2 1 0 0 0 0 1 0 1 0 0 0 3 1 1 1 1 1 0 0 2 1 1 1 2 0 0 0 1 0 0 0 0 1 2 0 1 2 2 2 1 0 0 0 1 1 1 1 3 1 0 2 1 2 2 0 1 0 4 0 0 1 0 0 2 1 1 0 1 1 2 1 1 1 1 1 1 1 1 1 1 2 0 0 0 1 0 1 0 0 1 1 0 2 0 0 2 0 0 1 1 2 1 1 2 0 0 0 1 1 2 1 0 0 1 4 2 0 0 1 1 1 2 0 1 0 2 0 0 1 0 0 2 1 1 0 2 4 1 1 1 3 2 0 1 4 3 1 0 2 1 2 0 1 3 1 1 0 1 0 0 0 0 3 0 2 1 3 0 0 0 2 0 0 2 0 1 0 0 3 3 0 0 1 0 1 2 0 1 2 1 1 1 0 0 0 1 1 2 1 1 0 1 0 0 0 0 2 1 0 2 0 0 1 0 2 2 1 0 1 0 1 1 1 1 2 0 1 1 2 2 1 0 1 0 0 1 4 1 0 3 0 1 1 2 0 0 2 1 0 0 1 0 3 1 3 0 0 1 0 0 0 3 0 0 0 2 0 1 0 1 3 0 0 1 0 0 0 0 1 1 1 0 2 2 0 0 1 2 3 0 1 0 1 3 1 1 0 0 0 1 3 0 1 0 1 1 2 1 0 1 0 1 1 0 2 0 3 1 1 1 0 0 0 1 1 1 0 0 1 1 1 2 0 1 1 1 1 0 0 0 1 0 2 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 1 1 0 1 1 0 3 1 0 0 0 2 0 0 2 1 1 2 0 2 1 2 0 2 0 2 1 3 0 1 2 1 0 1 2 1 3 0 2 1 1 1 0 1 0 0 1 1 0 1 1 0 1 3 1 3 0 0 1 0 1 1 2 2 0 0 1 0 1 3 0 1 2 1 0 1 0 2 1 1 0 1 1 0 1 0 0 2 1 0 0 1 0 2 0 1 2 0 2 2 1 0 1 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 1 1 2 0 0 3 1 1 1 0 0 0 0 1 0 0 0 1 0 1 1 2 0 0 0 3 0 0 1 0 0 0 0 0 1 1 1 1 1 2 1 1 1 0 1 0 1 1 1 1 1 0 0 0 0 0 2 0 1 0 0 1 0 0 1 0 1 2 1 2 0 0 1 1 2 1 0 1 0 0 0 1 1 0 0 1 2 0 1 1 2 2 0 0 1 0 2 1 2 1 2 0 1 0 1 0 1 0 1 2 0 0 1 1 2 0 1 1 1 1 1 0 1 1 1 1 1 0 0 0 0 0 1 2 1 2 0 3 2 0 1 2 0 1 1 1 2 0 1 1 3 0 0 0 1 0 1 1 0 0 0 0 3 0 1 1 1 0 4 1 0 0 1 2 1 0 2 2 0 0 2 1 0 1 0 0 1 2 0 0 1 1 0 0 2 0 1 1 0 1 0 0 2 0 1 1 0 0 0 0 0 2 0 1 1 0 1 1 1 1 2 2 2 0 1 1 0 0 3 0 0 1 0 0 1 0 2 0 0 3 0 1 1 2 0 3 1 0 2 0 0 0 0 2 0 0 2 1 0 3 2 0 0 4 0 1 2 0 2 0 0 1 0 0 1 1 0 2 3 1 0 0 0 0 0 0 2 0 1 0 0 1 0 2 1 0 0 2 0 0 0 1 0 1 0 2 0 1 1 1 0 1 1 1 0 1 0 0 0 2 2 3 1 0 0 0 2 1 0 2 0 2 1 1 1 1 0 0 0 2 3 0 0 1 1 0 0 1 0 0 1 1 0 0 2 1 1 2 1 1 0 0 1 1 0 1 0 0 0 1 0 1 1 1 1 0 1 0 0 0 0 1 0 3 0 0 0 1 0 0 1 0 1 1 0 1 0 3 2 1 1 0 0 2 1 2 1 1 2 0 2 0 4 1 1 0 2 2 1 1 1 1 2 1 1 0 0 1 1 2 0 0 3 0 1 0 0 0 2 0 0 1 2 0 0 1 0 0 1 4 3 0 0 2 0 0 3 1 1 0 3 0 4 1 0 3 2 1 0 1 0 0 1 0 0 0 2 1 0 2 0 1 0 1 0 2 3 1 0 0 1 2 1 1 1 2 0 0 3 1 1 0 2 0 0 0 1 2 2 1 1 1 0 0 1 0 0 1 1 2 1 1 2 0 0 0 0 0 1 1 0 1 0 3 1 0 0 1 1 1 2 1 1 1 0 1 0 1 1 0 1 1 0 1 1 1 0 2 0 2 1 0 1 0 0 0 0 1 2 0 2 3 0 0 2 1 1 0 1 1 0 1 2 3 1 1 1 0 1 1 1 0 1 1 2 1 1 2 4 0 0 0 0 2 2 2 1 1 1 2 2 1 0 1 1 1 1 0 1 1 1 0 1 1 3 1 2 2 1 0 0 2 1 2 1 2 1 2 2 2 0 1 0 1 1 1 0 0 0 1 0 0 1 0 1 2 0 1 0 0 1 2 1 1 0 1 2 0 0 0 0 0 0 0 2 0 0 1 1 1 0 2 1 0 1 1 2 1 1 0 0 0 2 1 2 1 2 0 1 1 0 1 0 0 1 1 3 0 3 1 0 0 1 1 0 1 2 0 0 1 0 0 0 2 1 1 2 0 2 0 1 2 0 0 0 1 0 1 1 1 2 0 2 0 0 1 2 2 0 2 1 1 1 3 1 1 0 1 1 1 0 1 2 0 1 1 0 1 0 2 1 1 0 1 1 2 1 0 0 1 0 2 1 1 1 3 1 0 0 0 0 0 2 0 2 0 0 0 1 0 3 0 1 0 1 1 0 3 0 0 2 0 1 1 2 0 1 1 1 0 0 1 1 1 0 1 0 1 1 1 1 2 0 0 1 2 0 1 3 0 0 1 1 2 1 2 0 0 0 2 0 0 0 0 1 0 0 1 0 0 2 1 1 2 1 0 0 1 1 0 1 0 1 1 0 0 1 4 1 0 0 1 0 0 2 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 3 1 1 3 2 0 1 0 1 0 1 0 0 3 0 1 1 0 0 0 1 2 1 1 3 1 0 3 1 1 0 0 2 2 0 1 0 1 1 1 1 2 2 1 1 2 0 1 0 1 0 0 0 0 0 2 0 1 0 0 0 0 2 2 1 1 1 2 0 1 2 1 0 0 0 0 2 1 0 0 1 1 0 1 1 3 0 0 2 0 0 1 2 1 0 1 1 0 0 1 0 1 0 0 2 0 1 0 1 0 1 2 2 0 2 2 0 1 1 1 2 1 0 1 1 0 0 0 0 0 0 0 1 0 0 2 0 1 1 0 0 2 0 2 0 1 0 1 1 0 2 2 1 1 1 0 1 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 2 1 1 1 1 2 0 1 1 1 0 0 1 1 0 0 1 0 2 3 0 1 1 3 1 2 0 1 1 1 0 1 1 0 2 0 0 3 0 0 0 0 1 0 0 0 1 2 0 2 0 2 0 0 0 1 2 0 0 3 2 1 2 1 1 0 2 1 2 1 0 0 0 1 0 0 1 0 0 3 0 1 0 0 0 0 2 0 2 4 0 1 1 2 2 1 1 1 1 1 0 0 1 2 2 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 2 1 3 2 0 1 2 1 0 0 0 1 1 1 3 0 1 1 2 2 0 1 0 0 0 0 1 0 1 0 0 1 2 0 0 0 0 0 0 0 1 2 1 1 2 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 2 0 0 0 1 0 2 3 0 0 0 1 0 0 0 0 2 0 1 0 0 2 1 1 1 1 0 2 0 3 1 0 0 2 0 0 1 1 1 1 0 0 0 2 2 1 1 0 1 0 3 0 1 1 2 1 0 1 1 1 1 0 1 1 0 1 0 2 0 1 1 3 1 1 0 1 1 3 0 2 1 0 0 2 2 1 0 2 1 0 2 0 0 1 0 0 1 2 0 1 1 0 0 1 2 0 1 0 1 1 0 0 2 1 3 0 2 0 0 2 1 0 1 0 0 0 2 0 1 0 0 1 0 2 0 1 0 2 0 0 1 1 1 1 1 0 0 0 1 1 2 1 0 1 1 0 1 1 1 0 0 1 1 0 2 0 1 1 0 1 3 2 0 1 0 0 1 0 0 0 0 1 0 2 1 1 1 0 0 1 2 1 1 0 0 1 1 1 1 0 0 0 0 0 1 0 2 0 1 2 0 1 2 1 1 1 3 2 1 0 0 0 0 1 0 1 1 1 2 1 0 2 3 0 0 2 0 3 0 1 3 0 2 1 1 0 0 0 1 0 0 2 0 1 0 0 0 2 2 1 2 0 1 0 2 0 2 2 1 0 2 0 1 2 2 1 1 1 0 2 1 1 0 2 0 3 0 2 1 0 1 2 0 0 1 0 0 1 1 1 0 0 0 3 1 1 1 2 1 3 0 0 1 0 1 2 2 0 0 1 1 2 0 1 0 0 2 1 1 1 1 1 1 2 0 2 0 0 1 1 0 1 1 2 0 0 0 3 0 0 0 0 1 1 0 0 1 3 2 0 1 0 0 0 0 1 0 1 1 2 2 0 0 1 1 1 0 0 0 0 1 0 0 1 0 2 1 0 3 1 1 0 1 1 1 1 0 2 1 0 2 1 1 1 2 1 1 1 1 0 3 1 0 0 1 0 0 1 0 0 0 0 0 2 2 3 2 1 2 3 1 2 2 1 2 0 0 2 1 1 2 2 1 1 0 1 2 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 2 1 1 0 0 2 1 1 0 2 4 1 0 0 1 3 1 2 1 1 2 0 1 2 1 1 1 0 3 2 1 1 1 1 2 1 0 2 1 1 0 1 1 0 0 0 0 1 2 1 1 0 1 0 0 2 0 1 2 2 0 0 0 2 1 1 0 1 1 1 1 1 2 1 0 0 1 1 1 1 0 0 0 0 0 2 1 0 0 2 1 0 2 3 1 0 3 2 0 2 0 1 1 3 1 1 2 1 1 0 1 2 2 1 0 0 0 1 1 0 0 0 0 1 2 1 3 2 2 1 0 1 0 1 3 1 0 1 0 1 1 2 1 1 1 0 0 0 2 0 0 0 0 2 1 1 2 1 0 3 0 2 2 0 0 2 2 0 1 0 1 1 0 1 2 0 0 1 3 1 1 1 1 1 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 2 1 1 0 2 0 2 3 0 2 2 1 0 1 1 2 0 1 0 1 0 1 2 1 1 0 1 1 4 0 0 0 0 0 2 0 1 1 2 1 2 1 1 1 1 1 1 0 1 2 1 3 0 2 0 0 0 0 1 0 1 0 1 1 0 2 1 0 0 2 3 0 1 1 0 0 1 1 0 1 1 2 0 1 1 3 1 2 0 1 1 2 1 1 0 2 1 1 1 1 2 0 3 2 1 0 0 0 1 0 2 0 1 1 0 0 2 0 1 1 2 1 1 1 0 2 0 0 2 3 0 0 0 0 0 0 3 1 0 1 0 0 0 1 2 1 1 1 0 0 0 2 0 2 0 0 0 1 1 0 0 1 0 1 1 2 0 0 1 0 0 1 0 1 0 2 4 1 1 2 0 0 1 0 0 1 2 0 0 2 0 0 0 0 2 0 0 1 0 1 1 0 0 1 0 0 1 2 2 0 1 1 2 1 2 1 0 0 0 0 0 0 0 3 2 0 0 1 0 1 0 0 0 1 0 2 0 0 2 1 3 1 1 1 1 0 1 0 0 0 0 1 2 1 2 0 0 0 2 1 0 0 1 2 4 0 1 0 1 1 1 1 1 0 0 2 0 0 0 1 0 1 0 0 1 2 1 0 0 1 2 1 2 0 1 1 0 0 3 0 1 1 1 2 1 2 0 0 2 0 0 0 0 0 0 2 1 1 0 0 1 0 1 3 1 3 0 1 1 1 1 0 1 0 1 1 0 1 1 1 1 1 1 2 1 1 0 1 2 1 1 0 1 0 1 2 2 1 0 0 1 1 1 0 2 1 1 3 1 2 1 0 0 1 2 0 3 0 1 1 1 1 0 0 0 2 0 2 0 1 0 1 0 1 1 0 1 1 1 1 1 0 2 1 0 1 4 0 0 3 0 0 0 0 2 1 1 1 2 0 0 3 0 0 2 0 2 1 0 1 1 1 0 2 1 1 1 0 1 1 1 0 0 0 0 0 1 2 0 0 0 1 0 1 2 1 0 0 1 2 0 1 0 1 0 1 0 1 0 0 0 2 2 1 1 1 0 0 0 0 1 0 2 1 1 0 1 0 2 1 0 1 2 1 3 1 0 1 1 0 1 1 0 1 1 0 1 0 0 0 0 0 0 1 2 0 0 0 0 1 2 1 3 1 0 0 2 0 0 1 0 0 2 0 0 2 1 0 0 1 1 0 0 1 4 0 0 2 2 2 0 0 2 0 1 1 2 0 0 1 3 1 1 1 1 2 0 2 0 0 2 1 2 3 1 1 1 0 1 1 1 0 1 1 0 1 2 1 0 0 0 0 2 1 1 1 1 3 0 2 1 0 0 1 1 1 2 1 0 2 2 1 2 0 2 3 1 1 1 2 1 2 2 0 0 1 0 1 1 0 0 1 1 0 0 2 0 0 1 1 1 1 1 0 0 2 1 1 0 0 1 0 1 1 1 0 0 1 2 0 1 0 2 0 1 1 0 2 1 0 0 1 1 0 1 2 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 2 1 0 2 2 0 0 1 2 2 0 1 0 0 2 0 1 1 2 0 1 2 2 2 0 1 1 1 0 2 1 0 2 1 1 0 1 1 0 1 3 2 1 2 2 3 0 0 1 2 0 0 1 2 2 2 0 0 1 0 1 0 0 0 0 0 0 2 0 0 1 0 3 1 0 1 0 0 3 2 0 3 0 2 0 1 1 0 1 0 0 2 0 1 1 0 1 2 0 0 0 1 0 1 2 3 1 2 1 2 2 1 0 0 0 1 1 0 0 1 2 2 1 0 1 1 1 2 1 0 1 0 1 2 0 0 1 1 3 1 0 1 2 3 3 1 0 0 0 1 2 1 1 1 0 1 0 0 0 0 2 0 2 3 0 0 2 1 0 2 1 0 0 0 0 1 1 1 1 4 0 1 1 1 2 2 0 1 0 1 1 1 2 2 1 0 2 0 2 3 1 0 0 0 2 0 0 1 0 1 0 2 1 1 0 0 0 3 0 1 1 1 0 1 0 1 1 0 1 0 0 1 2 0 0 0 2 1 2 2 0 1 0 0 1 0 1 0 3 2 2 0 0 1 0 1 0 1 0 0 2 2 1 2 1 0 1 0 0 1 0 1 0 0 2 2 0 0 0 2 0 0 3 1 2 1 1 0 3 1 0 1 1 1 1 0 0 1 0 0 1 1 1 0 0 1 1 1 0 1 1 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1 0 1 1 3 0 1 1 2 0 0 1 1 2 2 0 0 1 0 1 0 2 1 2 3 0 0 0 0 2 1 0 1 1 2 2 1 1 2 0 0 1 0 1 1 0 0 0 1 1 1 1 0 3 1 1 1 2 0 0 0 0 0 0 0 0 0 1 2 0 0 0</t>
   </si>
   <si>
     <t>Name</t>
@@ -255,52 +255,52 @@
     <t>R.Gould</t>
   </si>
   <si>
-    <t>NIG(28.589326292954638, 13.703293131969064, -0.5747292298745595, 33.45867720685169)</t>
-  </si>
-  <si>
-    <t>6 20 15 21 24 22 25 27 23 23 20 13 9 24 21 22 24 9 16 14 23 24 17 31 25 9 19 16 9 13 13 30 17 24 17 20 20 21 20 24 29 6 17 6 13 16 26 15 14 20 27 17 19 13 20 27 11 26 29 20 9 34 14 22 6 6 21 20 16 34 14 17 13 3 21 22 27 21 14 27 13 37 24 6 13 7 13 21 16 32 13 23 14 17 24 7 27 28 24 17 24 22 10 14 17 10 18 30 25 13 20 26 22 21 17 3 14 20 25 0 20 27 3 25 19 15 24 21 10 33 13 16 31 24 13 37 6 20 17 27 31 29 16 17 29 20 6 20 24 10 10 14 16 23 17 13 22 0 21 27 24 34 21 28 6 10 7 14 17 20 9 7 14 24 7 10 37 24 23 16 24 10 30 3 20 20 24 21 10 14 11 7 14 13 27 6 3 24 16 17 16 28 13 9 13 6 20 31 26 16 27 18 9 10 23 17 17 16 10 10 21 9 13 24 20 22 23 21 25 13 23 16 19 15 20 3 31 2 35 15 31 3 17 13 16 7 10 22 17 24 25 14 20 35 9 12 32 26 16 20 27 20 14 26 28 20 17 27 14 9 21 13 13 19 29 17 23 20 20 23 23 13 9 16 7 14 17 10 19 13 17 10 17 20 10 17 19 3 14 16 21 32 20 20 35 20 7 6 9 14 17 20 17 24 31 14 24 17 13 16 13 13 10 17 16 16 28 10 16 19 16 31 18 18 16 23 17 13 13 21 24 17 20 16 24 10 25 15 6 14 10 14 20 17 20 17 21 17 31 24 27 18 12 21 7 14 20 14 19 10 31 17 20 28 14 21 19 10 22 10 13 21 13 31 6 12 24 19 31 7 24 21 14 24 3 29 30 17 16 14 5 34 18 17 27 13 28 30 13 13 0 48 7 18 21 9 14 20 20 28 13 26 7 17 7 6 12 17 7 19 14 17 10 21 23 7 13 17 16 40 23 27 27 22 6 14 19 20 15 20 3 13 24 24 23 44 15 20 10 24 20 20 20 6 21 10 9 17 9 18 16 9 6 7 8 13 7 19 13 10 13 14 12 19 24 26 10 31 17 6 17 20 21 28 14 24 24 14 20 31 9 26 9 3 14 6 20 13 27 25 13 13 23 21 7 30 13 10 13 10 21 27 27 10 20 10 20 24 13 20 13 17 0 21 17 23 16 26 10 24 14 13 14 24 15 20 14 3 13 27 9 17 31 20 24 10 20 14 20 10 19 16 12 24 20 16 27 31 24 31 23 23 20 22 10 14 21 13 18 16 13 6 3 24 21 9 31 9 13 28 7 31 16 17 24 29 17 9 20 10 10 21 10 8 27 13 24 8 21 13 13 18 14 27 7 19 21 3 24 13 14 13 17 19 16 13 6 17 20 16 21 7 7 30 24 17 17 15 9 17 13 7 13 10 31 24 9 27 14 24 19 17 17 24 17 10 21 21 7 15 19 22 9 16 20 28 17 13 9 13 15 10 21 23 26 20 13 24 22 17 6 24 10 23 17 20 12 28 37 17 13 20 21 14 44 17 17 16 20 16 10 3 29 23 27 13 6 18 9 31 24 27 17 13 27 20 16 24 22 9 10 7 9 10 30 20 21 17 20 17 38 24 16 17 17 13 24 13 26 21 21 21 28 28 15 13 24 24 14 3 20 17 26 13 27 13 23 13 21 20 13 14 25 28 26 24 24 23 20 7 6 10 30 20 16 23 25 16 23 13 21 13 17 18 7 25 20 16 23 38 14 24 13 19 30 22 24 23 20 20 13 21 10 20 17 10 10 13 7 14 20 17 10 20 23 27 10 14 12 30 12 21 21 21 35 22 20 13 11 21 17 34 7 30 14 32 20 0 26 13 6 13 10 37 19 27 17 7 14 24 7 24 10 10 23 13 10 17 17 30 14 13 14 23 24 20 13 23 17 21 14 15 6 3 6 21 20 20 20 17 20 17 24 27 20 19 23 30 21 19 13 3 16 17 21 27 31 17 24 21 11 21 19 11 17 30 17 3 24 21 24 23 28 24 12 23 10 6 16 20 20 21 23 20 21 3 10 18 24 10 45 27 20 20 23 16 30 0 14 13 14 21 7 28 10 12 20 14 21 13 17 16 28 21 35 24 25 17 3 14 17 19 8 25 35 10 14 20 20 27 24 17 15 13 3 34 24 10 31 6 47 22 26 24 20 13 16 17 10 27 19 15 16 10 16 15 17 23 16 0 10 7 23 26 20 14 11 16 26 16 21 33 17 22 10 27 9 17 10 17 19 11 19 17 27 3 17 25 31 17 20 14 31 23 16 23 14 23 10 21 23 10 10 20 9 20 24 13 10 17 16 20 20 21 40 20 22 12 16 13 0 21 20 6 15 13 20 23 7 15 21 6 13 6 28 23 27 30 14 28 0 24 14 20 25 18 28 16 15 17 21 13 13 23 13 18 21 35 19 10 6 17 3 24 20 24 24 17 19 27 41 7 20 24 21 21 17 21 22 8 14 18 29 17 14 3 34 13 9 3 9 10 20 7 36 13 24 23 24 15 29 24 37 13 20 15 22 27 10 3 16 26 27 24 20 16 16 16 13 14 3 26 24 14 15 20 31 24 26 19 28 31 13 33 13 16 7 13 26 23 27 13 14 9 0 21 21 29 9 29 28 17 7 23 3 3 17 13 13 17 23 10 10 10 13 17 23 20 16 27 17 17 13 13 14 23 34 38 26 10 6 23 7 13 12 0 10 11 13 33 24 27 13 7 3 17 10 10 10 14 23 24 20 20 27 23 16 10 20 21 13 14 21 17 13 24 28 10 15 20 10 13 24 20 21 21 13 17 16 17 16 3 11 21 16 27 23 14 6 3 17 16 10 41 17 16 9 27 26 17 3 17 16 17 34 0 13 17 9 15 22 17 23 10 20 9 0 6 17 17 37 17 30 23 36 13 14 13 6 31 21 22 27 9 9 20 10 11 27 19 19 18 23 21 20 17 14 23 27 17 9 13 10 24 24 9 20 13 27 24 17 16 13 24 24 10 13 6 6 19 16 13 10 17 12 28 24 17 7 3 20 20 13 37 3 12 17 17 21 21 3 17 28 10 17 23 28 10 10 21 22 17 31 10 19 23 20 9 13 20 17 17 3 16 24 28 13 14 24 14 34 14 20 22 16 13 9 16 21 22 21 19 20 29 18 16 13 16 6 16 28 35 13 24 20 24 6 31 19 19 7 7 27 23 20 35 13 14 11 27 14 16 19 29 14 24 16 31 17 23 15 14 24 24 24 17 21 17 38 24 20 23 12 24 27 21 20 24 30 28 15 13 10 24 13 20 16 14 0 15 14 13 0 10 3 20 10 7 17 17 14 40 22 17 19 20 21 34 15 17 13 20 8 9 22 11 25 25 14 16 7 13 16 14 13 30 6 21 3 17 7 16 14 24 34 10 21 28 37 20 16 13 7 30 17 13 13 10 38 14 14 6 18 13 3 20 18 12 30 24 21 10 16 31 12 16 23 20 17 13 17 16 17 19 16 21 13 28 23 17 27 26 17 7 10 27 15 27 3 15 16 30 17 30 13 24 17 17 3 34 17 17 19 13 20 24 13 21 19 28 17 25 8 36 13 12 13 13 16 38 23 20 17 10 3 14 26 10 21 12 10 19 16 9 13 10 24 12 10 31 10 6 24 29 17 22 24 20 36 15 20 20 20 12 9 16 18 13 25 10 29 3 31 17 14 20 15 26 6 31 20 20 24 26 14 22 10 28 10 23 24 23 3 9 7 37 17 11 6 13 13 28 17 18 24 21 21 13 11 7 10 13 18 3 31 8 6 27 20 27 12 25 24 17 6 13 17 14 27 17 36 24 7 28 17 14 21 19 14 13 35 26 26 6 19 23 27 24 28 14 13 10 14 10 17 25 19 10 24 24 14 10 13 21 23 24 13 17 17 21 9 13 28 3 6 23 14 10 20 35 44 21 23 20 21 13 22 17 10 34 23 13 13 7 17 10 11 13 17 19 23 14 14 17 31 20 16 17 27 20 7 23 20 18 31 17 22 37 21 10 20 28 26 19 20 19 17 24 22 24 17 19 16 15 12 19 21 18 21 17 23 17 24 7 21 20 24 22 16 14 17 24 6 9 23 13 0 16 22 17 21 9 24 16 21 17 28 16 25 19 6 7 16 7 24 27 10 14 23 31 10 30 23 16 17 21 17 10 17 16 22 24 20 31 23 21 21 10 17 20 17 25 21 20 10 10 6 7 28 31 10 17 23 14 23 17 7 21 34 24 31 13 10 17 22 24 9 9 17 28 20 27 16 10 6 18 21 20 24 22 6 9 27 7 7 16 10 17 28 18 23 7 7 14 7 16 21 6 14 16 13 13 24 9 21 14 17 3 13 14 17 15 17 20 16 6 3 34 18 19 36 13 10 14 20 6 27 7 17 27 14 17 19 3 38 13 35 6 20 40 20 17 10 20 16 17 24 16 9 23 25 20 13 25 10 23 35 21 29 24 24 9 31 12 19 16 6 24 21 12 14 24 14 27 13 10 16 3 10 10 14 23 30 24 17 9 28 20 27 23 17 9 17 14 3 18 14 14 27 13 17 20 10 16 30 12 3 21 24 17 10 13 18 6 7 17 20 19 17 17 22 17 16 16 5 14 17 20 17 22 30 16 13 15 6 16 3 3 30 16 13 3 10 7 15 9 23 13 14 23 21 20 12 20 22 20 17 17 17 14 7 17 24 24 7 13 11 18 21 3 14 20 6 20 8 26 17 24 10 23 19 12 23 14 17 7 24 18 21 26 23 9 16 27 31 13 20 14 3 14 17 7 22 24 27 36 9 28 12 34 3 17 21 10 3 24 10 10 7 6 24 27 7 17 13 14 23 13 22 23 20 7 7 13 17 20 22 28 37 9 31 20 13 10 7 14 12 17 21 37 16 12 31 18 34 16 14 13 23 23 16 27 7 13 17 17 16 10 36 11 3 16 38 28 26 17 24 6 10 34 21 19 10 24 13 20 7 30 21 11 20 23 28 13 10 10 18 23 3 19 3 21 17 13 10 3 10 8 23 6 14 14 3 23 15 13 10 19 21 13 24 10 21 7 14 41 30 6 11 10 19 10 34 19 14 24 8 17 27 10 13 27 17 16 20 26 6 10 13 10 16 10 14 9 3 27 20 26 23 31 15 10 23 20 14 13 10 24 20 16 23 24 17 14 13 20 31 7 3 20 27 13 16 10 24 0 19 23 16 20 13 18 14 24 24 3 28 27 24 41 6 22 3 10 13 6 27 13 23 24 24 12 14 0 16 21 20 34 13 10 27 21 20 24 20 13 38 9 21 20 24 20 17 24 14 14 31 6 22 13 21 20 30 7 7 10 10 21 14 16 26 24 17 20 16 31 27 8 7 3 14 17 10 28 21 26 19 23 17 13 9 9 23 31 24 24 20 21 20 17 7 9 21 30 20 6 24 21 16 28 0 35 24 20 13 16 23 10 15 27 17 20 17 10 23 17 32 24 35 24 17 21 17 21 33 7 13 14 14 23 23 3 17 27 24 10 20 13 23 16 20 9 20 13 9 31 22 12 14 27 10 13 24 17 15 3 38 15 20 23 12 17 28 9 26 22 17 10 6 21 28 16 7 16 13 28 22 24 31 34 20 13 17 16 0 23 10 14 13 7 17 10 20 18 22 27 14 28 21 10 20 35 21 20 21 15 19 9 24 10 13 17 18 11 17 7 28 9 15 24 3 24 15 20 10 20 16 7 27 28 13 29 10 14 24 10 22 11 20 10 20 16 24 18 7 16 13 20 10 20 20 14 17 31 27 17 27 0 31 10 3 18 27 6 23 19 10 23 14 26 7 16 17 24 9 6 14 31 16 38 14 24 10 11 9 15 34 13 13 27 17 21 13 14 16 24 17 24 16 20 22 23 34 13 6 30 21 17 21 21 22 19 17 41 12 17 13 13 10 24 10 17 21 31 3 37 10 48 19 19 16 10 14 3 9 30 14 10 10 28 21 29 17 12 11 11 6 20 29 14 10 9 20 9 31 3 17 14 15 8 16 7 17 17 22 17 7 17 14 10 3 17 14 7 19 20 16 3 17 10 6 23 13 21 20 12 7 27 30 16 14 9 12 17 24 12 16 17 6 7 28 24 29 30 20 7 15 12 25 17 16 10 19 21 10 25 24 7 27 17 28 26 23 17 7 20 28 10 16 20 27 20 31 13 27 7 10 8 12 6 19 12 13 19 23 13 22 17 6 10 10 17 13 20 10 7 20 20 13 14 16 17 18 20 3 21 20 6 20 24 13 6 13 21 10 16 11 3 16 6 14 16 17 20 23 27 30 24 14 25 19 12 13 17 15 9 14 16 17 27 15 19 34 13 23 22 14 7 21 24 0 10 37 23 19 21 10 12 16 24 17 14 14 22 13 23 20 24 33 16 20 27 7 26 17 15 27 3 13 3 10 10 24 20 0 13 13 3 14 13 19 17 21 9 14 13 8 11 14 17 7 13 16 12 22 30 17 14 14 13 14 6 13 17 20 16 13 30 21 13 20 24 27 17 13 22 13 16 16 12 16 7 24 9 27 27 28 27 21 14 20 31 12 6 6 10 28 18 15 23 24 7 20 15 14 6 16 21 3 20 20 17 35 13 15 21 31 17 27 17 13 16 13 16 16 21 13 17 13 22 24 17 13 14 13 24 14 16 10 9 13 23 21 23 27 38 3 10 13 17 17 3 14 13 23 31 21 16 26 13 13 10 26 20 17 14 21 20 24 19 7 16 23 27 13 13 27 20 7 10 21 28 17 28 24 16 6 16 14 3 24 27 7 20 31 12 31 10 7 16 0 15 17 24 9 14 23 10 23 20 10 27 9 7 23 20 13 9 30 27 12 13 28 24 29 13 14 13 0 13 13 37 21 31 10 6 16 44 7 24 23 24 10 14 17 21 10 24 3 18 10 10 6 48 24 23 7 17 20 17 16 17 22 16 13 16 3 17 24 14 23 21 7 14 19 10 23 13 17 19 31 24 34 29 10 24 9 13 20 27 42 18 13 23 10 13 24 14 11 16 20 21 8 28 37 10 20 14 13 13 23 21 16 34 13 20 22 20 16 6 20 13 24 11 10 17 14 14 26 7 7 14 3 18 11 19 21 20 13 15 30 17 19 17 27 9 16 24 17 24 10 17 20 13 17 24 23 6 7 25 17 13 21 21 14 16 14 13 31 7 28 20 23 23 17 38 6 38 24 14 31 17 16 20 30 27 14 22 23 13 27 20 21 28 23 3 6 13 16 38 10 7 9 9 25 12 22 13 15 23 17 34 16 17 31 17 13 20 10 27 24 16 27 26 23 27 19 14 23 20 16 20 6 23 3 13 33 21 31 12 20 16 17 31 20 14 17 10 16 24 23 18 18 10 34 0 27 23 16 27 0 35 27 21 24 24 22 21 16 24 17 17 17 23 13 17 25 24 16 14 24 14 13 10 17 22 17 20 20 20 24 22 14 20 17 24 10 27 7 20 14 16 20 9 7 17 23 22 13 23 10 17 24 16 15 20 17 16 17 3 17 10 21 27 6 23 28 12 17 10 3 6 15 24 22 30 16 7 21 13 6 28 18 24 10 16 22 13 17 23 28 31 18 11 38 20 27 7 14 8 14 14 14 7 25 10 20 24 9 12 9 6 6 10 6 9 12 21 20 24 15 10 3 13 21 7 30 10 12 19 16 28 17 15 14 16 28 19 20 14 3 14 3 14 23 3 17 22 9 21 24 22 31 20 17 17 20 10 25 27 34 14 14 15 17 18 20 24 21 24 21 26 27 13 27 6 20 17 18 23 3 7 13 19 13 22 19 23 27 16 17 3 15 7 13 22 10 23 10 34 21 17 15 10 24 16 10 23 21 6 17 13 12 31 0 7 27 13 12 27 13 24 23 17 17 14 29 14 30 34 17 9 7 26 13 13 3 24 10 35 24 24 30 27 24 19 14 13 34 28 24 23 13 13 34 34 13 9 14 28 30 17 0 7 13 17 24 27 26 17 14 31 28 13 20 28 13 42 9 27 24 17 38 3 24 17 20 21 25 27 18 24 27 15 20 10 23 15 6 20 27 12 19 23 16 10 12 38 0 16 20 16 13 21 20 10 14 16 16 16 3 24 13 16 0 21 14 18 6 25 14 10 6 17 25 23 23 3 27 10 14 23 27 24 12 24 13 17 23 24 28 18 6 3 45 16 23 24 10 0 17 20 6 3 3 13 25 3 27 27 7 24 14 20 19 14 15 21 28 16 13 15 13 13 6 20 14 14 14 27 28 27 10 10 31 13 33 22 15 15 23 7 7 30 23 19 3 17 21 17 16 45 11 24 9 15 42 40 14 10 15 3 17 24 22 0 24 13 10 24 28 34 17 24 12 24 13 16 7 21 9 19 24 17 23 16 0 16 26 16 17 27 16 34 9 23 31 3 17 22 16 24 7 7 23 9 13 14 24 19 24 23 10 27 30 21 22 33 23 20 31 24 10 27 7 17 17 16 21 17 20 13 24 19 29 28 3 14 20 7 3 14 9 16 9 14 34 21 14 13 9 17 14 14 7 9 17 18 21 17 14 21 14 23 7 17 21 24 20 27 15 16 14 3 27 24 17 16 0 12 12 30 20 6 38 20 3 13 17 9 22 13 3 21 15 27 20 13 17 11 9 7 12 10 26 20 14 15 22 10 20 30 16 13 13 24 26 0 27 14 20 16 25 13 12 24 16 14 26 21 17 24 14 20 13 31 19 12 21 10 14 14 24 7 14 13 13 20 27 14 22 24 23 0 21 17 18 17 18 10 23 19 17 20 17 10 21 26 27 15 20 10 14 17 22 20 17 13 27 23 23 25 13 10 19 6 24 24 34 16 22 13 10 10 17 0 19 21 21 19 33 6 16 24 17 0 20 26 37 26 24 23 22 31 11 22 27 9 8 20 28 6 14 28 14 20 26 13 10 13 13 13 14 14 25 27 10 16 13 15 24 20 10 9 26 23 6 22 17 29 13 14 0 17 9 23 20 23 28 17 24 13 10 7 13 15 17 7 45 23 27 21 18 10 0 6 28 14 13 34 23 17 21 10 24 20 24 27 16 28 10 31 15 7 12 21 9 3 21 26 23 10 20 10 21 10 16 21 20 16 13 13 6 13 20 23 6 10 26 16 16 15 20 24 20 21 17 30 10 6 13 31 9 14 15 10 23 37 22 3 10 15 20 7 17 24 21 10 10 13 33 24 20 10 24 10 14 26 34 30 30 38 21 20 16 16 12 16 24 20 12 24 0 17 17 13 19 16 31 27 7 13 30 11 20 24 14 14 24 13 40 13 17 31 12 14 28 7 6 17 7 17 6 16 31 18 7 16 14 13 24 10 28 7 16 23 15 24 7 24 16 28 13 7 17 13 14 17 27 17 13 13 24 26 9 14 20 10 13 21 24 13 20 10 17 21 14 9 30 27 17 22 17 28 12 20 14 20 13 11 22 22 21 6 26 23 24 6 13 33 20 20 17 10 17 6 6 14 17 21 3 0 14 7 24 13 10 27 6 16 19 19 24 20 9 13 19 15 10 6 17 27 20 23 24 16 20 11 24 16 33 31 6 17 7 20 20 9 20 14 10 18 20 10 15 14 3 3 13 19 25 20 23 13 17 7 13 3 23 13 17 20 3 28 19 35 10 6 27 34 14 17 10 17 13 6 38 6 16 24 9 20 13 10 20 13 19 9 24 28 31 24 24 6 24 20 20 14 30 12 14 10 21 18 21 14 30 19 17 14 17 9 23 8 28 13 10 19 27 30 16 7 7 24 20 27 26 20 16 9 20 20 27 12 13 10 31 20 19 30 12 17 24 3 20 17 17 27 0 10 13 17 7 9 24 24 7 3 24 6 10 17 21 17 28 13 24 27 14 20 10 16 20 7 10 24 17 24 30 24 16 16 13 23 14 16 20 19 17 14 13 21 16 10 13 23 10 10 17 30 20 13 21 13 17 23 21 6 20 7 27 9 17 21 9 21 21 20 31 17 17 24 21 35 10 17 7 26 9 27 19 14 24 34 10 27 13 17 21 18 18 13 16 24 4 3 21 17 13 20 14 21 25 22 21 17 22 13 27 19 7 14 16 21 18 27 21 23 11 27 20 27 13 28 9 22 34 12 18 0 23 12 13 12 27 10 38 17 18 3 34 23 7 13 31 27 15 20 28 24 6 17 15 27 11 27 20 24 24 13 10 23 9 14 28 10 17 13 21 12 16 24 20 14 14 17 16 23 27 17 17 31 19 10 17 10 14 12 19 6 24 17 35 27 17 10 6 23 36 6 17 15 3 17 16 17 14 21 30 13 21 6 23 30 21 17 13 16 24 6 27 16 17 27 34 14 27 12 13 24 30 14 28 14 10 30 20 14 34 13 19 10 20 24 30 16 17 6 7 28 24 18 17 13 31 28 27 20 21 19 38 20 14 17 17 16 27 3 27 7 14 20 16 13 24 17 35 16 24 13 16 20 14 24 20 16 10 27 21 21 16 14 24 8 14 17 10 31 10 17 30 48 26 10 3 17 16 17 18 17 16 31 6 20 24 9 13 10 13 34 10 14 14 23 10 10 9 10 17 6 31 26 16 7 14 14 7 12 17 12 0 13 16 13 19 16 24 34 7 19 20 27 17 10 21 9 12 16 20 23 6 28 24 20 13 10 28 31 9 24 21 12 38 20 16 24 11 27 24 9 24 21 7 21 27 6 27 7 10 20 17 27 18 24 7 10 10 26 16 13 27 23 20 20 25 21 34 17 30 3 17 3 24 16 21 17 10 13 10 21 23 3 35 20 24 24 10 0 20 15 14 15 24 16 20 27 27 24 20 17 24 20 31 30 24 10 19 10 17 10 10 29 20 17 17 24 21 16 21 8 7 9 16 16 16 17 21 17 14 10 6 13 21 24 17 7 6 27 6 20 20 13 14 16 3 14 14 24 21 19 21 27 27 23 17 20 19 22 28 24 14 6 10 16 24 13 20 0 9 9 6 24 23 11 10 10 15 25 22 23 22 16 8 12 14 13 14 16 35 17 20 14 6 24 32 10 13 19 16 20 26 14 17 22 9 6 23 14 16 33 20 13 16 10 7 18 32 17 12 6 12 16 12 8 16 18 29 29 21 17 7 0 3 0 27 10 23 14 11 30 37 13 17 17 6 14 9 0 24 3 24 11 19 13 13 8 13 14 20 20 19 22 0 10 20 7 19 10 21 9 19 17 13 7 19 21 22 18 34 20 20 21 24 15 12 3 29 16 17 0 14 9 35 23 22 25 24 20 21 27 13 0 21 18 17 9 10 23 14 20 17 17 7 7 17 9 20 30 16 18 21 13 34 24 10 17 31 26 20 31 13 17 6 9 10 26 24 17 23 17 16 20 13 23 15 14 13 27 27 22 13 27 18 31 27 14 14 17 13 20 10 24 17 27 22 23 13 19 28 7 27 17 19 30 21 19 22 10 20 35 17 13 7 3 11 13 24 19 20 14 14 27 16 21 20 19 16 20 20 21 6 14 20 34 31 34 24 10 22 25 10 19 13 16 9 17 17 16 21 17 27 14 21 18 10 24 36 17 25 21 6 17 7 17 24 17 0 30 10 6 35 9 23 21 31 6 21 21 18 17 13 22 16 30 13 15 10 13 16 7 13 2 24 14 5 27 13 31 22 6 3 14 24 26 10 13 23 7 20 21 10 6 17 9 10 13 13 11 6 21 14 20 24 26 14 9 37 21 16 17 21 37 3 14 13 21 17 27 21 12 41 16 20 6 7 17 20 17 20 27 17 12 6 14 0 20 9 15 17 20 17 17 17 17 13 13 10 9 24 38 10 19 23 15 7 21 25 18 3 23 10 20 13 23 15 7 13 19 14 24 23 14 21 10 23 35 8 17 17 20 17 13 20 20 17 21 23 21 24 19 9 13 19 20 28 9 20 27 20 22 7 17 21 21 23 37 0 15 12 24 9 14 24 25 30 17 21 13 14 27 21 24 13 9 23 14 18 17 20 24 17 24 16 17 24 12 14 33 19 3 25 23 17 28 7 9 20 3 24 20 24 9 17 28 15 19 10 27 17 9 36 17 13 10 11 14 27 24 21 6 16 17 10 26 28 13 20 6 20 34 24 18 26 6 29 14 14 19 16 16 17 16 15 16 15 31 24 17 27 25 17 27 19 16 17 21 11 24 20 14 6 24 13 17 20 19 10 28 25 26 15 22 23 13 13 7 17 7 28 17 6 27 28 9 17 11 13 24 20 10 10 20 24 21 21 24 16 23 23 21 27 9 21 28 20 17 13 16 13 13 14 17 20 13 15 13 10 24 10 15 26 17 6 12 17 14 3 16 24 13 24 24 9 10 18 24 10 7 9 30 21 9 13 21 17 27 7 7 15 14 17 0 21 14 24 17 13 27 24 16 24 6 17 23 13 6 17 7 24 17 12 13 23 38 10 14 24 26 7 15 13 14 8 26 10 10 17 7 7 13 38 27 6 33 22 28 10 22 13 17 16 14 18 17 19 26 26 18 13 20 24 17 17 15 11 37 19 14 17 36 9 24 17 17 24 23 14 30 23 19 10 34 7 13 9 22 19 6 17 16 17 16 27 24 7 20 13 13 24 16 7 28 23 6 24 23 6 24 14 30 23 8 20 14 16 17 20 14 14 16 6 13 15 18 27 26 30 13 21 13 24 20 17 22 10 24 10 24 13 17 17 24 25 21 17 21 23 6 10 10 34 19 7 13 15 20 0 19 34 13 6 15 0 14 6 3 6 10 20 3 16 37 14 10 31 7 34 17 27 16 18 3 16 21 24 13 21 13 7 24 21 17 15 13 18 20 24 29 20 3 19 24 9 11 13 7 17 30 11 16 13 19 13 12 10 12 28 19 19 14 6 27 13 24 10 14 22 14 21 24 20 13 27 10 13 11 27 20 10 20 10 14 13 17 12 21 29 28 17 7 16 3 18 24 13 21 21 13 18 15 24 20 17 17 11 27 34 20 19 15 13 10 21 21 19 31 17 13 13 14 10 17 27 28 3 13 19 9 17 34 16 17 16 34 25 13 7 17 7 26 24 19 10 14 21 12 23 13 19 20 24 17 13 17 18 21 28 14 34 17 18 23 11 23 24 26 11 24 21 17 7 12 27 17 10 23 20 23 13 6 12 10 16 12 22 14 22 17 21 20 12 17 0 21 17 19 20 17 17 26 21 16 14 10 20 23 12 24 23 9 16 3 7 24 13 14 16 13 11 13 10 24 16 30 13 6 31 17 20 14 16 24 17 15 20 21 21 18 14 11 34 20 13 14 24 16 13 17 9 34 24 27 27 9 10 30 29 31 23 14 17 13 21 20 13 13 34 14 30 14 19 20 9 6 20 20 30 27 23 17 14 20 22 23 22 28 16 12 18 20 21 14 17 26 7 27 24 10 14 30 21 17 24 21 17 27 10 16 19 28 17 20 17 23 22 9 24 13 17 27 7 31 24 24 38 14 10 19 24 14 9 14 14 31 8 27 19 7 16 16 13 24 27 3 21 30 20 21 7 14 17 41 14 24 23 23 10 6 13 14 20 14 3 16 27 17 17 16 20 12 9 17 17 7 17 20 16 7 17 10 28 15 10 24 22 9 7 30 14 21 27 17 24 26 14 26 20 21 21 7 14 39 21 14 10 21 23 34 23 14 20 0 3 22 31 20 6 16 17 21 13 19 12 27 10 20 21 23 13 24 34 17 10 7 14 10 19 23 10 14 34 14 21 16 16 23 22 12 21 6 23 3 6 24 10 28 17 8 30 17 16 10 10 17 23 27 13 21 17 6 13 24 17 10 28 18 23 31 28 23 17 20 21 28 14 17 12 40 12 24 23 21 13 14 20 3 14 6 17 30 12 21 10 14 17 21 6 20 16 21 23 24 14 28 24 24 3 27 13 7 17 17 23 30 24 23 14 25 31 24 15 9 10 27 16 6 21 27 10 16 37 30 20 31 27 3 16 17 6 10 18 13 3 23 13 23 13 0 7 19 27 17 23 34 19 17 22 19 15 13 13 21 17 36 7 14 9 11 7 31 21 10 24 30 24 16 21 25 14 22 16 8 19 6 16 23 17 3 13 13 20 32 17 26 24 28 21 19 27 26 9 30 17 19 20 10 16 30 23 18 18 21 7 13 7 21 7 30 17 21 14 27 24 24 37 10 15 16 6 3 27 13 26 23 13 14 19 30 16 19 17 20 16 14 13 13 3 6 14 20 17 19 29 7 16 20 10 10 28 7 19 21 19 14 6 19 23 16 9 24 10 18 24 13 16 10 24 14 21 20 10 10 10 15 10 6 17 20 18 15 21 0 16 7 17 10 6 18 24 6 24 28 28 19 24 20 10 13 14 17 13 20 20 22 24 31 10 17 17 7 19 17 6 36 10 16 17 27 24 16 23 24 9 33 12 9 21 17 15 28 27 17 17 18 14 17 13 16 10 15 23 14 13 21 13 23 21 3 26 16 17 20 11 13 0 27 21 10 28 3 16 14 3 17 10 34 24 17 24 23 10 20 23 16 13 20 34 13 23 13 27 33 19 17 27 20 27 0 20 23 20 21 7 19 31 20 17 23 17 19 14 37 6 3 13 21 0 23 32 29 24 17 38 6 22 12 30 20 34 17 17 16 3 15 7 20 13 16 7 10 16 21 22 19 28 10 17 7 24 14 10 16 17 11 20 10 30 23 16 20 7 20 18 22 13 25 14 23 27 17 23 24 10 16 20 24 13 10 24 17 21 17 16 13 17 32 22 9 3 20 19 21 14 37 17 9 13 12 12 10 16 13 13 20 17 23 24 28 13 14 24 10 12 13 20 27 20 15 16 30 20 14 16 23 14 14 16 3 18 10 22 3 17 14 20 14 12 13 19 16 28 23 16 15 14 23 28 31 13 10 10 3 16 26 20 3 20 20 31 7 21 17 18 14 16 34 21 12 20 20 21 3 6 24 19 27 32 17 14 15 10 7 7 10 26 20 10 10 17 9 23 21 14 27 21 13 13 6 17 0 17 7 13 23 10 14 19 16 10 25 13 17 23 30 34 27 15 23 24 16 16 14 7 19 23 13 21 17 24 31 6 10 15 10 17 10 25 20 10 31 12 7 24 11 17 3 14 27 24 27 27 14 17 24 16 14 18 13 13 3 14 14 16 20 15 49 21 21 14 10 13 20 20 21 20 6 10 16 12 17 16 24 27 6 10 20 7 23 7 21 17 10 17 22 45 12 10 10 17 25 17 13 24 7 9 16 24 14 15 23 17 10 24 17 16 14 13 29 33 14 13 13 21 27 35 13 20 6 17 27 10 14 17 7 26 24 12 17 33 22 9 28 17 29 21 14 20 23 7 13 13 21 10 13 15 19 10 19 27 14 17 20 10 10 17 16 27 14 10 13 10 31 17 9 27 12 23 13 21 23 20 22 21 16 12 28 21 17 10 24 17 16 10 21 20 15 3 20 37 21 28 30 9 10 27 13 31 17 20 13 20 24 20 20 16 7 24 10 13 17 13 24 19 13 20 7 16 34 21 23 7 16 16 10 10 27 21 10 30 29 20 14 45 28 3 13 23 3 8 13 13 7 21 27 16 38 10 20 20 19 17 14 6 26 23 13 23 7 20 20 28 17 20 17 24 27 7 38 22 17 20 31 17 13 17 20 16 13 6 26 13 31 3 17 20 14 3 19 27 19 17 24 24 26 24 10 37 17 20 28 6 27 23 17 14 26 21 27 9 14 21 21 24 20 13 16 20 6 13 10 20 16 14 10 17 20 14 10 3 21 22 16 24 16 20 20 10 16 17 13 34 23 21 10 12 10 21 31 30 4 21 17 10 11 12 17 12 13 21 18 23 21 31 31 23 13 11 9 9 20 27 19 28 15 16 10 23 15 24 9 17 24 19 6 13 10 18 3 20 28 14 7 6 16 24 6 17 20 20 24 34 14 28 31 10 28 19 22 17 27 17 17 11 23 19 10 16 24 19 23 13 14 9 14 10 10 26 10 22 8 13 13 7 3 6 22 17 21 17 21 25 10 7 17 34 31 17 14 31 28 21 3 14 15 14 17 17 24 20 27 20 9 13 19 26 26 24 14 24 34 14 19 6 14 26 24 24 18 20 10 14 27 13 27 10 19 24 13 17 10 13 19 22 16 28 24 26 24 27 24 35 10 24 10 25 20 10 24 6 16 18 28 26 0 20 10 31 16 10 31 21 34 14 15 16 13 14 30 21 10 31 10 27 17 6 17 13 13 21 8 10 9 30 37 16 3 20 16 7 9 24 21 16 10 10 17 19 10 6 10 9 11 24 16 21 21 17 17 6 13 10 6 31 10 13 28 13 28 10 7 17 30 31 36 33 16 40 20 14 16 24 13 13 32 14 14 34 26 22 26 10 19 24 6 12 10 23 21 13 10 9 17 24 13 21 21 3 15 20 14 22 14 20 3 6 24 14 20 17 9 23 30 21 23 28 31 31 16 3 10 13 6 17 24 28 23 24 30 31 35 10 16 20 3 12 21 24 21 17 16 28 11 27 16 16 20 13 17 9 17 13 16 20 14 16 27 17 20 20 24 17 14 26 30 14 16 17 28 21 28 21 22 17 17 31 17 7 7 23 28 11 10 10 17 14 17 30 17 27 17 18 31 20 9 19 16 19 13 26 25 31 28 13 23 10 10 31 14 19 21 22 10 28 27 17 10 15 3 28 17 21 16 21 16 10 33 22 21 23 12 16 24 21 13 13 24 12 10 24 6 24 23 17 30 27 24 7 17 3 30 13 34 20 13 13 17 12 23 23 27 15 27 13 3 29 7 17 14 27 17 13 34 10 13 16 14 23 16 23 22 21 10 18 11 15 13 20 10 20 14 21 34 30 10 34 20 20 21 13 10 17 6 17 27 13 27 27 31 31 27 28 34 21 9 22 17 30 31 29 7 6 13 29 29 17 20 15 9 20 13 10 22 20 17 13 7 13 28 21 14 17 6 15 27 23 10 21 31 17 7 17 21 21 16 31 33 38 14 24 21 17 27 14 19 24 14 26 20 13 24 21 24 13 7 23 14 16 3 21 6 14 13 12 16 17 6 19 21 10 13 17 24 7 16 19 14 17 19 10 18 20 24 10 27 20 23 18 21 20 17 31 31 13 24 31 15 16 23 31 24 7 17 10 22 21 19 20 13 24 9 13 23 28 10 31 13 23 14 10 21 17 6 29 12 13 10 23 20 16 17 6 17 24 17 13 38 13 31 31 20 24 26 13 18 27 20 13 3 10 13 33 0 9 17 31 20 14 27 17 23 6 13 23 31 33 16 10 9 13 21 40 13 24 3 20 14 21 16 6 28 22 6 21 17 17 24 27 15 17 28 6 22 14 0 13 13 17 7 24 19 20 23 27 41 17 34 25 17 16 14 10 20 17 20 13 19 21 8 24 19 14 26 30 16 20 10 7 17 10 14 16 20 29 37 7 20 37 6 38 16 38 14 24 28 10 31 9 23 22 10 24 6 17 10 9 17 23 31 17 28 17 31 7 19 19 24 16 27 19 23 34 24 13 12 13 13 14 19 24 12 23 28 20 3 20 12 17 24 17 24 7 13 28 34 7 16 13 14 21 10 17 21 17 10 13 28 31 16 14 9 12 22 12 30 6 17 25 13 35 3 17 14 15 13 14 15 10 20 24 14 17 30 20 17 19 17 17 17 13 18 20 16 13 22 18 17 27 34 24 17 8 19 17 17 7 13 27 8 17 13 7 20 13 20 11 19 21 6 24 23 21 10 27 13 24 30 13 23 10 10 19 24 14 28 13 9 13 10 6 15 28 11 13 19 14 3 13 17 34 10 20 9 13 17 31 29 9 19 20 10 17 24 27 16 16 13 21 17 15 18 20 9 17 10 22 19 13 14 17 9 6 24 16 33 12 20 15 0 20 20 34 23 27 6 24 24 26 21 12 8 13 28 27 26 6 17 23 17 31 23 31 26 10 26 12 23 3 23 14 24 14 17 14 14 13 16 19 21 9 14 16 26 8 19 10 17 0 17 25 17 16 7 20 31 16 0 3 16 20 20 16 13 15 13 3 13 27 21 13 9 13 24 10 20 13 16 30 26 16 21 16 22 13 30 30 20 26 8 16 19 33 22 31 10 0 16 15 27 23 24 10 34 18 16 29 27 21 23 23 16 0 26 21 13 21 31 6 22 20 29 21 11 31 20 20 6 10 17 21 9 10 9 14 7 20 10 20 7 20 20 19 19 14 20 33 27 13 17 17 16 9 13 20 20 19 23 18 15 3 15 29 33 21 9 10 13 19 10 7 20 26 19 17 27 22 27 24 24 24 17 24 10 16 9 31 9 14 14 30 19 21 16 21 21 23 19 21 16 10 14 10 34 6 24 17 10 27 17 30 21 13 9 14 17 18 34 20 20 20 7 13 16 12 9 9 8 23 14 32 13 10 17 13 7 11 14 34 23 34 17 20 38 21 16 15 28 10 11 6 17 15 17 7 16 14 11 15 13 17 14 13 24 17 26 14 19 7 7 23 10 25 24 14 16 13 22 24 13 17 16 24 10 13 14 27 24 10 17 14 6 15 23 19 15 17 19 19 36 27 26 31 16 10 14 8 23 31 7 20 24 21 16 14 17 20 24 21 27 11 14 27 7 14 13 25 24 17 9 20 20 20 28 24 26 15 7 23 29 10 7 19 24 14 23 13 14 28 12 7 14 7 9 16 7 25 3 24 13 24 20 20 27 20 17 17 23 21 16 17 15 17 9 24 13 23 17 7 13 17 25 13 16 10 6 21 25 20 10 6 10 13 21 22 6 23 10 29 34 10 31 24 10 27 37 10 7 19 24 7 20 28 20 10 10 18 15 28 16 28 20 20 6 16 23 13 17 19 7 17 10 10 30 10 35 10 22 13 13 28 17 9 21 16 35 16 9 10 27 17 20 17 3 9 17 14 17 23 10 3 17 23 11 22 20 23 14 20 14 24 24 17 31 23 6 23 20 6 31 17 14 27 21 24 10 3 23 3 21 9 30 16 10 14 17 19 31 20 23 17 24 24 16 27 7 6 28 17 20 11 20 13 17 24 17 20 16 23 9 17 19 21 19 17 23 7 20 13 10 10 15 31 27 17 24 6 24 24 26 13 14 24 17 14 26 27 14 24 26 13 14 19 0 35 28 11 14 27 15 13 28 16 23 45 17 11 21 19 23 28 15 23 17 10 6 21 17 16 22 3 16 21 7 20 17 20 17 16 37 15 14 24 3 3 20 24 17 35 23 10 21 16 14 13 17 35 16 9 20 20 20 17 12 10 21 13 24 16 14 23 13 10 23 24 19 10 24 31 16 16 14 13 23 9 21 21 19 17 17 17 20 17 16 21 13 24 17 13 7 10 10 20 7 10 20 10 14 6 15 16 13 20 6 10 22 27 20 6 19 10 16 20 20 26 27 10 12 10 24 10 16 7 16 34 24 17 21 27 28 16 24 16 27 17 16 6 27 7 22 21 9 17 19 20 6 17 36 14 27 10 20 7 31 15 22 14 17 26 17 22 40 17 17 27 13 20 7 17 14 17 21 14 9 14 27 20 20 21 17 3 31 17 16 17 6 7 21 33 15 0 37 19 19 10 13 28 24 23 3 6 3 24 17 17 16 21 3 13 7 13 9 14 3 15 17 24 10 17 10 10 15 20 20 34 13 13 16 10 11 16 12 12 10 11 21 9 13 31 19 23 27 6 19 6 19 14 24 21 11 12 31 34 17 17 13 6 13 17 13 17 13 24 6 38 10 17 23 18 19 26 14 9 14 14 10 17 33 15 10 30 23 10 22 17 16 27 13 3 22 13 17 17 10 8 23 25 26 17 8 30 23 27 21 9 19 13 13 6 7 15 35 9 13 20 20 20 28 17 13 3 30 24 11 21 17 28 15 14 21 20 21 21 19 10 28 19 14 13 16 12 29 16 3 29 24 26 14 16 24 17 6 20 9 17 13 18 16 17 13 24 27 17 17 25 16 17 27 23 24 26 13 3 14 13 2 24 18 24 19 16 6 21 15 10 19 17 17 13 13 17 9 27 10 11 28 10 16 16 19 13 31 17 37 3 0 17 15 28 20 24 28 15 28 24 24 20 13 13 21 10 23 0 16 17 13 16 6 21 13 16 23 20 9 7 20 22 20 17 14 24 13 28 24 13 7 19 24 13 22 19 18 13 17 28 13 23 20 9 10 7 10 16 17 27 22 20 20 18 31 23 14 20 14 21 23 20 17 10 30 23 6 20 9 14 14 30 3 16 18 23 23 13 20 16 21 16 27 15 7 13 19 13 13 10 20 20 22 20 22 15 14 15 21 17 26 6 15 10 24 21 16 20 24 12 16 31 15 27 8 30 13 17 21 18 9 9 9 14 23 7 24 19 13 17 30 24 25 17 30 3 10 22 17 17 13 6 22 13 14 10 26 15 22 17 11 24 10 16 15 7 34 28 13 14 27 14 17 26 21 22 16 21 24 14 22 8 35 14 16 13 24 20 13 19 16 30 24 35 20 17 9 16 16 7 17 13 23 21 10 10 17 26 28 24 35 16 31 28 15 24 19 18 3 20 14 16 13 20 26 14 11 31 27 16 21 21 13 14 13 10 17 17 20 27 14 30 18 24 21 17 13 14 21 15 30 20 17 16 0 40 17 27 22 13 0 3 27 31 13 7 26 7 10 27 23 26 21 19 21 14 22 30 17 13 24 21 20 20 28 20 20 13 23 20 24 21 7 20 22 16 17 20 12 14 13 10 21 3 20 17 13 27 16 36 17 10 23 31 6 16 25 13 22 17 27 23 20 34 19 26 28 16 22 14 14 12 10 10 14 23 23 10 28 14 24 9 18 24 17 24 13 13 24 20 13 13 20 17 6 38 19 13 12 16 23 22 24 14 13 19 10 34 17 6 28 20 17 19 24 18 10 13 14 19 21 19 10 21 10 16 17 23 13 13 24 6 22 19 16 16 27 31 16 22 13 27 25 14 24 11 24 0 13 10 21 26 7 20 15 22 17 27 28 17 22 19 10 17 10 19 13 7 13 29 33 10 26 20 6 11 22 20 10 3 17 22 22 6 23 19 20 7 3 20 19 17 35 37 17 14 10 20 20 17 31 24 14 17 13 30 16 9 16 10 17 16 7 24 8 14 7 17 13 8 15 6 14 13 33 21 24 11 17 9 27 17 14 23 14 21 7 23 17 17 13 14 14 6 21 30 14 26 7 7 21 13 29 27 22 10 17 10 10 17 17 14 23 17 12 9 10 28 19 13 24 13 10 17 20 24 3 14 7 10 25 20 22 7 16 7 29 16 17 20 13 23 19 12 14 20 14 14 24 6 17 24 21 9 14 31 24 24 17 0 14 2 19 10 19 27 30 3 7 14 23 17 13 17 17 14 24 14 17 9 19 19 34 27 20 7 26 31 17 13 13 10 16 13 14 11 22 24 16 13 21 16 9 12 24 14 21 27 17 17 17 13 37 20 14 27 11 15 9 35 23 17 15 13 14 27 18 7 16 37 17 27 11 10 28 10 15 20 24 24 14 24 14 13 3 14 3 7 24 27 23 9 17 13 20 29 6 20 10 42 7 19 23 41 3 21 35 13 21 20 14 9 13 17 31 6 13 16 3 16 22 17 28 13 27 29 17 27 21 16 20 25 16 16 23 10 10 10 38 19 22 17 26 7 27 10 16 10 13 27 21 16 15 14 24 11 0 18 20 20 21 17 13 7 17 17 28 10 24 17 31 12 13 24 17 34 24 3 14 10 23 13 13 21 13 16 26 14 3 28 16 14 7 18 14 18 9 13 20 22 6 24 34 6 14 24 28 10 28 20 7 22 17 14 14 14 40 19 25 21 21 34 17 24 9 20 23 34 10 20 6 34 0 21 19 16 17 16 17 36 6 28 14 19 17 13 24 13 20 10 27 7 24 23 9 7 24 20 21 20 3 24 10 10 14 24 20 20 17 17 30 6 14 35 24 27 22 13 10 15 19 7 20 22 24 10 7 25 7 13 16 13 23 34 13 32 15 9 3 29 23 31 6 23 10 24 15 21 21 24 24 13 13 30 17 20 21 0 17 7 17 27 23 22 34 23 18 10 17 6 22 16 17 7 16 3 17 17 17 22 16 16 23 17 13 27 16 31 6 17 14 17 7 26 11 24 27 6 26 20 10 16 20 6 20 17 17 23 19 31 16 13 17 20 6 6 17 3 17 14 10 21 36 7 27 9 9 34 20 10 21 23 3 28 10 26 13 30 27 14 23 14 0 20 24 10 21 20 24 16 7 10 20 23 7 25 25 10 20 30 7 7 17 21 17 20 9 23 20 24 0 10 22 23 23 33 34 13 9 12 14 19 9 38 29 14 20 7 19 41 27 31 20 17 17 29 14 24 17 27 24 30 17 23 6 28 17 17 23 27 10 27 17 34 10 13 20</t>
-  </si>
-  <si>
-    <t>EXN(0.5122335074157665, 21.034116656580657, 3.9411700325008594)</t>
-  </si>
-  <si>
-    <t>20 23 31 23 18 24 23 24 21 21 22 20 18 33 23 22 27 25 23 23 18 23 27 30 21 20 24 25 32 21 20 24 18 20 18 26 25 22 27 30 21 20 20 22 19 27 28 28 19 22 27 19 24 30 21 15 26 14 20 23 32 29 24 25 26 15 24 28 32 27 28 25 25 25 27 26 26 24 19 25 23 29 15 17 21 30 23 21 21 27 16 15 19 22 24 17 31 26 28 20 21 31 17 20 21 21 24 29 25 16 25 20 18 23 25 26 28 21 26 24 21 28 18 30 24 20 26 27 21 33 22 24 24 29 20 32 22 32 33 26 24 30 20 32 27 21 22 28 20 17 21 33 21 19 24 21 23 21 23 23 21 28 23 26 24 23 25 23 34 21 24 19 18 20 15 21 32 22 24 23 17 20 27 19 24 20 26 24 23 23 28 21 21 13 23 13 18 18 19 24 26 29 19 25 19 16 20 24 26 29 19 26 20 18 16 27 31 24 24 23 26 20 25 24 23 14 30 29 21 14 27 19 17 32 16 19 29 11 20 30 25 19 27 21 19 21 20 28 22 23 34 19 23 25 20 18 24 19 21 23 26 21 30 27 20 27 21 25 23 20 18 20 25 21 25 19 26 25 28 29 25 24 26 24 24 25 22 23 31 25 24 25 33 27 20 17 30 23 24 28 21 25 22 19 30 25 20 19 24 19 25 26 22 28 25 20 19 20 19 22 27 21 18 20 22 29 28 27 28 26 25 25 17 24 23 33 23 18 22 22 26 28 29 27 26 21 31 16 22 20 27 25 22 22 29 20 24 15 24 32 26 17 22 23 23 28 21 26 21 16 21 24 28 28 25 19 24 29 24 20 29 21 24 20 29 23 20 23 26 14 18 18 22 27 24 24 27 20 18 20 20 24 20 22 19 23 24 27 18 25 22 30 15 37 20 19 19 22 25 24 22 20 21 22 23 20 23 18 11 18 24 20 23 23 21 20 27 25 23 22 27 24 32 26 16 24 28 17 35 28 19 15 27 21 30 24 23 18 19 20 18 25 20 23 19 28 20 19 24 17 20 22 18 27 23 16 17 33 36 19 22 30 29 26 20 26 22 25 26 27 19 25 27 17 23 21 22 15 20 23 24 25 25 28 27 21 17 21 26 28 24 20 23 19 27 24 21 15 24 18 26 23 19 29 14 23 22 26 31 30 21 23 22 24 18 30 12 26 22 27 25 26 22 26 29 32 24 19 18 22 19 32 19 20 18 20 25 25 25 24 23 20 27 28 21 27 21 23 23 21 20 21 24 19 19 26 25 21 32 38 24 19 17 27 28 28 21 22 25 27 18 26 21 25 22 22 22 20 26 16 20 23 24 17 20 19 24 28 18 26 22 22 16 29 19 28 27 15 18 27 20 21 27 29 20 19 14 18 17 27 26 20 26 34 17 15 21 24 33 19 23 17 16 28 19 20 39 26 16 22 25 15 21 20 16 21 23 34 19 23 26 19 26 22 21 28 17 18 25 20 27 27 17 23 26 18 21 17 25 24 28 29 23 24 27 25 33 23 26 21 33 23 25 21 32 29 21 30 19 26 24 22 20 29 18 25 32 24 23 22 28 22 18 20 26 21 24 30 18 22 21 24 22 25 22 24 16 26 22 23 34 26 31 20 24 28 26 21 23 22 26 18 25 26 32 27 26 28 21 25 23 27 26 29 20 21 22 21 25 30 24 23 24 30 30 24 20 18 15 19 26 29 27 23 23 29 22 24 22 21 29 13 18 27 24 18 22 27 26 27 27 29 35 31 23 22 18 19 25 20 20 23 21 22 32 25 25 17 31 18 20 19 20 23 26 22 17 28 19 27 18 15 22 22 25 26 24 21 25 26 23 32 24 32 16 28 20 18 25 23 23 16 24 23 22 22 19 26 28 20 22 21 18 28 31 24 20 25 27 27 20 34 25 19 27 21 18 20 22 21 27 13 25 17 23 24 17 22 25 22 25 21 22 24 21 23 25 28 31 26 26 14 31 30 25 25 24 24 29 20 22 22 24 23 21 22 30 17 24 23 29 22 26 21 19 29 20 19 23 23 25 22 24 26 26 24 22 29 31 17 27 33 19 25 25 21 27 20 21 14 20 18 21 22 27 23 21 20 19 25 24 20 27 18 26 22 17 19 13 19 23 25 30 26 26 14 21 25 23 34 27 26 22 23 18 29 25 21 25 27 32 20 28 20 22 29 20 19 16 24 23 24 20 21 17 19 27 22 24 17 14 16 27 22 34 21 23 23 30 25 27 26 34 23 15 21 21 24 20 12 21 21 20 23 17 27 24 28 20 25 20 29 32 22 24 19 16 31 21 20 26 14 21 16 25 17 22 17 29 29 31 27 28 20 25 19 25 27 24 23 21 21 20 19 28 30 26 19 26 20 22 19 21 16 28 28 24 25 25 24 24 26 24 22 28 23 28 19 31 25 26 20 30 20 18 30 16 26 25 13 24 33 21 27 22 22 23 21 25 26 29 30 21 22 28 19 14 20 25 18 20 22 23 19 18 25 21 16 29 17 28 23 24 25 25 22 33 20 31 27 24 24 30 21 25 21 17 23 24 12 19 21 22 25 24 14 22 16 24 23 23 26 19 19 16 25 34 29 23 28 24 28 20 29 22 20 18 22 23 22 25 20 20 20 17 31 27 21 19 35 22 23 19 34 15 21 21 13 16 20 24 13 28 19 21 20 21 31 27 25 22 24 19 24 21 27 36 24 25 25 24 21 32 27 20 25 22 27 19 23 23 25 11 27 21 22 16 26 15 29 21 28 21 21 24 27 12 26 25 29 21 14 20 30 24 20 24 26 28 25 18 19 28 17 27 24 33 27 22 20 21 15 20 20 19 26 20 26 20 15 19 20 16 22 20 22 21 23 20 20 19 27 20 25 27 26 23 26 22 24 19 18 19 20 19 19 21 22 27 19 24 29 25 16 27 20 19 21 14 26 15 19 24 23 17 25 20 21 23 22 28 24 25 21 26 20 28 25 28 25 21 19 18 25 23 15 21 11 23 20 23 13 17 26 20 23 26 30 18 18 19 15 22 24 17 25 24 25 18 20 24 27 15 28 27 23 26 17 20 24 22 26 21 22 16 29 24 25 21 21 19 28 22 26 25 23 23 17 23 23 27 20 25 31 26 27 24 22 27 29 20 23 23 25 21 19 24 19 25 37 24 31 20 25 27 23 22 24 25 27 27 24 24 25 21 24 29 26 23 18 23 22 38 23 18 16 14 15 22 22 19 23 21 40 22 29 17 28 23 23 24 23 23 19 27 27 26 20 30 24 21 28 25 22 23 20 19 16 31 25 21 27 19 19 22 23 21 15 19 16 18 25 26 26 19 19 14 23 23 22 29 26 34 28 23 15 20 25 29 30 24 27 22 24 15 25 16 23 16 18 21 24 19 21 22 24 23 22 25 20 17 22 29 26 24 27 30 19 33 20 25 18 18 25 25 22 13 18 23 21 22 20 21 22 18 25 30 18 21 22 28 23 14 36 27 20 32 27 16 21 23 25 25 19 17 22 27 31 26 15 19 30 21 20 16 27 20 17 15 18 17 22 24 29 21 19 33 21 21 20 14 21 24 24 23 26 26 26 22 21 24 27 25 30 12 20 11 20 25 29 28 24 24 19 20 23 26 20 26 19 22 21 26 18 22 25 20 24 15 24 20 26 18 23 26 14 25 32 25 15 33 22 30 19 17 21 28 21 20 26 24 19 27 12 23 23 20 19 23 22 24 27 24 24 19 29 26 28 13 21 22 28 23 27 18 28 32 22 16 19 18 25 26 24 24 27 28 22 24 23 19 26 23 27 28 23 23 27 20 23 18 32 20 18 19 21 16 16 23 24 25 25 24 22 21 22 22 24 26 19 26 22 20 20 17 19 18 24 27 18 17 25 18 20 12 23 28 15 22 22 15 22 21 24 20 22 20 22 26 27 22 18 25 27 24 27 22 21 22 20 28 33 24 17 25 21 21 24 15 27 25 28 23 30 17 17 31 18 24 20 23 27 22 19 21 22 38 27 26 24 25 25 30 31 34 25 19 22 26 14 33 28 20 24 24 29 19 29 37 30 20 25 21 20 15 22 19 25 22 25 24 19 19 23 23 20 16 20 31 13 17 25 20 18 29 19 17 22 19 24 28 20 24 22 15 18 20 24 16 25 16 18 15 20 17 27 21 19 25 24 17 30 22 24 16 23 17 21 28 22 19 33 24 26 27 21 23 15 23 20 24 20 20 28 17 31 24 12 20 20 21 26 17 24 26 26 23 21 23 16 27 19 17 25 20 23 31 24 18 29 19 26 27 22 17 14 22 22 19 28 11 22 24 21 19 19 27 18 24 28 28 18 15 24 21 24 26 20 20 22 21 23 24 31 24 21 15 13 25 15 27 21 19 20 18 22 23 27 27 22 27 20 12 22 20 20 25 21 26 19 22 22 28 25 27 30 32 18 20 27 24 23 15 22 23 24 27 28 16 33 30 29 22 22 22 28 25 28 28 26 21 16 23 18 24 17 20 29 16 16 21 13 18 28 24 17 26 20 29 22 16 19 26 28 25 28 27 27 25 26 23 32 24 27 15 19 15 26 31 18 25 27 20 17 21 24 17 23 20 24 22 24 23 20 18 23 22 18 29 18 21 28 17 28 19 28 27 23 19 18 17 27 25 19 23 24 27 20 14 26 18 23 19 15 40 24 23 26 17 24 33 26 27 21 22 24 19 25 20 22 19 28 28 29 28 21 21 27 21 23 25 24 25 24 20 25 24 21 30 24 28 28 25 30 19 19 25 29 18 23 21 23 27 23 30 22 18 20 20 26 30 22 25 21 30 33 27 25 16 23 16 20 19 23 19 18 28 25 18 18 22 27 14 20 24 20 35 22 17 27 21 26 22 24 28 22 19 20 26 20 27 24 25 28 23 23 19 23 27 27 27 21 27 28 27 22 25 27 22 23 21 24 15 19 22 19 22 27 24 24 28 25 25 28 32 21 27 22 20 26 22 25 26 26 16 23 29 28 16 26 25 30 22 11 19 26 19 23 20 17 16 22 20 27 27 23 22 16 21 17 26 26 17 26 17 32 30 31 35 17 25 32 20 19 21 30 22 23 24 20 22 22 22 26 32 25 26 28 22 20 22 23 27 23 18 23 24 25 16 22 21 20 20 18 19 23 29 22 27 26 25 30 28 24 20 25 23 18 26 31 21 22 27 24 17 26 34 26 22 24 28 26 23 19 20 26 24 18 19 25 31 27 16 25 23 16 25 18 23 23 18 21 27 18 24 19 24 26 27 20 16 25 31 13 14 22 22 22 24 22 14 21 31 21 28 13 26 27 21 24 23 17 20 20 23 17 30 17 24 24 28 22 25 20 21 10 25 18 25 21 25 24 15 24 17 30 30 25 13 17 18 21 21 22 18 21 23 17 22 19 31 23 24 21 27 31 23 27 16 27 18 23 19 25 20 21 26 27 22 26 19 23 15 20 23 16 23 23 25 27 17 22 26 16 18 24 22 23 35 25 21 22 17 22 26 22 26 21 27 21 26 27 28 20 20 26 21 24 23 26 33 18 20 20 27 28 24 15 27 25 25 22 28 26 26 26 26 24 22 24 20 18 14 26 27 24 29 27 23 26 24 15 26 19 17 22 32 22 26 26 25 22 21 28 19 26 27 27 24 21 26 23 18 22 28 26 17 22 26 25 14 26 34 20 31 24 24 22 20 28 23 30 33 29 25 18 25 34 27 26 23 24 22 26 18 20 19 28 22 23 14 33 16 19 24 15 28 28 18 23 19 27 26 15 14 20 29 23 18 17 29 27 19 25 26 19 25 20 30 22 25 19 26 18 23 28 22 21 26 22 16 24 22 29 18 22 25 22 24 33 24 20 15 22 16 23 24 27 17 26 24 25 28 28 23 27 23 28 31 21 32 25 20 22 11 20 23 26 19 20 12 22 23 30 26 30 20 27 23 20 15 21 26 37 23 20 17 30 24 17 28 24 20 17 24 30 16 18 24 25 18 22 15 20 26 35 25 17 21 28 23 18 19 24 18 20 20 18 19 26 24 15 23 24 21 17 28 20 20 23 19 27 29 25 25 21 23 21 14 20 24 22 21 30 37 24 17 18 28 16 18 19 28 21 28 26 21 19 15 30 28 23 29 26 25 20 16 29 24 29 24 20 28 23 24 17 24 27 28 19 23 28 24 23 10 32 19 22 20 22 25 26 24 22 25 23 15 20 25 20 32 22 21 19 18 13 27 21 21 19 27 27 15 21 24 25 23 21 22 27 26 22 26 22 28 17 22 20 29 22 22 25 23 29 14 30 21 22 20 23 21 25 23 25 24 30 27 17 19 19 21 18 19 21 22 21 21 21 26 19 16 29 28 23 22 27 23 24 30 13 18 25 27 23 26 22 25 17 20 25 24 17 25 23 19 17 22 20 29 25 23 23 17 29 30 35 26 19 21 27 23 26 20 19 29 20 30 14 22 23 22 23 27 23 16 22 19 25 22 24 24 22 20 24 29 23 22 23 26 25 22 31 23 25 21 24 20 35 19 23 24 21 17 23 21 24 22 17 21 26 25 18 19 28 26 27 28 27 14 17 22 33 25 31 22 26 32 36 25 21 25 18 19 17 25 26 19 23 33 25 14 23 26 23 24 26 18 21 25 22 22 19 26 24 19 24 26 28 24 22 27 19 18 27 23 25 28 19 11 27 19 14 33 23 25 32 24 16 27 26 23 25 18 13 24 21 21 25 25 21 21 25 24 26 24 27 22 18 28 18 25 25 28 21 22 27 26 16 22 17 24 32 23 24 23 18 21 20 22 22 30 27 16 14 29 22 22 25 12 15 18 27 23 20 23 20 26 22 18 29 19 23 22 17 25 24 27 26 20 26 23 20 21 26 26 22 20 25 26 22 20 29 24 20 17 21 25 36 21 26 24 24 18 24 28 26 21 24 18 18 20 18 35 31 30 33 13 26 20 23 16 22 24 20 26 22 18 24 24 23 23 19 24 20 29 25 26 25 23 16 17 20 22 17 28 23 22 28 20 23 28 24 23 19 24 20 23 22 23 22 28 20 23 34 30 22 17 27 26 21 20 28 19 29 25 23 20 22 21 21 16 15 32 29 27 16 25 22 23 19 24 21 20 25 29 20 22 17 23 25 23 23 31 27 20 21 24 26 22 29 25 25 29 19 22 23 25 17 21 35 22 23 24 24 21 19 23 24 28 19 28 24 21 25 17 20 29 27 17 22 30 24 31 27 30 23 27 22 24 26 25 21 24 27 28 26 22 24 25 27 17 26 35 20 26 18 28 21 21 29 19 24 23 25 38 24 27 28 31 16 26 30 24 21 23 28 22 21 23 23 28 19 18 22 17 19 21 23 29 23 21 24 20 25 22 29 21 18 16 21 25 21 23 17 34 20 23 32 28 26 23 25 25 24 32 28 24 25 25 23 23 21 24 22 24 16 30 20 25 27 31 24 18 24 19 19 20 23 21 25 31 31 21 22 18 18 33 16 17 21 24 19 22 19 26 23 25 33 22 22 20 25 19 22 26 24 22 23 30 22 14 29 22 27 22 18 25 23 26 20 15 16 21 23 23 24 17 24 25 24 32 17 23 25 30 28 27 23 23 21 25 27 23 31 27 25 20 23 17 23 21 21 26 24 32 16 21 23 27 17 27 15 25 16 19 28 20 25 30 20 36 33 14 22 21 26 17 24 26 17 22 21 20 14 17 27 25 25 24 25 24 26 19 27 21 23 23 24 21 28 27 27 25 15 31 30 16 27 24 21 23 21 33 18 22 22 22 23 16 31 30 21 19 17 17 19 26 30 19 19 23 18 18 21 25 19 17 23 30 21 32 27 20 17 17 30 22 28 19 35 28 29 23 26 31 24 18 21 22 22 26 21 30 31 26 14 22 21 24 22 21 19 21 24 19 25 34 24 26 32 25 24 19 23 17 22 20 34 13 28 20 26 30 21 19 22 26 22 23 31 27 23 26 22 24 22 19 28 11 19 18 24 21 21 22 22 23 24 26 16 16 28 32 19 27 30 26 28 27 24 21 18 29 14 22 28 26 17 23 21 29 21 24 25 22 20 22 27 21 15 28 21 26 19 23 16 20 27 21 25 27 17 21 20 24 24 30 25 26 29 18 23 29 23 22 22 17 25 24 15 26 26 24 20 30 23 26 23 35 18 25 22 29 24 21 26 21 18 31 27 33 18 27 21 24 17 23 29 22 14 15 22 24 20 27 14 23 16 18 21 22 21 18 26 23 15 16 35 22 22 22 15 20 26 26 20 23 17 20 21 19 29 27 22 27 22 30 22 24 25 20 21 31 18 35 20 21 23 24 27 31 31 29 35 25 24 31 26 17 16 25 19 26 20 21 25 22 28 22 24 18 26 23 19 23 28 22 23 28 21 19 29 26 26 14 13 23 26 24 24 28 23 25 25 24 21 28 22 19 16 25 32 19 21 21 16 29 19 19 20 17 21 29 22 21 20 32 26 31 16 29 24 23 25 15 20 18 26 29 19 27 33 24 19 29 24 25 20 23 16 15 23 16 20 22 24 21 20 19 17 9 22 20 21 21 25 21 27 27 23 19 20 20 25 19 26 27 22 30 24 31 24 29 20 24 20 17 22 14 22 22 24 16 32 31 25 18 21 25 24 26 29 20 26 25 24 21 22 21 25 23 29 26 24 30 23 30 29 26 19 24 25 28 20 28 18 20 25 25 21 30 24 19 18 24 29 21 29 22 20 25 20 20 19 17 24 29 19 22 25 23 20 26 21 18 27 23 18 26 27 27 21 31 22 25 18 22 24 32 25 28 20 23 19 25 14 23 28 29 33 26 21 16 21 22 20 25 19 26 29 21 20 23 22 21 18 25 24 28 20 21 16 16 21 25 28 28 29 31 25 24 22 23 20 24 21 25 29 29 25 26 24 25 25 19 25 25 25 22 25 26 27 29 32 25 18 30 27 15 18 27 23 14 26 22 26 25 13 22 15 22 24 17 24 21 30 24 12 17 21 28 23 19 19 21 19 24 30 32 23 20 18 26 12 13 20 26 25 29 22 22 16 23 16 26 21 30 20 19 25 23 23 22 21 23 26 21 29 17 19 27 22 25 26 25 22 24 21 25 27 24 18 27 21 23 21 24 24 26 29 14 23 23 13 23 20 22 20 26 22 25 22 24 27 19 22 26 31 20 25 24 20 27 20 23 19 21 29 20 17 26 22 22 20 20 22 25 21 30 24 32 20 22 22 28 19 17 22 22 32 22 23 24 22 27 22 19 27 25 23 21 20 16 21 27 17 21 19 26 22 18 23 24 30 26 20 24 26 20 22 29 24 28 24 20 16 34 22 22 26 21 12 14 17 20 26 19 16 29 24 27 23 29 25 30 22 23 18 24 20 27 30 29 12 21 18 25 21 29 18 22 25 26 26 26 29 19 23 18 16 28 22 20 22 20 20 22 19 23 33 19 23 24 21 21 26 21 24 25 28 25 20 24 22 24 25 23 23 28 21 23 16 19 29 29 30 23 24 22 23 27 18 35 27 22 29 15 27 22 22 18 22 20 25 26 19 23 23 24 17 15 30 25 25 24 21 28 21 26 22 21 25 23 20 19 21 31 21 25 24 19 32 12 19 23 21 21 25 23 21 20 26 35 21 21 16 21 24 34 15 21 23 23 25 31 26 15 21 20 31 16 22 17 18 17 19 26 18 19 27 24 25 18 17 26 23 22 14 19 26 20 26 31 27 22 15 31 21 16 27 22 27 31 24 25 20 24 27 28 18 25 25 20 19 16 18 19 19 24 34 19 24 19 20 22 22 19 28 21 22 25 14 21 22 21 20 19 29 20 18 25 21 33 17 19 24 19 28 14 14 23 23 24 18 26 20 17 20 22 26 26 30 21 28 26 27 25 20 25 20 18 19 24 21 26 17 22 26 27 24 25 32 17 26 37 20 20 16 18 31 27 25 21 17 19 22 25 23 25 22 32 19 19 23 20 21 26 17 24 16 31 16 19 22 24 19 27 30 17 21 23 21 18 28 20 29 22 25 22 30 20 15 20 33 17 20 20 23 18 22 18 26 22 25 16 23 23 23 26 15 25 28 22 21 16 19 22 19 20 22 16 28 17 27 28 20 22 24 25 13 21 29 18 32 20 34 30 23 21 20 21 21 13 16 27 20 26 24 25 21 27 25 26 18 24 19 27 22 23 17 25 16 32 33 27 19 28 21 23 25 31 31 25 23 26 20 19 26 20 16 24 21 25 26 21 23 25 25 20 26 26 20 21 17 18 15 16 31 27 21 22 28 27 32 21 20 20 21 22 17 18 30 21 19 25 19 23 29 27 16 28 17 24 25 22 23 24 28 13 31 15 22 28 26 30 35 30 24 23 22 19 24 20 15 30 23 30 21 21 20 20 25 22 25 21 24 19 21 22 20 21 21 29 20 25 23 23 28 28 27 26 23 22 24 20 24 30 15 20 18 19 25 21 18 24 24 30 22 27 21 19 29 18 23 24 23 27 24 27 25 24 24 28 21 19 26 16 16 23 26 22 33 25 21 26 23 18 26 23 21 29 32 20 22 22 22 20 18 20 23 19 14 24 21 18 19 29 20 26 22 24 27 21 28 23 25 25 18 17 14 20 26 15 16 24 22 27 21 20 26 29 32 27 17 19 27 18 20 26 21 26 23 25 15 23 29 25 25 25 18 17 27 26 26 24 23 14 24 34 28 22 19 26 23 25 22 23 26 18 24 18 24 21 24 18 24 26 22 23 22 23 27 27 21 25 20 30 24 22 22 17 17 17 23 20 19 19 27 18 25 21 27 22 20 24 26 23 25 17 29 21 15 25 21 23 29 23 23 28 33 17 16 21 27 20 20 20 14 24 23 10 27 20 20 25 18 21 25 20 33 9 29 23 25 18 19 15 21 29 20 20 19 34 30 22 25 22 25 22 20 19 27 17 23 21 25 28 17 25 24 28 24 24 23 22 21 23 25 28 26 22 26 24 16 16 24 22 24 20 23 20 32 19 30 17 15 30 22 20 23 25 18 23 21 19 22 17 19 24 23 28 21 28 27 17 21 24 25 24 24 25 26 32 30 18 21 30 26 21 22 28 19 18 22 25 25 24 19 28 19 27 21 17 25 23 26 30 35 16 25 26 14 22 17 27 17 20 15 23 21 24 25 18 22 28 25 24 25 29 25 22 21 23 15 23 35 22 15 22 18 22 25 23 16 18 25 26 25 17 24 23 21 15 15 23 23 21 19 35 29 22 21 28 29 18 21 22 19 15 26 25 20 22 28 19 24 25 18 26 23 22 15 23 24 27 20 26 20 25 27 13 22 33 17 23 32 30 25 31 26 24 22 27 19 13 23 23 26 19 21 16 29 24 20 18 27 27 25 23 20 27 26 17 27 25 24 19 20 21 22 19 28 17 20 19 30 24 19 23 27 13 21 22 19 36 29 16 21 24 20 40 19 29 30 26 22 22 18 23 31 19 19 13 26 25 24 23 25 27 19 27 25 26 19 23 19 19 16 27 22 23 23 23 26 26 23 22 20 24 19 24 29 17 25 17 24 19 37 17 25 19 26 24 23 21 20 28 20 26 21 14 25 16 24 21 24 22 24 27 14 25 24 18 36 20 22 24 21 22 25 20 18 20 23 28 23 21 23 31 21 15 23 26 19 25 28 22 19 21 19 20 21 30 33 22 13 20 20 24 21 23 21 25 30 24 26 20 23 28 27 29 19 19 24 27 26 35 22 19 20 27 29 26 15 22 20 23 37 26 17 28 16 17 16 30 28 22 24 30 24 19 19 18 25 22 25 22 25 26 22 23 27 20 16 21 28 20 24 24 28 22 31 21 22 20 25 31 24 24 26 23 20 24 21 29 27 26 27 26 25 23 23 24 30 22 26 17 24 19 26 23 28 20 23 23 21 23 21 24 17 20 24 20 19 23 24 21 17 20 20 24 23 24 27 24 27 23 28 24 26 22 19 24 23 13 25 18 16 18 23 17 20 19 19 21 21 32 30 20 27 18 27 20 30 20 18 21 21 24 27 20 25 26 18 24 16 22 24 22 21 17 25 18 24 25 16 24 24 29 23 23 27 28 22 24 25 25 23 25 19 25 23 19 24 19 20 20 34 20 20 26 19 27 24 25 28 20 24 27 32 24 26 22 13 22 29 26 25 25 26 36 26 28 20 22 23 18 26 21 28 25 22 17 35 31 22 23 23 24 24 17 25 15 17 17 17 29 23 29 27 25 22 25 16 19 18 28 20 26 19 21 19 24 26 22 27 20 21 26 31 25 19 23 30 19 19 28 25 27 27 26 22 28 28 24 32 14 17 27 34 27 29 22 25 21 31 19 23 25 25 28 24 27 29 17 28 15 18 14 27 26 20 29 16 26 16 26 20 31 21 30 19 17 18 23 22 23 23 24 25 24 18 21 23 25 18 34 17 26 18 30 20 28 29 19 25 23 26 17 21 12 26 19 33 15 16 20 20 35 19 27 27 22 26 28 29 16 34 21 23 20 21 19 23 17 27 28 27 19 29 25 22 22 21 23 19 20 18 18 25 23 24 18 26 25 28 16 25 20 26 24 19 11 34 18 30 21 21 20 21 27 21 24 27 23 21 18 17 31 12 21 26 24 23 30 20 24 28 16 27 20 17 26 23 29 24 28 31 22 29 21 22 22 22 28 21 27 21 26 24 33 28 31 33 21 24 21 29 20 30 15 24 23 24 16 24 22 27 18 20 23 21 24 23 27 24 23 28 27 18 20 26 20 22 26 18 24 32 27 21 29 23 28 27 19 16 26 25 16 15 19 22 23 26 22 22 23 26 16 24 20 18 21 26 24 23 22 26 21 19 28 29 22 18 24 22 16 24 21 29 30 31 19 21 14 20 31 32 18 20 24 20 22 18 20 25 22 20 23 19 25 32 24 24 15 20 29 20 31 22 24 24 28 19 23 25 30 25 24 25 24 21 22 28 22 19 20 24 22 25 21 23 20 21 24 23 28 24 20 24 18 24 25 25 27 23 18 23 23 22 29 22 26 29 20 19 17 17 20 22 28 17 22 27 21 22 25 24 26 21 24 25 32 24 23 24 23 24 21 21 26 20 28 15 17 31 18 19 26 21 21 20 18 22 32 37 19 19 22 24 19 24 23 31 18 24 27 28 25 20 24 18 24 18 26 26 18 27 23 23 15 21 16 33 23 27 28 26 27 24 32 19 24 23 21 25 17 25 28 18 26 18 23 28 31 13 24 21 22 20 15 21 26 22 20 24 22 26 19 29 23 20 20 28 24 25 23 22 19 22 28 31 19 25 23 17 23 19 19 23 23 25 21 16 24 28 25 21 21 24 17 26 22 27 20 22 28 26 31 30 29 26 25 24 18 21 21 21 21 31 16 18 21 17 23 19 21 16 24 23 17 18 23 21 18 21 28 21 21 26 26 21 25 24 22 20 27 17 19 26 22 24 23 23 25 32 25 20 24 21 9 27 26 23 25 23 19 18 22 22 18 18 25 24 17 21 29 19 21 22 27 31 21 16 15 22 25 25 23 21 23 32 23 22 24 28 21 14 19 23 13 20 20 19 23 28 17 26 21 19 22 35 21 17 25 25 18 22 27 22 19 28 27 22 21 14 21 23 21 27 25 21 24 24 28 28 19 22 36 27 24 32 28 19 30 26 28 32 24 25 27 20 15 26 22 22 18 29 20 32 31 28 20 22 16 18 17 26 21 23 27 20 26 19 23 16 30 23 21 22 17 22 22 26 19 30 27 24 17 18 22 24 19 18 19 29 16 25 34 32 32 22 25 20 20 23 26 27 23 19 27 25 27 21 22 23 20 27 25 25 27 27 25 22 22 21 17 24 26 20 23 21 20 18 19 21 28 24 15 18 24 18 20 15 21 23 14 19 28 20 27 23 20 28 21 30 20 23 22 24 26 25 18 27 27 21 17 21 25 23 14 25 23 29 28 21 24 21 15 26 27 31 31 29 22 17 26 20 17 26 28 25 19 22 25 27 17 17 22 20 18 22 23 30 28 21 23 23 23 26 31 23 20 34 25 19 24 20 27 29 24 27 19 29 23 26 27 21 22 25 33 19 26 22 21 22 25 19 21 18 13 34 24 29 25 27 26 27 24 16 23 18 21 27 22 15 22 18 22 26 23 27 17 27 21 22 30 25 32 26 23 23 24 25 29 14 23 16 23 25 31 22 23 28 30 26 22 24 22 20 21 24 29 26 12 19 22 18 16 23 20 27 25 23 21 17 21 21 29 20 28 23 18 20 29 29 21 17 32 23 20 21 23 28 26 16 26 25 23 23 21 28 17 22 25 23 20 27 27 25 22 23 23 26 18 25 22 27 26 20 33 21 27 25 24 34 28 26 18 20 24 31 24 20 28 21 15 19 26 22 24 34 25 14 22 20 22 24 22 19 24 22 29 25 12 32 28 22 20 24 18 21 25 17 21 27 14 23 22 27 26 29 23 31 24 20 20 23 22 26 20 27 23 22 30 25 29 15 18 16 14 23 25 27 15 26 32 22 24 19 21 21 27 26 23 17 24 27 28 19 21 21 19 23 24 18 26 21 21 27 19 28 25 23 27 21 21 22 23 25 18 20 22 24 27 22 25 25 25 24 27 21 33 22 21 23 31 15 24 27 24 26 23 30 25 26 14 17 16 20 28 32 21 21 18 18 23 19 29 35 24 23 19 16 21 26 35 23 27 19 23 22 18 23 18 19 19 22 22 23 19 25 25 23 21 21 25 24 28 22 22 33 17 15 19 19 25 19 22 16 18 20 18 23 21 28 19 26 17 28 26 18 24 21 19 25 34 22 27 23 24 17 26 24 20 29 20 26 20 22 20 35 19 23 32 23 16 16 29 24 18 19 31 25 22 24 16 26 24 18 20 25 23 20 20 25 26 19 15 24 28 19 22 25 24 21 27 29 26 29 22 18 22 24 30 30 13 23 34 26 21 24 22 20 17 22 20 22 16 23 24 17 25 21 22 27 37 15 26 14 22 23 21 31 26 19 24 28 21 22 28 20 24 20 16 24 31 28 19 39 20 21 25 28 24 20 23 28 32 21 29 27 24 24 23 33 26 21 24 25 27 20 23 19 18 19 26 23 16 27 18 15 26 25 28 20 20 23 18 24 26 27 18 26 21 20 22 19 22 24 24 16 23 25 26 33 27 19 26 19 21 19 20 24 17 15 21 22 24 22 21 30 23 19 17 21 15 21 21 28 19 22 14 25 29 24 19 21 19 26 32 29 39 15 20 22 23 29 19 26 17 21 19 21 20 21 24 23 23 25 19 22 23 25 21 18 23 16 30 23 29 24 26 14 28 23 21 20 26 36 23 28 23 28 21 18 26 32 24 21 29 16 24 21 22 19 19 26 22 34 19 28 22 29 28 19 32 28 18 20 18 26 22 19 23 33 26 21 25 28 24 23 22 28 21 30 28 22 21 23 15 15 22 11 23 29 24 22 26 21 20 26 17 24 27 26 27 17 27 31 20 18 26 22 19 15 22 19 25 26 15 31 18 23 25 27 29 25 28 18 27 21 18 24 25 17 20 20 23 27 19 20 19 18 19 15 23 25 17 27 21 22 28 27 22 24 20 31 24 29 24 30 21 26 31 22 31 19 22 22 22 23 25 29 22 20 13 27 18 19 29 28 24 26 21 28 21 24 19 37 31 24 18 26 25 23 20 25 21 30 27 27 23 23 20 29 31 25 20 28 26 24 27 16 14 21 26 26 16 28 27 29 22 18 16 24 26 30 21 22 24 25 19 23 17 20 17 25 24 23 23 16 19 29 18 22 29 23 20 13 30 21 26 20 24 20 17 24 28 16 22 19 21 18 28 17 24 24 27 31 23 26 30 21 17 14 19 20 22 22 26 24 26 30 23 19 24 16 24 30 24 19 17 18 18 25 22 29 21 24 23 11 17 24 18 21 22 20 23 18 24 26 25 21 15 29 30 28 31 15 30 21 23 35 18 22 16 23 27 24 22 29 24 16 24 21 31 24 29 25 17 28 26 28 16 25 21 19 27 31 31 16 20 25 24 25 26 19 28 33 20 23 23 24 21 22 26 29 21 28 25 18 21 27 26 24 37 29 22 30 25 26 20 24 25 29 23 23 19 18 18 23 19 25 20 14 27 22 25 25 18 27 28 21 25 24 29 27 28 23 29 23 21 13 21 28 18 22 20 17 21 18 20 19 25 26 21 17 20 21 28 26 18 21 24 14 33 22 19 17 27 19 14 20 14 28 34 20 20 29 15 21 23 25 23 24 21 34 23 28 29 25 16 23 22 21 25 17 32 9 19 28 27 21 24 18 16 15 23 28 18 21 27 26 18 28 22 24 15 25 26 25 29 24 26 27 27 19 17 16 19 23 26 28 21 25 32 29 18 23 17 22 24 20 18 17 25 21 18 27 25 27 25 23 25 23 19 24 15 19 24 26 28 19 27 29 24 17 30 25 22 24 15 23 24 27 26 24 22 16 26 23 30 39 24 14 31 19 16 20 30 24 17 19 28 20 22 25 30 22 22 22 20 22 31 23 34 21 25 28 30 25 22 23 18 29 23 20 19 27 20 26 26 26 24 24 23 22 22 25 22 19 30 24 15 24 23 27 26 20 25 29 27 17 22 18 28 24 29 22 21 26 16 25 21 30 22 26 34 27 27 25 20 18 19 27 28 22 23 20 19 18 20 25 21 22 16 14 26 24 28 22 20 21 22 25 28 24 21 29 25 25 25 18 31 25 19 21 27 16 27 20 16 27 19 27 27 25 35 19 17 20 29 25 15 18 22 17 26 23 30 21 19 22 25 21 17 14 24 24 23 19 18 22 28 20 28 25 26 19 21 20 20 27 23 24 20 23 32 17 26 24 30 22 25 30 26 20 26 22 19 22 25 29 20 29 17 27 23 33 25 27 20 19 23 21 24 26 30 19 17 25 23 29 24 20 25 21 22 27 18 17 20 15 20 30 23 23 24 21 29 17 23 30 23 19 18 27 17 17 19 19 16 22 23 29 28 24 27 27 19 25 24 29 22 20 30 19 23 31 25 23 21 30 25 22 23 21 29 16 20 23 26 15 26 22 28 24 22 23 23 24 19 24 18 26 20 25 23 33 19 20 21 25 24 31 24 26 18 17 29 29 22 28 24 25 23 26 22 24 24 21 14 20 15 24 28 16 27 17 18 28 20 26 28 23 18 21 19 24 28 19 22 20 18 19 28 29 26 28 15 17 29 18 30 22 23 24 26 25 25 15 21 19 23 20 21 17 24 29 22 22 19 24 25 28 18 24 23 22 19 24 23 25 25 22 26 30 22 23 32 22 24 20 32 20 20 29 20 31 17 20 29 25 20 23 22 16 20 24 15 26 23 20 24 26 15 26 31 15 25 17 25 26 26 24 25 27 22 31 25 19 20 24 18 31 20 19 28 29 26 23 21 23 17 23 21 27 20 20 24 30 21 25 27 25 28 23 23 23 25 24 29 25 25 26 20 23 31 21 22 26 30 19 22 17 25 24 15 17 24 25 24 22 23 25 20 16 22 29 22 25 16 22 23 24 22 21 22 28 28 23 21 19 18 21 23 23 24 26 12 27 24 18 19 14 25 16 27 27 24 24 25 19 24 20 25 20 29 25 23 17 22 24 23 26 19 28 22 14 17 22 27 19 24 23 23 21 23 24 20 20 27 25 23 34 19 25 25 31 21 24 29 11 30 27 22 22 28 20 23 16 24 18 20 25 29 16 26 22 18 25 26 27 24 22 24 11 27 24 22 25 23 31 20 24 24 33 25 25 31 26 11 28 23 27 19 24 20 22 24 33 21 25 16 22 17 12 25 21 23 22 25 29 23 28 15 27 23 24 22 24 24 23 23 30 27 23 28 21 28 28 25 16 25 16 18 25 26 15 18 24 20 31 17 21 29 21 21 19 25 27 24 28 27 24 24 23 22 25 18 24 18 23 23 24 27 21 26 25 24 18 27 19 24 26 13 19 33 28 21 21 21 18 14 42 26 23 27 27 28 29 21 24 25 17 21 19 23 23 27 28 23 22 24 15 20 21 30 22 23 17 23 22 25 22 22 29 26 25 30 21 21 21 19 21 31 17 27 30 22 20 24 18 27 27 23 19 32 28 29 18 28 20 20 31 27 25 29 23 21 26 19 26 25 26 23 23 24 28 19 19 33 19 22 26 22 32 23 29 26 21 27 15 36 28 34 24 32 28 17 21 26 21 21 22 27 26 26 23 26 24 21 28 25 21 18 24 25 17 18 23 21 21 27 24 24 19 23 24 18 25 28 15 21 21 27 26 16 23 22 26 21 26 24 25 18 22 23 26 22 17 26 31 21 17 23 27 29 34 20 23 23 26 27 25 19 26 15 18 24 28 32 22 23 16 19 27 25 26 22 24 18 23 22 26 24 24 28 16 21 22 12 14 21 24 19 21 27 27 29 17 19 23 22 23 19 24 36 26 24 25 30 23 20 25 20 27 19 17 18 30 17 37 21 29 28 23 22 28 29 20 22 29 22 23 16 21 22 28 19 26 30 30 21 24 23 21 21 23 21 19 17 22 29 20 22 22 19 29 23 29 15 22 17 27 25 23 13 29 22 21 26 25 26 26 18 28 24 25 30 26 25 23 17 30 22 26 21 25 23 27 26 24 20 27 17 15 18 23 23 21 29 23 20 22 28 22 17 31 23 20 19 21 19 25 33 27 19 27 22 17 29 30 18 26 25 25 24 22 22 26 20 21 25 18 27 23 14 23 22 25 26 20 27 30 22 20 15 27 22 25 23 24 22 24 24 14 36 20 23 24 22 19 16 20 22 32 28 23 23 25 25 30 25 24 25 27 22 29 21 21 20 19 19 22 24 25 23 28 26 23 18 24 22 28 17 25 20 25 20 28 22 21 18 24 16 16 26 17 15 26 21 27 19 26 20 21 25 24 19 18 23 19 17 21 18 24 24 23 21 24 22 22 25 20 26 22 28 19 26 15 28 15 27 22 23 26 14 26 21 26 35 26 20 22 22 26 28 29 17 24 18 27 27 25 24 18 24 23 27 38 26 16 20 26 22 23 16 27 21 19 24 31 25 17 23 22 25 23 16 33 20 23 26 23 26 19 21 34 27 22 25 24 20 17 27 19 21 27 23 23 20 25 23 26 27 25 19 17 26 23 27 27 21 20 22 31 16 23 17 20 35 23 21 23 21 18 29 29 19 20 20 18 20 25 28 23 17 14 24 16 16 18 23 22 23 34 22 17 24 19 18 19 31 22 26 25 28 26 20 26 24 27 23 19 20 23 28 24 23 21 27 19 16 22 23 25 26 19 30 21 22 25 22 23 20 26 21 18 19 19 28 30 22 19 25 20 25 24 29 17 25 22 22 29 19 21 22 23 12 21 27 23 18 24 12 17 16 32 19 23 28 25 27 24 30 20 26 20 25 20 27 25 23 14 23 23 24 24 23 19 27 26 20 13 16 25 22 15 22 30 27 28 19 30 19 23 23 21 25 20 29 27 20 33 31 21 19 23 19 23 25 24 28 24 29 19 20 26 24 23 23 16 22 24 19 21 26 24 25 18 24 23 22 26 22 21 15 25 20 19 24 27 21 23 24 21 21 22 22 25 23 23 23 21 29 17 28 15 21 21 31 21 31 22 25 24 20 24 14 22 24 20 26 35 29 19 30 18 18 25 21 26 27 26 14 28 18 18 30 19 18 20 25 20 23 23 27 22 22 25 25 24 26 22 19 21 17 25 26 21 26 26 19 21 23 25 25 32 27 17 23 23 22 26 21 19 23 14 40 24 26 24 27 20 35 37 27 23 27 27 26 27 18 23 9 26 27 24 23 22 17 23 19 27 19 23 23 23 24 20 26 20 23 20 26 18 22 25 21 27 23 23 17 22 16 28 20 26 19 21 21 21 26 25 26 19 23 27 22 20 28 29 25 22 22 23 18 26 25 27 26 23 29 21 23 23 24 27 21 23 27 27 24 14 25 20 25 18 23 19 24 33 18 33 26 19 27 21 23 25 23 20 19 19 30 22 20 18 26 22 17 26 30 21 21 22 17 24 23 21 25 24 17 21 20 20 19 32 18 30 19 23 22 25 32 25 21 35 30 19 28 19 22 17 26 29 20 20 27 22 20 33 22 18 24 26 22 27 30 24 16 24 20 23 31 22 25 16 25 19 25 15 19 25 30 30 26 22 22 28 29 23 21 19 18 21 22 22 22 28 21 24 18 30 24 26 26 22 28 24 27 15 26 23 20 28 18 17 24 25 28 16 23 22 21 23 25 19 17 30 21 22 18 19 22 22 22 24 19 22 27 16 23 26 29 21 25 28 20 24 32 24 14 24 21 28 26 16 25 26 18 23 31 29 28 21 23 20 22 24 37 18 20 16 22 24 28 23 27 27 19 20 18 23 27 30 20 13 25 19 23 24 23 23 29 18 16 17 31 20 19 25 23 23 22 19 21 32 22 16 29 26 23 21 17 22 28 25 34 24 12 28 31 26 21 17 27 33 28 16 23 34 30 25 23 26 24 24 23 17 13 24 23 28 22 26 27 20 18 29 26 22 30 28 29 27 24 24 21 20 24 22 27 18 25 32 20 27 23 28 30 26 26 19 17 22 20 21 23 25 27 24 20 27 23 19 15 15 19 20 22 27 30 25 25 20 36 20 24 23 25 18 27 24 29 30 20 20 19 24 21 27 23 30 26 16 21 30 28 14 18 21 20 28 17 25 24 23 18 24 20 22 23 19 22 20 25 18 24 20 27 19 16 26 15 31 22 18 29 18 29 20 24 24 29 21 32 28 26 23 25 27 23 27 22 24 23 27 23 20 19 18 24 28 13 27 20 24 19 26 22 20 27 15 31 33 36 22 18 24 26 20 19 19 23 19 28 25 24 23 20 22 25 25 27 30 22 18 29 14 20 23 27 18 23 22 28 21 28 25 31 21 25 15 15 28 28 18 21 23 18 25 20 27 25 21 26 21 27 23 16 27 27 25 16 23 27 18 12 27 15 30 19 14 18 22 22 17 28 24 21 18 23 22 26 17 17 27 22 20 16 23 26 17 18 16 22 20 18 19 22 24 29 28 27 23 18 17 26 22 27 22 22 21 26 29 29 26 26 28 18 20 23 25 20 20 28 30 22 20 21 26 20 21 24 13 15 21 23 25 27 24 23 28 26 28 26 25 27 26 21 34 29 23 27 25 20 16 23 31 17 20 23 21 24 28 17 27 22 19 20 31 18 20 22 34 29 23 15 21 27 31 26 22 17 17 26 26 26 19 23 25 19 26 27 29 26 23 30 17 19 33 31 25 16 24 26 21 28 30 25 18 23 27 21 26 25 20 27 24 27 23 24 23 26 18 25 23 26 21 20 20 19 23 20 23 27 27 16 14 26 25 24 20 19 24 29 24 26 24 14 17 23 23 17 29 28 20 27 27 14 18 20 23 23 17 20 23 20 25 17 21 32 28 15 24 25 24 26 29 20 24 21 33 24 25 22 21 28 24 30 18 24 27 20 18 21 25 19 19 26 24 23 30 28 20 21 29 24 20 27 19 23 28 21 24 21 21 21 23 22 22 29 21 23 22 22 25 25 22 30 16 32 20 27 13 17 16 18 29 24 23 28 26 24 25 25 27 29 29 18 32 29 25 19 21 20 24 24 24 17 27 21 18 21 21 24 22 28 21 21 26 28 28 23 31 20 24 17 21 18 24 35 23 26 19 29 23 21 27 23 20 20 21 22 30 21 17 25 26 22 23 15 26 20 28 27 19 18 22 24 23 29 19 28 24 23 26 27 22 27 16 30 19 31 30 20 23 27 20 29 19 17 21 19 30 25 26 27 35 24 25 23 27 18 29 32 26 21 22 19 18 27 30 27 18 26 28 23 18 23 31 29 20 22 25 32 17 23 22 32 21 21 14 18 24 23 19 23 17 25 28 24 24 21 26 16 23 25 28 36 25 26 16 17 22 27 23 29 25 27 24 20 22 26 24 15 24 22 20 24 21 22 20 24 30 12 26 24 22 23 24 22 28 25 23 23 26 20 24 22 32 26 17 22 19 20 28 23 21 29 27 26 24 27 20 23 18 27 18 30 22 25 19 21 27 22 22 25 18 18 19 24 21 21 29 14 25 21 26 25 26 19 25 30 25 21 23 26 22 19 24 26 23 22 25 32 23 25 29 36 27 29 23 17 22 20 23 17 24 15 19 24 27 20 17 23 22 17 22 21 20 18 24 28 27 17 17 22 19 14 19 26 29 17 16 22 21 32 23 25 26 14 19 11 30 22 27 20 27 24 14 23 17 24 26 33 29 18 25 27 23 25 19 20 19 30 22 20 28 22 21 23 20 25 26 32 25 22 17 17 23 32 21 31 22 22 23 19 19 27 19 30 28 21 24 19 23 26 17 20 24 24 20 20 28 22 26 17 14 36 21 26 27 26 14 24 19</t>
-  </si>
-  <si>
-    <t>MIE(8.754455903714708, 10.539994850856544, -0.1482045096782372, 33.266747385850664)</t>
-  </si>
-  <si>
-    <t>30 33 44 28 28 29 32 37 25 32 34 35 29 47 32 29 37 36 33 34 32 36 36 39 31 35 31 36 43 28 31 33 29 32 26 32 36 24 33 39 29 34 25 32 24 32 40 38 25 28 39 24 32 41 35 30 36 21 29 29 47 33 36 34 37 28 26 33 41 39 41 37 38 35 36 37 34 27 25 40 34 39 18 32 31 40 33 31 35 35 25 25 27 29 35 27 38 33 32 29 27 41 26 34 27 34 34 39 29 24 33 30 32 36 37 55 34 33 40 30 31 34 29 36 33 26 34 32 36 40 28 36 33 34 28 38 24 43 51 32 28 36 23 39 34 29 31 34 26 26 30 42 34 25 30 34 28 29 34 30 29 37 33 37 38 35 40 36 54 31 36 33 26 29 22 34 39 29 32 30 21 29 36 27 36 34 37 31 29 34 39 34 28 19 30 19 28 30 33 32 42 34 24 34 24 24 28 28 38 39 26 31 26 27 26 36 45 29 32 30 33 39 37 31 33 24 35 42 34 24 39 29 25 40 23 27 35 22 26 37 41 27 37 32 33 29 29 40 26 31 43 29 36 33 32 27 31 26 28 29 36 26 34 29 27 34 33 37 27 29 24 34 37 29 31 32 33 34 40 36 28 35 37 33 40 36 27 27 44 34 31 41 41 35 35 31 41 31 32 38 29 32 32 28 41 42 24 25 33 26 37 39 31 38 35 28 24 25 37 30 42 32 27 25 30 42 36 34 41 40 36 28 23 37 33 45 32 26 32 41 36 41 41 35 32 32 43 24 37 31 46 33 31 31 39 33 38 24 29 38 32 27 35 30 35 38 31 33 34 27 31 29 39 34 39 23 32 37 35 30 38 30 38 25 41 41 25 34 35 21 32 27 33 33 40 27 33 26 21 27 33 33 29 33 31 28 34 36 29 39 28 42 25 53 27 34 28 31 30 30 30 29 32 32 32 33 31 24 25 24 29 31 37 29 30 25 36 32 32 28 37 34 38 37 32 31 36 27 46 36 32 33 37 27 40 36 34 21 30 27 23 36 35 34 29 42 35 30 37 28 26 33 29 38 33 25 29 42 46 28 29 46 41 35 30 32 38 35 41 38 27 31 38 23 39 30 28 21 26 30 33 38 35 34 39 32 28 29 38 33 33 30 37 25 37 35 32 23 29 28 40 31 31 35 21 37 33 38 40 38 33 34 32 31 29 40 19 35 33 41 33 39 35 31 37 50 32 40 32 38 31 42 28 26 30 28 38 38 40 34 29 30 41 35 32 38 30 30 31 31 31 30 34 28 32 35 32 37 43 52 34 29 29 34 37 41 27 29 32 33 34 36 30 34 31 29 33 29 34 33 32 32 38 26 26 37 28 39 26 34 36 37 24 35 27 39 37 27 27 38 31 28 43 42 27 32 20 28 29 41 31 25 34 45 23 21 28 32 45 26 43 32 24 34 28 25 52 36 31 32 42 24 28 25 21 37 30 47 28 31 35 25 33 25 25 39 21 31 33 25 37 45 22 30 36 27 30 25 40 31 39 38 33 35 31 33 45 33 35 30 49 35 33 33 37 38 30 45 27 41 41 31 31 38 22 33 43 37 32 27 35 30 29 29 34 30 30 34 27 35 32 31 29 38 26 35 21 37 26 31 39 33 41 28 31 36 32 28 30 28 31 21 33 32 41 33 34 37 34 44 34 34 31 39 31 34 30 31 39 39 39 40 27 40 37 31 24 25 25 29 43 44 34 33 31 37 25 31 33 27 39 19 34 38 34 25 35 39 32 35 39 37 49 37 34 34 22 31 34 27 31 28 32 31 40 38 33 29 42 25 32 27 30 32 42 31 24 33 35 35 29 24 35 31 31 33 34 31 39 36 36 41 35 42 21 36 28 26 29 34 35 24 29 29 34 31 26 30 44 30 34 24 33 33 46 30 29 36 32 39 29 47 36 30 31 34 26 27 30 29 36 19 37 29 33 31 21 28 35 33 40 32 33 29 28 25 35 32 43 34 34 26 47 45 33 32 25 28 36 28 27 30 35 35 30 30 36 26 37 34 34 29 32 30 26 43 29 33 29 28 33 32 37 38 38 32 36 33 38 28 37 38 29 40 32 32 34 36 30 29 32 29 29 31 46 33 28 35 28 35 36 30 40 28 28 28 26 24 24 29 32 33 42 36 30 16 35 32 31 41 32 37 27 31 30 34 30 28 32 43 44 26 35 31 30 46 25 25 24 34 33 37 33 29 26 30 43 32 35 29 26 25 39 27 44 32 36 36 35 34 38 33 52 36 27 27 33 30 27 21 26 30 30 33 25 37 29 40 28 41 27 39 39 30 33 26 18 39 25 30 37 26 25 27 36 21 27 30 51 41 40 33 33 27 34 23 34 30 33 32 42 29 34 29 32 43 39 22 37 30 25 33 32 24 40 41 33 30 42 30 29 33 35 30 34 31 37 24 44 37 34 31 39 32 33 41 23 32 32 22 43 44 33 33 28 28 28 31 34 31 37 44 29 27 38 24 24 29 33 27 30 32 29 26 28 39 27 23 43 26 36 29 39 36 33 32 44 31 37 36 31 42 37 33 36 31 24 31 38 21 34 27 38 40 26 27 35 30 37 31 36 44 22 31 26 37 43 39 33 37 30 36 31 33 32 28 26 32 28 33 34 27 32 27 32 40 34 31 31 56 36 29 36 52 28 31 29 23 29 26 30 25 45 32 27 24 30 38 34 38 30 32 26 31 36 33 45 30 30 34 39 31 45 39 31 41 34 41 32 36 26 34 21 37 31 34 24 36 22 39 27 40 32 25 36 37 24 40 36 40 32 26 31 39 34 26 30 37 32 33 26 24 33 22 35 34 50 31 30 31 27 26 29 30 26 33 28 44 34 22 23 31 23 32 30 34 32 32 29 31 32 36 27 40 38 33 35 34 33 36 28 32 26 28 25 32 41 41 35 36 31 36 32 23 32 29 27 32 25 33 24 30 31 35 29 29 28 32 24 30 37 34 33 31 29 30 40 35 31 38 33 30 26 30 28 28 31 16 27 28 32 21 29 31 32 36 35 43 31 24 33 27 34 36 24 36 32 31 29 30 30 32 24 40 34 31 40 29 28 31 29 40 27 33 19 38 31 36 27 29 31 40 30 37 28 33 32 23 37 32 42 29 38 45 35 31 36 28 34 38 28 29 27 29 29 35 38 30 34 56 34 37 30 35 34 30 33 37 31 36 31 28 34 32 29 36 34 32 29 26 44 33 51 32 28 24 24 24 31 25 32 33 27 46 30 42 29 33 34 28 34 27 33 22 37 36 41 22 33 31 35 31 40 33 27 29 31 24 37 31 36 41 32 24 31 30 26 22 32 24 25 31 36 39 32 31 23 39 29 30 38 37 41 45 32 23 26 34 44 43 38 37 34 45 19 34 20 31 29 23 31 31 27 25 26 35 35 31 37 29 29 30 36 34 30 35 40 30 44 32 42 25 31 33 31 33 23 24 29 27 36 33 35 27 36 33 44 26 24 27 42 28 24 43 40 31 45 37 19 33 32 32 35 23 32 26 37 43 41 23 30 44 27 31 30 31 34 19 27 32 26 30 37 36 29 22 47 28 33 26 21 30 35 34 28 35 41 35 34 32 32 37 42 35 24 29 22 31 40 34 36 29 33 27 31 30 37 28 35 25 30 32 42 27 38 39 26 33 26 31 35 37 27 34 36 28 37 43 33 29 51 27 44 29 27 27 40 31 32 36 29 30 33 23 34 31 29 24 36 29 30 42 40 29 28 39 37 34 26 25 35 40 36 40 25 45 40 29 31 27 31 32 33 35 32 32 41 36 36 30 31 39 29 38 34 42 31 33 27 30 27 38 29 23 30 34 21 28 31 34 36 36 33 29 31 29 31 32 34 30 29 27 26 30 27 27 29 26 34 25 20 38 26 26 19 35 40 22 31 36 20 31 30 34 32 27 28 25 32 35 35 26 31 33 38 36 37 36 35 28 31 41 36 24 36 33 35 37 25 33 37 42 31 39 22 28 42 24 31 29 29 38 31 23 27 31 43 42 35 37 41 31 41 42 43 37 28 32 34 23 37 37 32 29 33 39 30 36 52 37 29 35 31 30 22 29 26 37 31 32 35 34 28 32 33 28 22 28 38 24 25 32 27 29 47 27 25 44 27 33 36 30 34 39 22 25 25 34 23 33 25 31 23 31 29 30 31 27 34 27 30 34 28 31 27 29 25 29 32 28 32 40 39 33 39 30 32 25 35 27 34 37 32 33 31 40 40 24 31 34 27 36 27 29 32 34 35 26 35 23 35 26 31 29 24 29 46 36 26 36 25 32 49 33 24 23 30 34 25 38 29 34 34 33 26 28 38 30 30 35 33 28 33 39 36 33 44 34 29 31 34 32 32 45 28 28 19 23 45 24 37 30 27 22 22 33 38 33 37 32 36 33 18 29 32 27 32 33 35 31 27 33 36 37 37 41 40 28 36 39 36 33 26 33 29 33 34 38 27 38 42 40 33 24 37 32 32 35 35 36 27 29 31 26 34 27 29 38 25 25 30 19 33 36 34 30 35 32 39 33 30 33 33 37 35 42 35 37 34 36 33 44 39 37 26 29 19 34 40 34 39 33 26 26 31 39 24 28 28 33 35 33 28 31 26 34 31 30 39 21 31 37 26 46 31 35 39 29 30 28 26 37 34 30 36 38 40 41 20 32 27 30 26 22 55 36 26 31 24 36 46 36 38 30 27 37 26 34 33 34 29 38 36 43 42 31 33 40 23 34 36 33 39 36 29 32 33 31 45 34 38 38 34 38 29 28 35 38 25 30 33 34 42 30 43 30 25 28 29 35 40 32 35 28 42 42 38 31 26 34 25 24 24 34 28 24 44 33 26 35 30 37 24 27 28 31 40 35 22 32 32 36 29 37 32 27 27 32 31 33 32 32 30 40 36 30 29 30 42 35 39 38 34 36 32 29 33 41 28 30 32 30 22 27 26 26 32 45 27 34 47 33 32 38 43 30 33 30 30 32 28 38 34 34 25 30 42 32 25 40 40 36 30 21 26 32 26 34 35 24 31 32 26 41 36 29 28 29 33 33 33 34 38 42 24 42 41 43 42 22 34 49 33 26 27 36 28 33 34 28 28 34 31 30 46 37 48 37 34 31 30 32 40 37 31 31 34 42 21 30 29 32 28 25 29 31 42 26 34 33 35 38 43 35 35 34 39 27 32 41 34 25 35 29 27 33 45 32 30 29 42 40 37 32 26 38 31 24 24 31 38 48 28 32 31 31 32 27 36 30 24 33 41 26 36 25 36 39 41 29 27 40 40 27 29 33 28 28 37 24 19 25 38 28 38 20 33 46 32 32 27 24 31 32 31 22 38 30 29 35 36 34 39 27 28 17 36 26 31 33 32 36 25 30 27 40 35 39 22 28 23 28 28 32 25 30 42 30 32 31 47 28 35 26 34 42 32 32 27 41 25 29 22 37 32 31 35 38 36 32 38 29 23 28 34 25 30 31 29 35 30 32 32 26 25 31 29 31 40 35 32 30 30 31 36 31 37 31 45 26 34 44 36 30 22 44 28 39 35 40 47 28 31 34 34 39 33 29 38 32 37 36 39 35 42 38 34 31 27 33 35 28 25 42 36 31 38 34 38 33 33 23 51 31 33 27 38 27 28 32 31 32 34 33 35 39 33 39 36 33 41 32 22 35 42 30 27 28 41 34 22 35 49 26 40 44 32 40 29 35 32 43 47 45 34 22 34 47 38 37 31 34 40 41 23 26 26 43 32 31 23 45 28 29 32 27 43 40 30 42 32 37 37 18 27 27 35 30 22 30 37 40 20 30 32 26 31 35 34 31 37 30 35 27 36 37 29 24 32 31 26 40 33 39 35 34 35 28 30 36 40 27 28 35 29 29 31 33 22 33 37 41 35 35 34 33 31 45 38 27 40 30 31 34 21 27 41 37 28 30 26 28 32 37 37 38 31 42 28 31 23 29 32 49 45 31 29 42 30 27 34 39 32 32 39 42 26 24 33 29 24 30 29 32 42 54 33 27 30 33 34 30 26 37 25 33 30 27 32 38 33 31 35 37 34 24 38 27 32 35 33 37 36 28 35 30 32 31 25 26 34 33 30 41 56 36 30 24 38 25 32 27 35 26 37 45 37 26 30 46 36 31 40 29 32 29 23 44 36 45 39 28 38 29 33 29 31 37 35 26 31 40 34 31 20 43 28 37 31 32 30 33 27 33 31 31 22 32 41 28 38 32 29 29 23 25 36 23 33 28 37 35 24 34 29 41 34 27 29 39 31 29 36 27 45 25 33 30 50 30 37 36 35 33 24 48 28 34 27 34 29 34 27 35 35 41 34 24 29 27 30 25 30 34 42 39 25 36 35 30 26 40 34 36 32 43 35 32 40 23 31 36 29 36 35 31 32 31 32 32 31 24 39 35 32 21 30 33 42 31 28 33 31 39 38 47 33 29 37 39 31 41 28 24 38 28 42 26 32 33 32 26 33 32 25 41 27 38 37 33 41 30 27 29 46 27 29 33 33 40 28 53 29 34 29 32 27 45 25 35 36 30 18 34 35 34 33 23 31 38 33 35 24 44 36 32 34 32 25 26 28 43 34 42 34 38 39 49 36 33 37 24 27 31 37 39 26 27 44 36 18 33 32 37 36 37 22 27 31 30 35 27 36 34 31 32 39 45 33 30 34 34 26 36 36 29 48 26 17 38 23 20 41 30 37 35 37 25 43 28 34 31 22 21 31 27 25 35 31 26 27 33 35 34 31 42 27 29 33 23 41 34 34 26 31 40 32 21 36 28 36 47 26 32 31 25 35 30 27 36 38 37 24 18 35 35 25 33 18 19 30 32 32 28 30 26 37 28 29 40 28 33 34 26 34 33 37 45 22 37 37 29 27 34 40 30 27 42 37 32 34 36 41 35 27 28 36 49 30 33 30 31 30 36 47 34 25 32 30 24 35 34 47 41 33 38 21 28 31 30 25 32 34 31 36 29 24 31 29 27 31 28 35 28 37 35 31 35 30 25 31 28 26 24 40 31 38 40 26 30 30 31 33 30 35 37 37 32 33 31 34 31 31 45 36 35 30 41 40 32 27 37 25 36 32 29 36 26 32 30 26 21 45 40 38 28 35 31 32 32 30 31 31 36 40 31 31 26 26 42 32 28 51 34 27 32 34 33 26 34 36 35 40 28 33 36 30 26 27 49 31 35 36 31 34 28 33 35 32 24 38 29 25 39 28 26 36 36 25 31 36 37 41 37 39 33 32 37 35 40 35 32 33 37 38 39 37 33 34 35 22 38 53 31 33 27 40 30 31 38 29 31 29 30 45 32 36 36 53 23 33 34 32 28 31 36 30 27 28 28 34 25 29 30 26 30 26 32 38 36 27 38 29 33 29 34 31 29 24 24 33 27 29 27 39 39 31 49 36 35 39 33 35 32 46 33 31 38 36 26 29 35 35 31 40 28 40 27 29 37 51 33 29 45 28 29 27 33 27 35 42 45 29 30 22 22 46 27 28 26 29 32 31 33 37 34 33 42 35 25 31 33 28 28 38 36 28 36 48 38 23 39 29 39 38 23 37 29 33 30 28 34 31 35 29 34 31 32 39 31 47 20 38 33 42 43 33 33 30 31 30 33 35 46 34 31 28 27 28 33 31 30 34 34 44 24 32 31 38 28 42 23 37 23 22 40 31 30 49 32 41 43 32 32 30 33 26 37 34 21 34 23 32 27 28 38 31 41 41 32 41 35 29 38 32 31 32 37 28 31 43 36 32 23 40 41 26 38 32 26 29 31 46 26 31 32 33 36 22 37 42 28 25 22 24 32 38 36 23 25 38 28 23 30 32 27 20 34 36 27 41 39 29 28 28 38 34 34 27 45 42 41 33 30 42 32 26 31 33 42 35 34 51 38 34 22 31 25 34 31 34 30 24 35 30 31 39 33 34 38 36 39 26 34 23 29 36 42 23 36 27 41 36 25 33 29 33 27 34 41 37 32 38 30 36 32 32 34 21 31 24 32 26 34 36 28 36 31 36 26 26 37 40 24 34 36 36 35 35 29 25 26 38 27 28 33 37 26 30 28 39 28 28 36 34 31 30 35 39 31 38 36 43 25 29 32 35 34 35 36 36 22 32 28 31 41 39 36 38 40 32 34 44 29 32 28 31 32 30 25 43 39 33 27 39 36 37 37 43 28 38 33 33 30 38 34 33 24 42 35 47 26 41 26 31 24 31 40 34 30 21 34 30 33 47 27 25 27 24 26 32 27 31 34 36 26 30 42 24 32 27 24 32 33 38 35 28 31 28 31 24 40 40 29 32 30 37 31 34 36 28 33 45 26 47 29 30 28 32 38 43 37 43 47 37 38 35 33 27 27 41 34 34 29 26 39 33 37 33 29 25 34 31 27 35 33 30 34 42 32 25 40 35 33 23 20 35 31 34 39 40 32 32 33 33 30 34 39 31 21 36 37 25 30 29 27 42 28 25 31 23 33 39 31 31 26 42 36 42 32 35 31 35 30 24 25 27 32 38 24 40 39 31 27 37 28 37 29 30 32 25 32 26 29 34 33 26 32 27 26 18 29 29 33 29 38 28 35 36 26 26 30 30 37 32 35 40 28 39 36 37 32 41 41 26 29 27 32 19 33 33 29 26 41 37 27 24 30 30 35 32 34 27 38 37 32 29 33 35 37 31 43 40 31 39 34 39 37 35 36 33 34 40 30 37 26 31 38 28 33 46 38 25 24 38 38 25 40 33 31 30 35 29 25 29 31 39 32 26 37 31 30 31 30 22 42 32 30 33 38 39 26 45 28 29 32 30 36 42 30 39 29 32 32 34 28 32 36 41 46 35 33 25 30 27 29 33 30 31 35 35 27 35 31 34 28 36 32 32 29 28 25 30 30 35 38 36 40 43 40 34 32 34 29 31 31 35 33 38 31 38 36 41 32 34 36 34 32 31 29 37 42 44 37 33 25 41 43 27 28 41 34 23 40 29 36 36 21 35 24 28 29 28 34 34 36 46 18 23 26 41 32 28 25 36 31 31 38 39 30 29 28 32 27 22 36 34 37 34 32 31 27 33 27 38 31 36 30 34 29 35 38 29 31 27 37 31 38 23 22 39 30 38 40 33 31 38 36 31 37 29 26 39 29 35 34 37 31 35 38 26 35 29 27 29 30 30 32 34 25 30 40 31 36 29 33 33 39 33 33 41 26 39 26 37 31 29 39 24 30 36 30 27 32 29 26 33 35 38 38 43 35 25 36 39 30 28 30 30 37 30 32 32 36 37 36 29 39 28 33 26 25 31 28 35 24 26 27 37 27 29 40 31 44 44 29 35 35 29 37 38 36 36 30 31 26 44 38 29 40 33 17 18 24 31 39 29 21 39 31 36 35 38 40 37 26 29 22 34 35 35 37 46 26 28 35 34 36 34 25 31 37 35 40 43 37 27 32 26 20 34 29 30 26 27 29 34 33 34 43 31 29 35 25 35 34 25 35 35 39 37 32 32 32 33 37 33 33 35 28 33 25 29 38 42 38 31 39 39 28 55 29 58 39 28 40 24 35 35 29 26 33 26 33 33 26 34 39 33 27 17 39 36 32 30 30 38 30 37 33 30 32 40 32 26 31 42 29 38 30 32 43 24 31 33 31 32 33 29 30 26 35 43 31 29 24 32 36 41 25 29 30 35 35 38 30 24 33 30 39 23 27 25 27 28 29 28 32 25 37 38 35 25 24 32 35 32 23 22 29 26 34 42 36 32 23 43 31 25 39 33 36 36 33 37 28 31 34 47 21 31 37 28 24 23 26 28 28 30 43 24 39 29 28 32 28 24 37 32 44 29 19 27 27 30 30 28 35 28 26 35 29 42 23 30 33 28 33 23 27 33 34 29 34 31 24 33 27 33 40 44 45 25 31 29 44 33 35 39 27 31 23 34 34 42 26 33 32 37 31 37 37 28 31 46 31 33 28 24 43 37 33 28 28 32 32 32 39 33 29 42 24 30 33 24 29 37 30 34 25 41 21 26 40 37 29 34 39 22 31 32 27 23 33 32 35 29 33 30 36 40 29 26 41 24 24 36 27 26 29 28 32 26 29 23 37 31 31 39 24 33 37 31 30 23 22 31 25 27 28 23 38 27 35 44 28 32 36 36 20 37 34 27 43 27 45 37 31 30 31 26 32 21 25 35 27 37 34 35 38 33 32 33 30 26 28 39 30 30 31 38 21 44 37 38 24 41 27 29 36 43 38 45 26 36 27 27 34 34 24 34 27 36 30 26 33 37 38 28 34 39 32 31 23 33 29 28 39 33 29 26 35 29 35 31 28 26 31 35 29 33 44 35 34 35 33 29 39 34 26 34 31 35 34 36 31 31 33 22 49 21 34 36 37 37 48 39 36 31 32 25 38 30 27 38 29 42 29 30 34 26 31 31 31 30 39 31 37 38 29 30 36 40 24 36 32 32 37 35 29 29 28 34 36 25 33 38 31 31 24 26 40 28 31 37 34 39 31 35 34 26 47 27 27 32 33 38 35 47 30 30 34 29 33 27 41 22 21 32 35 28 40 34 28 30 30 24 34 33 33 47 38 38 28 29 35 27 29 30 29 27 20 33 33 29 29 38 27 38 40 31 33 31 42 37 34 37 24 26 25 36 40 21 26 30 34 34 25 31 35 39 48 45 26 24 42 24 25 40 32 37 30 29 23 33 44 34 29 35 26 31 40 33 39 36 31 23 33 44 42 30 31 34 33 30 31 36 35 29 32 25 27 31 33 24 38 34 30 34 30 34 36 44 31 37 30 40 37 29 34 25 26 22 34 30 29 33 39 25 33 28 38 29 25 30 32 33 35 24 44 33 25 34 31 37 35 31 31 43 44 21 26 36 33 28 33 26 26 34 37 15 37 28 23 34 25 26 40 29 41 16 51 36 33 25 25 22 33 39 34 33 24 46 38 30 37 34 32 41 31 32 45 23 35 32 38 35 24 37 32 34 33 31 32 28 32 29 32 42 35 35 39 35 22 21 38 32 39 28 30 37 43 26 43 34 32 41 32 24 32 35 28 29 31 27 33 27 26 31 36 29 31 43 40 30 32 31 34 33 35 32 32 47 40 29 29 34 40 36 31 35 29 29 31 39 36 32 26 50 32 36 30 22 34 34 34 38 51 21 33 36 20 35 30 36 30 33 24 37 29 28 38 28 34 41 35 39 38 39 40 27 46 32 23 33 47 37 21 36 29 36 36 36 25 26 38 31 31 22 37 30 33 25 19 29 27 27 26 46 36 28 24 38 46 33 34 31 27 21 37 34 31 28 34 30 34 30 27 32 33 32 23 28 34 40 35 42 28 42 36 19 32 43 23 30 45 34 31 47 37 29 30 39 23 16 32 29 40 24 26 25 33 35 30 27 32 31 38 34 30 37 36 28 31 32 35 30 30 26 37 30 36 24 31 26 43 31 24 32 32 21 30 30 33 47 32 26 29 31 28 45 30 43 36 39 36 29 29 29 37 30 31 21 41 42 39 32 32 38 37 34 37 38 23 35 30 29 29 40 24 30 31 28 32 36 30 37 27 37 31 34 37 35 38 26 39 31 49 27 29 33 34 33 36 36 26 33 28 33 27 23 32 24 36 29 33 36 30 34 23 35 41 30 51 28 36 27 25 28 37 27 29 30 34 35 37 34 32 48 32 23 30 35 23 37 37 34 26 30 28 30 36 36 45 29 27 32 27 31 26 36 30 35 43 36 36 26 30 45 38 40 28 24 33 41 35 40 31 29 27 40 38 36 23 31 30 31 52 34 25 44 26 25 30 44 44 34 34 38 36 27 24 31 31 37 35 33 31 31 36 33 31 33 22 32 40 32 30 33 29 35 43 32 29 32 32 51 35 35 35 37 23 37 28 37 49 40 32 35 28 31 38 32 46 27 35 29 36 26 38 31 37 28 38 38 33 37 34 37 27 32 34 30 24 30 34 27 25 30 29 31 31 32 34 34 35 39 45 35 33 33 24 30 30 24 30 26 25 23 32 27 32 30 31 28 26 42 44 33 34 26 37 31 38 27 21 26 29 32 34 30 41 41 23 36 29 29 39 35 26 25 29 22 29 30 22 32 27 38 34 36 42 43 36 34 32 33 31 30 23 30 29 30 37 25 23 27 45 29 29 33 30 35 37 40 39 29 32 37 39 27 35 34 27 38 38 32 32 27 35 46 34 38 27 30 34 27 34 28 40 36 26 32 51 46 27 29 34 33 35 29 33 23 21 23 36 43 36 37 35 35 26 28 28 27 27 45 25 32 32 32 28 34 37 28 36 32 27 32 40 29 29 31 43 28 33 36 33 37 39 42 32 38 39 36 47 26 25 35 51 38 43 31 37 30 45 36 33 30 33 35 40 42 34 25 40 29 27 29 33 32 39 36 24 38 20 44 27 44 31 38 38 24 25 31 32 35 31 29 33 34 31 27 24 40 28 41 31 36 27 41 30 34 31 25 36 30 29 29 31 24 37 32 43 24 21 31 32 49 30 35 37 31 39 39 40 24 45 28 32 32 32 30 34 26 36 34 36 29 40 38 30 28 31 31 25 30 32 25 36 35 33 27 31 29 34 28 35 32 37 32 23 24 44 31 34 29 37 30 28 35 35 29 38 32 30 26 26 35 22 29 37 34 39 40 29 33 37 25 36 29 24 42 37 42 32 38 43 34 46 41 36 31 26 38 28 34 29 31 32 50 34 40 54 35 31 30 44 33 39 26 37 32 31 19 31 26 43 27 28 28 30 43 33 34 35 34 34 34 29 34 41 31 29 37 29 35 47 34 29 42 35 40 40 31 27 31 35 25 25 29 30 29 39 35 37 30 36 38 32 32 26 29 38 33 26 34 38 23 31 42 40 33 28 32 34 22 30 33 43 40 41 30 33 22 29 38 41 29 36 37 25 38 32 30 40 27 30 29 32 38 45 35 34 29 27 33 35 45 31 29 31 34 30 33 34 34 30 39 43 31 34 33 40 26 31 27 40 33 44 26 34 30 29 35 27 30 35 34 35 28 32 38 33 35 31 27 32 35 33 33 30 35 40 31 30 26 27 24 28 51 27 33 34 28 36 41 30 40 27 39 34 37 37 35 31 35 31 28 27 35 27 42 28 24 44 26 27 34 30 31 28 34 29 42 46 29 25 34 30 24 37 33 41 28 32 34 38 32 28 34 23 37 22 39 39 30 33 31 34 26 31 34 39 34 39 36 39 41 33 46 28 30 30 31 38 29 34 39 26 38 30 32 37 44 18 43 30 32 32 31 31 37 28 28 39 28 34 29 36 32 29 27 44 33 32 30 33 27 28 42 41 20 30 34 20 35 31 28 31 30 31 27 23 38 37 36 28 29 29 37 43 31 40 24 40 36 34 38 44 40 33 35 37 23 26 30 25 35 41 22 24 32 31 37 28 27 26 35 32 25 24 33 28 29 30 36 30 27 31 44 30 35 29 31 27 38 23 28 32 32 31 34 30 36 47 36 28 30 29 15 34 35 34 33 35 28 30 27 32 28 30 34 34 30 36 39 31 36 30 38 40 30 27 17 26 35 34 36 32 36 39 27 31 35 38 36 26 27 30 21 27 30 28 32 40 28 38 26 31 37 43 28 27 38 32 26 29 34 32 24 34 44 34 33 26 33 36 28 34 31 33 36 37 51 36 30 26 49 35 35 40 42 27 43 34 34 44 36 29 41 32 26 37 25 30 32 39 31 41 43 35 27 29 23 27 24 32 32 36 33 29 41 34 30 26 37 28 31 33 24 32 30 32 28 42 41 30 21 32 38 36 23 27 28 37 19 41 44 47 43 32 28 31 38 32 33 40 31 34 39 34 50 34 32 32 29 34 30 34 34 41 31 27 31 33 28 33 34 27 26 30 31 27 31 37 35 40 23 28 37 24 28 24 31 32 25 24 36 25 34 33 33 35 33 41 30 30 32 34 36 33 25 33 34 29 24 34 35 31 25 36 40 37 34 37 30 27 23 36 30 40 43 37 29 27 35 28 34 38 44 35 29 26 32 31 24 27 31 28 28 30 32 36 47 26 32 29 38 38 40 34 31 37 32 35 33 34 44 37 31 36 26 43 34 38 34 34 35 32 46 32 42 37 28 29 33 33 36 27 19 42 30 32 36 33 27 41 39 27 31 29 25 34 33 24 29 23 27 33 32 32 27 40 37 29 38 32 48 33 33 26 29 40 38 22 31 25 36 37 40 29 37 43 45 35 32 30 29 31 32 32 35 35 28 36 33 27 23 32 26 35 33 36 42 24 29 31 34 29 38 30 25 23 39 37 29 25 44 29 35 27 34 39 43 30 35 39 29 32 33 37 31 37 38 38 27 34 38 39 35 34 28 41 24 38 38 38 37 26 48 28 39 37 36 37 47 39 26 25 31 46 36 36 36 31 24 27 38 43 35 42 41 28 33 26 31 29 36 25 31 29 35 35 21 43 35 32 33 33 31 28 36 22 30 42 27 40 33 34 33 45 37 43 33 25 27 36 27 34 30 35 34 38 41 28 43 27 27 23 25 31 33 36 24 33 44 30 32 26 28 35 37 38 32 22 33 41 45 29 27 27 29 34 32 23 33 36 31 36 28 39 38 31 34 26 33 32 32 33 27 24 39 27 37 31 38 36 34 32 32 30 43 33 32 36 42 27 28 37 32 34 34 44 32 34 28 26 35 29 34 46 29 35 23 27 30 26 36 46 33 35 24 24 28 39 41 29 44 26 34 27 22 28 27 26 30 31 27 29 29 34 43 34 30 28 32 42 37 28 27 45 25 24 29 22 33 28 34 20 26 26 24 31 27 41 28 37 31 33 35 27 37 26 28 33 44 27 38 35 30 29 32 34 27 35 28 33 29 30 28 43 29 29 48 29 27 32 42 38 28 31 41 31 28 43 25 39 34 22 23 35 33 33 25 32 34 33 26 39 46 31 35 28 29 30 31 43 37 43 24 24 35 31 41 44 24 35 46 35 29 44 37 24 29 30 26 35 21 40 36 24 39 37 29 42 57 17 39 20 33 34 31 35 31 27 28 40 38 43 46 33 36 33 22 34 45 36 24 49 39 27 29 36 31 28 32 36 43 36 38 42 35 28 34 48 37 37 37 36 41 30 30 31 27 31 36 38 27 39 34 25 37 36 34 32 32 32 25 32 34 43 36 37 31 35 38 30 32 45 35 26 36 35 37 36 37 25 34 29 30 34 23 34 24 22 24 30 36 32 37 43 30 34 30 30 20 31 33 43 27 31 20 35 36 40 30 32 28 35 36 40 63 20 32 29 36 35 29 32 23 37 31 33 27 29 33 34 30 32 23 29 38 35 27 21 31 28 45 30 41 42 37 21 39 32 26 28 33 48 30 42 30 36 32 35 37 40 33 25 41 26 33 30 35 27 28 33 33 46 25 44 33 41 36 22 41 35 30 32 28 29 34 33 27 50 37 34 31 43 35 26 30 37 29 33 38 35 35 31 23 21 32 15 35 42 40 30 31 36 27 33 31 32 34 36 35 21 35 38 37 28 34 31 28 28 32 29 37 35 25 37 25 39 32 30 42 32 38 28 37 26 25 41 38 22 25 26 31 32 28 31 27 22 37 26 32 39 30 41 29 31 37 30 35 30 35 39 32 33 28 38 28 29 38 33 34 31 36 33 28 31 35 38 29 24 20 33 29 28 43 36 33 38 33 39 32 30 35 46 44 32 29 32 38 34 31 37 27 35 37 33 33 31 22 39 39 40 38 32 36 27 38 24 21 27 39 33 29 39 32 44 35 26 26 34 41 49 27 35 40 35 30 38 25 24 27 32 28 31 38 26 28 40 27 30 37 31 28 19 35 29 32 27 30 36 28 30 36 31 24 30 30 27 41 25 43 34 32 46 35 35 38 26 22 21 23 36 29 33 36 33 46 43 30 28 30 30 32 38 37 26 26 25 23 38 36 48 27 29 33 24 28 37 25 41 33 27 31 24 29 37 31 30 28 36 39 32 41 24 40 26 38 46 26 32 24 29 37 33 30 44 35 24 36 32 42 37 45 44 23 42 42 38 33 37 30 24 33 38 42 28 34 32 33 32 36 27 35 41 33 39 34 33 32 27 33 38 30 36 35 25 31 33 38 38 52 42 32 35 35 38 33 33 32 31 27 30 32 31 26 30 28 31 29 28 30 32 34 33 24 35 35 30 33 30 37 46 39 29 34 38 35 23 30 39 32 29 29 24 31 26 30 32 38 35 29 28 30 33 36 38 24 33 38 20 48 29 28 24 38 27 22 27 20 31 51 30 31 41 26 25 32 35 34 37 32 38 36 40 39 36 28 27 33 31 32 21 43 16 31 41 38 30 36 23 20 23 31 39 30 31 31 33 28 32 26 27 26 41 38 32 42 37 34 42 31 30 30 31 30 30 33 33 33 35 39 43 22 32 28 32 34 25 24 33 41 31 30 35 37 34 30 33 36 32 30 39 27 29 34 36 38 34 31 33 33 25 36 37 28 30 27 36 38 38 41 37 30 30 37 34 32 50 29 19 40 26 23 30 40 38 27 26 39 25 30 30 42 30 26 34 32 30 46 35 48 31 35 37 39 37 24 32 25 34 31 33 27 32 27 33 34 34 35 30 36 30 35 35 34 32 48 32 24 32 35 43 31 27 36 46 37 25 34 26 33 27 31 30 32 36 21 34 33 41 37 42 43 31 34 37 25 29 27 42 37 27 34 25 28 34 23 34 27 40 29 27 33 32 36 34 29 31 31 30 42 29 30 39 33 31 31 24 46 33 30 38 34 24 35 25 25 32 28 41 35 34 49 23 26 32 44 37 24 30 34 24 37 27 46 31 37 34 33 33 22 21 31 34 38 23 28 34 36 26 39 33 33 31 30 25 32 41 37 36 29 29 47 23 33 32 36 32 26 35 39 31 35 32 28 30 31 41 32 40 27 28 29 43 32 34 34 26 29 29 42 29 38 27 25 39 28 37 32 28 35 29 33 43 24 29 29 21 31 36 31 33 35 30 40 35 35 37 35 34 30 32 26 26 23 26 25 31 31 39 37 36 33 33 27 37 32 32 26 28 37 23 30 35 34 32 31 40 34 30 36 37 33 26 29 30 37 25 36 34 34 30 29 33 34 30 29 33 28 36 29 34 34 43 29 30 37 32 32 42 33 31 21 24 37 37 29 39 31 39 33 37 28 35 35 26 30 26 22 38 36 31 38 27 28 34 23 38 31 27 27 32 27 34 41 30 28 33 23 30 40 36 28 35 20 24 40 24 38 28 32 36 31 34 32 19 28 29 30 32 39 33 35 38 31 37 26 32 30 35 29 33 31 30 25 31 37 35 31 30 33 40 35 32 38 33 33 26 46 30 28 48 37 41 23 33 38 34 28 31 28 28 29 32 25 30 33 34 36 35 20 40 42 28 38 25 32 34 30 28 37 33 26 43 36 29 27 33 25 54 29 27 39 40 35 34 29 34 22 32 35 35 31 28 36 44 29 31 37 37 34 41 34 38 36 35 39 31 36 31 30 30 42 32 31 35 43 33 29 30 37 32 25 21 32 32 33 29 33 30 27 20 29 41 31 35 24 32 33 32 32 31 29 39 38 28 27 29 29 38 31 26 35 36 25 34 28 21 30 28 31 23 33 43 34 41 36 28 32 26 32 30 44 38 30 28 33 36 39 33 28 35 34 24 21 30 36 28 33 37 29 28 31 41 28 30 39 32 27 45 29 33 40 49 30 36 41 16 38 35 24 32 32 29 32 29 32 32 31 36 35 28 36 27 33 37 36 38 39 29 28 23 40 32 31 38 38 41 30 30 38 40 44 32 38 38 21 36 34 42 30 38 30 39 31 43 36 42 20 34 27 20 27 34 33 40 44 40 30 34 22 35 35 38 31 30 30 36 38 41 34 33 38 33 35 37 49 31 35 23 27 38 39 27 30 32 25 38 23 28 36 37 32 32 30 39 33 47 33 32 29 33 35 43 24 33 25 26 35 32 36 34 34 39 32 26 36 28 35 33 23 27 48 35 30 33 32 31 23 57 39 30 42 40 42 42 32 35 35 23 39 28 30 34 43 43 32 31 35 26 29 31 44 28 35 21 33 34 41 34 27 34 33 36 48 31 32 31 27 44 44 22 39 38 34 27 33 23 33 33 31 37 44 38 39 26 33 36 29 37 34 38 38 34 32 38 36 35 34 41 39 36 29 41 28 27 53 30 31 32 41 47 33 35 35 30 34 22 48 48 42 29 47 36 31 31 34 36 28 32 33 45 34 28 35 40 31 39 33 30 35 33 36 31 35 33 26 30 36 31 36 25 34 41 24 32 35 27 33 27 38 40 27 29 33 33 34 36 33 29 25 31 30 33 31 29 43 46 32 28 38 41 35 41 26 33 36 33 43 36 24 34 26 22 35 33 47 25 31 28 27 38 35 35 33 35 31 31 30 34 32 32 36 29 28 28 21 24 28 38 26 38 41 36 46 30 24 39 35 38 26 31 42 34 32 29 36 31 30 33 32 44 30 25 27 33 25 52 25 44 42 37 32 36 37 29 29 41 29 27 32 32 30 40 27 33 39 44 33 30 29 30 28 33 30 23 27 27 33 26 26 29 30 36 29 41 24 28 23 38 33 28 15 41 29 28 38 36 41 34 25 38 33 38 40 38 31 32 22 42 27 32 29 33 28 44 35 28 30 41 23 25 25 29 36 35 40 28 27 31 37 34 28 39 32 25 24 31 25 37 51 39 31 34 25 35 33 38 30 37 34 32 36 32 30 32 27 27 33 27 34 36 24 34 30 32 35 36 36 42 36 31 20 33 32 37 34 34 26 34 34 22 45 30 34 35 32 29 29 31 31 41 34 31 35 33 31 41 38 37 30 33 29 38 28 28 27 27 29 34 28 34 34 37 36 38 26 29 36 46 34 48 28 31 28 34 31 30 24 37 23 28 33 22 31 31 32 32 30 36 30 25 37 30 25 28 36 31 27 31 30 37 35 29 28 33 27 30 34 27 33 37 32 31 32 21 34 27 35 30 38 31 25 31 28 31 45 43 32 31 33 33 46 36 24 31 25 39 35 33 33 26 37 36 38 51 35 23 31 35 31 33 25 39 35 32 35 45 30 19 30 33 43 27 22 50 27 31 37 30 37 28 30 45 34 31 34 31 32 26 35 29 32 39 31 36 32 31 35 41 33 34 25 30 34 38 34 33 32 30 29 45 24 29 29 28 43 37 37 32 30 26 36 44 30 27 29 36 34 34 34 35 30 24 30 22 26 27 28 29 30 47 27 29 33 35 29 23 40 31 36 39 40 38 30 34 37 40 29 26 36 30 34 32 32 30 43 28 25 31 39 39 37 26 37 30 32 38 36 30 26 44 29 28 30 28 35 39 27 32 33 25 34 35 43 26 33 39 29 39 30 33 32 29 18 32 40 30 25 32 24 31 22 40 29 37 39 32 37 36 40 26 40 26 34 29 34 33 34 26 36 28 34 34 37 23 34 34 30 19 24 32 31 26 30 38 37 37 28 39 23 34 35 32 37 26 45 40 26 41 40 28 29 34 35 28 33 34 42 32 44 25 28 39 35 29 30 24 31 35 27 33 35 33 34 27 33 27 31 35 32 28 23 31 23 28 31 40 31 34 33 30 30 34 28 34 36 29 32 26 38 30 42 27 30 26 35 35 43 36 33 35 28 32 24 40 33 26 32 47 39 32 49 27 26 31 24 38 39 40 22 36 30 28 41 25 26 25 40 34 28 33 34 28 37 34 39 30 33 28 25 30 31 31 32 35 35 37 29 30 33 39 31 42 33 33 27 29 25 37 34 27 35 21 47 37 34 39 38 29 49 50 29 30 41 41 32 40 23 28 20 30 38 30 32 34 28 34 31 38 28 34 38 32 31 31 42 25 32 28 30 29 25 29 30 38 32 28 28 30 23 42 35 37 26 32 33 30 35 34 34 23 33 34 25 32 36 41 38 27 31 38 26 29 38 39 34 27 35 31 31 36 38 37 35 31 40 37 36 22 33 27 38 28 30 23 33 39 28 45 33 26 34 30 42 34 30 33 23 25 37 36 27 31 31 25 25 35 41 32 37 32 24 36 34 30 35 34 27 32 24 28 27 41 34 33 28 32 31 27 43 34 27 43 45 25 39 29 28 27 39 44 29 23 42 29 33 47 36 24 33 36 31 34 41 39 33 32 27 29 37 35 36 24 35 26 34 25 30 32 41 38 36 34 32 37 36 39 33 30 25 28 37 27 32 37 23 37 22 38 35 36 39 35 37 29 33 26 34 29 32 33 26 30 31 39 39 21 30 36 37 43 33 30 28 39 27 28 33 24 39 36 31 36 26 28 34 23 29 35 34 32 40 41 30 29 41 29 26 34 35 32 35 27 32 35 29 31 35 42 35 36 33 27 28 34 47 25 36 31 32 34 44 33 31 37 26 28 25 34 31 41 31 25 36 27 29 35 35 30 42 21 23 24 39 30 31 42 28 35 36 27 33 37 25 25 40 37 35 34 22 29 42 34 43 35 23 32 48 33 33 27 33 45 34 29 26 45 42 33 30 33 35 40 36 27 26 32 34 37 26 38 42 26 29 34 41 29 36 36 38 36 30 30 31 29 34 32 42 31 36 48 31 46 37 37 40 36 40 33 24 34 28 29 31 34 31 28 28 33 30 29 22 22 29 34 30 34 43 36 31 33 44 36 30 36 36 32 35 27 38 47 27 27 34 38 29 40 30 43 38 23 29 41 33 24 29 31 25 35 24 28 38 34 22 29 32 28 31 27 32 33 34 23 35 26 41 32 27 33 27 52 30 30 34 26 33 23 32 34 42 27 40 44 32 31 32 29 30 33 35 33 34 34 30 29 30 28 39 35 22 44 29 32 26 29 27 27 41 18 48 47 49 35 29 33 33 32 27 30 30 35 34 31 34 33 29 31 37 32 41 41 31 28 35 26 33 36 34 30 32 27 40 22 37 43 38 31 35 24 27 40 39 25 27 32 33 34 28 35 34 27 36 35 36 40 27 34 35 36 24 36 37 25 25 38 24 38 30 21 27 32 27 25 30 30 27 25 39 32 37 20 25 36 32 31 27 34 32 24 27 29 37 28 29 32 33 33 38 41 35 30 36 21 38 33 37 33 29 26 34 41 36 37 28 41 27 27 33 30 28 34 36 43 35 31 31 35 34 25 32 29 22 34 27 32 40 31 32 40 41 40 32 32 40 37 31 38 48 27 35 35 29 28 33 44 21 31 32 32 32 40 25 36 32 35 27 44 27 32 28 43 37 34 24 29 36 43 35 33 24 33 39 47 34 32 29 36 33 37 32 37 36 33 35 25 29 39 45 30 28 35 36 24 35 40 32 30 34 38 28 38 31 30 33 32 36 28 37 38 39 29 34 28 32 31 29 29 34 31 29 37 39 42 20 23 35 30 39 33 33 31 39 29 38 32 25 28 35 29 25 40 41 30 37 35 23 29 28 29 32 33 31 35 34 38 23 37 38 41 26 29 40 32 34 39 30 29 34 43 33 31 30 32 41 32 38 25 31 42 35 23 31 39 30 29 29 32 33 44 36 28 33 33 37 27 38 28 36 42 23 30 31 36 30 30 25 32 50 31 32 27 30 39 34 35 36 19 46 40 38 29 25 20 27 40 31 31 39 35 32 37 35 35 41 38 22 44 34 32 31 25 33 31 36 33 30 39 32 28 29 31 35 39 38 26 29 37 36 38 35 40 25 40 28 32 21 35 45 33 30 29 40 31 24 32 35 26 24 32 30 38 34 25 38 30 31 32 23 33 31 36 36 28 26 33 33 37 43 27 35 40 32 33 42 34 32 21 35 32 43 33 28 33 41 22 40 28 23 32 31 35 33 31 41 49 34 39 26 38 24 39 41 35 33 32 32 25 38 41 37 28 35 43 28 30 34 45 31 30 30 34 46 30 35 32 45 33 30 22 24 35 34 25 38 27 32 39 31 29 26 35 26 30 34 35 44 35 32 24 26 26 42 29 39 34 33 33 37 38 32 34 28 28 37 31 39 32 31 27 33 37 21 40 34 32 28 35 37 40 35 26 35 40 30 40 30 40 30 31 28 25 27 40 36 36 35 32 39 32 39 23 33 25 36 29 41 36 31 27 28 34 33 29 39 29 26 28 35 29 38 41 22 33 28 40 41 37 30 32 41 34 33 35 32 32 27 34 33 35 30 42 47 30 38 42 54 39 40 29 24 34 31 33 29 29 21 26 36 35 31 29 29 32 25 31 29 26 26 30 41 33 23 31 32 31 22 21 39 46 21 24 32 36 37 28 32 34 19 35 18 37 34 35 24 33 33 21 30 24 32 35 46 39 29 38 31 38 43 23 23 28 43 39 25 40 29 31 30 31 31 34 40 32 32 25 27 34 42 30 33 32 26 32 22 30 42 31 39 43 32 32 27 30 31 30 26 31 29 28 31 45 33 35 20 26 49 36 35 34 38 24 37 24</t>
-  </si>
-  <si>
-    <t>EXN(0.48104245719692723, 214.8298596438273, 41.835524021784686)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227 259 298 258 190 231 202 249 204 226 229 206 201 315 237 243 299 282 227 227 164 240 291 315 229 212 228 251 317 223 188 249 189 191 205 262 245 235 289 294 221 186 202 217 212 273 276 291 194 223 273 189 247 292 222 149 274 129 197 247 352 308 212 270 253 144 264 281 339 302 283 263 262 251 264 262 260 226 204 264 239 318 171 185 232 292 225 235 193 274 163 177 183 227 244 172 335 242 324 190 227 335 157 200 244 206 245 317 234 170 263 213 186 238 271 240 237 200 265 242 234 310 150 308 274 202 265 269 218 290 206 276 215 295 185 349 232 318 330 279 232 309 194 301 282 205 230 264 191 184 222 363 226 176 270 198 269 226 236 218 216 269 228 249 265 230 254 231 313 214 259 180 187 220 154 208 311 232 274 218 176 214 248 177 248 220 279 235 191 223 239 205 206 144 226 145 191 210 190 262 248 301 189 232 173 152 202 250 250 283 181 259 224 198 166 310 342 235 241 220 270 224 267 220 251 165 314 294 221 140 277 189 178 317 184 196 273 109 241 296 263 205 248 183 184 228 213 289 200 220 367 204 254 281 215 197 246 201 219 235 277 212 296 281 249 280 240 245 223 201 183 194 253 227 244 197 309 253 260 273 231 247 254 266 262 240 198 226 340 283 258 228 334 278 178 190 296 245 266 309 219 259 254 199 308 245 232 207 220 171 294 287 208 293 257 223 197 194 178 244 252 232 187 174 224 345 268 255 311 251 243 247 172 255 228 325 244 190 215 213 257 258 294 287 269 220 330 191 229 197 264 230 205 257 295 233 241 151 267 350 270 165 230 232 239 268 212 253 216 157 232 254 291 288 255 182 271 289 245 197 298 214 264 193 288 233 226 224 293 171 196 196 218 312 240 205 292 227 162 204 207 244 235 253 222 227 244 229 185 247 232 306 153 367 233 175 186 205 231 225 237 195 199 237 248 179 250 202 107 173 238 185 235 245 211 212 251 247 236 246 254 276 288 264 164 223 260 188 357 299 189 152 281 218 330 236 232 185 189 197 191 243 217 235 220 265 221 217 237 178 186 223 160 308 245 159 191 338 345 190 248 309 279 300 181 277 216 264 275 255 163 245 302 167 233 229 226 155 188 252 263 246 256 286 271 220 181 213 258 272 229 204 232 207 281 276 197 136 262 183 236 261 187 283 155 213 212 257 339 287 209 216 223 257 184 328 146 255 194 269 236 260 209 259 294 320 220 172 161 211 210 291 200 205 187 200 294 257 294 244 231 203 267 272 227 285 214 256 224 209 197 201 225 203 185 265 243 215 295 388 240 190 204 272 287 239 208 225 257 253 171 279 257 239 239 187 249 206 237 181 210 254 246 153 229 187 239 305 156 271 213 228 171 322 190 275 292 156 192 278 179 218 300 277 189 223 146 202 182 275 242 174 263 342 177 141 227 244 334 180 208 154 174 235 199 229 397 305 176 252 223 154 185 183 157 231 212 331 188 224 258 178 243 204 212 276 179 196 251 211 272 266 172 248 254 188 211 168 275 253 315 308 246 278 290 277 334 221 268 208 328 263 242 206 319 284 214 293 199 239 236 246 232 282 211 262 294 243 248 216 286 239 193 193 229 201 263 305 173 212 222 229 224 233 264 207 157 287 207 209 349 233 325 216 232 280 265 196 245 243 250 167 228 293 348 280 279 334 207 285 206 255 287 301 185 221 246 200 249 301 246 252 255 299 300 270 213 184 143 194 228 290 291 262 220 295 228 234 212 197 319 123 188 265 246 171 243 251 264 288 239 291 369 296 219 268 191 200 267 218 193 231 229 206 326 261 258 172 311 183 212 179 198 234 233 239 171 298 179 278 179 168 234 211 273 279 263 200 262 223 216 309 228 348 152 311 217 190 236 223 239 159 261 244 266 230 199 266 254 252 238 219 178 268 313 242 218 254 272 282 222 319 239 222 287 238 194 250 210 205 275 131 236 180 224 268 158 226 270 220 262 233 231 275 215 224 246 287 302 273 228 150 322 274 254 251 260 223 305 214 210 239 257 221 211 231 306 140 253 231 303 246 311 203 182 298 202 200 238 253 265 228 237 256 229 250 210 302 313 184 315 320 196 244 269 213 304 197 212 130 186 202 195 203 281 251 200 186 192 233 237 192 263 205 274 217 169 196 126 193 212 253 309 275 284 140 216 220 221 345 276 269 230 244 180 309 261 206 240 262 306 218 295 199 226 314 208 192 176 223 242 224 201 205 149 195 262 241 252 162 154 158 297 224 304 209 215 238 318 283 230 272 336 243 165 217 233 272 201 113 205 193 184 213 195 278 234 276 216 277 210 288 317 233 236 208 142 326 210 202 256 153 213 183 244 177 235 182 303 296 308 290 271 222 287 182 251 284 282 231 214 210 228 187 299 287 239 202 259 198 228 194 205 145 307 287 254 256 238 212 228 246 232 269 281 216 289 191 328 238 232 197 327 230 180 322 157 259 239 116 226 350 217 257 231 246 254 210 248 246 280 289 204 206 292 192 153 210 262 178 204 244 236 223 190 257 222 161 287 178 266 215 250 272 283 204 320 199 334 255 246 259 350 196 248 190 150 242 256 122 209 225 219 250 191 177 231 180 251 208 232 303 201 205 163 244 355 321 250 306 275 313 201 316 217 209 195 212 260 219 251 216 187 201 201 297 278 209 179 352 199 229 219 339 164 200 211 126 191 189 254 130 256 184 230 205 203 306 238 282 197 256 202 243 229 260 318 249 269 268 221 198 332 245 222 228 228 260 181 263 227 262 101 262 217 249 172 277 164 316 200 277 190 195 256 268 123 269 256 289 238 149 218 298 244 220 258 271 302 243 168 211 297 191 294 236 352 279 211 217 259 159 219 172 217 280 223 256 210 146 168 207 177 192 219 234 222 229 192 220 202 285 224 260 290 268 258 264 240 272 194 186 214 214 170 182 245 224 276 203 224 280 252 172 277 180 186 193 140 268 170 221 251 241 163 231 205 190 223 247 325 247 242 244 255 221 286 253 288 261 200 184 190 270 252 142 210 104 260 198 245 135 178 265 209 247 221 303 176 193 193 149 244 261 184 244 266 256 159 220 261 262 161 293 298 212 263 173 213 238 193 289 243 252 180 285 252 240 214 207 211 264 230 259 283 220 246 157 237 224 290 213 243 281 284 258 225 217 277 307 186 242 224 253 217 207 233 182 252 395 215 339 205 247 270 254 217 264 239 258 275 277 215 260 231 280 263 247 247 211 206 217 386 239 185 189 137 152 227 227 209 241 227 382 209 291 183 274 209 239 232 251 225 193 261 284 274 182 326 248 231 300 239 247 221 208 226 151 332 272 217 246 193 192 229 228 207 135 203 190 174 244 260 260 171 211 147 262 208 204 305 289 345 271 224 157 197 246 276 313 243 311 233 251 183 258 166 239 159 210 194 210 187 199 212 267 235 205 236 216 162 237 285 251 209 292 299 195 366 182 248 155 180 244 286 248 161 192 211 228 216 188 228 233 202 247 333 204 201 261 278 256 125 347 277 212 333 262 184 214 250 246 262 181 206 277 279 327 287 160 220 325 199 219 164 260 182 184 137 181 164 237 255 278 214 201 325 225 226 217 132 197 233 248 238 265 270 248 217 199 237 267 233 288 133 208 128 200 278 298 307 230 264 193 213 212 273 209 257 175 217 192 282 180 206 270 204 252 142 266 174 296 203 232 276 138 241 330 255 151 334 202 284 185 198 193 309 220 234 252 249 196 286 103 213 255 201 229 228 250 219 265 243 253 193 265 268 262 140 258 229 272 252 248 173 285 282 230 149 211 177 223 243 263 243 252 285 252 253 244 200 249 247 279 278 240 245 270 222 221 199 298 197 186 190 234 166 154 227 261 260 263 225 207 200 233 229 225 252 210 273 247 215 193 184 207 207 279 260 188 183 224 189 188 124 211 256 164 230 220 143 251 218 245 229 215 211 227 277 272 230 169 239 282 266 267 229 190 242 215 311 339 241 197 262 215 224 243 148 266 259 272 245 307 165 179 357 199 249 202 223 311 218 210 188 236 343 275 268 243 292 220 295 336 314 266 201 210 247 158 353 314 244 242 237 259 180 297 371 274 220 234 215 229 148 212 180 240 199 242 234 191 202 234 215 194 184 182 318 136 187 235 238 188 288 192 170 202 183 232 268 183 280 237 164 193 218 212 149 237 177 164 165 215 164 254 195 202 257 244 191 285 195 237 189 230 182 219 292 232 225 322 247 257 289 196 255 154 246 190 256 211 224 322 193 335 255 133 216 230 224 259 161 221 267 288 238 189 228 167 266 186 168 259 218 229 315 252 159 273 191 254 273 220 163 160 194 215 187 308 99 237 229 211 193 191 260 192 257 285 325 184 157 231 204 244 287 202 189 226 195 243 239 289 233 217 187 116 265 163 265 202 191 202 174 240 212 318 292 216 299 172 132 242 229 202 230 212 268 199 215 209 310 260 251 288 316 196 221 263 240 238 149 214 229 224 289 268 171 312 322 293 217 228 211 300 273 277 274 269 236 150 230 197 247 170 195 287 156 178 194 141 216 298 223 184 268 213 283 222 158 216 267 309 268 277 279 272 245 264 241 339 271 253 129 194 138 292 291 192 251 267 220 170 210 233 161 243 218 257 235 242 228 181 181 238 228 218 311 186 184 280 179 286 226 266 281 240 190 205 188 266 248 173 219 230 278 198 155 243 195 220 215 138 387 236 253 246 176 244 320 261 278 203 242 265 197 229 196 243 196 306 278 280 282 202 207 262 241 218 242 275 291 250 187 237 227 223 301 244 270 296 271 295 176 200 238 275 185 230 212 209 255 248 305 220 207 210 205 294 286 221 266 230 293 353 306 268 173 232 187 204 202 263 202 183 290 241 185 206 218 277 126 186 249 231 340 234 202 267 217 255 226 252 303 249 203 213 234 206 266 244 243 273 240 243 211 238 294 277 287 205 312 264 283 212 279 284 239 259 247 245 137 199 226 184 237 253 277 228 281 278 267 270 321 208 279 217 174 274 206 278 235 270 188 237 301 291 164 270 282 324 186 116 170 254 198 247 176 166 160 225 234 281 271 230 206 173 207 185 247 248 137 275 168 311 312 348 322 185 258 320 202 195 224 288 230 258 239 207 222 236 239 280 354 249 262 282 215 193 221 237 254 240 190 239 254 260 171 223 228 217 196 187 188 247 281 205 323 243 289 264 276 261 169 257 225 214 255 319 200 235 281 246 186 260 351 241 210 266 294 261 262 203 194 264 252 198 213 254 292 251 171 247 273 146 275 188 218 249 187 194 280 186 241 216 274 270 247 232 167 260 304 158 151 227 212 255 230 243 134 238 294 222 250 114 284 279 225 237 242 165 224 234 214 194 311 177 244 230 294 201 258 199 226 108 257 165 274 205 238 287 148 277 169 309 312 280 144 170 177 211 182 205 195 213 235 203 200 214 322 216 236 218 286 322 225 282 169 285 166 231 212 243 203 188 255 292 233 288 193 243 147 214 213 162 237 267 256 282 187 225 264 150 187 254 236 245 352 262 198 207 183 220 269 214 267 243 281 201 260 311 295 234 213 262 229 254 238 243 328 212 221 203 259 269 247 158 273 254 242 224 301 251 246 266 275 244 234 241 214 172 129 261 303 217 273 264 226 272 228 144 259 206 177 206 328 205 261 270 227 189 240 279 177 262 277 251 217 183 275 250 162 230 301 253 174 226 273 215 140 272 348 184 320 240 203 196 198 319 231 290 338 295 276 180 262 395 293 238 200 238 250 261 182 180 201 290 234 214 130 353 154 182 230 138 292 322 180 226 187 261 261 148 118 194 305 219 173 178 304 275 178 262 284 188 253 188 299 246 239 186 251 180 211 252 192 215 277 218 161 258 230 251 175 213 250 220 244 337 216 202 150 209 171 247 241 266 171 265 217 251 289 296 233 274 242 283 349 220 311 257 220 219 106 217 253 269 204 155 138 221 260 306 259 312 217 316 267 199 151 233 263 358 229 222 167 263 286 191 269 229 208 192 257 299 171 176 244 238 166 249 121 223 257 337 256 198 201 323 217 218 195 219 190 234 207 190 196 247 252 179 239 278 203 173 276 200 180 234 205 293 247 240 247 218 229 190 158 210 232 178 188 329 387 260 159 193 279 151 169 193 282 215 284 269 244 206 173 273 291 254 310 258 258 203 172 320 230 285 252 183 285 248 248 185 251 257 253 203 222 252 242 228 90 356 198 254 202 208 226 233 253 209 234 239 155 225 261 178 317 224 193 171 197 134 277 209 212 181 312 274 153 227 273 258 219 195 258 253 292 237 273 234 268 179 237 223 286 231 222 237 216 255 148 309 199 224 202 204 228 293 208 273 246 281 300 175 203 198 231 170 212 203 233 236 224 209 266 164 135 281 309 229 232 286 225 262 284 139 160 245 268 247 262 216 238 170 179 258 239 159 235 245 179 173 222 233 277 240 216 238 194 301 286 356 262 201 208 249 239 264 183 212 285 185 268 136 216 216 241 232 292 245 168 240 228 249 230 251 240 258 227 234 306 211 232 263 245 242 222 315 246 228 212 217 217 341 141 263 231 208 185 223 214 256 220 152 196 260 224 179 173 277 263 256 297 295 150 180 214 311 223 309 231 263 310 373 238 208 267 173 218 182 253 243 170 225 305 289 155 232 257 223 251 301 174 210 258 239 219 194 292 250 173 241 266 293 267 238 293 205 178 267 239 234 284 207 118 269 171 127 324 224 272 341 245 165 261 261 233 261 190 139 251 202 203 218 232 230 191 258 236 275 224 271 211 193 270 182 232 247 289 196 255 285 268 147 214 167 214 326 222 221 243 170 218 191 191 203 323 261 156 183 277 237 238 247 124 154 186 274 232 209 226 166 252 216 188 303 202 222 212 184 259 232 282 270 221 254 249 195 237 257 262 217 197 267 254 220 218 277 243 193 206 216 292 343 224 251 269 219 177 250 271 247 208 228 169 206 172 173 331 317 358 312 166 227 219 241 153 251 227 196 268 216 190 244 261 237 212 193 231 195 291 253 271 252 210 174 178 217 235 187 265 234 216 261 226 239 269 219 241 198 217 217 225 219 251 238 284 212 244 380 323 241 194 273 241 221 207 241 207 258 261 282 200 204 226 227 144 159 335 300 231 167 258 233 224 219 253 187 206 242 277 191 232 162 233 291 245 262 332 259 209 225 267 257 235 287 248 251 310 182 235 225 253 177 210 327 210 243 238 238 201 197 260 246 285 208 285 245 234 240 173 190 310 263 184 186 277 217 321 266 302 200 257 230 245 248 229 219 263 296 305 275 223 224 224 270 158 242 354 195 273 171 246 196 219 301 197 250 227 257 387 230 247 296 329 157 265 300 232 238 270 296 258 227 244 209 297 204 186 209 185 187 203 211 294 243 216 283 181 244 236 286 218 185 153 214 243 244 267 148 335 201 220 271 295 299 217 269 249 224 331 294 254 278 270 248 204 188 234 247 235 175 326 226 238 258 332 222 177 263 187 208 181 243 195 286 318 317 228 236 193 195 324 168 174 226 207 181 249 204 276 225 266 328 219 225 193 226 210 206 303 238 223 222 319 216 154 303 215 276 208 175 271 231 271 187 169 151 226 247 212 240 167 295 277 233 339 173 249 253 298 281 283 251 229 217 277 286 233 318 243 235 209 229 157 228 237 210 267 238 351 163 217 248 269 199 252 129 265 176 177 299 212 223 279 201 340 330 138 252 213 289 177 225 267 167 202 191 214 133 173 291 237 276 254 269 226 285 185 256 247 230 224 251 198 279 267 281 260 172 320 297 167 290 266 265 231 203 308 167 231 205 217 238 154 299 293 209 185 156 185 214 237 317 203 167 267 196 186 206 263 210 174 246 299 243 287 306 219 177 195 326 242 273 191 379 279 285 223 235 319 239 206 209 205 251 276 235 289 299 238 131 242 203 252 234 192 197 222 221 174 260 315 254 270 325 265 239 173 242 186 205 199 355 136 300 191 278 328 226 201 202 236 221 252 313 252 231 240 204 280 248 192 291 144 214 199 255 220 209 221 242 246 223 273 143 170 288 329 185 257 323 258 275 262 247 219 182 327 143 229 264 243 171 247 210 314 218 251 227 227 193 229 277 216 137 324 241 284 204 236 142 227 269 197 230 253 187 218 206 244 235 307 248 238 303 191 258 283 227 232 216 154 243 253 164 259 269 232 212 290 237 265 270 336 228 234 254 281 234 229 282 218 192 302 289 351 162 266 202 274 180 246 283 227 150 146 221 216 212 250 139 237 162 165 195 238 230 181 284 268 148 157 312 257 230 214 117 199 265 254 204 219 183 210 227 202 311 281 242 262 230 337 212 259 230 207 216 350 161 363 186 202 203 212 263 299 313 301 354 262 242 346 268 184 184 245 189 293 215 218 294 212 276 230 234 180 247 228 161 197 265 235 228 283 225 183 281 267 262 140 129 216 257 258 232 286 247 231 255 226 212 279 228 211 161 230 382 173 184 229 150 308 179 189 224 161 204 252 256 203 225 296 279 328 166 281 241 215 266 149 184 183 276 300 189 252 344 265 196 318 263 234 220 227 154 147 231 171 229 220 240 213 219 219 195 101 212 179 202 207 248 237 249 294 226 209 221 197 216 196 253 262 236 294 289 305 228 286 211 264 207 165 190 152 231 234 227 167 296 311 275 186 213 244 274 255 321 197 258 265 261 238 197 214 256 228 282 277 247 271 217 289 301 288 235 214 275 277 214 295 198 186 229 259 231 310 240 190 148 262 274 200 287 225 237 241 222 218 185 168 259 301 168 222 238 221 207 287 215 167 275 226 184 269 238 240 220 318 218 289 183 247 255 317 233 295 220 239 213 238 151 229 254 292 360 264 205 175 209 192 203 261 208 235 309 226 224 237 237 244 171 228 236 323 211 216 152 153 199 248 306 269 288 278 264 246 211 220 205 247 221 235 292 325 259 274 243 263 269 196 274 236 231 232 241 273 259 295 344 268 156 288 280 131 188 260 241 129 290 227 261 266 122 283 159 241 264 179 260 230 312 247 130 181 203 281 212 184 180 218 209 225 280 343 248 207 209 229 129 123 194 237 256 297 237 231 187 248 169 239 197 327 193 167 275 239 256 218 204 235 282 206 308 167 219 278 230 243 263 256 220 236 204 262 250 250 183 289 209 215 201 276 238 235 294 133 225 240 139 216 223 238 198 264 243 297 238 277 269 205 222 286 312 179 247 248 180 254 183 210 207 211 302 188 156 279 215 225 232 229 185 263 204 288 234 357 228 210 231 293 189 180 226 234 334 256 257 266 198 279 189 163 273 284 245 219 207 165 189 232 175 216 201 274 212 167 253 248 284 272 183 289 255 216 246 301 258 273 265 206 184 331 206 216 249 224 122 122 184 197 242 181 160 266 242 276 235 279 240 287 200 229 186 221 198 285 327 270 116 203 231 252 227 282 185 197 257 243 258 214 290 187 192 188 196 301 231 195 237 193 181 215 207 268 327 186 237 254 210 223 280 233 250 263 282 271 204 269 234 258 237 229 217 270 219 266 162 213 291 312 314 249 243 257 230 309 190 380 280 240 292 149 274 198 226 198 204 205 284 262 186 225 233 270 169 179 297 227 241 247 220 304 225 256 234 217 259 265 182 186 221 341 190 262 238 213 319 114 161 229 207 217 269 249 205 221 267 374 227 242 168 189 271 341 140 234 214 237 264 312 284 151 214 214 317 149 218 167 193 163 177 232 174 189 286 262 255 177 201 278 215 212 144 191 279 227 282 331 238 243 170 290 195 151 263 226 280 299 216 240 202 234 277 304 225 269 261 205 203 151 183 184 181 209 330 196 218 185 207 218 225 167 304 209 233 232 127 217 219 230 189 183 296 225 210 226 230 308 171 219 264 192 247 142 129 214 235 241 190 241 198 168 178 229 267 256 289 220 260 266 267 249 225 238 203 187 175 231 231 274 185 240 232 287 259 265 305 175 261 377 208 180 175 179 312 256 295 232 174 218 229 226 247 239 245 322 194 199 244 213 214 270 175 251 158 350 174 209 232 256 205 272 308 198 210 237 215 211 272 215 289 231 262 239 287 193 157 191 339 176 245 189 210 168 219 187 253 253 251 168 252 227 212 258 154 239 269 216 222 175 190 208 185 182 238 168 253 172 250 274 196 208 246 221 137 201 267 179 297 180 343 314 213 219 176 230 234 147 153 315 213 266 220 251 206 302 268 255 174 251 194 289 229 233 183 231 159 328 317 284 195 271 225 274 245 287 286 242 219 260 200 192 265 222 155 276 219 262 248 212 228 255 279 186 244 258 216 225 165 207 159 163 296 275 197 213 276 280 299 189 214 213 208 239 163 164 322 211 210 239 203 247 294 280 154 293 150 282 242 201 226 217 304 135 265 169 234 292 231 294 358 309 232 216 232 204 246 232 155 306 263 328 189 237 226 233 254 221 265 207 258 197 234 247 199 199 197 289 178 270 214 252 302 284 319 269 206 206 243 223 271 312 167 206 166 172 253 195 175 247 237 297 218 259 219 194 291 204 237 245 258 266 237 289 245 250 256 279 211 209 261 150 155 284 263 241 351 235 199 270 208 186 264 233 214 264 302 223 216 253 239 185 196 215 232 184 140 262 235 201 198 287 196 269 215 261 253 185 258 246 275 258 176 186 132 226 234 158 179 215 242 287 236 211 289 256 344 258 174 221 288 180 228 265 231 292 275 246 156 238 305 259 288 255 178 161 315 277 249 257 250 135 243 339 260 241 190 259 236 267 202 246 291 191 227 191 237 218 254 201 226 256 228 211 208 221 279 303 201 265 201 328 255 255 239 181 164 199 210 198 207 200 312 182 243 219 268 281 195 249 289 231 248 189 276 206 157 231 239 223 267 222 228 313 345 146 161 215 274 195 201 186 134 259 242 121 260 197 201 244 205 203 280 183 316 71 284 229 269 146 215 147 211 278 209 211 212 363 328 251 272 245 255 211 202 177 245 168 235 191 227 271 173 258 273 241 270 267 275 226 215 226 274 279 254 237 283 250 179 145 241 230 216 199 236 196 295 191 304 175 161 297 212 186 228 265 200 237 204 194 213 201 206 252 203 295 201 275 287 175 193 225 231 250 254 259 252 273 294 198 230 291 267 216 232 281 203 187 196 245 255 247 202 295 190 262 221 171 253 228 289 313 379 165 258 259 131 212 159 268 196 210 154 216 239 239 269 184 196 278 229 255 261 306 242 217 199 241 137 222 346 231 153 216 203 241 245 218 159 194 242 284 234 177 243 247 217 139 156 265 239 192 208 379 270 216 218 269 300 187 203 209 172 156 269 236 182 209 269 169 277 262 169 232 250 251 157 231 254 272 230 259 212 277 299 138 230 340 161 217 323 328 259 297 274 227 234 281 186 119 254 227 278 198 209 166 265 253 222 180 285 282 249 245 196 266 269 207 276 275 217 202 217 218 231 205 314 175 206 226 267 232 224 230 284 150 211 236 182 343 320 151 220 260 185 363 211 298 285 281 209 232 176 228 302 209 210 127 293 245 255 283 252 275 215 285 244 309 181 228 186 204 158 284 199 209 236 235 232 264 247 233 189 259 182 224 277 177 239 178 232 166 347 177 260 202 296 275 225 211 188 291 239 286 243 139 227 145 245 207 236 212 273 274 142 249 249 175 363 228 210 241 216 218 241 225 190 195 233 275 254 216 240 314 222 179 240 270 182 243 297 233 192 190 174 226 225 334 325 199 139 205 207 222 214 255 228 210 308 270 268 195 233 277 276 290 202 208 289 269 275 344 267 191 220 264 301 272 180 231 225 216 352 265 164 266 162 168 157 284 249 244 250 318 262 226 200 181 234 238 259 221 231 259 231 242 300 203 160 223 283 201 252 236 278 230 291 247 234 188 250 336 241 242 284 218 201 260 213 288 288 252 285 224 268 229 211 288 303 242 304 163 240 194 254 232 285 212 239 228 233 220 206 260 148 198 225 203 191 250 261 201 180 206 212 244 269 246 249 260 277 238 283 213 277 217 174 276 249 157 238 201 178 167 211 179 199 196 198 239 207 321 299 219 306 158 286 207 292 186 177 199 213 244 275 165 261 251 222 236 179 199 251 236 230 165 249 186 246 239 181 227 228 322 225 228 325 264 204 204 243 292 260 243 201 237 230 201 256 202 210 229 315 208 204 257 190 231 251 274 277 185 237 275 324 252 242 233 136 240 297 261 269 259 267 348 275 271 189 232 259 184 269 185 287 254 232 156 336 295 215 240 247 223 251 192 209 148 178 174 176 273 216 279 247 249 231 271 163 192 163 276 212 281 177 199 217 242 267 235 266 191 215 282 305 287 192 236 319 181 187 287 260 248 276 238 230 266 281 246 333 139 148 279 338 259 308 226 222 194 305 193 215 304 254 273 227 248 322 188 310 162 176 148 283 268 202 313 167 252 151 249 193 311 217 277 196 178 186 226 227 240 228 267 246 247 201 192 236 239 170 322 145 265 188 278 218 278 300 221 247 241 260 141 222 124 240 189 327 171 159 228 201 310 223 282 297 216 254 279 307 151 329 236 207 181 193 158 253 194 270 311 247 180 314 270 211 233 227 231 207 196 205 165 258 207 241 219 260 236 292 149 268 186 293 236 183 100 325 208 298 215 201 211 216 295 234 276 253 229 218 184 179 351 118 200 262 212 209 320 218 230 297 157 309 223 166 269 240 320 225 280 311 219 313 208 229 219 208 294 209 286 212 270 263 346 262 336 337 211 259 214 276 214 278 160 242 268 263 176 247 229 277 176 180 256 233 218 209 304 222 232 287 262 144 212 250 215 219 268 183 256 323 273 220 270 284 286 284 172 160 289 271 138 160 173 223 246 290 256 216 231 269 152 234 227 204 186 266 261 242 237 284 213 166 321 273 243 186 225 218 168 241 201 299 311 306 194 232 130 206 363 351 214 211 224 194 248 169 178 235 231 208 224 190 270 310 259 248 164 215 302 196 312 221 224 264 294 220 203 282 301 257 248 231 238 177 221 303 246 227 194 267 213 243 206 223 210 245 225 244 269 275 191 244 185 230 279 260 272 216 164 235 247 221 284 206 268 283 189 201 182 161 164 227 298 173 210 312 209 234 223 239 274 249 223 253 328 239 237 225 244 227 201 203 264 195 273 155 173 334 181 192 285 187 235 193 183 235 341 385 193 195 234 258 199 208 237 322 178 235 292 284 266 213 284 156 236 178 252 264 200 237 238 234 147 208 182 349 259 253 270 273 265 234 340 181 237 235 199 268 195 253 280 172 244 184 217 324 305 128 241 210 220 208 177 252 272 231 234 247 216 259 212 290 219 218 215 300 234 277 232 211 181 243 292 297 194 255 225 171 232 183 173 255 228 264 223 182 239 301 275 213 236 230 176 235 236 283 193 210 283 260 354 268 280 274 253 247 177 236 214 199 227 309 165 219 221 219 235 202 215 160 266 213 184 182 232 250 192 247 317 216 221 256 269 207 253 268 219 228 274 168 181 243 237 265 243 225 224 340 274 237 214 236 89 293 259 258 238 250 177 210 217 256 192 210 243 273 169 217 325 180 179 236 290 313 212 174 135 249 249 270 211 204 241 360 233 225 242 289 211 116 200 214 133 189 167 190 224 250 176 283 237 177 266 338 202 189 256 282 183 222 284 234 205 298 239 252 219 175 222 209 226 261 251 232 265 250 290 277 199 221 364 264 218 326 312 179 303 235 267 332 248 242 279 204 185 255 228 234 187 284 181 373 299 284 210 220 172 192 177 268 205 277 282 193 286 177 233 174 273 263 187 190 188 208 230 257 171 286 240 258 174 190 239 236 162 183 207 272 161 240 319 345 293 229 284 211 200 248 260 277 232 193 277 259 244 190 233 235 224 286 266 228 244 244 246 244 239 233 169 231 263 229 219 202 192 175 209 225 297 231 140 192 253 189 197 152 212 207 134 191 279 204 272 232 215 264 229 337 196 238 231 236 275 268 185 323 241 225 173 223 275 252 150 236 252 321 271 206 261 195 173 295 263 331 302 274 208 177 265 192 194 277 293 272 206 228 274 248 176 175 225 223 189 202 261 299 298 215 241 212 205 282 291 241 217 341 233 194 234 215 260 313 245 297 211 282 243 274 249 242 213 255 308 203 274 233 196 232 227 185 212 187 117 342 239 289 287 286 277 281 221 174 242 193 203 265 211 153 190 175 221 241 228 268 161 254 220 210 282 248 332 274 242 214 244 249 269 144 229 144 217 258 319 204 237 261 276 255 223 230 227 211 207 220 281 269 117 176 240 184 194 265 201 275 256 254 194 177 198 229 302 209 258 227 188 201 297 306 220 200 318 256 184 210 220 250 262 167 276 280 216 232 192 273 166 215 211 257 217 278 273 269 226 229 225 241 154 266 220 246 265 190 322 206 288 262 242 327 290 293 181 178 214 315 218 181 318 187 149 188 293 223 266 339 241 152 218 215 216 249 225 204 257 203 290 275 115 305 313 233 186 223 211 210 272 170 217 257 150 262 232 269 252 274 229 291 245 213 211 217 236 250 199 272 219 225 277 248 300 153 194 198 126 239 260 281 160 301 308 228 245 208 183 241 292 288 207 195 250 237 279 191 220 217 204 208 230 189 287 197 191 284 213 292 271 227 250 206 198 220 245 275 183 190 217 204 284 238 259 248 264 259 285 214 326 227 216 198 313 153 235 296 249 281 225 282 238 264 155 182 171 201 307 325 218 224 197 183 231 186 325 352 213 250 222 166 214 253 357 246 280 217 230 223 190 246 191 190 209 245 176 226 185 225 252 225 192 233 242 283 262 227 226 324 163 177 194 188 239 193 223 170 211 217 186 233 235 304 190 242 179 274 245 180 223 199 219 261 361 208 249 255 277 172 279 267 215 280 229 265 210 224 197 350 187 271 295 226 184 162 299 206 181 184 325 258 240 225 187 253 255 174 215 255 240 234 231 263 253 218 174 249 290 194 217 252 249 204 242 313 263 296 231 189 246 224 306 350 145 232 339 253 215 237 220 183 195 235 203 215 153 251 221 163 271 198 226 284 376 157 218 164 239 257 226 300 250 203 235 289 213 225 295 182 220 190 153 259 318 288 192 384 220 209 259 287 275 220 246 288 321 199 300 253 239 251 231 382 258 213 266 285 276 235 248 209 178 174 259 250 178 261 181 138 256 255 302 170 199 252 181 231 288 236 188 253 233 175 225 196 226 242 259 157 221 257 274 358 247 187 253 188 193 218 211 232 189 169 220 241 252 227 244 274 245 242 160 216 131 192 213 266 186 236 131 266 281 243 201 180 182 267 349 276 412 161 238 198 249 286 192 290 206 188 194 215 209 217 244 224 240 259 205 241 244 258 194 189 236 172 288 225 288 235 263 135 297 246 203 203 246 335 229 281 234 272 208 187 253 300 256 185 321 162 216 214 209 180 202 261 203 318 199 258 242 308 275 203 292 298 194 199 178 266 247 184 241 323 274 203 280 273 239 245 224 275 251 304 277 221 210 261 124 153 243 100 206 279 231 231 277 196 228 274 171 243 297 272 269 182 282 303 221 192 279 199 195 157 208 202 266 275 187 302 196 211 269 273 304 253 284 196 256 204 213 252 268 166 209 198 249 280 196 209 197 193 189 142 252 247 156 263 202 230 263 263 259 225 205 314 273 288 241 283 226 279 297 231 333 195 213 236 240 224 294 307 255 212 124 272 185 173 282 281 237 275 220 275 223 234 185 393 331 227 167 251 245 229 184 291 229 317 279 254 262 232 262 293 346 249 223 324 245 212 259 168 153 211 275 277 177 264 259 311 231 167 150 256 255 284 210 247 252 253 235 241 166 201 181 242 221 245 218 144 205 290 181 201 314 234 179 132 297 214 286 214 288 204 147 218 304 184 197 175 240 156 261 201 261 264 280 302 211 259 295 199 186 136 202 188 226 235 297 272 292 286 244 210 246 181 264 313 236 196 173 162 190 256 234 297 212 254 227 122 173 215 197 217 215 208 224 188 244 257 258 231 137 277 308 309 302 162 298 207 218 411 190 218 170 238 264 234 243 268 234 174 258 197 315 228 300 255 158 292 266 276 162 246 207 226 272 300 332 191 200 275 247 307 272 176 303 349 209 246 231 228 201 208 256 307 217 306 236 160 199 259 274 259 376 278 181 303 251 288 207 252 269 296 225 216 162 188 173 250 205 263 233 151 269 220 235 258 172 233 285 227 262 247 307 252 282 223 295 244 204 139 243 292 175 234 233 202 219 195 223 202 273 260 217 193 202 203 267 281 180 222 271 163 349 252 170 189 281 187 147 204 126 289 360 216 183 301 142 204 227 240 234 253 240 340 237 254 294 258 184 234 210 203 274 150 297 113 221 281 288 223 248 185 175 165 240 309 163 190 266 226 175 271 227 252 154 260 289 258 282 244 283 291 275 199 181 152 170 242 272 308 207 249 274 308 185 217 181 215 252 197 192 183 253 215 197 258 269 285 248 221 288 246 190 228 128 213 266 277 310 189 266 301 233 163 287 249 223 248 142 216 245 300 256 237 233 168 253 225 311 371 253 160 319 211 140 227 295 269 206 182 293 186 245 246 291 252 239 234 218 234 330 233 372 210 248 261 337 246 234 240 212 327 235 189 184 272 230 261 270 298 232 217 241 218 238 249 238 179 335 238 156 266 237 311 281 185 245 308 262 177 207 178 277 259 327 243 226 244 180 253 252 279 229 255 321 287 277 255 237 190 171 268 314 258 237 222 212 178 182 225 218 208 173 158 263 230 272 263 204 212 226 263 294 255 222 290 280 245 258 166 305 238 201 199 320 143 273 200 174 242 185 290 263 302 347 187 187 184 274 263 158 199 250 175 254 224 267 249 156 221 282 226 180 139 262 241 218 204 171 221 269 197 270 269 273 218 202 192 201 275 218 257 223 242 262 175 253 235 303 226 256 302 266 192 296 205 199 241 239 311 206 295 198 258 254 321 236 301 209 197 230 235 231 260 301 193 195 244 248 289 240 180 240 210 246 292 173 195 230 146 211 302 247 214 235 220 288 173 208 293 252 175 200 274 167 180 177 193 140 236 243 304 263 242 251 282 185 236 209 309 227 205 296 186 223 301 250 283 208 333 304 222 221 213 288 174 197 218 306 168 258 251 263 249 244 228 239 259 215 215 204 256 220 226 225 303 178 210 215 272 263 310 230 268 187 173 288 278 246 274 243 251 218 266 229 260 234 221 120 191 155 264 278 182 260 179 192 285 204 269 241 227 191 221 189 209 310 192 228 205 191 184 274 294 257 276 154 180 284 190 308 230 231 263 284 248 250 163 209 181 237 210 228 190 227 285 209 231 187 245 243 278 178 225 236 253 192 246 241 261 242 216 273 279 240 230 303 265 251 180 321 199 223 291 195 313 193 188 272 225 204 210 222 159 195 248 153 249 240 208 214 260 141 237 306 174 262 194 245 253 274 253 266 302 225 298 246 176 219 251 206 366 217 184 272 308 263 235 186 224 186 236 228 268 233 193 255 315 229 254 257 264 298 234 261 216 256 258 330 240 268 301 195 259 330 224 235 259 296 178 194 163 234 230 166 168 222 237 240 233 213 273 203 209 225 305 223 239 148 223 231 258 211 245 214 274 280 234 238 166 189 199 210 226 205 262 120 271 234 176 194 148 259 161 297 272 223 250 257 192 229 224 255 196 277 277 268 177 233 235 226 250 189 297 224 136 152 228 281 207 221 244 255 232 226 245 206 208 259 246 233 327 175 258 239 294 220 224 320 119 296 257 246 229 297 204 230 155 242 174 189 292 311 191 302 228 167 233 265 275 252 216 233 125 290 220 201 273 218 309 229 243 211 331 286 252 313 296 83 258 193 247 196 219 188 213 270 323 191 255 154 211 160 113 278 195 241 209 261 321 221 301 157 281 237 221 221 244 248 229 237 325 273 240 270 208 298 262 253 152 260 155 177 244 249 174 161 251 194 347 188 205 334 216 209 218 265 252 245 261 243 247 246 230 209 250 175 258 205 258 227 243 266 204 257 266 258 173 268 206 227 229 114 194 317 278 234 233 236 166 139 420 277 240 284 246 267 295 198 240 252 203 203 207 208 237 274 299 211 215 236 139 219 222 295 200 260 186 236 227 253 222 208 284 255 252 286 223 249 183 180 235 311 183 276 306 231 169 257 187 295 260 253 194 317 268 265 206 294 212 211 321 273 258 278 218 231 284 204 267 233 271 222 223 261 273 187 190 380 193 230 249 212 322 261 318 252 204 278 147 354 271 340 232 323 280 164 226 243 184 196 209 266 265 264 253 270 230 226 291 258 222 193 268 240 185 172 257 190 207 257 228 258 187 218 206 176 273 253 160 233 225 275 270 168 237 210 277 251 290 273 261 194 239 228 258 245 174 287 263 202 181 216 275 303 313 219 245 215 279 264 266 189 247 160 190 271 301 323 </t>
-  </si>
-  <si>
-    <t>GAM(0.16862851987349511, -3.69878644228047e-18, 1.5368955464333267)</t>
-  </si>
-  <si>
-    <t>0 1 2 2 1 2 3 3 1 2 2 1 0 2 3 2 3 1 0 2 2 2 0 4 0 0 1 0 0 0 0 3 1 2 1 1 1 2 1 2 2 1 2 0 1 1 2 1 1 1 2 1 0 1 0 2 1 3 1 1 0 3 1 3 1 1 1 1 1 3 2 1 1 0 3 2 3 1 0 2 1 3 2 0 0 1 0 2 2 2 0 0 1 1 3 1 1 3 2 1 1 2 1 1 0 1 2 3 3 1 1 3 1 2 2 0 2 2 2 0 2 1 0 3 1 0 1 0 1 3 1 1 3 1 1 3 0 3 1 1 2 0 1 2 3 1 0 2 3 0 0 2 1 1 1 1 1 0 3 3 0 1 1 3 1 1 1 2 2 1 0 1 2 0 1 1 2 3 1 1 2 0 3 0 1 0 3 2 1 1 1 0 0 0 3 0 0 0 1 1 2 3 1 0 2 0 1 1 2 2 2 1 0 0 0 2 0 1 1 1 0 0 2 3 1 0 2 3 1 1 2 0 1 1 1 0 2 0 3 0 2 0 0 1 1 1 1 1 0 2 3 1 1 3 0 0 2 1 1 2 2 0 2 2 0 1 0 2 1 1 2 0 1 2 3 0 1 2 1 2 0 1 0 1 1 0 2 1 2 1 2 1 2 1 0 1 2 0 2 1 0 3 1 0 4 2 0 0 1 1 1 1 1 0 3 0 2 1 0 0 2 1 1 2 2 1 1 1 1 3 0 1 0 0 2 2 1 0 1 2 2 2 0 0 2 0 2 1 0 1 1 1 1 2 2 0 1 0 2 2 2 1 0 2 0 0 0 0 1 1 3 1 0 3 1 2 2 1 3 0 0 1 1 4 0 0 1 0 2 0 1 1 2 3 0 2 2 2 0 1 0 3 2 1 2 0 4 2 1 1 0 2 0 2 2 0 1 2 2 2 1 1 0 2 1 1 1 2 1 1 2 1 1 2 0 0 1 2 1 1 2 1 3 2 0 2 3 2 1 3 0 0 1 2 2 2 2 1 1 2 0 1 1 0 2 0 1 1 0 1 1 0 0 0 0 1 0 0 2 0 1 2 1 0 1 3 0 1 1 0 2 1 2 3 1 1 2 0 1 1 0 2 1 0 2 0 1 0 2 2 1 1 2 2 1 2 0 1 1 1 2 1 1 0 2 1 0 2 1 2 1 0 0 3 0 2 1 2 0 3 1 2 1 1 2 2 1 0 0 2 0 1 1 1 1 1 1 1 2 1 1 2 0 2 1 1 1 1 3 3 1 1 1 1 1 1 2 1 2 2 1 0 0 1 2 0 2 0 0 1 1 3 1 1 1 1 1 0 1 1 1 1 0 1 1 1 2 1 3 2 0 2 1 1 1 1 2 0 2 1 2 0 1 2 1 0 0 0 2 1 3 0 0 4 2 0 1 1 1 2 1 1 0 1 1 1 1 0 1 0 2 1 1 2 0 0 3 2 0 0 1 1 1 0 0 2 2 1 1 1 0 1 1 1 1 1 1 2 1 2 1 1 1 1 1 2 1 3 3 2 1 0 3 2 3 1 2 2 1 2 0 0 3 0 1 1 1 2 0 3 2 1 2 1 2 0 0 2 2 1 1 1 1 0 3 1 0 1 2 2 1 1 1 1 2 2 0 1 3 2 3 1 3 1 2 1 2 2 1 0 3 1 1 1 1 0 2 0 2 1 1 1 1 3 2 2 2 0 0 1 0 1 1 1 1 1 1 1 2 1 3 0 1 1 0 1 1 2 1 3 2 2 0 1 2 2 1 1 1 0 0 0 0 2 2 0 1 0 1 2 1 2 1 2 3 1 0 2 1 1 0 0 2 3 2 2 1 0 1 3 2 1 1 3 1 2 1 0 2 0 0 1 1 1 1 2 1 0 1 3 0 3 1 1 2 1 0 1 0 2 1 1 1 0 1 1 0 0 1 1 1 0 0 0 0 2 2 1 0 2 0 0 3 1 1 1 1 0 2 2 1 0 2 2 3 3 3 1 2 1 1 1 1 1 1 1 1 0 1 2 2 1 4 3 0 2 0 0 1 2 2 3 1 3 2 0 1 2 2 0 3 1 1 3 0 1 2 0 2 1 2 1 1 3 1 0 1 0 3 1 1 1 2 1 2 3 2 2 0 1 1 2 0 2 2 0 1 2 1 3 2 2 2 1 0 2 1 1 3 0 2 1 2 0 0 1 0 0 0 2 1 2 2 1 1 1 2 1 1 0 0 0 1 2 1 0 1 2 2 0 1 2 2 1 1 2 1 1 1 0 1 1 1 2 1 0 1 2 2 1 1 2 2 2 1 0 1 3 0 2 1 1 1 2 1 0 0 1 1 2 0 2 2 1 3 1 0 0 1 0 0 2 2 0 2 2 2 1 1 2 3 0 1 0 3 1 1 1 1 3 0 1 1 0 1 2 1 0 2 2 2 1 1 2 2 1 2 2 1 1 0 2 0 3 1 1 1 1 1 3 3 1 2 2 2 2 1 3 1 0 1 1 2 1 0 0 1 0 1 0 0 1 2 1 2 1 2 2 1 2 2 2 3 1 2 1 2 3 0 0 1 3 1 1 1 0 0 1 0 2 0 2 1 1 1 2 2 2 3 2 3 1 1 2 1 0 1 1 2 1 1 1 2 1 0 3 2 0 0 4 2 0 0 3 0 0 2 0 0 0 1 1 1 1 0 2 1 2 2 1 2 2 1 1 2 2 3 1 3 1 0 1 1 1 1 0 0 1 0 2 1 2 1 1 0 0 0 1 0 1 1 3 1 1 1 2 1 1 2 2 0 2 2 2 1 2 4 1 0 1 0 1 3 0 1 2 2 1 1 0 1 0 1 2 0 2 2 2 1 0 2 1 0 1 0 0 0 1 1 1 0 2 1 1 3 0 1 1 1 0 1 0 0 1 3 0 0 0 1 1 4 1 1 1 3 1 0 0 1 3 2 0 2 1 0 2 1 1 2 0 1 0 1 3 0 1 1 1 3 0 0 1 1 1 2 0 2 0 2 2 2 0 0 1 1 1 1 0 1 1 0 0 0 0 0 3 1 2 1 0 1 2 0 4 0 1 1 1 1 0 0 1 1 1 1 2 1 1 0 0 1 1 2 1 1 1 1 1 0 2 2 1 0 1 2 2 0 1 3 2 3 1 1 3 1 1 1 1 2 3 2 2 0 2 1 1 1 1 1 1 0 3 0 1 1 1 0 3 0 1 1 1 4 1 1 2 1 1 1 3 1 1 1 3 1 2 0 2 2 1 2 2 0 3 2 2 3 1 3 0 0 3 1 1 2 3 0 1 2 0 0 1 0 1 1 2 1 2 0 1 1 2 0 0 0 1 0 0 1 2 2 4 0 2 0 1 1 2 1 2 2 2 1 1 2 0 2 2 0 1 0 0 1 2 1 3 0 2 0 2 1 1 1 1 2 1 1 2 3 1 2 0 1 0 1 1 0 1 3 1 2 0 1 0 0 3 1 1 2 2 1 0 0 3 1 0 3 1 1 0 2 1 1 1 1 2 1 2 2 1 2 3 2 1 1 2 2 0 0 0 1 1 2 3 1 1 0 1 0 2 1 0 2 1 1 1 1 2 1 4 1 2 1 1 0 0 0 1 1 3 2 2 0 0 0 1 1 1 2 1 1 1 2 0 1 1 1 0 1 3 1 0 2 2 2 1 3 2 1 1 1 3 2 0 0 2 1 1 0 1 2 0 3 1 2 1 0 1 0 2 1 1 1 1 1 2 1 3 0 2 0 1 0 0 1 1 2 0 0 0 1 3 1 0 2 2 1 1 1 0 1 1 2 0 1 1 0 1 1 2 0 2 1 0 0 1 1 2 2 2 3 1 1 2 2 2 3 0 1 0 3 2 0 0 1 1 3 1 4 2 1 1 0 1 0 2 1 1 1 2 1 1 2 2 1 2 1 2 2 2 0 1 4 0 0 1 1 0 2 2 2 2 1 0 2 1 1 0 0 3 3 1 0 1 1 1 1 0 2 2 2 2 2 1 3 0 2 0 3 1 0 3 1 0 4 1 2 2 2 0 0 3 1 0 2 1 1 1 2 1 1 1 1 2 0 0 2 2 2 1 2 1 0 1 2 1 1 3 1 0 1 3 1 0 1 1 0 1 1 2 2 1 1 0 2 0 2 1 1 0 0 1 0 1 2 4 1 1 2 2 0 3 2 2 0 2 1 1 2 1 2 2 1 1 3 2 3 1 1 2 1 2 2 1 1 0 1 0 3 2 1 2 1 1 1 0 1 1 1 1 3 0 1 1 0 2 1 1 1 3 1 2 1 0 0 1 2 1 2 1 0 0 3 0 0 0 1 1 2 2 2 0 0 1 1 1 2 0 1 2 2 1 2 1 3 2 1 0 1 1 1 1 1 1 2 0 0 1 0 0 4 1 1 0 0 0 0 1 2 2 0 2 2 0 3 1 4 0 1 3 2 2 1 2 1 2 3 1 1 2 2 2 1 1 0 1 2 3 2 2 0 0 2 1 1 1 0 1 1 0 1 1 1 2 0 1 2 0 1 1 0 0 3 2 1 1 3 2 3 1 1 1 1 2 0 1 1 2 2 0 2 1 0 1 3 0 0 1 1 1 1 1 1 0 0 1 0 1 1 0 0 2 0 2 0 1 1 2 1 2 1 1 2 0 0 2 0 0 1 1 0 0 0 1 2 1 3 1 1 2 3 0 1 1 1 2 1 2 0 2 0 1 2 2 1 0 1 0 1 0 2 2 0 2 1 2 1 3 1 1 2 1 0 1 1 1 1 1 2 1 1 0 1 3 4 0 2 0 0 1 1 1 3 0 1 2 0 1 1 1 0 1 2 0 0 1 1 1 0 0 0 3 1 1 1 1 3 1 3 1 2 1 1 1 1 2 1 1 3 1 3 0 0 0 0 2 1 0 2 1 1 0 2 2 1 2 1 1 1 0 0 4 1 0 2 1 0 1 1 1 0 1 3 3 3 1 3 0 0 1 2 2 1 3 1 1 1 3 2 1 0 2 2 0 1 1 2 0 0 1 0 1 1 0 1 0 1 1 1 0 2 2 0 0 0 1 0 2 2 1 2 0 1 1 1 5 1 1 1 1 1 1 2 0 1 3 0 2 2 1 1 1 1 1 1 1 0 1 1 1 1 1 2 0 0 1 2 4 1 2 1 1 2 2 1 1 1 2 1 0 1 2 1 0 0 2 2 0 0 1 3 1 1 1 2 0 2 1 1 0 0 1 1 1 2 0 3 1 2 2 0 1 0 1 1 0 2 1 3 1 1 1 1 0 0 3 0 3 1 0 1 2 1 2 2 1 2 0 1 2 2 1 2 0 2 0 3 0 0 1 1 2 1 1 0 0 0 1 2 2 2 1 1 1 0 3 1 1 0 0 2 2 1 0 2 2 1 2 0 2 1 1 2 3 1 2 2 2 1 1 1 0 2 2 0 0 3 1 2 3 0 3 2 1 1 2 1 1 2 2 1 1 2 0 0 1 0 3 3 2 2 1 1 3 0 0 1 1 2 1 2 0 1 2 0 0 1 0 2 0 1 0 2 1 0 2 1 1 2 2 1 1 3 2 1 0 3 1 1 2 0 2 3 0 2 2 1 1 0 1 2 0 1 2 1 2 2 2 2 2 2 1 2 2 0 2 1 0 1 1 2 1 0 0 1 1 0 1 3 1 0 3 3 1 2 2 0 1 3 1 0 1 1 1 2 0 3 1 2 2 0 2 0 2 1 1 1 1 2 4 0 2 1 1 2 0 3 1 1 0 0 2 1 2 1 1 1 2 0 1 2 2 0 0 2 0 2 0 3 1 0 0 2 0 2 2 0 1 2 2 1 1 1 3 1 0 0 2 0 2 1 2 1 1 0 0 2 1 1 2 2 2 0 1 1 2 2 1 2 1 3 3 1 2 0 2 2 1 2 3 0 2 1 4 1 2 1 0 1 0 0 1 2 3 0 1 1 2 1 1 2 0 2 0 0 3 0 1 0 1 2 3 1 0 1 1 0 2 2 1 1 0 0 1 1 0 1 1 0 1 2 0 1 1 2 1 0 1 1 1 0 2 2 1 0 1 1 0 0 0 0 0 1 1 2 1 0 1 3 1 2 1 1 1 2 1 0 1 0 1 3 2 0 1 2 0 0 1 2 2 1 0 2 1 0 1 2 1 3 2 2 2 1 1 0 2 2 1 0 3 2 1 2 1 3 0 1 1 0 1 1 1 1 2 2 0 0 1 0 1 1 2 0 3 0 1 1 1 0 1 0 2 1 0 0 1 0 0 1 0 0 1 1 3 0 1 1 0 2 1 1 2 1 1 1 3 1 2 1 2 0 0 1 1 0 0 1 1 2 2 1 2 2 1 2 3 1 1 2 1 0 1 4 3 1 0 0 0 0 2 1 2 1 1 1 0 1 0 4 1 3 4 1 3 2 1 2 0 1 0 0 1 2 1 0 1 1 0 1 0 0 0 2 1 1 1 1 1 2 0 1 0 1 1 2 4 1 1 1 1 1 0 1 2 2 1 0 2 0 1 2 2 1 1 1 2 1 1 1 1 1 0 1 0 1 2 3 3 1 0 1 3 1 0 0 1 3 2 0 0 1 0 0 1 1 0 1 3 0 1 0 1 3 1 1 0 2 1 3 1 1 1 1 2 0 1 1 2 0 0 3 1 1 2 1 2 1 1 0 0 0 2 2 1 1 3 0 0 2 1 2 0 1 0 1 1 3 0 2 0 1 1 2 2 1 2 2 1 2 1 1 1 1 2 0 2 2 1 1 1 2 3 1 2 2 1 0 2 1 0 3 3 1 1 2 1 2 1 1 2 0 0 1 0 0 0 1 0 1 1 1 2 0 1 2 2 0 0 0 1 1 1 4 2 1 1 1 0 0 1 1 1 1 3 0 1 1 5 1 0 2 2 1 0 2 3 0 3 0 1 1 1 1 4 1 1 1 1 0 2 1 1 1 0 1 1 0 0 0 1 2 1 1 1 1 1 2 1 1 1 1 2 1 0 1 0 1 1 0 2 1 2 1 1 1 1 1 0 1 1 1 1 0 4 1 1 1 1 0 1 2 1 0 5 1 1 1 2 1 0 2 1 3 1 1 2 1 1 3 0 1 0 0 1 1 1 2 1 0 0 1 2 2 2 1 0 1 2 2 1 1 2 1 1 2 2 1 0 1 3 2 1 2 2 2 2 2 1 2 1 3 2 1 2 1 3 0 4 0 0 2 2 1 2 3 1 1 2 1 1 3 2 0 1 0 0 0 1 2 2 0 0 0 0 0 0 3 0 2 1 1 4 1 0 2 2 2 2 1 1 0 1 1 2 2 2 1 2 1 1 0 1 0 2 0 1 2 1 2 1 2 1 1 2 2 2 1 0 1 1 2 1 1 1 2 0 2 3 2 4 0 2 2 2 3 3 1 2 1 1 2 1 2 2 1 1 3 2 1 2 2 2 0 1 2 1 1 0 2 1 1 3 2 1 1 0 1 0 1 1 2 1 2 0 0 0 1 2 1 1 1 2 2 0 1 2 2 1 1 0 1 1 3 2 0 1 2 1 2 1 0 0 1 1 2 2 1 1 2 2 1 1 2 1 0 1 1 1 0 0 2 3 0 1 4 1 2 1 1 1 0 1 1 1 1 0 2 2 0 0 1 0 0 1 0 0 0 3 3 2 2 1 0 1 2 1 2 0 1 1 2 3 1 0 0 1 3 3 0 1 0 2 0 1 0 0 1 1 0 1 2 2 2 1 2 1 1 1 2 0 3 0 1 1 2 1 0 1 3 3 1 3 3 1 1 0 1 1 0 1 0 1 0 0 1 1 2 1 2 1 1 0 1 0 0 2 1 1 0 4 2 2 2 1 1 0 0 2 3 0 1 1 1 2 0 0 2 1 0 0 1 2 1 2 2 1 2 1 2 3 2 1 1 1 1 1 0 1 0 2 2 0 3 0 2 0 2 1 2 3 3 0 2 1 1 3 2 1 1 3 3 1 0 0 1 2 2 3 1 1 2 3 4 0 1 3 2 3 0 1 2 0 4 0 2 1 1 2 2 1 2 0 1 2 1 1 2 1 0 0 2 0 0 2 1 1 0 3 0 1 1 0 1 1 1 0 2 2 2 1 0 1 1 1 0 3 2 1 0 2 0 0 0 1 3 2 1 0 2 0 2 1 1 3 1 1 0 1 2 2 3 1 1 0 1 0 0 3 0 0 1 0 1 0 0 0 3 0 2 1 1 3 0 1 2 0 1 3 0 0 1 2 1 0 0 1 1 1 0 2 2 1 0 0 2 0 3 2 1 0 1 1 1 3 3 1 0 2 1 1 1 3 0 3 0 0 3 0 0 1 1 0 1 1 2 0 2 1 0 2 4 2 1 3 1 2 2 1 1 2 0 0 3 1 1 2 0 0 1 1 1 2 1 2 0 2 3 0 1 1 2 2 1 0 2 0 2 1 1 2 3 3 0 3 2 0 2 2 1 1 2 2 1 1 0 2 1 2 1 2 2 2 1 1 0 2 0 1 0 0 0 1 0 2 1 2 3 1 1 2 0 2 2 2 1 0 0 2 1 1 2 0 2 0 0 2 2 2 2 3 1 2 2 0 2 1 2 1 0 0 0 1 2 0 4 2 0 1 2 1 1 2 0 2 1 2 2 1 2 1 0 1 2 1 3 2 2 1 1 1 1 3 1 1 2 1 2 0 2 2 2 0 1 1 1 2 0 1 1 2 1 1 1 1 0 4 2 0 2 1 1 2 3 0 2 0 0 1 2 2 0 2 3 0 1 1 0 2 2 1 2 2 1 2 1 0 1 0 1 0 2 1 1 1 2 2 1 1 0 1 1 1 1 0 1 0 3 3 2 1 2 1 0 1 1 0 1 2 1 1 3 1 1 3 1 0 1 2 4 2 2 1 1 2 1 1 1 1 1 0 1 0 2 3 1 0 1 1 0 1 1 0 0 2 1 1 1 1 1 0 2 1 1 1 2 1 1 0 0 0 2 2 0 1 0 1 1 3 3 0 1 1 1 0 1 1 0 1 3 0 1 1 1 1 0 0 3 1 0 3 2 1 2 0 0 2 2 3 1 3 1 2 1 1 1 2 0 0 2 2 2 0 1 0 2 1 1 2 1 2 1 1 1 1 1 1 0 1 1 1 1 1 1 2 0 1 2 3 1 0 1 1 0 1 2 1 1 2 1 0 1 0 2 1 0 3 1 1 1 1 3 1 1 1 2 1 1 1 2 3 1 2 2 2 0 1 1 1 1 1 1 2 0 1 2 1 2 1 3 0 0 2 2 1 2 3 2 2 2 1 4 0 1 3 0 1 2 1 0 1 1 1 0 2 1 2 0 1 1 0 3 0 3 0 1 2 0 2 1 3 2 2 2 1 2 0 2 1 3 0 1 1 3 0 0 1 0 0 0 2 0 1 1 1 1 1 0 0 0 2 1 1 0 2 2 2 1 2 1 1 0 1 2 0 1 0 1 0 1 2 1 2 2 1 1 1 1 1 0 1 0 0 1 0 1 1 0 2 0 2 2 1 1 2 0 1 1 1 1 0 1 2 2 2 3 1 2 1 2 1 1 3 0 1 0 1 2 1 1 1 0 2 0 1 1 1 0 0 1 1 1 0 2 0 1 1 1 0 2 1 0 0 0 3 1 5 0 0 2 3 2 2 1 1 1 0 2 1 1 2 0 1 0 0 1 1 1 0 2 2 1 2 0 0 1 0 2 1 1 1 1 1 3 1 3 1 1 2 2 1 2 0 3 0 2 0 1 1 2 2 2 1 1 0 1 3 3 1 1 1 1 1 1 1 1 1 4 1 0 2 1 1 1 0 0 0 2 3 0 1 1 2 1 1 2 2 0 0 3 0 1 1 3 1 3 1 3 1 2 0 1 2 2 0 1 2 2 1 2 1 2 1 0 2 2 0 1 1 0 2 0 2 1 1 0 2 1 1 1 1 2 1 3 0 2 1 3 0 2 0 1 0 1 1 1 0 2 1 2 1 1 1 0 4 0 1 1 2 1 2 2 1 0 3 0 1 1 2 2 1 1 1 1 2 0 0 2 1 0 0 0 2 2 1 1 2 0 1 2 0 0 1 1 2 1 1 2 3 1 0 1 2 0 4 1 2 2 1 2 0 2 1 1 0 2 0 3 2 2 0 2 2 1 1 2 2 1 2 3 2 1 1 1 3 1 0 1 1 2 1 1 3 1 0 2 0 2 0 1 1 0 2 2 2 0 1 1 2 2 2 1 1 1 0 1 0 1 0 2 0 2 2 4 2 2 1 0 1 1 0 2 1 0 1 1 2 2 2 1 1 1 0 1 1 2 0 1 2 0 0 0 2 2 1 3 2 1 1 0 2 2 2 2 0 1 1 1 2 1 1 0 0 2 3 2 0 0 0 0 3 2 1 2 1 3 3 0 1 3 2 3 1 1 2 0 2 2 0 1 1 1 1 1 1 3 1 1 2 2 0 1 3 2 0 3 1 1 2 3 2 1 1 3 1 1 1 1 2 0 2 1 4 2 0 0 1 0 2 2 0 2 2 0 0 1 0 1 1 0 2 1 0 2 2 1 1 0 1 1 0 2 2 0 1 0 2 0 1 1 0 0 1 1 0 1 1 1 2 1 2 0 2 1 0 2 0 0 0 1 2 0 2 3 1 1 1 1 1 0 3 2 1 5 0 2 2 0 3 2 1 2 2 1 1 3 0 2 1 0 2 1 1 1 1 0 0 1 1 1 1 2 1 2 2 0 0 3 1 1 0 1 0 2 1 2 2 1 1 0 2 1 0 1 2 3 0 1 0 0 1 1 1 2 0 0 2 0 2 2 1 2 1 4 0 2 0 1 1 2 0 0 2 2 1 2 0 2 2 1 1 0 0 1 1 2 0 2 2 2 1 0 0 2 2 2 0 0 2 0 0 1 1 0 1 0 1 1 1 0 1 1 3 3 2 1 0 0 2 3 3 1 0 1 0 3 0 1 0 0 0 0 2 0 1 1 0 2 3 1 1 2 1 1 1 0 1 1 0 4 1 1 1 0 3 1 0 1 0 0 1 0 2 2 1 0 0 1 2 1 1 1 0 1 0 1 1 0 1 0 0 1 1 0 1 0 1 1 2 3 2 1 0 0 0 2 1 0 2 1 1 2 1 2 1 1 1 0 0 3 0 3 1 1 1 1 0 0 2 1 2 0 2 0 1 0 0 0 1 2 1 1 2 0 1 1 2 1 1 3 1 1 1 3 2 1 0 3 0 1 0 2 1 2 1 2 0 2 2 0 3 1 0 2 1 1 0 1 1 1 1 1 1 1 1 1 0 2 2 1 2 1 0 4 3 1 2 4 2 2 1 0 2 0 0 0 1 3 1 1 1 1 2 0 1 0 1 1 2 2 0 0 0 0 1 0 0 0 0 0 1 0 3 1 1 3 1 0 1 2 1 3 0 1 3 2 0 1 0 1 3 1 0 1 0 1 1 3 2 1 1 2 2 1 1 2 0 0 2 2 1 1 1 2 2 3 2 3 1 0 2 1 2 1 1 0 1 1 0 2 2 2 1 2 2 0 2 0 2 1 2 0 1 1 2 2 2 0 1 1 0 2 0 2 3 2 0 0 3 2 1 1 2 2 0 1 1 1 0 1 0 0 0 1 2 0 2 1 1 3 1 0 2 2 2 1 0 1 0 1 1 1 0 2 1 1 0 0 1 0 2 2 1 0 1 1 1 2 2 0 1 2 2 0 1 0 0 1 3 2 0 3 0 1 0 1 2 1 2 1 1 2 0 0 1 0 1 0 0 2 1 2 1 1 0 1 0 1 0 3 2 1 1 2 1 1 2 3 2 0 2 1 1 1 1 1 1 1 1 2 2 2 1 2 1 1 2 0 1 2 2 0 1 1 2 1 1 1 2 3 1 0 2 1 2 4 0 2 1 1 2 1 2 1 2 2 3 0 1 0 1 0 1 2 3 1 1 2 1 1 2 0 2 1 1 1 2 2 2 1 1 0 1 0 2 1 1 0 1 2 0 1 1 2 2 1 0 3 0 0 2 2 1 1 3 0 0 0 1 2 0 3 1 1 1 1 2 0 1 2 0 1 0 1 0 0 1 2 1 1 1 2 1 3 1 1 2 2 1 2 1 2 1 1 1 1 3 2 1 2 3 2 1 1 2 1 1 1 0 2 2 0 2 1 1 2 2 1 3 1 2 1 1 1 0 0 0 1 0 3 2 0 1 1 0 1 1 1 1 1 1 1 2 1 3 3 2 0 0 1 2 1 0 1 2 0 1 0 0 1 1 1 2 1 1 1 1 0 2 0 1 1 2 0 1 1 2 0 0 0 1 2 2 0 0 0 2 0 1 0 4 2 0 1 2 1 2 1 1 2 1 1 0 2 2 1 0 0 1 2 1 1 0 2 0 1 0 1 1 2 2 1 1 1 3 1 2 2 2 0 1 0 1 0 2 1 1 1 1 1 0 5 2 0 3 2 3 1 1 2 2 1 0 1 1 1 3 1 2 1 1 1 1 0 1 0 0 0 1 2 2 1 3 1 2 3 0 1 1 1 2 1 2 0 2 0 2 1 0 0 0 2 1 2 1 0 2 0 1 2 0 0 3 1 0 1 0 0 1 1 4 1 1 2 1 1 2 1 1 1 2 0 0 0 2 1 1 2 2 0 0 3 1 1 3 0 2 1 2 1 2 1 1 0 2 2 2 0 0 1 1 1 2 1 0 2 2 0 1 1 1 0 2 0 1 1 0 1 1 0 0 1 1 1 1 4 0 5 2 3 1 1 0 1 1 2 0 3 1 1 2 0 1 2 1 0 1 2 2 1 0 2 3 0 0 1 1 1 3 1 1 1 1 1 0 1 0 3 1 1 2 1 3 1 1 1 1 2 2 2 1 2 2 1 1 1 0 2 1 1 2 1 2 0 2 0 2 2 2 1 1 0 0 1 2 1 2 2 1 0 2 1 1 0 1 1 2 3 2 0 1 0 0 1 2 2 1 2 0 2 1 1 2 2 4 0 0 0 0 2 2 1 1 1 1 1 1 1 0 1 3 0 0 0 1 0 0 0 1 2 1 1 1 2 1 1 2 0 2 2 2 0 1 0 3 3 3 1 1 0 1 1 1 1 1 0 2 2 2 1 0 1 0 1 0 2 1 2 2 2 2 1 1 0 2 1 1 1 2 1 1 2 1 1 0 1 0 0 2 3 0 1 0 1 1 2 1 2 1 1 1 1 2 1 1 2 0 3 2 2 1 1 1 1 2 2 1 1 2 2 1 3 2 1 0 2 1 1 1 1 3 2 2 1 0 1 0 2 2 2 1 1 1 1 2 1 1 3 1 1 2 1 1 1 0 2 1 1 2 2 2 2 2 1 0 2 2 0 0 2 2 2 1 2 3 1 2 2 0 2 1 1 1 2 0 1 0 1 1 1 1 1 2 1 2 2 1 3 1 1 3 0 3 3 2 3 2 0 1 2 0 0 1 0 1 1 1 1 1 1 0 1 2 2 0 2 3 1 2 1 2 1 3 1 2 2 1 1 1 1 2 0 1 0 1 2 1 1 2 1 1 0 0 1 0 2 1 1 1 2 1 2 2 0 3 1 0 1 1 1 2 1 2 3 1 1 3 1 2 3 1 1 2 2 2 1 1 1 4 2 2 0 0 0 2 1 0 0 1 0 2 1 1 1 1 0 1 0 1 1 2 1 2 0 1 2 0 2 1 0 2 2 2 0 1 0 2 2 0 2 0 0 0 0 3 1 3 2 1 1 1 1 1 0 1 2 2 1 3 1 0 1 0 1 1 1 1 1 3 2 2 2 1 1 3 0 2 0 2 1 3 1 3 0 2 0 0 1 0 1 0 1 1 1 1 1 1 0 0 2 3 2 2 1 3 0 1 0 1 1 1 1 1 1 2 3 1 1 1 0 2 1 0 1 2 2 1 1 1 1 0 3 1 2 2 2 0 2 1 0 1 2 1 0 3 1 2 1 0 1 2 0 2 2 3 2 0 2 2 2 0 1 2 1 2 1 1 0 1 1 2 1 0 1 3 0 2 3 2 2 2 2 1 1 0 1 1 1 0 1 0 1 4 1 2 2 2 2 1 2 1 1 1 1 2 1 1 1 2 3 1 1 3 0 2 0 2 0 2 1 2 2 1 1 1 4 1 1 1 1 0 2 0 1 2 1 1 1 3 1 1 2 3 2 1 1 0 0 0 0 1 1 2 1 1 2 1 1 1 2 1 3 1 1 2 0 1 0 1 1 2 1 1 3 2 1 1 3 2 3 2 0 1 0 0 0 0 1 2 1 2 2 0 2 0 2 1 0 2 1 0 3 4 3 0 2 2 1 1 2 1 1 2 0 1 2 3 0 2 0 0 2 2 0 0 0 1 1 2 1 0 1 2 1 2 0 0 1 2 1 3 0 2 2 2 0 1 1 2 1 2 1 0 2 2 1 2 2 0 3 0 0 2 1 0 0 1 2 1 1 0 0 1 0 1 1 2 1 1 2 2 1 0 0 0 1 1 2 2 1 1 1 2 1 1 1 1 3 0 2 1 1 3 1 0 3 2 2 1 1 1 1 2 0 0 1 2 0 0 2 3 3 1 2 0 2 0 3 2 3 1 1 0 0 2 1 2 0 0 1 1 0 2 2 1 1 0 1 1 2 1 1 1 1 1 0 1 3 0 1 2 0 2 1 2 1 2 0 1 2 1 1 3 1 1 0 1 2 1 3 1 1 2 0 0 0 0 2 0 0 1 0 1 0 3 1 0 0 1 1 0 2 1 0 1 0 1 2 2 0 2 2 0 1 1 1 3 1 0 1 2 0 2 1 1 2 2 0 0 1 1 2 0 1 1 1 2 2 1 0 1 1 2 0 2 2 1 2 3 0 0 1 0 1 3 2 0 1 2 2 0 2 1 0 1 1 4 1 0 2 1 2 0 1 0 0 3 3 1 1 1 1 0 0 1 2 1 1 1 2 1 1 3 1 2 3 0 1 1 1 0 1 1 1 2 1 2 2 1 1 2 1 2 1 1 0 2 2 1 1 0 1 1 1 2 0 2 3 1 2 3 0 1 2 0 1 0 1 1 0 3 1 1 2 1 2 0 1 2 2 3 1 2 2 2 0 2 1 0 1 0 0 1 0 0 1 5 2 1 1 1 2 2 1 2 2 0 1 0 2 2 0 3 0 0 1 1 0 3 1 2 2 1 2 1 4 1 0 1 1 0 1 1 2 0 1 1 2 2 1 0 1 1 2 1 1 1 1 1 2 1 1 0 2 2 3 1 2 0 2 0 1 1 2 0 2 0 0 2 3 3 1 3 0 3 2 0 1 2 1 0 2 1 1 1 1 1 1 1 2 2 2 2 1 1 1 1 4 2 0 1 0 0 1 1 1 1 2 0 2 2 1 1 2 1 1 4 3 0 0 2 1 2 1 1 2 0 0 0 1 1 2 3 1 1 0 1 3 1 2 1 0 2 2 2 0 1 2 0 1 0 0 2 1 1 2 1 1 2 2 0 0 1 0 1 1 1 2 1 3 2 1 1 2 1 0 1 1 0 0 1 0 1 2 3 1 1 0 2 2 2 1 1 0 1 1 0 2 0 2 1 1 2 1 2 1 2 1 1 0 1 2 2 2 1 2 1 1 1 0 2 1 3 0 2 1 1 0 1 1 1 2 3 3 2 2 1 1 1 1 3 1 2 1 1 0 4 2 2 1 1 2 3 1 2 1 1 2 0 1 1 2 2 0 1 1 1 1 1 0 1 2 1 1 2 0 2 1 1 1 1 2 1 1 0 0 1 2 1 3 0 2 0 0 1 1 1 0 1 2 2 2 2 1 3 2 1 1 0 0 1 2 1 2 1 2 1 1 0 2 1 2 2 1 0 0 0 2 0 2 3 1 0 0 1 2 0 1 0 0 2 3 2 4 2 0 3 0 3 2 1 1 1 1 2 0 0 0 2 1 2 1 2 1 1 0 0 1 0 2 1 0 1 1 0 0 0 1 1 2 3 3 1 1 1 3 2 2 1 1 4 2 0 1 2 2 0 1 3 2 2 0 0 0 1 2 2 3 2 3 2 1 1 0 2 2 3 3 2 1 1 1 1 1 1 1 1 3 0 1 1 0 1 1 0 2 2 2 2 2 1 2 1 3 0 1 1 1 2 0 0 1 2 2 0 2 1 3 1 0 1 3 1 1 0 1 0 2 1 3 0 3 1 0 2 0 0 2 1 2 1 0 1 1 2 0 0 2 2 1 1 0 2 1 1 1 2 1 1 0 0 1 1 2 1 1 1 1 0 0 1 1 0 3 1 1 3 1 2 1 1 2 1 2 2 1 2 2 1 1 1 2 0 1 4 2 2 3 1 0 2 0 2 2 0 0 1 1 1 1 1 0 1 2 0 1 1 0 2 1 1 2 1 2 0 0 2 2 0 2 1 1 1 2 2 3 3 1 1 0 0 1 0 1 3 3 0 2 1 1 3 1 1 0 0 1 2 0 2 2 0 1 0 3 1 2 2 2 1 0 2 1 0 1 0 1 2 2 1 2 2 0 1 1 1 1 1 2 3 2 1 3 1 2 1 3 1 1 1 1 2 1 1 1 0 1 1 3 2 3 0 1 2 2 1 0 1 2 1 3 3 4 3 0 1 1 1 1 2 0 1 1 0 2 3 1 1 0 0 3 1 2 0 1 1 0 1 3 2 1 1 0 3 3 2 1 2 0 1 2 0 1 1 1 3 0 2 0 1 0 1 0 4 2 1 1 1 0 3 2 1 0 1 1 0 2 1 2 1 0 1 1 2 0 1 2 1 2 0 2 0 1 0 1 1 0 0 1 1 1 1 0 2 3 1 2 1 2 1 1 0 1 0 1 3 1 3 0 1 2 1 1 3 1 0 1 1 2 2 1 0 0 2 3 3 1 1 0 0 1 2 1 0 0 0 1 1 0 3 1 2 2 0 1 2 1 1 1 0 1 1 1 2 3 1 1 1 1 1 2 3 1 2 1 2 3 0 3 2 1 2 0 1 0 1 2 1 1 0 1 0 1 1 0 0 2 0 1 2 1 0 0 0 0 2 0 2 1 2 0 2 1 2 1 2 1 2 1 1 1 0 2 3 1 2 3 1 0 1 2 2 1 1 0 1 2 1 0 0 2 0 0 2 1 1 3 1 1 0 0 3 2 0 0 0 0 0 2 1 2 1 0 2 3 0 1 3 0 2 4 0 2 1 1 1 2 2 1 0 1 1 2 0 1 1 1 0 2 3 2 1 0 1 2 2 2 0 0 1 1 1 4 1 1 0 3 1 2 1 0 3 1 1 3 1 0 0 1 0 1 0 0 2 2 0 0 1 0 1 1 1 1 1 2 1 0 4 2 2 2 1 1 2 1 2 1 2 1 1 1 1 2 1 1 1 0 1 0 0 1 2 1 2 2 3 1 3 3 0 2 0 3 1 0 2 1 3 1 1 3 1 2 0 1 1 1 0 2 3 1 1 2 3 1 1 2 1 0 2 2 1 0 2 1 0 1 1 1 0 1 1 2 1 0 0 1 0 1 1 2 2 0 2 2 1 1 0 1 1 2 1 1 1 1 0 1 2 1 1 1 1 1 2 0 1 0 2 1 1 2 0 1 1 1 0 2 1 0 1 1 1 0 3 1 1 0 1 2 1 0 2 2 1 1 1 1 1 2 3 2 0 1 1 1 1 1 0 2 1 2 0 1 0 2 1 1 1 2 0 3 2 2 1 2 2 1 3 1 2 1 1 2 1 1 4 0 1 1 1 0 1 4 1 1 2 0 0 1 1 2 1 2 0 2 0 1 1 1 1 2 1 2 0 1 2 0 1 2 2 2 0 2 1 2 1 2 2 1 2 2 1 0 1 2 3 0 1 2 0 2 1 3 2 1 1 3 3 2 2 1 1 0 3 1 1 0 0 2 0 3 0 2 1 1 1 1 1 0 0 2 2 1 1 0 1 1 1 0 1 0 2 1 2 1 1 1 0 0 2 2 1 1 1 2 2 1 0 0 2 2 2 0 1 1 1 0 1 3 2 0 0 2 3 0 1 1 2 1 2 0 2 1 2 1 0 0 2 0 1 2 2 1 1 3 1 0 1 1 1 3 3 1 0 2 1 2 2 3 2 1 0 0 1 3 0 1 2 1 2 1 1 3 1 2 1 2 1 1 1 2 0 0 1 2 1 1 1 1 1 2 1 1 2 0 0 3 1 1 0 2 1 0 1 1 1 0 0 2 1 0 1 2 2 3 0 1 1 2 0 0 1 1 2 1 2 2 2 0 2 1 2 3 1 2 0 3 0 1 1 2 2 1 0 2 3 2 1 1 0 1 1 1 2 0 3 2 0 0 2 3 2 0 0 2 2 2 4 2 0 2 0 1 1 0 0 0 1 2 0 2 2 1 2 1 1 1 1 1 3 1 0 2 2 3 2 0 1 0 1 1 2 1 1 1 2 1 1 1 1 2 2 1 1 0 1 1 1 0 1 1 1 0 2 1 2 1 3 3 2 1 1 2 1 0 2 2 2 1 1 2 1 1 2 1 0 2 1 0 4 1 2 1 0 1 1 1 0 1 1 1 2 1 1 1 1 1 1 2 1 1 0 2 1 1 1 2 3 0 0 1 2 1 2 1 1 1 0 1 3 0 1 0 0 1 1 1 1 3 0 1 1 1 0 0 1 2 0 2 1 2 1 1 3 2 2 2 3 1 1 2 0 2 0 2 0 2 1 1 0 1 1 0 1 1 0 1 0 1 0 1 1 1 1 2 0 1 0 3 1 0 3 3 1 3 3 1 1 2 1 1 3 3 2 0 0 1 1 1 0 1 2 1 1 2 3 2 2 1 1 1 1 1 1 0 3 1 1 0 1 2 1 0 2 1 1 1 0 0 2 1 1 1 0 0 0 0 0 2 0 0 1 1 1 1 2 2 2 1 1 2 1 2 1 2 0 2 2 1 3 1 2 2 1 3 1 0 1 0 2 0 2 0 1 1 2 3 2 0 1 2 2 2 2 2 1 0 1 2 2 1 2 0 1 1 2 0 1 2 0 1 1 2 2 2 2 1 0 0 0 0 2 3 1 1 2 0 1 2 1 0 1 3 1 0 2 2 1 2 2 1 2 2 0 2 1 0 0 3 2 1 2 1 1 3 2 1 1 1 1 2 2 2 0 1 0 1 2 1 1 0 1 3 0 2 1 2 2 1 4 1 1 0 0 0 0 2 2 1 2 1 3 0 1 0 2 2 2 0 1 1 2 0 1 1 3 1 0 1 1 2 0 0 2 2 1 1 2 2 1 1 0 1 1 1 3 2 0 1 2 2 2 1 2 2 1 1 2 1 1 1 1 1 1 0 1 0 1 0 0 1 2 2 0 0 1 1 1 1 2 1 0 2 1 2 1 1 1 0 2 1 0 1 1 2 1 1 1 0 2 1 0 0 2 1 1 0 3 1 1 1 0 1 1 2 0 0 3 2 1 1 2 1 3 1 2 1 1 2 0 1 2 1 1 2 1 2 1 2 1 2 1 2 0 0 3 2 2 2 1 0 3 0 2 2 1 1 2 2 0 0 5 2 1 1 1 2 1 1 0 0 0 3 1 1 1 1 0 1 1 2 0 1 0 1 1 1 1 2 1 1 1 1 3 3 2 1 1 1 1 1 1 1 0 0 2 1 0 1 2 1 1 0 2 0 0 0 1 2 1 0 2 4 0 1 2 0 0 1 1 2 2 1 0 3 0 1 1 2 1 1 1 0 0 1 1 2 1 1 1 3 1 1 2 2 0 4 1 0 2 2 1 2 1 1 1 2 3 1 1 2 0 1 2 0 1 1 1 0 1 1 3 0 0 2 1 0 3 0 1 0 0 1 1 1 2 3 0 2 1 2 2 3 0 1 3 2 1 0 2 1 1 0 0 2 1 2 0 1 3 1 0 1 0 1 0 2 1 1 0 1 2 0 1 4 2 1 2 2 1 2 0 0 1 1 0 1 1 2 1 2 0 2 1 0 1 0 0 2 2 1 0 2 1 1 4 1 0 1 1 1 2 2 3 0 0 1 1 4 0 0 3 2 0 2 0 1 1 1 2 1 1 0 0 2 1 1 0 3 1 2 1 0 1 1 2 2 1 2 1 1 0 2 1 1 0 1 1 1 3 1 1 1 1 3 1 2 0 1 1 1 1 1 1 1 1 0 0 2 2 2 1 1 1 3 0 2 1 1 3 1 0 1 0 1 0 2 0 1 2 1 1 1 2 0 3 1 2 2 1 1 2 1 1 1 0 1 2 2 1 1 2 2 2 2 2 0 2 1 2 1 0 2 2 1 0 2 2 2 1 3 1 1 2 2 1 0 1 1 1 1 0 2 0 1 2 0 3 2 2 0 1 1 0 2 1 1 1 0 0 0 1 2 1 1 0 3 0 0 1 1 3 3 0 2 1 2 1 1 2 3 1 2 1 0 1 1 1 0 1 1 3 1 1 2 1 2 2 2 1 2 0 1 1 0 0 1 1 0 1 1 0 0 1 2 2 2 3 1 1 2 1 0 0 1 1 2 1 1 2 2 1 2 3 1 2 2 1 2 1 0 0 2 1 2 1 0 0 0 0 1 1 2 1 1 1 3 0 0 0 4 1 1 1 2 0 0 2 2 1 1 1 1 1 3 1 1 2 2 1 1 3 2 1 1 2 2 2 3 2 1 2 0 1 1 3 2 1 2 1 1 1 2 1 2 0 1 3 0 2 0 0 3 1 3 1 1 0 3 0 1 2 0 1 1 0 2 2 1 1 1 1 1 1 1 0 1 1 0 0 2 1 1 3 1 2 1 1 2 2 2 1 0 2 2 0 0 1 1 0 3 0 0 1 0 1 1 2 2 2 3 1 3 1 0 3 3 0 2 1 2 1 1 2 0 3 2 1 1 1 0 1 1 0 0 1 1 3 2 0 2 0 3 0 2 0 1 3 1 1 1 0 0 0 1 2 1 0 1 1 1 2 2 2 1 2 1 1 1 1 0 2 1 1 2 3 1 0 1 0 1 1 1 1 0 1 2 2 0 2 0 2 1 0 0 1 2 3 2 2 2 1 1 0 1 3 2 1 2 1 2 2 0 1 0 1 1 1 3 1 0 1 2 1 1 1 0 1 1 1 2 2 0 2 0 3 2 0 2 1 2 1 2 2 2 0 2 1 0 3 3 2 2 1 1 1 0 2 1 3 1 0 1 0 1 2 2 0 0 1 0 1 3 0 1 1 1 0 0 2 3 0 1 1 1 2 1 1 0 1 1 1 2 2 2 1 0 1 0 0 0 2 2 3 1 2 2 0 0 1 3 2 2 2 0 0 0 2 1 1 2 1 0 1 1 1 1 1 1 1 1 2 1 2 0 1 0 1 0 2 0 0 2 2 1 0 0 0 0 1 1 2 2 1 1 1 2 1 1 2 1 1 1 2 2 2 1 2 1 1 1 1 2 0 2 1 1 2 1 0 1 2 0 1 2 1 1 1 1 2 0 2 1 2 3 1 3 2 1 0 2 0 0 3 2 2 1 1 2 1 2 0 1 0 5 0 1 2 3 0 2 1 0 2 1 1 1 1 0 2 1 0 1 0 0 3 0 3 0 1 0 1 1 2 1 1 1 1 1 2 1 1 1 3 1 2 1 2 1 2 0 1 1 0 0 2 2 1 2 2 1 0 1 1 1 2 0 1 1 2 1 2 1 3 1 3 1 2 1 2 3 2 0 0 1 2 1 1 0 0 1 2 2 0 1 1 2 1 2 1 1 1 1 1 1 0 2 2 0 2 1 2 1 1 2 1 0 0 0 2 2 3 2 1 1 2 4 1 2 0 2 2 4 0 2 0 1 0 1 2 1 1 1 0 4 0 4 0 0 1 1 3 1 0 1 2 1 3 1 0 0 3 1 3 3 0 1 1 0 2 3 2 3 2 1 2 0 2 3 2 1 1 1 1 1 2 1 0 1 2 1 1 2 0 1 1 1 3 4 0 2 2 0 0 1 2 2 0 2 1 3 0 2 0 3 2 2 1 1 0 2 3 0 1 1 1 3 2 1 3 1 2 1 2 0 2 1 1 0 1 0 1 2 1 3 0 1 1 1 1 2 2 2 0 1 2 1 0 2 1 0 2 1 2 3 0 0 1 0 2 1 2 1 1 3 1 0 1 1 1 0 0 0 2 2 1 2 2 1 2 0 0 3 0 0 1 2 0 1 0 2 1 2 0 0 1 1 0 1 2 0 0 0 2 0 1 0 2 1 1 2 3 0 2 4 1 0 1 2 2 1 1 2 0 1 0 0 1 1 1 3 3 1 0 0 1 3 1 2 1 1 1 1 1 4 1 2 2 1 1 1 1 2 2 0 0 2 0 2 0 2 2 0 1 3 0 3 2 1 0 2 2</t>
-  </si>
-  <si>
-    <t>GAM(0.09142786463819311, -2.3040197541073817e-29, 0.529571271066441)</t>
-  </si>
-  <si>
-    <t>1 0 0 0 1 0 2 0 0 1 0 1 2 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 2 0 0 2 2 1 2 0 0 0 0 0 2 2 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 2 0 0 0 1 0 1 1 0 1 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 3 0 1 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 1 0 0 2 1 2 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 0 0 1 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 1 0 2 0 2 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 2 2 0 0 0 0 1 2 0 0 1 1 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 2 0 0 0 0 1 1 1 0 1 0 0 2 0 0 0 0 1 1 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 2 1 1 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 2 0 1 0 0 2 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 3 1 0 2 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 2 1 2 0 1 0 0 1 0 0 1 0 0 0 1 3 0 1 2 1 0 1 1 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 1 1 0 2 0 1 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 2 0 1 0 0 0 0 0 2 2 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 3 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 3 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 2 1 0 0 1 0 0 0 0 3 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 2 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 2 1 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 2 1 2 0 0 0 0 2 0 0 1 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 1 0 2 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 1 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 1 2 2 0 0 1 0 0 1 0 0 0 0 0 1 2 1 0 0 0 3 1 0 0 0 0 0 0 1 0 2 0 0 2 0 0 0 0 0 0 2 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 1 2 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 1 3 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 3 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 1 0 1 0 0 1 0 0 1 2 2 0 0 2 0 0 0 1 2 0 0 0 0 1 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 1 0 0 2 0 0 0 1 0 0 0 0 1 1 0 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 2 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 2 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 2 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 1 2 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 1 1 0 1 1 0 0 0 2 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 1 2 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 1 1 1 0 0 1 0 0 1 0 0 0 0 1 1 1 1 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 2 2 0 1 1 1 0 0 0 0 0 1 1 1 1 0 0 0 2 0 1 0 0 0 1 0 1 0 0 0 0 1 1 1 3 1 0 1 0 0 0 1 1 0 2 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 1 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 2 0 2 0 0 0 0 2 0 1 0 0 1 1 0 1 1 2 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 2 2 1 1 1 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 1 3 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 2 0 1 0 0 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 1 0 2 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 2 0 0 0 0 1 0 0 0 4 1 0 0 1 1 1 0 1 0 0 1 1 2 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 2 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 3 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 3 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 2 1 2 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 2 0 0 0 0 1 0 2 0 1 2 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 3 0 1 0 0 0 2 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 2 1 0 2 1 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 3 0 0 2 2 0 1 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 2 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 2 2 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 2 0 0 1 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 2 1 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 2 0 1 0 0 0 2 0 0 0 0 1 1 0 0 3 0 1 0 1 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 1 0 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 2 0 2 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 2 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 2 2 0 1 0 0 0 0 0 0 1 1 0 0 2 1 0 0 0 0 0 0 0 1 2 2 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 1 2 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 2 0 0 0 2 1 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 1 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 1 0 2 0 1 0 2 1 0 0 0 1 0 1 0 0 2 2 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 3 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 1 0 1 2 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 1 0 1 2 0 2 0 1 0 1 0 1 0 1 0 2 0 1 1 1 0 1 2 0 0 1 1 2 0 0 0 0 1 1 0 2 2 0 0 1 1 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 3 0 0 1 1 0 1 1 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 1 1 1 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 1 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 2 3 0 0 1 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 2 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 2 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 3 0 0 1 0 0 0 2 1 0 1 0 0 1 1 0 0 1 1 1 2 0 0 0 0 1 0 1 2 0 0 1 2 0 0 0 1 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 2 0 1 1 0 0 1 1 0 0 0 1 1 1 0 0 0 0 1 2 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 1 2 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 2 1 1 0 0 0 0 1 1 0 1 0 0 1 1 1 1 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 2 1 2 0 1 3 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 3 1 0 2 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 1 2 1 0 1 1 1 0 0 1 0 1 2 2 0 0 0 0 1 1 0 2 1 1 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 2 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 3 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 2 0 0 1 1 1 0 0 0 0 0 2 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 2 0 0 0 1 0 2 1 1 1 1 0 0 0 1 0 2 0 1 0 1 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 2 1 1 1 0 1 0 0 0 0 0 0 0 0 0 2 3 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 2 0 1 1 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 2 0 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 0 1 2 0 1 1 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 2 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 1 0 2 1 0 1 1 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 2 1 0 0 1 0 0 0 1 0 0 2 0 0 4 1 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 2 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 1 1 1 0 1 0 1 1 0 0 1 0 2 0 0 1 0 0 0 1 0 2 1 0 0 1 0 0 0 3 1 1 0 1 0 0 1 0 1 0 0 1 0 1 2 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 2 2 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 2 0 1 1 0 0 0 1 0 3 0 0 0 0 0 1 0 1 1 0 1 0 0 1 1 1 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 3 0 0 1 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 0 0 1 0 1 0 2 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 1 0 0 0 2 0 1 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 1 0 1 0 1 0 0 1 0 0 1 1 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 1 0 2 0 1 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 2 0 1 1 0 2 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 1 1 0 0 1 1 2 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 1 3 1 0 0 0 0 2 1 2 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 2 3 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 2 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 2 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 2 0 1 0 0 0 1 2 0 1 1 0 0 1 0 2 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 2 1 1 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 2 0 0 0 0 1 1 0 0 0 0 0 1 2 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 2 0 0 1 2 1 0 0 0 1 0 0 1 2 1 0 0 0 0 0 1 0 1 0 1 1 0 1 1 1 0 0 0 0 2 1 2 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 2 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 2 1 1 0 0 0 0 0 0 1 0 1 2 1 1 1 0 0 0 0 0 1 1 0 0 0 0 1 2 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 0 1 0 1 1 0 2 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 2 0 1 0 0 1 0 1 1 3 0 1 1 2 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 3 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 2 0 1 0 1 1 1 0 0 0 1 0 0 1 2 0 0 2 1 0 0 1 1 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 1 0 1 0 0 2 1 0 0 0 0 2 2 0 0 0 0 1 0 0 1 1 1 1 0 2 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 4 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 2 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 2 0 2 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 2 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 2 0 0 2 0 0 0 1 0 2 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 2 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 3 0 0 1 2 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 1 0 3 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 2 0 0 0 0 2 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 1 1 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 2 3 0 3 0 0 1 0 1 1 0 0 2 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 3 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 1 1 1 0 3 1 1 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 2 0 1 0 0 0 0 0 1 1 1 0 0 1 3 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 1 1 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 2 1 2 1 1 2 0 1 0 0 0 0 1 1 1 2 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 1 1 1 0 0 2 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 2 0 1 0 0 0 0 1 1 0 0 0 0 2 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 3 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 2 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 2 0 0 1 1 0 1 0 0 1 1 1 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 1 2 0 2 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 1 0 2 0 1 1 1 0 1 0 1 0 1 0 0 2 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 3 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 3 1 1 0 0 1 0 0 2 0 0 0 1 1 1 0 0 0 0 1 1 0 1 2 0 0 1 0 0 3 1 1 0 0 0 0 0 0 1 1 1 0 2 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 1 0 1 1 1 0 1 1 0 0 0 2 0 2 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 2 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 1 0 0 0 1 0 0 1 1 2 1 0 0 1 0 0 1 0 1 0 0 2 0 0 0 0 0 1 0 2 0 0 2 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 2 0 0 0 0 0 0 1 2 2 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 1 1 3 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 1 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 2 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 3 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 2 1 2 1 1 0 0 0 0 1 0 0 0 0 2 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 3 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 1 1 1 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 2 0 0 1 1 2 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 1 0 2 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 1 0 2 1 1 0 0 0 0 0 1 1 2 1 0 1 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 1 1 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 1 0 0 0 1 2 1 0 0 0 1 1 0 0 1 1 0 0 1 2 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 2 1 0 1 1 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 1 2 2 1 0 0 1 0 2 1 0 0 1 0 0 0 2 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 2 0 0 1 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 2 1 2 1 0 1 0 1 1 1 0 0 0 1 2 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 3 2 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 1 1 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 2 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 2 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 1 2 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 2 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 1 0 0 2 1 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 2 1 0 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 1 0 2 1 0 0 0 1 0 1 0 0 0 0 1 1 2 0 1 0 1 0 0 1 0 0 0 3 0 0 0 3 1 3 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 2 0 0 1 0 0 1 0 4 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 2 0 0 1 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 1 0 1 0 0 1 0 0 2 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 3 2 0 0 0 0 0 0 3 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 2 1 0 0 1 0 1 1 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 2 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 2 0 1 1 1 1 1 2 0 0 0 1 1 2 0 0 0 0 0 0 1 1 1 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 2 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 1 0 1 1 1 1 1 2 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 2 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 2 0 0 1 0 1 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 2 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 2 1 2 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 1 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 2 0 0 2 0 0 0 0 0 0 1 0 1 1 2 0 0 0 0 1 1 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 1 0 1 3 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 2 0 0 2 0 0 0 0 0 0 1 1 2 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 2 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 1 0 0 0 0 3 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 0 1</t>
-  </si>
-  <si>
-    <t>JSB(2.904726561362084, 2.8288444442153726, -59.22241394923374, 607.2064646847108)</t>
-  </si>
-  <si>
-    <t>69 81 52 98 162 65 122 113 159 130 106 87 96 99 117 107 80 82 137 87 128 147 133 118 141 148 88 168 55 108 87 159 104 208 109 172 172 111 145 117 116 73 121 104 75 116 121 80 75 90 180 117 72 58 55 139 43 178 149 164 36 169 47 92 36 45 104 137 120 87 49 34 31 91 135 142 81 130 118 117 80 138 73 66 83 45 106 142 102 85 123 149 145 128 126 77 71 118 132 90 74 61 103 79 103 52 60 55 114 113 74 157 103 140 106 32 17 79 155 27 75 68 67 80 100 87 164 151 20 173 76 113 184 94 81 139 52 57 24 61 145 185 121 139 126 75 68 116 80 88 104 45 110 221 88 101 128 78 82 71 140 145 124 85 26 21 45 88 57 98 53 34 76 135 150 47 151 120 77 160 75 89 218 39 76 110 70 131 76 114 82 59 98 58 155 40 34 134 61 84 83 132 88 45 86 60 93 175 134 59 113 94 39 96 152 60 96 125 45 54 124 66 31 87 109 116 92 97 122 61 161 80 160 70 76 88 65 44 127 97 149 119 72 59 96 73 56 56 96 157 103 54 88 85 72 126 99 111 57 108 123 162 83 175 128 111 152 99 55 29 90 187 82 92 133 95 122 131 77 157 162 156 83 150 45 127 106 48 47 114 62 114 73 120 117 121 15 31 76 108 96 154 59 102 147 66 84 55 55 117 46 104 104 97 89 135 124 63 156 74 44 141 64 149 98 107 79 70 100 131 95 191 148 73 73 99 143 91 82 117 136 61 114 97 116 51 42 85 38 115 111 108 171 45 63 114 169 131 177 55 152 102 129 73 90 60 108 103 64 82 89 108 109 123 79 105 196 70 56 64 111 84 59 122 48 142 65 71 129 116 152 126 80 124 38 189 99 85 119 83 93 154 75 103 162 101 110 173 71 70 45 126 58 38 126 174 108 68 74 165 134 126 89 90 55 46 92 57 123 84 65 105 106 117 161 41 45 100 108 198 96 162 106 24 102 117 58 123 40 97 56 177 102 141 71 203 95 113 40 159 113 71 122 46 70 88 44 113 82 105 108 150 68 83 51 129 154 75 70 134 122 24 37 93 173 114 97 163 53 100 104 129 115 182 147 101 75 57 89 160 66 100 17 63 112 41 141 104 108 80 89 112 111 104 29 131 100 103 135 84 176 135 85 77 110 86 155 119 110 102 33 85 54 69 118 64 171 107 85 73 79 67 123 115 34 70 111 44 89 96 138 126 203 112 100 48 129 109 90 46 164 76 123 63 86 10 184 164 145 214 119 141 97 139 81 127 142 96 31 40 124 115 46 165 45 45 137 81 104 162 97 98 114 67 150 127 96 67 96 88 114 93 74 15 149 105 118 9 93 56 68 63 154 120 89 89 108 119 155 59 63 59 40 106 125 96 61 49 134 99 57 96 58 90 135 145 110 80 23 147 100 39 119 74 209 135 70 103 120 125 74 78 157 236 83 94 83 82 113 64 108 126 47 127 173 132 100 113 130 100 73 23 115 155 131 153 71 140 127 128 38 88 85 100 93 77 61 139 167 126 24 125 79 79 162 49 50 55 140 58 107 94 141 197 206 61 40 69 83 133 142 132 97 213 107 130 98 127 111 51 81 61 90 103 152 170 115 72 133 67 147 93 103 92 93 81 161 109 110 127 92 98 131 176 42 128 132 89 118 17 113 139 102 32 147 106 81 100 118 100 71 46 157 102 91 176 80 110 140 116 80 21 99 123 135 155 65 70 151 97 60 92 143 74 71 154 101 62 102 331 89 111 44 92 155 124 127 102 126 112 172 88 97 160 111 56 87 120 57 89 161 94 99 89 59 113 76 91 87 112 71 153 139 91 110 44 89 75 81 90 134 166 71 118 85 119 113 73 128 134 124 68 103 117 139 117 161 51 42 68 62 131 68 84 105 56 56 119 99 206 74 89 94 142 58 144 89 82 175 64 82 141 39 48 65 127 167 149 81 108 121 149 81 136 186 109 93 120 95 47 115 56 46 119 74 107 100 111 122 135 72 102 78 54 85 158 97 11 126 79 103 146 70 126 134 146 65 69 83 89 133 125 59 72 180 77 113 85 113 73 118 116 133 106 117 104 125 32 98 132 86 76 68 118 69 45 114 103 171 116 66 131 143 166 179 181 216 142 52 98 107 117 104 67 108 79 139 98 101 72 109 59 76 103 122 93 64 73 122 94 184 153 108 118 177 55 131 121 79 157 146 57 84 41 84 125 148 140 107 41 56 63 103 129 77 63 28 89 122 107 80 210 79 114 91 124 97 96 60 164 91 31 132 80 158 121 96 101 103 69 108 47 118 179 95 108 91 126 77 110 126 179 84 165 79 145 133 125 49 86 107 110 77 75 139 201 163 125 148 110 38 102 128 57 62 43 61 110 39 142 108 91 136 127 159 121 121 107 180 130 92 124 87 155 123 65 120 191 57 78 124 66 38 99 85 67 185 152 119 47 105 56 43 114 159 117 153 148 82 102 214 49 137 123 46 146 128 145 90 97 185 85 77 196 153 92 145 207 27 74 92 65 134 47 170 58 80 136 148 41 152 139 102 83 115 77 220 131 70 49 108 121 182 144 167 120 75 85 102 56 60 56 162 98 59 81 147 68 45 112 180 103 70 122 53 149 88 100 138 159 137 95 102 54 4 102 127 146 94 68 112 233 81 22 65 81 75 146 164 122 113 81 49 115 118 91 149 68 130 101 126 85 134 101 73 135 124 130 94 47 85 163 21 40 94 28 65 87 78 136 99 81 146 116 24 120 99 62 223 114 100 68 123 156 165 82 124 53 115 97 68 96 72 85 83 124 193 96 106 102 63 98 129 126 125 145 45 114 145 148 130 126 49 151 95 93 107 80 22 71 122 164 90 171 78 111 67 135 174 94 72 73 95 19 194 65 161 69 54 116 130 134 113 40 136 75 36 49 113 117 129 94 136 162 176 88 197 93 68 106 188 144 110 82 79 106 103 42 107 102 97 87 192 51 76 124 71 58 155 139 63 74 88 78 122 157 118 112 158 139 108 184 96 96 123 56 37 31 46 132 118 99 98 96 82 157 81 107 125 39 114 68 143 138 66 112 98 200 170 192 61 57 192 61 132 78 134 120 63 96 141 84 127 46 162 174 73 122 114 137 83 124 56 58 112 150 65 86 51 61 231 107 149 91 139 126 38 86 76 41 149 42 96 60 105 52 101 99 86 141 127 69 112 131 123 167 39 124 178 170 88 55 88 91 147 154 77 91 106 171 92 72 100 34 83 142 49 171 75 129 64 120 113 183 139 100 153 199 138 141 167 98 72 155 191 110 126 98 103 103 59 73 121 144 85 104 150 154 87 174 58 108 74 70 32 100 112 35 145 145 32 108 67 52 93 105 157 182 75 84 45 70 120 39 111 117 244 123 134 133 63 114 123 161 66 194 31 200 70 89 47 136 52 102 210 28 94 151 133 120 72 133 106 178 76 50 136 75 170 83 69 83 65 169 61 110 39 122 215 120 76 83 207 113 94 125 46 130 139 141 84 130 81 143 131 88 78 82 160 142 160 90 127 87 46 166 44 236 38 170 119 196 54 75 107 148 110 81 71 189 128 206 140 36 123 124 76 110 19 130 80 157 44 193 74 120 145 136 53 148 89 132 87 128 100 111 129 84 62 83 53 69 43 77 110 66 140 85 123 130 119 63 66 109 67 157 92 28 192 122 81 105 65 57 66 151 74 68 148 101 168 129 103 172 64 136 132 171 68 116 115 72 125 144 113 108 61 70 80 69 138 105 47 22 81 184 104 90 66 158 33 135 62 106 130 133 82 69 54 78 81 73 87 31 114 67 89 114 86 160 107 70 182 147 88 188 125 99 146 151 199 126 93 147 101 126 111 168 84 150 201 81 157 102 94 166 90 128 121 99 103 26 145 64 177 152 31 67 137 148 132 53 149 109 99 190 109 81 134 54 79 151 87 67 61 73 70 56 114 130 187 67 76 175 54 53 118 124 108 213 71 102 106 63 146 107 56 148 120 156 141 12 78 102 161 111 82 158 123 77 56 101 112 52 124 47 113 207 121 81 97 129 119 88 128 128 134 122 62 121 126 125 106 54 87 182 143 59 132 141 106 158 164 59 75 94 206 90 78 86 179 135 31 106 78 120 71 71 144 63 87 46 76 94 138 89 120 108 174 100 118 85 168 68 155 123 76 120 120 167 115 250 123 105 157 132 59 108 71 98 105 73 134 156 135 168 56 80 90 140 68 83 131 93 68 101 51 81 101 160 75 73 172 64 105 95 51 136 207 112 131 156 37 96 128 112 18 50 160 94 112 125 76 134 72 70 153 93 162 73 60 140 75 99 73 142 84 181 105 54 87 84 76 103 67 82 69 83 88 98 21 128 127 49 115 64 91 44 40 74 101 120 114 136 184 96 16 236 66 85 225 158 121 118 138 108 117 100 81 147 125 74 87 70 189 66 153 98 161 155 74 114 84 117 124 128 56 103 80 76 96 105 159 122 28 163 172 46 137 119 164 57 147 150 105 126 94 109 131 144 109 174 81 67 124 80 40 84 114 97 137 176 176 71 73 26 126 116 109 88 71 45 80 56 67 117 88 117 209 35 97 148 125 128 138 94 75 106 206 61 140 78 77 83 78 82 116 169 75 245 213 51 109 39 101 64 168 146 132 175 175 133 115 131 44 121 77 78 175 128 106 45 41 92 70 53 175 117 156 62 53 96 88 125 135 118 146 62 128 72 40 90 150 134 21 148 79 62 139 47 124 85 52 133 43 84 88 166 107 135 156 130 154 72 64 96 145 104 135 180 110 120 65 78 130 86 107 142 76 131 129 57 51 109 73 149 80 158 70 188 81 235 126 89 76 138 25 63 93 34 165 121 60 128 98 65 156 93 89 86 115 111 79 50 135 71 126 138 192 95 107 105 65 69 129 85 53 175 99 190 71 104 137 74 184 161 88 87 157 91 101 113 89 102 150 116 91 34 152 117 15 97 159 129 56 120 111 95 130 106 98 128 72 78 106 101 18 82 235 77 92 87 165 164 66 39 114 80 87 74 46 139 94 65 96 51 96 43 108 52 77 82 54 131 128 85 105 72 70 72 149 43 133 56 81 167 121 74 37 106 121 65 168 121 56 121 48 90 150 98 69 257 60 147 147 154 58 37 93 116 140 94 78 109 129 149 93 118 69 179 127 71 87 93 110 122 37 88 98 119 122 80 133 71 92 135 140 124 46 100 62 83 82 75 108 91 44 106 165 76 41 53 78 108 115 142 125 149 170 186 114 95 16 94 65 122 134 86 123 140 130 62 87 61 135 77 219 162 74 94 176 86 77 133 112 91 204 41 106 82 121 189 103 162 118 126 91 53 160 87 119 160 103 116 89 73 84 92 114 72 113 122 120 106 128 158 113 20 63 82 79 95 181 145 96 174 134 154 148 81 70 127 111 134 144 59 96 81 138 114 157 73 119 106 189 94 97 133 50 104 43 162 133 183 68 102 116 124 96 166 75 124 103 136 99 115 143 88 121 104 139 144 92 135 143 107 67 58 41 140 118 65 54 113 186 40 138 81 86 105 78 75 101 89 87 102 99 159 94 102 44 40 80 112 127 85 135 111 91 189 124 87 237 50 133 124 142 78 108 122 133 139 40 90 42 168 69 230 131 113 127 130 90 69 56 102 72 70 76 107 21 82 187 203 83 136 78 194 92 116 102 108 55 112 86 37 140 14 122 100 113 49 48 67 72 92 127 14 57 158 87 93 97 66 69 122 104 79 167 163 155 51 74 99 134 149 110 116 128 110 164 114 120 87 87 123 105 121 119 177 47 67 125 168 122 102 140 49 86 44 95 104 116 89 137 81 58 126 104 99 80 72 104 110 85 96 89 116 126 187 73 154 85 29 81 154 116 71 67 109 84 99 66 78 72 119 168 108 85 109 56 93 205 69 94 174 74 97 79 128 97 79 142 137 60 99 109 133 82 154 109 90 90 45 49 146 70 154 53 165 66 111 118 47 15 155 134 49 134 172 177 108 165 54 63 31 62 105 163 85 117 60 137 54 189 77 116 127 94 32 135 63 74 125 107 145 60 145 189 66 78 62 92 103 78 96 174 100 172 102 109 73 98 126 35 87 66 150 52 142 102 61 28 140 78 103 113 143 47 38 118 114 243 145 108 65 79 78 146 21 88 126 87 81 121 103 80 100 68 107 149 65 156 133 110 65 146 75 136 87 139 125 141 102 91 143 77 81 45 27 102 76 81 71 120 115 178 129 32 88 77 150 115 119 116 60 111 135 51 99 98 46 91 181 14 199 94 106 32 153 111 66 75 100 108 87 130 23 90 75 71 54 116 97 100 139 214 117 158 120 112 146 59 101 77 83 91 102 70 137 201 77 146 102 138 94 123 114 113 189 8 82 183 109 48 141 87 168 136 118 137 127 60 86 131 94 104 133 150 81 65 78 63 120 96 76 111 43 94 52 91 75 182 184 32 105 100 130 103 102 120 90 125 76 90 151 98 38 51 55 46 74 64 124 67 137 75 116 162 78 38 88 82 99 60 101 103 63 88 68 79 111 210 61 94 110 53 160 59 58 73 120 177 65 174 129 141 107 173 105 150 141 93 60 36 68 113 19 109 161 160 83 77 116 75 61 107 85 80 60 163 71 174 91 53 153 212 159 126 91 138 107 69 74 138 74 135 62 71 154 82 68 107 104 46 186 29 165 103 110 113 218 100 124 97 144 32 77 51 151 90 104 102 74 50 193 100 81 166 86 77 45 158 106 184 113 118 107 161 65 56 107 114 110 124 69 137 146 40 70 107 78 160 98 157 162 109 81 103 63 88 75 96 156 229 67 152 51 90 66 58 169 197 149 105 149 130 60 95 118 53 71 116 50 61 87 115 51 169 161 128 119 209 132 208 90 126 67 82 73 101 304 97 178 70 68 50 100 76 131 98 117 78 110 46 96 74 120 101 163 124 141 41 161 120 107 93 144 106 86 113 105 141 69 59 134 76 61 101 127 176 101 71 157 115 104 118 118 85 139 187 130 170 141 116 98 94 78 157 187 183 172 108 113 102 77 116 121 124 120 126 113 38 99 182 129 109 108 113 128 124 146 164 125 89 88 117 90 102 51 115 94 158 39 52 92 105 84 117 61 26 153 46 77 82 129 57 96 120 56 205 89 93 48 141 101 135 108 54 122 117 138 99 114 108 127 141 89 54 94 84 115 45 98 64 141 70 66 171 66 89 138 128 75 135 188 68 168 188 108 138 84 60 137 104 193 111 68 121 49 150 103 133 160 90 24 83 158 81 218 103 75 83 99 94 137 72 132 49 86 113 137 90 172 100 89 25 74 56 198 149 89 177 89 113 136 77 125 73 173 84 103 112 88 94 94 213 176 86 68 134 71 141 233 65 40 72 59 75 94 121 91 111 91 125 11 121 22 73 126 22 61 107 101 42 99 183 53 81 124 135 165 78 163 93 164 61 159 82 90 60 126 122 60 103 169 191 107 119 85 84 42 74 133 98 158 48 152 67 87 96 159 84 148 45 104 102 97 116 106 108 49 116 55 107 120 111 124 44 68 131 95 85 182 63 141 160 64 99 87 99 114 92 129 154 155 114 60 152 99 35 206 59 123 78 152 75 71 70 230 102 126 175 49 164 114 198 115 132 91 161 157 65 27 49 149 111 206 110 90 80 108 74 120 138 70 80 156 73 152 137 59 51 92 91 36 227 104 28 169 83 167 130 171 154 93 171 84 120 128 129 29 42 145 87 78 198 108 115 116 116 78 142 133 55 105 76 49 86 122 202 139 70 92 115 68 109 93 137 113 32 148 132 117 124 58 62 76 105 133 68 119 117 82 96 150 95 112 116 90 68 93 169 79 86 74 27 132 125 99 36 94 138 57 156 123 143 171 116 77 107 93 36 100 20 97 134 80 157 81 79 106 89 83 144 95 111 72 172 149 71 48 108 125 112 101 72 89 128 175 199 121 120 216 170 80 80 138 189 97 111 153 19 59 149 134 139 65 130 149 127 110 73 148 54 128 106 121 122 139 79 170 93 103 73 79 37 94 81 156 132 77 114 95 129 102 60 86 147 138 93 185 138 90 79 142 121 81 36 169 127 166 113 126 140 113 51 211 60 142 92 94 71 109 125 76 49 76 132 109 73 139 77 108 82 126 137 82 82 105 111 169 55 95 94 123 104 50 88 86 78 90 167 118 56 119 120 73 96 104 125 147 23 58 191 178 105 98 111 17 137 187 31 12 48 135 117 69 200 124 98 142 103 157 67 216 86 70 174 66 90 97 50 108 51 125 89 78 103 261 100 132 54 100 192 129 127 98 84 61 129 74 52 132 102 63 75 140 81 51 105 216 71 35 46 77 144 143 134 87 118 79 74 132 140 57 104 53 153 117 144 158 101 124 92 147 74 104 64 168 107 92 98 137 130 143 121 101 115 73 144 129 63 251 29 107 85 78 105 117 100 86 59 101 207 137 36 79 191 147 138 114 119 79 214 119 82 203 120 109 135 169 101 86 86 60 139 76 37 57 82 115 114 147 82 103 26 93 86 111 43 85 111 103 86 70 224 97 76 113 112 73 102 129 42 114 183 108 75 138 101 186 108 90 120 130 114 126 85 162 89 46 34 43 115 109 79 97 66 120 80 164 138 37 180 126 90 133 99 59 100 93 84 137 71 155 107 134 97 53 73 42 30 87 62 126 62 54 188 92 79 157 76 122 93 179 121 79 204 111 74 108 183 171 93 53 118 88 136 147 127 150 92 94 132 140 42 119 129 74 138 81 138 144 81 106 87 121 119 71 122 80 52 62 68 104 76 102 59 113 66 126 119 158 78 107 132 104 107 87 123 113 83 133 154 134 63 88 127 122 101 129 74 88 62 58 134 188 119 113 107 129 114 70 140 42 70 83 94 111 174 119 71 105 106 21 173 75 188 92 92 66 103 150 94 108 198 45 6 99 110 65 27 75 66 173 94 47 108 109 73 98 88 69 115 115 113 183 46 103 117 77 65 20 112 131 32 157 215 121 55 96 56 47 65 146 117 91 69 92 180 126 79 102 82 60 112 69 139 175 242 163 64 66 104 51 100 116 100 160 45 45 86 42 163 44 211 120 98 137 245 138 102 54 95 61 173 84 142 83 98 146 96 57 78 97 91 133 143 98 85 99 43 113 123 95 46 28 205 148 40 76 92 65 118 95 94 142 127 40 56 197 68 35 80 112 75 150 146 113 76 67 88 45 53 111 119 62 60 94 112 83 66 31 86 104 51 136 155 87 142 212 116 69 66 53 42 91 120 124 90 78 63 148 160 149 48 95 128 214 70 49 173 93 115 171 75 67 81 41 109 93 123 95 122 122 132 74 72 111 95 118 50 97 165 120 74 129 135 156 178 91 39 80 88 125 149 106 39 142 61 72 60 71 82 64 76 93 152 179 135 82 125 144 53 72 161 55 161 126 86 126 76 69 143 149 85 25 66 116 196 79 113 180 111 141 119 70 101 42 113 147 66 29 146 106 115 71 55 149 115 81 55 94 119 101 85 68 138 88 33 78 37 49 137 46 111 115 105 114 80 94 89 73 74 116 98 124 77 115 168 92 159 90 64 139 62 98 65 78 216 94 52 114 95 94 48 112 72 47 140 68 177 61 94 72 83 99 30 210 177 130 46 141 149 53 74 54 60 131 136 175 112 137 77 179 104 106 146 81 82 69 69 105 111 123 124 76 145 95 86 102 73 62 126 129 74 105 204 176 180 42 80 95 160 196 88 67 197 122 56 127 52 85 65 104 135 131 34 73 82 39 139 196 170 98 72 153 153 86 170 39 102 242 181 113 196 102 152 39 122 182 102 72 93 103 184 72 124 92 79 67 51 126 175 95 83 162 66 134 87 97 57 71 109 110 117 27 74 83 117 102 79 116 82 89 86 145 64 108 46 154 87 55 75 168 86 125 150 55 137 57 46 91 61 105 215 172 105 57 54 224 94 48 94 33 112 31 64 161 87 139 95 91 106 109 103 62 99 79 207 128 121 98 92 131 137 29 147 106 80 155 83 293 69 83 112 205 54 124 108 128 119 118 69 140 100 108 151 100 140 119 133 106 25 45 119 79 90 164 148 106 98 80 123 99 129 94 165 97 75 93 136 96 34 137 82 75 88 167 176 140 99 73 124 74 98 85 87 44 122 48 142 139 86 33 96 84 19 108 180 91 44 106 113 176 31 56 110 128 29 151 72 108 73 266 38 185 113 140 73 119 64 108 143 55 108 48 130 95 131 88 103 63 55 108 60 99 150 95 69 109 111 88 124 168 129 99 77 82 105 168 124 89 155 86 96 153 143 67 102 37 59 133 141 145 96 45 141 99 79 119 126 142 113 107 47 59 169 54 218 83 109 95 92 61 152 93 104 253 141 54 101 96 34 173 133 80 114 123 59 83 122 111 149 93 114 128 75 155 187 81 77 154 150 91 93 95 125 92 140 118 47 89 92 84 88 27 111 80 119 92 160 98 96 66 147 103 102 75 72 22 133 115 94 88 58 146 76 99 60 86 42 53 128 67 62 186 66 61 167 110 124 35 37 107 138 87 107 141 64 163 58 126 123 154 77 62 111 140 92 147 73 130 63 114 69 102 82 86 107 110 125 34 124 78 58 98 165 169 81 114 121 65 92 73 93 163 56 73 169 152 52 108 75 65 171 105 67 120 69 126 115 109 63 101 120 84 71 159 126 51 201 175 127 73 152 120 54 62 102 160 28 84 93 81 77 31 104 136 98 160 90 90 43 98 80 98 82 74 108 79 28 124 119 110 125 106 110 50 127 63 150 123 85 125 162 43 103 74 163 42 225 142 99 121 71 49 217 45 158 104 174 78 111 129 144 97 154 89 192 127 155 178 121 59 143 74 108 76 106 133 114 116 57 151 160 78 140 47 108 34 73 84 145 121 138 133 25 84 126 73 39 78 88 81 117 152 72 162 148 76 142 80 51 107 67 136 142 85 137 127 112 74 77 116 110 51 56 130 50 98 79 160 198 132 108 48 33 45 28 101 111 55 128 96 77 104 161 144 63 92 108 110 138 84 67 75 141 79 71 126 24 132 117 55 120 68 101 153 137 79 138 94 104 120 92 43 74 184 65 138 130 96 30 128 145 110 45 43 112 100 153 30 70 156 174 55 128 153 98 80 64 67 112 85 207 68 35 198 164 48 113 170 10 57 108 76 59 34 75 83 35 96 116 35 66 102 138 54 119 45 52 150 125 50 120 80 156 48 111 84 97 111 126 100 192 110 97 116 90 171 107 53 142 112 122 126 145 19 81 82 211 137 137 102 93 162 132 123 153 18 137 81 81 73 58 115 39 147 132 98 66 74 113 115 107 123 64 27 142 65 79 129 95 85 101 77 112 191 126 114 96 80 108 147 139 133 55 122 119 104 146 112 70 116 85 124 107 127 126 77 147 189 147 56 84 89 72 101 129 141 118 75 113 80 125 95 95 69 37 151 107 173 60 149 141 160 132 108 64 62 30 52 32 26 144 129 77 42 78 136 85 141 104 170 107 144 83 90 32 124 115 125 127 166 113 94 73 180 102 102 67 87 155 140 94 130 86 113 138 74 75 70 71 207 147 121 112 74 73 114 97 73 95 145 40 123 47 63 135 72 147 69 147 77 128 131 93 116 112 156 54 133 53 58 126 117 43 65 97 78 106 53 49 124 92 210 118 109 28 110 93 65 85 101 136 122 124 145 38 84 52 67 74 67 118 41 39 108 54 198 147 109 63 17 138 149 76 122 74 142 47 122 84 128 105 74 84 84 107 151 96 98 44 97 197 90 76 181 109 105 113 101 20 156 57 96 145 176 128 103 62 192 71 72 106 104 166 203 95 130 131 111 79 83 57 63 87 78 78 137 105 132 96 75 39 65 84 92 121 102 92 38 177 90 116 92 77 138 139 90 196 91 130 70 122 93 118 142 122 51 181 135 82 104 88 219 85 102 89 128 110 98 86 163 31 95 109 128 78 114 156 88 210 120 95 93 65 187 186 151 106 79 93 102 45 16 77 68 122 125 168 63 147 103 115 115 118 51 165 113 112 165 74 51 105 29 168 106 143 44 101 94 148 84 138 104 92 88 162 53 80 63 72 127 127 159 74 86 73 165 48 119 130 186 88 50 72 189 60 131 87 61 187 130 82 172 81 76 109 105 19 82 91 147 179 97 162 101 86 90 37 153 74 75 70 155 128 107 47 150 82 98 99 153 66 175 185 166 78 100 225 133 141 131 71 77 112 128 104 176 82 119 149 92 56 133 89 91 75 129 153 90 80 89 101 138 122 89 170 153 160 70 180 105 53 69 91 142 97 49 92 99 57 80 127 195 212 49 139 93 124 112 62 54 29 110 129 77 66 159 105 80 157 124 70 99 88 101 165 75 100 109 25 179 44 95 40 112 116 45 96 35 168 130 115 148 62 109 155 51 126 138 105 99 69 97 177 129 65 70 108 112 86 137 103 121 128 48 76 74 72 63 104 76 71 34 75 121 164 70 103 159 60 75 135 45 170 115 139 101 109 101 147 128 122 63 138 148 115 86 99 115 80 138 103 87 93 129 70 125 147 137 79 83 157 95 169 77 146 225 106 32 41 121 97 39 148 119 103 119 122 112 93 112 161 104 92 92 102 108 132 34 113 152 68 106 123 116 114 76 94 120 61 89 130 139 114 84 110 82 97 116 105 141 118 80 126 118 130 128 67 19 85 115 109 98 115 48 90 134 200 97 115 71 140 44 67 75 131 118 55 112 70 72 29 73 166 69 36 36 66 96 50 60 61 69 110 68 153 121 110 52 207 101 128 103 106 162 126 78 89 79 96 117 100 109 74 99 171 73 54 112 81 147 117 88 120 19 47 50 109 152 133 61 90 97 86 56 35 154 111 114 57 92 83 80 93 109 63 129 44 140 97 62 165 83 86 231 88 53 121 39 126 94 139 163 41 107 146 103 95 152 90 153 99 112 55 44 122 43 149 60 90 123 156 84 66 65 157 108 102 57 59 163 114 120 170 119 77 130 97 165 33 114 193 132 63 101 66 147 106 135 56 117 122 96 137 108 58 189 57 164 157 76 155 118 66 86 177 92 73 98 97 160 214 51 98 94 74 104 120 129 124 123 229 91 148 102 105 233 56 114 206 67 53 196 173 82 84 61 135 131 94 129 83 143 123 49 104 147 70 89 73 69 79 116 92 96 146 120 113 92 75 104 85 25 78 202 35 105 91 122 78 116 99 91 50 172 104 91 116 97 33 187 48 117 49 107 82 82 124 111 134 88 123 81 93 83 91 85 112 63 126 83 147 60 71 75 102 120 92 127 135 96 128 112 39 140 118 166 185 42 121 155 81 206 72 116 119 130 126 67 134 145 225 126 164 67 59 176 44 28 145 49 147 158 145 28 198 224 97 138 38 205 114 141 132 90 98 146 83 94 50 161 150 80 79 137 42 96 116 139 113 164 37 76 175 198 62 91 80 157 71 44 54 103 86 96 61 149 129 111 130 21 103 128 117 113 112 99 84 100 46 234 55 85 101 169 125 79 164 98 83 153 106 98 62 98 90 128 146 124 134 129 75 49 134 122 174 159 52 119 122 70 122 57 139 70 101 115 106 32 146 117 164 27 120 43 175 63 38 67 115 81 94 105 85 135 177 100 111 153 47 160 102 90 35 101 41 179 102 123 26 107 115 56 183 129 82 82 39 143 157 148 52 36 140 66 15 112 75 110 161 125 142 117 36 80 133 74 94 76 61 103 94 76 127 126 189 100 122 72 132 82 89 88 156 34 71 86 111 124 53 83 181 66 137 83 66 66 49 114 117 106 86 106 123 97 110 181 83 58 160 67 111 106 225 148 109 92 81 107 71 55 81 217 65 72 125 141 128 91 66 24 66 17 170 230 71 186 90 70 62 84 75 161 37 78 136 165 118 102 132 76 148 169 173 41 87 81 112 171 70 121 135 131 155 196 111 62 63 76 86 36 65 91 55 96 109 155 78 92 160 82 65 103 24 51 68 49 87 79 82 66 88 76 125 108 87 155 113 141 42 142 92 132 41 106 86 75 108 121 84 99 51 41 39 115 132 83 209 60 88 81 77 63 99 73 33 83 138 59 99 149 132 128 110 100 139 69 131 142 149 138 85 103 112 166 65 122 115 80 102 130 143 161 73 110 119 109 67 72 59 98 25 199 49 112 57 147 84 202 141 100 101 176 93 25 96 72 151 117 118 134 176 173 90 58 91 118 53 53 105 110 55 67 126 111 87 81 192 42 170 124 93 143 108 61 44 119 117 123 61 70 196 92 59 117 58 78 79 40 79 112 93 101 86 75 74 86 154 144 86 94 99 113 120 72 187 45 60 73 156 100 100 109 76 93 65 108 124 140 128 58 27 76 116 157 56 61 143 96 61 221 63 72 134 59 100 50 75 273 92 53 124 118 100 113 113 200 90 148 195 73 63 63 105 161 245 97 84 201 92 105 104 56 98 59 96 106 76 141 102 155 83 87 109 192 145 68 29 95 54 136 63 70 96 69 215 151 57 136 100 147 68 106 145 157 97 120 187 79 123 145 121 60 103 46 178 132 144 135 128 108 77 59 94 106 133 96 65 103 106 122 69 94 47 118 85 194 70 97 75 145 25 121 191 90 112 113 107 20 116 95 134 168 199 110 118 138 65 20 30 74 71 117 83 94 113 79 65 103 120 119 74 38 68 43 70 94 106 100 108 54 110 158 155 123 71 110 151 32 151 158 84 66 142 121 95 78 41 104 127 96 39 36 129 127 129 42 144 120 104 240 86 112 50 106 119 75 137 219 93 21 104 76 124 77 69 166 134 190 88 139 72 148 80 54 76 167 84 102 110 93 149 87 87 145 149 117 66 120 94 56 116 58 37 54 77 49 55 110 129 70 56 101 160 96 103 143 112 77 77 177 95 206 151 138 55 77 64 73 77 91 104 90 127 45 111 107 112 95 110 106 139 165 35 132 107 61 44 131 104 107 257 102 61 88 65 72 116 149 153 134 67 116 88 69 161 184 106 124 76 197 102 102 183 53 87 36 110 161 44 139 60 132 114 69 67 166 133 118 155 77 47 102 139 121 76 49 67 68 129 41 119 111 42 102 71 64 72 91 86 104 152 209 117 144 110 84 96 103 100 71 89 148 154 134 150 66 116 108 84 39 44 123 116 15 123 101 69 94 103 149 137 99 109 107 100 111 115 138 147 131 89 127 127 115 93 91 142 55 83 164 106 99 37 89 106 67 111 58 138 27 42 54 171 46 50 70 38 105 40 68 154 119 129 157 83 77 182 139 146 87 79 180 176 50 171 95 122 156 176 176 101 103 66 192 66 43 116 101 32 170 105 97 130 51 76 110 183 72 112 100 82 121 136 112 75 113 64 109 67 120 64 149 82 67 132 91 31 61 115 114 92 27 83 88 54 110 107 68 159 41 51 46 119 145 96 204 102 38 64 152 78 124 126 136 76 124 75 193 159 82 97 79 163 154 84 183 76 46 166 89 148 108 61 112 131 124 92 163 153 33 174 89 46 92 153 63 182 67 58 38 67 101 97 167 49 81 214 81 124 114 111 95 148 153 165 111 154 183 52 81 130 48 71 27 72 47 69 102 97 187 62 105 113 69 91 85 101 109 68 34 125 102 91 129 128 91 63 82 92 81 134 135 137 176 88 101 86 64 145 103 56 76 40 113 56 214 94 54 174 50 56 132 94 69 85 69 69 132 135 60 131 60 97 66 76 140 98 120 108 104 77 118 92 53 86 63 118 103 110 161 77 28 80 124 98 66 145 74 96 177 74 27 36 133 110 81 160 116 197 138 85 76 102 115 148 211 105 60 136 107 87 219 86 82 138 150 81 49 93 85 88 100 74 69 86 104 132 147 156 120 19 83 97 129 84 122 166 99 133 134 115 140 108 53 152 188 86 51 111 43 73 28 199 152 66 80 100 72 165 44 74 80 164 220 171 91 117 121 101 138 114 112 69 171 79 120 72 59 114 59 161 116 161 120 113 86 37 44 77 65 137 91 48 72 129 99 40 42 23 122 69 92 79 88 93 94 54 131 117 123 61 103 135 71 99 50 119 153 77 111 71 102 64 121 69 94 90 87 79 139 23 25 130 122 90 42 172 112 98 100 162 59 145 136 128 195 115 95 84 84 105 109 87 122 157 84 108 103 103 81 104 78 105 92 119 42 126 106 135 139 82 174 42 117 71 141 138 70 106 46 216 136 64 211 105 210 101 176 76 139 60 153 172 39 108 104 154 94 63 89 38 77 142 43 96 141 169 210 117 89 105 28 34 104 95 92 129 112 116 85 93 141 109 177 75 24 123 68 87 83 124 139 112 76 126 62 106 75 127 73 166 111 131 60 50 135 135 148 88 58 134 147 120 149 143 88 31 71 117 43 97 72 169 144 165 117 143 47 80 62 129 140 94 32 60 56 96 138 75 75 62 121 163 97 85 102 79 62 33 122 84 157 42 77 103 128 113 132 135 138 135 88 84 54 86 84 94 72 137 163 42 125 209 183 8 32 103 41 63 129 116 95 101 102 133 83 122 73 90 100 32 104 89 67 94 105 95 105 138 158 61 132 110 46 90 58 126 73 89 125 60 152 79 181 84 141 40 132 213 98 82 26 109 185 54 30 69 169 127 78 144 115 154 130 101 164 142 118 156 118 110 93 136 97 107 142 146 145 106 111 114 113 81 149 135 127 199 154 118 106 51 21 115 163 114 54 133 84 83 80 105 136 163 24 56 82 70 123 45 189 116 99 39 94 103 111 98 153 142 74 85 109 53 211 162 135 126 72 97 87 76 161 104 176 100 218 100 28 162 57 125 126 138 68 74 186 84 18 47 50 150 134 114 133 76 80 154 60 83 105 117 101 107 90 131 254 137 130 155 66 81 194 72 80 91 78 102 144 75 160 165 132 163 110 224 113 121 49 163 151 123 181 88 50 155 41 119 82 150 97 85 127 76 24 111 152 80 171 74 121 64 121 136 82 69 79 159 68 99 67 174 180 172 69 150 150 133 108 139 150 148 128 117 116 162 120 137 69 96 135 85 133 170 103 158 96 115 95 114 73 116 72 232 56 85 77 103 148 113 73 119 61 93 66 161 169 89 61 144 86 122 97 39 116 234 119 81 162 84 66 112 84 140 87 195 84 59 116 171 67 77 128 117 57 82 104 65 195 137 132 82 72 116 115 107 98 106 78 145 103 172 65 79 94 64 83 219 142 116 106 171 52 58 80 26 67 105 113 83 165 103 95 162 135 61 165 108 159 180 110 100 105 55 113 157 32 104 69 132 113 76 92 122 161 133 141 137 106 146 118 131 47 86 94 105 87 120 53 57 79 140 61 56 112 170 24 102 180 71 161 147 94 165 104 64 87 123 75 94 83 139 79 87 177 70 141 139 208 104 172 115 94 140 49 39 132 148 97 153 45 71 71 200 45 65 212 163 105 207 112 25 87 75 78 105 85 112 116 57 23 74 87 168 148 171 95 131 87 131 124 78 119 64 124 104 39 87 46 126 154 141 150 99 199 67 184 38 109 128 127 170 114 83 128 190 118 35 71 103 59 118 96 158 42 73 154 106 7 130 100 159 190 111 93 37 77 129 243 129 126 125 161 96 92 126 93 90 111 142 152 107 96 42 106 97 116 93 158 38 50 164 91 177 94 68 116 86 87 107 72 55 86 113 74 146 174 131 64 166 109 58 148 104 49 184 133 45 182 69 117 125 89 175 115 78 133 150 123 26 79 99 50 120 142 70 135 33 78 12 118 129 70 75 119 104 91 102 38 153 118 133 30 112 28 76 168 93 108 102 55 118 74 87 88 48 25 103 86 109 65 115 126 165 73 134 54 71 155 182 146 125 68 62 84 119 151 143 27 107 55 151 69 39 176 74 85 75 113 149 118 153 62 52 100 74 138 111 108 87 125 64 33 99 118 162 137 176 33 96 103 147 89 46 45 87 183 145 105 119 116 96 109 132 116 189 148 21 88 90 132 92 126 68 48 124 138 115 156 111 62 90 122 63 62 57 105 85 80 55 111 36 101 98 71 63 36 142 135 104 18 104 66 68 68 113 77 93 103 32 91 198 77 128 61 43 142 110 150 116 54 181 140 110 93 106 131 109 205 176 101 119 56 36 65 245 86 99 86 82 104 75 99 127 155 105 100 24 98 148 140 121 69 88 96 126 157 28 100 118 161 13 104 85 122 98 58 123 122 42 21 91 115 51 77 93 54 77 91 160 48 115 83 96 147 74 107 71 127 128 164 92 82 103 95 95 160 106 132 138 143 26 58 125 40 182 102 94 58 85 124 126 79 65 117 100 111 111 88 71 92 135 101 104 52 79 49 60 49 100 82 58 117 137 73 163 102 107 88 117 61 145 129 55 158 44 124 34 125 68 108 207 55 86 142 105 107 133 128 107 152 91 134 114 67 62 54 132 106 56 41 140 42 171 46 78 171 86 141 40 148 275 130 153 103 120 222 141 140 78 109 68 81 64 99 121 48 59 41 147 47 80 48 101 78 50 101 125 126 90 113 36 94 140 53 187 59 84 50 157 71 169 85 135 108 76 122 178 56 145 162 72 101 106 106 127 130 152 127 126 96 131 196 154 100 122 128 62 89 15 72 156 73 50 143 114 64 72 118 133 158 95 101 67 73 132 54 67 108 109 88 89 113 107 68 90 113 78 101 102 17 129 134 141 82 87 146 125 127 82 51 33 76 39 138 19 54 139 79 99 57 92 68 91 113 94 111 122 46 109 152 108 19 137 133 97 18 54 100 186 88 69 62 89 125 155 81 106 65 141 214 129 114 17 90 139 140 47 171 204 121 160 148 85 150 133 61 80 75 85 52 104 89 85 71 174 163 88 148 60 39 158 175 220 68 109 82 113 166 84 28 173 30 145 73 74 139 90 140 66 140 125 88 119 168 50 106 71 141 55 100 123 191 102 134 88 115 93 96 70 116 205 69 76 85 106 43 97 186 124 77 99 59 117 174 105 144 157 113 88 123 49 100 143 62 107 71 115 51 70 120 69 90 25 93 140 70 59 54 62 86 86 185 114 117 85 -7 163 110 24 154 78 137 83 70 73 88 155 56 116 164 156 112 57 111 105 55 141 130 29 124 93 161 86 27 143 130 127 108 29 108 101 146 76 153 116 78 91 68 90 72 132 66 60 66 122 66 118 89 56 98 221 37 155 138 158 116 146 60 58 161 149 198 159 39 81 67 87 65 109 56 56 125 134 171 136 119 103 113 59 144 143 57 99 41 127 78 57 151 116 67 125 105 39 83 76 117 96 39 147 143 81 96 125 109 121 103 96 168 124 103 54 82 114 170 89 204 148 57 82 131 109 74 114 118 93 164 21 116 83 81 94 103 104 148 118 61 75 86 177 77 77 22 114 85 173 63 59 97 156 82 67 171 149 45 84 40 101 99 108 58 51 89 49 144 121 148 105 124 91 139 92 171 79 69 76 193 143 134 117 182 224 134 145 138 89 102 108 91 77 133 62 123 103 99 102 87 93 79 134 108 95 83 97 143 45 180 124 74 48 101 161 69 149 172 65 118 121 84 108 53 234 143 74 96 100 136 95 96 127 98 76 85 82 147 144 93 111 72 74 57 125 138 68 210 152 80 158 64 109 185 23 137 39 74 73 188 77 107 109 85 53 52 87 86 71 56 81 130 131 42 22 75 66 71 79 95 190 65 88 95 128 60 97 75 36 69 108 159 73 181 201 60 77 157 18 104 19 65 85 154 144 80 140 115 158 174 80 73 141 85 79 114 140 57 105 58 180 79 101 125 128 123 164 145 75 90 86 136 71 192 39 52 225 109 64 45 77 124 98 121 88 98 60 150 85 39 58 172 117 124 92 60 91 120 140 182 92 117 84 97 109 43 81 158 153 139 61 133 179 184 107 72 60 113 118 67 98 161 88 70 79 103 83 139 90 53 81 78 105 82 74 94 28 111 125 80 125 136 119 146 136 96 86 135 111 60 111 105 16 58 58 129 151 253 102 84 109 92 121 101 92 126 123 147 75 61 121 78 96 106 134 100 74 124 139 66 52 174 98 113 40 75 107 52 102 62 118 70 126 112 158 152 75 99 89 174 102 98 80 129 74 173 122 111 97 166 69 136 97 59 60 106 110 151 68 120 105 49 78 81 76 66 97 177 99 29 75 78 93 168 73 57 152 87 160 176 92 94 129 108 102 78 119 71 60 121 91 102 95 125 47 93 52 86 51 76 151 116 114 164 124 227 23 98 92 106 46 140 115 117 51 126 128 113 121 43 51 166 133 77 49 162 73 130 137 68 78 52 66 158 86 53 110 92 96 58 139 130 104 125 117 162 90 84 26 118 68 216 89 33 82 114 117 80 148 83 96 102 154 32 153 73 63 101 102 90 23 95 49 61 93 62 51 209 69 118 164 138 127 68 106 192 116 94 75 106 51 87 29 80 91 183 109 155 25 233 35 72 135 81 112 177 71 160 175 76 76 101 116 99 154 124 93 29 100 124 137 74 65 166 119 142 73 83 67 65 150 66 131 165 148 171 105 92 92 122 87 101 90 138 133 102 66 142 123 108 116 189 47 130 75 41 104 149 104 63 174 52 53 104 88 103 81 53 116 126 75 108 145 103 115 143 144 139 54 86 117 103 125 113 113 130 125 137 44 137 176 156 65 106 51 54 191 146 95 132 91 65 79 128 140 63 124 113 47 64 154 37 151 73 45 125 91 53 141 64 96 173 109 60 104 112 21 114 133 109 92 87 99 57 96 145 96 116 95 68 103 103 88 52 109 80 60 84 107 109 155 83 49 174 171 69 96 129 152 153 97 169 148 82 156 92 142 91 148 135 83 100 104 28 193 96 176 116 116 154 132 149 21 190 77 90 58 127 91 119 56 123 97 208 78 94 94</t>
-  </si>
-  <si>
-    <t>GAM(0.11841352772891377, -6.339973177216796e-29, 0.7235154917127651)</t>
-  </si>
-  <si>
-    <t>0 1 0 1 2 1 0 0 1 0 0 0 0 1 0 1 0 0 2 0 0 1 2 0 3 0 1 1 0 1 2 0 1 1 1 1 1 1 1 1 2 0 0 0 0 1 1 1 1 1 1 1 1 0 2 1 0 0 2 1 0 2 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 2 1 0 2 1 0 1 0 1 0 0 2 1 2 1 1 0 0 2 0 1 1 2 0 0 0 2 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 2 0 0 1 1 1 3 0 1 0 0 1 2 0 2 0 0 1 2 2 3 0 0 1 1 0 1 0 1 1 0 1 2 1 0 1 0 0 0 3 3 2 1 0 0 0 0 0 1 0 0 0 3 0 0 2 0 1 0 1 1 0 0 1 2 0 1 0 1 0 1 2 1 1 0 0 2 0 1 0 1 1 0 0 0 1 3 1 0 1 1 0 1 2 0 2 0 0 0 3 0 0 0 1 2 0 0 1 0 1 1 1 1 2 0 2 0 2 1 2 0 2 1 0 0 0 0 2 1 0 1 1 2 0 0 1 2 1 0 1 2 0 2 4 1 2 1 1 0 1 1 0 0 1 2 2 0 1 1 2 0 1 1 0 2 0 0 1 0 0 0 0 1 1 1 0 0 0 0 3 1 1 2 1 0 1 0 0 1 1 1 1 3 1 2 1 1 1 1 0 0 0 0 0 0 3 0 1 0 1 3 1 0 0 0 1 1 0 1 1 0 2 1 1 1 1 1 0 1 0 1 2 0 1 2 1 2 2 1 1 1 0 1 1 1 2 2 0 0 1 1 2 1 1 1 1 0 0 1 1 1 0 0 0 1 2 2 2 1 2 2 0 0 0 2 2 0 2 1 0 1 0 1 1 1 0 2 0 0 0 4 1 0 1 0 1 0 0 2 0 1 1 0 0 0 0 0 0 0 0 1 0 1 2 1 0 0 1 4 0 2 0 1 0 0 0 1 1 0 0 1 2 1 0 3 0 2 0 1 2 1 1 0 1 1 0 1 0 0 1 0 0 1 0 0 1 2 0 1 0 0 0 1 2 0 1 3 1 0 0 1 1 1 1 2 1 1 1 3 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 2 1 0 0 0 1 2 2 1 0 0 2 1 0 0 0 2 0 0 2 1 0 1 1 0 0 0 1 2 0 0 1 0 1 1 0 1 3 1 2 0 1 1 0 0 1 0 0 1 1 1 2 3 0 1 2 1 1 0 0 1 1 0 0 0 0 0 0 2 0 0 2 0 1 3 0 1 0 0 2 2 1 0 1 0 0 1 1 0 2 0 1 0 0 0 1 0 0 2 0 0 1 0 1 0 0 1 0 0 0 1 0 2 1 0 0 1 1 0 1 2 1 0 0 0 0 0 1 0 3 2 0 3 1 3 0 1 1 1 2 1 0 1 1 1 0 2 0 1 2 2 0 0 0 0 0 0 2 1 2 1 0 1 1 0 0 2 0 1 1 0 0 1 1 0 0 2 0 0 2 1 0 0 1 0 1 0 0 2 2 0 0 0 0 1 1 2 0 0 2 2 1 1 1 0 0 0 0 1 0 1 3 0 1 0 4 1 1 1 0 0 3 1 0 1 0 2 1 3 0 0 1 1 1 0 0 1 1 0 3 1 0 1 1 1 0 0 1 1 1 0 1 2 2 0 0 0 2 1 0 1 2 0 0 0 0 1 1 1 1 2 1 0 1 2 0 1 1 1 1 0 2 1 2 2 1 1 1 1 0 1 0 1 0 0 1 0 0 0 0 2 1 0 0 2 1 3 0 0 3 0 1 1 0 0 0 3 0 0 1 2 1 0 1 1 0 0 0 4 0 1 1 1 0 0 1 0 0 0 0 1 1 1 2 2 0 0 1 2 2 1 1 2 1 2 1 1 0 0 1 1 0 1 2 0 2 2 0 2 1 1 1 4 1 0 1 0 0 0 0 0 1 1 1 2 0 2 0 0 1 2 1 0 2 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 3 2 1 0 3 1 1 0 0 1 0 2 0 1 0 0 1 2 0 0 1 0 2 2 3 0 0 0 0 1 1 0 0 1 3 1 1 0 1 0 1 0 0 0 0 3 2 0 1 0 3 2 1 3 2 0 1 2 1 1 0 0 0 0 0 1 0 1 0 0 1 1 1 1 1 2 0 0 1 2 2 2 0 1 0 1 0 1 0 2 1 0 0 0 2 0 1 1 2 0 1 0 2 1 1 3 1 0 1 0 1 0 0 1 0 2 3 1 0 0 2 0 0 1 2 1 2 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 1 2 2 1 1 0 2 1 2 1 0 2 1 0 0 0 0 0 1 0 0 1 3 0 0 0 0 0 0 1 2 2 1 1 0 2 0 0 1 1 1 1 0 1 0 1 1 1 1 2 0 3 1 0 0 0 0 0 0 2 0 1 0 2 0 1 1 1 0 1 1 1 0 1 0 0 0 2 2 1 1 1 0 1 0 0 1 2 0 0 0 2 1 0 0 1 3 0 2 0 1 0 0 1 1 2 0 0 0 0 0 0 2 0 0 0 2 1 0 0 0 0 1 1 2 2 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 1 4 0 0 0 1 0 0 0 0 1 0 1 2 2 1 1 0 0 2 1 0 1 0 1 0 1 1 2 1 0 0 0 1 1 0 1 0 0 1 0 0 2 1 1 0 0 2 2 0 0 0 0 2 0 0 0 1 1 1 1 0 0 0 0 0 1 4 2 1 0 3 2 1 0 0 1 1 1 0 1 1 0 1 0 2 2 0 0 0 0 0 1 1 1 1 2 2 2 0 2 1 0 1 1 1 1 0 0 0 0 0 1 2 0 1 2 0 2 1 1 1 0 2 0 0 0 2 1 0 0 1 1 1 0 2 1 1 2 0 1 0 0 1 1 1 1 2 0 1 2 0 0 0 1 0 1 0 0 0 1 1 2 3 0 1 3 0 1 1 3 0 1 1 1 1 1 0 1 2 1 0 1 0 0 1 0 0 1 2 1 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 2 1 1 1 0 0 0 0 4 2 1 2 1 1 0 1 2 1 0 0 0 2 1 2 0 1 0 1 0 0 1 1 1 1 1 2 0 2 0 0 3 0 1 0 0 1 2 3 2 0 0 2 1 0 2 2 1 4 1 0 1 2 0 0 1 0 0 0 1 0 0 1 0 1 1 1 1 0 0 2 1 0 1 1 2 2 0 0 0 0 0 0 1 0 0 1 2 0 1 1 0 0 0 1 0 1 0 0 0 1 1 2 2 0 2 1 2 1 0 1 0 3 1 0 1 0 2 1 0 0 1 1 0 0 1 0 1 1 2 1 1 1 0 1 0 1 1 1 0 0 1 0 1 1 0 2 1 1 1 0 0 0 0 1 0 3 0 1 0 2 0 0 0 2 2 1 0 2 1 1 0 0 1 2 0 1 0 0 1 1 0 2 1 0 1 0 0 2 0 0 2 1 0 1 2 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 3 0 1 0 0 0 0 0 1 1 3 0 1 0 1 1 0 2 0 1 0 2 1 1 1 1 1 0 0 0 1 0 3 1 0 0 0 2 0 1 0 2 0 1 1 1 1 1 2 0 0 1 0 0 0 0 3 0 0 2 1 1 0 1 2 2 0 0 1 0 1 0 1 2 0 2 0 0 0 2 1 1 2 1 3 0 0 1 0 2 0 0 0 0 2 0 2 1 1 0 1 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 2 1 1 0 3 4 1 1 2 1 0 0 2 1 1 0 0 1 0 1 0 0 1 0 0 1 0 0 1 1 2 0 2 0 0 1 0 1 2 0 1 1 3 1 1 2 1 2 2 0 0 1 2 0 2 1 1 0 0 1 2 1 0 1 1 0 1 3 0 1 1 2 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 2 2 0 2 1 0 0 1 0 1 0 0 1 0 2 1 1 1 0 2 1 1 0 0 1 1 0 1 3 0 1 0 0 1 0 1 1 0 1 0 1 0 1 1 2 0 0 1 1 1 2 0 2 3 2 1 1 0 1 2 1 0 0 1 1 1 1 0 1 0 1 1 1 1 2 0 0 0 1 1 1 0 1 2 0 1 1 1 1 0 1 1 0 1 0 0 1 1 0 0 0 1 0 0 1 1 0 1 1 0 0 0 3 1 1 1 0 0 2 2 0 3 0 0 2 2 0 0 0 2 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 2 1 1 3 0 1 1 3 0 2 0 1 0 0 2 1 0 1 2 1 1 1 0 0 0 0 0 2 2 0 1 1 0 1 0 0 2 1 0 1 0 0 1 1 0 1 2 0 1 1 0 1 1 0 2 2 1 0 0 1 0 1 1 2 0 1 2 2 0 2 0 0 1 1 0 1 0 2 0 0 1 0 0 0 0 2 1 1 0 1 0 0 0 0 0 1 1 0 2 0 1 1 0 1 0 2 0 0 1 1 1 0 1 0 2 2 0 0 1 0 1 0 1 1 0 0 1 1 0 2 1 1 0 1 1 1 2 1 0 0 0 0 1 0 2 0 1 1 0 0 3 1 1 0 3 0 3 0 1 1 1 0 2 0 0 1 0 3 0 0 1 0 1 0 0 0 2 0 0 0 0 1 0 1 3 1 0 1 2 1 1 1 0 0 2 1 4 0 1 2 0 3 0 1 0 1 2 1 0 0 1 0 0 1 0 3 0 0 0 2 1 0 1 0 0 1 3 1 0 0 0 0 1 0 1 1 0 1 1 1 1 0 0 0 2 0 0 0 2 1 1 0 0 0 0 1 0 0 0 0 2 0 1 1 0 0 0 1 1 2 0 0 0 2 0 0 0 0 0 2 2 1 0 1 0 1 0 1 2 1 0 1 1 0 0 0 0 1 0 0 0 0 2 0 0 2 2 0 0 0 0 1 0 0 1 2 1 1 1 1 2 1 0 2 1 0 1 0 0 0 0 1 0 0 1 0 2 1 0 1 2 1 0 1 2 1 3 0 1 0 0 0 0 1 0 0 2 2 0 1 0 1 0 2 1 0 1 2 1 1 1 0 0 3 1 2 0 1 1 0 3 0 2 1 0 2 0 2 1 2 0 1 1 1 2 0 0 1 2 1 1 1 0 2 0 1 0 0 0 0 4 1 0 0 1 2 0 0 0 0 1 2 1 1 1 1 1 0 0 1 2 2 0 0 2 0 1 0 2 1 1 0 0 1 0 0 1 1 1 0 1 3 1 2 0 2 1 0 2 1 0 4 1 0 0 0 2 1 0 1 1 3 1 1 1 1 1 1 0 1 0 0 2 1 0 0 1 0 1 0 0 0 0 2 1 1 0 0 0 1 0 1 1 1 0 0 1 2 2 0 0 0 2 1 1 2 2 0 1 0 0 0 1 0 2 0 0 0 0 2 1 0 2 2 3 0 0 2 2 0 1 1 0 1 0 0 0 1 1 1 0 0 1 1 0 0 1 0 1 0 0 0 2 0 0 1 0 1 2 0 0 1 1 0 0 1 1 2 0 2 0 0 0 0 0 1 2 0 0 2 4 1 2 1 0 1 0 0 2 1 0 0 0 1 1 0 0 0 0 1 0 0 0 2 2 1 3 1 1 0 0 0 1 2 0 0 1 0 0 1 1 0 1 0 2 0 1 0 0 3 0 0 1 1 1 1 0 2 0 1 2 0 0 0 1 0 3 1 1 1 1 0 3 0 4 1 0 0 1 0 0 1 0 2 0 1 3 1 1 1 0 0 0 0 0 1 1 0 0 2 0 3 0 1 1 1 0 0 1 1 1 1 1 1 1 1 0 0 0 0 0 1 1 0 0 2 1 0 2 0 2 1 0 1 2 1 1 0 0 0 1 1 0 1 1 0 0 1 1 2 2 0 1 1 0 1 0 0 1 0 2 1 2 1 0 1 0 2 1 2 1 1 0 2 0 1 0 1 1 2 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 1 1 1 1 1 0 1 2 0 2 2 0 1 3 1 0 1 0 1 0 0 0 0 0 1 0 1 1 2 0 2 1 1 1 2 0 1 1 0 0 0 0 0 1 1 0 3 1 1 0 1 0 1 2 0 0 1 0 0 3 1 0 1 1 1 0 0 1 0 2 1 3 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 2 0 0 0 0 1 1 1 2 1 0 0 0 0 0 0 2 0 1 1 0 1 0 1 1 0 0 1 0 0 0 0 0 1 1 3 0 0 1 2 1 1 1 0 1 0 0 0 1 2 1 2 1 1 1 2 2 1 1 0 0 0 0 1 0 0 2 1 1 2 0 1 0 0 0 0 1 2 1 2 0 1 3 2 1 0 1 1 0 0 0 1 2 0 0 1 2 0 1 0 0 0 1 0 0 1 0 1 1 1 1 1 2 0 1 0 1 0 0 1 1 2 3 0 1 0 1 0 0 1 0 0 0 1 1 1 0 0 0 1 2 1 0 1 1 0 0 1 1 1 2 1 1 0 0 1 0 0 0 0 1 2 0 2 0 0 0 0 0 1 3 0 2 1 1 1 1 0 1 0 0 0 0 1 0 3 2 0 0 0 1 2 0 0 1 0 0 1 4 2 1 1 0 0 0 0 3 0 1 0 2 0 0 1 0 0 1 0 0 0 2 2 2 0 1 2 0 0 1 1 1 1 1 0 2 3 1 1 2 0 1 0 0 0 0 1 0 3 1 3 3 0 3 0 0 1 1 5 0 0 1 0 0 2 2 0 0 1 2 1 0 4 0 1 1 1 1 0 2 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 2 0 1 0 0 1 1 1 1 3 0 0 0 2 0 0 1 0 2 0 0 1 0 0 1 2 0 0 0 0 0 1 0 0 0 0 1 2 0 1 0 1 1 1 2 0 1 3 2 2 0 1 1 0 2 1 0 2 0 0 0 3 3 2 0 0 0 0 3 1 1 0 0 3 1 0 1 0 1 1 1 0 2 2 0 0 0 0 2 2 0 2 1 0 1 1 0 1 0 1 1 0 0 0 0 2 2 2 0 0 1 1 2 1 0 1 1 1 2 0 1 1 0 2 0 1 0 0 0 0 3 1 1 0 0 1 0 0 2 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 1 1 2 0 1 2 0 0 2 1 3 0 3 0 1 0 0 0 0 1 2 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 1 2 0 2 1 0 0 0 0 3 0 1 1 0 2 0 2 2 2 1 1 0 1 1 1 0 1 0 2 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 1 1 1 2 0 1 0 2 1 0 0 0 1 2 0 1 1 0 2 0 1 2 1 0 1 1 0 1 3 1 2 1 0 0 1 2 2 0 0 2 0 0 0 2 0 2 1 2 1 0 0 1 2 0 2 0 1 1 0 1 0 1 1 1 1 0 2 1 0 0 0 0 0 2 1 1 0 0 0 1 0 0 2 0 1 1 0 1 3 0 1 1 0 0 1 1 0 2 1 0 0 0 2 0 0 0 1 1 3 1 3 1 3 1 1 0 0 3 1 0 2 0 1 3 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 1 0 1 1 1 0 3 0 3 1 2 1 0 1 1 1 1 1 3 0 3 2 0 1 0 0 1 0 2 1 1 1 1 0 0 1 2 0 1 1 1 1 2 1 1 0 0 0 1 0 2 0 0 0 0 0 1 0 1 2 1 0 1 0 0 1 0 1 1 0 1 2 0 0 2 1 0 1 1 1 1 0 0 5 1 3 0 1 0 1 2 0 0 0 1 0 0 1 1 0 0 2 1 0 2 0 0 4 1 1 0 1 1 0 1 1 1 2 1 2 2 1 1 2 1 1 1 0 1 1 0 0 1 0 0 0 0 2 1 0 3 0 0 0 1 3 4 2 0 0 0 1 2 0 0 1 0 1 1 0 2 1 0 0 1 0 0 0 1 0 1 0 1 1 0 0 1 2 0 1 1 0 2 0 1 1 0 1 2 0 1 0 1 0 0 0 0 2 0 0 0 1 0 1 3 1 2 1 1 2 1 0 2 1 0 1 0 1 0 0 0 2 1 3 2 0 0 2 1 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 2 0 2 1 0 2 0 2 1 0 1 1 0 0 0 0 0 0 1 2 0 0 0 1 0 2 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 2 1 0 1 0 0 2 1 0 0 0 1 1 1 1 1 1 1 1 1 0 0 0 1 0 1 0 0 1 0 1 1 1 1 0 2 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 2 2 2 0 0 0 1 1 1 0 1 0 3 1 1 1 1 1 1 0 0 0 2 0 0 0 1 0 1 0 1 1 2 1 1 0 1 0 1 0 1 1 1 1 0 1 1 2 0 1 2 0 0 2 3 0 0 1 1 2 1 0 1 0 0 1 2 0 1 2 0 0 0 1 1 1 0 0 1 1 0 2 2 3 0 0 0 1 0 1 1 0 1 2 2 0 0 1 0 0 2 0 3 3 2 2 1 0 0 0 1 1 1 1 1 1 1 1 3 0 1 0 1 1 0 2 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 1 1 0 0 0 0 0 2 1 0 0 2 1 0 1 1 1 2 2 0 0 0 1 1 3 0 0 0 0 1 2 1 0 0 1 1 0 2 0 2 0 0 0 1 1 1 0 0 0 1 1 2 1 3 2 1 0 1 1 0 1 2 1 0 1 0 1 0 0 0 0 1 3 1 0 2 0 0 0 0 0 1 0 1 1 1 1 1 1 2 0 0 1 0 1 0 0 3 0 1 1 1 1 0 1 1 1 0 1 1 1 0 0 0 1 0 0 0 1 0 1 0 2 0 0 0 2 0 0 2 1 1 1 2 1 1 0 0 2 2 0 3 1 1 0 2 2 0 0 1 0 0 0 1 0 1 0 1 2 2 0 1 2 1 0 0 0 1 0 0 1 1 2 0 0 1 1 2 0 1 1 0 0 0 1 2 0 0 0 0 1 0 0 1 1 1 1 0 1 0 0 1 0 3 1 0 1 1 1 0 0 1 0 1 0 2 0 1 1 0 0 0 0 1 2 1 1 1 0 0 0 1 1 2 2 0 0 1 0 1 0 1 1 0 0 0 1 0 0 3 0 1 1 0 1 1 1 1 0 1 0 1 2 3 1 2 0 2 2 0 1 2 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 2 1 0 1 1 2 0 0 0 3 1 1 0 1 0 0 1 1 2 0 0 0 0 1 2 1 0 1 2 0 2 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 1 1 0 0 2 0 3 0 0 0 1 0 1 0 2 1 2 0 0 1 0 0 1 1 1 1 0 2 1 0 0 1 1 0 0 1 2 1 1 0 1 0 2 0 0 0 1 2 0 1 2 0 2 1 2 2 1 1 2 3 1 1 1 0 0 0 1 0 1 3 1 1 2 0 0 1 1 1 0 1 1 0 0 1 1 1 2 2 1 1 0 2 0 3 1 1 2 1 1 0 1 1 2 0 0 0 4 1 1 1 0 0 1 2 0 0 0 1 0 0 0 2 1 2 0 0 0 2 1 0 0 2 1 0 0 1 1 0 1 1 0 0 3 1 2 0 0 0 0 0 1 2 1 0 1 2 0 1 1 0 0 2 1 1 0 1 0 0 3 0 1 1 1 1 0 0 0 1 0 1 1 0 0 0 2 2 0 0 0 0 1 0 0 0 0 3 0 2 0 1 3 1 2 0 0 3 0 3 0 0 2 2 0 2 0 1 1 1 0 2 2 0 2 1 0 4 0 1 1 0 0 1 1 2 0 1 1 1 1 0 0 1 1 3 1 0 0 2 1 0 0 2 0 1 0 2 0 1 1 1 0 0 0 4 0 1 1 0 0 0 3 0 0 0 2 0 1 0 0 0 0 1 0 0 2 1 0 2 2 1 1 0 1 1 0 0 2 0 2 1 2 2 0 0 0 1 2 0 2 0 0 0 0 0 0 1 0 2 1 1 0 2 0 1 0 1 0 0 0 0 1 0 0 2 3 0 0 2 1 1 1 1 0 0 1 1 0 0 2 0 2 0 0 3 3 0 0 1 1 0 2 0 1 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 2 0 1 1 1 0 1 1 0 1 2 0 0 3 2 1 1 2 0 1 0 1 1 1 0 0 0 1 1 1 0 4 0 0 3 0 0 2 0 1 1 1 1 2 1 3 1 0 1 1 1 0 3 1 1 0 0 0 1 1 0 0 1 0 3 1 0 1 0 1 0 1 0 0 2 1 0 0 0 0 1 1 1 0 1 0 1 0 2 1 0 2 0 0 0 1 2 0 0 2 0 0 0 1 2 2 1 0 0 1 0 0 1 0 1 1 0 0 0 0 1 2 0 0 1 0 0 1 2 0 0 0 0 2 0 0 2 1 1 1 1 0 0 2 1 0 1 1 1 2 0 0 1 0 0 1 0 0 2 1 1 0 1 0 1 3 1 0 0 0 0 0 0 1 0 3 1 0 0 0 0 0 0 1 0 2 0 0 2 3 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 2 1 1 0 1 0 0 0 1 0 1 1 1 1 1 1 1 2 0 0 0 0 1 1 0 0 0 0 3 1 1 3 1 0 3 0 0 0 1 1 1 0 0 1 0 1 1 1 0 0 1 0 0 1 1 0 2 1 0 0 0 0 0 1 0 3 1 0 0 0 1 2 0 1 1 1 0 0 1 2 0 1 0 1 1 2 1 3 2 3 3 2 2 2 1 1 1 0 1 2 0 1 1 0 2 0 1 2 1 0 1 1 1 1 1 2 0 1 0 0 0 0 0 0 1 1 0 1 0 2 0 1 2 0 0 2 0 1 0 2 1 2 0 0 2 1 0 0 0 1 1 1 1 1 1 0 1 0 1 0 1 1 5 0 2 1 0 1 0 0 1 0 0 3 0 0 3 0 0 0 2 1 3 0 0 1 0 0 0 3 0 0 0 1 0 1 1 0 2 0 0 2 0 3 0 0 0 0 1 2 0 1 1 1 1 2 0 0 0 0 0 1 1 0 1 1 0 1 3 1 1 0 3 1 1 1 1 3 0 1 1 3 1 1 1 0 2 1 2 0 0 0 1 0 1 2 0 0 1 1 0 1 0 1 0 1 0 1 1 2 0 1 0 0 0 3 0 0 0 1 0 1 0 0 0 1 0 1 0 2 0 0 0 1 0 1 0 1 0 0 1 3 0 1 0 0 2 0 2 0 1 1 1 1 0 1 1 0 0 0 0 0 0 2 1 1 0 0 1 1 1 1 0 1 1 2 0 1 1 0 2 1 0 0 1 1 3 1 0 0 1 0 0 0 1 2 2 2 2 0 2 0 2 2 0 0 2 1 0 2 0 0 0 0 3 0 1 0 1 1 2 1 1 2 0 0 1 1 1 0 0 0 3 2 1 0 0 2 0 2 2 1 1 0 1 4 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 1 1 1 1 0 0 2 1 0 1 2 0 3 0 0 0 1 0 1 0 0 0 1 2 1 1 0 2 1 1 1 1 1 1 0 0 2 3 0 1 0 0 2 1 0 0 0 2 0 0 1 1 2 2 0 2 0 2 1 2 1 1 1 0 0 1 0 1 0 1 0 1 1 1 0 1 0 0 0 1 0 0 1 3 0 1 1 0 1 2 1 1 0 0 0 1 0 0 1 1 1 0 0 0 1 1 0 1 0 2 2 2 2 1 0 2 0 0 2 0 0 1 0 1 0 0 0 1 2 0 0 1 0 1 1 1 1 0 1 0 0 1 0 0 1 0 1 0 1 0 1 0 2 0 0 0 2 1 1 0 0 2 0 0 2 2 1 2 1 1 4 1 1 0 2 0 0 1 0 0 2 1 2 2 0 0 2 1 0 0 0 1 0 2 1 0 0 1 2 1 0 1 1 1 1 1 1 1 0 2 3 0 2 1 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 2 1 1 0 3 1 0 2 1 0 1 1 0 1 0 0 1 2 3 1 0 0 2 0 0 0 3 0 0 1 0 0 0 0 3 0 0 0 0 1 0 0 0 0 2 0 0 3 0 0 0 1 0 0 0 0 1 0 1 1 1 1 0 0 0 1 2 1 0 0 2 1 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 2 0 0 1 0 1 2 0 0 2 0 0 1 1 1 0 0 0 0 1 0 0 1 2 2 1 0 1 0 0 1 0 1 1 0 2 0 2 1 2 1 0 1 1 0 1 0 1 1 1 0 0 3 0 1 0 1 0 0 1 0 0 1 1 0 0 2 1 1 0 4 2 0 0 2 0 0 3 1 1 0 2 0 2 0 0 1 2 1 0 1 1 1 4 0 2 0 0 1 0 0 0 0 0 2 3 1 0 0 2 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 1 0 1 2 1 1 1 1 2 3 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 1 1 2 0 0 1 0 0 1 1 2 1 0 0 2 2 0 0 0 1 0 0 2 1 0 1 1 0 1 1 1 2 0 0 4 2 2 0 1 1 0 2 0 0 0 1 1 2 0 1 1 0 0 0 1 3 1 0 0 0 1 2 3 1 2 1 1 0 0 1 1 0 0 0 1 1 1 0 3 2 1 1 2 1 3 0 0 1 3 1 1 0 0 1 0 0 0 1 1 1 1 0 1 2 0 1 0 1 2 0 1 2 3 0 2 0 0 0 1 0 1 1 0 1 0 1 1 0 0 1 2 1 1 0 1 0 0 1 0 2 1 0 0 1 1 1 0 1 0 0 2 1 1 0 1 0 0 0 0 2 0 1 0 1 0 0 2 1 1 2 0 0 2 1 1 1 1 0 0 0 3 1 0 0 1 1 1 0 0 2 0 0 1 2 2 0 0 2 1 0 1 0 2 1 2 3 2 0 1 4 0 1 0 0 1 0 1 1 0 2 0 3 1 1 0 0 0 1 0 2 0 0 0 0 1 0 0 2 1 1 0 1 1 1 1 0 0 1 0 0 2 1 0 3 0 2 1 2 1 0 0 2 1 2 0 0 3 0 0 1 0 1 0 2 0 0 0 1 3 0 2 0 1 1 1 0 2 0 0 0 1 1 1 3 2 0 2 0 0 1 1 1 1 0 2 1 1 4 1 1 0 0 1 0 0 2 2 0 1 2 2 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 3 0 1 1 0 2 1 0 0 1 0 1 1 2 0 1 0 0 0 2 2 1 2 0 3 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 1 1 2 1 0 2 2 0 2 1 0 1 0 0 2 0 1 1 0 1 0 1 0 1 1 0 1 0 2 2 2 1 0 0 0 0 0 1 1 1 0 0 1 1 1 0 1 0 0 0 1 0 1 0 0 1 1 1 0 2 0 0 1 0 0 2 0 0 1 0 0 0 0 3 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 2 1 0 0 1 1 1 0 0 0 0 1 0 0 2 1 1 1 1 0 2 1 0 0 0 3 1 1 1 2 1 1 2 1 0 1 0 0 2 0 0 1 3 0 0 0 2 1 0 0 0 0 1 0 0 0 0 1 1 0 0 2 2 0 0 1 0 2 1 0 2 0 1 1 0 1 0 2 2 1 1 1 0 2 2 1 0 1 2 0 1 0 2 1 0 1 2 1 0 0 0 1 1 0 0 2 1 1 0 0 1 1 1 3 0 0 0 1 0 2 2 1 0 1 3 0 0 0 0 0 1 1 0 1 0 0 0 0 1 2 0 0 1 1 1 1 3 1 1 0 1 0 0 0 1 0 2 0 1 2 0 1 1 0 1 0 0 1 2 1 1 1 1 0 0 0 2 2 0 0 0 1 2 0 2 1 2 4 1 0 0 2 1 1 2 2 1 1 1 0 0 1 0 0 1 1 2 1 1 1 1 0 1 1 0 0 1 0 1 1 1 2 2 0 0 2 0 0 1 0 1 0 1 0 1 1 2 0 0 0 2 1 3 0 1 0 0 2 2 1 2 1 0 0 0 0 0 0 1 0 2 1 1 1 0 1 1 0 2 0 1 1 1 0 0 3 1 0 1 1 1 1 0 1 1 0 1 1 0 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 2 3 3 1 0 1 2 1 0 0 0 0 2 0 0 1 0 1 0 0 0 1 1 1 2 1 1 1 0 0 1 0 0 0 1 1 1 0 2 0 0 1 1 0 1 1 0 0 2 1 2 2 0 2 0 2 1 0 0 0 1 1 0 0 0 1 0 0 1 0 3 0 0 1 1 0 0 1 0 0 0 0 2 0 1 0 1 3 1 0 1 1 0 0 1 0 1 2 1 0 1 1 0 1 0 3 2 1 0 1 1 1 2 0 0 0 0 3 0 1 0 1 1 3 1 0 0 0 0 1 2 0 1 2 1 1 0 1 0 2 0 0 1 1 0 1 1 0 0 1 0 0 1 1 0 0 1 0 1 4 1 0 2 0 0 1 0 1 1 1 1 0 0 0 0 2 1 1 1 0 0 2 0 0 0 2 3 2 2 0 0 0 3 1 1 1 0 0 2 1 0 0 1 0 1 1 0 2 1 1 2 0 0 0 1 2 1 2 1 1 1 0 0 2 0 0 1 2 1 1 4 3 0 0 1 0 0 0 1 0 1 0 1 3 1 0 0 0 1 0 0 2 1 1 0 1 0 1 3 0 1 0 2 1 0 4 2 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 2 0 0 0 0 1 1 0 3 1 0 1 0 1 1 1 2 0 0 1 0 1 1 0 2 0 0 0 0 0 0 0 0 0 2 0 1 1 1 0 0 2 0 1 2 0 3 0 0 0 1 0 2 1 2 1 1 0 0 3 1 0 1 2 1 0 0 1 0 0 1 0 0 1 3 1 0 0 0 1 0 1 1 0 2 0 0 0 1 1 1 0 0 1 1 0 1 1 0 0 0 1 1 1 0 0 1 0 0 2 2 1 1 0 0 2 1 1 1 0 0 2 1 1 0 0 1 1 2 1 0 1 0 0 0 1 1 1 1 1 1 0 1 0 0 0 1 1 1 2 0 0 0 0 0 1 1 2 0 1 3 0 1 0 1 0 0 2 1 0 0 1 2 0 1 1 0 0 0 0 0 3 1 1 0 0 1 0 0 0 1 0 1 2 0 2 0 1 0 1 1 0 1 0 1 1 2 1 1 1 1 2 3 0 0 1 1 1 0 1 0 1 0 2 1 0 0 0 1 1 1 3 0 3 1 1 1 1 0 3 0 1 1 0 3 0 0 2 0 0 1 0 1 0 3 2 1 0 0 0 0 0 3 0 1 0 0 0 1 0 1 1 0 0 1 0 2 2 1 2 0 0 0 0 1 0 0 1 0 2 0 0 0 2 1 1 3 0 3 1 1 0 1 1 1 0 0 0 1 1 2 1 1 1 1 1 0 0 1 1 0 0 0 1 1 1 2 2 0 0 1 1 1 1 0 0 0 1 0 2 0 0 1 2 1 1 1 1 3 1 0 1 0 0 1 0 1 2 1 2 3 2 0 1 2 0 0 1 3 0 0 1 3 1 0 0 0 0 0 1 0 0 0 1 2 2 1 2 0 1 0 1 2 1 2 2 0 1 0 1 1 3 0 0 0 0 1 1 0 0 1 2 0 0 0 2 1 1 0 0 0 2 1 2 1 0 1 0 0 0 0 0 0 1 1 1 0 0 3 0 1 2 2 1 2 0 1 0 1 0 1 1 1 1 2 1 1 2 0 1 1 0 2 0 0 0 0 1 1 0 1 0 2 2 1 1 3 1 1 1 0 2 1 1 1 0 1 1 0 0 1 1 2 2 0 0 2 0 0 1 3 1 0 1 1 0 0 1 0 1 0 1 2 1 1 0 0 1 1 0 1 1 1 2 1 0 2 1 0 2 0 1 1 1 1 0 0 1 3 3 2 2 3 1 2 0 2 1 2 2 2 1 0 0 1 1 1 1 1 0 1 0 0 1 2 2 0 0 1 1 2 0 0 0 0 1 1 0 2 4 1 0 1 1 0 0 3 3 4 1 1 0 1 1 1 0 0 2 0 0 1 1 3 2 1 0 0 1 0 0 2 0 1 1 1 2 0 0 1 1 0 1 2 3 1 0 1 0 1 0 1 0 1 1 0 1 1 0 1 2 1 2 2 1 0 1 1 1 1 2 2 1 0 1 1 0 1 1 2 1 1 1 1 0 3 0 1 1 2 2 1 0 0 0 2 0 1 1 1 1 0 1 0 0 0 2 0 2 1 1 0 2 1 2 0 1 1 0 1 0 0 0 1 0 0 1 3 1 0 1 0 2 0 0 0 2 1 2 1 0 0 2 1 0 2 0 0 1 1 0 0 1 1 0 0 1 2 3 2 2 1 4 0 1 0 0 1 1 2 0 2 1 0 1 1 4 1 0 1 0 0 1 0 1 1 0 0 0 2 0 2 1 0 1 2 0 2 0 1 2 0 0 0 0 2 2 0 0 2 0 3 1 2 1 3 2 0 1 0 2 0 0 1 0 1 0 0 2 0 1 1 3 0 1 0 2 0 2 1 2 1 1 5 1 0 0 0 0 1 2 2 0 0 3 2 0 1 1 1 2 0 1 1 0 2 3 0 2 0 1 0 0 1 2 1 1 0 2 3 1 1 0 0 1 0 2 0 0 2 0 3 0 0 1 0 1 0 1 1 1 2 1 2 0 1 1 2 1 0 1 1 0 1 0 0 1 0 1 1 1 1 2 0 2 1 1 0 1 1 0 0 1 0 2 0 2 0 0 1 0 0 0 1 0 1 0 2 1 0 1 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 2 3 2 0 1 1 0 0 3 2 0 1 1 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 1 0 0 0 1 2 0 2 0 0 0 1 0 1 0 1 1 2 3 0 2 0 2 1 2 2 2 0 2 0 1 0 2 0 1 1 1 2 1 0 0 1 2 1 0 0 1 0 0 0 2 0 0 1 1 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 1 1 0 0 2 1 1 1 1 0 0 4 3 0 3 0 0 0 2 1 1 0 0 0 0 2 0 0 0 4 0 0 1 1 0 1 2 1 0 2 0 1 2 2 0 1 1 2 0 0 2 1 0 0 0 1 1 0 1 0 0 0 1 0 1 0 1 1 1 0 2 2 1 2 0 2 0 0 0 0 1 1 1 3 0 1 0 1 0 1 0 0 0 0 0 1 1 1 2 0 1 1 1 1 3 1 2 0 0 0 0 0 1 0 1 1 1 0 2 2 1 0 1 1 2 1 0 1 0 3 0 0 0 1 3 0 1 1 2 0 0 0 0 1 0 2 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 3 0 3 2 1 3 0 0 0 3 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 2 2 1 1 1 0 0 2 0 2 1 1 0 0 0 0 0 1 0 1 0 1 0 1 1 0 1 0 0 1 0 1 1 0 1 1 0 3 1 3 1 0 1 0 2 3 0 1 1 2 0 0 1 1 2 1 2 0 2 2 0 1 0 1 0 2 1 1 0 1 2 2 1 1 1 1 0 1 0 1 3 1 2 0 0 0 1 0 1 0 0 1 0 1 0 1 0 1 0 1 0 1 0 0 0 2 0 0 1 0 0 1 1 1 1 0 1 1 1 1 0 0 0 2 2 1 1 0 0 1 2 1 0 2 1 0 3 1 1 0 0 0 1 0 0 0 2 0 0 1 0 1 1 1 1 2 1 3 1 1 0 0 0 0 0 0 0 0 0 0 2 1 2 0 1 1 0 1 1 0 0 1 4 0 1 1 1 1 1 1 0 0 2 2 2 1 1 0 1 2 0 2 1 0 0 1 1 1 2 0 3 1 0 1 0 0 1 1 0 2 2 0 0 0 1 0 1 0 2 1 0 1 0 0 1 2 2 0 1 1 0 1 0 1 1 0 0 0 0 2 1 2 0 2 0 0 0 1 1 1 0 0 1 0 2 1 1 1 0 1 2 1 1 0 2 1 1 1 1 0 1 2 0 1 1 1 1 0 0 0 0 3 3 0 2 1 0 0 2 0 1 3 0 0 2 0 1 2 0 0 2 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 1 0 1 3 0 0 2 1 0 4 0 0 0 1 1 1 0 3 0 0 1 1 1 2 0 0 0 0 3 0 1 0 1 1 1 1 0 0 1 2 0 0 2 0 1 0 0 1 2 1 0 0 0 1 0 1 0 2 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 0 0 1 1 2 1 0 0 0 2 0 1 1 1 0 0 1 1 0 2 0 0 2 2 1 2 3 2 0 3 1 1 1 0 0 0 0 2 2 0 1 1 0 0 2 1 0 2 0 0 0 1 0 0 1 1 1 2 0 3 1 1 1 0 0 0 0 1 0 2 0 0 2 0 0 0 0 1 0 1 2 0 0 0 0 1 1 1 0 0 0 1 0 0 2 2 2 0 0 0 0 1 1 1 2 0 0 0 0 0 0 0 1 1 2 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 1 1 1 0 1 3 0 1 2 0 0 0 1 1 2 1 0 0 2 0 1 1 0 0 1 1 0 0 0 1 0 2 1 1 2 0 0 2 1 1 2 0 0 0 3 1 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 0 1 0 1 3 2 1 0 1 0 0 0 0 1 2 0 1 0 1 2 0 2 0 0 3 2 0 0 0 1 1 0 2 0 1 0 1 0 1 1 1 1 0 0 2 1 0 1 2 1 2 0 0 1 0 1 0 1 1 0 1 1 2 2 1 2 1 0 0 1 1 1 2 1 1 0 1 0 0 1 1 1 1 0 0 0 1 1 1 1 2 0 0 1 0 2 0 0 0 0 1 1 0 0 2 0 2 0 0 1 1 0 2 3 1 0 4 1 3 1 0 0 1 0 2 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 1 2 1 2 2 1 1 1 2 0 0 1 1 0 1 1 0 1 2 0 0 0 0 0 1 2 1 2 2 0 2 1 1 1 1 0 3 1 1 0 1 1 0 2 1 0 2 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 2 2 0 1 1 0 0 0 1 0 2 0 0 0 1 2 1 0 1 0 1 2 0 1 0 1 0 1 1 0 0 0 0 1 1 0 3 0 1 1 1 3 0 0 2 0 0 0 2 0 0 0 2 1 2 1 2 0 1 1 0 0 1 1 0 0 1 1 1 0 2 0 0 2 1 0 1 0 2 2 1 0 4 2 0 1 0 1 0 0 0 1 1 3 2 0 0 0 0 1 2 0 2 3 0 0 2 2 3 1 3 0 1 3 1 1 1 0 0 1 0 0 0 1 1 0 0 2 0 1 1 1 0 0 0 1 2 0 1 1 0 3 1 3 3 1 0 0 2 0 2 0 2 1 0 1 1 2 0 0 0 0 1 2 0 0 2 0 0 0 1 2 1 0 2 1 0 1 1 0 1 1 1 0 2 0 0 1 2 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 2 1 0 0 2 1 0 2 1 0 1 1 1 0 1 3 0 0 3 0 2 3 0 2 1 1 0 0 1 2 0 1 0 1 1 1 0 0 1 0 1 0 1 1 0 1 1 1 1 0 2 2 1 0 2 2 1 1 0 0 0 0 1 1 0 1 0 2 0 2 0 0 1 0 1 0 0 0 2 0 1 1 1 1 1 2 0 0 0 1 0 3 1 2 0 1 2 0 0 2 0 3 0 1 0 1 2 1 1 0 2 0 1 2 1 1 0 0 1 0 1 0 0 0 2 0 0 2 1 0 0 1 1 0 0 1 1 1 0 0 2 0 0 0 2 1 0 2 3 0 0 0 1 2 1 1 1 1 0 0 1 0 0 1 1 1 0 0 0 0 2 0 0 0 0 1 0 1 0 2 0 1 1 0 0 0 0 2 0 1 1 0 1 0 0 1 0 1 0 0 1 0 1 0 0 1 1 1 2 0 0 1 0 1 1 0 0 3 2 0 0 0 1 2 0 2 0 1 2 1 0 0 1 0 0 1 1 0 1 0 0 2 0 0 0 0 2 1 0 2 2 0 0 0 0 0 0 3 0 1 1 1 1 0 0 2 0 0 0 0 1 2 0 0 0 2 1 0 1 1 0 1 1 0 0 0 2 3 3 1 1 2 2 0 0 1 1 1 1 1 0 0 1 1 0 1 0 0 0 1 1 2 1 0 0 0 0 2 1 1 2 0 0 0 3 1 1 0 0 2 2 0 1 1 3 1 2 0 0 2 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 1 1 1 0 0 1 0 1 4 1 1 1 1 0 0 2 2 0 1 0 0 1 0 2 1 1 2 3 1 2 1 0 1 2 0 0 1 0 0 0 2 1 1 1 1 0 1 1 0 0 1 3 1 0 0 0 1 0 0 1 1 0 1 2 0 0 0 1 2 0 0 1 1 0 0 2 0 1 1 0 2 0 0 0 1 2 2 0 1 0 0 3 1 0 0 0 1 1 0 0 1 1 0 1 2 0 0 1 2 0 3 0 0 1 2 2 0 0 2 0 2 1 1 0 1 1 0 0 1 1 1 0 0 3 0 2 0 1 1 0 2 0 0 0 2 1 1 0 0 0 2 0 1 0 0 2 0 1 0 1 0 0 0 2 0 1 0 0 0 0 0 1 1 0 0 1 1 3 1 0 0 1 0 0 3 2 1 0 0 1 1 0 0 0 0 1 1 2 0 0 0 2 1 2 0 0 0 0 1 0 1 0 1 0 0 2 2 0 0 0 1 0 1 0 1 1 1 1 0 0 0 0 1 0 1 1 1 0 1 0 1 0 2 1 1 1 0 1 0 2 0 1 0 1 1 1 0 2 1 0 1 0 1 1 2 0 0 1 0 1 1 1 0 1 1 1 0 0 2 0 0 0 0 1 1 0 1 0 0 2 1 1 2 0 0 3 1 0 0 1 3 2 1 1 0 1 1 1 3 2 1 1 0 1 0 1 0 1 0 1 0 0 0 1 1 1 0 1 0 1 2 2 0 1 1 2 1 0 2 0 0 1 1 0 0 3 2 1 1 0 1 1 2 2 0 0 1 2 1 1 0 3 3 1 2 1 0 1 0 2 2 1 1 0 0 3 1 0 0</t>
+    <t>N(17.8205, 7.579965682639995)</t>
+  </si>
+  <si>
+    <t>17 17 27 11 28 16 20 16 19 31 14 45 24 19 24 9 21 14 24 24 17 16 13 7 24 13 7 13 20 3 13 17 17 23 26 18 17 17 10 13 6 17 20 10 20 15 16 25 27 17 23 15 31 16 24 21 10 14 14 21 16 21 30 36 38 14 17 27 27 26 30 31 13 9 26 19 13 17 10 12 17 10 19 10 17 17 6 37 17 12 17 18 18 24 14 11 31 0 17 16 10 15 22 23 16 24 10 24 17 24 28 20 17 27 7 3 13 24 14 3 9 35 6 13 16 9 23 23 17 20 13 23 19 20 17 27 20 11 24 13 9 13 19 20 10 26 14 3 9 17 18 21 6 7 17 20 7 12 17 3 27 24 15 24 7 23 14 10 10 31 26 10 15 6 13 20 33 12 10 6 20 17 17 33 27 27 13 17 3 15 6 17 13 17 10 20 21 8 18 16 16 17 30 19 14 20 17 16 12 14 16 7 20 24 21 13 10 21 15 16 24 20 28 31 27 3 20 17 15 17 17 20 31 24 35 17 16 15 14 6 24 23 17 22 11 29 13 16 23 24 20 13 41 23 19 16 7 13 26 17 13 23 13 16 9 21 9 23 17 21 20 3 26 21 36 9 7 10 10 17 19 10 14 17 37 28 13 24 6 14 9 6 23 18 30 35 17 19 15 25 17 27 24 17 21 17 17 24 7 24 13 28 21 19 3 31 27 20 14 21 3 30 17 23 17 33 20 18 17 12 14 24 14 16 17 20 32 17 15 17 10 23 9 30 14 17 21 3 9 13 28 21 21 24 0 10 16 13 19 27 28 3 28 26 27 16 23 23 17 17 27 26 20 17 13 34 35 22 15 24 17 19 19 23 3 17 3 21 10 15 23 10 20 21 14 10 6 21 6 16 38 28 27 16 17 20 20 20 29 34 7 31 21 3 16 30 48 20 26 26 29 6 33 24 0 17 15 3 21 24 18 20 13 30 27 13 6 20 10 21 10 10 18 17 16 21 10 21 19 28 26 15 20 20 24 27 14 31 32 16 13 7 20 21 32 11 7 21 24 11 21 21 25 35 6 9 10 21 23 13 34 23 10 20 27 13 22 10 7 7 24 24 20 25 16 17 19 20 34 32 19 20 31 13 16 10 20 17 30 17 7 17 17 14 12 14 15 10 16 24 17 3 21 7 23 29 20 19 3 17 21 17 17 19 23 16 13 30 7 26 16 17 9 20 19 9 13 9 10 23 23 30 32 21 15 27 10 14 23 14 10 33 23 25 21 20 20 16 10 13 9 10 24 16 17 14 24 27 21 20 20 24 17 16 25 24 15 27 35 17 20 18 27 21 22 10 27 17 19 10 17 0 23 15 22 24 13 13 23 10 15 14 17 22 7 21 23 10 10 20 17 26 10 15 20 26 14 3 19 25 20 24 13 10 29 19 16 24 14 17 24 20 10 10 20 17 21 13 20 17 7 27 10 7 9 14 13 35 27 16 17 10 22 8 14 19 20 19 13 7 10 24 16 13 17 27 7 10 37 7 3 37 14 24 23 10 7 23 24 19 21 23 17 17 28 21 21 31 21 18 10 13 27 9 6 21 32 16 27 17 21 31 14 35 31 10 16 24 21 24 7 23 25 9 20 20 27 10 13 17 23 9 20 21 27 18 16 23 14 17 27 13 19 24 14 16 23 21 34 16 17 17 24 16 10 24 24 10 14 12 21 17 23 20 13 24 16 10 17 12 9 9 21 18 26 17 13 15 17 7 24 18 36 30 24 6 24 6 3 10 16 38 20 6 14 13 10 6 23 24 10 3 16 14 17 21 13 19 7 7 23 22 20 9 24 24 16 16 27 24 21 11 17 24 21 17 14 13 24 24 20 10 17 21 14 3 38 12 6 16 25 17 13 21 20 25 14 6 20 5 14 10 10 24 35 27 16 22 6 24 7 20 17 17 48 6 21 24 13 6 23 28 20 18 14 16 3 6 14 14 24 7 14 26 7 17 30 23 9 13 20 21 16 19 17 28 10 13 34 20 35 23 24 3 3 25 27 17 10 9 19 6 27 20 30 21 13 27 30 25 13 13 28 28 20 23 13 16 13 20 31 24 26 29 18 31 10 10 31 17 23 10 13 20 13 27 17 19 16 28 15 10 10 23 31 17 13 18 17 15 7 14 24 10 41 24 13 16 21 10 13 10 24 7 21 23 24 31 17 9 10 24 21 20 21 37 23 23 20 12 19 13 16 34 14 19 23 17 23 7 16 3 14 17 13 17 27 24 16 10 24 28 17 19 21 28 26 17 20 27 10 13 3 24 14 0 20 13 13 35 14 9 17 13 16 26 14 6 35 20 28 0 20 25 10 13 12 14 23 27 9 21 20 9 21 10 29 13 17 21 21 30 15 27 16 27 27 13 17 12 23 14 31 21 13 17 14 17 20 20 23 13 21 24 21 17 9 10 20 18 19 10 22 21 27 10 13 19 17 13 13 10 34 34 17 27 26 21 6 21 14 17 9 24 22 21 10 21 30 7 14 13 21 24 17 27 14 27 13 24 23 16 13 13 18 6 3 10 24 14 10 17 24 19 13 10 3 23 38 21 7 3 20 20 15 15 3 20 17 23 14 10 16 14 0 22 27 13 17 20 14 25 38 23 6 14 27 20 14 28 20 10 14 20 17 30 34 27 20 13 21 21 19 3 19 21 14 20 14 14 14 16 24 20 26 20 17 24 27 23 14 23 6 14 31 17 27 13 20 21 22 24 10 13 19 17 20 20 10 16 14 7 17 34 10 21 24 16 20 20 20 14 28 23 13 7 13 27 19 11 23 13 3 6 18 17 3 10 24 27 17 21 17 17 21 11 21 23 10 3 17 21 6 12 23 16 10 23 24 14 16 10 24 22 19 24 35 23 7 17 8 26 23 12 31 20 10 21 12 23 9 21 17 13 31 14 10 15 20 20 16 17 19 13 21 25 23 24 6 6 23 9 11 9 17 24 7 20 23 31 12 6 7 12 22 18 6 12 14 23 11 26 17 38 13 14 19 33 10 0 19 16 17 23 20 13 28 14 6 14 27 3 24 8 14 21 14 31 7 34 20 20 20 16 10 13 3 13 10 31 27 18 17 21 26 14 9 7 9 8 28 20 20 14 14 20 16 6 28 24 41 19 17 23 23 9 3 20 21 20 13 12 10 24 24 7 13 23 24 9 3 10 34 3 6 17 16 16 28 13 9 18 27 7 13 13 17 28 16 20 28 16 16 20 5 23 10 21 24 34 10 19 9 18 13 15 21 17 18 41 17 21 30 13 10 21 24 16 10 35 17 17 7 19 38 4 35 9 10 27 34 14 21 23 24 20 14 12 38 7 17 14 13 10 27 9 6 3 10 14 21 27 26 3 17 17 14 12 13 21 7 24 23 19 9 14 24 27 12 23 23 13 17 14 16 12 14 19 21 21 31 10 27 16 20 23 20 30 3 0 10 15 17 6 27 21 24 10 12 16 16 27 0 21 10 14 7 14 20 17 22 13 13 21 7 17 13 13 16 24 21 21 17 17 17 26 23 10 10 26 21 34 31 19 14 14 16 23 13 20 12 36 16 19 21 23 9 13 21 13 26 17 17 26 3 19 24 16 20 28 14 21 21 11 19 21 13 35 10 20 16 17 17 28 14 24 16 17 27 14 17 15 23 27 34 7 25 13 27 21 16 20 0 6 13 26 12 16 21 17 6 0 20 23 9 27 3 13 42 17 14 13 17 19 17 17 17 3 20 11 23 27 10 21 21 34 11 10 21 23 13 14 14 21 17 21 20 10 10 7 14 10 21 23 31 14 14 19 13 21 14 27 10 21 13 20 30 20 22 18 51 17 16 6 10 24 21 12 10 26 13 13 16 20 27 31 27 24 31 16 14 20 23 27 42 22 30 28 7 31 24 21 9 20 20 24 16 9 13 27 10 17 17 24 18 20 20 30 13 21 27 17 29 28 33 6 13 17 27 20 6 17 15 14 17 19 28 24 20 27 10 17 27 10 19 14 27 6 13 16 13 7 12 27 23 12 21 33 7 16 14 30 20 23 14 11 33 24 27 17 6 30 21 7 21 16 21 7 10 21 17 17 21 20 28 23 6 24 34 14 38 10 17 13 13 16 24 34 13 16 21 19 17 10 10 20 17 19 7 13 0 17 22 38 11 6 30 17 27 16 21 20 13 8 13 21 24 22 31 7 6 10 24 17 17 13 16 9 14 23 24 6 24 17 16 20 13 17 13 23 18 17 20 24 21 34 27 27 17 21 18 13 23 13 35 23 17 20 3 7 11 14 20 6 10 9 24 18 7 10 28 20 10 28 10 23 11 20 13 24 13 17 12 12 15 15 19 21 13 17 13 24 24 34 17 24 26 17 19 7 18 3 31 6 28 17 21 42 21 14 15 20 24 17 6 20 0 17 18 31 13 15 13 14 21 20 24 31 7 20 17 10 0 13 31 17 10 21 23 13 6 24 21 22 19 22 16 21 28 34 22 3 6 21 12 9 28 14 17 22 13 16 14 14 35 13 20 9 17 10 21 16 12 34 17 21 18 27 6 32 10 19 3 17 20 14 10 16 8 23 21 20 20 24 10 9 14 24 34 16 7 24 20 6 24 7 26 26 6 41 25 24 13 13 18 10 26 17 15 14 16 28 12 10 27 11 13 24 17 7 14 23 17 21 24 13 23 10 23 17 17 10 16 10 17 33 17 21 10 13 30 13 13 19 19 23 7 16 7 10 13 16 11 15 3 12 31 7 16 26 3 7 7 34 17 10 13 24 20 13 7 16 10 20 6 16 24 15 28 10 21 20 10 9 17 17 16 10 17 22 24 24 27 17 10 24 16 35 18 34 20 17 9 13 12 10 21 13 20 20 19 17 31 24 27 31 24 11 13 17 24 20 31 20 15 12 16 27 23 9 21 10 3 17 10 16 32 17 28 22 26 23 24 23 14 15 24 20 21 3 37 16 30 23 23 25 22 13 22 28 6 26 30 23 15 10 10 10 19 21 23 13 27 19 20 17 21 23 20 28 30 17 34 6 16 13 20 23 19 17 11 13 13 19 38 17 13 23 20 21 24 19 17 17 10 10 27 10 16 11 26 23 9 16 38 14 9 14 21 10 7 24 9 13 19 14 13 21 30 16 14 23 31 24 41 14 23 13 16 17 10 13 17 16 33 10 23 22 16 17 13 23 24 3 24 17 16 17 31 17 24 16 14 20 9 13 24 7 14 28 21 24 28 7 18 16 3 13 18 10 20 27 12 20 31 31 31 21 21 27 20 24 28 0 24 25 23 24 27 23 24 17 13 26 17 3 28 17 16 26 14 14 20 17 12 42 37 28 22 27 7 24 24 10 13 3 12 21 12 14 31 14 13 17 31 31 17 24 20 24 12 23 13 24 17 10 31 21 13 13 28 27 10 6 24 10 17 31 24 17 24 16 23 24 9 17 10 21 17 17 33 13 24 21 31 21 20 20 17 19 13 14 23 7 14 17 22 22 13 3 17 16 10 29 20 27 21 21 3 9 41 20 16 6 20 21 15 16 18 24 12 13 17 23 9 9 17 15 10 14 16 9 9 17 21 17 26 16 30 20 34 26 20 10 13 14 20 31 6 16 3 23 23 10 10 19 21 21 27 13 24 18 23 3 10 6 17 13 14 13 20 31 27 10 14 33 16 14 13 6 31 20 8 17 15 17 23 24 0 16 29 10 21 15 30 14 31 20 3 17 7 20 13 22 34 22 21 20 14 11 3 14 30 10 20 31 17 20 10 17 26 17 11 27 23 3 15 9 21 24 11 16 27 20 5 32 16 19 17 16 17 17 16 14 31 9 13 12 23 13 19 16 27 16 17 17 15 22 22 17 14 6 24 21 36 26 20 12 12 23 17 14 10 20 23 13 28 27 15 9 6 30 19 17 20 20 16 14 19 20 31 13 10 17 20 16 10 23 10 9 14 19 19 8 17 24 13 3 24 7 13 20 26 23 7 15 24 13 13 10 16 21 17 7 24 3 16 6 22 14 10 27 24 20 30 7 23 16 31 10 16 17 31 17 28 21 22 21 30 7 10 26 30 12 17 20 28 21 31 7 27 9 20 24 20 6 10 19 17 19 21 13 14 18 21 16 17 14 0 10 24 27 16 17 17 12 0 15 20 30 6 14 20 11 17 12 16 3 20 22 14 27 23 24 17 17 27 9 38 20 24 16 20 30 10 12 17 3 30 19 13 19 20 21 20 20 14 6 20 23 24 7 23 10 17 17 27 15 13 23 11 35 24 13 5 21 25 28 31 24 13 27 17 25 21 15 17 16 12 12 6 14 14 17 3 28 27 24 13 6 3 16 21 6 19 9 23 13 18 16 13 24 23 24 14 21 38 14 27 12 17 13 16 10 14 13 10 16 0 10 19 24 20 17 29 26 19 10 13 23 14 13 15 19 6 17 31 7 17 6 20 25 23 15 17 17 13 14 10 21 24 10 26 14 23 12 20 16 7 30 24 13 8 27 17 21 10 9 14 12 6 23 14 20 9 25 27 12 21 23 21 17 13 15 27 9 21 20 19 20 31 21 23 33 17 27 12 9 0 13 3 8 27 9 7 10 12 14 13 34 34 31 7 28 16 19 31 10 24 13 6 24 12 30 20 14 13 13 10 23 41 23 14 16 27 14 19 25 17 3 20 15 20 20 23 13 17 17 21 20 27 20 21 21 10 17 14 10 27 11 8 13 16 10 15 14 13 24 16 14 19 9 8 10 26 35 38 17 19 42 14 20 13 14 10 16 26 7 23 31 24 13 6 10 44 20 9 23 13 13 27 20 21 3 13 6 21 26 14 7 17 24 38 22 10 23 10 17 3 13 12 17 23 31 14 30 20 35 27 10 10 17 20 21 34 13 35 22 23 21 19 9 20 18 21 7 23 17 10 14 23 16 24 24 17 21 7 20 3 26 14 20 15 24 21 24 16 21 14 27 13 3 23 21 14 13 30 20 24 17 27 7 24 10 26 16 15 3 17 20 28 28 19 14 17 26 17 10 13 22 14 13 16 17 21 6 19 21 9 17 13 23 27 17 34 17 9 13 14 14 20 13 17 14 17 18 14 10 18 21 9 17 19 16 17 17 36 16 6 9 31 29 13 13 16 10 16 3 28 41 24 25 17 15 3 10 6 24 14 13 17 10 9 30 24 24 38 13 23 35 16 10 10 14 26 14 15 17 14 23 14 12 17 6 22 13 12 21 27 8 28 21 10 17 23 13 30 9 23 19 0 7 16 6 7 7 12 3 8 12 24 11 16 20 17 9 24 26 23 21 10 20 14 13 31 16 3 26 28 20 30 14 12 16 17 12 20 27 23 38 14 28 24 17 19 7 0 26 24 16 12 3 8 20 6 13 6 21 13 30 33 14 7 24 3 10 12 40 6 10 24 20 13 31 28 14 10 0 16 6 27 22 21 3 24 16 24 21 21 25 18 14 24 10 24 24 20 17 20 3 0 23 17 20 10 10 23 15 24 17 23 17 23 14 19 30 24 20 23 13 20 21 16 14 17 12 34 20 18 14 14 6 21 17 10 0 28 20 9 20 24 23 16 14 6 23 7 13 22 20 15 41 26 17 20 10 3 9 13 17 12 7 21 20 16 10 17 20 10 21 30 17 9 31 23 13 12 12 27 6 24 3 18 28 20 20 17 23 20 38 10 17 16 30 14 23 14 7 19 21 21 17 13 21 45 15 6 34 10 13 14 20 17 20 19 13 3 21 6 37 17 22 20 12 7 23 25 10 28 16 13 23 14 34 13 17 10 17 19 28 33 28 16 23 20 27 27 16 7 21 20 15 16 13 15 10 23 13 30 18 7 20 27 31 14 22 6 24 16 27 14 24 30 17 10 17 14 14 28 19 10 24 21 23 15 26 24 3 6 27 29 14 10 14 21 3 7 27 17 21 16 20 7 21 31 7 10 10 13 17 22 14 31 16 20 14 14 20 26 12 20 20 14 24 21 17 21 20 13 13 17 24 17 14 29 31 20 10 10 17 6 14 16 7 24 18 17 14 6 8 17 19 10 20 6 26 35 16 21 19 14 23 23 10 10 21 10 8 21 13 8 10 16 3 28 28 19 17 10 10 14 12 17 3 13 17 31 27 14 10 14 24 0 19 18 3 31 24 3 22 13 16 14 36 10 13 21 3 14 12 17 15 16 17 14 15 20 13 21 17 19 13 20 19 23 6 10 26 23 16 14 20 19 17 14 13 31 13 20 16 6 14 13 20 20 24 17 14 7 12 13 10 10 10 20 10 26 12 13 20 31 14 21 14 13 10 21 3 31 15 6 6 18 16 26 18 20 31 17 14 3 17 14 35 17 20 13 30 10 14 10 18 14 26 21 28 30 16 16 22 14 0 10 13 17 16 17 12 17 7 35 14 16 10 30 7 21 18 21 26 27 13 6 10 26 30 14 31 28 16 9 16 14 14 19 20 17 24 28 24 19 22 28 22 28 30 20 10 15 21 23 22 34 16 24 13 3 13 20 20 23 22 20 24 33 17 10 9 26 31 7 17 10 14 14 24 27 24 17 23 9 17 8 30 7 25 31 16 20 30 14 23 19 23 13 21 24 17 17 21 3 19 17 24 24 0 13 27 10 24 23 24 14 3 19 19 10 31 23 17 19 22 10 20 10 20 11 25 10 17 16 24 16 26 14 15 20 10 21 14 3 17 20 20 17 17 6 34 17 12 15 38 26 6 20 17 20 0 7 24 16 13 17 28 17 44 17 19 21 6 20 6 30 13 17 20 10 16 10 20 9 24 24 10 17 19 13 14 13 18 13 20 13 22 17 28 16 20 17 22 23 13 30 38 15 6 22 27 17 30 21 17 16 13 33 16 16 13 19 3 19 16 30 20 13 16 17 23 17 16 17 7 28 13 23 28 20 16 7 15 22 14 10 31 19 16 17 27 11 26 6 21 17 13 24 19 14 17 7 10 10 30 31 3 16 10 23 30 15 14 19 17 20 26 17 13 23 17 28 20 26 20 34 7 13 28 19 17 14 3 15 37 37 26 10 13 13 20 38 20 34 14 17 8 9 19 17 15 10 19 24 10 17 17 7 19 19 24 41 19 20 31 14 17 13 13 6 10 24 27 13 3 26 20 17 24 13 21 3 12 23 24 13 30 17 14 19 13 3 29 14 27 20 13 20 17 17 17 23 16 17 16 13 10 34 17 16 10 10 7 10 21 19 3 16 13 24 21 6 13 6 16 22 0 3 23 27 23 19 21 13 9 27 10 15 20 11 15 21 16 7 13 9 9 24 14 28 17 17 15 24 25 12 24 10 24 37 21 20 16 34 24 14 16 21 7 14 13 31 13 18 9 17 16 7 30 30 3 38 13 23 17 27 22 43 3 10 24 23 14 17 17 14 26 21 27 3 20 36 17 28 10 9 28 17 20 17 17 10 28 15 20 21 19 26 14 20 38 3 20 20 15 20 17 21 16 22 14 15 21 20 11 27 24 7 17 21 30 21 29 20 31 24 21 7 3 21 28 21 16 20 20 31 16 10 14 7 3 21 7 10 13 20 7 23 20 21 10 17 10 17 27 15 21 17 6 20 18 14 21 14 23 10 14 20 19 10 14 17 49 13 24 3 10 5 17 19 6 17 14 24 24 12 21 10 28 10 16 16 14 20 6 21 20 26 11 24 20 21 19 19 14 24 17 29 31 26 20 28 10 21 26 17 17 16 24 17 23 20 10 20 9 19 7 27 10 13 16 14 30 13 14 9 34 12 6 17 13 31 16 24 17 3 17 13 28 27 16 31 17 19 17 9 17 13 23 7 28 6 11 14 17 17 9 23 17 10 23 10 20 10 21 10 16 19 17 20 21 22 17 10 9 24 6 13 9 24 23 37 3 18 16 21 17 20 23 45 20 3 10 31 6 8 35 24 28 31 19 17 7 20 14 24 13 20 17 27 31 23 17 7 17 20 17 24 22 17 27 20 31 20 13 33 24 11 17 17 24 21 24 21 23 20 26 16 20 21 13 16 19 14 22 31 16 17 6 35 23 23 21 38 21 24 20 17 20 16 8 16 6 10 23 28 18 17 7 14 8 25 24 17 35 7 17 17 16 17 13 14 23 10 23 12 10 21 14 22 21 13 15 31 33 21 19 22 21 24 14 17 13 19 17 23 20 14 17 31 31 12 16 17 17 19 13 27 11 16 17 17 14 21 13 20 6 20 17 24 37 9 17 27 42 21 16 14 12 7 10 34 17 22 45 17 20 22 14 20 21 7 23 20 9 25 16 20 21 22 23 9 16 29 17 17 16 10 10 23 7 3 22 19 31 13 14 14 15 6 21 20 22 14 9 24 14 18 19 17 7 6 17 13 13 20 13 37 14 21 14 17 27 17 17 26 28 13 22 7 21 24 22 37 24 9 12 23 25 16 20 42 17 27 27 27 24 20 9 17 13 31 30 23 28 20 14 20 20 18 13 17 6 23 29 10 13 20 14 13 28 23 22 16 24 30 14 14 17 17 37 20 13 27 17 16 21 17 15 9 24 20 34 20 17 10 29 13 20 20 13 13 27 3 10 24 30 9 13 22 10 13 10 0 24 16 10 10 10 6 7 37 15 9 13 14 17 7 10 17 10 13 18 31 7 20 15 20 33 33 17 19 22 24 6 20 23 17 9 20 23 27 26 10 24 10 30 27 13 17 10 24 16 21 18 17 17 14 21 10 19 24 24 10 17 13 11 16 26 24 18 32 21 21 10 23 21 10 10 10 28 7 6 13 3 6 24 10 23 23 28 27 21 19 23 7 13 14 34 30 13 17 23 17 24 13 14 23 6 10 23 27 21 19 15 27 12 7 47 6 31 10 19 6 13 14 10 14 14 18 18 14 20 11 20 21 17 13 28 29 18 21 28 21 3 17 23 20 24 13 31 16 21 28 13 30 13 10 7 17 18 18 16 12 8 16 3 31 16 23 31 13 20 10 17 17 27 27 27 3 20 27 24 24 6 17 17 26 20 28 14 13 11 14 13 24 10 21 23 17 0 10 24 7 13 14 17 20 21 18 30 10 18 6 27 27 19 10 14 9 12 23 10 17 14 10 20 10 10 21 31 14 13 9 13 10 6 24 16 30 23 10 20 34 6 25 20 17 23 24 19 27 17 10 15 17 10 23 13 20 33 13 17 17 23 10 27 24 17 27 10 25 21 10 3 15 17 33 31 24 17 9 3 31 23 6 22 19 6 21 21 14 19 15 11 13 19 18 23 17 22 14 31 17 27 12 14 7 13 17 20 13 13 14 27 0 25 17 19 21 10 13 21 12 14 6 27 10 7 14 27 10 24 17 20 17 6 12 35 9 35 10 3 17 20 19 3 24 6 22 3 27 17 9 20 20 22 18 13 20 27 24 24 13 30 14 7 21 15 24 19 38 10 23 6 21 24 37 17 16 17 31 11 14 27 6 16 24 20 6 10 15 17 16 7 14 3 31 17 14 13 22 17 16 23 6 30 10 24 20 12 19 24 25 3 23 38 18 24 21 30 9 19 7 17 17 21 20 0 21 14 14 17 26 23 20 11 16 20 30 34 16 20 27 37 31 14 23 10 10 28 9 12 26 17 19 9 12 17 7 30 13 17 7 3 27 23 13 16 21 22 24 17 16 16 12 27 36 14 27 9 24 23 20 33 23 24 23 21 27 17 30 10 21 19 16 21 28 23 16 7 16 13 20 20 21 15 25 22 27 13 24 19 20 14 19 25 17 16 24 17 15 17 23 22 13 14 17 20 6 20 14 17 13 27 12 27 24 20 17 14 16 31 17 17 14 17 10 33 10 24 19 13 21 23 21 21 13 14 8 27 16 14 12 27 3 24 17 13 7 28 10 14 17 16 17 9 22 10 14 24 32 13 25 28 16 20 10 16 17 21 7 23 25 14 10 29 20 10 14 17 15 14 20 11 17 20 13 21 14 24 14 12 16 24 12 24 18 31 20 18 20 21 22 10 21 17 16 13 14 21 14 16 10 14 23 9 27 13 28 27 3 24 20 19 17 28 13 15 9 20 23 14 24 3 6 30 28 25 13 17 17 10 28 11 12 25 30 6 14 11 9 20 12 12 9 15 20 35 0 29 19 27 13 17 24 24 31 10 10 18 11 20 13 24 12 27 3 34 20 21 6 19 17 6 18 13 6 31 33 15 19 3 16 17 7 15 24 18 27 3 24 20 7 21 6 20 16 7 20 20 20 10 17 23 17 21 14 18 9 14 10 10 0 20 19 27 12 13 0 17 31 7 27 36 23 21 6 27 28 12 10 34 15 34 20 9 21 21 17 21 13 10 30 17 30 10 19 16 16 19 22 17 10 13 16 27 26 16 19 10 28 31 19 27 14 12 20 3 20 30 14 23 16 10 17 14 21 9 16 35 23 17 17 13 7 20 18 26 17 0 6 21 23 16 7 17 17 3 34 6 12 17 28 24 27 14 24 30 17 34 23 13 16 27 27 21 31 24 25 20 13 10 17 17 14 6 5 16 17 17 23 7 11 0 24 10 26 16 20 6 24 10 6 16 27 19 10 22 13 14 20 13 14 22 10 23 10 10 24 14 26 17 24 8 13 16 21 28 19 13 14 17 22 14 17 25 26 17 23 21 17 19 13 24 21 28 22 20 20 21 19 10 10 6 17 26 14 10 10 23 3 17 9 23 17 20 30 19 12 24 14 21 26 22 20 23 16 10 13 17 13 20 17 37 17 15 31 17 9 35 9 17 25 21 20 3 5 35 24 19 16 17 20 26 34 26 6 15 10 9 26 24 17 10 24 20 20 28 12 31 10 11 13 33 10 13 13 13 20 9 21 19 14 9 21 9 15 5 23 20 14 20 17 15 20 26 24 17 21 27 0 18 20 31 14 3 18 13 16 0 13 16 13 17 17 10 28 17 6 13 20 17 18 10 21 13 10 10 20 14 24 22 10 25 17 12 28 22 12 20 10 21 24 14 21 30 30 13 30 17 2 14 21 10 27 17 11 7 31 17 17 14 16 29 16 10 20 17 27 7 20 22 20 34 25 17 10 18 14 13 20 16 23 23 10 21 17 6 19 21 7 24 27 14 27 16 20 20 24 18 21 10 13 27 16 19 13 17 17 37 15 17 13 14 10 17 27 28 33 27 0 18 27 14 3 24 17 10 17 23 31 26 7 26 13 17 6 17 21 19 3 28 23 0 18 22 10 13 16 19 23 19 15 10 13 17 21 16 13 16 10 0 30 20 20 24 16 17 21 23 21 21 14 7 14 15 24 10 3 31 21 29 17 38 23 17 17 17 21 38 30 27 13 30 5 22 24 21 30 17 20 3 21 20 34 24 15 31 27 20 20 21 22 31 17 24 6 17 10 10 13 20 25 17 10 34 23 20 17 14 9 45 21 24 16 17 10 20 14 38 28 14 20 9 13 7 14 17 17 22 30 17 20 15 22 34 20 26 13 14 14 23 17 14 13 10 21 6 17 16 15 19 19 27 10 6 17 20 10 12 20 16 6 17 13 16 16 27 14 10 9 16 17 26 24 10 27 21 40 24 10 27 10 16 23 13 13 9 31 20 23 26 17 16 24 10 27 18 19 15 31 31 14 17 21 31 24 13 13 13 24 15 14 16 22 21 17 18 17 26 7 17 19 13 24 20 21 23 7 23 16 16 24 20 21 13 17 25 17 27 13 23 27 27 18 18 13 19 26 19 27 23 17 19 20 26 0 17 19 30 9 7 7 17 13 28 14 25 20 30 27 21 16 24 21 11 17 13 17 24 21 10 30 24 20 19 24 17 12 24 17 17 9 14 27 14 17 31 23 9 7 12 24 6 16 28 25 15 3 16 17 27 17 24 13 10 23 6 21 37 10 3 20 7 24 20 19 17 10 0 17 6 24 15 17 22 24 6 12 12 13 7 24 19 20 14 15 37 13 10 7 23 23 14 24 17 10 24 17 17 17 8 31 27 17 37 7 3 27 21 17 21 24 7 3 13 21 14 21 20 19 17 7 30 19 10 14 29 10 17 25 17 10 0 9 14 17 17 17 17 33 16 21 7 22 19 30 15 10 6 14 23 13 20 20 19 17 16 22 20 12 18 24 21 17 14 20 10 23 16 34 6 27 27 16 25 6 13 21 24 13 17 28 31 14 17 14 33 17 10 10 25 28 31 21 27 27 14 35 17 27 16 26 20 6 10 21 10 28 6 31 6 10 3 24 17 24 17 10 17 18 16 24 27 9 12 17 15 20 14 17 30 24 10 21 7 25 31 7 17 21 16 31 21 41 24 12 24 15 7 16 27 24 23 5 17 15 27 9 27 17 21 12 28 9 17 9 14 20 20 7 9 17 20 21 7 21 14 17 15 20 20 17 21 20 25 21 12 20 14 7 17 22 18 34 9 28 31 13 7 13 3 15 27 20 6 24 3 17 27 21 30 16 17 7 22 10 12 7 33 3 13 10 19 17 37 10 16 31 20 20 3 14 23 13 30 9 23 16 6 28 28 7 6 3 28 24 25 18 30 7 22 33 27 6 28 24 6 15 6 9 7 20 6 11 21 16 15 28 22 27 17 31 9 33 10 14 14 17 11 10 14 17 20 17 14 14 28 13 21 23 16 16 20 17 10 14 23 22 6 10 18 17 16 17 13 20 21 21 23 11 3 24 14 18 12 13 24 19 17 30 24 24 14 9 20 19 23 22 16 26 10 17 22 17 7 21 41 21 13 20 28 21 33 6 10 21 17 14 23 20 20 0 20 24 24 30 7 10 9 9 14 20 21 20 17 17 33 17 17 20 21 21 31 13 10 3 3 20 24 10 14 7 17 16 13 10 11 14 6 8 12 15 22 20 6 24 20 27 13 8 3 0 14 14 27 14 16 24 21 14 10 14 6 10 17 20 7 16 9 8 16 31 14 16 7 21 20 21 22 10 7 17 13 13 27 21 10 7 31 3 9 6 6 10 11 17 27 20 27 6 9 12 14 3 13 17 27 16 24 14 14 26 35 19 31 21 23 24 10 16 27 9 35 17 20 3 21 17 10 3 13 28 23 17 10 14 16 20 14 20 17 21 30 20 31 24 21 24 13 16 28 16 10 15 16 23 20 19 27 17 28 10 20 13 16 14 19 18 21 13 14 11 14 9 6 22 23 17 20 17 24 23 7 27 13 28 20 29 21 21 24 14 3 28 17 10 10 14 7 21 14 24 10 12 13 17 19 21 27 27 20 13 15 20 10 13 17 10 24 21 15 10 16 27 18 20 16 21 17 13 21 7 28 24 19 31 9 14 17 24 7 33 16 3 3 7 14 6 23 17 20 21 8 16 21 9 16 7 13 21 16 6 13 18 38 14 14 10 3 17 24 12 16 19 14 25 10 34 10 27 22 19 10 0 7 7 12 13 24 20 9 26 13 10 21 14 20 13 20 10 3 17 20 19 13 22 16 21 20 13 6 22 24 24 16 6 17 20 13 15 26 3 13 22 19 14 12 14 6 13 9 17 13 17 13 21 31 23 9 17 20 27 20 12 20 30 19 14 14 34 10 19 15 25 11 10 26 7 26 24 17 14 25 17 7 27 3 17 9 12 20 24 23 7 17 9 10 27 20 20 13 16 17 16 19 13 7 20 14 14 9 19 31 0 27 20 23 29 13 17 19 14 27 27 20 10 19 13 25 14 28 24 16 34 26 17 10 14 14 21 17 17 26 21 10 17 30 29 7 9 14 26 23 17 20 24 17 28 20 20 21 6 20 3 17 13 27 13 11 23 20 3 9 32 14 31 28 17 13 21 13 16 31 21 20 23 9 20 16 18 20 14 14 16 27 26 15 7 22 7 9 20 17 16 13 14 20 19 12 19 31 10 14 21 30 13 17 23 20 20 31 20 17 7 13 10 27 13 17 15 10 13 3 12 6 21 24 17 20 17 16 24 14 16 31 14 17 34 10 31 21 24 17 11 17 20 20 14 20 18 14 14 27 0 21 20 24 28 13 10 17 20 17 10 20 27 20 28 18 27 33 23 17 17 16 24 21 3 42 20 31 20 6 13 14 17 17 9 16 21 24 37 23 17 15 10 17 7 24 21 10 10 9 7 13 20 13 38 33 21 21 13 17 23 16 24 17 28 17 17 6 22 24 7 18 22 24 5 20 17 27 25 17 34 16 17 20 12 17 14 20 13 26 27 14 17 6 10 16 22 18 9 27 13 17 13 25 19 15 22 25 20 24 10 24 20 13 20 24 7 12 20 26 24 17 24 21 20 24 20 20 11 17 14 33 15 9 17 30 13 27 28 23 18 17 8 10 19 13 13 37 14 20 16 10 20 24 30 15 38 13 28 21 27 14 14 7 27 12 20 17 17 17 24 13 19 35 17 14 17 17 17 20 17 24 14 34 6 10 8 13 25 10 14 16 3 26 22 7 21 7 17 28 6 27 23 21 10 10 16 24 17 20 10 13 14 16 24 17 17 16 24 20 13 14 7 44 13 22 16 17 24 33 24 7 38 12 15 20 16 31 28 10 26 27 28 13 14 13 10 13 6 13 13 20 24 7 31 16 31 32 10 27 20 21 14 15 27 29 29 11 10 16 10 25 20 20 7 14 28 13 11 14 21 17 17 3 0 33 14 19 24 7 8 17 15 17 3 28 27 16 17 7 3 13 10 19 17 17 15 30 20 20 31 3 16 20 22 9 6 14 16 13 12 7 20 13 10 24 23 31 20 24 14 20 30 20 17 28 20 31 16 26 21 27 11 24 3 11 17 17 6 26 13 31 20 30 20 35 13 16 13 10 14 13 19 23 9 23 25 24 13 19 24 2 14 9 23 10 21 14 21 27 24 23 13 19 27 13 13 8 17 27 21 20 10 17 3 14 10 13 15 17 24 19 38 26 17 21 14 31 30 21 36 25 19 19 14 16 23 13 24 21 17 28 34 7 9 23 25 23 16 17 7 16 23 9 14 25 20 17 9 13 23 6 9 13 28 41 26 30 21 21 16 6 24 10 14 19 17 24 12 22 17 14 31 24 6 21 16 14 15 12 24 28 7 18 25 19 21 27 13 10 15 21 24 13 28 21 16 21 7 10 18 21 29 16 10 31 10 17 13 7 16 17 19 24 12 13 13 24 14 20 20 13 20 13 25 22 21 24 13 17 17 20 13 10 20 32 17 23 22 15 27 19 15 21 27 17 20 33 14 13 21 10 16 22 29 28 24 27 17 15 14 10 38 20 13 19 0 30 10 15 12 17 3 19 11 14 24 7 21 14 23 11 17 6 13 23 18 24 26 16 14 20 16 17 11 18 12 18 17 10 14 27 20 24 24 18 16 27 23 23 24 20 12 22 10 10 20 13 27 17 14 14 12 13 30 20 21 13 24 21 10 16 19 23 23 16 17 16 20 23 20 13 13 10 19 15 24 6 14 16 20 27 20 14 15 24 10 21 19 21 21 14 13 17 6 15 26 17 27 6 34 13 11 0 38 33 6 37 20 13 13 6 20 24 7 14 10 13 24 7 7 27 14 13 20 14 0 17 13 17 27 21 7 16 32 23 6 29 18 17 27 24 10 17 30 20 28 10 26 9 17 10 7 17 7 6 30 17 20 8 16 14 25 17 20 7 19 20 17 18 15 13 30 30 14 22 17 23 33 14 16 13 14 17 6 20 23 23 15 13 13 20 16 22 14 25 13 15 24 17 15 31 14 14 7 31 28 31 13 13 13 27 7 10 9 23 13 16 27 24 21 23 15 10 16 17 17 21 20 13 23 19 14 21 14 14 48 13 6 26 16 14 17 21 23 16 20 14 8 14 7 22 16 31 18 20 31 27 17 12 17 26 23 32 23 14 21 13 17 20 20 20 17 27 20 13 24 19 10 9 20 7 17 22 13 33 11 10 7 7 40 17 14 7 23 27 34 26 20 13 12 19 37 14 26 20 17 21 26 17 6 34 20 24 20 21 17 21 14 28 20 27 9 14 24 13 3 24 21 28 24 21 7 17 17 17 12 24 27 15 3 29 14 28 10 12 16 21 18 24 13 41 10 27 6 20 13 19 20 21 24 26 16 21 20 22 16 14 17 31 10 19 17 6 17 20 10 21 16 7 31 3 13 13 24 23 20 14 21 29 13 20 38 14 13 23 13 24 14 21 16 9 0 8 10 22 17 24 10 24 10 24 17 24 24 8 6 21 23 19 14 22 19 21 24 17 27 9 14 22 7 10 17 22 19 10 20 31 14 10 24 17 3 2 9 23 23 17 19 29 19 18 20 9 7 17 0 13 24 13 21 14 19 21 19 16 8 19 17 16 7 23 22 25 19 26 25 10 23 21 17 12 27 13 20 13 13 8 34 24 13 20 7 16 23 24 17 20 17 19 10 31 13 14 23 20 18 31 16 8 20 20 10 34 24 10 31 19 10 17 19 23 7 17 14 24 20 27 15 29 0 13 14 10 10 28 27 17 30 10 16 23 6 10 24 7 14 21 9 21 21 10 27 16 7 10 21 12 10 10 9 15 21 27 20 14 31 19 6 12 21 17 24 9 20 16 34 14 24 0 19 20 17 7 17 24 10 17 12 23 25 16 16 10 14 27 27 16 27 7 21 27 17 7 24 14 6 26 26 3 16 13 21 0 13 14 27 25 17 16 19 17 9 13 6 0 26 23 22 28 23 15 24 16 17 13 20 13 12 13 3 20 9 16 35 7 21 19 28 26 16 17 14 17 11 21 17 20 7 14 7 7 24 22 13 23 27 14 20 9 25 31 27 17 13 16 26 23 13 16 31 18 13 10 20 20 23 20 13 30 17 20 19 20 20 14 14 14 20 20 7 10 27 17 27 24 21 18 16 14 9 20 17 7 26 10 10 35 17 34 23 21 25 12 3 21 27 10 14 31 24 0 24 20 14 11 16 10 21 7 12 7 24 20 24 18 8 10 16 10 17 3 7 21 17 20 16 6 7 7 24 23 20 6 14 17 13 13 10 16 17 10 26 18 3 25 34 24 14 17 14 13 6 17 16 29 20 16 7 16 11 17 7 35 10 27 21 21 20 5 22 35 22 24 14 13 21 17 17 22 18 6 21 13 31 27 28 14 17 13 18 24 16 27 10 3 21 12 27 24 13 20 6 20 14 17 0 21 30 27 37 28 21 18 21 28 13 20 7 3 23 31 23 36 31 19 20 9 31 7 23 28 37 13 9 34 17 20 17 13 14 29 24 13 17 20 19 14 24 10 19 17 24 20 13 20 20 22 21 24 3 14 7 3 9 17 10 16 9 16 23 16 27 20 28 14 13 10 14 10 20 19 23 3 24 10 14 15 11 24 17 7 15 19 21 17 12 6 13 34 27 17 23 6 20 23 28 13 16 20 17 16 20 28 26 17 16 24 20 14 17 3 13 10 14 16 28 19 13 14 16 17 20 21 23 16 20 20 17 21 17 13 29 21 17 10 19 23 17 21 14 14 12 16 26 27 3 27 3 14 7 21 31 14 9 15 25 21 22 23 21 24 20 7 15 21 3 17 24 26 24 10 7 16 24 20 34 13 24 28 20 10 17 20 16 13 24 23 29 10 23 23 16 20 38 10 9 34 33 35 21 17 10 9 24 31 18 35 14 6 13 10 27 13 28 23 22 7 22 24 24 3 28 9 17 20 30 27 14 17 6 10 7 16 28 7 16 11 35 19 10 17 24 26 16 21 6 22 21 27 13 15 14 26 9 23 30 12 14 7 38 14 10 11 20 17 23 17 17 31 20 27 9 13 10 9 13 13 19 17 30 13 15 17 24 16 17 24 30 21 38 17 13 21 24 7 31 10 16 15 10 7 17 20 12 27 14 21 13 13 16 10 24 0 10 19 19 3 21 3 33 13 6 16 20 31 21 28 13 16 20 27 13 13 20 6 12 24 7 20 9 11 20 24 20 19 25 26 16 15 21 20 20 20 0 9 7 34 3 6 16 13 19 14 10 36 24 16 16 16 29 21 23 20 31 21 27 21 24 17 20 14 10 9 19 21 27 14 17 17 21 13 19 3 17 6 15 10 9 20 13 17 10 19 16 14 7 6 22 7 10 13 20 21 7 3 13 3 18 20 14 19 38 31 23 17 6 17 7 13 34 6 18 21 24 24 31 19 19 7 13 17 13 17 13 9 14 12 25 10 23 7 9 6 31 17 0 6 22 10 21 16 20 10 24 10 10 19 33 13 17 9 7 21 7 15 14 20 10 21 17 23 28 30 27 17 13 12 13 24 19 17 11 24 14 17 24 20 23 14 10 21 31 31 25 24 7 19 23 20 28 10 24 17 14 17 3 17 7 7 7 24 17 24 40 14 20 21 7 14 47 24 17 9 14 16 10 27 26 34 21 7 16 7 17 20 21 28 17 16 17 7 17 23 14 24 20 20 24 23 9 16 10 23 3 28 7 16 18 16 6 20 24 14 6 23 34 6 12 27 34 31 22 21 9 16 7 41 13 23 16 10 10 10 10 16 10 27 17 23 20 26 17 31 22 14 20 34 21 23 24 20 10 21 19 20 17 21 38 22 17 37 26 21 24 30 7 16 34 10 20 16 17 18 26 17 11 23 20 13 0 17 10 9 27 17 6 21 16 20 22 34 17 21 17 13 20 14 14 10 20 21 47 18 27 31 13 9 31 13 34 21 24 15 21 7 13 20 10 15 3 27 28 38 33 14 13 17 17 12 10 10 6 12 20 21 17 35 10 27 17 13 10 44 19 24 23 14 14 20 12 13 13 7 21 9 21 14 10 13 26 13 17 13 28 17 14 17 17 21 21 6 20 6 10 20 13 9 26 9 26 10 20 10 34 34 6 17 27 12 15 21 9 23 21 23 17 23 24 17 22 31 7 12 23 13 3 6 20 31 21 21 3 10 20 24 10 19 10 9 14 20 17 27 19 17 17 17 23 13 20 34 17 30 18 29 13 17 17 24 20 14 27 27 20 14 12 19 17 12 19 21 21 7 27 3 16 20 13 17 31 7 20 15 21 13 19 13 17 13 21 17 10 9 21 12 12 7 19 22 28 23 12 24 30 7 13 23 17 0 23 21 9 16 13 21 17 26 14 27 12 31 3 14 22 14 17 37 20 10 27 7 10 27 14 6 28 10 17 13 20 17 13 24 19 13 16 27 24 20 20 29 17 20 16 21 35 15 6 14 20 26 20 9 17 10 21 3 27 27 13 3 7 23 27 23 13 14 31 9 3 13 38 26 13 27 16 24 18 27 17 9 14 21 16 16 20 17 34 7 24 10 23 17 13 23 7 23 17 44 16 10 14 13 21 17 13 20 20 24 17 24 9 20 9 17 7 10 16 31 17 10 20 17 12 13 24 34 17 14 13 31 13 6 6 10 24 9 20 22 13 9 13 16 6 21 28 12 19 24 7 10 3 20 18 10 16 16 26 10 27 17 30 10 21 10 20 24 20 3 10 30 20 13 13 11 17 24 21 29 18 17 3 15 10 12 24 20 21 27 23 25 19 7 13 23 28 28 13 10 24 16 10 17 7 10 27 17 6 20 15 17 24 13 10 30 14 16 7 3 13 29 10 19 36 23 24 19 9 27 15 27 20 38 6 10 17 17 13 10 14 15 34 16 10 38 10 13 27 23 34 10 16 17 23 20 15 11 3 26 3 13 7 16 14 10 0 20 16 10 17 14 17 13 13 10 25 20 17 27 27 17 14 17 20 10 16 9 7 9 16 34 9 8 24 17 10 33 23 9 17 23 24 17 15 14 5 19 20 24 17 13 19 9 24 27 24 34 17 28 21 14 14 3 15 20 13 23 13 13 10 33 10 27 7 13 13 10 30 17 20 23 30 15 13 15 21 35 17 33 13 17 21 21 20 16 20 17 19 16 13 17 21 45 20 19 16 20 31 14 20 28 13 17 19 16 14 6 8 30 6 20 20 16 22 13 24 34 26 24 24 3 13 14 6 14 16 16 0 20 19 21 21 17 13 13 16 20 3 19 9 13 17 20 11 21 30 27 45 10 10 24 14 10 10 3 20 36 17 9 18 30 26 10 27 20 6 9 17 15 6 17 27 24 13 7 9 25 17 15 13 10 17 24 20 0 11 13 13 20 21 7 20 24 23 24 35 22 7 27 19 19 14 16 16 26 17 17 24 23 20 33 21 16 14 21 30 28 9 15 13 21 11 24 19 21 23 10 24 30 17 31 27 28 20 26 14 13 20 7 45 7 17 6 28 9 10 0 24 16 26 31 23 24 13 14 9 33 13 10 17 21 17 23 17 19 13 17 20 3 3 16 27 24 24 17 12 7 16 7 13 17 35 15 14 14 21 16 10 31 22 13 17 21 26 12 21 19 17 17 16 26 24 13 34 6 26 28 14 14 16 31 26 14 15 6 24 12 13 13 19 13 34 17 10 16 13 19 7 16 21 10 23 7 0 3 19 14 13 22 16 24 3 17 0 16 25 17 23 11 10 26 17 10 10 3 0 16 13 17 17 24 9 10 20 23 10 14 13 20 17 23 9 14 27 27 17 27</t>
+  </si>
+  <si>
+    <t>EXN(0.46427327897778736, 21.131707610415962, 3.995503008833288)</t>
+  </si>
+  <si>
+    <t>21 13 24 23 20 22 24 28 22 21 22 34 25 26 22 27 27 21 24 19 15 27 30 21 26 20 23 22 21 20 19 26 22 27 30 26 20 19 25 25 31 23 20 22 21 23 22 20 23 19 37 24 25 23 24 24 20 17 17 19 21 25 28 19 34 20 24 15 23 19 16 29 22 30 26 22 24 22 21 25 24 20 21 28 31 15 22 31 27 19 19 21 25 25 24 19 31 33 20 26 24 24 26 22 22 21 15 22 26 26 21 17 26 25 19 23 32 18 34 22 21 25 12 18 22 17 22 23 23 27 19 19 20 17 26 25 22 25 18 21 23 17 22 20 23 18 22 17 22 20 17 21 20 15 21 33 21 31 26 20 26 26 35 25 26 19 29 21 25 25 24 15 29 25 22 26 24 17 25 17 24 24 34 35 24 16 28 23 23 26 15 23 16 12 24 25 23 24 30 18 26 25 26 26 19 34 20 21 20 16 18 16 21 21 16 23 24 27 21 18 21 30 23 21 22 14 19 17 23 22 21 24 24 23 28 21 25 33 27 18 27 27 18 24 20 29 16 21 26 26 24 18 26 23 20 23 24 27 28 20 23 17 20 24 25 20 22 26 15 28 24 28 24 20 27 20 20 21 23 22 23 20 27 23 30 24 32 21 26 16 21 29 20 26 19 27 19 20 23 23 27 24 18 16 28 27 23 22 18 18 28 21 24 24 16 26 29 27 25 21 18 30 25 23 18 20 23 29 27 26 18 28 22 24 22 22 18 22 19 17 15 21 16 29 21 27 27 28 27 20 30 25 25 26 18 21 12 21 22 26 26 13 26 27 29 18 24 30 25 17 23 21 18 22 20 23 27 25 29 27 21 22 27 29 24 23 23 24 26 19 32 24 28 27 22 18 25 18 28 26 24 18 27 19 24 22 28 23 21 24 19 28 22 14 27 30 34 33 26 23 27 15 27 26 20 29 22 17 37 22 16 25 22 26 28 23 24 22 26 21 19 25 30 24 21 26 25 17 21 27 27 21 23 23 26 27 21 26 24 21 24 20 24 22 25 26 19 31 19 25 24 23 24 30 21 17 20 23 22 26 25 28 24 30 28 24 24 21 17 26 25 24 22 30 18 17 12 30 30 20 21 21 25 19 30 23 26 23 36 16 25 14 27 31 21 29 24 30 27 21 24 12 23 22 24 25 27 28 17 17 25 20 21 20 27 25 22 27 11 27 22 25 25 18 21 24 20 19 22 22 18 20 23 28 17 24 25 24 20 18 14 29 24 24 20 33 28 17 22 21 17 17 20 22 16 21 21 31 23 21 25 24 26 20 22 23 23 20 22 17 27 15 25 26 25 20 23 26 31 15 28 16 24 18 24 21 27 25 23 28 18 19 21 25 21 16 24 19 19 24 34 21 32 19 23 15 19 18 28 16 28 38 19 29 25 26 24 27 28 16 25 26 16 15 35 21 22 24 20 19 20 23 18 19 25 21 21 28 28 26 19 27 20 28 24 29 17 18 23 28 26 21 23 27 21 27 23 15 30 16 23 28 23 15 26 19 22 22 24 23 22 23 17 29 20 25 31 32 22 23 21 18 14 32 26 28 28 24 19 25 21 27 23 24 18 18 19 21 30 25 24 20 25 20 24 22 26 35 26 21 17 19 20 25 25 14 22 27 28 23 25 19 16 24 21 21 19 26 21 28 29 26 21 23 20 25 21 24 22 26 20 18 24 23 38 24 21 22 29 23 35 23 17 22 25 17 19 23 24 22 27 23 28 24 18 23 26 24 21 26 32 23 20 19 21 29 23 29 29 26 19 21 21 26 19 20 18 21 22 29 24 25 18 26 25 23 20 27 23 20 34 26 23 26 30 19 25 19 18 24 26 13 20 20 29 24 28 27 22 22 20 23 29 24 18 24 22 25 31 22 21 20 34 17 23 29 21 21 19 21 19 31 23 20 34 17 18 32 23 25 24 22 23 21 27 26 17 26 23 30 23 29 24 12 16 19 26 26 19 20 34 25 16 25 24 21 19 14 26 22 26 27 21 27 29 24 24 22 24 19 22 21 23 21 28 17 26 24 30 24 20 28 31 20 17 22 19 17 22 24 20 23 22 27 24 24 23 17 22 25 34 22 22 18 28 15 27 19 24 18 23 24 29 24 16 25 28 22 19 29 18 29 21 15 26 17 21 28 18 25 20 23 24 25 19 24 32 31 34 25 17 22 24 23 27 28 25 22 24 19 22 27 17 26 23 20 23 19 22 24 19 21 29 23 25 22 19 16 28 22 26 19 24 21 20 24 29 23 22 27 25 26 17 32 28 21 25 24 27 29 26 21 27 22 28 22 20 27 26 26 23 16 22 21 18 22 22 28 25 26 17 20 19 28 34 13 25 24 31 27 15 21 21 28 28 30 21 22 23 26 29 17 20 21 25 16 22 21 26 24 26 26 18 25 20 20 18 23 23 23 24 30 26 28 25 24 29 27 22 24 26 19 19 26 23 38 25 20 25 26 21 24 27 25 24 28 19 29 21 22 26 18 22 30 25 21 21 21 26 24 30 21 17 25 26 28 10 21 29 19 20 35 15 18 21 16 16 24 29 14 25 19 18 23 16 17 12 26 25 30 20 18 21 23 19 27 28 21 24 19 22 25 22 32 31 19 22 24 22 24 21 18 19 28 29 24 24 25 20 21 21 19 28 18 30 26 28 23 16 17 22 20 20 17 25 25 27 17 25 22 30 34 28 28 21 25 28 23 18 26 23 24 19 23 23 21 22 26 13 18 21 26 19 19 18 22 26 20 20 20 18 26 23 29 19 22 24 27 18 28 18 24 29 23 21 19 19 26 24 23 13 26 27 24 23 22 28 18 29 14 21 20 27 23 18 21 22 25 20 24 20 12 28 25 28 20 34 24 20 22 20 25 26 23 23 22 23 23 21 27 24 25 20 16 29 28 15 26 21 23 18 19 26 18 26 25 22 31 22 23 23 22 20 20 21 17 13 22 23 20 19 26 27 25 30 23 23 19 23 19 31 26 17 25 22 17 28 27 20 23 22 20 26 25 26 18 21 28 25 17 26 26 26 24 20 26 15 26 19 29 23 29 23 27 15 24 22 27 17 29 20 24 20 24 27 27 21 21 27 27 34 25 33 23 22 25 22 15 19 21 24 21 23 24 26 24 19 17 25 21 24 26 28 21 27 23 16 23 25 20 22 19 21 20 22 29 15 23 33 28 16 28 28 22 21 30 25 24 19 31 21 31 17 25 20 30 17 32 19 28 17 24 22 23 17 27 25 22 28 30 23 25 18 28 21 20 29 29 19 21 25 21 26 29 26 14 26 22 23 28 24 25 18 25 28 31 23 25 27 20 19 17 26 25 28 25 21 13 23 27 22 23 27 20 28 17 23 22 25 17 20 31 16 37 21 24 26 28 16 22 28 24 20 27 21 18 30 20 28 16 21 22 26 20 12 18 27 24 29 21 20 28 26 28 28 24 24 17 21 25 21 30 20 18 19 25 24 20 27 23 32 22 18 21 25 32 30 22 22 24 22 20 18 33 21 28 19 16 22 24 24 25 22 23 17 21 22 18 14 18 25 36 25 21 20 25 23 19 22 22 27 19 14 23 18 16 19 24 18 24 28 22 18 16 24 22 27 26 22 19 33 22 22 21 25 19 21 26 33 22 24 23 25 26 26 20 26 17 16 21 20 23 15 24 21 22 30 26 19 20 20 10 28 18 24 26 24 20 28 18 25 26 23 27 26 25 22 30 25 23 32 26 22 25 26 32 20 27 21 17 34 23 24 24 21 22 22 28 27 27 20 30 23 22 28 20 31 23 29 35 29 23 18 25 33 19 25 22 21 19 24 19 23 22 17 16 20 30 20 29 23 27 27 21 25 32 25 22 23 28 19 36 21 22 33 24 27 28 22 22 29 23 33 26 21 23 28 23 26 23 12 24 19 29 26 18 22 26 18 23 26 27 19 26 24 23 17 25 17 14 23 25 17 19 21 24 23 27 16 41 15 21 19 21 20 31 20 23 17 20 20 16 29 21 25 24 24 27 19 26 21 32 26 23 19 16 22 22 28 21 23 22 23 13 23 20 18 28 25 30 21 19 29 23 19 28 11 18 29 33 22 27 16 18 23 25 28 28 21 18 27 29 22 21 19 15 21 18 19 18 12 16 15 28 21 16 20 21 21 31 22 18 23 23 19 23 23 17 23 16 10 21 23 25 21 19 25 20 16 25 18 19 26 27 17 21 23 29 20 27 25 23 16 32 23 25 31 20 10 25 23 30 24 21 24 34 22 19 32 29 18 21 28 17 21 23 18 34 31 20 25 31 26 25 30 23 20 31 26 16 28 25 20 18 28 19 18 29 13 19 22 23 25 30 21 24 20 26 29 20 19 23 22 17 27 25 23 32 23 19 19 25 19 21 19 18 19 20 27 30 24 20 23 33 21 26 31 29 35 19 20 21 19 17 29 25 18 19 25 29 15 29 25 21 23 28 26 28 25 19 19 14 28 34 22 21 26 22 17 25 17 22 27 24 23 28 26 23 18 21 25 18 30 21 23 21 23 23 21 24 22 20 21 22 23 15 18 23 32 23 19 22 22 30 20 21 24 22 26 19 22 24 29 15 25 20 25 26 16 31 25 27 16 22 27 25 26 20 32 26 27 25 20 23 20 30 17 24 17 14 23 23 19 25 23 26 25 19 28 22 20 21 24 21 19 27 25 17 15 15 25 30 19 23 23 14 21 21 19 19 19 29 21 25 23 29 25 24 24 21 24 25 30 27 23 25 25 24 19 23 18 29 19 20 20 17 24 28 27 14 17 28 30 26 21 27 18 23 21 27 19 30 28 19 18 21 24 22 22 30 19 26 28 22 20 23 24 29 22 24 21 19 25 24 23 26 22 26 20 28 27 22 28 23 21 28 26 24 19 21 23 15 25 18 26 20 28 22 24 17 28 22 21 19 26 22 25 16 23 21 23 24 28 22 23 28 18 23 25 27 16 26 25 18 34 18 23 30 22 20 27 17 27 20 21 20 16 27 18 21 33 22 30 21 22 18 16 24 22 26 24 19 19 22 31 24 25 17 21 21 28 23 25 23 15 17 22 25 22 30 32 21 21 18 28 30 19 25 14 29 21 24 26 18 22 22 16 24 20 23 14 23 28 18 23 27 30 22 23 18 21 26 22 21 29 15 29 26 23 19 29 24 18 14 19 19 20 20 26 11 25 18 12 20 20 30 23 30 21 24 21 20 24 16 26 32 19 20 23 24 31 21 24 22 29 28 23 20 18 24 25 20 26 23 26 25 23 18 21 23 23 23 34 25 22 22 24 20 28 22 23 24 26 21 22 28 25 21 24 22 25 24 24 19 31 19 20 16 16 32 21 28 22 19 28 20 26 21 22 28 18 17 16 27 21 17 27 17 19 20 17 20 16 22 27 25 26 26 15 28 21 26 24 25 21 25 21 22 20 26 31 20 32 22 25 26 20 23 19 26 18 25 23 24 16 18 18 20 27 13 22 25 21 22 16 25 22 24 19 29 25 28 18 26 22 23 30 21 13 27 32 29 22 21 23 29 26 26 22 26 29 28 19 28 25 17 26 23 19 19 22 25 24 30 20 26 27 29 17 22 17 25 18 22 22 28 24 32 28 20 21 29 29 20 24 24 13 27 23 25 22 25 22 23 16 26 16 14 24 15 28 19 21 30 21 17 19 19 18 24 22 18 35 25 25 22 19 21 20 22 15 16 23 27 22 24 24 25 27 21 25 25 34 24 23 29 23 26 18 25 19 32 24 30 20 24 21 21 32 19 28 21 21 21 15 26 22 35 23 23 20 28 16 18 19 22 24 16 23 20 26 19 22 29 17 22 24 33 19 33 24 30 25 15 25 19 21 25 24 21 24 21 20 19 27 26 28 15 18 26 30 33 22 24 17 28 23 29 24 22 21 15 21 30 23 23 20 25 20 19 20 23 24 24 31 22 25 18 22 27 19 25 18 30 16 24 24 20 24 8 20 18 20 18 24 25 23 22 33 17 16 28 29 29 21 25 17 27 27 22 27 17 25 34 25 25 29 30 26 18 17 18 31 16 22 31 22 21 28 26 20 19 22 23 24 23 23 25 17 24 26 31 23 18 25 35 28 27 22 19 28 28 26 23 27 31 22 32 20 26 23 18 24 22 21 13 28 12 17 19 21 28 20 24 22 22 22 22 23 19 26 28 23 22 21 32 26 17 28 23 30 25 24 26 26 23 17 17 25 25 24 29 24 14 25 17 25 31 23 25 28 18 17 29 19 17 22 31 35 29 23 18 24 25 20 18 26 19 30 24 31 25 24 16 19 29 26 23 20 22 20 25 26 25 27 28 21 21 32 25 28 27 24 31 26 22 31 20 21 21 20 27 23 25 13 16 24 19 21 22 22 22 23 25 25 22 31 30 21 25 22 24 20 23 16 21 22 28 22 24 18 18 22 21 20 21 23 20 24 32 33 22 31 18 20 14 26 22 18 26 20 19 22 28 28 24 18 21 21 22 14 21 22 22 17 23 27 21 32 30 29 17 23 15 27 19 21 25 23 24 23 20 18 26 37 25 28 21 23 26 30 29 29 26 18 11 21 24 19 24 30 22 21 27 18 22 28 27 23 26 19 15 27 26 27 23 23 26 20 24 28 22 21 24 17 24 20 17 18 22 20 28 18 18 22 28 22 21 21 22 24 18 20 23 24 21 23 27 22 25 21 19 21 13 23 15 21 31 22 29 22 18 25 22 22 28 21 29 27 27 19 27 22 30 14 22 20 9 23 23 23 25 22 23 27 20 21 24 22 21 19 26 18 29 14 24 25 24 22 23 23 24 25 22 17 22 19 28 20 27 24 24 22 19 18 18 22 29 22 21 15 16 23 27 31 26 29 24 27 20 30 26 21 28 26 20 22 20 22 22 28 25 26 25 24 31 14 33 22 22 20 21 21 22 21 18 20 25 30 28 26 32 29 23 24 22 26 17 21 24 16 19 16 22 23 28 22 23 29 25 20 24 25 27 21 28 20 18 22 23 17 19 16 18 29 19 19 18 19 21 23 19 23 25 25 23 21 21 26 23 17 26 23 20 27 20 19 12 23 20 19 17 20 32 23 27 22 17 23 16 24 30 20 17 18 23 28 23 23 32 24 27 20 30 19 23 23 26 18 23 16 23 15 30 32 23 24 24 22 21 22 23 21 23 20 25 22 26 23 25 14 16 27 18 27 24 23 27 25 13 22 22 18 21 25 23 25 22 19 22 11 24 22 22 19 20 18 18 24 30 27 25 17 25 22 19 20 26 23 23 20 21 19 25 24 23 14 18 18 18 25 22 23 19 22 28 24 26 23 24 19 29 27 24 26 21 19 22 31 17 19 19 15 23 19 30 23 26 13 33 20 20 32 21 25 22 26 30 21 25 22 24 26 28 16 26 21 23 16 19 28 31 24 21 18 17 23 23 28 37 18 18 24 27 28 26 20 39 21 22 21 20 26 21 25 26 28 21 34 22 14 26 26 20 27 31 29 30 25 25 25 23 23 24 23 22 22 21 25 26 27 23 23 24 24 21 30 21 21 31 21 26 23 22 17 23 18 23 18 29 30 21 22 18 29 20 13 18 28 21 23 20 22 19 23 24 25 20 24 24 29 20 28 23 14 15 24 18 19 23 27 13 24 15 25 23 18 23 29 29 20 22 22 25 23 24 13 23 19 23 22 26 24 26 26 18 20 25 19 15 22 24 19 18 27 27 23 27 25 26 24 26 29 23 21 22 20 16 23 30 22 21 24 24 23 16 22 12 21 27 21 22 17 22 22 24 22 30 24 21 19 28 20 21 20 19 12 25 22 18 23 26 22 35 23 27 21 23 23 21 17 25 29 18 17 23 25 28 19 24 18 21 26 25 21 18 27 23 23 23 28 22 20 27 30 19 27 22 26 17 19 23 18 25 21 14 15 21 27 24 26 29 22 19 18 21 22 26 25 14 22 19 20 25 18 19 24 25 22 22 17 24 25 28 38 19 21 17 27 20 27 26 13 14 22 18 23 33 25 18 22 17 18 26 20 21 31 26 26 26 31 25 24 23 18 28 23 30 23 22 23 21 23 21 28 26 19 19 22 25 22 25 27 27 28 17 23 28 15 20 24 19 20 22 23 23 18 23 20 23 28 18 26 28 23 23 19 24 22 24 20 22 22 24 25 22 21 26 24 23 18 22 26 18 19 24 23 24 25 26 20 32 21 26 18 22 30 20 20 20 27 21 20 27 25 26 21 22 28 23 31 27 22 16 20 24 26 21 15 21 25 17 25 23 23 22 26 21 24 32 29 16 28 37 16 24 28 24 23 20 12 29 25 28 21 28 24 21 21 26 17 15 27 23 22 19 17 20 22 27 23 22 19 22 22 31 18 24 20 28 21 27 27 22 21 15 21 21 28 31 27 24 27 23 28 29 21 21 25 21 20 24 25 26 28 24 23 26 26 20 16 27 22 21 22 27 22 20 22 24 21 19 28 32 30 21 29 21 25 17 27 26 22 18 26 28 20 20 33 24 25 21 28 26 26 24 27 18 23 28 20 26 29 28 15 25 22 23 22 17 23 24 24 20 25 23 18 25 38 21 23 27 21 25 31 26 24 21 25 22 26 26 13 22 19 18 17 27 27 36 26 21 22 23 13 17 21 31 27 25 25 30 28 23 16 24 29 21 25 24 21 26 23 27 20 24 31 31 21 26 33 31 21 26 22 19 28 18 18 20 21 29 29 22 15 25 23 24 24 29 22 22 27 23 25 19 20 22 18 24 29 25 28 27 20 29 25 18 24 21 21 23 21 24 16 21 23 31 24 26 19 29 22 29 28 23 28 24 14 26 21 25 29 15 28 29 25 13 22 16 24 29 27 18 16 26 18 26 24 18 17 27 22 25 25 23 23 24 28 28 13 29 22 24 22 19 21 25 26 21 26 30 22 25 29 25 18 21 23 23 20 29 25 13 21 16 26 19 25 22 23 24 22 19 18 18 32 31 24 23 21 29 20 31 24 25 21 26 21 25 24 23 23 28 14 13 25 15 30 26 33 23 26 24 16 22 18 25 28 21 22 26 21 23 18 18 28 30 30 22 23 23 22 25 23 14 14 17 21 24 26 17 25 26 19 18 24 23 29 27 25 26 23 25 18 30 22 17 19 24 24 33 22 24 26 22 26 21 23 23 27 28 22 25 31 27 22 29 21 30 17 25 24 19 25 19 22 17 21 18 18 27 27 15 14 20 26 19 20 23 22 26 17 22 31 26 14 32 22 25 20 17 24 25 21 20 19 27 16 19 17 26 21 23 18 25 24 22 20 20 20 26 23 20 27 23 16 20 30 18 23 21 23 23 23 31 23 27 26 23 17 20 27 14 26 22 19 20 17 22 26 17 27 28 23 22 18 27 22 24 26 16 20 26 18 16 18 23 22 26 31 25 22 24 24 20 25 20 18 24 17 27 30 20 24 21 25 22 22 28 23 25 25 22 18 29 27 19 21 26 20 24 21 24 19 16 29 27 28 35 20 22 34 17 32 21 18 23 27 22 21 19 24 29 17 18 23 24 26 22 21 26 29 21 27 19 25 25 28 29 15 26 23 23 20 27 27 20 23 29 24 26 17 22 17 22 28 24 31 31 24 15 15 21 21 26 13 24 21 15 14 16 23 27 23 22 23 22 25 31 25 17 20 23 28 24 32 33 27 26 24 22 24 28 23 27 25 21 19 31 24 19 14 17 24 15 19 20 23 26 26 20 26 29 26 22 27 34 22 21 23 22 27 20 19 20 27 18 27 20 26 16 23 16 18 26 31 23 19 18 25 21 23 28 22 21 18 27 21 16 25 27 21 22 16 20 15 27 24 21 23 22 29 18 21 20 21 20 19 16 22 22 30 19 28 21 28 22 19 27 22 16 18 25 32 16 30 33 19 24 24 23 25 15 21 21 25 27 22 25 24 27 23 22 22 16 19 20 25 26 19 23 23 30 25 16 21 31 22 19 17 29 37 24 25 18 25 26 18 27 26 24 23 21 30 19 29 22 21 16 27 21 27 18 34 30 23 18 26 28 26 24 21 23 18 21 17 31 27 21 17 31 22 21 28 25 24 21 27 24 24 28 19 24 24 22 20 15 20 33 24 28 26 22 31 22 28 26 20 26 23 20 20 20 27 18 28 19 19 21 20 27 27 31 27 23 34 30 31 28 25 20 16 20 23 21 20 29 27 32 29 28 19 26 29 24 12 26 27 22 26 30 25 19 37 32 29 24 17 22 18 27 32 27 26 25 30 24 17 25 31 29 22 21 17 20 25 19 20 20 24 21 27 15 24 29 16 23 24 21 25 18 25 25 25 26 22 18 26 25 30 15 25 28 26 22 19 27 18 33 25 20 25 28 21 25 22 18 19 27 28 20 25 26 23 25 33 23 25 30 23 29 19 18 22 22 30 25 28 27 17 27 24 25 23 21 22 12 24 26 25 28 23 24 21 20 24 15 26 21 33 19 21 18 24 28 26 30 25 21 26 20 23 28 20 22 20 26 22 18 22 25 19 25 25 23 28 20 17 20 18 27 23 16 22 19 23 24 27 30 16 28 22 26 20 28 22 24 34 17 23 20 21 17 21 15 32 20 20 21 26 16 25 18 25 30 26 20 25 27 19 16 18 25 24 22 28 25 22 25 21 25 21 30 27 22 17 22 22 18 19 20 22 24 20 22 20 25 27 14 26 28 27 21 22 21 24 28 26 31 22 22 22 24 25 29 28 26 25 30 24 14 21 21 24 27 28 28 23 17 24 21 16 29 23 24 28 21 22 28 28 29 18 22 20 23 21 24 28 18 26 19 25 23 22 32 24 25 17 21 21 20 30 22 29 21 24 21 19 19 20 29 29 22 21 23 28 19 22 26 19 17 21 25 27 21 21 24 29 31 23 25 28 25 22 19 26 23 22 17 27 18 32 23 21 22 19 26 18 35 26 30 27 25 22 22 24 20 31 22 22 17 24 19 33 26 23 29 19 25 22 24 27 28 23 25 23 14 22 22 17 19 24 23 22 20 29 21 18 18 20 20 23 23 15 28 25 19 21 32 28 22 22 19 26 22 22 29 25 20 21 22 20 28 21 23 26 24 23 23 30 25 31 24 22 19 27 28 26 29 16 26 18 11 21 19 27 25 34 25 23 22 24 26 23 26 21 15 30 24 25 20 19 22 23 24 29 18 20 24 26 19 27 32 21 24 20 21 17 21 21 20 20 22 28 26 22 24 25 22 22 26 28 18 22 25 24 19 20 21 23 22 17 14 24 21 27 24 28 23 18 21 25 30 21 29 23 27 18 25 29 19 19 15 16 21 20 28 34 25 25 20 23 21 30 18 17 27 23 14 19 23 31 23 33 21 32 23 24 26 19 31 11 22 24 24 26 16 28 22 23 21 21 22 24 28 36 28 19 20 24 22 26 22 21 21 24 24 25 24 28 21 30 22 27 25 16 25 21 23 26 18 16 30 22 23 20 26 25 26 18 17 23 25 20 26 21 23 24 30 17 19 21 25 25 19 21 22 35 25 29 24 25 28 19 27 31 21 28 23 25 30 31 27 23 16 21 22 21 26 29 23 26 19 26 27 17 24 22 23 15 24 18 22 25 20 22 28 25 15 22 22 21 20 25 20 22 27 23 22 24 29 23 22 27 19 26 12 25 25 21 23 25 17 22 27 16 22 22 17 19 31 24 28 26 33 29 30 22 29 37 29 19 19 22 24 24 18 22 28 24 19 29 30 25 22 30 17 24 11 27 24 20 23 23 20 16 20 18 22 25 22 23 26 19 26 18 24 33 12 22 18 20 21 24 21 19 20 19 26 26 23 14 27 23 27 26 27 24 17 21 19 21 24 35 20 29 22 20 19 19 22 28 30 29 18 25 26 20 32 35 24 17 20 25 24 30 16 20 19 25 18 25 28 21 30 31 27 23 23 21 20 22 24 21 27 22 20 15 20 21 20 30 24 24 31 23 28 32 23 25 27 29 28 18 27 26 19 15 26 25 27 23 32 20 20 22 30 19 27 28 14 26 28 16 24 21 18 21 29 21 23 30 29 22 19 19 28 22 23 17 31 19 19 18 26 17 20 23 23 14 21 40 20 18 29 21 25 26 21 25 22 20 21 23 26 22 37 19 29 25 24 24 22 21 20 27 31 21 24 22 24 13 24 28 22 23 18 28 19 26 16 19 25 17 22 33 25 32 22 21 23 23 25 25 28 26 23 21 25 26 20 22 18 18 27 10 19 22 24 19 20 20 25 15 25 21 27 27 27 29 30 15 23 22 27 28 30 20 25 31 26 29 25 23 23 23 21 16 22 25 28 25 24 25 31 28 15 23 28 22 28 22 19 20 18 17 23 26 29 22 20 23 29 18 24 20 33 22 15 23 29 21 21 26 22 27 24 12 22 24 16 21 29 22 22 20 35 26 18 26 26 20 19 22 18 28 25 33 19 23 18 24 16 22 22 19 21 20 22 19 23 19 18 16 29 12 27 29 20 24 20 23 20 23 26 16 23 28 20 20 25 21 22 19 14 20 23 27 19 23 25 23 32 21 17 19 22 23 13 26 18 20 19 25 26 21 22 25 30 30 27 21 27 27 28 24 26 19 25 26 26 17 30 25 23 32 26 19 21 22 26 20 25 23 19 24 18 21 18 21 20 30 30 26 27 22 28 21 16 22 28 25 22 21 20 23 18 16 21 17 19 17 25 26 23 20 27 26 22 27 21 23 19 23 31 17 24 22 26 19 17 28 24 16 28 26 19 22 15 17 23 25 26 19 19 23 25 24 24 21 27 24 23 19 29 21 22 23 24 20 19 26 21 28 27 32 26 23 20 22 31 29 28 32 25 18 27 26 23 18 24 27 27 19 29 13 24 14 19 25 20 22 27 21 24 23 22 28 18 27 20 26 15 19 15 26 25 22 28 27 26 23 30 24 33 17 25 20 27 22 24 22 27 26 20 24 20 20 23 24 17 25 24 22 20 23 23 20 19 16 20 19 17 30 18 19 13 25 21 26 20 28 22 28 23 28 27 25 23 22 21 27 24 23 16 30 26 16 17 25 22 23 16 25 31 29 27 24 19 22 20 31 23 27 19 24 27 22 21 26 22 30 16 26 24 25 21 13 21 23 23 17 30 22 25 27 20 26 33 16 19 26 27 20 24 24 30 15 29 23 17 28 18 22 28 18 21 14 18 30 23 18 20 21 26 24 14 21 17 27 32 24 18 26 24 22 13 25 22 21 20 23 29 21 23 20 30 24 23 21 21 23 17 20 23 14 25 31 25 15 24 29 24 25 26 23 24 25 15 25 16 29 32 23 27 23 29 22 26 21 23 24 32 21 23 21 24 20 27 26 24 25 23 19 18 25 22 20 22 32 20 22 30 17 24 22 31 26 17 25 15 22 19 20 28 24 28 23 25 23 23 19 28 21 22 28 14 25 31 25 32 16 18 22 30 17 22 28 21 25 29 23 20 34 29 20 23 27 31 21 26 19 29 26 27 21 17 21 20 25 25 18 24 21 30 20 21 21 28 29 27 32 19 20 17 23 22 20 33 19 17 21 14 24 20 31 26 27 30 24 20 21 27 26 19 14 25 25 22 18 21 23 20 13 37 25 32 17 24 21 22 23 16 19 28 15 19 24 24 25 31 31 16 26 28 19 30 30 22 26 22 22 17 24 23 21 29 28 20 23 24 18 26 19 16 15 30 27 26 18 23 15 22 24 26 22 27 26 27 24 28 33 18 16 26 21 17 19 15 24 33 24 15 25 27 23 28 24 23 29 28 27 19 29 23 25 18 20 18 29 27 32 31 28 19 16 30 18 24 17 24 17 18 26 20 27 27 21 17 24 19 24 25 26 24 29 18 27 22 16 23 22 22 28 17 21 23 25 21 27 27 21 21 20 34 23 25 20 30 22 21 25 20 17 24 20 26 31 26 28 21 22 28 21 16 28 15 25 20 24 25 22 17 18 21 20 29 24 24 12 25 28 24 13 23 16 19 27 28 22 9 25 20 22 22 29 19 30 22 32 23 14 26 22 22 18 18 17 20 29 19 19 18 17 26 24 28 22 23 21 21 21 22 21 22 22 26 32 24 27 25 19 24 20 18 22 28 26 27 18 25 27 23 16 27 28 16 20 25 28 24 21 26 20 29 23 21 21 13 18 31 21 18 23 18 26 20 26 19 24 25 23 22 29 23 30 22 28 27 21 17 27 19 26 28 24 28 23 23 28 26 20 21 19 21 23 22 20 25 29 26 26 25 18 22 21 16 22 26 21 20 23 20 19 24 17 24 19 22 26 24 17 26 22 23 28 22 18 18 23 28 24 24 25 29 21 30 26 17 17 20 24 17 17 22 30 19 16 26 23 29 29 15 31 23 26 19 25 25 23 23 21 25 19 17 22 25 22 25 29 22 16 17 19 26 20 22 23 21 29 23 22 30 25 27 26 21 23 20 27 38 22 30 24 24 28 21 27 30 20 20 20 21 27 29 24 26 32 27 22 28 17 25 19 19 26 16 14 16 23 25 23 19 18 18 23 25 26 29 18 26 31 21 20 20 18 21 26 23 16 20 18 27 16 22 20 26 30 21 30 22 19 22 23 22 25 24 17 25 24 22 16 16 18 30 22 19 21 26 21 23 30 16 28 29 19 25 29 24 25 17 25 32 20 23 24 23 30 20 21 30 22 18 16 18 32 27 26 22 25 28 16 23 21 22 23 19 22 26 20 20 25 24 27 29 29 17 21 20 16 23 18 24 19 26 31 23 22 21 29 27 22 23 19 13 25 22 25 24 23 24 28 27 23 17 20 21 22 25 30 26 21 27 21 22 20 22 24 29 13 19 21 18 21 25 29 24 25 23 18 30 29 25 24 20 26 27 25 17 26 23 22 21 20 25 30 23 21 13 26 30 18 26 27 27 23 26 13 33 27 18 23 23 22 22 27 20 29 24 25 16 23 16 22 23 22 25 21 16 20 27 13 27 27 32 23 17 28 25 27 29 18 17 25 14 25 27 22 19 23 21 33 25 29 31 19 25 26 19 22 31 28 23 27 23 25 19 25 24 32 20 26 21 22 26 19 18 16 22 19 13 16 21 17 25 22 26 17 20 21 16 18 17 23 26 26 19 21 22 23 18 20 23 24 29 23 21 28 23 27 22 25 26 16 16 26 14 28 24 24 25 27 25 27 15 25 26 17 23 13 29 23 24 22 31 25 22 28 32 25 23 24 21 32 23 29 18 15 23 24 26 26 19 24 16 27 25 24 15 28 17 23 17 20 19 21 25 24 26 28 24 19 32 24 26 25 14 29 20 21 20 24 24 24 25 19 15 20 25 18 25 18 24 19 27 26 20 26 38 21 19 16 17 17 24 25 32 23 27 21 21 28 25 19 30 22 17 23 24 31 29 17 15 24 26 31 21 24 17 22 17 23 23 23 21 19 14 23 35 22 25 25 15 22 20 20 18 29 20 25 22 20 24 20 19 22 20 20 27 28 21 22 17 28 23 21 21 17 20 35 23 23 21 26 31 21 22 15 30 21 28 18 26 21 20 16 19 28 25 25 22 24 23 18 19 24 22 25 22 25 24 18 24 12 15 20 16 27 21 25 15 25 22 30 23 27 21 23 21 30 29 29 24 28 27 29 29 33 22 18 25 20 28 29 16 21 25 18 20 26 27 22 27 28 26 24 24 32 27 19 25 21 24 23 31 29 18 24 27 22 25 17 23 25 29 25 27 26 23 20 21 23 17 22 27 25 17 26 19 14 33 22 22 25 22 24 21 29 23 26 28 25 22 28 24 20 15 13 25 26 20 20 24 17 26 19 20 25 22 20 24 26 28 22 26 22 27 23 27 27 22 16 25 29 20 17 33 19 18 29 15 23 24 19 33 20 28 27 27 23 17 19 28 18 25 25 26 26 25 24 21 23 28 25 21 22 24 22 21 22 26 25 22 24 22 16 19 21 17 25 23 23 34 22 17 17 34 25 26 13 26 25 24 33 20 24 25 23 30 24 18 24 23 20 19 17 15 22 17 27 21 26 29 20 19 28 24 20 30 17 19 18 23 26 16 29 28 34 26 25 19 33 24 27 26 23 28 22 26 23 20 24 21 14 16 23 17 18 26 24 25 24 21 19 26 19 31 26 23 23 25 18 23 32 18 17 18 24 25 24 23 27 20 23 25 20 16 18 23 20 17 19 19 24 19 22 20 22 22 30 24 18 21 21 23 24 28 22 19 20 27 18 21 22 18 24 25 24 23 26 38 20 20 25 28 16 20 23 29 22 28 19 25 21 22 28 30 26 21 34 32 29 25 21 16 22 15 23 16 31 21 20 34 25 27 24 17 23 26 31 21 30 21 29 21 19 22 21 18 24 22 28 19 16 19 24 25 18 17 22 19 26 21 23 23 30 24 32 33 20 24 19 23 23 24 18 22 22 22 16 17 26 19 18 32 24 25 17 22 27 28 31 20 23 23 25 15 20 24 17 29 24 21 21 18 19 24 31 25 20 21 24 20 24 20 23 20 24 23 25 23 22 25 22 22 29 24 19 20 18 16 24 23 24 27 21 23 21 23 17 23 22 24 19 23 24 15 19 17 25 33 21 22 21 22 26 20 30 14 25 29 13 32 18 20 21 22 20 26 20 30 22 20 25 15 21 24 15 24 23 20 18 16 29 17 18 34 20 20 29 23 26 24 28 28 26 22 24 20 22 24 27 30 29 24 30 22 28 15 19 18 22 26 27 20 21 25 29 23 23 19 32 23 25 19 16 24 25 28 23 32 21 22 17 25 34 32 29 27 27 20 23 24 27 23 23 19 27 28 16 21 23 18 21 22 20 22 19 18 24 25 23 27 29 25 26 23 21 25 26 17 27 33 27 19 17 18 32 21 25 13 25 21 23 19 17 17 23 24 27 16 21 15 17 22 19 27 24 25 23 26 14 18 18 20 30 27 21 18 25 26 23 23 20 15 25 24 25 26 25 23 30 29 21 27 14 17 23 23 26 20 24 22 22 27 27 23 23 30 21 15 19 22 34 24 29 22 33 20 14 29 25 19 21 22 27 19 21 15 23 15 25 24 20 26 30 26 23 21 21 21 26 17 22 17 29 21 17 28 21 22 20 19 20 17 21 24 24 18 29 23 27 31 29 18 23 28 22 29 20 24 22 25 27 19 27 22 21 31 22 28 26 28 25 25 23 16 26 21 23 26 22 21 21 23 25 19 25 10 23 22 23 26 24 25 24 24 22 21 25 25 30 20 26 23 31 23 31 17 21 15 19 20 26 17 20 25 26 26 19 24 22 18 23 27 25 18 27 22 25 20 17 25 27 20 30 27 23 21 24 24 26 23 24 31 24 19 19 25 21 16 28 18 22 20 18 26 25 23 16 23 20 25 23 23 25 21 19 25 22 25 32 19 23 31 18 23 27 28 24 18 32 29 24 21 27 23 16 25 21 16 19 13 32 26 28 14 20 14 19 16 26 27 16 22 23 19 17 32 28 30 21 24 20 20 28 23 17 24 20 20 26 31 21 25 28 22 23 23 22 19 24 19 22 23 20 27 24 31 22 18 24 16 25 19 28 20 19 26 17 25 23 20 24 21 20 18 24 29 23 21 26 28 26 32 19 24 20 20 13 32 28 27 19 25 15 22 20 23 22 22 18 23 18 22 13 26 25 28 23 18 18 23 27 15 22 25 24 12 25 25 17 21 17 17 12 23 28 24 25 18 26 27 17 14 16 31 32 30 29 23 21 27 24 26 24 17 17 23 29 19 15 23 20 24 20 20 27 19 21 23 26 27 21 23 26 25 23 32 29 19 20 23 20 26 25 11 27 21 23 23 24 20 20 26 19 30 24 24 17 30 34 17 25 17 26 19 24 26 24 20 29 22 23 29 21 20 33 21 22 16 16 34 27 27 28 18 17 23 17 24 26 31 24 21 24 26 25 16 26 29 19 22 19 25 24 16 23 18 23 22 21 33 19 27 20 20 21 20 28 25 23 22 22 26 18 27 21 24 24 22 20 31 17 21 18 29 23 22 14 20 24 33 24 23 23 26 19 16 22 18 22 18 20 16 21 27 23 16 24 23 20 21 26 14 20 25 15 27 23 27 17 22 20 29 24 32 23 17 29 28 25 18 24 18 19 30 21 24 29 21 18 26 25 21 23 25 24 28 15 27 23 19 28 27 22 19 18 27 27 18 28 19 24 22 22 26 26 21 27 25 26 19 22 18 30 25 22 25 27 26 27 31 26 29 22 26 24 21 20 22 23 20 20 22 23 24 25 27 20 20 28 20 24 24 18 13 26 28 31 22 19 29 14 17 19 25 18 24 21 17 21 29 28 17 23 24 34 26 22 27 26 28 25 29 21 24 24 23 26 27 27 21 26 27 18 19 17 21 15 20 22 19 22 15 16 21 30 27 22 20 25 26 27 19 23 19 22 25 22 23 22 26 24 20 19 25 21 33 17 14 22 27 28 26 21 24 28 27 16 20 23 18 28 22 25 15 30 20 24 23 24 22 21 23 21 13 17 26 27 29 30 25 22 12 19 19 24 28 19 17 27 22 21 18 15 30 23 28 27 20 19 19 16 19 24 23 28 27 16 19 28 18 15 24 20 17 30 20 25 29 24 23 27 18 16 22 18 29 22 19 17 19 23 23 23 19 23 16 32 21 22 28 23 21 26 29 16 20 20 23 23 28 29 20 27 25 21 25 30 18 23 21 25 13 19 25 23 29 24 28 25 19 20 23 23 20 28 15 26 25 18 22 24 29 23 30 24 23 31 30 23 18 28 20 25 28 24 23 18 18 21 32 26 19 22 40 17 28 23 21 26 23 30 17 28 22 20 23 25 27 27 17 30 24 16 28 19 24 26 15 27 20 20 21 29 21 25 17 18 19 26 30 16 22 27 19 18 19 23 24 33 22 21 19 30 22 18 23 29 28 19 20 25 17 14 27 20 23 22 21 16 27 27 26 22 28 23 27 21 26 21 22 22 21 21 23 19 21 18 18 22 25 19 30 17 19 24 25 22 23 21 25 28 29 23 31 18 18 24 20 20 23 14 25 27 17 18 18 27 24 22 25 20 27 17 28 23 29 30 24 26 27 21 26 17 22 19 21 17 14 15 24 18 27 23 21 28 21 21 22 22 22 28 23 25 21 23 22 24 32 21 21 21 14 25 21 26 21 15 20 29 20 21 21 21 22 26 34 26 22 30 28 27 30 27 28 25 26 19 18 26 18 20 26 23 23 18 20 26 25 30 20 23 27 28 22 20 25 27 21 20 11 30 16 23 23 23 16 18 26 22 21 32 18 24 25 23 19 27 31 19 18 24 26 21 21 25 20 26 21 19 19 20 22 23 22 25 28 21 29 14 17 19 28 21 19 20 24 29 29 26 27 24 20 18 17 21 24 20 20 23 17 18 24 23 22 12 22 22 14 13 25 31 25 30 21 30 25 19 20 24 22 18 22 21 27 15 29 30 30 25 20 20 27 22 22 23 18 22 20 14 35 25 29 26 17 25 25 27 24 17 19 15 21 32 30 19 21 27 25 23 16 23 23 20 25 27 21 25 16 23 20 24 22 15 25 22 25 18 19 21 17 27 24 19 20 24 22 16 22 19 23 27 21 22 10 25 22 31 21 15 23 24 28 24 29 22 20 24 29 21 19 19 25 29 16 30 28 23 26 26 24 14 13 17 28 22 23 22 28 24 34 25 24 23 17 31 22 18 24 21 24 21 22 34 24 23 23 24 28 28 18 17 32 19 24 21 31 28 30 24 22 21 26 28 19 19 25 19 18 21 19 24 17 24 23 36 26 17 16 30 18 27 25 16 18 20 28 20 21 27 35 22 19 27 26 23 22 16 26 29 26 23 23 25 24 25 23 18 20 24 22 17 23 23 25 22 23 24 22 10 16 21 12 29 22 22 24 24 16 25 25 25 27 27 24 15 14 17 21 24 16 17 17 27 19 30 32 17 25 24 27 15 14 22 21 20 19 28 19 29 24 22 16 16 21 20 14 18 17 29 22 26 23 26 19 23 17 31 27 26 27 23 21 25 19 14 19 21 26 20 20 23 22 24 19 22 27 19 13 25 23 22 25 23 30 21 19 23 21 28 25 22 30 27 19 17 27 31 22 21 23 31 18 18 21 20 25 26 24 19 18 16 22 18 21 22 21 24 25 25 16 23 16 23 22 16 27 17 20 35 29 22 21 18 20 23 18 33 18 24 26 31 22 24 28 13 20 22 20 29 19 23 18 21 21 16 25 29 19 22 15 20 23 26 21 17 21 25 26 27 24 16 18 20 23 21 16 25 30 15 16 21 24 17 29 29 17 18 24 19 18 26 28 24 24 28 31 17 17 24 24 30 26 17 21 16 24 19 21 21 23 15 32 22 26 17 24 26 24 31 28 19 20 20 33 19 18 24 22 18 21 20 30 23 22 18 25 21 30 24 20 20 24 27 20 19 25 23 15 26 20 22 21 25 25 27 29 21 25 23 28 26 18 27 33 15 26 21 28 19 22 22 27 23 25 26 22 24 20 20 20 21 21 19 31 20 24 17 20 21 21 23 20 15 15 18 26 22 25 28 20 30 18 17 21 18 20 20 18 22 20 24 21 26 22 25 24 18 31 17 28 26 23 28 23 13 27 23 21 20 30 20 29 22 19 22 29 25 29 28 24 22 27 25 27 27 27 25 22 21 23 17 22 28 26 23 38 23 16 27 25 29 26 30 19 25 16 21 23 24 20 32 24 22 18 21 28 27 18 28 15 15 23 27 24 12 17 22 20 30 18 23 26 22 26 22 26 20 22 24 22 21 26 17 26 29 21 25 27 22 26 24 34 17 27 21 23 29 24 15 19 23 28 23 25 18 30 29 18 39 24 20 24 28 28 25 20 17 19 22 16 30 26 18 20 18 23 28 29 19 21 21 23 23 17 22 21 16 19 26 22 25 29 16 22 21 21 24 18 27 20 23 29 21 27 20 23 29 26 33 25 15 21 17 28 12 22 15 19 21 22 19 14 24 25 25 28 23 27 27 30 22 18 23 23 23 20 27 25 22 23 24 21 14 19 31 18 14 25 21 21 18 22 15 23 24 21 29 22 24 22 21 16 18 24 31 25 21 24 24 25 17 27 21 22 29 21 28 22 20 25 15 26 25 25 24 20 27 23 22 25 22 29 25 22 25 25 28 20 25 24 18 23 23 14 19 26 22 20 25 16 34 24 22 18 19 33 27 28 25 18 29 29 17 22 28 30 23 21 28 24 27 31 25 29 19 16 21 23 23 24 20 16 22 18 25 18 19 27 20 25 27 21 25 23 24 26 21 13 19 16 20 17 16 17 28 31 22 28 20 24 22 20 24 18 26 20 28 23 32 28 23 20 29 24 20 28 26 18 24 24 17 24 26 28 26 26 23 28 28 18 22 16 21 20 16 25 22 23 24 24 24 27 27 24 24 24 23 26 27 23 26 27 17 21 19 28 16 20 22 21 26 20 19 20 30 21 24 20 23 27 21 30 31 19 27 22 14 25 22 20 19 25 19 15 23 20 25 24 22 22 27 29 27 22 25 22 21 25 25 17 22 18 25 23 15 18 22 26 19 17 17 25 23 16 14 22 26 20 31 24 26 25 20 17 24 22 19 27 24 28 16 30 24 26 23 21 24 21 17 25 15 22 23 17 24 31 25 23 20 21 26 25 24 21 20 22 20 26 16 20 26 27 20 21 28 23 23 24 18 23 35 15 21 21 25 19 23 19 21 28 25 25 16 28 30 22 27 40 28 19 27 18 21 24 19 24 22 22 18 17 23 23 23 22 16 28 25 24 28 33 24 24 28 22 18 14 21 24 18 19 27 21 16 20 25 23 24 29 22 40 21 21 22 21 28 24 27 23 21 31 20 25 20 23 22 25 15 26 28 21 22 18 24 17 22 21 22 23 20 23 21 25 32 18 35 21 19 24 26 23 21 15 26 18 29 28 19 27 29 27 22 14 21 23 21 25 20 15 24 18 27 20 23 12 17 25 14 21 22 29 22 19 30 18 19 23 13 29 24 23 36 22 28 15 19 27 14 19 20 21 23 29 25 26 21 25 18 20 24 25 17 21 13 29 25 25 26 21 25 15 20 22 30 34 20 19 23 24 21 21 26 25 34 22 14 18 27 24 31 12 21 28 22 20 23 16 23 22 20 19 23 22 29 18 15 27 21 18 21 14 19 19 31 34 21 20 20 23 14 25 23 19 21 26 24 31 23 23 20 17 24 18 28 21 24 21 21 20 31 16 27 22 25 19 24 35 22 16 26 25 22 25 27 25 22 22 21 22 23 36 22 22 24 17 22 16 22 28 22 24 28 26 17 29 17 16 22 24 23 24 22 17 22 22 29 18 21 16 22 19 16 26 17 15 26 22 27 19 20 22 19 23 19 23 15 27 26 26 28 25 25 19 27 22 30 26 25 20 24 20 24 20 26 27 27 20</t>
+  </si>
+  <si>
+    <t>JSU(-5.0097110860528975, 5.692398989401209, 9.21379019716828, 23.050958359105564)</t>
+  </si>
+  <si>
+    <t>31 25 31 29 24 32 35 42 33 35 33 41 37 35 36 39 39 38 31 27 25 39 37 33 38 25 34 28 27 25 29 33 29 33 38 37 26 21 37 39 45 33 24 34 29 37 29 35 32 30 44 36 32 40 29 34 32 21 25 28 30 34 40 29 40 27 32 18 31 24 24 32 29 45 38 30 33 30 32 33 36 27 24 41 41 25 39 42 35 28 26 31 30 32 30 31 40 42 33 40 33 40 36 30 30 29 29 33 31 34 29 24 31 35 31 36 45 34 49 31 38 31 22 28 32 24 29 32 37 37 33 25 32 23 41 32 29 33 22 30 31 26 30 25 30 27 31 26 39 34 24 30 32 26 36 48 37 45 31 37 32 35 51 30 36 29 38 36 31 33 33 23 39 45 35 37 32 31 40 24 33 29 49 44 30 21 41 30 40 36 21 35 20 24 38 31 37 38 44 24 37 37 32 44 26 40 32 32 32 28 29 27 35 27 31 37 36 36 30 26 31 38 29 29 31 26 26 24 33 30 35 33 36 28 36 29 41 46 39 35 36 32 24 34 35 41 27 31 30 31 36 20 35 34 28 35 33 36 38 27 28 26 25 31 31 34 28 31 26 42 35 43 32 26 33 30 36 33 34 39 35 33 40 37 37 32 38 28 39 21 31 42 29 38 34 35 32 26 37 27 41 32 31 27 35 34 33 28 31 32 38 33 32 30 27 37 37 36 41 27 36 38 34 29 29 24 42 37 34 35 31 37 27 32 31 33 28 30 29 25 24 26 25 37 30 46 36 43 38 29 35 40 33 34 30 33 21 32 33 38 35 23 37 31 35 25 32 40 37 27 30 31 30 30 31 31 30 36 39 41 31 27 42 39 40 30 37 27 37 29 40 32 43 36 31 32 38 23 41 44 31 30 39 30 34 26 38 32 25 36 28 33 31 22 40 39 41 54 34 32 35 24 36 35 31 37 30 28 44 35 22 33 37 29 32 36 41 37 39 29 35 34 43 31 35 36 30 24 28 38 37 28 31 33 36 33 27 32 33 31 33 27 34 32 35 36 24 42 29 44 35 32 33 34 27 33 33 28 29 42 39 36 34 38 37 35 31 30 32 37 33 29 33 46 30 28 19 41 39 27 26 34 34 25 43 33 30 34 47 24 38 26 39 43 29 32 32 44 36 27 31 26 29 32 38 35 38 35 36 25 34 32 29 27 35 39 29 35 23 39 31 36 29 23 31 31 27 34 34 31 27 28 36 36 24 35 40 35 29 26 25 37 33 34 32 49 37 25 36 31 25 27 27 34 27 25 31 40 30 33 31 30 37 28 29 29 36 24 38 23 38 28 32 34 34 22 30 36 40 27 43 29 32 28 34 30 40 37 37 44 30 29 26 35 37 25 34 28 31 35 43 28 39 23 29 29 31 32 43 20 35 47 28 50 36 35 35 37 36 22 36 38 22 27 45 28 28 36 28 26 30 30 26 34 33 31 27 37 42 37 32 38 26 42 33 33 23 28 35 39 32 31 29 32 25 35 41 23 38 29 33 45 34 22 38 30 38 29 32 40 29 30 22 42 26 36 41 39 27 37 31 27 19 44 36 36 37 47 28 33 31 39 32 30 24 28 28 30 40 35 35 33 33 27 30 27 35 42 36 32 18 30 35 33 31 22 33 41 36 34 37 28 24 30 36 26 29 31 29 36 44 35 32 42 27 29 30 43 34 39 26 27 30 33 59 30 28 29 38 37 44 34 22 29 35 28 25 40 33 34 37 30 38 32 26 31 36 36 35 30 45 28 36 36 32 39 31 33 38 31 28 37 27 33 29 33 25 28 32 40 36 38 29 39 31 33 34 40 31 30 43 33 38 43 50 26 31 31 29 36 36 25 27 29 41 31 34 39 36 29 26 30 44 30 26 37 34 34 43 32 28 35 44 21 33 36 32 26 28 27 34 55 30 28 39 35 20 42 40 41 37 32 30 31 35 42 32 36 36 41 32 39 29 22 25 28 33 35 27 28 46 37 30 31 32 30 25 24 36 28 33 40 26 40 37 38 37 30 31 34 34 33 31 23 39 26 42 32 38 36 27 40 40 25 26 35 27 29 32 30 26 35 32 39 36 30 37 28 30 40 51 31 32 31 38 23 40 23 38 27 32 35 44 32 27 29 44 33 24 34 32 37 27 22 34 23 28 39 29 38 29 34 36 37 25 36 38 34 53 34 29 28 30 32 33 33 36 30 35 29 31 40 27 30 28 28 35 25 32 29 32 34 41 30 38 24 31 22 40 34 36 26 32 34 23 31 36 29 34 39 36 38 31 47 41 37 33 32 35 36 37 29 48 28 38 28 23 37 33 36 36 25 36 32 32 37 35 42 32 36 24 26 32 46 44 29 32 34 43 33 18 29 38 38 35 36 28 43 30 33 37 26 25 30 34 25 31 29 32 31 36 40 27 33 23 29 27 36 30 38 32 41 39 42 31 32 45 38 31 30 41 26 30 36 30 51 33 31 40 33 26 28 39 32 32 36 31 42 24 27 32 29 28 41 35 32 27 29 29 39 41 32 24 43 37 34 22 30 42 27 32 41 25 27 30 23 29 32 39 29 29 28 25 34 23 30 17 33 34 38 29 31 33 30 30 37 33 34 29 25 33 33 28 44 39 24 30 32 31 35 30 28 25 39 44 33 33 30 31 25 27 24 41 32 42 33 39 30 26 27 28 24 29 23 31 39 34 25 32 28 45 43 48 40 28 37 35 39 28 40 34 34 24 33 30 27 39 34 25 31 29 37 29 23 30 24 34 27 31 29 25 38 26 34 34 31 35 32 25 42 27 34 41 37 33 23 30 40 35 28 20 41 37 31 32 36 35 26 40 22 28 30 39 34 25 26 30 35 27 35 29 25 33 39 38 28 43 33 29 32 28 32 34 36 28 24 31 32 31 39 31 30 30 22 35 36 23 39 26 30 28 24 34 27 38 36 28 38 36 37 34 39 26 27 31 30 25 31 27 27 30 33 38 40 42 30 34 26 33 32 40 37 21 26 30 25 41 30 25 44 35 25 36 32 37 25 26 39 31 31 34 42 34 30 32 39 20 30 30 41 33 41 31 35 26 34 36 44 27 35 27 41 27 34 37 39 30 30 35 36 48 33 43 30 33 32 29 27 27 30 32 32 31 29 37 35 32 24 34 36 35 42 39 30 34 39 22 35 31 34 30 27 27 32 41 43 27 35 46 35 25 40 35 26 26 43 38 37 22 43 30 36 23 35 35 40 29 45 23 39 24 33 28 34 24 33 30 29 34 47 29 32 23 42 29 26 42 42 30 27 33 28 39 39 32 25 36 32 36 37 26 31 27 36 36 42 31 35 33 26 31 30 31 35 38 39 32 20 36 42 29 29 34 30 33 29 29 28 40 27 34 39 30 45 39 29 28 37 26 32 38 37 27 33 32 23 37 30 42 25 26 28 33 28 25 28 40 28 53 30 34 36 38 41 41 33 29 27 27 40 28 40 32 28 29 41 41 29 39 27 42 33 25 30 36 49 38 32 33 31 28 29 25 43 26 42 29 26 32 28 32 35 28 36 26 27 31 30 22 30 36 45 34 33 26 33 37 31 39 32 35 29 22 33 36 26 23 37 26 31 43 26 25 23 27 35 38 31 37 23 41 30 31 26 35 27 26 31 43 33 34 33 30 34 32 29 29 26 26 26 27 33 26 38 33 26 38 39 27 29 27 24 40 26 41 27 30 27 35 26 32 35 25 38 44 36 38 40 30 28 39 31 31 37 32 39 27 35 30 22 46 31 36 34 33 31 39 40 29 43 32 40 31 34 30 31 43 32 38 45 44 29 23 33 48 25 35 30 26 31 35 25 38 36 22 23 29 47 30 37 37 43 32 29 35 38 37 33 32 38 31 47 36 28 39 34 33 38 32 29 40 30 46 32 27 33 37 41 37 37 20 33 29 34 31 29 31 29 30 28 33 33 31 39 32 32 28 35 26 22 42 32 23 25 28 31 31 38 21 46 28 32 27 31 32 42 27 34 23 32 29 27 41 33 31 33 30 38 28 39 28 42 31 32 25 25 29 27 33 38 35 33 28 21 35 30 25 35 31 48 22 30 45 30 26 40 21 24 42 46 30 42 20 25 28 31 39 31 33 25 37 37 30 32 36 25 32 24 28 30 24 30 18 36 44 26 30 28 25 47 33 29 37 40 28 35 28 26 31 24 17 35 31 31 30 32 31 35 21 30 27 29 32 38 25 31 32 45 27 37 32 35 28 39 33 31 39 22 17 34 35 37 32 30 35 41 35 29 48 42 31 32 39 29 30 33 26 49 47 24 32 46 35 33 41 33 35 42 35 22 42 35 28 31 35 29 27 43 19 29 31 29 32 37 25 34 29 33 45 33 26 34 29 28 38 31 33 38 28 28 31 30 22 27 32 23 36 28 35 34 37 28 36 46 31 37 39 40 46 27 28 29 28 25 37 36 25 25 32 41 24 36 32 25 29 38 40 42 30 25 31 20 45 44 30 27 31 30 26 38 24 35 37 31 27 39 31 38 29 28 35 24 41 25 28 30 33 28 31 31 27 36 30 31 31 21 23 26 46 34 30 32 28 35 30 40 35 29 39 26 42 30 39 22 33 32 33 38 24 36 32 38 21 31 35 41 31 33 38 37 40 33 31 33 28 43 23 30 23 28 30 30 26 38 27 34 32 28 38 30 30 33 35 37 34 35 31 22 26 18 35 45 28 30 33 25 36 29 27 28 24 56 32 35 35 44 31 30 34 27 35 33 42 36 32 35 35 30 26 41 23 44 26 33 26 22 30 44 40 28 25 36 46 35 31 38 26 35 28 35 26 41 29 28 30 27 29 31 37 40 23 36 41 28 34 34 30 45 30 31 30 32 34 34 29 35 30 38 30 37 41 34 36 29 32 45 36 32 29 29 37 30 42 23 41 29 41 29 32 19 34 30 31 28 36 31 38 26 34 26 32 38 38 30 32 42 28 36 30 33 26 32 41 28 47 29 33 38 30 28 29 29 29 34 27 26 23 37 21 26 43 31 42 36 35 29 29 31 31 33 40 26 31 30 37 30 31 21 28 29 39 34 35 33 20 28 35 36 31 46 39 25 32 28 39 44 28 34 22 41 28 31 37 26 32 32 23 29 29 32 24 30 42 26 29 35 36 34 37 26 25 37 31 29 40 29 38 40 29 23 44 32 24 25 24 28 35 27 36 17 30 34 17 32 28 45 31 42 32 29 30 25 32 31 38 47 30 31 30 33 35 35 28 32 34 36 31 28 32 35 38 28 35 36 35 33 34 30 27 30 28 34 46 36 29 27 31 30 37 28 34 33 31 34 33 30 32 26 32 30 36 33 31 28 46 31 33 18 26 44 26 40 34 30 35 33 35 30 34 34 29 25 27 33 30 23 34 31 28 30 26 30 29 30 35 34 31 32 21 41 27 38 28 33 35 32 33 28 25 40 41 28 40 34 30 37 29 31 32 34 24 37 31 38 24 25 25 25 37 30 36 34 32 34 26 36 33 34 30 36 33 45 31 36 31 28 46 34 20 39 40 40 29 35 34 37 37 41 33 33 36 44 37 40 34 24 32 28 26 31 31 37 34 42 33 31 39 32 22 36 28 31 24 35 37 43 33 41 41 39 28 47 35 35 32 31 23 37 37 38 27 35 30 30 25 34 24 23 30 26 35 26 32 40 33 24 28 22 29 31 29 27 41 33 29 27 24 28 30 31 21 25 33 36 26 30 29 33 37 37 36 37 40 38 31 38 39 31 28 35 26 42 36 33 26 40 25 34 39 26 39 29 26 29 24 33 31 50 26 32 26 40 26 26 32 30 35 29 31 31 39 29 33 40 24 30 33 40 28 48 32 44 41 23 29 26 30 38 39 31 33 29 30 25 34 38 39 23 30 30 42 41 26 35 26 37 33 46 31 31 23 28 26 44 29 34 32 39 28 29 30 30 32 43 52 31 31 26 25 40 33 33 25 39 30 36 28 32 34 18 29 24 31 27 32 38 31 29 42 27 27 41 36 38 24 34 27 33 36 34 31 25 33 46 31 36 39 35 30 30 22 26 37 31 32 38 26 27 39 33 33 28 32 35 38 33 36 35 28 35 35 38 34 32 39 49 35 41 32 34 37 36 35 31 36 42 39 43 30 28 37 28 33 32 32 22 43 28 23 24 29 34 25 34 37 33 31 36 33 29 30 42 35 34 36 52 36 26 39 37 44 33 26 46 35 36 22 30 32 30 28 45 33 24 34 25 31 49 28 37 42 27 27 40 32 30 25 45 41 40 38 27 37 34 25 24 32 26 43 36 50 34 38 26 37 34 33 32 31 33 34 34 44 34 37 38 27 31 46 37 49 36 29 37 35 37 42 27 28 30 30 39 35 35 24 26 32 29 38 38 32 29 33 42 30 33 39 45 35 44 31 32 29 32 30 33 31 42 28 32 30 26 35 31 28 26 33 28 33 45 48 28 42 21 31 31 35 34 33 35 23 30 34 38 38 30 28 31 32 33 18 35 33 35 22 30 41 30 42 37 42 31 34 26 34 31 30 34 30 37 33 23 22 34 51 36 41 37 35 38 44 48 43 35 35 22 28 33 32 30 34 29 32 33 36 28 39 37 34 37 27 25 33 33 37 31 36 37 30 31 37 28 31 34 27 30 36 27 25 46 28 36 23 22 31 38 38 31 34 30 36 30 29 33 35 34 41 34 28 37 32 33 29 17 35 21 29 42 34 35 31 30 39 33 32 36 31 42 39 31 27 36 36 42 20 31 28 18 31 30 32 33 36 39 33 30 35 42 37 31 26 36 29 46 23 34 37 39 34 35 36 34 33 32 27 34 30 32 38 46 27 36 27 27 25 25 32 38 28 32 24 25 31 34 37 39 34 38 35 27 41 38 34 36 31 34 27 27 32 35 35 32 36 32 38 37 22 46 37 29 28 29 28 31 31 23 27 34 40 33 48 41 39 30 28 28 34 24 31 29 21 45 24 38 25 34 33 37 35 31 29 31 32 36 32 33 28 24 31 31 27 33 23 26 34 26 33 24 30 30 33 33 30 35 31 32 32 32 40 31 24 37 35 26 38 29 29 19 29 25 26 25 27 42 43 37 32 29 32 29 32 44 28 29 26 30 38 32 29 40 36 34 33 41 32 32 30 34 28 39 28 29 32 38 45 34 29 38 24 26 33 33 35 34 27 30 34 38 29 34 22 21 35 27 38 34 31 36 39 23 30 30 24 30 35 33 37 26 25 31 25 37 30 31 26 32 26 20 41 38 37 35 20 33 32 33 27 37 32 32 31 30 27 40 32 34 23 32 25 23 30 30 31 29 34 36 32 32 30 30 27 33 45 31 36 31 32 24 39 22 31 31 21 31 36 36 31 34 20 44 26 28 41 30 33 37 34 35 31 32 33 39 34 35 25 35 24 37 22 30 33 41 33 28 26 22 31 27 35 51 27 25 31 38 40 32 29 56 29 40 31 26 38 27 31 39 38 37 53 35 22 33 35 31 39 43 41 38 35 33 39 34 32 33 36 41 27 37 32 35 41 37 30 39 36 35 35 30 33 37 33 36 30 31 27 31 30 31 28 34 41 28 31 25 38 36 21 29 39 33 34 32 31 24 34 35 34 25 32 30 40 27 36 29 18 25 36 29 27 34 37 25 37 26 34 37 29 29 37 41 32 30 43 32 31 35 19 31 25 31 35 40 33 31 32 26 26 29 26 23 33 35 27 31 34 41 34 42 30 38 33 30 39 35 31 33 31 25 27 38 31 24 29 31 36 27 33 20 26 37 30 29 25 30 38 34 29 39 37 33 23 39 31 32 35 30 18 39 30 30 38 33 27 46 35 38 27 30 32 29 22 39 41 29 31 30 34 38 28 30 33 29 32 33 26 27 32 40 31 29 35 25 35 37 38 30 35 32 31 29 28 34 28 31 30 21 26 32 36 38 38 49 29 26 25 27 28 37 32 24 32 25 27 35 23 24 35 41 33 30 25 29 33 39 46 26 33 21 36 26 45 33 24 25 36 20 34 44 38 31 31 25 26 34 30 27 39 34 37 39 44 34 30 30 31 35 32 46 27 27 40 28 30 32 38 36 24 26 33 33 29 37 36 35 40 31 33 34 29 31 37 25 35 27 32 34 31 34 32 32 40 29 38 33 37 36 29 35 29 29 26 31 35 32 39 30 28 32 30 30 22 31 37 23 27 39 34 28 37 38 29 44 29 42 25 33 33 32 26 31 39 29 29 39 34 35 30 28 35 36 38 45 34 27 24 35 33 29 23 29 31 27 35 32 30 42 27 34 27 51 39 30 43 49 20 42 38 34 34 34 22 43 37 37 31 38 34 31 39 41 29 21 35 35 27 26 31 30 35 37 32 31 30 36 29 41 23 36 27 37 28 38 41 33 29 25 34 29 37 41 33 29 40 33 32 35 31 29 30 35 31 34 36 34 40 31 31 32 34 29 23 41 36 37 30 35 30 27 39 30 27 28 34 54 36 33 42 30 33 31 35 32 31 25 35 45 37 30 44 33 32 30 41 33 41 28 39 27 31 37 24 36 41 34 22 30 26 36 36 26 31 30 33 31 36 29 20 30 56 33 33 37 28 27 42 38 39 24 34 29 40 35 21 34 34 27 31 34 30 42 32 33 35 29 18 25 28 44 37 33 35 40 38 35 28 33 36 32 37 30 30 37 31 33 25 35 50 41 27 38 51 40 24 41 38 26 35 26 29 29 36 40 39 30 22 32 29 33 35 41 31 45 35 29 40 26 30 31 29 29 40 30 37 45 27 43 35 28 33 30 28 33 30 38 27 27 42 41 31 35 25 41 31 35 38 35 38 26 21 35 28 31 38 21 38 41 38 23 33 36 37 38 32 27 27 33 31 38 33 26 26 42 27 43 37 31 31 34 38 37 23 38 30 34 33 28 28 28 30 30 44 44 32 38 35 34 27 33 36 32 29 37 33 31 30 28 36 24 46 29 28 36 34 28 26 29 50 44 28 34 31 39 29 38 34 31 30 34 34 35 35 27 33 39 21 18 36 21 36 43 45 33 32 39 26 33 24 33 40 36 34 40 31 31 28 25 36 37 38 32 27 32 31 30 37 20 22 22 27 29 38 28 33 34 26 26 41 34 47 39 38 34 40 31 34 48 32 24 32 28 36 39 37 30 41 29 35 31 27 34 39 38 30 38 43 35 36 56 34 43 25 34 29 32 42 25 27 22 32 23 27 31 39 31 25 29 35 29 27 32 44 38 28 31 40 38 27 41 28 28 28 28 35 39 28 29 32 37 23 26 23 43 32 29 24 32 32 35 28 29 27 36 31 30 41 39 23 28 38 25 29 34 29 30 39 38 27 43 35 39 26 28 36 26 32 37 32 24 29 30 32 26 34 44 31 30 32 39 29 29 32 29 28 30 28 29 28 34 32 32 45 38 32 39 31 27 32 25 29 38 22 49 41 28 26 29 33 32 28 36 27 35 33 28 31 35 33 23 30 38 35 31 31 35 32 27 31 37 32 41 29 29 43 20 43 31 27 30 35 28 29 31 29 42 24 31 28 33 39 29 29 31 40 27 43 28 34 39 34 39 27 34 32 34 30 40 39 32 28 36 35 34 23 28 21 25 32 41 38 43 32 24 30 25 28 33 20 35 34 23 27 26 29 38 33 32 34 31 33 45 34 21 32 37 36 29 48 41 31 38 30 29 33 36 36 40 31 26 23 44 30 24 26 37 35 26 26 28 34 38 38 29 33 34 37 37 42 53 27 36 29 29 41 30 35 28 33 28 36 32 37 22 30 26 29 36 40 29 28 25 37 39 34 38 36 29 29 34 27 26 31 34 32 32 34 29 24 36 39 28 32 34 34 25 25 26 27 25 29 28 27 29 43 26 38 30 33 28 36 40 27 29 30 31 41 24 39 43 32 33 37 36 36 21 34 33 34 37 28 42 35 41 34 31 30 20 32 34 36 35 27 35 28 40 37 24 27 47 30 25 22 42 48 34 34 30 33 32 34 32 39 32 36 27 38 28 39 31 29 25 35 30 37 26 48 40 41 29 39 37 42 31 26 31 29 29 24 52 33 27 25 43 32 27 34 34 40 32 34 33 34 37 26 29 35 30 32 27 38 47 33 40 36 33 37 32 40 36 31 35 34 35 23 29 30 30 42 28 32 33 30 37 31 50 34 34 43 38 42 38 38 23 27 29 36 29 28 34 41 44 31 38 27 34 39 36 19 37 39 33 37 38 30 33 46 51 34 29 26 27 28 40 47 36 37 30 35 31 25 34 37 37 24 29 27 27 37 29 33 35 34 26 36 22 33 36 28 31 35 31 35 28 33 36 37 39 37 25 36 38 35 29 34 36 42 28 27 41 23 46 33 31 31 34 33 31 34 23 25 39 37 29 38 37 29 35 53 31 30 46 30 38 27 26 26 24 41 33 33 37 23 32 36 32 35 31 34 16 32 39 34 33 38 37 30 33 30 24 39 33 46 29 27 32 37 37 35 37 38 30 36 29 31 34 26 31 32 36 31 21 23 32 31 37 36 32 38 31 32 33 39 46 34 24 38 29 35 33 40 38 24 39 24 36 35 41 28 31 44 25 33 31 31 26 32 20 40 32 32 34 32 21 30 20 33 39 39 31 31 35 32 26 24 32 35 31 36 33 30 33 30 34 35 35 39 28 25 33 30 27 27 25 27 39 31 32 32 39 32 26 38 34 37 29 29 34 26 32 32 46 28 32 25 33 42 41 39 32 32 42 38 26 34 33 31 34 37 36 38 22 35 34 24 38 28 35 40 33 37 37 37 36 24 38 25 41 30 31 37 23 38 27 33 33 33 42 37 30 24 27 32 33 42 34 42 34 37 36 33 24 35 37 33 27 32 30 38 29 28 39 29 30 31 38 33 30 37 30 44 42 31 36 37 38 31 28 35 31 27 29 38 29 47 38 24 36 26 35 28 45 36 41 41 38 30 31 31 28 38 28 27 25 31 28 38 35 31 45 27 33 28 35 33 36 35 37 27 24 32 27 33 30 32 35 29 29 35 32 30 27 27 28 32 31 32 37 36 35 36 42 34 30 32 26 37 34 34 38 36 26 34 33 24 43 29 28 31 32 32 32 35 37 50 39 32 26 40 40 32 41 24 35 30 22 26 25 37 27 47 45 37 31 32 35 38 32 29 24 38 33 37 32 27 30 32 35 41 30 29 36 28 22 43 49 35 37 34 28 29 25 27 29 26 32 36 37 35 33 39 25 27 34 37 27 32 32 30 26 31 27 32 30 24 20 42 26 37 35 39 29 25 36 36 34 35 43 35 35 24 33 39 24 29 25 29 32 31 35 45 36 39 26 35 31 35 27 28 36 30 27 28 34 38 33 57 30 44 28 28 36 28 37 21 38 28 34 34 24 37 37 31 32 30 26 33 36 52 35 27 28 33 32 39 32 24 35 35 37 31 39 34 29 38 31 39 31 27 41 33 28 34 30 28 36 29 33 28 35 38 33 24 29 28 31 32 38 32 31 42 38 28 29 32 31 35 29 29 38 50 40 39 32 39 37 31 43 41 28 39 39 35 41 39 38 34 31 27 34 32 39 41 32 35 26 37 30 29 29 32 29 24 32 27 26 37 29 29 34 34 23 27 35 29 28 33 26 26 42 34 33 33 36 32 30 34 24 34 22 35 34 30 30 37 26 29 34 26 29 28 26 26 47 32 40 36 52 38 41 35 42 42 38 31 26 35 31 37 24 31 42 27 27 42 38 33 36 47 24 35 21 38 31 26 29 34 28 23 27 29 28 37 30 34 33 30 31 25 33 45 23 26 26 26 29 36 29 33 28 23 38 37 28 34 30 31 36 40 34 40 25 30 25 27 34 53 34 45 32 28 28 27 24 41 36 42 25 35 35 32 38 41 35 32 25 36 35 43 25 31 27 35 25 37 34 36 36 38 37 31 33 28 28 36 34 31 33 27 29 26 32 25 32 37 35 41 43 29 30 44 33 38 34 43 36 25 35 27 27 27 35 38 35 32 39 30 30 30 36 28 34 39 27 35 35 25 30 30 25 31 39 30 35 42 35 27 31 27 43 25 35 34 46 28 29 28 30 25 30 38 27 25 25 52 32 23 38 26 35 39 28 36 25 29 31 38 33 31 47 33 35 34 33 36 26 32 30 34 43 33 34 36 36 19 34 37 37 26 30 36 35 38 25 29 34 26 37 41 37 40 29 33 33 33 34 34 37 34 33 27 35 46 32 36 22 28 41 25 26 31 34 28 26 33 38 28 34 26 40 36 41 47 44 24 29 35 35 35 44 31 38 39 36 36 40 31 33 39 32 26 31 36 41 35 32 36 43 38 24 30 33 30 34 35 26 30 37 24 30 39 37 32 30 33 34 23 41 31 42 29 24 31 45 32 28 38 33 44 31 15 30 36 27 36 36 29 34 25 49 35 29 31 39 32 31 26 25 33 33 46 24 35 31 35 25 28 29 28 27 31 29 25 31 34 29 27 40 31 41 37 35 39 34 32 29 35 34 26 34 42 27 31 33 25 31 26 20 30 27 36 32 34 34 38 41 34 28 28 33 31 21 34 27 30 30 33 34 30 35 31 38 40 41 28 33 36 31 32 34 26 37 32 33 22 41 34 31 50 35 25 31 29 40 28 36 33 37 34 29 31 28 28 30 36 40 30 37 32 33 37 23 32 33 32 35 26 32 35 29 27 30 26 28 25 37 41 28 33 36 38 33 37 27 38 40 35 36 22 33 27 42 27 28 40 31 25 39 45 27 29 22 25 33 31 34 27 25 28 39 36 41 32 38 36 32 23 42 30 33 33 27 30 30 27 30 39 37 42 36 33 29 28 39 43 42 42 33 26 37 35 39 23 28 43 37 27 36 22 34 23 26 39 26 30 42 30 35 29 31 40 26 34 33 31 22 28 37 30 32 34 40 38 30 32 43 31 45 26 32 31 41 28 32 36 38 31 27 27 34 33 29 36 28 31 36 29 33 31 34 32 31 24 30 34 29 42 29 24 27 33 26 37 29 37 29 38 32 37 37 34 34 33 30 35 32 35 28 40 36 25 24 35 34 27 22 38 40 36 35 29 35 30 29 39 32 37 27 30 37 32 26 31 31 43 26 34 36 38 29 22 31 32 32 28 43 34 32 39 23 38 48 28 33 37 37 26 33 35 36 24 38 32 32 42 31 35 41 25 32 21 26 44 39 27 25 32 39 38 27 35 27 33 38 28 30 37 38 31 26 28 32 39 33 35 35 28 38 29 41 33 28 24 30 34 22 32 31 22 31 39 36 31 30 43 30 35 37 28 32 34 25 32 24 34 37 29 37 28 35 28 36 35 29 35 43 32 33 31 39 32 33 34 33 36 29 23 25 34 37 31 27 46 26 30 41 26 29 37 40 30 25 28 28 33 26 29 36 34 41 27 32 31 29 29 37 31 30 40 20 35 44 37 43 30 26 31 39 26 33 36 27 33 37 31 32 48 45 30 35 40 44 38 33 36 44 34 40 30 29 36 32 32 39 25 31 28 45 26 25 24 37 44 40 44 30 32 27 28 27 25 41 29 24 29 27 30 25 46 39 35 34 34 26 33 35 37 24 25 33 37 32 22 30 28 26 24 54 32 45 27 35 29 35 30 26 29 39 25 24 36 34 42 46 44 24 36 40 26 37 43 32 32 28 32 25 39 30 30 40 43 28 27 39 24 31 34 30 30 39 39 39 33 33 23 28 33 37 33 36 31 37 33 41 43 33 26 34 32 24 27 29 29 42 32 21 30 36 36 35 33 31 44 37 32 26 43 26 35 30 32 27 35 40 44 40 35 33 25 41 26 29 26 34 25 35 35 35 34 35 35 25 33 27 35 35 37 32 45 30 44 36 21 37 36 32 36 25 32 35 34 25 34 37 24 29 25 40 41 35 33 47 29 30 35 35 26 29 25 38 51 40 35 31 32 35 28 27 34 28 36 28 33 35 28 31 29 29 29 42 29 32 24 34 35 35 20 33 23 31 36 45 35 19 36 26 34 32 39 26 38 26 37 34 21 38 34 36 26 35 29 27 46 28 25 27 26 34 30 39 33 30 30 35 27 32 26 33 27 41 37 37 34 32 27 29 26 30 30 36 32 38 28 32 38 26 35 32 37 24 31 29 33 35 25 35 31 40 30 36 28 20 23 42 39 35 30 28 35 31 29 33 40 35 32 34 37 31 50 30 35 35 36 23 35 28 35 38 33 40 35 35 40 33 25 31 34 30 31 35 24 34 34 34 27 35 28 33 32 22 30 37 26 34 27 29 32 36 28 29 30 30 37 39 30 37 29 42 38 37 31 25 34 38 29 37 28 42 32 39 34 28 27 25 30 24 23 25 48 31 27 36 29 45 37 25 43 30 42 30 35 36 36 35 30 35 25 29 29 32 32 34 43 25 24 23 26 41 29 30 32 32 46 31 30 41 42 41 37 32 31 30 35 45 31 36 38 29 36 37 38 37 27 31 41 27 32 36 40 35 47 39 35 41 23 34 26 33 39 26 19 26 31 39 38 26 33 27 34 30 38 35 25 37 37 30 26 35 32 32 35 30 21 29 29 38 23 29 33 28 38 31 39 31 30 37 31 35 33 29 29 33 34 30 29 27 25 38 27 30 35 36 31 31 38 24 38 36 27 36 35 32 33 25 37 43 25 35 31 31 35 32 36 37 28 27 29 26 41 41 39 27 36 39 27 34 32 35 32 27 32 38 30 34 30 32 37 37 47 26 30 27 22 34 25 35 28 36 38 35 29 30 36 33 33 28 32 23 31 32 34 32 34 33 41 39 35 30 32 32 34 39 51 36 34 36 35 36 31 24 32 45 28 29 32 34 40 36 35 30 38 34 25 43 41 31 35 31 31 38 34 25 35 36 33 28 25 36 52 34 35 18 37 40 30 34 36 37 35 30 26 44 48 32 33 33 32 34 37 28 40 34 32 23 30 24 32 30 31 32 31 23 27 38 26 36 39 46 32 24 34 36 37 39 24 26 40 24 35 37 35 29 34 28 43 40 43 41 30 42 35 33 30 37 40 30 32 32 32 27 34 30 47 36 41 32 30 31 31 27 20 25 26 20 28 29 28 36 29 35 25 28 29 24 31 23 37 34 34 31 30 28 33 22 28 32 33 41 29 30 43 27 41 32 29 35 24 30 35 24 35 31 34 32 38 33 40 26 34 33 18 29 24 43 39 41 35 41 36 33 34 46 38 37 29 30 48 30 41 26 29 37 33 34 31 25 28 25 44 38 32 30 39 26 45 29 30 25 30 32 26 35 39 32 31 43 40 37 35 21 37 32 28 29 35 26 31 36 29 21 29 40 24 34 27 30 32 39 31 36 34 52 35 22 28 22 33 31 35 41 33 38 29 30 45 37 29 42 31 24 34 31 35 38 25 24 29 37 41 32 37 26 30 24 32 34 39 33 29 21 34 48 41 33 31 22 37 29 32 22 37 24 36 34 27 28 29 27 36 33 36 31 34 34 30 25 33 29 35 28 24 29 45 30 27 31 41 45 28 30 22 37 32 37 24 40 30 34 25 23 38 34 34 33 38 28 30 33 33 31 34 29 39 28 28 32 25 20 37 20 41 30 34 23 39 25 39 36 37 31 33 32 38 37 35 28 45 39 36 35 44 31 26 43 29 32 39 24 31 37 27 28 39 34 27 44 40 35 38 37 51 37 24 34 28 38 35 40 38 25 31 34 31 33 25 28 31 41 36 41 36 33 31 32 30 26 27 40 33 28 36 29 24 41 35 32 38 37 33 31 44 29 39 35 31 30 38 28 36 24 26 39 31 27 29 46 24 31 31 30 35 30 32 36 38 39 37 38 31 40 28 35 35 28 25 41 37 28 29 39 31 28 37 27 32 34 23 48 28 44 36 37 38 24 32 32 28 33 36 39 36 31 31 31 34 42 34 26 30 33 27 28 33 39 33 32 29 31 23 32 36 20 36 36 30 50 31 28 26 40 37 37 25 36 33 35 48 26 35 35 32 38 30 35 36 38 29 24 21 27 35 26 33 29 33 41 33 23 40 28 33 46 34 28 27 33 35 26 34 36 48 33 40 25 49 37 40 34 29 40 33 34 29 26 38 31 26 28 36 28 27 36 35 32 31 33 33 31 25 46 33 36 31 33 30 34 41 30 27 36 25 38 37 34 35 35 33 33 27 25 25 33 20 24 34 29 38 29 32 29 34 29 42 34 28 26 29 34 31 43 33 32 34 43 25 31 34 29 26 36 40 28 31 45 29 29 40 47 25 33 29 36 29 37 33 38 28 26 36 44 35 36 47 54 33 37 27 24 34 25 32 26 44 34 28 41 31 32 36 23 29 35 38 28 46 28 35 26 32 29 34 26 38 30 40 28 27 27 34 35 23 25 29 27 35 34 33 31 37 36 42 44 30 41 31 32 33 39 25 26 29 33 23 27 32 27 26 36 31 33 25 29 36 40 38 31 32 34 35 21 30 33 29 42 28 24 23 29 26 36 42 34 31 34 35 26 33 28 28 27 35 26 35 31 29 35 34 42 34 32 25 37 27 30 33 34 35 35 27 40 29 34 30 36 37 33 24 38 33 21 31 23 31 49 30 36 28 24 44 27 42 22 41 38 21 43 27 28 31 28 30 39 24 40 32 31 34 23 30 39 20 35 32 28 27 30 48 26 30 44 23 33 41 30 40 32 37 36 38 27 29 33 31 38 33 38 37 29 44 39 49 25 27 26 26 30 36 32 28 35 37 30 35 31 43 33 39 27 18 34 33 31 32 39 31 36 22 36 42 41 38 36 33 29 26 35 42 36 31 29 35 42 24 26 32 25 32 32 28 28 26 28 32 35 31 43 36 37 40 32 28 28 33 21 31 49 36 26 29 25 41 34 38 19 34 29 31 32 22 23 39 29 35 30 34 23 25 35 25 38 34 35 33 35 27 29 25 32 33 30 29 22 34 37 30 35 33 26 31 36 32 36 35 26 35 38 25 35 23 24 30 36 37 32 27 30 34 37 35 38 32 37 36 19 29 29 40 32 35 28 40 28 24 40 40 32 29 37 43 28 30 26 27 20 34 32 27 36 46 40 42 28 36 26 34 24 27 26 37 34 23 36 31 31 30 32 29 30 27 38 32 31 37 36 34 36 41 33 34 36 30 41 28 43 36 40 41 32 39 26 31 41 39 42 33 40 33 33 34 26 37 34 27 33 33 31 29 34 35 26 29 20 28 27 34 43 31 45 35 31 38 28 29 34 43 30 34 28 42 32 45 29 30 25 24 28 42 24 27 34 37 38 29 27 33 22 30 34 36 26 39 34 35 27 21 36 38 28 35 38 30 27 28 36 38 30 45 35 31 22 30 32 30 25 33 34 32 38 31 34 33 31 27 33 27 36 30 41 37 31 27 32 35 35 55 29 35 42 30 31 36 41 31 27 38 46 30 37 35 31 28 31 31 21 28 28 46 31 39 18 43 18 31 28 41 40 22 30 28 28 26 41 34 37 26 33 35 31 33 31 32 32 32 29 34 47 29 35 35 30 30 31 32 28 32 33 34 30 35 39 33 40 31 32 33 28 31 29 36 42 30 37 24 38 33 30 36 29 27 30 31 42 32 32 33 36 33 44 34 32 26 26 18 47 38 35 27 39 30 30 31 31 34 27 24 30 22 29 24 32 36 39 37 27 26 31 37 25 33 31 31 21 32 32 26 29 29 27 20 38 38 39 31 26 35 33 24 20 32 43 35 49 47 33 36 35 38 32 30 29 25 34 51 29 26 32 28 30 31 29 35 23 29 31 29 37 29 33 43 31 32 43 46 24 31 29 31 36 38 15 33 32 28 32 39 29 33 35 33 36 29 33 28 42 40 24 42 31 35 27 32 39 34 36 42 31 34 40 30 29 50 30 31 21 31 47 40 38 39 28 23 29 24 37 33 39 33 36 30 37 34 23 37 31 26 28 28 41 37 25 35 22 31 29 38 38 34 33 32 27 32 24 40 32 34 30 30 28 31 37 31 28 33 32 25 42 25 32 28 41 35 29 20 29 41 41 31 34 36 38 27 22 31 23 33 30 28 22 25 39 34 25 35 35 32 33 38 23 28 32 25 37 36 31 22 32 30 40 33 41 34 28 36 36 42 32 31 23 26 40 31 35 34 28 31 30 30 26 33 37 29 38 31 36 35 25 42 36 30 32 26 34 42 31 34 29 33 30 33 28 33 34 33 32 32 29 35 29 46 39 32 36 38 37 36 45 37 39 38 30 38 34 28 28 35 24 34 36 32 33 40 41 24 27 32 33 31 30 23 20 35 45 38 31 35 44 19 25 26 32 25 33 25 23 30 35 47 28 30 32 47 35 29 39 33 37 35 39 26 31 31 36 34 49 41 30 37 40 26 24 29 25 22 28 38 25 33 20 26 26 39 41 28 38 40 38 46 27 26 25 33 32 32 31 32 30 34 27 30 36 33 46 27 27 39 32 37 36 34 34 34 35 27 28 30 31 35 34 35 21 36 36 32 41 32 32 28 30 29 17 27 34 39 34 40 39 30 21 28 31 30 40 25 28 49 35 29 25 22 45 32 39 43 28 26 24 27 31 33 36 39 33 27 30 33 29 28 32 34 29 40 25 35 35 35 34 34 24 27 33 30 40 32 32 30 28 30 32 32 33 28 26 37 29 27 41 32 30 35 40 25 29 28 37 32 37 37 28 35 39 26 29 39 27 32 30 34 22 26 35 32 40 38 38 31 22 24 45 31 29 35 22 37 33 30 26 30 43 31 36 35 31 44 36 36 31 36 29 34 37 33 36 27 23 40 43 30 26 28 57 26 35 31 28 35 32 39 26 45 31 29 32 35 34 35 33 40 32 25 38 33 39 33 29 38 35 29 29 37 27 36 30 24 24 35 38 26 28 46 31 28 38 37 33 43 28 28 28 36 32 30 34 41 49 29 27 36 28 25 41 27 33 32 30 22 35 40 34 28 36 39 37 25 39 34 29 32 32 32 35 29 33 30 28 31 27 27 37 23 25 31 31 27 38 30 41 38 47 28 39 30 25 28 33 34 27 23 33 43 26 22 31 36 32 30 29 29 36 26 38 34 36 44 28 35 34 33 37 20 31 32 31 35 22 26 35 22 35 38 28 38 38 32 32 28 30 34 39 32 28 30 35 33 45 35 31 26 23 28 29 36 31 18 25 41 29 26 38 33 27 30 49 34 31 45 41 34 43 43 39 32 31 29 25 42 22 27 37 32 28 29 35 32 32 42 27 36 39 44 35 32 33 35 27 29 23 41 19 32 31 35 25 24 37 29 39 41 32 33 34 29 28 36 47 27 27 34 32 33 38 40 25 30 29 25 31 28 31 33 29 31 34 32 41 24 24 28 37 28 33 33 34 40 43 32 37 28 28 25 27 33 30 36 30 37 32 27 32 27 28 20 29 33 27 22 34 41 36 39 35 41 30 27 29 33 26 25 34 28 35 24 39 40 38 35 22 29 38 29 29 34 28 29 26 20 53 29 37 37 26 31 30 36 40 27 33 24 34 38 44 31 32 32 32 33 23 34 36 31 27 46 29 37 24 33 27 33 35 25 33 32 37 28 25 22 28 35 36 24 30 29 33 29 28 31 36 39 31 30 17 32 29 42 29 23 40 38 42 36 38 32 27 33 40 26 34 24 30 43 24 33 36 32 39 34 30 27 23 26 36 32 34 36 37 33 40 37 34 35 31 36 34 27 38 27 33 30 27 46 35 33 31 30 44 39 30 25 45 28 39 28 46 37 43 31 32 30 33 50 27 29 31 34 30 27 28 38 30 33 35 48 47 23 24 33 27 35 31 27 25 28 34 31 28 38 46 33 31 34 40 35 30 23 40 38 40 31 35 34 33 28 32 29 31 41 29 25 29 38 36 30 29 39 33 21 22 31 20 36 32 34 43 35 23 32 32 36 37 36 33 23 19 22 35 40 34 32 24 34 23 34 45 22 34 31 38 27 26 31 27 32 29 39 22 41 34 34 21 27 32 26 17 21 25 38 33 33 32 36 33 35 26 43 38 35 34 28 28 30 29 27 24 26 34 28 33 29 34 30 28 28 35 24 24 44 33 32 34 31 52 29 36 33 26 34 31 37 38 38 28 27 38 38 31 29 34 42 25 25 29 27 31 34 37 26 25 27 31 28 30 30 31 34 37 36 24 35 23 32 29 30 40 29 26 53 38 41 28 26 26 25 27 38 25 32 35 35 32 30 37 23 27 30 28 35 38 30 30 35 35 25 30 44 31 33 24 31 32 37 34 32 38 33 44 33 28 27 28 32 30 30 23 32 38 21 20 30 30 24 34 37 26 25 32 28 28 33 37 34 31 36 40 28 21 33 35 46 35 35 27 28 28 28 33 29 39 27 44 33 36 25 31 32 36 42 33 25 26 37 43 28 26 42 29 29 33 29 36 32 31 22 35 32 42 28 26 28 28 39 31 28 28 36 30 32 31 30 30 33 35 38 38 26 37 42 35 30 29 35 41 25 35 29 33 24 27 34 32 30 34 40 32 32 28 31 31 33 30 25 44 33 34 27 28 29 30 28 28 26 26 28 35 30 35 42 33 40 29 25 30 23 32 32 31 32 28 33 28 34 34 37 36 27 45 27 36 31 34 32 31 22 42 31 27 30 42 28 36 30 23 29 31 37 37 34 37 35 33 31 33 38 40 34 26 39 32 35 30 38 41 34 48 36 26 36 34 39 34 37 29 41 23 27 29 31 30 41 38 31 27 37 41 35 27 39 22 22 34 31 38 22 25 28 26 41 23 35 37 33 35 28 32 30 28 25 28 30 37 24 32 47 27 42 30 29 36 35 51 27 33 30 28 38 29 23 24 29 39 31 28 32 38 46 24 51 31 29 32 36 32 32 25 29 23 29 26 37 31 29 28 32 32 40 42 28 30 28 39 29 31 23 29 28 28 37 31 36 45 27 40 31 27 39 31 34 30 34 37 40 41 35 34 35 34 42 31 25 28 18 40 23 25 22 38 28 33 34 22 36 32 36 39 33 34 38 39 33 28 34 35 40 24 33 39 30 30 37 29 26 29 40 30 22 31 30 31 26 28 22 38 29 31 32 29 35 26 28 24 24 37 39 36 32 34 35 36 25 37 31 29 44 32 37 30 34 39 20 29 30 37 33 29 31 32 36 34 30 35 35 30 34 37 41 32 38 33 30 31 31 18 26 37 32 30 35 40 46 31 37 28 32 44 32 38 40 24 41 37 21 27 40 41 37 32 37 38 39 36 38 41 27 24 32 30 30 33 25 26 28 29 32 26 31 36 31 38 37 37 30 31 32 45 34 18 25 29 28 24 32 29 38 38 27 38 28 28 35 27 34 33 34 30 34 35 42 37 32 36 44 37 25 47 35 27 36 33 26 38 42 38 36 31 35 32 40 24 31 24 29 30 26 31 31 30 35 29 39 37 36 32 29 34 35 36 37 35 41 39 27 30 27 34 24 27 31 32 34 28 28 24 47 27 38 30 29 37 32 36 39 32 37 29 24 33 39 30 30 31 31 26 34 26 33 36 28 39 38 47 35 25 36 33 32 31 34 27 29 24 36 36 26 25 35 37 34 21 27 39 32 24 27 32 38 33 38 30 36 36 32 27 29 27 30 32 31 34 21 36 37 31 27 31 32 27 24 40 27 27 35 26 35 37 38 29 30 29 34 36 36 30 31 31 26 39 27 27 35 43 27 29 37 30 35 30 26 39 47 29 35 25 37 26 28 30 36 34 41 35 28 46 40 31 38 53 37 30 33 31 30 41 25 32 38 29 29 23 30 31 37 28 23 35 30 36 51 45 31 34 38 27 28 22 27 36 26 28 40 29 30 27 30 29 35 39 31 57 31 31 33 31 39 28 33 31 26 46 31 37 38 35 32 34 24 28 38 30 27 30 28 24 33 28 32 31 30 34 26 35 41 29 40 32 26 35 40 31 27 22 41 24 36 38 26 38 45 34 32 24 33 30 35 37 25 19 38 27 31 26 33 21 29 34 24 29 32 36 28 27 41 35 34 32 29 34 35 37 47 29 39 24 22 35 26 26 30 35 32 42 37 36 30 30 28 30 37 36 30 36 27 31 32 30 40 27 35 27 35 28 47 40 28 28 27 37 30 25 39 31 53 33 24 26 35 35 45 21 32 35 32 35 33 32 34 25 26 28 33 25 41 32 25 33 27 33 33 20 26 28 39 48 30 28 32 37 22 32 29 29 29 34 34 44 31 29 29 25 33 25 46 27 34 33 29 29 40 27 37 29 34 33 35 44 31 29 41 35 25 35 33 41 35 25 31 35 39 43 27 28 36 25 30 27 31 40 32 31 33 34 22 36 25 21 34 32 33 32 28 25 29 35 36 27 37 22 39 29 32 34 35 25 37 31 33 38 31 33 25 37 33 37 29 34 29 34 44 34 39 29 39 28 40 38 36 36 39 26 31 24 33 36 35 24</t>
+  </si>
+  <si>
+    <t>JSB(13.392702749753084, 10.8983198332281, -422.52073088196596, 2896.629306657727)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234 149 242 218 198 228 259 288 250 201 245 347 237 251 220 277 267 225 261 196 164 254 297 211 304 227 230 191 210 193 205 259 236 249 272 287 210 182 237 239 292 260 199 240 235 220 225 190 258 216 341 205 253 250 227 226 201 162 181 205 218 247 299 217 347 236 255 132 232 217 161 268 215 285 252 228 242 220 219 263 244 207 202 272 313 148 225 300 306 198 185 229 242 273 263 193 324 302 188 263 228 234 268 206 227 223 162 231 300 216 212 198 236 204 208 265 288 178 357 203 217 269 133 182 218 168 248 250 249 256 200 192 203 171 232 258 236 244 177 208 250 170 224 227 219 172 206 204 258 218 191 215 195 141 222 351 202 324 270 192 265 252 355 270 245 191 287 223 257 250 265 152 300 289 205 273 260 180 261 189 260 277 295 386 241 171 304 217 220 250 148 267 154 127 233 250 243 219 306 178 261 268 291 246 190 379 222 223 204 162 185 164 234 213 151 238 240 238 212 178 222 292 218 218 234 159 218 164 241 222 198 251 226 247 297 211 282 335 278 173 285 280 179 223 188 313 174 229 284 265 234 183 288 236 215 246 274 280 292 257 232 184 182 266 272 192 235 242 151 285 254 295 248 194 270 208 198 218 255 226 244 210 247 258 280 218 339 204 263 158 203 278 191 291 189 287 182 194 238 234 250 259 175 156 273 277 235 225 188 187 290 242 221 272 143 274 296 265 244 194 181 316 245 237 166 185 228 310 278 293 191 268 178 257 220 198 186 223 182 175 165 224 161 277 194 281 252 239 267 210 285 246 241 277 188 213 110 216 220 265 302 142 260 293 287 201 251 297 256 169 246 209 202 242 202 234 263 255 276 285 229 220 287 282 224 214 223 242 254 195 340 234 270 269 221 187 258 176 286 254 255 169 251 184 235 194 299 238 209 240 179 302 235 133 272 321 352 344 294 224 290 154 282 261 173 274 221 167 338 225 177 260 232 257 283 222 243 230 260 229 221 248 321 257 230 277 246 151 209 264 251 166 251 234 266 274 206 267 245 243 282 194 223 226 277 302 191 308 213 266 242 222 247 304 205 181 204 253 223 260 245 312 241 306 269 277 273 230 181 256 247 247 229 288 184 197 146 316 307 204 199 194 226 210 307 217 238 216 374 171 257 145 260 287 249 294 245 282 282 220 232 107 263 228 254 299 281 323 180 180 261 183 217 173 271 239 226 284 125 267 234 238 257 194 202 260 200 215 222 239 160 220 241 263 199 226 264 215 198 185 153 297 252 265 203 380 280 164 254 225 192 184 179 229 184 227 205 315 214 205 243 222 303 210 232 248 259 201 262 193 260 148 229 288 266 190 239 282 327 182 269 203 250 205 227 225 283 265 229 270 186 194 219 244 208 161 248 200 207 269 345 218 330 198 218 130 195 187 314 190 291 392 203 295 246 273 225 266 295 182 262 278 158 162 324 237 226 242 202 201 211 231 196 202 243 239 209 291 276 234 220 286 225 283 253 265 170 184 233 288 253 199 228 302 202 291 220 143 275 157 250 276 231 171 257 186 230 249 215 246 227 234 181 307 167 248 315 339 206 258 220 174 160 336 255 288 298 228 220 306 195 269 249 266 241 195 186 229 296 258 230 212 248 215 245 249 266 375 287 220 163 201 212 228 251 143 234 256 261 217 264 194 149 300 229 214 195 269 213 279 273 294 216 256 181 271 216 240 249 270 213 198 258 219 391 244 197 205 306 214 363 257 188 232 231 206 203 237 256 202 280 245 279 273 182 257 241 260 249 257 322 241 177 183 221 283 229 349 309 238 219 213 187 262 181 203 188 207 228 287 264 249 165 277 262 265 188 257 245 212 332 231 246 273 308 233 287 203 204 253 267 120 190 203 283 240 274 281 241 226 215 231 260 264 173 255 243 240 359 226 213 204 346 161 226 285 190 201 215 209 203 286 229 203 371 160 207 353 239 215 247 230 240 182 269 269 154 239 234 294 243 292 249 126 165 216 250 264 212 202 362 245 169 237 255 195 191 135 279 217 297 296 201 257 282 241 234 204 219 181 204 216 274 217 312 165 293 237 312 257 206 273 311 212 182 203 189 207 222 225 195 254 240 248 233 246 207 146 220 267 332 208 244 183 294 127 247 170 255 195 211 256 290 236 172 240 287 236 177 312 183 309 233 160 265 175 246 285 184 268 218 247 242 282 227 234 328 307 335 219 168 180 241 234 267 278 252 259 263 192 216 285 174 275 254 211 216 206 222 246 199 211 280 240 264 217 165 159 351 203 273 230 242 193 212 239 295 201 233 300 256 247 178 352 276 207 233 242 256 272 237 187 264 222 258 211 193 290 279 266 254 159 207 182 163 219 205 248 259 278 177 215 182 305 307 118 248 242 296 281 134 228 254 295 241 297 217 221 259 256 341 188 225 225 260 153 214 216 284 240 265 265 181 269 188 200 171 237 254 213 251 287 260 313 255 254 317 285 204 250 249 179 197 272 242 378 280 225 264 263 251 193 266 265 259 294 162 298 206 229 269 188 204 305 279 212 195 221 264 242 332 199 171 263 235 277 110 199 320 187 221 369 150 173 188 166 162 229 295 123 250 209 167 247 185 170 110 271 262 314 207 166 238 254 180 296 238 210 286 211 223 261 213 323 293 195 226 267 224 241 213 205 198 286 285 235 227 277 198 195 206 198 268 177 312 253 301 228 169 177 231 192 206 168 274 251 298 196 252 218 296 318 277 303 222 216 256 277 184 250 264 228 196 229 218 196 230 277 131 147 215 240 183 192 182 218 285 207 209 177 172 291 224 295 211 217 252 267 167 290 181 249 317 240 199 221 187 262 253 231 133 273 276 246 228 178 269 171 287 133 208 201 255 215 195 212 239 241 194 243 224 130 313 246 310 240 329 228 203 272 197 229 299 261 245 227 241 245 222 283 261 249 181 185 288 278 165 268 237 220 194 214 264 188 263 257 225 330 208 217 206 224 213 242 186 159 142 231 236 219 206 258 277 229 321 239 242 167 229 175 326 289 177 277 223 161 290 272 188 270 227 203 291 259 262 188 232 297 275 170 271 252 251 254 191 269 146 286 201 324 229 301 214 261 156 273 239 306 185 289 204 258 206 227 258 263 191 211 276 285 377 249 332 252 225 275 207 155 184 224 269 208 268 245 277 253 184 165 272 231 252 236 276 209 306 206 195 253 281 203 253 199 217 204 233 272 151 242 324 287 170 281 313 215 200 288 246 260 230 309 202 313 167 249 210 306 179 317 199 286 161 288 207 201 178 273 277 198 250 336 254 275 187 271 217 211 274 327 186 250 241 214 273 297 266 132 270 244 212 301 261 226 191 248 278 306 250 231 274 197 200 182 277 236 252 244 202 140 218 265 204 229 277 196 306 181 220 237 283 177 215 302 169 358 218 212 248 258 187 224 296 243 213 304 199 193 278 195 299 136 262 224 249 179 111 179 273 235 290 200 222 275 273 286 280 269 246 157 223 256 204 309 207 180 219 270 239 201 247 239 315 214 176 197 261 325 293 197 223 234 227 190 181 325 195 269 193 154 216 231 240 247 235 234 167 208 239 195 157 183 258 388 256 221 191 247 248 180 189 198 318 192 137 259 184 167 204 258 182 260 274 225 192 160 230 212 254 245 210 197 328 218 218 239 246 190 217 279 364 203 233 218 247 293 291 239 261 203 172 194 198 251 144 235 220 239 296 249 193 236 172 95 269 185 244 268 232 206 278 186 224 265 219 298 248 259 208 328 292 229 324 261 219 264 274 334 210 255 242 184 333 228 261 236 203 226 224 292 264 253 180 332 267 224 270 223 327 230 270 371 275 216 187 241 370 182 303 227 216 210 243 169 256 248 160 176 208 287 227 291 249 303 278 234 268 360 247 228 263 287 206 325 227 238 340 231 275 280 224 202 295 250 326 266 186 245 321 228 256 209 96 246 179 292 230 185 216 252 174 236 264 292 201 267 224 231 186 233 154 145 269 253 176 171 221 239 216 282 175 443 175 236 219 207 208 302 214 222 194 200 182 165 282 198 234 252 260 257 197 278 214 308 263 207 205 179 214 241 290 205 220 228 250 122 265 206 171 276 239 305 202 216 279 213 209 281 120 167 276 298 226 274 162 175 244 244 354 264 214 182 275 293 235 214 170 161 221 200 201 180 104 157 174 282 217 143 209 233 218 303 218 198 236 229 169 257 229 173 232 179 115 193 268 262 189 181 262 215 142 255 198 202 263 273 169 194 243 293 226 244 254 265 158 342 253 258 307 231 97 212 233 307 240 225 217 305 216 190 316 303 168 208 292 153 187 215 182 332 315 201 226 293 288 253 306 238 205 316 244 169 282 221 187 186 263 224 176 277 120 183 231 236 241 327 220 270 209 252 289 187 156 211 229 187 277 270 224 323 207 183 206 245 191 229 163 191 184 232 251 312 196 190 239 373 235 262 355 316 313 185 221 215 222 158 268 316 163 199 262 272 167 282 271 221 277 286 278 293 244 207 227 134 252 328 250 235 289 211 159 279 168 235 257 238 273 278 248 211 182 203 268 161 286 221 219 195 194 240 216 230 198 203 234 212 201 152 193 238 312 201 212 210 229 275 166 187 264 217 255 183 226 232 311 147 279 208 269 278 182 306 263 224 158 240 264 251 291 214 322 266 285 241 203 229 202 306 194 276 167 124 237 265 194 257 224 254 240 194 300 220 216 225 235 257 207 260 220 186 149 145 229 283 190 224 271 167 186 221 202 204 193 326 228 260 225 283 286 241 258 254 245 261 307 275 236 274 232 259 221 236 183 301 208 204 203 168 220 306 304 146 181 323 301 265 212 278 198 217 206 303 188 293 283 166 210 220 239 220 241 316 198 259 266 219 210 244 257 290 218 250 214 188 238 276 237 258 234 242 209 285 281 255 286 221 210 286 265 259 195 215 236 168 236 173 244 219 313 237 250 214 294 212 223 245 271 229 244 172 196 208 227 256 324 252 240 245 184 228 288 283 168 261 259 184 370 194 250 289 219 193 292 176 256 194 212 206 164 242 189 215 303 206 341 214 219 175 171 239 212 262 234 198 183 235 302 257 280 160 218 234 296 236 264 245 134 174 204 236 209 325 345 213 204 182 298 298 205 268 132 286 216 234 248 174 236 204 199 230 218 222 137 226 310 199 243 261 318 187 217 178 225 281 209 214 316 149 278 286 223 173 311 250 187 138 198 198 217 194 302 87 275 194 103 207 199 276 265 296 213 233 236 220 267 169 258 331 194 202 240 230 301 216 250 218 287 269 221 189 189 224 242 211 248 246 266 290 211 176 203 257 258 239 371 244 229 213 230 191 289 211 225 217 254 231 254 294 248 239 224 245 237 267 285 193 276 196 208 149 164 322 198 260 227 215 283 196 274 212 199 294 193 187 163 265 237 138 290 148 192 229 173 183 154 200 276 258 251 302 166 285 248 266 237 255 224 261 232 207 208 287 329 193 319 199 251 280 199 227 206 269 190 272 232 245 166 204 198 207 264 121 187 242 226 218 171 257 221 240 195 303 268 319 184 283 219 238 271 222 139 246 292 288 235 215 203 288 227 295 226 293 263 255 202 272 265 154 251 215 198 196 232 264 280 298 220 260 287 318 159 230 198 265 186 217 212 295 264 350 257 202 226 314 293 207 224 225 128 278 213 230 208 259 255 245 155 241 157 141 232 156 282 196 229 320 179 162 190 197 179 262 243 151 319 260 252 258 191 195 202 232 145 150 218 298 208 261 227 250 276 220 228 264 356 254 255 283 261 253 202 262 200 337 234 307 189 257 212 215 307 212 251 213 236 233 141 266 224 373 273 245 203 278 179 190 200 249 253 175 224 210 258 185 204 289 203 206 252 343 180 348 231 274 283 150 229 203 222 250 262 233 243 203 190 195 270 272 312 147 177 269 281 338 211 263 180 304 236 261 238 232 220 155 225 309 220 239 221 233 209 161 199 227 269 252 336 228 246 168 245 259 176 258 181 304 154 252 252 198 278 85 241 150 210 172 221 244 262 212 325 164 162 311 326 252 235 290 175 281 263 224 269 173 248 322 248 248 292 316 253 198 161 190 311 175 215 299 238 216 299 236 194 201 206 242 276 252 222 254 140 272 253 313 216 167 255 346 293 260 212 202 303 271 254 248 264 324 217 331 200 246 220 178 278 214 218 126 262 138 151 214 235 278 202 248 257 224 236 243 235 184 272 321 237 225 224 324 273 193 262 244 332 269 266 254 292 220 169 182 272 275 252 281 270 140 291 163 245 311 269 244 277 206 175 305 180 187 226 315 394 278 245 204 238 223 199 182 275 203 298 269 329 257 226 173 202 323 235 264 198 230 204 289 244 252 266 276 201 207 325 262 291 277 233 301 257 199 320 189 227 199 203 303 231 227 135 164 260 213 191 234 251 228 263 260 240 215 290 319 234 253 210 264 205 210 143 237 224 280 218 218 230 170 247 234 221 236 244 205 258 306 342 218 321 190 202 151 283 187 178 294 222 197 228 306 304 216 192 203 210 231 160 231 242 220 194 207 276 200 332 292 321 176 216 180 243 194 226 242 231 266 251 209 192 255 407 250 315 225 239 291 292 312 299 264 177 115 193 236 156 256 309 255 235 291 172 254 255 265 222 274 177 162 226 243 263 236 202 265 165 230 305 239 207 261 166 246 209 161 198 173 222 300 200 191 208 294 218 213 240 221 256 172 184 239 255 184 249 261 250 291 187 191 210 125 242 159 182 298 240 296 224 182 246 212 223 299 218 287 295 279 188 285 217 285 146 195 155 95 264 228 217 252 204 260 244 186 202 243 239 211 195 279 203 301 152 236 278 254 227 241 233 260 253 230 185 236 168 285 215 267 267 233 204 192 166 171 261 305 233 198 147 179 225 284 310 259 279 233 262 217 339 244 215 305 269 200 210 188 245 226 287 255 265 253 246 300 131 320 208 209 218 189 203 223 195 189 226 255 281 284 273 303 296 237 243 220 266 172 246 206 160 204 183 234 239 315 219 223 275 245 215 273 277 300 223 287 190 192 196 246 158 227 158 185 283 196 205 194 199 193 278 179 250 270 259 257 210 223 242 242 196 275 235 207 272 199 201 133 219 217 175 155 207 326 246 236 244 200 229 165 221 294 226 144 178 227 301 237 205 378 275 280 236 289 195 241 256 280 182 261 160 247 162 293 343 225 245 249 204 205 223 224 182 238 192 250 200 260 217 251 142 149 258 189 260 220 230 318 262 127 189 232 171 231 269 235 244 194 197 230 113 255 213 212 179 189 187 188 243 304 290 259 186 276 228 209 213 270 230 226 192 222 213 234 259 222 138 176 215 173 254 232 238 195 203 271 263 239 220 235 203 270 289 245 290 203 188 205 309 189 195 185 160 232 193 261 251 270 155 332 212 228 285 220 225 203 283 297 206 244 219 243 281 287 143 237 222 239 164 177 307 329 266 217 200 159 223 237 291 384 172 180 245 298 284 254 201 334 194 224 198 197 250 224 249 229 279 205 336 230 162 284 268 215 252 285 299 284 258 234 269 233 265 211 216 234 217 245 259 298 251 230 233 248 261 218 293 237 176 295 223 263 247 225 197 227 192 258 176 300 291 210 219 163 293 198 131 179 293 231 250 207 235 176 231 236 243 222 272 233 315 192 256 206 148 145 260 140 221 221 284 107 240 170 259 201 191 240 302 291 191 215 214 280 221 223 155 235 184 216 232 266 259 234 275 186 176 249 176 152 227 245 180 193 281 283 226 285 225 311 249 252 270 214 212 237 206 154 245 294 226 206 236 243 238 183 224 110 231 304 199 216 185 205 220 212 240 309 232 202 220 295 208 206 249 218 131 252 258 180 270 293 198 350 242 274 217 215 222 223 181 268 318 162 158 237 269 284 165 240 189 198 273 241 204 222 274 253 228 236 268 197 205 266 285 197 298 210 256 172 196 229 191 248 230 144 172 201 240 250 253 313 220 201 209 196 235 277 214 142 260 186 204 276 186 196 268 288 246 231 160 246 264 287 364 207 200 182 277 180 280 280 143 131 204 166 223 382 280 156 218 165 192 274 216 224 345 254 273 285 304 277 245 243 185 294 193 271 243 237 240 206 236 191 291 271 195 184 234 245 215 274 276 280 274 186 262 293 171 183 227 184 213 212 215 221 197 259 207 234 288 175 258 276 242 252 238 247 213 253 195 254 218 217 252 222 208 270 248 257 207 224 280 165 230 215 241 234 253 252 212 320 233 243 207 222 281 216 241 224 296 191 216 260 277 246 217 236 296 245 314 253 206 158 184 262 270 219 141 203 256 185 225 228 228 230 260 203 220 304 281 170 286 339 146 234 293 245 230 198 137 283 250 293 182 313 237 261 234 265 186 153 229 241 197 183 144 202 235 288 254 204 204 210 248 305 211 237 194 279 217 253 301 230 207 158 211 226 294 321 256 217 243 261 283 313 217 210 254 225 221 265 253 247 287 270 252 248 295 194 173 293 239 242 236 285 236 208 228 269 245 169 275 313 305 239 282 228 238 188 268 295 244 169 272 295 193 208 307 252 242 223 288 272 265 263 277 185 228 274 219 294 270 315 143 251 240 241 215 164 241 280 288 193 260 228 194 240 354 224 244 267 201 231 335 263 266 206 265 215 244 228 117 224 235 202 167 267 268 379 285 239 206 257 136 160 205 310 253 270 279 324 291 226 166 246 304 234 261 217 185 269 217 278 188 224 349 319 226 251 327 277 230 277 253 191 278 178 191 217 215 284 298 210 129 264 236 230 247 259 196 220 282 238 251 199 210 218 167 232 287 246 279 295 225 280 260 182 264 232 237 237 204 247 158 197 211 325 247 270 171 297 243 285 289 218 296 289 149 288 217 250 292 161 297 295 261 157 225 155 222 296 300 178 151 283 166 256 236 178 168 251 223 273 262 235 249 222 282 267 125 255 231 251 224 186 220 245 271 242 269 278 235 291 285 252 185 208 228 239 223 294 253 135 204 146 259 202 259 229 219 221 241 223 163 189 327 314 222 228 202 236 199 307 249 254 217 276 216 256 243 223 234 275 149 138 275 169 293 275 331 232 283 243 163 207 191 232 292 212 245 262 224 213 174 154 292 310 318 219 248 206 245 246 248 155 123 195 196 248 259 143 241 250 173 190 224 232 285 282 260 303 234 254 167 316 232 170 175 220 259 320 236 227 264 199 244 239 199 251 250 251 223 242 311 230 227 280 201 312 171 257 250 205 264 194 217 175 216 192 171 276 251 156 115 212 286 254 200 265 215 268 177 234 311 265 161 332 255 246 193 184 263 250 201 198 173 240 184 207 181 275 203 243 200 249 258 220 212 232 189 275 245 231 288 238 163 192 319 172 247 229 218 252 224 311 250 311 272 229 184 186 273 140 295 274 189 196 208 247 259 199 267 303 224 226 171 289 222 261 248 185 224 310 186 189 184 261 233 242 302 278 204 220 232 233 266 178 195 238 191 296 309 184 213 199 267 214 231 274 228 241 268 226 177 269 274 203 258 283 196 245 211 231 165 179 262 282 272 404 196 243 338 165 344 220 178 269 277 215 236 194 254 269 172 191 232 248 272 210 188 276 291 216 262 179 265 240 279 293 176 267 227 212 188 262 279 203 218 336 251 256 160 201 151 218 288 233 328 292 220 172 150 226 226 291 137 255 243 167 135 139 266 272 231 213 227 242 233 318 251 186 219 248 284 223 322 332 281 259 241 214 236 287 226 261 253 199 205 299 246 190 140 170 244 163 191 213 207 287 250 204 261 296 278 196 301 327 254 198 268 260 241 182 186 249 321 172 278 197 248 184 229 186 175 257 323 241 197 184 244 227 246 263 236 223 178 267 235 173 273 265 213 207 146 234 153 278 261 213 241 252 285 182 203 193 239 213 215 154 218 218 309 192 267 219 307 225 171 269 248 185 174 234 312 178 281 329 208 255 259 219 262 142 222 234 226 304 225 273 233 260 260 234 255 194 192 190 233 280 170 237 234 320 273 188 243 329 222 192 170 313 379 253 260 186 248 293 196 263 258 235 241 218 312 210 262 248 210 167 251 203 282 169 321 287 237 181 263 274 281 242 191 229 185 213 156 310 243 190 151 324 212 199 287 230 230 209 277 205 241 273 202 249 213 232 194 153 209 358 262 301 291 214 285 226 302 256 218 284 209 212 183 192 235 190 270 179 191 197 240 267 244 349 308 216 301 305 320 258 254 198 181 201 225 223 178 294 274 312 298 258 180 273 282 247 115 250 263 219 248 350 235 198 333 350 294 235 182 222 173 277 319 288 273 246 316 251 147 245 341 295 235 216 177 185 245 185 203 225 233 231 292 167 268 289 164 207 221 207 254 198 259 255 278 267 228 206 262 235 308 158 257 302 255 216 187 257 173 318 274 213 259 266 218 243 247 179 205 312 278 188 252 267 232 283 325 214 267 295 229 287 227 176 227 241 297 253 271 279 167 262 250 242 232 233 225 122 222 260 268 270 215 230 255 220 242 179 253 194 318 216 215 182 229 295 242 310 246 224 256 200 214 278 209 254 224 288 212 202 220 226 184 273 256 218 313 233 185 175 186 259 242 166 220 188 227 282 245 326 143 266 225 264 209 317 234 259 336 179 206 222 231 172 174 181 309 197 189 186 242 157 243 170 244 291 299 215 275 256 193 149 189 266 222 214 281 230 216 262 226 233 192 321 277 221 200 256 228 183 199 205 231 264 204 232 210 261 275 125 254 307 282 241 224 233 226 263 253 295 227 220 232 232 263 283 261 288 242 281 251 136 201 209 250 312 283 289 206 173 283 222 186 284 227 260 315 184 228 281 291 297 192 213 212 270 217 252 330 174 273 202 257 257 231 300 235 243 196 222 194 206 351 200 282 214 203 218 175 179 247 287 247 224 233 262 279 181 203 261 166 170 233 255 251 221 211 274 284 308 221 235 272 249 242 194 256 240 211 180 305 202 317 240 224 228 185 287 170 398 265 321 255 277 211 219 234 202 281 226 194 165 223 194 351 279 235 278 214 265 219 256 305 288 227 232 218 144 257 255 195 219 228 229 215 198 300 200 203 169 200 196 249 232 177 282 250 248 203 344 291 209 201 200 255 220 233 297 239 169 215 239 188 281 225 219 280 240 253 250 299 250 309 251 211 214 279 287 307 318 160 281 200 115 211 193 254 265 360 231 227 205 230 282 250 255 235 161 287 232 273 204 204 205 265 228 333 187 200 220 268 220 254 341 220 248 206 206 170 218 195 205 205 203 272 284 210 252 249 243 223 282 263 185 213 254 266 212 234 196 226 221 168 144 278 214 264 241 263 214 208 244 265 296 224 270 252 264 168 245 275 224 202 147 154 188 198 290 342 263 231 202 214 230 294 181 180 296 248 136 183 229 328 239 349 208 318 268 217 308 178 292 131 223 235 252 271 182 307 224 241 200 204 237 253 315 343 277 203 213 211 200 271 224 218 203 225 236 248 237 250 208 296 206 263 220 175 241 213 247 267 192 169 302 205 231 190 249 254 244 162 180 243 274 214 283 216 257 242 315 176 228 211 278 258 207 274 222 345 268 288 223 248 282 205 270 315 231 257 241 304 288 340 260 273 153 224 243 202 249 305 229 267 200 278 272 189 289 219 237 129 223 178 230 286 222 237 289 247 158 239 241 203 179 273 208 265 295 223 243 263 288 202 214 278 204 250 136 256 262 219 258 248 164 210 286 166 202 194 183 191 318 247 313 249 342 305 300 237 289 371 285 185 189 208 233 238 198 198 294 237 193 281 286 269 223 264 193 276 98 243 283 199 251 229 199 161 210 153 235 267 193 241 270 194 288 186 266 312 140 209 205 181 228 260 191 224 192 193 303 272 238 144 288 243 270 259 273 264 167 241 227 211 226 349 212 318 210 202 177 228 209 270 328 267 174 287 258 189 355 352 237 179 200 257 261 272 154 218 177 260 182 260 257 219 303 298 260 225 258 206 227 234 271 198 278 215 208 148 210 216 207 275 218 251 301 226 277 330 225 233 268 272 278 192 260 286 214 172 272 285 294 224 303 188 217 200 325 220 288 281 162 256 286 138 261 215 193 172 281 207 243 323 266 209 200 202 261 209 215 191 325 182 173 184 261 188 212 247 259 141 227 391 228 174 292 208 253 297 248 272 249 213 233 218 243 206 359 219 304 271 218 268 221 217 227 252 311 216 240 213 221 141 253 292 212 234 175 294 203 284 174 174 248 185 247 275 259 312 251 195 221 260 262 290 270 289 230 212 235 268 201 236 175 209 247 84 172 235 239 222 219 210 245 137 248 201 264 278 249 259 300 182 214 215 269 282 292 198 243 334 294 272 235 252 244 236 189 164 229 236 318 251 243 251 326 287 152 257 280 196 294 217 186 206 169 173 231 278 262 245 201 243 285 193 242 216 332 210 145 248 300 220 216 231 230 288 246 114 228 247 124 205 317 232 218 192 349 244 177 232 257 215 187 225 176 295 249 303 207 231 197 250 146 192 230 210 242 199 229 209 248 185 183 154 317 117 280 286 207 224 198 230 217 256 239 159 241 266 216 203 240 224 242 185 139 197 214 287 224 214 252 249 332 226 165 217 236 248 136 278 167 200 186 250 262 237 219 260 309 321 273 209 267 272 275 225 263 194 236 261 252 153 302 208 248 309 286 207 203 244 249 226 255 237 190 223 184 232 173 183 205 274 301 258 272 235 286 206 163 203 301 290 244 224 197 224 207 165 231 158 218 178 242 271 232 232 295 258 227 267 209 232 195 225 310 169 250 194 272 189 175 304 210 140 273 264 204 236 142 183 232 250 261 197 208 239 267 264 242 203 270 233 235 175 289 190 242 237 263 212 184 268 206 265 254 331 256 235 233 221 300 335 333 305 240 176 242 265 207 174 268 282 245 209 298 133 212 128 222 250 214 234 257 223 260 251 212 267 167 300 229 255 134 207 160 270 246 203 271 286 262 227 320 255 335 177 299 221 283 204 246 199 274 256 214 259 214 207 237 249 196 253 263 236 205 236 249 230 167 183 220 189 159 281 174 214 133 263 238 233 205 255 241 258 226 268 299 226 234 240 207 287 255 222 158 308 287 166 152 261 207 251 168 242 323 307 262 247 198 212 188 293 230 249 203 231 271 224 220 286 223 331 177 264 261 261 210 157 214 243 259 170 281 209 249 267 193 308 325 174 198 250 250 211 242 228 331 161 273 232 170 290 218 234 291 207 201 164 180 327 218 194 225 212 258 272 142 201 158 253 341 267 191 256 232 215 129 262 240 204 222 236 286 227 230 190 298 257 264 241 245 255 170 196 235 181 284 319 261 137 231 325 250 244 244 261 244 274 153 239 156 314 298 219 309 214 260 241 265 227 227 227 367 219 250 226 207 205 264 272 240 247 242 207 196 267 255 195 208 298 200 207 320 177 251 200 348 287 151 239 147 229 222 196 317 233 277 245 258 241 250 210 293 235 226 287 129 239 278 261 294 176 175 218 316 192 202 321 213 263 305 242 222 329 311 181 186 254 302 169 271 214 327 244 281 191 172 216 192 246 251 203 235 206 310 202 237 184 283 276 306 324 198 224 154 251 214 212 328 222 175 230 143 290 200 281 263 257 312 225 203 231 265 259 202 164 271 269 223 184 227 204 198 133 347 230 348 175 235 211 237 222 144 198 263 188 160 259 269 232 308 317 172 265 292 179 288 323 227 252 213 212 166 259 220 204 285 310 189 219 267 212 266 181 175 159 320 279 252 183 241 160 222 254 252 223 290 243 272 254 309 361 182 153 253 203 177 190 182 242 297 234 149 265 256 256 302 238 237 296 279 270 194 305 202 275 175 240 173 309 273 310 344 269 182 170 301 175 268 180 261 199 176 231 192 271 312 238 157 248 197 230 270 272 235 275 170 297 230 153 229 237 215 271 180 214 240 252 217 261 282 220 220 216 340 209 254 241 308 211 207 261 172 177 245 242 230 307 301 288 212 229 271 191 155 246 140 270 220 240 279 242 167 165 202 235 297 244 266 117 248 292 246 138 206 150 182 253 257 239 88 232 185 253 263 321 192 309 238 340 276 177 275 247 216 180 178 167 203 308 184 189 186 179 251 250 272 210 254 228 198 223 212 223 194 224 265 310 248 274 235 208 234 212 190 201 303 269 287 184 227 301 255 141 272 272 156 217 224 261 247 230 282 204 290 223 196 238 149 170 307 224 146 252 156 259 214 272 204 229 248 234 234 296 229 310 211 308 278 221 197 311 187 292 268 232 256 228 237 329 267 206 233 187 208 218 226 211 218 306 267 280 264 186 221 229 166 234 264 238 222 250 215 187 250 160 264 192 202 263 261 163 285 211 250 277 251 167 201 219 262 249 267 248 297 217 288 260 161 159 201 214 194 162 240 315 213 160 248 249 291 310 149 316 249 282 193 249 258 231 232 239 241 177 162 237 266 218 234 270 219 185 142 184 251 197 248 261 227 281 212 263 303 237 264 284 224 227 195 260 382 239 306 275 241 254 212 272 317 208 222 170 204 233 338 243 300 332 287 248 297 173 281 173 184 256 188 149 173 233 236 248 202 162 190 230 245 265 291 199 267 320 211 204 220 201 192 289 209 177 198 190 305 162 247 207 253 337 211 289 240 215 246 206 255 241 256 163 257 268 231 160 175 176 291 214 181 214 248 210 192 315 163 292 324 191 246 279 259 262 153 245 315 234 260 262 248 293 212 189 295 222 198 177 212 309 270 257 210 233 337 165 220 202 233 214 223 193 256 204 229 234 257 306 264 305 172 188 192 168 235 161 243 216 284 317 208 228 209 285 249 229 273 183 129 250 236 277 226 232 251 292 276 223 175 187 237 226 268 332 291 215 245 210 239 222 268 205 274 125 172 221 183 217 264 282 258 271 248 207 317 262 244 278 234 255 271 237 165 293 245 248 231 190 264 315 235 233 133 288 312 168 251 258 212 231 273 136 345 247 170 232 222 203 217 274 198 299 229 262 166 214 159 231 250 249 257 219 219 207 251 136 289 234 303 233 177 300 266 284 294 195 165 232 133 239 287 231 195 238 215 329 247 288 300 194 250 263 225 234 336 324 230 263 234 240 217 242 245 338 198 266 205 234 249 187 191 154 198 208 126 153 229 168 262 220 248 180 190 249 164 180 183 214 266 268 195 199 214 239 187 204 216 278 299 236 192 314 215 267 255 300 306 162 155 270 138 272 234 239 239 271 254 275 131 234 297 185 212 136 311 241 225 222 306 252 221 281 320 278 227 249 228 313 220 284 171 168 221 224 286 271 185 279 143 274 249 231 153 302 159 232 174 202 193 239 251 241 260 256 227 201 323 189 248 272 146 315 194 202 198 226 231 223 257 201 158 247 253 157 257 194 244 190 293 292 195 308 389 232 179 159 180 167 279 242 324 212 291 214 208 294 259 193 313 204 187 268 246 280 282 217 146 248 269 299 214 231 181 252 183 231 216 240 210 189 148 248 357 194 253 256 151 206 193 194 201 283 243 249 209 214 243 220 188 249 198 191 242 283 219 209 165 266 262 215 181 175 206 344 210 244 207 239 348 218 231 147 315 202 274 208 293 221 176 171 191 273 242 300 250 209 228 198 207 259 236 249 266 264 262 190 233 142 160 212 184 287 212 249 149 223 221 314 252 330 207 216 235 278 277 281 238 290 258 294 310 319 218 171 240 200 264 290 159 196 249 204 214 285 253 230 283 287 284 240 241 287 283 196 241 221 268 250 310 328 173 236 263 221 251 185 251 276 307 272 267 290 214 197 197 234 185 246 268 234 183 271 183 151 350 239 216 262 206 238 217 281 240 289 266 222 216 270 245 188 139 138 237 263 187 239 271 137 264 207 211 275 232 173 281 244 303 223 271 215 294 240 300 264 246 169 256 288 167 191 346 201 182 270 157 233 255 183 346 191 334 262 274 247 176 189 297 179 272 251 250 249 238 257 242 230 286 243 216 210 276 207 189 219 255 246 218 229 218 158 213 225 168 267 220 223 339 245 166 180 347 253 269 146 253 232 226 311 208 242 252 233 310 249 189 253 237 186 224 164 146 262 145 273 212 251 302 191 220 277 266 219 307 198 184 185 227 255 156 294 278 297 296 253 200 325 254 300 242 221 245 211 251 226 213 204 216 150 154 251 177 182 283 241 269 228 246 199 281 209 299 243 229 242 246 207 235 282 180 155 189 252 242 235 259 258 214 237 246 207 158 184 226 207 167 184 210 262 193 225 202 236 246 324 277 166 211 224 228 261 270 219 198 214 260 182 233 224 169 231 239 234 219 281 385 211 200 245 275 153 213 218 323 233 263 206 248 234 235 293 302 247 214 383 334 287 255 191 143 232 145 261 146 318 201 212 350 255 285 235 156 204 269 327 222 292 224 289 197 193 219 207 198 263 210 282 203 165 184 255 264 165 179 235 194 245 203 268 239 257 254 355 326 209 255 188 233 217 236 195 229 222 241 170 196 273 196 178 301 267 245 165 236 230 318 314 204 234 205 222 143 220 258 168 295 260 221 228 208 181 238 302 253 188 224 222 204 242 186 251 196 251 228 277 234 272 219 250 234 270 237 189 206 167 143 255 240 259 248 201 242 209 233 160 241 220 231 188 243 223 133 221 169 282 319 172 253 207 231 283 199 284 172 254 273 132 300 174 192 212 222 188 248 210 294 239 190 270 169 246 238 136 245 223 219 193 141 324 150 193 316 212 197 293 219 230 225 298 281 268 229 260 200 260 229 282 286 272 214 291 242 273 161 217 197 233 251 291 215 222 283 291 241 257 189 279 232 243 216 184 248 253 285 236 322 222 210 183 268 363 299 311 259 272 179 252 231 298 271 242 201 277 231 163 213 259 194 220 217 193 224 202 187 248 252 253 263 300 246 256 242 215 262 265 182 256 326 262 188 173 179 329 211 265 135 267 237 244 198 193 169 229 213 281 176 193 182 185 228 189 251 253 240 232 237 133 197 177 226 313 263 230 190 249 291 231 242 211 163 254 243 238 240 274 228 295 303 214 283 141 167 235 232 266 193 252 227 214 261 295 256 252 302 220 150 194 225 345 231 316 223 330 201 144 282 251 196 211 209 281 184 219 140 244 147 284 246 206 275 292 257 237 197 228 240 264 182 217 173 287 224 206 309 236 223 194 188 215 174 225 248 251 195 329 254 261 278 310 226 236 295 242 312 219 246 254 236 287 196 292 228 247 288 221 296 268 267 283 273 222 193 265 212 269 253 194 188 206 231 264 189 278 102 266 223 241 241 270 247 240 231 230 222 273 246 317 227 289 234 278 211 323 193 217 157 207 220 294 182 217 266 288 315 210 247 242 199 265 289 246 191 258 203 259 182 173 272 289 188 329 270 239 225 266 226 266 230 247 282 249 209 225 255 209 144 314 171 212 195 175 245 237 245 168 257 200 253 253 236 242 237 163 268 228 275 323 201 224 330 180 226 289 251 242 175 334 309 239 229 285 223 156 278 219 180 203 159 340 278 287 123 200 151 210 181 230 276 200 219 224 182 173 275 260 287 203 239 205 205 313 219 177 231 197 179 292 324 203 256 261 254 228 232 211 198 245 174 226 204 204 293 263 318 227 200 224 160 236 201 258 225 201 252 179 236 205 227 233 184 214 160 237 310 263 194 261 285 239 305 179 284 189 193 125 350 283 268 175 243 170 201 212 225 224 234 187 241 191 223 130 237 270 285 266 185 213 244 255 143 229 265 262 122 272 263 186 210 163 172 120 259 290 257 266 175 278 260 162 151 170 316 329 324 287 234 188 256 250 260 233 173 180 260 308 179 116 227 208 261 196 237 255 190 207 218 272 253 207 254 275 245 239 303 257 199 197 220 190 290 254 116 295 223 219 221 255 217 164 261 181 304 223 246 197 287 320 183 236 198 255 182 235 285 241 215 306 233 256 254 210 218 286 194 218 172 159 338 279 251 304 161 202 248 167 231 257 301 282 235 231 292 284 158 253 320 195 218 173 267 256 170 241 181 261 215 223 286 166 291 214 225 221 166 263 256 230 243 243 253 183 278 240 226 246 234 228 314 183 217 185 290 240 241 156 185 244 305 250 238 214 277 230 177 207 169 239 183 219 135 211 257 257 182 227 236 200 197 267 139 223 251 155 311 232 295 186 217 215 282 275 287 211 157 280 285 245 175 247 189 193 341 223 252 292 207 172 282 218 207 222 237 253 311 149 262 272 174 285 264 244 196 192 289 242 173 304 196 263 224 236 268 283 193 256 263 245 172 223 200 332 258 215 258 299 272 256 314 277 269 197 263 231 250 196 227 250 185 193 231 221 263 243 260 187 209 267 230 265 244 182 117 278 308 320 248 222 284 162 179 177 280 168 256 211 168 221 288 296 164 210 227 343 276 249 248 283 264 246 329 206 228 264 221 284 257 279 244 255 266 201 195 199 224 138 184 211 223 </t>
+  </si>
+  <si>
+    <t>MIE(0.345341398318231, 1.700916272635947, -1.0669957961594404e-31, 1.723012075511182)</t>
+  </si>
+  <si>
+    <t>1 0 3 1 2 1 0 1 2 3 2 4 3 0 0 1 2 1 3 2 1 1 2 1 1 1 0 1 2 0 1 1 1 3 1 0 2 1 1 1 1 1 0 0 1 1 2 1 0 1 2 2 4 0 2 2 0 2 0 1 1 2 2 2 4 1 1 1 3 1 2 2 1 1 2 0 0 2 1 1 2 1 1 1 2 0 0 4 1 0 1 2 2 2 2 1 4 0 1 2 0 1 2 2 1 1 1 1 1 3 2 1 2 1 1 0 2 2 2 0 0 3 1 1 1 0 1 1 0 1 1 0 2 0 1 3 1 1 2 0 1 2 0 2 1 0 0 0 0 1 1 1 0 0 2 2 1 2 2 0 1 1 2 2 0 1 2 1 1 2 0 1 2 0 0 1 2 1 1 0 1 2 2 2 1 0 1 1 0 2 0 2 1 1 1 2 3 1 2 1 1 0 1 2 0 1 1 1 1 0 0 1 0 2 2 0 1 2 1 0 3 2 2 2 2 0 1 1 1 2 2 1 3 2 2 2 1 2 1 0 2 2 0 2 1 4 0 1 2 2 2 0 2 1 1 1 0 1 2 1 1 0 1 1 0 2 1 3 1 1 2 0 2 1 4 1 0 1 0 2 0 1 2 2 5 2 1 2 0 1 0 0 1 1 1 3 0 0 1 1 2 3 3 0 3 0 2 2 0 1 1 2 2 0 0 1 3 1 2 1 0 2 1 1 1 3 1 2 1 0 2 2 2 1 1 2 3 1 1 1 0 1 0 2 1 1 3 0 0 0 3 2 2 1 0 0 1 0 2 2 2 0 2 2 3 0 0 2 1 1 0 2 1 2 0 3 4 2 2 2 0 1 1 2 0 1 0 3 1 1 2 1 2 1 2 0 1 1 1 0 4 1 3 1 1 0 1 1 2 0 1 3 1 0 1 2 3 1 1 1 2 0 3 0 0 1 0 0 3 1 0 2 2 1 0 1 1 2 0 1 0 0 2 1 0 2 1 2 1 1 2 1 2 0 1 2 1 1 1 0 1 1 2 1 1 0 0 2 2 1 2 1 1 1 0 0 1 3 1 2 2 0 1 1 2 1 0 1 1 1 3 0 1 3 1 1 1 0 2 3 0 2 3 1 0 1 2 2 2 1 1 0 2 2 0 1 1 1 0 1 2 0 3 0 1 2 1 2 0 1 2 1 1 1 2 2 1 3 1 2 1 2 1 1 0 0 1 0 1 2 2 2 2 2 1 1 1 1 1 1 1 2 2 3 3 2 1 1 1 1 1 0 2 0 2 0 1 3 3 0 2 2 2 1 1 2 1 3 2 1 2 2 2 1 0 1 3 1 1 1 1 0 2 2 2 2 2 1 2 0 1 0 1 2 1 1 1 1 0 2 1 1 1 2 2 1 1 0 3 2 2 3 0 1 2 1 1 1 2 0 3 0 0 1 2 1 2 0 2 2 1 3 1 1 0 2 1 3 3 1 1 0 1 1 1 2 1 1 0 1 1 1 1 0 2 0 1 1 4 0 0 2 1 2 1 1 1 1 3 1 1 2 0 2 1 0 1 3 2 2 0 0 2 0 1 2 1 1 1 2 0 3 0 3 1 0 1 2 2 3 1 0 2 0 2 2 1 1 0 2 0 0 1 1 3 1 0 2 1 2 2 1 0 2 0 2 0 3 3 1 1 1 2 1 1 1 1 1 1 0 3 1 1 2 2 2 0 0 2 1 1 1 3 1 1 1 1 0 2 1 2 0 3 1 1 0 3 0 0 1 2 4 1 0 1 0 0 0 1 1 1 0 1 2 2 1 1 2 1 1 2 0 2 0 1 2 1 1 1 2 1 1 1 2 3 0 1 1 2 0 1 1 1 1 2 0 2 1 0 1 2 1 1 1 1 3 1 0 2 0 2 1 1 2 5 3 2 2 0 0 0 3 2 2 5 0 3 3 1 0 1 3 3 2 2 2 0 0 1 2 3 1 1 0 1 0 2 1 0 1 3 2 1 2 2 2 0 1 3 0 4 2 3 0 0 0 2 0 1 0 2 0 0 1 1 2 0 1 1 2 0 2 3 2 2 2 1 1 0 1 2 0 0 2 1 3 1 1 0 2 2 1 0 1 1 2 1 1 0 0 1 0 1 2 1 0 1 2 0 1 0 2 1 1 2 1 1 1 0 1 1 0 2 0 0 2 2 3 1 1 0 3 1 0 2 2 2 0 2 0 0 0 1 0 1 0 1 2 1 0 1 0 1 1 0 2 3 2 2 1 2 0 2 2 2 2 3 1 2 1 0 2 0 1 2 0 1 1 1 2 2 1 2 1 0 1 1 0 2 2 1 0 1 1 0 1 1 2 1 1 0 2 2 0 2 1 2 1 1 1 2 1 1 3 2 2 2 2 0 0 2 2 0 2 1 2 0 1 1 0 2 0 1 2 3 2 0 0 1 2 1 1 3 2 3 0 1 0 2 1 0 0 2 0 1 3 0 2 0 1 2 2 1 3 1 1 1 2 3 0 2 0 1 1 2 2 2 1 1 3 1 1 1 1 2 0 0 1 2 1 0 2 2 1 1 0 0 2 2 1 1 0 2 2 0 1 0 1 1 2 1 1 0 1 0 2 2 1 2 1 0 3 2 3 0 1 4 1 1 2 1 1 2 2 1 2 2 0 2 0 2 1 1 0 2 2 1 2 2 2 2 1 1 1 2 1 1 2 1 1 1 1 1 1 3 1 3 0 2 2 1 2 0 2 2 2 0 2 0 1 1 1 2 1 1 2 2 1 1 1 2 1 3 1 1 0 1 3 2 1 0 0 0 0 1 1 0 1 2 1 0 1 1 2 1 0 3 1 1 0 1 3 1 1 1 2 1 1 0 2 2 1 3 0 1 1 4 2 0 0 1 2 2 0 1 2 1 3 0 1 0 1 2 2 1 1 0 1 1 2 1 1 1 1 2 2 1 3 0 1 2 0 1 0 1 2 1 1 2 1 0 0 1 0 2 2 0 1 2 2 1 3 1 3 1 2 0 2 0 0 1 0 0 2 2 0 3 2 0 1 3 0 2 1 0 1 2 2 1 2 1 0 1 2 1 0 0 1 1 3 1 0 2 1 2 2 1 1 0 1 2 2 2 1 1 1 1 0 3 3 1 1 1 1 2 1 0 0 2 1 1 2 0 2 1 0 1 1 1 0 0 0 1 0 0 1 1 1 4 1 0 2 1 1 0 1 2 3 0 1 2 1 0 2 0 3 0 2 2 3 1 1 0 2 0 2 1 0 1 3 1 2 1 2 1 3 1 0 0 2 2 2 1 1 3 0 1 0 0 0 2 1 3 0 2 1 2 1 3 0 0 1 2 1 2 0 0 0 1 1 3 2 3 0 1 1 2 0 1 1 0 1 0 2 1 1 2 1 0 1 1 1 0 2 2 0 2 1 2 1 1 1 3 2 1 3 0 2 0 0 0 1 2 0 2 2 1 0 1 2 0 2 0 1 1 0 1 1 1 1 0 2 0 2 1 2 1 1 1 2 2 1 1 2 1 2 2 1 0 3 3 2 2 2 1 2 0 0 0 1 1 4 0 1 3 2 0 1 2 1 2 2 1 3 0 0 3 1 1 2 1 2 1 1 2 2 2 4 0 1 1 2 1 1 1 1 0 1 3 2 2 2 1 2 2 1 2 1 0 2 1 2 0 0 1 2 1 2 1 0 1 0 1 1 0 3 0 0 4 1 2 1 1 0 1 2 2 0 2 1 3 1 0 2 3 2 1 1 3 1 2 1 1 3 1 1 2 1 1 0 1 1 3 0 2 2 2 2 1 3 2 1 1 2 1 2 2 2 1 1 2 2 0 0 0 2 0 1 0 3 1 1 1 0 3 1 1 1 3 1 0 1 2 2 6 1 2 2 0 3 2 2 1 1 2 1 1 0 1 0 1 1 2 3 2 0 1 2 0 2 3 1 1 3 4 0 0 1 1 0 1 1 0 2 1 1 1 1 1 1 1 0 2 1 0 2 1 0 1 1 0 0 1 2 2 1 2 4 1 0 1 2 2 1 0 0 2 1 2 1 1 2 1 1 0 0 3 1 1 2 1 2 2 1 2 1 0 2 4 2 0 1 0 0 1 2 2 3 1 2 1 2 1 0 0 2 1 0 0 1 0 1 1 0 1 0 1 2 0 2 3 0 0 1 1 2 1 1 3 1 0 1 1 2 1 1 0 1 0 1 1 0 1 0 0 1 1 2 0 2 1 1 1 2 3 3 2 1 1 2 1 2 1 1 5 2 1 1 0 1 1 1 0 1 1 0 1 2 1 0 4 3 1 2 1 2 1 1 1 2 0 2 0 0 0 0 0 2 0 0 1 1 3 1 1 3 0 1 1 1 2 0 2 0 2 2 1 4 0 1 1 2 2 0 1 2 0 1 1 4 0 2 1 2 2 2 3 3 1 1 0 1 0 0 2 2 1 2 0 0 0 0 3 2 1 2 1 3 3 0 1 0 0 3 1 0 2 2 2 1 0 1 2 2 2 1 1 0 1 1 1 2 1 2 2 2 0 1 0 1 1 1 0 1 2 2 1 1 0 1 2 2 2 2 1 0 0 1 2 1 1 2 1 0 2 0 2 1 0 3 1 2 1 1 2 1 2 1 1 2 0 3 0 0 3 0 1 1 1 1 1 2 0 0 2 1 1 1 1 1 0 1 2 0 0 2 2 1 0 0 2 1 1 2 1 0 1 1 0 1 1 1 0 0 0 0 2 1 1 3 0 1 1 3 1 1 1 3 1 1 0 2 1 1 0 1 1 2 2 1 1 0 1 0 2 2 1 1 1 3 2 2 1 1 1 1 1 3 1 4 0 2 0 1 0 0 0 2 1 2 1 2 3 2 1 1 2 1 0 2 2 2 1 1 1 2 1 0 1 0 0 1 0 1 1 1 2 1 3 0 2 2 2 1 2 1 2 2 3 0 1 1 3 1 2 2 1 1 1 2 0 1 1 1 2 0 1 0 0 0 2 0 3 2 1 0 2 2 2 1 3 2 2 0 1 1 1 2 1 1 1 1 1 0 3 2 0 3 2 2 2 0 1 2 1 0 3 1 0 1 3 0 0 0 2 2 1 2 1 0 0 2 0 1 2 1 1 3 2 1 0 0 3 1 3 2 1 1 1 1 0 0 2 1 4 1 2 1 1 0 0 2 1 0 1 2 1 1 2 1 2 1 1 2 0 0 0 0 2 1 2 2 1 1 1 1 0 1 1 0 2 1 1 1 3 3 1 2 1 1 3 2 3 0 2 0 2 1 2 1 1 1 1 1 2 0 1 0 2 1 1 2 1 1 1 4 3 1 2 2 1 1 1 1 2 0 0 2 0 1 2 1 2 0 3 1 1 2 1 2 1 0 1 1 0 1 2 1 0 1 0 3 1 0 1 0 1 2 2 2 2 2 2 1 0 0 1 0 0 1 2 2 2 0 3 1 1 1 1 1 2 2 1 0 0 2 0 1 2 0 0 1 1 2 0 1 2 2 0 0 2 2 1 1 3 3 1 2 1 2 1 1 1 1 1 1 1 1 1 0 1 0 0 2 2 2 2 1 3 2 0 2 1 1 1 1 1 1 0 1 0 0 0 1 1 2 0 2 3 1 2 2 2 0 1 0 1 2 1 1 2 2 0 1 1 2 0 1 1 0 4 1 0 1 0 2 2 0 0 0 2 1 2 1 1 1 3 1 0 0 0 1 1 2 3 1 3 0 1 1 0 2 3 1 0 3 2 2 1 2 2 1 1 3 0 0 1 1 1 0 1 1 2 2 0 2 1 2 1 1 1 2 1 1 1 0 1 1 0 2 0 0 2 1 1 1 1 1 0 2 2 0 3 1 2 2 2 0 0 0 2 1 0 1 2 2 3 0 0 1 0 2 1 1 2 1 0 1 1 2 0 0 0 2 2 1 1 1 1 0 1 1 2 1 1 2 1 0 3 1 1 2 2 3 1 1 2 0 0 1 1 2 1 0 3 0 1 1 2 1 0 2 2 1 0 1 1 1 2 1 1 0 2 2 3 2 1 2 3 0 0 0 2 0 2 2 1 3 2 0 0 1 2 1 0 0 1 1 1 2 2 1 1 1 1 2 1 2 0 0 2 2 2 1 0 1 0 1 1 3 0 1 1 1 0 0 1 0 1 1 2 3 1 3 2 1 1 0 3 1 3 1 0 2 0 1 2 0 3 1 1 0 1 2 2 1 0 0 2 3 2 0 1 0 1 2 3 2 1 1 1 1 2 1 0 0 2 2 0 2 1 2 2 3 0 1 1 0 1 1 0 1 1 1 0 1 2 2 1 1 0 1 3 0 0 0 2 1 2 1 1 0 1 3 2 1 4 1 2 0 1 0 1 0 1 0 1 1 0 1 1 1 2 1 2 2 2 1 1 2 0 1 1 2 0 1 2 1 2 0 1 0 2 1 1 0 0 1 0 2 2 0 3 1 2 1 1 1 1 2 2 1 1 4 2 1 0 1 2 0 0 0 1 2 0 3 3 0 2 2 1 2 1 1 0 1 1 1 0 2 2 1 1 3 0 2 1 0 0 1 0 1 1 1 1 1 1 1 1 2 3 2 0 4 0 0 1 0 3 1 0 2 1 2 3 1 1 0 0 3 2 0 2 1 2 2 1 1 0 0 1 1 0 0 0 0 0 2 1 0 2 1 3 2 1 1 1 1 2 1 1 1 1 1 1 2 1 3 0 2 0 1 0 1 2 4 3 2 2 4 2 2 0 2 0 1 3 0 0 3 2 2 0 1 4 1 0 2 1 1 1 1 0 0 0 1 3 1 1 0 2 1 3 3 0 2 1 1 0 1 0 1 2 3 2 1 0 2 1 1 0 1 1 3 4 2 4 3 2 2 1 0 1 2 2 1 1 0 1 2 3 0 1 2 1 1 1 3 0 2 1 1 1 2 1 2 0 2 2 3 2 0 1 3 1 1 1 0 2 1 0 1 2 1 2 1 0 0 2 1 1 3 1 2 1 2 2 0 1 2 1 1 1 0 2 0 1 2 1 1 1 1 0 1 2 1 1 0 1 2 0 1 2 1 1 0 2 1 1 2 1 1 2 1 1 2 2 0 0 0 3 2 2 0 0 1 1 0 4 3 2 2 0 1 0 0 0 2 1 1 0 1 0 2 2 2 4 2 0 2 0 1 0 2 2 1 2 1 1 2 2 0 2 0 1 2 2 2 0 0 1 2 1 2 1 1 3 0 1 0 0 1 1 0 1 0 1 0 1 1 1 1 0 1 1 0 3 3 3 2 1 1 1 1 2 2 0 1 1 1 3 1 1 1 1 1 1 2 1 2 2 3 1 1 0 1 0 2 2 0 1 0 0 1 0 1 0 3 1 3 1 1 1 2 0 0 0 4 0 1 3 2 1 4 1 2 0 0 1 0 3 3 0 0 2 1 2 0 2 3 1 1 2 1 2 3 2 2 2 0 0 1 2 2 0 1 2 1 2 1 0 2 2 2 2 1 1 2 1 1 1 3 0 2 2 0 1 2 1 1 0 1 2 2 1 0 3 2 0 1 3 0 1 0 0 2 1 1 2 3 1 1 2 2 1 1 0 0 1 1 1 1 0 2 2 0 2 1 0 3 3 2 0 3 1 0 1 1 2 1 2 0 1 1 2 2 1 1 3 2 0 1 1 0 1 1 1 0 0 3 2 2 1 3 4 1 0 2 0 1 1 2 1 0 2 1 0 2 0 3 0 3 1 0 0 1 2 0 2 1 0 1 2 2 1 1 0 1 0 3 2 2 1 3 2 3 1 2 1 2 2 1 0 1 1 1 0 1 2 1 0 2 2 3 0 1 0 2 2 0 1 2 3 2 1 2 1 1 1 1 0 2 2 2 1 1 0 0 0 2 2 2 0 1 1 0 0 1 2 2 0 1 1 2 3 1 0 1 1 1 2 2 0 1 1 1 1 2 2 0 1 2 1 1 1 0 0 2 1 0 2 2 2 1 2 1 0 1 1 1 0 1 1 0 3 1 1 2 0 1 0 0 1 2 0 2 2 0 1 2 1 1 1 0 0 2 0 1 2 0 0 1 1 0 2 4 1 1 1 1 2 2 1 0 2 2 2 3 2 0 1 1 0 1 1 0 1 2 0 3 1 1 1 2 1 0 2 0 2 1 1 1 1 1 2 0 1 1 2 1 1 0 1 2 1 1 1 1 1 1 2 2 1 2 0 0 4 1 1 0 0 1 0 1 0 2 1 0 0 0 1 1 1 1 2 1 2 0 0 1 2 2 1 1 1 0 3 0 2 2 0 0 1 2 0 1 1 1 1 2 0 2 0 5 1 1 1 0 1 2 0 2 2 2 2 3 1 0 1 2 1 0 0 0 2 2 0 2 2 1 1 1 1 1 2 1 1 1 3 4 1 1 0 1 2 3 2 3 1 2 0 2 2 1 1 0 0 1 3 1 0 1 2 0 4 0 2 1 2 2 2 2 4 2 2 0 0 1 1 0 2 0 2 0 1 1 1 1 2 3 1 1 1 2 2 2 3 1 2 1 0 1 0 1 0 3 2 2 2 1 0 1 0 1 0 2 3 1 2 2 0 2 2 0 2 0 0 2 1 1 2 1 2 0 1 0 1 3 2 2 1 2 0 2 0 0 1 2 1 0 1 2 1 2 1 0 1 1 1 2 0 1 2 0 1 2 1 3 1 0 2 4 2 0 1 1 3 0 1 0 0 2 1 1 2 3 2 1 1 0 0 0 3 0 1 2 0 1 0 0 1 2 3 1 0 0 0 0 1 0 0 1 2 1 2 1 2 3 2 2 2 1 1 3 2 0 1 1 0 0 2 0 2 1 1 1 1 1 1 0 2 2 1 1 0 1 1 2 0 1 0 1 3 1 1 1 1 1 1 1 0 0 0 3 1 1 0 2 1 1 0 2 1 1 2 1 2 2 0 1 1 3 2 0 1 1 3 2 1 2 0 1 1 2 1 1 2 1 2 1 2 2 1 1 1 2 1 1 1 0 1 2 3 1 1 0 1 0 3 2 2 2 2 1 0 1 1 1 1 1 2 1 0 2 1 0 0 2 1 2 2 2 1 1 1 0 0 0 3 1 2 0 2 0 0 2 2 2 0 1 1 1 1 0 0 1 0 1 0 2 2 2 2 1 1 2 2 1 0 1 2 0 1 1 3 2 2 1 1 1 0 1 1 0 2 2 0 1 0 1 0 0 2 0 0 1 2 0 1 3 1 0 1 1 2 2 0 1 2 1 1 0 0 1 3 2 3 0 1 2 1 2 0 1 1 1 2 3 0 1 3 3 1 2 2 0 1 0 2 0 2 0 1 1 1 3 2 0 1 2 1 1 1 1 2 0 1 2 2 0 1 1 1 2 1 2 0 2 3 1 2 1 1 2 1 1 0 1 0 3 1 2 2 1 1 1 2 2 0 1 0 1 0 1 2 2 1 1 2 2 0 1 2 2 1 1 2 1 1 2 0 3 2 2 0 0 2 2 3 1 2 2 3 0 0 0 0 0 2 1 1 0 1 1 2 1 2 1 2 1 1 3 0 3 2 0 1 2 2 1 1 3 1 1 3 2 1 2 1 5 0 3 0 1 0 1 1 0 1 2 1 0 0 2 0 2 0 0 0 1 1 0 1 1 0 1 1 2 2 1 2 1 1 0 2 3 3 1 2 0 1 0 1 2 2 2 1 2 2 1 3 0 1 0 2 1 1 0 1 3 0 1 0 3 2 0 2 1 2 1 2 0 0 2 1 3 1 1 2 0 1 0 1 1 1 2 1 1 0 1 1 2 1 0 2 2 0 1 0 0 1 2 1 0 1 2 1 2 3 2 1 1 1 0 1 1 1 2 2 0 1 1 3 2 0 1 4 1 0 0 2 0 0 3 3 0 3 2 2 1 1 1 2 1 2 2 2 3 2 1 0 1 1 1 2 2 1 2 2 3 1 0 4 3 0 2 1 2 2 2 0 1 1 1 1 2 2 0 0 1 2 1 3 2 1 0 3 1 2 2 3 2 3 1 2 2 2 1 1 0 1 0 1 1 1 0 1 1 2 1 2 3 1 2 1 1 1 0 1 1 1 2 0 0 2 1 2 0 1 2 2 2 0 0 2 1 2 2 1 0 1 1 3 1 2 0 3 3 1 1 1 1 2 1 1 1 1 2 2 1 3 0 1 0 2 2 1 2 0 2 2 4 2 1 1 0 1 1 3 2 3 3 2 1 3 2 2 2 0 1 1 0 3 0 0 3 2 1 0 1 1 2 1 0 1 1 2 1 0 0 1 1 1 2 0 1 0 2 2 1 1 1 1 1 2 1 2 1 0 2 1 0 2 1 3 1 2 2 1 2 2 1 1 3 1 3 0 2 1 1 3 1 0 0 1 2 0 1 2 2 1 2 1 2 1 0 1 2 4 1 0 3 2 1 2 1 2 0 1 0 1 3 1 1 1 1 1 2 1 3 2 1 2 2 1 1 1 2 2 1 2 1 2 2 1 1 0 0 1 2 2 2 0 0 0 2 1 0 1 2 0 1 2 1 0 1 1 0 1 1 0 2 0 1 0 1 0 1 4 2 0 0 2 1 0 1 1 1 1 2 4 1 1 1 2 2 1 1 1 3 2 0 1 2 1 1 2 2 2 2 1 2 0 3 2 1 0 1 1 1 3 1 1 0 2 2 0 2 2 0 1 1 1 1 0 1 1 1 3 3 2 1 1 2 0 1 1 3 0 0 1 0 0 2 1 1 1 2 1 2 1 2 0 2 1 2 2 1 2 2 2 1 1 1 0 1 0 0 2 1 0 1 2 0 1 3 0 3 1 1 0 1 2 1 2 1 1 1 2 1 1 2 2 2 1 2 2 2 2 2 2 0 1 2 0 1 1 0 2 3 2 1 3 0 1 0 2 1 2 1 1 0 2 0 2 1 1 2 0 2 1 2 0 1 0 2 0 2 1 2 1 0 2 1 0 2 1 2 0 1 1 1 2 1 2 1 2 0 1 2 0 0 2 1 2 3 2 2 0 1 0 3 2 1 1 2 1 1 2 1 1 1 1 2 1 0 1 3 2 0 1 2 1 0 1 1 2 2 1 1 2 0 2 1 2 0 2 2 3 1 1 1 1 0 1 1 3 3 1 2 0 2 1 3 2 0 2 0 3 2 1 0 2 1 0 3 2 2 1 0 1 2 1 2 1 0 2 2 1 0 1 1 0 1 2 0 2 0 1 0 1 2 1 2 0 0 0 1 1 1 1 1 0 1 0 2 1 1 1 3 0 2 0 2 0 1 2 1 0 1 2 0 1 1 1 1 0 4 1 0 2 0 1 0 3 0 2 0 1 0 1 2 1 2 2 0 2 1 2 3 1 4 1 0 2 1 2 0 3 1 0 0 3 1 3 1 2 2 1 1 1 2 0 0 1 1 1 1 0 1 2 1 2 0 3 2 2 1 1 1 1 2 0 3 1 2 1 1 1 2 2 0 2 4 2 1 1 2 0 1 0 1 1 1 1 0 2 1 1 1 1 1 1 1 1 1 1 1 1 0 2 3 4 2 1 0 0 1 0 0 2 0 1 0 1 1 1 3 0 1 1 0 0 1 0 0 1 1 3 2 2 1 1 3 1 2 1 0 1 0 1 2 0 2 1 0 2 0 3 0 2 2 1 1 2 2 0 1 1 1 0 2 2 1 1 3 1 2 2 1 2 1 0 2 1 1 1 1 1 2 1 1 1 1 2 1 0 1 1 2 1 4 2 3 1 1 1 2 2 2 2 2 2 0 1 4 0 2 2 0 1 1 1 2 0 1 1 3 2 1 1 2 0 2 1 2 1 3 1 2 2 0 2 1 2 1 1 1 2 0 0 2 1 2 1 1 2 2 1 0 3 1 0 1 2 1 2 0 2 0 2 1 2 1 1 3 2 3 1 0 0 1 0 2 1 1 1 2 2 2 1 1 2 2 1 2 1 3 1 1 1 1 1 1 0 0 3 1 0 1 2 1 2 4 1 0 1 0 0 1 3 0 0 3 1 2 1 1 2 1 3 0 2 1 3 0 0 1 0 1 1 0 0 1 2 2 0 2 0 1 0 1 2 1 2 1 1 2 1 1 0 2 0 1 0 3 1 2 0 0 1 1 2 1 0 2 2 2 0 0 1 1 0 1 1 2 1 0 2 1 0 1 0 2 1 0 0 3 2 1 2 1 2 0 2 1 0 1 1 1 0 1 1 1 0 2 0 1 2 1 2 2 2 2 0 1 2 0 1 2 1 3 1 0 2 2 2 2 0 1 1 2 2 1 0 0 1 1 1 2 1 1 0 2 0 2 2 0 1 2 2 2 0 1 1 0 2 2 2 1 1 1 1 2 1 1 1 4 1 0 2 1 1 1 1 2 2 0 0 0 0 0 1 1 2 0 3 1 0 2 2 3 1 1 1 0 1 1 3 0 1 2 2 2 2 2 1 0 0 1 0 1 2 0 0 1 1 1 1 0 1 0 2 0 0 2 2 0 3 1 0 0 1 0 1 0 1 1 2 0 1 1 0 2 1 0 0 2 1 1 1 1 0 1 3 3 0 0 2 1 2 2 1 2 3 1 2 1 1 2 1 2 2 2 3 1 2 2 2 1 1 0 1 2 1 0 0 1 0 1 0 2 1 2 2 1 0 3 0 3 1 1 2 0 1 1 1 0 1 0 1 1 2 2 0 1 0 1 1 1 3 2 1 0 0 4 2 1 0 2 2 2 2 0 0 0 0 0 1 2 2 1 2 2 1 1 1 2 1 1 2 2 1 1 2 1 3 0 2 1 2 1 2 0 0 0 1 1 2 0 1 1 0 0 3 2 2 2 0 2 1 1 2 0 0 1 1 0 0 1 1 2 2 0 3 2 0 0 2 1 2 0 3 0 1 1 1 2 2 1 1 2 1 2 2 2 0 1 0 2 1 1 1 4 2 1 2 1 0 2 2 0 4 1 1 1 1 2 0 1 0 2 1 0 1 2 1 1 1 2 2 2 2 0 1 1 1 2 1 0 0 1 1 1 2 0 2 3 1 1 2 2 1 1 2 1 1 1 2 1 0 2 1 1 0 1 1 1 1 1 1 0 1 1 1 3 1 1 0 0 1 1 0 2 2 0 2 2 1 1 0 2 0 2 0 2 1 1 0 2 2 0 2 1 1 1 1 1 1 1 2 0 0 2 2 2 1 2 0 0 2 2 2 1 1 1 3 1 1 3 1 0 1 2 3 0 0 1 3 2 2 3 0 1 1 0 1 2 2 2 0 3 0 1 1 3 3 1 1 0 2 1 2 2 1 0 3 2 2 3 2 3 2 1 0 1 0 0 1 2 3 1 0 2 1 1 1 1 1 5 3 1 1 2 0 1 2 1 4 1 2 1 0 1 2 0 1 3 2 2 1 2 1 2 1 2 0 1 2 3 1 2 0 1 2 0 1 1 1 2 1 2 0 0 2 2 1 1 0 1 0 2 1 1 2 1 1 1 1 0 2 1 2 1 0 2 2 1 0 2 1 2 1 0 1 1 1 2 2 3 2 2 2 0 1 1 3 1 2 3 2 1 2 2 1 1 1 1 2 1 1 0 2 1 1 1 2 0 0 2 1 0 0 1 3 0 1 3 2 2 3 2 3 0 2 2 1 3 1 2 2 2 1 2 1 1 2 1 1 2 2 1 0 1 0 0 1 4 0 1 0 2 0 3 1 3 0 3 2 2 1 2 1 1 2 1 1 3 1 0 3 3 0 0 1 1 1 2 1 1 1 2 4 0 1 2 1 0 1 0 1 1 1 2 2 0 0 2 2 3 1 1 0 0 0 0 3 2 0 0 0 0 2 2 2 2 1 0 1 0 0 1 1 0 0 0 1 1 1 1 1 2 1 1 1 2 2 0 1 1 2 2 1 1 1 1 0 0 2 1 4 0 1 3 0 0 3 3 2 0 3 1 0 1 3 1 2 2 1 1 0 1 1 1 1 3 1 1 2 2 1 0 1 1 1 1 2 1 2 1 2 1 0 1 1 1 1 0 2 2 1 1 1 1 0 2 1 1 0 2 3 1 1 1 1 1 1 0 3 0 3 2 1 1 1 1 1 1 1 2 3 3 0 2 1 2 2 0 0 3 1 3 0 2 2 2 4 0 1 0 2 0 0 1 2 1 3 0 3 0 1 0 2 0 2 0 1 1 1 2 2 1 1 0 2 2 0 1 1 1 2 1 1 1 2 1 1 1 1 1 1 2 0 3 0 2 1 0 2 3 0 1 0 2 1 3 1 3 2 1 0 2 0 2 0 1 1 1 1 0 1 2 1 1 2 2 1 2 1 1 1 1 1 2 0 0 2 1 0 2 0 2 1 1 2 3 1 0 1 0 1 2 2 1 1 0 1 3 1 3 2 0 1 2 1 0 1 1 0 0 1 1 1 2 1 2 1 2 2 0 0 2 0 3 1 0 2 0 3 4 1 0 0 0 2 2 2 2 1 2 1 2 0 1 2 0 1 0 1 1 2 1 1 2 1 0 4 1 2 2 2 1 3 1 1 0 0 1 1 2 1 1 2 1 0 2 1 2 0 1 1 2 1 0 2 0 1 1 1 2 2 2 2 1 2 2 2 2 0 0 3 2 2 1 1 2 2 1 2 3 1 2 0 2 0 1 1 0 2 1 1 1 2 0 3 2 3 0 1 2 0 1 0 0 1 1 2 1 2 2 0 1 2 3 1 1 1 0 1 1 1 1 0 1 1 3 2 2 1 1 1 3 0 1 0 0 1 2 1 2 1 0 0 2 1 0 0 0 1 2 1 2 2 1 2 2 0 1 1 0 0 1 1 1 2 1 2 1 2 1 0 0 1 2 2 1 1 1 1 1 2 1 2 1 1 2 2 3 1 0 0 2 1 3 1 1 1 2 0 0 0 0 1 1 2 2 2 1 0 0 0 0 0 2 0 3 1 2 2 1 1 4 0 2 3 2 1 1 2 3 1 2 0 0 0 1 1 0 0 0 3 2 1 1 2 1 1 2 1 1 1 4 1 3 1 3 2 0 1 2 1 1 1 1 2 2 1 3 0 2 1 1 0 2 2 1 2 1 0 0 1 1 0 0 1 2 1 0 1 0 1 1 2 1 3 1 2 2 1 2 1 0 1 0 0 1 2 1 2 2 2 1 0 1 1 1 2 1 1 1 1 2 2 1 1 1 1 2 2 1 1 1 2 1 3 0 2 1 0 2 0 1 3 1 3 0 1 2 2 1 2 0 0 0 0 1 0 2 2 0 3 1 1 3 1 1 1 0 1 0 0 0 2 1 2 2 0 0 1 1 0 1 2 1 1 0 2 1 0 2 2 1 0 1 1 0 1 2 2 0 2 1 1 3 1 0 1 0 1 0 2 0 2 0 2 1 3 1 0 0 1 2 1 1 1 2 1 0 2 3 0 1 2 0 2 0 1 1 1 0 2 1 2 1 2 3 2 0 1 3 4 2 1 1 1 1 1 2 3 0 2 1 3 1 1 3 1 1 2 1 2 3 0 1 2 0 1 0 0 1 0 3 1 2 0 1 1 1 1 0 0 0 1 2 1 1 1 1 2 0 1 4 0 1 1 1 1 0 2 2 1 2 3 2 0 2 1 1 2 3 2 2 2 3 1 0 1 1 0 1 2 3 2 1 1 4 3 1 1 2 2 2 2 1 2 1 4 2 2 2 0 2 0 1 1 1 2 0 1 1 0 0 2 1 2 1 2 0 1 0 1 1 2 1 1 0 1 1 2 0 1 1 1 1 1 0 1 1 0 0 1 1 0 2 1 2 1 1 0 1 0 1 2 2 2 2 1 2 0 3 0 2 0 1 1 3 0 1 1 1 1 0 0 0 1 1 1 1 1 2 1 2 1 2 1 2 2 0 1 3 0 1 1 1 1 1 1 1 2 1 1 1 0 3 1 0 1 0 1 2 1 1 0 1 2 1 1 2 2 4 1 1 1 1 2 1 0 2 2 2 1 0 1 2 1 2 0 1 0 1 2 1 2 1 1 2 1 2 1 0 1 0 1 0 1 1 3 2 2 2 1 0 3 1 1 1 1 2 1 0 1 2 1 1 2 1 0 1 0 1 1 0 2 0 1 1 0 2 1 0 0 1 0 2 1 0 0 0 1 1 1 2 2 1 0 2 1 1 0 0 2 1 1 3 0 0 1 1 0 0 1 0 2 1 2 2 2 2 0 1 1 2 1 3 2 0 2 1 1 1 3 1 1 1 1 1 1 1 1 4 2 2 1 0 3 1 4 2 1 0 2 2 2 0 1 1 1 1 1 2 0 0 2 1 0 1 2 2 1 0 2 1 0 2 2 2 0 1 1 0 2 1 1 2 0 1 1 0 2 1 2 2 0 3 1 2 1 1 1 2 0 2 0 0 1 1 2 2 2 0 1 1 1 1 0 5 2 1 0 1 1 2 3 1 1 0 1 1 1 1 3 0 0 3 0 0 0 0 1 1 0 0 1 2 1 1 3 2 3 2 1 2 0 2 0 1 3 1 2 1 0 0 1 2 1 2 0 1 1 0 1 2 1 0 1 0 0 2 1 0 2 1 1 0 2 2 0 2 3 0 0 1 0 2 0 2 2 1 1 3 1 2 1 0 1 0 1 0 0 1 2 0 0 0 0 1 1 2 2 1 2 1 1 2 2 1 2 2 2 3 2 2 1 2 1 2 0 0 2 1 0 0 0 3 0 2 0 2 1 0 0 1 2 1 1 1 0 2 2 3 1 0 1 0 1 0 1 1 0 2 2 1 2 1 1 0 2 0 1 1 2 2 3 1 0 1 0 1 1 1 0 0 1 2 3 2 2 3 0 2 3 1 2 3 1 2 0 1 1 0 2 2 2 3 1 0 0 0 1 2 1 2 1 1 1 1 0 1 0 2 0 2 2 0 1 1 3 3 1 2 2 3 1 0 2 1 2 2 1 2 0 0 1 1 3 1 1 2 1 1 1 1 0 1 0 2 2 0 2 1 1 1 1 1 2 1 4 1 2 2 0 1 1 1 2 1 1 2 1 1 1 1 1 1 1 2 1 2 0 3 1 1 2 0 1 1 2 2 2 2 1 0 1 0 2 1 2 2 1 0 2 2 3 1 1 2 1 2 1 3 1 1 2 0 1 1 3 1 1 2 1 1 1 1 3 2 1 0 0 2 0 2 1 0 0 1 1 1 2 0 3 0 0 1 2 0 1 2 2 0 0 1 2 2 1 2 0 1 1 0 2 1 0 1 1 2 1 1 2 0 2 1 2 0 0 1 1 0 1 1 1 1 1 2 1 1 3 1 1 0 1 3 1 1 2 3 1 0 1 1 2 1 2 1 1 1 1 1 3 0 0 1 0 3 2 2 1 3 1 2 1 3 2 1 0 2 0 1 2 2 1 0 2 1 0 0 4 2 0 2 0 0 0 0 3 1 0 1 1 1 1 0 1 3 0 1 2 2 0 2 2 1 2 3 1 2 1 1 0 3 2 2 1 3 1 2 2 0 3 1 1 0 1 0 1 2 1 0 0 2 2 1 1 0 1 1 2 1 0 2 1 2 0 1 1 0 1 2 2 2 3 1 2 1 1 2 0 1 1 2 1 2 2 1 1 2 0 2 1 1 2 1 0 1 0 1 0 3 3 3 1 1 1 3 1 0 0 3 1 0 1 1 1 1 1 0 0 1 2 3 1 1 2 2 1 1 1 0 3 1 1 1 0 2 1 1 1 1 1 1 1 0 1 0 1 0 1 1 4 1 0 1 1 3 2 1 2 1 3 1 1 2 1 1 1 3 2 0 1 2 1 0 1 1 1 1 0 2 1 1 0 1 3 2 1 0 2 0 1 2 2 1 0 0 3 1 0 2 2 2 1 0 1 3 2 3 2 3 0 2 0 1 1 1 0 1 1 0 0 1 1 3 0 1 1 0 2 0 0 0 3 1 0 3 2 1 1 1 1 2 1 3 1 3 1 2 0 1 0 1 2 2 2 2 0 1 2 3 1 0 2 2 1 0 2 0 2 1 0 1 1 1 3 0 1 0 2 1 2 0 2 3 0 1 1 1 1 2 1 2 0 0 0 1 0 1 1 2 2 1 1 2 1 2 0 0 2 1 0 2 2 0 2 2 2 1 1 0 1 1 0 3 0 1 1 2 1 1 1 3 2 0 1 1 0 0 0 2 0 0 1 2 0 2 1 0 0 2 0 1 2 0 3 1 1 2 2 0 0 1 0 1 1 1 2 0 1 1 3 1 1 2 1 1 3 0 2 1 1 1 2 2 0 2 0 0 1 3 1 2 1 1 1 2 0 2 0 1 2 3 1 1 1 2 0 2 0 1 2 0 0 2 0 1 0 1 2 3 1 0 0 0 0 0 1 0 1 2 3 2 2 1 0 1 0 0 2 0 1 2 1 1 1 1 2 1 0 1 1 1 0 0 0 1 2 2 2 1 3 1 0 0 0 2 2 0 1 1 3 1 1 0 2 1 1 1 2 1 0 1 1 2 3 2 0 1 1 3 2 1 4 1 1 1 1 0 2 2 1 3 3 0 2 1 0 0 1 1 2 3 0 2 1 0 0 1 0 0 3 3 1 2 3 0 1 0 0 0 1 1 1 0 0 1 1 1 1 0 2 1 3 2 1 1 0 0 1 2 0 0 1 2 1 1 1 0 1 1 1 1 2 0 1 1 2 0 0 1 1 2 1 2 2 2 0 1 1 1 2 1 1 3 1 1 1 0 1 1 1 1 0 2 1 0 3 1 2 2 2 1 0 1 1 2 1 1 2 1 0 3 1 3 0 0 2 0 0 3 1 0 2 1 2 0 1 2 1 1 2 1 1 1 0 1 2 1 2 2 1 1 2 0 1 0 1 0 1 1 2 0 1 0 3 2 2 0 1 0 1 2 1 2 2 1 1 2 0 2 3 3 1 2 2 1 1 1 1 2 1 0 0 0 1 1 1 4 1 1 2 2 2 0 1 2 0 1 2 1 2 0 1 2 1 1 2 1 1 1 1 2 1 0 2 1 0 2 0 0 0 0 2 2 1 1 0 3 1 1 0 1 1 2 2 3 2 0 0 2 1 0 1 0 1 2 3 1 0 0 1 0 1 1 0 3 4 0 1 1 1 1 2 1 2 1 1 1 1 1 1 2 2 1 2 2 2 2 0 2 2 3 2 2 0 2 1 0 0 1 1 2 0 1 2 1 2 1 3 1 0 1 1 1 2 0 1 0 1 0 2 2 1 2 0 0 2 1 1 1 0 0 1 2 2 1 2 0 2 2 1 0 0 2 1 1 2 1 2 2 1 2 2 0 1 0 0 0 1 1 4 1 1 2 1 1 1 2 1 0 1 2 2 2 2 1 3 2 0 1 0 0 1 2 2 1 0 1 1 2 0 2 0 1 1 3 2 1 1 0 1 1 1 1 3 2 0 1 1 2 0 2 2 1 1 1 1 1 2 1 3 1 2 1 1 1 1 2 1 0 2 1 2 1 1 1 1 1 4 1 0 3 1 2 2 0 1 0 2 3 2 4 0 0 1 0 2 1 3 1 1 0 1 0 1 0 3 1 2 1 2 2 2 1 0 1 1 2 1 1 2 1 3 1 1 0 2 3 1 2 1 2 1 0 0 2 2 1 1 2 1 1 2 1 4 1 0 0 1 1 1 1 1 3 2 2 1 1 1 0 1 1 2 2 1 0 1 1 2 1 2 3 2 2 2 2 0 2 2 1 2 1 1 2 0 1 2 1 1 2 1 2 1 0 2 1 1 0 1 1 3 0 3 0 4 1 0 0 2 2 2 3 0 0 0 4 1 1 2 1 0 1 0 1 0 1 2 3 2 1 1 2 1 0 3 1 1 1 0 0 0 2 0 0 0 0 1 1 1 2 2 1 1 1 1 2 0 1 3 3 2 0 1 1 1 2 0 0 0 0 1 1 0 2 2 2 0 0 1 1 1 1 1 1 1 1 1 1 0 2 1 0 1 0 1 1 1 3 1 0 1 0 1 1 1 2 1 1 2 2 0 0 1 1 1 0 2 1 1 3 2 1 2 1 2 2 1 1 0 0 1 0 2 1 1 1 1 1 0 2 0 1 3 1 0 1 3 0 1 1 1 1 4 0 1 0 0 1 1 1 0 1 0 1 2 1 2 0 2 2 0 1 0 0 2 2 1 2 1 2 1 1 1 2 0 2 2 3 1 1 1 1 3 0 3 0 2 2 1 2 0 1 1 1 0 2 2 1 3 1 1 3 0 0 5 1 1 0 1 1 0 1 3 3 2 1 1 1 0 1 2 2 2 0 2 0 0 2 1 2 2 2 2 1 0 1 1 2 0 3 1 2 2 2 0 2 2 2 0 2 1 1 1 2 4 4 1 0 1 2 0 1 1 1 0 0 0 1 1 1 0 1 1 1 1 2 0 1 1 1 1 3 1 1 2 1 1 3 1 1 2 2 1 2 1 1 3 2 1 2 0 1 3 1 1 1 1 1 2 1 1 1 2 1 0 1 0 0 1 1 1 1 2 2 1 3 1 1 1 1 2 2 1 1 1 2 2 1 2 1 1 0 3 0 2 2 2 2 1 1 1 0 0 2 0 1 2 5 1 2 0 2 2 1 1 1 0 2 2 1 1 3 1 1 0 1 0 1 2 2 2 1 0 0 1 1 0 1 3 0 1 1 1 1 2 0 2 1 3 0 1 2 1 1 2 0 0 0 1 1 1 1 1 0 2 1 2 0 3 2 0 2 2 1 1 3 1 2 3 2 0 3 1 2 1 2 0 0 1 2 0 0 1 4 3 1 0 0 0 2 1 1 1 1 2 1 1 3 2 1 2 2 2 0 2 1 2 3 1 2 0 1 2 1 1 0 3 2 1 2 1 1 1 1 2 2 0 1 2 0 1 1 1 2 4 1 2 2 1 1 2 1 1 1 3 0 1 1 3 0 1 1 0 3 2 2 0 2 1 0 1 1 1 0 2 2 0 1 1 3 2 1 1 1 0 2 0 1 2 0 1 1 2 0 2 1 0 1 1 0 2 0 2 0 2 2 0 1 0 0 1 2 1 0 1 3 1 2 1 1 5 2 0 2 1 2 1 1 0 1 3 0 2 1 1 0 1 1 1 1 1 0 3 0 0 2 3 3 0 2 0 1 1 3 2 1 1 0 1 1 2 2 1 1 2 1 2 0 1 0 1 1 2 3 1 1 1 1 1 1 0 3 1 2 2 1 1 2 0 2 0 1 1 2 1 1 1 0 0 0 3 2 1 2 1 3 2 0 0 1 2 0 1 0 1 0 1 0 0 2 4 1 0 3 0 0 0 0 0 1 1 2 3 1 2 1 2 1 1 1 1 2 1 0 0 1 1 1 2 1 2 2 1 0 1 2 0 0 0 0 1 1 2 1 1 1 1 1 1 1 2 1 1 1 1 0 1 0 1 0 1 1 0 0 1 0 2 1 1 1 2 1 1 0 0 3 1 1 4 1 2 0 1 2 1 2 0 4 1 1 1 0 1 1 2 2 2 2 1 2 0 1 2 2 2 1 1 2 2 3 1 0 0 1 0 0 1 1 2 0 0 1 1 0 2 1 1 0 1 0 2 1 1 2 3 1 1 1 1 1 1 0 0 0 0 1 0 1 2 0 1 1 2 0 2 1 3 2 0 0 0 1 0 2 1 1 1 1 1 1 2 2 1 2 1 1 1 0 1 2 1 0 0 1 0 1 1 1 0 1 1 0 3 1 3 2 1 0 0 1 1 2 2 4 0 1 1 2 0 1 3 1 1 2 0 1 2 4 0 1 1 1 3 0 1 0 0 0 0 2 1 0 1 2 0 2 1 0 1 1 1 2 1 1 2 0 0 1 0 1 1 1 0 2 2 1 2 1 1 1 1 1 0 0 0 1 1 1 1 3 2 2 2 1 1 2 1 0 0 0 2 1 0 1 1 1 2 0 1 1 0 0 2 0 0 0 2 1 1 1 0 2 1 2 1 1 1 1 2 0 0 0 1 2 0 1 2 1 0 1 2 1 1 2 1 1 1 0 1 1 2 2 1 0 1 3 1 1 1 2 2 3 0 2 1 1 1 2 2 2 0 1 1 2 1 2 1 3 2 2 1 1 0 1 3 1 1 0 3 0 1 0 1 2 2 2 2 1 0 0 1 1 1 0 1 2 1 2 2 2 0 2 3 0 0 1 2 1 0 1 1 1 1 1 1 0 2 1 2 0 2 2 0 2 1 0 1 2 3 1 2 3 2 2 1 2 2 0 1 0 3 2 1 2 1 3 2 1 1 1 1 0 1 1 1 0 2 2 1 2 1 1 1 1 3 1 2 1 0 0 2 1 1 1 0 2 0 1 0 0 2 1 1 1 1 0 1 1 1 0 0 1 0 2 2 1 1 1 2 2 1 2 0 1 1 1 0 2 2 2 0 2</t>
+  </si>
+  <si>
+    <t>MIE(0.46518784424611226, 3.4526340220958227, -4.8834490262671414e-30, 0.09828792322436074)</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 2 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 2 0 0 0 0 1 0 1 1 0 1 0 0 0 0 2 2 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 1 2 2 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 3 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 1 0 0 0 0 1 1 0 0 2 1 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 2 0 0 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 2 0 3 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 2 0 2 1 0 0 1 0 3 0 0 2 2 0 1 0 0 0 3 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 1 2 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 2 0 0 1 1 0 0 0 0 1 1 0 0 3 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 3 0 2 0 2 2 1 1 0 1 0 1 0 0 0 0 2 0 0 1 4 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 1 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 3 1 0 0 1 1 0 0 0 1 1 0 1 2 2 0 1 0 2 1 1 0 2 1 0 0 0 1 0 1 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 2 0 1 1 2 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 2 1 1 0 0 0 0 1 0 0 0 1 1 1 0 2 1 1 0 0 0 0 1 1 1 0 1 1 1 2 1 1 1 1 0 0 1 0 1 1 0 1 0 0 0 1 0 1 0 1 1 0 1 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 2 1 2 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 2 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 2 0 0 1 1 2 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 2 0 1 0 0 0 0 0 0 0 0 1 2 2 0 1 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 0 0 1 0 0 2 0 2 0 0 0 2 1 0 1 0 2 0 0 0 0 2 0 0 0 0 0 1 2 0 0 1 0 1 2 0 0 1 0 1 0 0 0 1 0 2 3 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 2 0 0 0 0 3 1 0 2 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 2 0 1 0 1 1 0 0 2 2 1 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 1 0 1 1 1 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 3 0 0 1 1 1 0 0 0 0 0 4 1 3 0 0 0 0 2 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 1 1 0 1 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 2 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 3 1 0 0 0 1 0 0 0 1 0 1 1 1 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 2 0 3 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 2 0 0 0 0 0 0 1 0 0 0 0 0 3 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 3 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 2 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 1 1 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 2 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 2 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 1 0 0 1 0 0 1 0 0 2 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 1 0 1 0 1 1 1 1 0 1 1 1 0 1 0 1 0 0 0 0 1 0 0 0 2 0 0 2 0 1 1 0 0 1 1 1 1 2 2 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 2 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 1 0 2 0 0 0 0 3 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 1 1 0 1 2 1 0 0 0 1 0 1 0 2 1 0 0 0 2 0 0 0 0 0 0 2 1 1 1 1 3 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 1 0 0 0 1 1 1 0 0 1 0 1 0 1 1 2 1 0 0 0 0 1 0 1 0 0 0 1 0 2 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 0 1 0 2 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 1 1 1 0 2 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 2 0 1 1 0 0 1 0 1 0 1 1 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 1 1 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 2 0 0 0 0 0 1 1 2 0 0 0 1 0 0 2 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 1 1 0 0 2 0 2 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 2 0 1 0 0 0 0 2 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 2 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 0 2 1 1 1 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 1 0 1 1 0 0 0 2 2 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 2 0 1 1 1 0 0 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 1 0 0 2 1 1 1 0 2 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 2 0 1 0 0 0 0 0 3 0 0 0 0 1 1 0 1 0 1 1 1 2 2 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 2 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 2 1 1 1 0 2 0 0 0 0 0 1 0 0 0 2 2 1 0 0 0 2 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 2 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 2 1 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 3 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0 1 1 1 0 0 1 2 1 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 1 2 0 1 0 0 1 0 0 2 0 0 0 1 0 1 1 0 0 1 0 2 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 1 1 0 0 1 0 0 0 0 2 0 1 0 0 1 1 0 0 1 0 1 2 0 1 0 0 1 1 0 0 0 2 0 0 0 1 0 1 1 2 1 1 0 0 0 0 0 1 1 0 0 1 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 2 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 1 2 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 4 0 0 1 0 0 1 0 0 0 0 0 1 0 2 0 0 1 0 0 2 1 0 0 1 0 1 1 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 3 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 2 0 0 0 0 0 1 0 1 1 1 0 0 0 0 2 0 1 0 1 0 0 2 0 1 0 0 2 2 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 1 1 0 2 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 2 0 0 0 1 0 0 0 0 1 1 2 1 0 0 0 0 0 1 1 0 2 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 2 0 0 0 0 0 0 2 0 1 2 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 2 2 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 2 3 0 0 0 0 1 0 0 1 0 0 1 0 0 0 2 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 1 1 0 3 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 2 0 1 3 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 2 0 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 2 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 1 1 1 2 0 0 1 1 0 3 0 0 1 0 0 2 1 0 0 1 1 0 0 0 0 0 1 1 2 1 0 1 0 1 0 2 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 2 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 2 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 0 1 0 0 0 2 0 0 0 0 0 3 0 0 1 0 1 0 3 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 2 3 0 0 0 0 1 1 1 1 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 1 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 1 0 0 1 0 2 0 2 1 0 1 1 1 1 0 1 0 2 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 2 0 1 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 2 0 2 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 1 4 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 2 0 1 2 1 0 0 0 2 0 0 1 0 0 0 0 0 0 1 1 0 3 0 1 0 0 0 0 0 2 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 1 0 1 0 0 1 1 1 2 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 1 0 0 0 0 0 0 2 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 2 1 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 2 1 1 2 1 1 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 2 0 0 1 1 0 0 0 0 1 0 2 0 1 0 0 0 0 0 2 1 0 2 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 2 1 0 1 0 1 0 0 1 2 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 2 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 3 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 2 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 3 1 0 0 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 2 0 1 1 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 2 0 1 0 1 0 0 2 0 0 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 2 1 0 0 0 1 0 1 0 1 0 1 0 1 0 0 1 0 0 0 2 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 1 1 1 1 0 0 0 0 0 2 1 0 1 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 2 0 1 2 1 0 0 0 0 2 1 0 1 0 1 0 0 2 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 1 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 3 0 0 0 0 2 0 1 1 2 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 1 1 0 0 1 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 3 0 0 0 1 0 1 1 1 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 2 1 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 1 1 0 1 0 1 0 1 0 0 0 1 0 0 1 1 0 0 2 0 0 0 0 0 0 1 2 0 0 0 0 0 0 2 0 0 2 1 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 2 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 2 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 1 2 1 0 1 0 1 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 2 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 2 1 1 0 1 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 2 0 0 0 2 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 2 0 1 0 1 1 0 0 0 2 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 2 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 2 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 2 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 2 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 2 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 2 0 0 1 0 0 1 1 0 3 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 0 1 1 0 0 0 2 0 2 0 0 1 1 2 0 0 1 0 0 0 0 0 1 1 0 0 2 0 1 1 1 1 1 2 1 0 0 1 1 1 0 0 0 1 0 0 1 0 1 0 2 0 0 0 2 0 0 0 0 1 1 1 0 0 3 0 1 1 2 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 1 1 1 1 1 1 0 0 0 1 0 0 0 1 3 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 2 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 2 1 2 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 2 0 0 0 0 1 1 1 0 0 0 0 1 1 0 4 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 1 0 3 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 3 0 0 0 1 1 0 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 1 2 2 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 2 0 2 0 0 0 0 1 0 2 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 1 1 0 0 0 0 1 0 2 0 1 2 0 0 2 0 0 0 1 1 1 2 1 0 0 1 0 1 1 1 0 1 0 0 0 2 0 0 0 2 0 1 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 2 1 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 2 2 0 0 1 0 0 0 2 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 2 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 2 1 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 1 2 3 1 0 2 0 0 0 0 0 0 0 0 3 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 3 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 3 3 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 2 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 1 0 0 0 2 0 0 0 1 0 1 0 3 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 1 1 0 0 3 2 0 1 1 1 0 1 0 0 0 0 1 1 1 1 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 2 1 0 0 0 2 0 2 0 1 0 1 2 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 1 3 0 0 0 0 2 0 0 1 0 0 1 1 0 0 0 0 0 1 1 1 2 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 2 0 0 1 1 0 1 0 1 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 1 1 0 1 0 0 2 0 0 1 0 1 0 2 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 2 0 0 0 1 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 1 2 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 2 0 0 0 2 0 2 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 1 2 1 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 3 4 1 0 0 0 1 0 1 0 0 1 0 0 2 1 0 0 1 0 1 0 2 2 0 2 0 0 1 1 1 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 1 1 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 1 1 0 2 0 0 0 1 0 0 0 1 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 2 1 1 0 0 1 1 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 1 0 2 1 0 3 1 1 0 1 3 0 0 0 0 1 1 0 0 0 1 0 1 2 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 4 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 0 0 0 1 2 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 2 1 0 0 0 0 0 2 1 0 3 2 1 0 1 0 0 0 1 0 1 0 0 1 1 1 0 0 2 0 0 2 0 1 0 1 1 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 1 0 0 1 0 2 0 0 0 0 1 0 0 3 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 1 1 1 0 2 0 1 0 1 1 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 2 1 0 0 1 0 2 0 0 0 0 2 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 1 0 2 0 1 0 2 3 0 0 0 0 0 0 0 3 0 0 1 0 0 0 1 0 1 0 0 0 0 0 2 0 0 1 1 0 1 2 0 0 2 0 0 0 0 0 0 0 2 0 4 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 2 0 2 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 1 0 0 1 0 0 0 1 0 1 0 1 1 0 1 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 1 0 0 0 2 1 0 1 1 1 2 0 0 2 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 1 0 2 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 1 2 0 0 2 0 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 1 0 2 0 1 0 0 1 0 0 0 0 1 2 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 2 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 2 2 1 2 0 0 1 0 0 0 0 0 2 0 1 0 2 0 1 0 0 2 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 1 0 1 1 0 0 0 0 1 0 1 1 1 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 2 2 2 1 1 0 2 0 1 0 1 0 0 2 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 1 1 0 0 2 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 2 0 1 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 5 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 1 0 1 2 0 0 0 2 1 0 1 0 1 0 0 0 0 0 0 0 2 0 2 1 0 0 1 3 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 1 0 1 1 0 0 1 1 0 1 3 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 3 0 1 1 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 1 0 0 0 0 0 0 3 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 2 1 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 2 0 1 0 1 0 1 1 0 1 2 1 0 0 1 0 0 1 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 2 0 2 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 1 1 0 1 1 1 0 1 0 2 0 0 0 0 1 0 0 0 1 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 1 1 0 0 1 0</t>
+  </si>
+  <si>
+    <t>GAM(16.32782748697413, -64.59007218200685, 10.371384457677209)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 105 182 61 164 179 96 104 66 114 20 105 99 119 106 61 65 28 70 111 115 98 121 88 123 104 93 73 116 77 78 126 130 137 95 133 129 131 120 78 45 139 136 115 91 107 40 153 111 97 177 49 116 151 166 85 130 107 101 119 116 69 149 159 129 80 122 149 135 135 225 140 79 20 75 115 146 151 123 102 113 92 152 116 32 98 50 212 62 109 103 51 131 121 73 62 100 43 60 28 129 45 135 121 73 146 60 93 90 138 198 70 135 150 54 51 56 151 113 89 166 90 72 68 139 115 165 65 87 89 92 120 110 182 65 111 165 70 113 73 50 67 133 134 84 206 175 96 56 52 106 70 76 173 193 102 74 24 74 43 148 154 30 114 159 236 71 67 63 201 201 56 81 56 104 116 97 34 118 107 84 47 102 70 154 191 52 93 79 121 96 139 125 126 59 85 98 23 77 114 149 97 155 114 118 147 100 101 91 212 39 85 142 134 159 99 34 92 143 173 131 107 176 200 136 103 133 129 106 139 94 88 130 130 169 83 65 28 82 104 64 67 123 94 99 45 123 136 126 97 119 144 176 99 140 97 119 96 110 115 76 85 118 94 100 85 54 166 121 108 40 20 122 109 167 95 59 88 94 92 177 124 92 108 149 170 153 153 54 96 68 105 171 99 180 92 72 153 52 129 75 144 91 95 43 117 58 124 103 272 99 140 62 115 125 198 126 81 34 124 29 62 122 172 93 221 170 30 65 138 101 60 99 111 103 134 170 72 140 124 94 161 57 123 133 74 69 72 102 78 46 69 118 159 80 97 55 129 98 68 92 64 132 81 100 122 116 118 55 97 190 145 123 104 152 142 136 55 88 116 101 105 75 95 66 118 96 83 83 124 76 66 59 101 112 58 43 155 60 179 232 195 165 105 140 127 112 141 147 124 76 92 89 111 135 128 139 67 124 231 74 66 153 76 28 82 149 37 51 123 79 82 115 113 160 146 19 129 69 129 74 109 50 74 87 132 43 181 196 123 112 112 78 107 136 130 72 103 98 167 87 99 117 107 206 81 57 24 108 39 138 162 120 95 143 140 102 86 126 76 193 99 82 78 202 65 104 52 77 54 88 182 106 89 76 86 186 92 196 143 146 139 193 79 133 99 158 127 80 170 98 167 90 48 95 84 93 49 68 112 104 33 68 99 81 109 140 82 56 194 167 94 134 139 87 75 106 106 157 88 155 103 31 92 140 132 82 83 82 132 91 159 126 92 61 171 19 53 159 64 39 113 150 35 125 48 76 118 60 100 68 114 147 163 71 85 123 125 101 126 133 133 94 56 124 65 159 111 123 119 89 107 181 63 124 132 118 125 39 58 60 50 113 87 46 109 20 100 132 27 170 139 89 98 64 138 148 55 127 140 21 191 91 88 133 161 128 46 63 155 65 114 72 16 159 80 120 141 104 101 134 130 70 180 123 120 128 61 144 93 109 172 85 90 129 113 105 178 113 89 81 85 151 57 46 54 158 215 94 39 49 135 60 103 133 171 17 122 143 116 71 199 123 140 185 80 63 139 129 103 141 105 127 46 189 186 145 109 119 68 83 97 106 39 69 93 116 51 121 92 97 108 80 177 133 64 169 82 146 136 119 128 177 89 90 100 161 49 91 109 175 98 98 146 122 251 66 95 120 106 84 86 145 158 80 138 93 62 199 85 81 49 148 80 59 146 72 44 109 74 66 151 131 80 40 138 120 114 95 66 61 47 115 91 183 80 58 114 103 95 163 121 151 152 153 37 101 79 28 62 47 191 193 53 107 100 103 98 80 190 82 61 126 66 137 155 96 139 57 23 129 145 173 94 110 80 95 60 103 92 113 61 100 90 81 51 90 120 115 146 63 28 194 87 62 63 196 121 109 78 103 90 75 95 166 69 47 100 95 89 66 89 41 136 121 80 46 67 70 153 90 64 116 60 122 104 106 65 100 55 95 101 138 89 69 58 80 67 96 156 183 48 73 196 56 116 203 76 116 121 44 147 73 127 146 172 174 107 104 53 162 73 129 55 72 117 122 105 57 116 165 70 161 175 87 121 133 120 129 134 96 80 156 71 131 119 143 78 91 120 166 68 112 213 86 96 83 104 144 84 89 68 119 90 77 160 127 129 102 83 93 50 46 157 226 143 93 87 150 72 79 38 143 140 146 151 108 113 195 49 124 54 144 60 205 115 113 145 145 89 157 139 160 112 64 109 128 140 65 92 145 137 101 188 103 195 116 88 104 109 143 57 16 118 114 122 116 71 8 97 139 100 70 60 140 132 55 138 152 169 60 57 87 78 102 35 113 116 147 169 81 97 55 134 40 95 76 56 89 152 197 69 104 87 108 63 110 56 112 134 154 90 143 64 53 140 157 34 67 126 166 168 161 72 96 115 134 21 95 131 92 77 228 139 125 105 47 57 148 123 98 87 78 96 155 87 93 52 93 31 114 86 55 18 105 67 71 95 64 95 78 136 123 66 108 35 169 118 49 59 99 102 26 85 150 96 168 47 163 138 70 135 97 95 65 126 76 98 126 102 104 151 200 27 29 47 80 122 124 129 77 73 187 140 99 100 60 112 102 126 40 80 129 47 140 68 72 79 85 106 50 109 71 104 77 184 155 70 86 169 82 108 241 63 80 121 162 128 74 75 153 71 117 118 84 115 133 145 110 109 119 156 137 101 58 117 61 78 75 93 78 83 94 204 95 85 107 267 146 160 39 114 7 103 159 80 153 50 105 86 93 89 98 97 108 163 110 69 149 118 81 59 156 165 103 118 105 138 113 111 125 58 158 117 70 83 62 102 131 104 120 93 62 46 85 126 29 149 77 135 134 86 63 67 89 135 31 211 62 57 176 118 79 123 166 104 95 113 164 29 119 137 70 92 74 136 134 158 74 84 48 81 138 35 177 167 97 103 92 190 103 106 236 71 196 114 68 42 69 105 134 132 143 94 100 122 189 65 119 96 134 120 38 120 75 252 78 94 183 104 100 68 74 108 62 77 84 53 71 204 32 86 149 186 66 129 146 208 106 92 136 123 62 62 78 43 208 104 64 134 94 61 141 66 149 91 131 151 79 155 127 74 144 107 121 130 89 64 79 74 186 156 106 128 164 39 122 49 81 83 42 105 124 133 75 78 117 36 170 59 195 87 134 97 125 90 100 166 62 136 76 43 81 108 91 58 176 154 86 99 70 82 192 129 61 52 158 62 70 141 145 61 112 85 165 52 67 113 67 83 169 134 166 83 95 70 53 50 86 121 78 109 79 99 73 100 96 83 63 127 43 73 103 111 74 88 162 108 67 200 62 90 83 84 158 73 192 84 89 92 122 97 122 93 107 77 92 61 149 74 151 147 60 74 99 29 48 94 101 74 77 177 133 67 112 121 66 114 98 201 94 161 144 96 29 99 132 68 52 154 114 49 124 89 105 69 87 136 56 165 126 165 137 92 192 152 130 123 40 142 110 26 37 51 72 128 100 135 87 79 88 115 51 92 102 100 77 84 167 130 71 118 193 93 52 66 62 98 128 97 95 147 96 69 177 138 100 100 125 211 140 163 143 52 113 107 104 149 164 197 80 100 64 118 124 226 56 125 93 93 51 137 145 183 83 106 101 65 82 140 63 113 114 68 98 88 42 135 89 132 77 103 86 218 61 165 84 85 46 61 109 40 99 94 112 84 60 137 158 103 106 94 57 115 53 111 107 44 123 105 46 54 101 120 66 58 28 107 181 80 94 100 134 111 83 50 90 64 73 68 71 224 59 114 133 93 68 45 30 174 29 91 54 75 130 105 164 97 74 63 110 39 66 155 140 63 100 134 103 52 62 116 117 69 43 106 94 70 144 101 199 78 94 95 139 131 160 75 52 75 90 27 90 124 86 122 190 140 146 67 100 101 138 133 89 79 100 82 142 107 126 78 42 202 80 146 86 115 53 199 139 105 100 68 56 200 115 99 126 110 97 172 125 109 146 51 82 107 220 160 86 119 113 107 108 75 132 105 148 122 89 152 221 96 149 57 108 77 106 121 122 49 69 178 152 65 89 155 90 116 162 170 70 128 167 126 198 166 158 173 69 137 113 67 109 88 188 60 84 83 121 115 96 161 104 142 80 162 134 61 245 69 151 123 95 125 59 132 89 111 109 126 58 105 73 197 89 194 52 101 82 68 232 288 40 118 185 121 123 29 98 124 119 105 79 87 180 121 83 38 46 62 100 77 166 125 167 -1 125 100 154 63 133 134 107 132 93 60 93 159 68 88 129 142 76 144 153 148 160 112 100 46 112 135 111 157 124 217 49 27 34 116 127 55 71 68 175 27 48 80 150 72 97 152 47 64 57 100 90 223 72 105 93 57 73 90 110 88 149 166 60 117 49 112 130 30 138 98 83 84 75 41 167 78 86 95 101 114 103 109 89 83 177 113 18 66 37 78 113 172 144 137 67 54 73 154 117 100 60 148 111 75 88 114 168 64 63 112 70 172 77 77 113 107 96 68 98 118 131 194 116 102 57 51 106 103 125 67 129 203 141 193 94 50 188 36 136 108 128 70 104 163 66 255 111 116 107 98 102 155 105 80 67 123 83 103 71 128 86 184 159 102 143 91 123 73 93 160 182 107 80 146 122 101 106 91 112 108 101 140 134 138 88 65 66 58 118 113 108 116 156 163 96 53 118 37 97 148 145 110 84 155 103 88 213 59 102 71 92 113 117 75 111 75 61 147 87 119 97 114 165 65 82 104 87 161 63 147 143 106 203 33 74 67 28 91 117 103 91 69 48 78 36 158 80 101 70 97 74 118 66 81 153 113 121 122 131 27 104 67 133 101 21 31 44 35 157 81 118 66 146 145 113 116 134 144 80 193 115 92 172 90 68 46 121 102 80 31 90 79 192 136 155 68 133 124 48 22 66 61 106 68 187 114 109 44 108 88 109 92 136 121 53 166 58 141 145 68 173 173 112 117 123 168 105 78 102 152 150 56 109 91 46 85 157 59 141 136 129 65 57 111 116 160 27 61 121 108 105 105 65 106 145 128 94 169 110 132 135 225 108 87 113 57 85 188 74 74 97 149 61 86 111 83 163 93 139 88 62 137 140 115 56 81 144 101 191 54 186 103 115 120 117 135 198 98 74 44 161 118 114 160 44 80 57 85 104 85 148 97 141 80 120 163 169 61 100 80 113 124 117 88 160 86 163 66 140 91 131 128 18 243 156 54 149 126 129 54 147 219 24 118 180 61 144 111 111 37 105 149 114 151 79 89 31 73 100 65 86 66 85 134 95 147 105 166 168 119 137 194 91 55 112 87 109 134 101 169 165 95 95 60 53 150 117 32 178 140 81 133 43 92 113 51 32 162 180 163 103 77 91 94 234 106 57 96 73 153 177 105 216 69 81 98 142 150 91 182 144 88 81 133 113 101 136 136 90 195 103 80 133 113 71 62 168 27 131 165 172 66 136 80 126 151 124 117 132 170 70 35 187 98 87 211 153 122 191 115 100 136 92 107 159 137 192 101 142 180 46 28 101 121 75 134 124 79 89 123 65 47 186 80 60 85 86 63 51 112 93 138 62 37 71 132 155 69 133 68 86 71 124 49 98 75 107 112 112 103 106 93 142 134 98 71 73 78 97 163 57 88 81 128 140 144 35 33 122 106 81 103 73 68 57 47 50 96 91 63 118 106 130 117 106 63 144 154 76 123 115 95 214 135 43 63 132 167 129 143 50 81 104 117 81 46 186 109 94 124 117 113 44 105 76 108 78 107 88 103 59 14 47 98 97 20 96 104 79 123 31 79 113 27 47 74 204 49 114 34 124 142 23 122 123 113 59 196 135 50 87 123 72 84 143 172 136 113 71 178 79 51 134 159 194 39 63 132 75 28 188 69 113 26 45 120 164 164 85 61 45 128 87 142 103 139 146 58 102 245 136 47 20 131 195 59 113 103 133 58 111 105 183 98 61 58 179 127 63 138 90 108 89 142 84 51 25 180 68 71 142 65 168 88 174 80 51 84 97 110 163 88 100 195 122 105 123 51 83 68 121 119 74 55 79 99 127 71 149 82 136 69 95 143 132 25 70 108 118 117 106 62 71 99 165 104 102 78 154 153 186 92 122 56 65 103 70 73 65 88 136 75 95 70 92 145 147 52 117 41 55 86 78 116 85 84 75 107 34 77 184 85 72 122 119 28 104 115 89 45 194 118 108 90 141 71 45 147 102 120 245 123 158 67 204 158 117 38 125 55 117 167 13 105 136 39 87 100 97 71 145 77 92 89 184 134 116 167 145 87 41 110 78 162 98 81 114 167 71 129 98 81 61 128 91 104 89 179 142 123 70 41 34 90 84 68 81 139 70 162 68 22 45 119 104 64 83 111 114 105 85 81 7 113 145 79 90 171 97 102 151 144 104 24 102 60 189 212 85 130 105 63 101 236 144 117 96 167 79 78 124 45 105 145 85 79 79 97 171 84 112 118 125 213 97 41 81 145 100 130 78 26 52 114 117 102 180 145 89 36 71 82 141 81 55 112 92 85 47 76 115 123 77 123 43 123 105 151 96 107 31 101 43 49 106 167 93 104 91 167 113 64 113 148 207 85 41 130 25 89 43 30 69 83 126 72 52 71 69 71 143 154 144 130 116 148 136 147 109 50 167 107 129 118 71 125 98 111 36 121 75 118 195 116 72 58 159 133 110 148 136 131 105 109 188 145 122 156 82 91 112 142 84 116 132 93 124 119 79 111 135 90 19 88 92 110 92 82 133 110 124 97 124 86 92 50 102 110 199 55 57 145 89 111 61 146 95 111 187 101 87 90 188 50 85 32 210 131 128 102 82 69 188 13 100 75 142 29 122 210 85 157 98 121 190 93 133 114 29 109 54 69 139 133 118 175 100 128 91 149 136 145 115 111 182 76 117 123 213 106 97 136 156 69 129 61 114 85 124 144 81 120 160 110 126 133 99 70 141 44 32 108 98 108 139 181 104 130 78 40 46 85 35 79 121 77 98 79 191 132 101 78 187 41 181 34 174 49 180 41 79 97 104 97 95 64 128 145 171 110 124 94 122 82 140 206 133 93 104 130 59 51 111 144 196 132 155 85 78 76 85 48 158 63 93 99 98 57 110 74 77 112 47 94 117 122 93 79 139 166 102 150 186 95 43 141 121 99 150 55 171 137 72 94 71 42 84 56 56 117 115 40 172 81 44 81 77 162 148 122 194 139 72 73 47 113 103 117 96 102 54 129 141 134 125 86 129 113 99 107 122 132 154 151 126 201 184 98 141 204 147 85 39 41 92 75 98 113 95 124 31 79 93 39 109 83 67 208 66 103 127 82 118 57 124 79 94 93 39 213 158 118 132 122 73 136 100 68 146 138 188 157 19 140 68 111 75 90 24 144 147 117 50 38 76 119 42 81 63 140 142 141 164 119 56 90 55 66 108 108 73 135 109 112 82 113 203 50 142 76 145 87 90 63 105 32 141 169 126 119 86 44 107 132 122 61 62 130 74 37 128 79 90 183 72 136 83 39 61 56 87 98 132 53 66 81 98 165 87 65 158 73 69 98 86 61 123 134 152 53 50 83 65 46 163 102 71 71 107 119 70 80 137 89 86 82 107 160 50 91 171 62 70 203 146 149 153 120 116 93 63 217 54 61 171 130 64 120 51 119 118 95 227 107 98 136 138 111 43 121 176 82 97 51 71 130 118 130 155 125 69 151 62 138 102 153 120 125 91 86 183 92 134 72 101 112 241 77 42 181 81 91 126 157 111 71 82 112 38 45 93 160 102 146 101 97 105 89 95 90 181 41 52 99 122 196 64 146 76 115 136 148 241 194 106 86 171 182 140 93 89 158 78 73 84 107 80 81 231 32 101 145 96 81 135 48 144 79 73 65 74 126 125 139 197 68 77 65 77 57 188 118 79 127 88 89 135 136 90 45 70 97 133 93 109 99 73 36 76 155 77 84 70 48 113 114 134 125 99 61 112 116 154 38 138 100 122 114 66 101 145 85 107 185 93 193 168 111 106 129 138 121 164 72 120 30 133 194 158 74 77 159 24 113 109 130 137 102 103 60 57 36 119 178 127 150 52 203 154 55 67 67 68 83 153 121 122 132 127 26 134 113 47 69 83 31 99 168 100 175 73 66 115 35 60 61 97 114 101 114 105 145 14 214 87 128 135 75 195 179 88 89 124 108 61 121 125 93 111 83 92 81 66 42 90 126 48 67 146 44 81 105 89 78 143 104 100 87 63 196 108 97 52 58 148 30 114 79 98 108 130 144 74 77 94 126 67 131 73 114 76 64 68 56 107 39 93 51 125 116 112 145 130 154 108 100 106 174 99 82 151 92 88 84 119 46 239 72 115 127 107 64 79 62 139 137 120 94 143 108 77 60 47 95 91 144 112 110 149 195 126 70 156 70 187 78 82 118 143 58 158 71 234 70 79 47 190 81 161 159 59 64 123 94 34 66 121 174 138 148 117 75 89 66 73 69 74 106 131 123 78 125 191 100 128 150 69 141 183 123 6 134 156 114 141 49 62 106 49 140 69 97 75 144 96 175 131 68 33 72 166 142 67 80 29 61 23 88 102 106 131 188 103 102 54 157 89 134 196 61 106 145 155 143 96 154 106 109 110 99 31 42 48 58 88 104 69 52 98 172 57 119 180 100 112 71 96 188 53 123 128 41 59 123 42 102 109 95 32 87 78 114 87 116 106 129 159 125 66 153 66 76 138 62 104 133 126 92 79 159 68 114 29 164 166 72 72 130 74 74 70 142 89 83 135 165 105 161 79 76 119 43 136 38 118 139 70 112 68 129 87 110 65 122 219 37 103 62 179 93 145 161 90 85 72 90 101 163 60 57 130 90 105 34 155 160 84 27 109 107 96 122 173 109 44 133 187 64 110 143 157 37 51 151 189 153 119 152 131 132 125 113 152 70 152 66 94 128 79 74 26 82 243 96 93 155 98 114 150 174 106 167 85 55 147 72 117 80 78 111 86 70 79 83 200 85 125 130 119 112 36 158 163 122 102 156 105 83 96 157 128 113 183 52 200 118 82 79 171 150 128 41 115 196 136 88 72 133 83 123 151 153 95 84 101 51 186 94 135 127 55 152 106 47 79 99 43 167 109 112 124 62 96 229 45 88 65 193 76 68 163 123 37 124 117 98 85 95 80 133 27 82 122 117 47 122 169 80 156 124 60 189 70 104 159 121 98 66 77 112 142 64 47 134 153 70 136 37 156 61 125 19 132 83 98 33 72 137 124 123 53 88 50 61 136 60 57 137 151 130 118 163 82 77 147 104 82 93 101 47 88 100 82 77 120 34 137 136 125 97 134 96 210 73 68 100 114 151 163 58 170 53 138 69 40 82 93 78 111 124 235 72 124 84 106 87 61 105 163 78 172 119 177 122 107 136 192 39 72 136 124 96 110 82 57 125 88 187 57 82 133 100 134 81 72 117 60 101 150 106 88 78 48 65 127 120 170 80 90 164 124 153 125 52 103 90 102 109 129 51 89 89 91 95 91 116 90 81 81 118 89 134 136 101 112 136 163 86 166 141 65 97 51 94 93 106 43 132 140 56 121 76 73 98 119 40 126 145 125 86 65 112 121 151 88 127 84 105 133 38 64 90 151 72 115 103 78 112 46 69 172 162 81 103 42 101 81 89 120 45 102 73 179 157 146 83 61 107 90 94 128 127 93 77 149 153 222 46 109 98 120 86 94 105 82 115 118 127 76 101 120 49 72 157 128 54 71 94 63 175 97 56 101 106 141 157 113 73 110 134 84 129 78 188 56 226 58 24 36 34 149 94 108 102 77 129 149 192 73 91 155 115 182 139 37 161 72 143 28 171 89 135 46 93 72 81 133 123 80 111 71 83 147 139 74 95 126 69 196 100 21 96 86 15 133 75 101 54 121 107 180 41 115 147 58 97 98 180 168 117 60 4 144 76 119 199 73 155 120 127 84 85 66 121 135 229 137 114 107 81 169 136 35 101 120 139 140 149 82 140 84 155 128 128 118 70 59 135 117 38 115 115 87 85 141 91 158 126 49 119 115 161 45 93 80 58 104 44 176 89 126 120 133 129 86 222 38 84 100 50 113 74 54 155 123 111 104 99 59 49 136 157 108 169 171 72 138 61 71 126 138 141 107 121 109 64 109 115 194 114 139 72 238 188 90 118 42 126 93 120 122 95 77 98 100 95 131 72 144 168 105 120 114 124 84 29 137 78 53 85 100 156 71 123 114 86 120 56 87 96 79 81 160 130 179 51 68 62 77 49 137 75 120 111 152 151 31 54 87 88 96 114 129 75 91 76 104 94 152 168 115 82 97 50 108 96 49 98 94 51 50 186 104 151 99 116 62 103 121 144 108 129 107 62 158 107 63 94 62 43 67 194 99 100 100 124 161 86 106 77 108 37 98 81 104 70 95 95 73 146 148 71 177 75 79 113 191 110 24 112 168 70 159 167 181 151 150 78 117 92 108 153 195 103 101 97 126 198 52 167 105 69 74 97 30 78 96 41 95 147 157 152 29 127 160 79 84 90 141 174 81 40 107 103 69 89 92 104 60 138 88 210 102 94 72 161 90 96 83 169 81 155 32 35 107 173 82 99 105 73 48 67 53 127 122 107 90 38 114 74 103 81 84 144 97 121 73 85 71 89 71 95 145 96 100 132 110 162 166 124 96 59 132 101 128 91 165 72 116 119 124 70 55 97 57 86 87 106 144 56 126 173 97 113 74 66 93 91 65 52 107 251 69 46 58 43 149 117 149 115 165 86 160 113 123 78 45 29 43 141 59 49 99 54 71 67 39 67 132 80 169 133 161 124 88 16 111 159 89 135 131 65 57 123 101 97 192 40 144 126 96 215 68 132 114 98 73 155 65 158 65 175 105 50 15 72 32 44 77 87 97 100 36 75 164 142 71 66 76 137 121 109 104 38 81 108 91 180 185 217 48 24 134 104 163 85 121 82 46 96 155 102 85 136 56 81 182 46 143 128 87 53 41 23 68 88 103 151 56 134 129 189 135 58 110 115 133 59 137 104 62 98 76 80 116 49 102 96 58 53 63 158 50 97 43 50 118 150 112 205 71 162 151 147 97 87 37 129 74 74 73 77 65 33 61 112 69 94 138 57 121 120 96 141 39 67 103 67 135 66 61 72 135 77 60 95 55 141 72 59 167 57 94 122 132 103 152 90 43 194 32 103 249 113 85 109 79 128 124 75 91 111 74 105 102 176 123 179 94 122 55 49 146 101 77 62 129 47 109 92 107 103 136 96 124 169 67 116 107 145 21 170 165 78 115 113 131 121 99 182 65 104 108 134 77 117 100 144 134 114 89 101 102 69 86 95 79 61 157 78 74 108 69 129 157 154 115 145 107 82 63 29 59 154 97 121 60 119 88 43 60 175 101 105 117 158 85 87 58 116 134 106 89 161 81 94 96 58 80 97 97 52 105 162 131 136 179 67 73 93 193 51 71 161 45 81 157 91 108 60 90 105 62 63 88 51 161 70 104 78 122 136 153 102 101 97 58 95 136 50 105 119 175 71 119 178 97 115 126 85 79 129 81 190 66 99 130 14 82 99 70 63 98 124 36 38 90 43 105 159 55 118 113 135 86 33 68 78 122 113 93 50 79 110 118 146 27 117 90 99 59 104 87 100 181 108 65 130 116 85 118 114 133 66 129 107 192 251 109 39 149 110 61 214 111 210 92 126 112 98 115 72 138 99 78 119 114 81 158 65 99 126 137 120 98 51 155 65 82 95 132 75 57 94 158 205 149 55 117 120 135 82 177 168 106 149 170 84 66 164 166 147 132 87 99 128 143 142 145 77 83 148 113 100 79 86 75 138 100 81 96 72 127 57 158 135 75 94 45 138 101 68 66 183 53 66 93 91 33 119 56 92 44 130 98 46 54 55 84 118 161 102 162 117 96 78 55 112 101 124 69 87 46 71 76 154 85 96 91 165 70 116 55 66 95 54 20 27 18 131 136 40 141 140 142 147 70 97 100 68 55 120 41 68 108 64 75 42 134 54 68 109 85 105 124 25 201 132 145 124 75 123 53 69 99 84 176 99 80 97 100 67 105 43 142 98 198 137 62 69 81 26 135 52 34 78 153 46 113 63 123 151 56 39 134 90 138 147 66 134 152 135 160 135 73 122 202 63 82 96 93 37 70 114 41 101 56 143 157 85 58 94 107 61 77 79 137 120 127 51 92 54 117 124 86 91 110 74 80 63 95 148 82 159 88 133 153 70 108 81 100 119 93 139 89 161 84 96 99 77 130 78 33 132 105 176 149 95 61 136 167 57 91 262 121 117 77 94 104 81 48 170 96 92 120 102 167 103 118 115 83 58 93 79 169 12 84 68 87 123 227 114 52 63 58 138 108 28 69 138 74 133 109 103 154 47 98 68 179 194 127 117 70 92 121 79 202 116 110 169 123 171 129 30 78 153 78 152 40 49 107 136 97 105 43 50 75 101 194 28 89 107 69 101 83 127 101 149 86 227 75 81 82 116 135 115 187 98 130 120 132 116 120 77 84 102 122 39 146 67 94 69 56 40 75 117 121 100 180 25 120 80 66 100 183 102 126 228 117 165 98 150 90 94 94 96 50 132 176 32 143 132 112 33 134 106 103 113 70 89 68 59 127 92 83 106 185 79 78 147 90 46 86 95 122 68 89 70 91 81 128 55 43 76 95 123 117 89 84 162 84 109 83 142 115 85 121 116 133 113 56 120 277 66 70 74 172 137 113 78 84 108 132 197 115 73 174 75 127 140 31 77 78 115 87 88 98 167 123 105 94 23 130 168 122 119 73 90 62 135 173 127 104 52 95 105 105 176 85 97 122 6 47 196 63 95 61 46 185 89 60 118 59 106 134 103 73 31 128 104 54 116 137 39 118 126 127 132 202 160 31 96 159 141 24 105 182 75 125 61 164 97 84 111 92 62 141 40 54 103 86 112 93 65 74 133 105 48 189 98 142 83 79 105 107 48 129 28 115 87 83 91 82 86 181 127 126 122 186 103 60 48 118 135 207 129 47 40 159 26 111 145 113 185 152 126 89 130 157 126 187 76 100 215 102 168 54 132 166 87 79 80 112 168 70 134 59 34 79 82 76 217 111 71 85 76 102 65 108 43 131 98 42 97 114 105 80 93 62 135 88 155 87 42 39 93 139 112 155 101 161 76 125 120 56 88 97 119 32 125 150 85 46 170 137 82 65 99 103 111 87 99 166 25 88 148 54 91 69 79 175 115 55 96 102 118 83 52 87 120 83 120 99 68 83 111 86 92 89 218 113 71 182 124 56 21 103 37 71 90 107 151 94 128 116 143 88 215 170 160 99 100 89 168 48 125 78 140 250 122 49 62 66 137 129 96 105 203 142 111 105 90 81 83 160 167 48 96 148 85 85 91 66 74 82 181 186 115 78 96 110 234 47 156 132 31 67 114 93 143 111 127 76 57 66 127 91 113 87 63 192 103 102 80 108 129 97 90 94 126 69 110 103 76 137 104 132 81 103 125 169 91 104 107 46 41 57 59 125 75 153 106 91 102 99 168 96 69 85 136 151 132 80 104 161 66 132 69 159 150 132 100 34 68 114 150 53 87 203 177 111 96 138 105 95 156 143 101 105 125 104 123 68 142 105 26 125 84 89 125 104 98 167 125 134 134 133 53 128 100 61 101 180 72 59 139 100 91 134 71 89 35 95 72 102 129 121 55 142 171 120 157 162 132 85 143 70 125 97 89 106 146 89 105 137 78 20 154 168 113 71 65 49 74 117 129 83 154 131 189 142 83 143 53 51 63 72 112 168 136 107 92 152 83 132 185 187 43 48 191 105 130 81 107 117 100 61 179 85 155 79 118 88 45 87 79 76 74 70 59 53 149 115 76 64 83 165 62 113 143 88 146 120 155 97 106 91 136 56 22 101 97 146 93 115 125 131 143 90 65 87 82 138 90 101 101 67 111 33 93 74 138 95 87 88 85 126 128 121 153 73 37 117 201 113 136 112 51 127 128 55 69 80 78 64 83 96 108 130 44 108 74 82 158 118 102 84 262 159 155 91 99 26 59 50 91 134 114 99 107 159 106 107 51 142 46 131 93 134 74 100 104 83 132 151 210 141 77 121 120 115 70 130 67 150 83 155 109 85 116 97 66 107 130 137 153 8 124 121 102 134 49 144 151 54 126 74 56 87 129 41 114 81 164 106 135 95 78 191 103 103 161 194 138 44 112 124 129 107 54 82 48 25 21 148 119 90 129 42 122 123 61 118 139 59 87 56 87 141 36 143 137 124 105 151 18 122 181 73 69 140 110 200 79 157 93 93 131 80 66 96 183 124 119 112 51 147 87 90 77 130 175 97 81 148 86 131 63 190 87 71 96 133 98 165 35 112 89 76 88 95 223 89 81 117 67 90 97 19 73 57 94 136 21 106 94 94 141 37 134 90 80 90 138 90 39 141 74 91 148 110 147 33 88 27 175 64 124 108 155 99 61 60 145 68 182 136 28 143 171 91 51 71 99 107 102 52 151 39 63 78 90 105 78 112 203 145 79 63 81 47 108 98 96 130 162 169 33 141 101 151 80 126 69 22 106 95 100 188 91 131 97 122 56 179 65 69 75 110 81 70 97 76 100 53 65 96 95 54 128 75 182 188 63 74 96 86 125 108 67 150 50 81 110 113 90 125 54 85 126 68 77 97 117 50 101 40 116 152 173 119 106 111 35 107 62 75 128 85 87 51 93 89 92 95 85 114 204 13 137 86 132 58 128 110 63 88 83 129 139 112 201 24 154 141 141 74 49 52 117 76 132 137 75 151 120 118 150 89 97 92 98 106 135 164 65 90 79 59 106 70 47 109 71 108 60 74 32 171 68 55 55 84 112 141 17 124 132 145 65 17 100 48 75 77 141 94 103 178 132 75 54 111 97 51 102 103 61 117 75 60 115 88 44 65 65 150 106 54 23 55 105 86 51 70 136 97 27 37 128 50 43 49 96 43 64 121 219 66 155 38 52 56 124 95 155 150 158 131 109 144 38 148 78 99 149 44 57 131 134 115 130 0 132 146 93 33 133 73 94 106 143 172 108 48 22 65 103 168 71 66 189 151 105 92 199 111 42 133 133 80 121 22 107 154 137 136 116 115 128 104 178 58 171 119 43 114 157 84 104 102 117 115 151 59 45 73 100 146 102 90 105 123 130 129 116 154 136 108 207 88 132 82 69 159 144 169 80 39 79 61 52 114 82 63 126 124 110 127 153 162 123 67 55 76 76 118 81 97 161 125 15 82 79 99 153 43 102 124 99 155 97 97 117 175 98 97 67 21 80 132 29 174 179 48 108 93 79 49 148 105 123 64 61 127 92 22 128 72 97 82 106 77 122 85 154 120 88 58 78 89 117 92 83 117 59 157 48 172 71 127 94 75 119 47 146 76 115 87 99 133 89 120 96 39 92 209 174 135 159 57 32 25 119 68 141 66 121 34 118 116 130 102 126 99 125 57 79 146 128 72 82 40 83 88 119 52 161 127 52 76 79 71 50 101 44 143 145 69 77 88 118 105 128 95 119 107 103 135 62 145 82 116 97 97 52 56 118 74 138 246 47 93 80 72 61 140 58 144 44 86 137 99 94 82 132 72 90 85 176 122 120 67 147 147 124 196 74 78 93 47 80 160 170 55 176 74 130 110 84 107 25 55 83 91 148 77 71 76 97 73 161 169 65 160 140 81 74 108 57 115 90 130 123 73 41 60 153 158 57 31 56 104 146 58 160 124 109 136 165 135 122 69 158 61 103 127 68 74 40 93 100 47 126 178 109 145 127 41 104 68 79 111 97 46 117 118 108 145 126 62 130 58 67 135 208 86 153 59 194 99 82 118 133 174 55 79 105 146 70 130 167 157 97 60 136 37 35 166 82 131 119 135 145 104 88 93 180 159 113 78 66 70 47 102 28 106 77 95 35 87 57 144 80 63 81 169 126 125 86 144 132 159 88 36 87 100 95 118 71 137 80 116 107 37 115 86 175 200 120 62 93 97 126 100 46 172 123 118 100 118 222 183 104 100 67 101 123 82 175 148 142 102 88 165 112 158 75 130 126 141 266 146 151 148 59 97 149 43 113 78 40 72 115 89 76 113 71 183 137 95 72 91 142 25 91 114 103 156 61 103 34 130 116 92 93 64 174 89 201 145 122 207 119 164 93 105 104 128 33 68 133 97 113 107 108 63 17 86 94 128 125 102 146 50 122 78 74 102 94 152 207 133 174 119 88 88 87 187 111 100 126 158 116 143 131 109 76 130 181 128 80 20 146 122 196 100 83 89 145 132 144 108 95 117 89 95 63 86 125 107 130 45 102 106 98 84 100 150 60 239 141 24 70 141 123 107 97 167 83 113 152 85 119 87 49 162 121 98 113 80 122 34 112 187 86 30 163 76 88 68 133 122 108 30 137 107 186 96 76 174 78 125 101 50 106 121 90 61 34 37 105 115 82 132 105 114 87 196 118 67 126 205 139 42 93 45 107 73 127 186 86 158 119 147 42 182 109 103 187 86 86 203 54 144 108 129 117 50 80 38 95 79 81 78 132 143 42 141 161 131 149 64 112 169 123 67 49 137 120 133 38 102 77 14 82 66 123 48 59 195 130 27 73 118 105 133 71 34 236 80 134 85 88 28 115 32 93 25 207 57 141 98 93 84 55 63 120 88 101 74 130 140 62 171 69 100 150 71 37 110 108 99 129 125 73 55 131 73 101 114 206 58 143 79 64 65 114 113 73 121 118 80 157 47 150 20 151 56 86 67 120 61 172 163 110 52 203 167 205 81 83 64 116 85 73 92 88 176 129 113 71 132 152 179 17 110 76 137 23 170 100 71 200 128 101 49 135 102 126 72 19 158 101 128 180 153 126 87 151 86 67 68 157 115 141 147 91 123 158 113 92 182 174 153 15 55 74 80 105 147 99 112 149 110 138 142 111 105 173 109 101 95 99 57 138 147 118 73 123 73 90 87 54 128 96 49 90 158 203 107 203 157 56 65 22 85 101 51 77 92 104 71 167 73 102 219 116 142 87 54 117 82 118 117 158 86 102 71 95 137 149 64 136 54 172 113 89 72 102 37 135 73 49 77 99 227 117 47 192 120 83 88 51 90 107 164 88 42 52 105 124 114 95 91 98 87 113 58 106 166 121 82 109 158 120 23 109 74 154 93 168 76 95 87 125 112 86 122 136 177 160 67 46 54 110 85 109 114 141 116 71 110 51 73 41 160 49 85 123 47 170 137 87 77 169 65 79 68 137 106 68 117 112 137 46 69 36 82 106 37 95 132 106 71 97 45 96 133 132 92 115 62 122 113 157 109 163 137 123 43 48 134 100 76 123 114 118 38 65 148 101 172 145 65 76 108 88 107 75 105 97 81 109 77 84 43 113 84 92 99 164 110 160 72 106 72 72 81 94 87 26 99 128 192 121 101 48 72 167 34 73 86 33 52 80 93 85 75 110 127 83 120 78 152 98 27 20 136 263 75 127 161 73 122 61 95 111 74 163 115 138 123 62 83 107 156 95 135 138 117 77 88 58 144 49 72 109 158 105 28 131 112 142 136 68 58 38 150 95 148 85 120 87 62 113 106 106 38 77 166 64 64 20 69 113 71 142 75 31 171 127 143 72 107 107 195 156 92 111 24 73 146 58 48 120 59 32 57 99 172 154 57 30 54 97 79 74 101 145 86 103 169 102 85 156 144 107 44 177 78 142 65 55 119 112 90 100 95 108 81 157 174 109 93 109 69 108 164 154 87 97 116 90 122 92 102 154 126 116 115 57 66 89 72 106 106 88 91 125 130 91 20 163 83 146 194 139 80 157 161 157 103 66 108 117 162 117 49 100 69 78 54 102 126 89 105 85 109 70 128 90 91 40 206 94 122 120 92 200 60 67 82 67 165 113 53 115 78 178 167 117 69 99 96 151 80 62 210 94 44 88 192 90 46 67 74 151 93 108 99 118 136 158 80 75 76 138 97 88 46 140 111 104 160 128 82 106 61 117 82 172 142 103 116 97 66 109 57 116 100 161 81 87 66 202 136 139 82 65 107 115 109 84 125 98 178 108 90 19 128 163 181 116 66 77 202 76 60 126 66 76 131 91 138 36 99 74 166 105 85 148 114 136 152 157 175 107 85 172 74 136 85 211 134 97 73 22 53 69 185 201 53 105 80 144 175 124 220 51 70 60 53 162 93 93 85 162 149 149 172 43 121 41 43 47 78 97 186 80 155 133 67 106 93 79 92 115 135 186 79 103 105 119 163 159 101 79 50 6 41 25 108 71 116 78 84 150 47 95 80 30 128 86 74 114 123 86 125 64 80 37 231 85 42 67 124 100 85 146 61 28 125 78 62 105 109 121 167 80 198 117 103 132 131 143 54 112 199 130 32 127 110 34 111 189 66 111 179 92 179 89 85 97 122 105 127 101 107 95 96 154 144 139 59 85 81 106 91 98 87 88 150 83 116 113 43 81 113 60 48 117 96 93 144 102 170 90 67 71 88 13 110 95 87 41 103 157 95 86 100 131 109 158 79 97 134 105 123 114 139 126 139 19 93 99 164 183 28 149 83 94 53 105 88 30 128 168 135 213 244 128 173 130 49 133 133 81 179 50 92 84 95 48 57 86 173 58 101 127 131 120 222 65 47 124 95 89 60 74 69 149 114 120 40 143 75 164 111 82 106 98 32 77 55 89 92 76 149 75 118 77 182 149 117 114 45 131 52 76 148 148 138 156 34 98 120 122 131 106 160 63 157 114 167 204 131 113 101 85 178 64 83 32 111 133 91 60 154 134 240 199 96 147 95 101 127 105 95 226 83 85 60 99 74 132 87 140 57 104 85 40 105 156 40 43 116 60 112 20 145 181 120 237 121 153 81 158 47 72 127 57 65 155 134 62 200 46 222 51 71 48 35 73 96 103 148 174 111 68 27 87 106 104 67 25 57 117 88 139 118 86 69 70 89 102 98 108 100 93 47 54 42 20 100 132 139 101 57 101 174 156 97 95 119 51 5 80 105 92 126 128 72 150 50 101 77 203 115 144 130 72 114 48 156 116 173 76 155 85 81 117 124 127 45 28 93 96 116 129 221 96 152 135 69 134 108 139 72 63 126 60 129 152 67 132 109 105 130 68 69 103 100 127 155 46 112 87 126 129 34 122 41 83 164 113 153 175 120 128 95 143 96 127 72 127 180 134 81 150 159 38 110 86 93 172 126 57 91 100 181 130 225 80 82 103 107 133 57 89 114 97 106 148 43 60 47 47 101 71 59 68 92 80 128 184 124 82 120 43 103 113 71 125 76 61 125 29 107 135 61 129 38 104 130 49 44 126 143 91 131 77 114 146 181 69 153 86 165 96 131 135 122 68 140 84 85 117 120 209 86 131 63 124 130 42 120 93 11 70 119 73 142 83 96 131 112 110 94 75 169 83 46 54 95 93 104 116 156 168 120 105 123 128 99 97 114 70 107 103 65 160 43 96 110 100 79 83 40 103 155 82 134 103 123 56 141 83 78 105 66 69 66 68 147 79 94 90 110 111 171 99 138 206 180 103 154 229 80 124 102 89 167 58 87 183 126 148 139 115 116 97 140 86 93 166 80 77 150 119 85 113 98 108 31 145 92 62 92 111 112 106 104 142 139 80 154 31 92 113 186 112 89 98 34 23 86 71 150 62 83 134 159 89 75 123 76 118 59 117 97 124 118 87 100 32 127 121 91 167 86 73 75 42 142 80 71 71 114 139 76 73 105 151 67 60 76 31 121 78 142 106 103 55 185 127 161 96 121 139 79 128 204 57 217 111 170 105 128 80 107 68 40 37 62 57 70 118 71 210 109 64 76 79 120 99 116 64 52 182 51 53 168 107 91 171 126 89 135 109 118 90 111 99 46 158 100 77 64 24 81 108 48 166 105 41 123 161 88 112 129 163 101 99 67 120 114 118 28 85 41 113 84 84 146 108 117 143 54 135 195 41 125 117 113 132 133 66 101 144 142 138 120 81 137 95 75 130 91 160 107 54 156 108 110 42 162 94 147 61 61 110 55 105 56 81 84 146 135 74 95 63 135 140 74 86 112 72 102 27 60 135 45 122 99 89 154 159 127 81 75 119 59 79 169 81 92 189 94 134 138 116 126 39 62 130 98 81 83 50 165 94 179 105 123 100 37 26 131 121 21 38 47 68 122 80 59 95 140 59 96 58 153 91 155 85 108 109 77 61 90 107 28 78 69 145 127 221 202 102 77 88 113 101 19 142 67 96 88 41 91 141 83 85 83 110 140 89 138 73 74 80 100 178 78 67 179 118 99 92 111 76 63 69 81 113 86 182 188 140 152 88 82 94 177 153 144 58 70 88 63 159 95 172 128 114 85 84 140 63 89 117 106 89 160 66 80 100 93 103 116 30 150 162 59 94 97 145 96 149 59 124 105 157 140 94 139 64 69 70 191 76 154 144 114 191 209 112 41 69 100 272 68 131 182 104 67 21 36 128 85 144 67 68 173 161 131 150 144 44 97 178 69 131 118 161 84 112 119 121 49 165 176 88 25 148 112 105 134 95 117 145 203 89 141 148 109 70 108 117 67 143 106 94 67 87 39 103 122 74 23 22 89 49 138 215 36 82 159 150 144 62 94 75 32 70 135 153 94 88 110 60 132 84 128 75 91 81 123 42 58 111 88 62 120 108 125 87 151 80 155 79 124 160 63 112 48 20 59 64 81 137 33 138 102 62 91 204 46 72 87 90 103 185 124 71 155 23 73 119 121 79 74 93 176 138 111 70 58 144 41 154 105 96 87 68 105 70 85 96 102 90 104 52 75 110 176 76 158 121 136 188 169 169 112 156 41 55 104 116 80 152 99 90 119 153 121 62 203 156 21 97 85 60 72 112 60 49 188 127 77 164 72 140 62 165 109 85 71 118 74 56 108 137 35 223 76 80 76 130 61 154 127 159 64 90 134 136 106 199 150 113 </t>
+  </si>
+  <si>
+    <t>MIE(0.23172223030856962, 1.8115588381175, -4.9126581510734155e-29, 0.7544755826152274)</t>
+  </si>
+  <si>
+    <t>1 2 1 0 2 0 2 0 0 1 0 2 0 2 2 0 1 0 0 1 1 1 0 0 2 1 1 0 0 0 0 1 1 0 1 2 0 1 0 0 0 1 2 1 1 0 0 0 3 1 1 0 0 1 1 1 1 0 2 2 1 1 1 2 1 1 1 2 1 2 1 2 0 0 1 2 1 0 0 0 0 0 1 0 0 2 0 1 1 0 1 0 0 1 0 0 0 0 1 0 1 0 1 1 0 2 0 2 1 0 2 1 0 2 0 0 0 1 0 0 0 2 0 0 1 0 1 1 2 1 0 3 0 2 1 0 0 0 1 1 0 0 2 1 0 3 2 0 0 1 0 2 0 1 0 0 0 0 0 0 2 2 0 1 1 1 0 0 0 2 2 0 0 0 0 1 2 0 0 0 1 0 0 3 1 3 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 1 3 0 2 1 1 0 0 1 1 0 2 1 1 1 0 1 1 1 0 0 2 2 1 0 2 1 1 0 0 1 1 1 3 0 0 0 1 0 1 0 2 1 0 0 1 1 0 1 0 1 3 1 1 0 1 0 0 1 0 3 0 0 0 1 0 0 1 2 0 0 0 2 1 0 1 0 1 0 2 0 0 0 0 2 0 1 0 1 0 0 1 0 2 2 2 1 1 2 0 0 0 2 0 2 0 1 1 2 0 2 0 1 0 3 0 1 0 2 0 1 1 1 1 1 1 0 1 1 0 1 0 1 1 0 1 1 0 1 1 1 0 1 1 1 0 0 0 1 1 1 1 2 0 1 1 1 0 1 2 0 1 0 1 1 2 1 1 1 3 1 1 0 1 1 1 1 0 1 2 1 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 2 0 1 1 2 0 0 1 2 1 1 2 4 0 1 2 0 0 2 3 0 1 2 1 0 1 3 0 1 1 0 0 2 2 0 0 3 3 0 0 0 1 2 1 1 0 1 1 1 0 0 0 2 1 0 0 2 2 2 1 3 2 2 0 0 0 2 3 1 1 0 1 0 1 2 1 3 0 0 0 0 1 0 2 3 0 1 1 1 1 0 0 0 0 3 1 0 0 1 0 2 2 1 1 0 1 0 1 0 1 0 2 1 0 2 0 0 1 1 1 0 1 2 0 0 0 1 1 2 1 0 0 1 1 0 1 1 1 0 0 1 0 1 1 0 0 1 2 0 0 0 0 1 0 1 0 1 1 2 0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 1 1 1 0 2 2 0 0 2 0 1 0 0 1 1 0 0 3 1 0 0 1 2 1 0 0 1 1 0 1 0 1 0 1 1 0 1 0 1 0 2 1 0 0 2 1 0 1 1 1 2 0 0 1 2 0 0 0 1 0 0 1 0 1 1 0 2 0 2 0 2 1 0 0 1 1 1 0 0 0 1 0 0 1 0 0 2 0 1 1 1 1 0 1 0 1 2 1 0 0 2 1 1 0 3 0 0 0 1 0 2 1 1 1 0 0 1 0 1 2 1 2 0 3 2 2 1 1 0 1 2 1 0 0 1 3 1 2 0 3 1 2 2 3 1 1 1 1 0 0 2 1 0 0 0 2 0 1 0 3 0 1 1 1 1 1 0 1 0 1 0 2 1 1 0 2 0 2 0 1 1 1 1 0 2 2 0 1 0 0 1 2 0 0 1 1 1 0 0 0 0 0 0 2 1 0 0 0 0 1 2 2 2 2 0 0 0 0 0 0 1 1 0 1 1 1 0 1 1 0 0 1 0 0 2 0 0 0 0 0 1 0 1 2 1 0 1 2 1 2 0 1 1 0 2 1 0 1 3 1 0 1 2 0 0 3 0 0 0 1 1 0 2 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 2 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 3 0 2 1 1 0 0 0 1 0 0 0 2 1 1 1 2 1 0 0 0 0 2 1 2 0 0 1 0 2 1 2 1 1 2 2 1 1 0 1 2 0 0 0 1 1 1 0 3 3 2 1 1 0 0 4 0 1 0 1 1 0 1 1 1 1 4 1 1 0 0 3 2 0 0 2 0 1 0 2 0 3 2 0 0 3 0 0 1 1 1 2 1 1 1 1 0 1 0 2 2 1 2 1 2 0 1 1 1 0 4 1 2 1 0 1 1 1 0 1 1 1 0 0 1 0 0 1 3 0 0 1 2 0 1 0 3 1 0 0 2 0 0 1 0 0 3 0 0 0 0 1 1 1 0 3 1 3 0 1 0 1 1 0 0 1 2 1 1 0 0 1 0 0 0 0 2 1 2 0 0 0 1 1 0 2 1 0 0 4 1 0 0 2 1 2 2 1 1 2 1 0 0 0 1 2 0 1 0 0 0 0 1 0 2 0 1 1 1 2 4 1 0 3 1 0 2 0 0 0 0 0 2 0 1 1 1 0 1 1 2 0 1 0 2 0 0 2 1 0 0 0 0 0 0 1 1 1 0 1 1 0 1 0 0 3 2 0 0 0 0 1 0 0 2 1 0 1 0 2 1 0 0 1 0 0 1 2 0 3 0 0 1 0 1 1 2 1 0 0 1 1 1 2 3 0 1 1 2 0 0 0 0 1 0 0 0 0 1 2 1 1 1 1 1 2 1 0 2 0 1 1 1 1 1 0 1 2 1 1 0 0 0 2 0 1 0 1 0 0 3 0 1 0 0 1 1 1 1 1 1 0 1 0 0 0 0 2 1 0 0 1 1 0 0 0 2 2 1 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 1 3 0 0 0 0 1 1 2 1 0 1 2 0 1 1 0 3 0 0 0 0 1 0 1 0 0 3 1 1 1 1 0 1 1 0 0 0 1 2 0 0 0 0 0 0 0 1 1 0 1 0 3 0 0 0 1 0 0 0 0 0 1 0 0 1 2 0 0 1 2 1 0 1 2 2 1 0 1 1 0 1 1 0 0 1 0 2 1 0 2 0 3 1 3 1 0 0 1 0 1 0 1 2 0 0 2 1 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 4 0 1 2 0 0 0 2 0 1 0 0 1 1 2 1 0 1 2 0 0 1 3 0 1 1 1 0 0 0 0 0 2 0 1 0 0 0 2 1 2 0 2 0 0 0 1 0 1 1 0 1 0 0 1 0 2 2 1 2 1 1 2 0 0 0 2 1 1 3 0 0 0 0 2 0 4 0 1 3 2 1 0 2 1 1 0 0 2 1 2 1 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 2 1 2 2 0 0 1 1 2 1 1 1 0 2 0 0 0 0 1 1 2 3 0 0 0 1 0 2 2 0 0 1 0 0 0 1 1 2 1 0 0 1 1 0 2 0 2 0 1 1 1 3 0 1 0 0 0 0 0 0 1 0 1 1 0 1 2 1 0 1 0 0 2 2 0 1 0 1 2 1 2 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 2 0 0 1 2 0 1 2 0 0 1 0 1 1 1 1 0 1 3 1 2 1 1 0 0 0 0 1 1 2 0 1 0 3 1 0 0 0 0 0 1 0 0 1 2 0 0 1 1 0 0 0 1 2 1 0 0 1 2 1 0 0 0 0 0 0 2 0 1 0 2 0 0 0 1 0 1 1 0 1 2 0 0 0 1 1 0 0 2 2 0 0 0 1 0 0 2 0 1 0 0 2 0 1 1 5 0 1 0 1 1 3 0 1 0 0 0 0 2 0 3 2 2 1 0 2 2 0 1 0 1 1 1 1 1 1 1 0 1 0 2 1 0 0 3 0 1 0 0 0 3 1 2 1 1 0 1 2 1 0 0 1 1 2 2 0 1 2 0 1 1 3 2 1 2 0 1 2 0 1 0 2 0 0 0 1 1 0 1 1 0 0 0 0 1 1 1 0 2 2 1 3 2 1 1 0 2 2 0 3 1 0 0 0 1 1 0 1 1 2 1 0 1 0 0 4 0 2 1 0 0 1 2 0 0 1 1 1 1 1 0 1 1 1 0 0 0 1 5 0 0 2 0 3 0 0 3 1 0 1 1 2 1 1 0 0 0 2 0 1 0 1 0 2 1 2 0 2 2 1 1 0 0 1 0 1 1 1 1 0 2 1 3 1 1 1 0 1 1 0 1 1 1 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 2 0 1 0 1 0 1 1 0 1 0 1 2 1 1 1 1 0 2 0 3 1 0 2 1 0 0 0 0 2 0 2 0 1 2 3 1 0 1 1 2 0 1 0 1 1 0 1 0 0 0 1 0 0 1 0 1 2 0 0 1 2 0 0 1 3 1 0 3 0 0 0 1 0 0 1 4 1 0 0 0 0 0 2 0 0 0 1 0 0 0 3 1 1 1 1 0 0 0 0 2 0 1 1 2 0 2 0 0 0 1 0 0 0 1 0 1 1 0 0 1 0 0 2 2 3 1 0 1 1 0 1 1 2 1 0 2 2 1 0 0 0 0 1 1 0 0 1 1 1 1 1 1 1 2 1 0 1 0 2 3 1 1 1 0 1 1 2 0 0 1 1 2 0 2 1 1 1 0 1 0 0 1 0 0 1 0 0 1 1 2 0 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 1 2 0 2 0 2 2 0 1 0 0 1 0 1 0 1 1 2 1 0 2 1 1 1 0 2 0 0 1 0 1 3 0 1 0 0 0 1 1 2 3 1 0 1 0 1 0 2 1 0 0 0 3 1 0 2 0 0 1 0 0 1 0 1 2 1 1 1 1 0 0 1 0 0 0 3 0 0 1 0 1 1 0 1 2 0 2 2 2 0 1 0 1 1 3 0 1 1 0 1 2 1 0 0 3 1 0 2 0 0 0 1 1 1 1 0 0 0 1 2 0 1 0 1 0 1 1 1 0 0 1 0 0 1 0 0 3 0 1 3 0 0 0 2 1 1 1 1 0 0 1 0 0 1 0 2 3 1 2 3 0 1 0 0 1 1 1 0 1 0 0 1 1 1 2 1 0 2 0 2 0 1 1 2 1 1 1 1 0 0 1 3 1 0 3 1 1 2 0 1 0 0 0 1 1 0 2 0 1 1 1 3 1 2 2 0 1 1 0 1 1 1 2 1 1 2 1 0 1 0 0 3 2 0 1 1 0 1 1 0 2 2 2 1 1 0 1 2 0 0 0 1 1 0 1 2 1 0 2 1 3 1 1 2 1 0 2 0 2 2 0 2 1 1 0 4 0 0 0 2 1 1 2 1 0 1 0 1 2 0 2 0 3 2 1 2 0 1 2 1 2 1 1 1 0 0 0 2 1 2 0 2 1 0 0 2 1 0 1 2 2 1 0 0 0 3 0 0 0 0 0 1 0 1 1 0 0 1 1 0 0 1 1 0 1 1 0 0 0 1 0 1 0 1 0 4 1 1 0 0 1 1 3 0 0 0 2 3 0 0 0 2 1 1 0 1 0 1 0 0 0 1 0 1 0 0 2 4 0 1 2 2 1 0 0 0 1 0 1 1 0 0 3 0 2 2 0 0 1 3 1 1 1 0 2 1 2 0 0 1 1 0 2 1 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 3 0 0 0 1 3 0 0 1 0 0 2 0 1 1 0 1 0 0 1 3 0 0 1 2 0 1 2 1 0 1 1 0 1 3 0 0 0 0 2 2 0 0 1 0 3 0 0 1 1 0 0 1 4 1 0 0 2 1 1 0 1 1 1 1 0 4 1 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 1 1 3 0 2 0 2 0 1 2 2 0 1 1 1 1 1 1 1 2 2 0 0 0 3 0 2 1 3 0 0 2 2 0 0 1 1 0 0 0 1 1 2 0 1 0 0 1 1 1 0 1 2 0 0 0 1 1 0 0 2 0 2 0 0 0 1 1 0 0 2 0 0 1 2 0 2 1 0 0 2 1 1 0 0 0 1 0 0 1 1 0 1 1 2 0 0 0 1 1 2 1 1 0 0 0 0 1 0 4 1 0 0 3 1 2 4 1 0 1 0 0 2 0 1 1 0 0 0 1 1 1 0 3 1 1 0 0 0 0 0 0 2 0 1 0 0 0 0 3 1 0 0 1 1 1 1 0 1 1 0 1 1 1 0 0 0 0 1 2 0 1 2 1 1 0 0 0 2 0 1 0 0 1 2 0 0 0 1 3 0 1 1 2 1 1 1 1 1 1 0 1 1 0 1 1 0 2 1 0 0 0 0 1 1 0 0 0 0 2 1 0 0 0 0 1 1 0 2 0 0 0 3 0 2 1 3 0 1 2 2 1 2 1 0 0 0 0 0 0 2 0 0 0 0 1 0 2 1 2 1 0 1 1 3 1 0 0 0 1 0 1 0 1 1 1 1 0 4 3 0 1 0 0 0 1 2 0 1 0 2 3 2 1 2 0 1 2 1 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 2 0 0 2 0 0 1 0 1 0 0 1 2 1 1 0 0 0 2 1 0 1 0 0 2 1 3 0 1 0 0 2 1 1 0 2 2 0 1 1 0 1 0 0 0 1 0 1 0 2 2 3 2 0 1 1 1 0 1 0 1 0 0 1 1 0 1 0 1 0 2 2 0 0 0 1 1 1 1 1 0 0 0 1 1 1 1 1 1 1 1 0 0 0 0 0 1 0 1 0 3 2 0 1 3 0 1 0 1 1 1 0 0 1 2 1 0 0 1 1 0 1 0 0 1 0 1 2 1 0 0 1 0 1 0 1 3 1 2 1 0 1 1 0 2 0 0 1 1 1 0 0 1 1 0 1 0 1 1 0 2 1 0 0 1 1 0 1 1 0 1 0 0 2 1 1 2 0 0 1 0 1 1 0 2 0 0 1 1 1 1 0 2 3 1 0 1 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 2 1 3 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 2 0 1 1 1 0 0 0 0 1 0 1 1 0 2 0 0 1 3 1 0 1 0 1 1 0 1 1 2 3 0 1 1 1 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 1 3 1 0 1 0 1 1 1 0 0 0 0 0 0 3 0 1 0 0 0 0 0 1 0 1 1 1 3 1 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 2 0 0 0 0 2 2 0 1 0 1 0 2 0 0 1 3 0 0 1 1 0 1 0 0 0 1 0 0 1 0 2 0 2 0 0 0 0 1 0 1 4 1 0 1 0 0 1 0 1 0 0 3 1 0 1 0 1 1 0 0 0 0 1 2 1 0 0 1 0 1 0 1 3 0 0 1 1 0 3 1 1 0 3 1 1 1 1 1 0 0 0 0 0 2 0 0 2 1 0 1 0 1 2 0 0 0 0 0 1 2 0 1 0 1 1 1 1 2 1 1 2 0 3 0 1 1 1 2 1 1 2 0 0 0 0 2 0 0 1 1 1 2 0 0 0 3 0 2 1 1 0 1 1 2 0 0 1 0 3 1 0 1 0 0 0 1 0 3 1 1 1 1 1 0 2 3 0 0 1 1 0 1 1 1 0 1 2 0 1 1 1 0 1 1 0 1 0 0 1 0 0 4 0 1 1 1 0 1 1 1 0 1 2 2 2 1 0 0 1 0 1 0 0 0 3 2 0 0 1 0 1 0 1 0 1 1 0 0 0 2 1 0 0 0 1 3 1 2 1 1 1 1 1 1 0 1 0 1 1 1 0 0 0 2 0 1 1 0 0 0 0 1 0 0 0 2 0 0 1 1 2 0 0 1 0 3 1 0 0 0 0 0 2 0 1 1 0 0 1 1 1 0 1 0 1 1 0 1 1 0 1 1 1 1 0 0 1 1 0 0 0 0 0 2 1 0 0 2 2 1 1 1 1 2 1 1 2 1 0 1 0 0 0 0 0 0 1 1 1 2 0 2 1 0 1 0 0 2 0 0 0 0 0 3 0 1 3 1 0 0 0 2 0 1 1 1 3 0 0 1 0 0 1 1 0 2 1 0 1 1 0 1 1 0 0 2 0 0 0 4 1 0 0 2 0 1 1 0 0 2 0 0 0 2 0 0 1 3 0 0 0 0 1 0 2 2 2 1 2 2 0 2 1 0 3 1 0 0 1 1 0 0 0 1 1 0 0 1 2 0 1 0 3 3 1 0 0 1 0 0 1 0 0 0 1 0 2 0 1 0 1 0 2 1 0 2 0 0 2 2 1 2 1 1 1 0 1 0 0 0 0 0 3 1 0 1 1 0 2 1 1 0 0 1 1 0 1 1 0 1 1 1 0 1 3 0 1 0 2 1 0 0 0 1 1 1 0 2 0 0 1 1 2 1 0 0 1 1 1 0 1 1 0 1 1 0 0 0 3 1 0 1 3 0 3 0 1 1 0 2 0 1 1 1 0 1 0 1 2 0 1 0 0 2 1 1 2 0 2 1 1 0 1 0 3 0 0 0 0 1 1 3 2 0 0 1 2 2 4 1 2 0 0 3 0 0 0 0 0 0 0 2 1 1 1 1 1 2 0 2 0 1 0 1 3 1 1 0 0 1 2 1 1 1 0 2 1 0 2 0 1 1 0 1 0 0 0 1 0 0 1 2 0 0 0 0 2 1 0 1 1 1 1 1 1 1 1 2 1 0 0 3 0 0 2 1 1 1 0 0 2 1 1 0 1 0 2 2 0 2 0 0 0 0 1 1 0 0 0 1 0 2 0 0 2 2 1 4 0 0 2 0 1 0 1 0 1 0 2 0 0 1 2 2 1 0 1 0 0 1 2 0 3 2 0 1 0 0 1 0 1 0 1 1 0 0 1 2 1 0 1 0 0 1 0 0 0 0 0 1 2 1 0 0 0 3 2 0 0 0 1 1 0 0 2 1 2 0 0 0 0 2 0 0 0 1 1 1 1 0 1 0 0 0 0 1 2 1 0 2 1 0 2 0 2 3 0 2 1 1 0 1 0 0 1 1 1 2 1 0 0 1 0 0 0 1 0 4 0 1 1 2 0 3 0 0 1 0 2 1 1 1 0 2 2 0 0 2 1 2 0 0 2 1 1 2 1 1 1 0 1 1 1 3 0 1 3 0 2 2 0 2 1 1 0 1 0 0 1 2 0 1 1 0 1 1 2 2 1 2 1 0 1 1 0 1 2 0 0 1 0 1 2 1 2 1 0 0 0 0 1 1 0 1 1 1 0 0 0 1 0 2 0 0 0 2 0 0 1 1 0 0 1 0 0 0 0 1 2 1 0 0 0 0 1 1 0 1 0 2 3 0 0 1 2 1 1 2 1 1 0 2 1 3 0 2 0 1 1 0 1 1 1 2 1 1 1 2 1 1 2 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 0 1 0 1 0 0 2 0 1 2 0 0 0 1 2 0 2 2 0 2 0 1 0 0 0 2 0 0 0 0 1 1 0 0 1 1 1 2 0 1 0 1 1 0 1 1 0 0 0 0 2 0 0 0 2 0 3 0 1 0 0 0 2 1 2 1 0 1 1 0 1 2 0 4 0 0 0 0 1 0 1 0 0 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0 0 1 0 1 0 1 1 3 1 1 2 0 0 1 1 1 1 0 0 1 0 1 0 2 1 0 1 2 1 0 1 0 0 0 0 0 0 0 2 3 0 1 1 1 0 1 2 0 2 0 0 1 0 1 1 1 1 0 1 1 1 1 1 1 3 0 0 2 2 2 1 1 2 1 0 1 1 1 1 0 1 0 2 1 1 1 1 1 1 0 1 2 0 0 0 0 1 0 1 1 0 0 0 2 2 0 0 2 1 1 0 1 0 0 0 1 0 0 3 0 2 0 0 0 1 1 1 1 0 0 1 2 0 1 1 1 0 2 0 1 1 0 0 0 0 0 1 0 3 0 0 2 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 2 0 1 1 1 1 0 1 2 0 1 1 1 0 0 1 1 2 2 1 2 0 1 1 0 2 1 4 0 2 1 2 1 2 0 1 0 0 2 2 1 0 1 0 1 0 1 1 0 2 1 0 0 1 1 0 2 1 0 0 1 1 0 1 1 1 2 1 0 1 1 0 0 1 0 1 3 1 2 1 0 1 4 1 0 1 1 0 1 0 0 1 3 0 0 1 1 1 0 0 1 2 0 1 0 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 2 3 1 2 0 1 0 1 0 1 0 0 0 1 0 0 1 1 0 1 0 2 0 2 0 0 1 1 2 0 1 1 0 1 3 0 1 0 0 2 1 2 1 1 0 1 0 2 0 1 0 0 1 1 0 0 0 0 1 0 1 1 2 2 1 1 0 1 0 1 3 1 0 0 0 0 2 0 0 2 0 1 2 1 2 2 0 1 1 0 3 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 2 1 0 1 1 1 0 1 1 2 2 0 4 0 0 2 0 1 1 0 1 0 1 0 1 0 0 0 0 2 1 1 2 1 0 0 0 2 2 3 1 0 0 2 1 2 0 0 1 2 0 3 0 1 0 1 0 1 0 1 0 0 0 0 1 1 1 0 1 0 0 0 2 1 1 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 1 2 1 0 1 0 0 0 0 2 0 1 0 0 1 2 0 1 1 0 1 1 1 0 1 0 0 1 1 1 0 0 1 0 0 2 0 0 1 1 2 1 1 0 1 0 0 0 1 3 1 1 0 0 0 3 0 0 0 0 0 1 1 1 1 0 0 2 1 0 3 0 2 0 4 1 1 0 0 1 1 2 1 1 0 1 2 0 1 2 0 2 0 0 0 1 0 0 1 1 0 0 2 1 2 0 2 1 0 0 4 0 1 0 0 0 2 1 0 0 0 1 0 2 2 0 0 1 1 0 1 1 2 1 0 0 0 0 1 1 1 1 1 2 0 2 1 0 2 2 1 0 0 3 0 1 1 0 1 2 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 2 1 1 0 1 1 1 1 2 1 0 0 1 1 0 1 2 1 0 0 1 3 3 0 2 1 1 0 0 1 1 1 3 0 1 1 1 1 0 0 1 0 1 1 1 0 0 3 1 1 1 2 1 0 0 0 0 0 0 3 0 2 0 2 2 1 2 2 1 1 3 2 2 1 1 1 0 0 2 2 1 1 0 0 0 2 0 1 1 1 0 2 0 1 0 0 0 2 1 1 0 2 1 0 0 1 2 0 1 0 1 0 1 1 0 0 0 0 1 2 1 1 0 0 2 0 0 0 2 0 0 1 1 0 1 2 1 2 0 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 2 0 1 3 2 1 0 0 0 0 1 0 2 0 0 1 2 0 0 0 2 0 2 0 0 0 1 0 0 0 0 1 1 1 2 0 1 1 3 1 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 1 0 3 1 1 2 0 2 0 1 0 0 0 1 0 2 2 1 0 0 0 0 3 1 1 1 0 0 1 1 0 2 1 0 2 0 0 1 0 0 0 1 0 3 0 1 1 2 1 1 1 2 2 0 0 0 0 1 1 1 0 2 0 1 1 1 0 2 1 0 0 0 0 2 2 0 1 0 0 0 1 0 2 0 2 0 1 1 1 1 0 0 0 1 2 0 0 0 0 2 0 2 0 0 0 0 0 0 0 1 1 2 0 0 0 1 2 0 1 3 0 1 1 2 2 1 0 2 1 2 1 0 1 1 0 1 1 0 2 0 1 0 1 1 0 0 2 0 0 0 1 1 2 0 0 1 2 2 0 1 2 0 1 0 0 2 0 2 1 0 1 0 2 0 1 1 1 2 0 0 0 1 1 1 0 0 0 3 2 1 0 1 0 0 1 0 1 0 1 0 2 1 2 3 1 3 0 1 0 1 1 1 2 1 2 2 1 0 2 1 0 0 0 1 1 1 1 1 0 0 0 1 2 0 0 0 0 0 1 1 2 1 0 2 0 1 0 1 1 0 1 0 0 1 2 0 2 1 2 0 1 0 0 0 1 1 0 1 1 0 1 1 0 1 0 2 1 0 0 1 1 1 0 2 0 1 1 0 0 0 1 1 1 1 1 2 0 1 1 0 1 0 2 1 0 0 1 0 2 0 0 2 1 0 0 2 0 2 1 4 0 0 4 1 0 4 0 1 0 1 1 0 0 1 1 1 1 0 0 1 2 2 0 0 1 0 2 0 0 0 1 0 1 3 0 2 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 1 0 2 1 0 2 3 0 0 1 1 0 0 1 3 0 0 2 0 0 0 2 0 0 0 0 1 1 0 1 1 0 1 0 1 0 1 0 0 1 0 1 1 0 1 1 0 1 0 1 1 1 1 2 1 1 0 2 0 2 1 0 0 1 1 0 1 0 0 3 0 2 1 1 2 0 1 1 0 2 0 1 0 0 2 1 2 0 1 1 0 1 1 2 1 0 2 0 0 0 0 0 2 1 0 2 0 0 2 2 1 1 0 1 1 0 1 1 1 1 3 0 1 0 2 0 1 3 1 3 2 0 1 2 1 0 0 0 1 0 1 3 1 1 0 1 0 0 0 2 2 0 1 1 0 0 1 0 0 1 1 1 1 0 1 1 0 1 0 0 0 1 0 1 0 0 2 1 1 0 1 2 0 1 1 0 0 0 1 0 3 0 1 0 2 2 1 1 2 2 3 2 1 1 0 0 2 2 0 1 1 2 0 1 1 2 1 0 4 0 1 0 0 0 1 0 2 0 1 1 1 0 1 0 1 1 2 1 1 1 1 0 1 0 2 0 0 1 1 0 4 0 1 0 0 1 0 0 2 1 0 1 0 1 0 1 2 1 1 2 0 0 0 1 0 1 0 1 0 1 0 0 1 0 2 1 0 0 1 0 0 2 0 0 0 0 0 0 2 1 0 0 1 0 1 1 0 3 0 3 2 1 1 0 0 1 1 0 0 3 0 0 0 0 0 1 1 2 1 0 0 2 1 0 1 0 2 2 0 0 0 1 0 1 1 1 2 1 1 0 3 1 0 2 1 3 1 0 2 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 2 1 0 0 1 0 0 2 0 0 0 2 2 0 2 1 0 0 0 1 0 1 1 0 0 2 1 2 0 0 1 2 0 0 0 1 0 2 1 1 0 2 1 2 1 0 1 1 1 0 0 0 2 1 2 2 0 0 0 2 0 1 2 1 0 0 0 0 1 1 2 1 1 3 0 0 2 1 0 2 1 0 1 0 0 0 0 1 0 3 1 1 1 2 0 0 0 1 0 2 1 1 1 0 2 0 1 0 0 1 0 2 1 0 2 2 2 0 0 0 3 1 2 1 0 0 0 0 2 0 0 0 0 0 1 1 1 0 1 1 2 1 0 1 0 0 1 1 0 0 0 0 0 1 1 0 1 2 0 1 0 3 0 3 1 0 0 0 0 0 1 1 1 2 0 2 2 1 0 0 2 1 1 1 0 1 1 1 0 0 1 0 2 0 0 2 2 1 0 1 1 2 0 1 1 0 1 1 0 3 1 3 1 1 0 1 0 2 1 1 2 0 0 1 0 1 0 1 0 0 0 1 2 1 2 0 1 0 0 1 2 0 0 0 0 2 1 1 3 1 0 2 0 1 3 0 0 2 0 2 1 5 0 0 1 1 1 0 0 3 1 0 0 0 0 0 1 0 2 1 2 0 0 0 0 1 1 0 1 1 0 2 0 1 0 1 0 1 1 1 2 1 1 2 1 0 1 1 0 2 0 4 0 2 0 0 1 0 0 0 1 0 0 2 0 1 0 2 1 0 2 0 1 0 0 0 4 0 1 0 1 1 3 0 0 3 1 0 0 1 0 1 1 0 3 0 0 1 0 0 0 0 4 1 1 0 1 0 0 2 1 0 2 1 0 1 0 0 0 0 0 0 1 0 2 0 1 1 0 2 0 2 0 1 2 2 0 0 0 1 2 0 0 2 1 1 1 2 0 1 0 1 1 0 2 2 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1 1 0 2 0 0 1 2 1 0 1 1 0 1 1 0 1 0 3 0 1 1 2 3 2 0 1 1 1 0 1 0 0 0 1 1 0 2 0 0 0 0 1 1 2 2 1 1 1 0 0 1 1 2 1 2 0 0 0 1 1 0 0 0 2 1 0 0 1 2 0 0 0 0 0 0 0 1 1 3 0 0 0 0 1 1 2 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 2 1 0 0 2 0 1 0 0 1 2 0 0 0 2 0 0 2 0 0 0 0 0 0 0 1 0 2 0 0 0 2 0 0 2 0 1 1 0 1 1 1 2 2 0 1 2 0 0 0 0 3 2 2 0 2 1 1 0 1 1 0 0 0 0 0 1 0 1 1 2 0 1 1 2 0 1 1 0 2 0 0 0 0 1 0 1 0 2 2 0 1 1 0 0 1 0 1 1 2 0 1 0 0 1 0 1 2 1 3 2 0 2 0 1 1 1 1 2 1 1 0 3 2 1 0 0 0 1 0 1 0 0 1 1 1 1 2 2 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 1 1 1 1 2 0 1 1 0 0 0 1 0 1 1 0 0 1 1 0 1 0 2 0 0 0 0 0 0 0 1 1 1 0 1 0 4 0 0 1 0 1 2 1 1 0 1 2 1 2 0 3 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 2 0 2 0 0 0 2 0 1 1 0 0 1 1 0 2 1 2 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 2 1 1 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 2 0 1 0 1 0 0 1 3 0 0 0 0 0 2 2 1 1 1 2 0 0 0 0 1 1 0 0 1 0 0 3 1 1 1 1 0 0 1 1 0 0 1 1 0 1 0 1 1 0 2 0 1 1 1 0 3 1 0 0 0 0 1 0 1 0 0 0 1 1 0 1 1 1 0 0 0 1 0 0 0 1 0 2 0 1 0 1 0 1 0 0 2 3 0 1 2 1 1 2 0 1 2 0 1 1 0 2 1 1 0 2 1 1 0 1 1 0 1 1 1 0 1 0 0 0 1 3 1 1 1 1 0 0 2 0 2 1 2 0 1 0 0 0 1 1 1 0 0 0 1 0 2 2 1 1 1 0 2 0 0 2 1 0 2 1 3 0 3 1 0 1 1 1 1 1 0 1 1 2 0 0 1 3 3 1 0 0 1 1 1 1 1 1 2 0 1 0 1 1 1 0 1 2 0 4 0 2 1 0 1 0 1 0 0 0 3 2 3 1 0 0 0 0 0 1 2 1 0 1 0 1 1 0 2 1 0 0 0 2 0 0 2 1 3 0 0 0 1 1 0 1 1 2 0 1 2 2 2 2 2 1 0 1 1 0 1 2 1 1 3 0 1 0 1 1 1 1 0 1 0 1 1 1 1 1 3 2 0 2 0 0 2 1 2 2 1 0 1 3 1 1 1 0 1 1 2 1 0 0 1 1 0 0 0 2 0 2 1 1 1 1 0 0 0 0 0 1 0 0 0 1 0 2 0 0 4 1 1 1 1 2 1 0 2 0 1 0 2 2 1 0 1 4 0 0 1 2 0 1 2 1 0 2 0 0 0 1 1 0 1 0 0 2 2 1 1 0 0 2 0 0 1 1 0 0 1 0 2 0 1 1 1 0 1 0 0 2 2 1 0 1 1 1 0 1 1 1 2 2 0 0 4 0 0 1 0 3 1 1 3 0 4 1 2 1 0 0 0 1 0 1 2 0 1 0 1 2 0 1 2 1 2 1 0 2 2 0 1 1 0 0 1 0 1 1 2 1 0 0 2 2 1 0 0 2 0 2 1 0 0 2 0 0 0 2 0 1 2 0 0 0 1 0 0 1 0 1 1 0 3 0 1 2 1 0 0 1 0 1 0 1 2 0 0 0 1 3 0 2 1 0 2 1 0 2 1 1 0 1 1 2 0 1 0 1 0 1 0 2 1 1 2 1 2 3 1 1 1 0 0 0 0 2 0 0 1 0 0 1 2 0 1 0 1 0 3 0 1 2 1 1 0 1 1 1 0 0 0 1 0 2 1 1 0 1 0 0 1 0 2 0 2 1 0 0 2 2 1 2 2 0 1 0 2 0 1 1 1 1 0 1 3 1 0 2 1 1 1 0 0 1 1 0 1 1 2 0 0 0 0 0 0 0 1 2 2 2 1 0 0 0 1 0 0 0 1 1 0 2 1 1 1 2 0 1 1 1 0 0 3 3 1 0 1 1 1 2 0 0 1 2 1 0 0 1 0 1 1 0 1 2 2 0 0 2 0 1 0 0 1 1 0 1 0 0 1 0 0 2 0 1 1 0 1 0 0 1 0 2 1 2 0 0 0 2 1 2 0 0 1 1 1 1 2 0 1 2 1 0 1 1 0 2 0 3 2 1 1 0 1 0 2 0 0 2 0 2 1 0 0 2 0 0 0 1 1 1 0 2 2 0 0 0 0 0 0 3 2 0 0 0 1 0 1 1 0 2 0 0 2 2 1 1 2 1 0 3 0 1 1 2 0 2 0 1 1 0 3 1 0 0 0 0 1 1 2 1 2 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 2 0 2 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 2 0 2 1 1 0 1 3 0 2 2 1 1 0 0 2 1 1 0 0 2 1 0 0 2 0 0 0 0 0 0 0 2 0 0 0 3 1 0 1 0 0 2 0 0 0 1 2 1 0 2 0 1 1 0 0 0 0 3 0 1 0 0 1 1 1 0 0 1 0 1 0 2 0 2 3 0 1 0 1 1 1 0 0 1 0 0 1 1 1 1 0 0 1 0 1 1 1 0 1 1 1 0 3 2 1 1 1 1 1 0 0 0 1 0 1 0 0 0 1 2 2 2 1 1 1 1 1 0 0 1 0 0 0 1 2 1 2 3 0 0 1 1 0 1 1 1 0 1 1 0 2 0 2 0 4 1 1 0 2 2 0 1 0 0 3 0 1 0 0 0 0 1 1 1 0 0 1 2 0 0 0 0 0 1 1 1 3 0 0 1 0 2 0 0 1 0 3 3 0 0 1 1 1 2 1 2 0 0 1 2 2 0 1 0 0 0 0 2 1 2 3 1 2 0 1 2 1 0 2 2 1 3 1 0 2 0 2 0 3 0 0 0 0 0 3 0 0 0 1 1 0 0 2 0 1 0 1 1 1 0 1 1 1 2 1 0 0 0 2 0 2 0 1 0 0 0 1 1 2 1 0 1 0 0 1 1 1 0 2 1 1 1 1 4 1 0 0 0 1 2 2 1 0 0 0 0 1 0 1 0 1 0 1 2 3 1 0 1 0 1 1 0 1 0 2 2 2 2 0 0 0 1 0 1 1 1 0 1 1 0 1 2 1 0 0 0 0 2 2 1 2 1 0 1 0 1 0 0 0 1 1 0 0 1 1 0 1 1 1 2 1 0 1 0 1 0 2 0 0 1 1 1 0 1 1 0 1 0 0 2 1 1 0 1 1 1 0 1 0 1 0 0 2 1 0 2 2 0 1 0 0 1 0 1 2 3 0 2 1 1 0 1 1 1 1 0 0 1 3 2 3 0 2 1 1 0 2 0 0 1 0 1 1 0 1 1 1 1 1 0 2 2 0 1 1 1 0 2 0 1 1 0 1 1 2 0 1 1 1 0 0 3 0 1 1 1 0 1 1 2 0 0 1 1 0 0 2 1 1 0 0 0 0 1 0 1 0 1 0 0 0 2 2 1 1 1 0 0 0 0 0 0 0 2 0 0 1 1 0 2 0 1 2 0 0 0 0 1 0 1 2 0 1 2 2 2 1 1 0 0 1 0 1 0 1 4 1 0 1 1 1 1 1 2 2 0 0 2 2 0 0 0 0 2 1 1 1 2 0 0 0 1 3 1 2 1 0 2 0 0 0 2 0 1 0 2 1 1 1 0 1 1 1 0 2 1 1 1 1 2 0 0 1 0 1 2 1 1 0 1 1 0 0 1 0 1 0 1 2 1 1 2 3 1 0 0 0 2 1 0 3 1 0 2 1 1 0 0 0 2 0 1 0 1 1 1 0 0 0 0 1 1 0 0 3 1 2 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 1 1 1 1 0 1 0 1 0 2 1 0 0 0 1 3 2 2 0 0 1 2 1 1 1 0 1 0 3 2 3 0 1 1 0 2 1 1 1 0 3 0 1 1 0 1 0 0 1 0 0 1 2 1 2 1 1 1 3 2 0 2 0 0 2 2 0 2 3 1 1 0 3 0 3 1 0 2 0 3 1 2 0 0 0 2 2 0 1 1 0 0 1 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 1 1 1 1 1 0 0 0 0 1 1 0 1 1 0 0 0 1 2 1 0 1 2 1 0 0 1 2 1 0 1 0 0 0 3 1 1 1 1 0 0 3 1 0 0 1 0 2 1 0 1 1 0 1 0 0 0 0 1 1 1 1 1 1 1 0 0 1 0 1 1 1 2 0 1 2 1 1 0 1 0 0 2 1 0 1 0 1 0 0 2 1 0 1 2 2 1 1 0 1 3 0 1 1 0 0 1 2 2 0 0 0 1 1 2 0 1 3 1 0 1 0 1 1 1 2 1 0 2 1 0 1 1 0 0 1 2 3 1 2 0 1 1 1 0 1 2 0 1 1 1 0 0 1 0 1 1 3 2 0 1 0 0 1 1 1 0 1 0 0 0 0 3 0 0 0 2 1 0 2 1 0 0 1 0 1 2 3 1 0 0 2 0 1 2 0 0 0 1 1 1 0 1 1 1 1 1 1 0 1 0 0 0 0 0 0 1 0 3 1 0 1 1 1 0 0 2 1 3 0 1 1 1 0 2 0 1 0 1 0 0 2 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 1 1 2 0 0 0 0 0 0 2 1 1 0 0 0 0 0 1 2 0 1 1 0 1 1 1 0 0 1 3 0 0 1 1 1 1 0 2 1 1 0 1 2 1 2 1 1 0 1 3 2 1 2 0 1 0 1 3 2 0 2 0 1 0 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 1 1 0 0 2 0 0 0 1 0 1 1 1 0 4 3 0 0 0 2 0 1 3 1 0 2 2 0 2 1 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 4 0 0 0 0 0 3 0 0 1 2 0 0 1 1 1 1 0 0 2 0 1 2 2 1 2 0 1 2 4 1 0 1 0 1 3 0 0 0 1 0 0 2 1 1 0 1 1 1 1 2 1 0 0 0 2 1 1 1 0 1 0 0 1 0 0 1 1 0 1 2 1 1 0 1 1 1 1 1 1 1 0 1 2 0 2 1 0 0 0 2 1 0 2 0 1 0 1 2 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 3 0 0 1 0 0 1 3 0 0 1 5 0 2 1 1 1 0 0 1 1 2 1 1 1 1 2 3 1 0 1 2 2 2 1 1 0 0 0 1 0 1 4 0 1 3 1 1 2 1 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 2 1 0 2 0 0 0 1 1 2 1 0 0 0 1 0 2 1 4 1 2 3 1 0 1 1 2 1 1 0 2 0 0 2 1 0 0 2 2 0 3 0 1 0 0 0 0 0 0 0 0 1 1 2 0 3 2 0 1 5 0 1 1 1 2 2 0 0 1 0 0 0 2 1 0 0 1 1 0 0 1 2 0 0 1 2 1 0 2 0 0 1 1 0 2 0 1 0 0 1 1 2 0 0 1 0 1 0 0 1 0 0 2 0 1 0 1 2 1 0 1 0 0 0 1 0 0 1 0 1 2 1 0 1 0 0 0 2 0 0 0 1 0 0 0 1 0 3 0 0 1 1 1 1 0 2 1 2 1 1 1 0 0 1 1 0 0 1 3 0 2 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 2 1 0 1 2 1 0 1 1 0 0 1 0 0 0 0 0 1 1 2 1 2 0 1 1 2 1 4 0 1 1 0 1 2 1 0 1 1 0 1 0 0 1 2 2 1 0 1 2 2 1 1 1 0 1 2 0 0 0 0 1 1 1 0 2 0 0 0 1 2 0 0 0 1 2 1 0 2 1 0 0 0 2 0 1 1 2 2 1 0 0 0 1 3 0 1 0 0 3 0 1 0 1 2 0 2 0 1 0 2 0 0 1 0 1 1 1 0 1 1 0 2 0 1 0 0 1 0 0 2 1 0 1 2 1 1 0 2 1 0 0 1 0 0 0 0 1 0 1 3 0 0 0 1 0 1 0 0 2 0 1 1 0 2 1 0 0 0 0 0 1 1 1 0 2 0 1 0 2 0 1 2 1 1 0 0 0 1 2 4 1 0 0 1 1 0 2 2 1 2 1 2 0 0 0 1 2 3 0 0 2 1 0 2 0 1 2 1 0 2 0 2 1 0 0 3 0 0 0 0 2 0 0 0 0 1 1 1 0 1 1 1 2 1 0 0 1 2 0 0 0 0 2 0 0 2 1 0 1 1 2 0 0 0 0 0 0 0 0 2 0 2 0 0 0 1 0 1 0 1 0 1 1 1 1 1 0 1 1 1 0 1 1 1 1 0 1 0 1 0 1 3 0 0 1 2 0 3 0 0 0 1 0 0 0 1 0 1 2 1 1 0 1 0 2 2 1 2 1 2 0 1 1 0 1 1 0 2 1 0 1 2 0 2 1 1 0 1 0 1 0 1 3 1 1 0 2 3 0 0 1 1 2 1 2 0 0 1 1 0 1 1 1 2 2 1 0 1 1 1 1 4 1 2 1 0 1 0 0 1 0 0 1 1 1 0 2 2 2 2 1 0 1 0 0 1 0 0 0 0 0 2 1 1 0 0 0 1 0 1 1 0 1 1 0 0 2 1 4 0 0 1 1 1 1 0 0 3 2 0 1 3 1 1 2 1 0 0 0 0 0 2 1 2 0 0 0 1 1 0 0 0 1 2 0 0 0 1 0 1 2 0 0 2 2 2 3 1 0 1 1 0 1 1 1 2 0 0 2 2 1 0 2 0 1 1 0 1 0 0 0 2 0 1 0 1 3 0 2 1 1 2 2 1 0 1 1 1 2 0 3 0 1 0 1 0 0 0 2 0 0 2 0 2 1 1 0 2 0 1 1 1 1 0 0 0 1 0 0 0 0 1 1 2 3 1 0 0 0 0 0 2 3 0 0 2 1 0 1 2 1 1 0 1 0 0 1 0 0 0 0 0 1 1 3 0 0 2 1 0 1 1 1 1 0 0 2 0 0 0 1 1 2 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 2 2 0 0 1 0 1 1 1 2 0 0 3 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 1 1 1 0 0 1 1 2 1</t>
   </si>
   <si>
     <t>R.Tannehill</t>
@@ -318,12 +318,12 @@
     <t>A.Brown</t>
   </si>
   <si>
+    <t>D.Foreman</t>
+  </si>
+  <si>
     <t>J.Jones</t>
   </si>
   <si>
-    <t>D.Foreman</t>
-  </si>
-  <si>
     <t>D.Hilliard</t>
   </si>
   <si>
@@ -342,10 +342,10 @@
     <t>J.McNichols</t>
   </si>
   <si>
+    <t>M.Pruitt</t>
+  </si>
+  <si>
     <t>M.Johnson</t>
-  </si>
-  <si>
-    <t>M.Pruitt</t>
   </si>
   <si>
     <t>D.Fitzpatrick</t>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62.6</v>
+        <v>61.8</v>
       </c>
       <c r="C2">
-        <v>36.5</v>
+        <v>37.4</v>
       </c>
       <c r="D2">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -803,7 +803,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -812,10 +812,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>6.6</v>
+        <v>6.53</v>
       </c>
       <c r="L2">
-        <v>4.42</v>
+        <v>4.38</v>
       </c>
     </row>
   </sheetData>
@@ -871,19 +871,19 @@
         <v>32.6</v>
       </c>
       <c r="E2">
-        <v>253.8</v>
+        <v>254.23</v>
       </c>
       <c r="F2">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G2">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="H2">
-        <v>100.07</v>
+        <v>100.22</v>
       </c>
       <c r="I2">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1009,13 +1009,13 @@
         <v>32.6</v>
       </c>
       <c r="E2">
-        <v>253.79</v>
+        <v>254.21</v>
       </c>
       <c r="F2">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G2">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="H2">
         <v>0.06</v>
@@ -1024,16 +1024,16 @@
         <v>2.1</v>
       </c>
       <c r="J2">
-        <v>5.84</v>
+        <v>5.72</v>
       </c>
       <c r="K2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L2">
         <v>0.04</v>
       </c>
       <c r="M2">
-        <v>16.32</v>
+        <v>16.31</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1065,7 +1065,7 @@
         <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -1133,13 +1133,13 @@
         <v>54</v>
       </c>
       <c r="C2">
-        <v>4.85</v>
+        <v>4.87</v>
       </c>
       <c r="D2">
-        <v>58.3</v>
+        <v>58.38</v>
       </c>
       <c r="E2">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="F2">
         <v>0.11</v>
@@ -1148,7 +1148,7 @@
         <v>2.8</v>
       </c>
       <c r="H2">
-        <v>11.53</v>
+        <v>11.6</v>
       </c>
       <c r="I2">
         <v>0.1</v>
@@ -1157,10 +1157,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>14.32</v>
+        <v>14.45</v>
       </c>
       <c r="L2">
-        <v>9.470000000000001</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1171,10 +1171,10 @@
         <v>55</v>
       </c>
       <c r="C3">
-        <v>5.29</v>
+        <v>5.32</v>
       </c>
       <c r="D3">
-        <v>63.3</v>
+        <v>63.61</v>
       </c>
       <c r="E3">
         <v>0.39</v>
@@ -1186,7 +1186,7 @@
         <v>0.1</v>
       </c>
       <c r="H3">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>13.88</v>
+        <v>13.93</v>
       </c>
       <c r="L3">
-        <v>8.59</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1212,31 +1212,31 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>11.24</v>
+        <v>11.25</v>
       </c>
       <c r="E4">
         <v>0.07000000000000001</v>
       </c>
       <c r="F4">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G4">
         <v>10.8</v>
       </c>
       <c r="H4">
-        <v>44.85</v>
+        <v>44.67</v>
       </c>
       <c r="I4">
         <v>0.36</v>
       </c>
       <c r="J4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8.84</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="L4">
-        <v>7.84</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1250,7 +1250,7 @@
         <v>3.16</v>
       </c>
       <c r="D5">
-        <v>38.36</v>
+        <v>38.39</v>
       </c>
       <c r="E5">
         <v>0.23</v>
@@ -1262,19 +1262,19 @@
         <v>0.4</v>
       </c>
       <c r="H5">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="I5">
         <v>0.01</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K5">
-        <v>8.529999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="L5">
-        <v>5.37</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1285,10 +1285,10 @@
         <v>58</v>
       </c>
       <c r="C6">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="D6">
-        <v>16.99</v>
+        <v>17.05</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="L6">
         <v>2.56</v>
@@ -1323,10 +1323,10 @@
         <v>59</v>
       </c>
       <c r="C7">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="D7">
-        <v>15.94</v>
+        <v>15.85</v>
       </c>
       <c r="E7">
         <v>0.1</v>
@@ -1338,7 +1338,7 @@
         <v>0.1</v>
       </c>
       <c r="H7">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="L7">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1364,19 +1364,19 @@
         <v>0.31</v>
       </c>
       <c r="D8">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="E8">
         <v>0.02</v>
       </c>
       <c r="F8">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G8">
         <v>4.6</v>
       </c>
       <c r="H8">
-        <v>18.85</v>
+        <v>18.9</v>
       </c>
       <c r="I8">
         <v>0.15</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1399,10 +1399,10 @@
         <v>61</v>
       </c>
       <c r="C9">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="D9">
-        <v>15.45</v>
+        <v>15.61</v>
       </c>
       <c r="E9">
         <v>0.09</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.37</v>
+        <v>3.43</v>
       </c>
       <c r="L9">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1440,7 +1440,7 @@
         <v>0.84</v>
       </c>
       <c r="D10">
-        <v>9.880000000000001</v>
+        <v>9.98</v>
       </c>
       <c r="E10">
         <v>0.06</v>
@@ -1452,7 +1452,7 @@
         <v>0.5</v>
       </c>
       <c r="H10">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I10">
         <v>0.02</v>
@@ -1475,13 +1475,13 @@
         <v>63</v>
       </c>
       <c r="C11">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="D11">
-        <v>11.33</v>
+        <v>11.05</v>
       </c>
       <c r="E11">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F11">
         <v>0.01</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="L11">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1516,7 +1516,7 @@
         <v>0.2</v>
       </c>
       <c r="D12">
-        <v>2.39</v>
+        <v>2.41</v>
       </c>
       <c r="E12">
         <v>0.01</v>
@@ -1528,7 +1528,7 @@
         <v>2.9</v>
       </c>
       <c r="H12">
-        <v>11.91</v>
+        <v>12.08</v>
       </c>
       <c r="I12">
         <v>0.1</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="L12">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1551,10 +1551,10 @@
         <v>65</v>
       </c>
       <c r="C13">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="D13">
-        <v>3.76</v>
+        <v>3.83</v>
       </c>
       <c r="E13">
         <v>0.02</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="L13">
         <v>0.51</v>
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="L14">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1783,7 +1783,7 @@
         <v>2.19</v>
       </c>
       <c r="D2">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="E2">
         <v>1.14</v>
@@ -1792,13 +1792,13 @@
         <v>1.3</v>
       </c>
       <c r="G2">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="H2">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I2">
-        <v>7.74</v>
+        <v>7.78</v>
       </c>
     </row>
   </sheetData>
@@ -1845,28 +1845,28 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="C2">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>32.6</v>
       </c>
       <c r="E2">
-        <v>234.95</v>
+        <v>234.38</v>
       </c>
       <c r="F2">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G2">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="H2">
-        <v>104.24</v>
+        <v>104.75</v>
       </c>
       <c r="I2">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1986,28 +1986,28 @@
         <v>93</v>
       </c>
       <c r="C2">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>32.6</v>
       </c>
       <c r="E2">
-        <v>234.95</v>
+        <v>234.35</v>
       </c>
       <c r="F2">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G2">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="H2">
         <v>0.11</v>
       </c>
       <c r="I2">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J2">
-        <v>8.07</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K2">
         <v>0.07000000000000001</v>
@@ -2016,7 +2016,7 @@
         <v>0.06</v>
       </c>
       <c r="M2">
-        <v>14.63</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2198,10 +2198,10 @@
         <v>97</v>
       </c>
       <c r="C2">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="D2">
-        <v>59.14</v>
+        <v>59.34</v>
       </c>
       <c r="E2">
         <v>0.31</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K2">
-        <v>13.36</v>
+        <v>13.4</v>
       </c>
       <c r="L2">
-        <v>7.57</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2236,34 +2236,34 @@
         <v>98</v>
       </c>
       <c r="C3">
-        <v>3.52</v>
+        <v>0.57</v>
       </c>
       <c r="D3">
-        <v>36.08</v>
+        <v>5.78</v>
       </c>
       <c r="E3">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="F3">
-        <v>0.07000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>51.07</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="J3">
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>8.08</v>
+        <v>8.23</v>
       </c>
       <c r="L3">
-        <v>4.56</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2274,34 +2274,34 @@
         <v>99</v>
       </c>
       <c r="C4">
-        <v>0.57</v>
+        <v>3.56</v>
       </c>
       <c r="D4">
-        <v>5.83</v>
+        <v>36.23</v>
       </c>
       <c r="E4">
-        <v>0.03</v>
+        <v>0.19</v>
       </c>
       <c r="F4">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>50.38</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>8.050000000000001</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="L4">
-        <v>7.48</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2312,34 +2312,34 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="D5">
-        <v>14.38</v>
+        <v>14.28</v>
       </c>
       <c r="E5">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F5">
         <v>0.17</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H5">
-        <v>28.47</v>
+        <v>28.15</v>
       </c>
       <c r="I5">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="J5">
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>7.05</v>
+        <v>7.07</v>
       </c>
       <c r="L5">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2350,13 +2350,13 @@
         <v>101</v>
       </c>
       <c r="C6">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="D6">
-        <v>20.56</v>
+        <v>20.35</v>
       </c>
       <c r="E6">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F6">
         <v>0.04</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.66</v>
+        <v>4.58</v>
       </c>
       <c r="L6">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2388,10 +2388,10 @@
         <v>102</v>
       </c>
       <c r="C7">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="D7">
-        <v>19.28</v>
+        <v>19.08</v>
       </c>
       <c r="E7">
         <v>0.09</v>
@@ -2403,7 +2403,7 @@
         <v>0.1</v>
       </c>
       <c r="H7">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="L7">
         <v>2.48</v>
@@ -2426,16 +2426,16 @@
         <v>103</v>
       </c>
       <c r="C8">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="D8">
-        <v>18.85</v>
+        <v>18.93</v>
       </c>
       <c r="E8">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F8">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.26</v>
+        <v>4.29</v>
       </c>
       <c r="L8">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2464,13 +2464,13 @@
         <v>104</v>
       </c>
       <c r="C9">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="D9">
-        <v>16.65</v>
+        <v>16.54</v>
       </c>
       <c r="E9">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F9">
         <v>0.03</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L9">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2502,22 +2502,22 @@
         <v>105</v>
       </c>
       <c r="C10">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="D10">
-        <v>10.26</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E10">
         <v>0.05</v>
       </c>
       <c r="F10">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10">
         <v>2.4</v>
       </c>
       <c r="H10">
-        <v>9.77</v>
+        <v>9.9</v>
       </c>
       <c r="I10">
         <v>0.07000000000000001</v>
@@ -2526,10 +2526,10 @@
         <v>0.01</v>
       </c>
       <c r="K10">
-        <v>3.63</v>
+        <v>3.57</v>
       </c>
       <c r="L10">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2540,34 +2540,34 @@
         <v>106</v>
       </c>
       <c r="C11">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="D11">
-        <v>9.92</v>
+        <v>10.37</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F11">
         <v>0.02</v>
       </c>
       <c r="G11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.39</v>
+        <v>2.36</v>
       </c>
       <c r="L11">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2578,10 +2578,10 @@
         <v>107</v>
       </c>
       <c r="C12">
-        <v>1.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D12">
-        <v>10.54</v>
+        <v>9.91</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -2590,22 +2590,22 @@
         <v>0.02</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="L12">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2619,7 +2619,7 @@
         <v>0.44</v>
       </c>
       <c r="D13">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="E13">
         <v>0.02</v>
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="L13">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2657,7 +2657,7 @@
         <v>0.43</v>
       </c>
       <c r="D14">
-        <v>4.32</v>
+        <v>4.41</v>
       </c>
       <c r="E14">
         <v>0.02</v>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2695,7 +2695,7 @@
         <v>0.15</v>
       </c>
       <c r="D15">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="E15">
         <v>0.01</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="L15">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2739,25 +2739,25 @@
         <v>0.01</v>
       </c>
       <c r="F16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0.1</v>
       </c>
       <c r="H16">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="L16">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2771,7 +2771,7 @@
         <v>0.15</v>
       </c>
       <c r="D17">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="E17">
         <v>0.01</v>
@@ -2792,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="L17">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2821,7 +2821,7 @@
         <v>0.4</v>
       </c>
       <c r="H18">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="I18">
         <v>0.01</v>
@@ -2830,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="L18">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2859,7 +2859,7 @@
         <v>0.3</v>
       </c>
       <c r="H19">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="I19">
         <v>0.01</v>
@@ -2868,10 +2868,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="L19">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3073,25 +3073,25 @@
         <v>119</v>
       </c>
       <c r="C2">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="D2">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="E2">
         <v>1.02</v>
       </c>
       <c r="F2">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="G2">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="I2">
-        <v>6.34</v>
+        <v>6.31</v>
       </c>
     </row>
   </sheetData>
